--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB175"/>
+  <dimension ref="A1:BB213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37633,6 +37633,8444 @@
         <v>840063202351</v>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>72</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>S00320271</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
+        <v>70603051</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>3850803268</t>
+        </is>
+      </c>
+      <c r="P176" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>4/7/2025 9:31:55 AM</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W176" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y176" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB176" t="inlineStr"/>
+      <c r="AC176" t="inlineStr"/>
+      <c r="AD176" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE176" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF176" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG176" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH176" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI176" t="inlineStr">
+        <is>
+          <t>A640416</t>
+        </is>
+      </c>
+      <c r="AJ176" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK176" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="AM176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="AN176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="AO176" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP176" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ176" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR176" t="inlineStr"/>
+      <c r="AS176" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT176" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU176" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>181.8813</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>181.8813</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>0.2823</v>
+      </c>
+      <c r="AZ176" t="inlineStr">
+        <is>
+          <t>A640416</t>
+        </is>
+      </c>
+      <c r="BA176" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>72</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>S00320272</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
+        <v>70603048</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>3150832907</t>
+        </is>
+      </c>
+      <c r="P177" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>4/7/2025 9:31:55 AM</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr"/>
+      <c r="U177" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W177" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y177" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB177" t="inlineStr"/>
+      <c r="AC177" t="inlineStr"/>
+      <c r="AD177" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE177" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF177" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG177" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH177" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI177" t="inlineStr">
+        <is>
+          <t>A640414</t>
+        </is>
+      </c>
+      <c r="AJ177" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK177" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="AM177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="AN177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="AO177" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP177" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ177" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR177" t="inlineStr"/>
+      <c r="AS177" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT177" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU177" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>181.8814</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>181.8814</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>0.2823</v>
+      </c>
+      <c r="AZ177" t="inlineStr">
+        <is>
+          <t>A640414</t>
+        </is>
+      </c>
+      <c r="BA177" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>72</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>S00320272</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
+        <v>70603048</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>3150832907</t>
+        </is>
+      </c>
+      <c r="P178" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>4/7/2025 9:31:55 AM</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W178" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y178" t="n">
+        <v>30858847</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB178" t="inlineStr"/>
+      <c r="AC178" t="inlineStr"/>
+      <c r="AD178" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE178" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF178" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG178" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH178" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI178" t="inlineStr">
+        <is>
+          <t>A640414</t>
+        </is>
+      </c>
+      <c r="AJ178" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK178" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="AM178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="AN178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="AO178" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP178" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ178" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR178" t="inlineStr"/>
+      <c r="AS178" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT178" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU178" t="n">
+        <v>110.8760521691354</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>110.8760521691354</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>550.2738000000001</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>550.2738000000001</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>1.3197</v>
+      </c>
+      <c r="AZ178" t="inlineStr">
+        <is>
+          <t>A640414</t>
+        </is>
+      </c>
+      <c r="BA178" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>840063202351</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>72</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>S00320272</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>70603048</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>3150832907</t>
+        </is>
+      </c>
+      <c r="P179" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>4/7/2025 9:31:55 AM</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W179" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>TAT1138BK/00</t>
+        </is>
+      </c>
+      <c r="Y179" t="n">
+        <v>50466375</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB179" t="inlineStr"/>
+      <c r="AC179" t="inlineStr"/>
+      <c r="AD179" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE179" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF179" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG179" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH179" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI179" t="inlineStr">
+        <is>
+          <t>A640414</t>
+        </is>
+      </c>
+      <c r="AJ179" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK179" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="AM179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="AN179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="AO179" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP179" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ179" t="inlineStr">
+        <is>
+          <t>TWS, 13mm driver, 1 AI mic, IPX4, SBC, 1</t>
+        </is>
+      </c>
+      <c r="AR179" t="inlineStr"/>
+      <c r="AS179" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT179" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU179" t="n">
+        <v>0.2197119647410777</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>0.2197119647410777</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>3.2408</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>3.2408</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="AZ179" t="inlineStr">
+        <is>
+          <t>A640414</t>
+        </is>
+      </c>
+      <c r="BA179" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>840063203167</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>72</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>S00320273</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>70603049</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>4001223325</t>
+        </is>
+      </c>
+      <c r="P180" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>4/7/2025 9:31:56 AM</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W180" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y180" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB180" t="inlineStr"/>
+      <c r="AC180" t="inlineStr"/>
+      <c r="AD180" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE180" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF180" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG180" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH180" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI180" t="inlineStr">
+        <is>
+          <t>A640415</t>
+        </is>
+      </c>
+      <c r="AJ180" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK180" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="AM180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="AN180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/11/2025 </t>
+        </is>
+      </c>
+      <c r="AO180" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP180" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ180" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR180" t="inlineStr"/>
+      <c r="AS180" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT180" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU180" t="n">
+        <v>13.61020192512824</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>13.61020192512824</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>109.1288</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>109.1288</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>0.1694</v>
+      </c>
+      <c r="AZ180" t="inlineStr">
+        <is>
+          <t>A640415</t>
+        </is>
+      </c>
+      <c r="BA180" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>BEST BUY CANADA LTD</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>BES005</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>BEST BUY CANADA LTD</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>19890-92A AVE.</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>LANGLEY</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>V1M 3A9</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>S00321929</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>70608612</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>58659931</t>
+        </is>
+      </c>
+      <c r="P181" s="2" t="n">
+        <v>45757</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>4/10/2025 4:55:28 PM</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/22/2025 </t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/22/2025 </t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W181" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y181" t="n">
+        <v>18597408</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB181" t="inlineStr"/>
+      <c r="AC181" t="inlineStr"/>
+      <c r="AD181" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE181" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF181" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG181" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH181" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI181" t="inlineStr">
+        <is>
+          <t>A640753</t>
+        </is>
+      </c>
+      <c r="AJ181" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK181" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/22/2025 </t>
+        </is>
+      </c>
+      <c r="AM181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/22/2025 </t>
+        </is>
+      </c>
+      <c r="AN181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/22/2025 </t>
+        </is>
+      </c>
+      <c r="AO181" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP181" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ181" t="inlineStr">
+        <is>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+        </is>
+      </c>
+      <c r="AR181" t="inlineStr"/>
+      <c r="AS181" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT181" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU181" t="n">
+        <v>19.29505102995333</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>19.29505102995333</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>218.2576</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>218.2576</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>0.4546</v>
+      </c>
+      <c r="AZ181" t="inlineStr">
+        <is>
+          <t>A640753</t>
+        </is>
+      </c>
+      <c r="BA181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>840063203563</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>72</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>S00322538</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>70613432</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>4001223355</t>
+        </is>
+      </c>
+      <c r="P182" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>4/14/2025 8:49:10 AM</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/17/2025 </t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/17/2025 </t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W182" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y182" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB182" t="inlineStr"/>
+      <c r="AC182" t="inlineStr"/>
+      <c r="AD182" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE182" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF182" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG182" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH182" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI182" t="inlineStr">
+        <is>
+          <t>A640963</t>
+        </is>
+      </c>
+      <c r="AJ182" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK182" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/17/2025 </t>
+        </is>
+      </c>
+      <c r="AM182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/17/2025 </t>
+        </is>
+      </c>
+      <c r="AN182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/17/2025 </t>
+        </is>
+      </c>
+      <c r="AO182" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP182" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ182" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR182" t="inlineStr"/>
+      <c r="AS182" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT182" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU182" t="n">
+        <v>13.61020192512824</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>13.61020192512824</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>109.1288</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>109.1288</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>0.1694</v>
+      </c>
+      <c r="AZ182" t="inlineStr">
+        <is>
+          <t>A640963</t>
+        </is>
+      </c>
+      <c r="BA182" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>72</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>S00322539</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>70613430</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>3150832937</t>
+        </is>
+      </c>
+      <c r="P183" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>4/14/2025 8:49:11 AM</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/17/2025 </t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/17/2025 </t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W183" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y183" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB183" t="inlineStr"/>
+      <c r="AC183" t="inlineStr"/>
+      <c r="AD183" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE183" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF183" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG183" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH183" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI183" t="inlineStr">
+        <is>
+          <t>A640962</t>
+        </is>
+      </c>
+      <c r="AJ183" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK183" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/17/2025 </t>
+        </is>
+      </c>
+      <c r="AM183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/17/2025 </t>
+        </is>
+      </c>
+      <c r="AN183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/17/2025 </t>
+        </is>
+      </c>
+      <c r="AO183" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP183" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ183" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR183" t="inlineStr"/>
+      <c r="AS183" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT183" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU183" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>181.8813</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>181.8813</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>0.2823</v>
+      </c>
+      <c r="AZ183" t="inlineStr">
+        <is>
+          <t>A640962</t>
+        </is>
+      </c>
+      <c r="BA183" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>72</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>S00323638</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>70624543</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>3150832971</t>
+        </is>
+      </c>
+      <c r="P184" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>4/21/2025 10:37:19 AM</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/24/2025 </t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/24/2025 </t>
+        </is>
+      </c>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W184" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y184" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB184" t="inlineStr"/>
+      <c r="AC184" t="inlineStr"/>
+      <c r="AD184" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE184" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF184" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG184" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH184" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI184" t="inlineStr">
+        <is>
+          <t>A641598</t>
+        </is>
+      </c>
+      <c r="AJ184" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK184" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/24/2025 </t>
+        </is>
+      </c>
+      <c r="AM184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/24/2025 </t>
+        </is>
+      </c>
+      <c r="AN184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/24/2025 </t>
+        </is>
+      </c>
+      <c r="AO184" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP184" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ184" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR184" t="inlineStr"/>
+      <c r="AS184" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT184" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU184" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>181.8814</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>181.8814</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>0.2823</v>
+      </c>
+      <c r="AZ184" t="inlineStr">
+        <is>
+          <t>A641598</t>
+        </is>
+      </c>
+      <c r="BA184" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>72</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>S00323638</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>70624543</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>3150832971</t>
+        </is>
+      </c>
+      <c r="P185" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>4/21/2025 10:37:19 AM</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/24/2025 </t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/24/2025 </t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W185" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y185" t="n">
+        <v>30858847</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB185" t="inlineStr"/>
+      <c r="AC185" t="inlineStr"/>
+      <c r="AD185" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE185" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF185" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG185" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH185" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI185" t="inlineStr">
+        <is>
+          <t>A641598</t>
+        </is>
+      </c>
+      <c r="AJ185" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK185" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/24/2025 </t>
+        </is>
+      </c>
+      <c r="AM185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/24/2025 </t>
+        </is>
+      </c>
+      <c r="AN185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/24/2025 </t>
+        </is>
+      </c>
+      <c r="AO185" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP185" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ185" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR185" t="inlineStr"/>
+      <c r="AS185" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT185" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU185" t="n">
+        <v>110.8760521691354</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>110.8760521691354</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>550.2747000000001</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>550.2747000000001</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>1.3198</v>
+      </c>
+      <c r="AZ185" t="inlineStr">
+        <is>
+          <t>A641598</t>
+        </is>
+      </c>
+      <c r="BA185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>840063202351</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>72</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>S00323639</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>70624545</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>3850803314</t>
+        </is>
+      </c>
+      <c r="P186" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>4/21/2025 10:37:19 AM</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/24/2025 </t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/24/2025 </t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W186" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y186" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB186" t="inlineStr"/>
+      <c r="AC186" t="inlineStr"/>
+      <c r="AD186" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE186" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF186" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG186" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH186" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI186" t="inlineStr">
+        <is>
+          <t>A641663</t>
+        </is>
+      </c>
+      <c r="AJ186" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK186" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/24/2025 </t>
+        </is>
+      </c>
+      <c r="AM186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/24/2025 </t>
+        </is>
+      </c>
+      <c r="AN186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4/24/2025 </t>
+        </is>
+      </c>
+      <c r="AO186" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP186" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ186" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR186" t="inlineStr"/>
+      <c r="AS186" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT186" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU186" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>181.8813</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>181.8813</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>0.2823</v>
+      </c>
+      <c r="AZ186" t="inlineStr">
+        <is>
+          <t>A641663</t>
+        </is>
+      </c>
+      <c r="BA186" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>72</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>S00325262</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>70637874</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>3850803342</t>
+        </is>
+      </c>
+      <c r="P187" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>4/28/2025 9:40:37 AM</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/2/2025 </t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/2/2025 </t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W187" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y187" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB187" t="inlineStr"/>
+      <c r="AC187" t="inlineStr"/>
+      <c r="AD187" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE187" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF187" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG187" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH187" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI187" t="inlineStr">
+        <is>
+          <t>A642363</t>
+        </is>
+      </c>
+      <c r="AJ187" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK187" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/2/2025 </t>
+        </is>
+      </c>
+      <c r="AM187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/2/2025 </t>
+        </is>
+      </c>
+      <c r="AN187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/2/2025 </t>
+        </is>
+      </c>
+      <c r="AO187" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP187" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ187" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR187" t="inlineStr"/>
+      <c r="AS187" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT187" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU187" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>181.8813</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>181.8813</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>0.2823</v>
+      </c>
+      <c r="AZ187" t="inlineStr">
+        <is>
+          <t>A642363</t>
+        </is>
+      </c>
+      <c r="BA187" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>72</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>S00325263</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>70637872</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>4001223423</t>
+        </is>
+      </c>
+      <c r="P188" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>4/28/2025 9:40:37 AM</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/2/2025 </t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/2/2025 </t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W188" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y188" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB188" t="inlineStr"/>
+      <c r="AC188" t="inlineStr"/>
+      <c r="AD188" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE188" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF188" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG188" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH188" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI188" t="inlineStr">
+        <is>
+          <t>A642361</t>
+        </is>
+      </c>
+      <c r="AJ188" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK188" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/2/2025 </t>
+        </is>
+      </c>
+      <c r="AM188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/2/2025 </t>
+        </is>
+      </c>
+      <c r="AN188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/2/2025 </t>
+        </is>
+      </c>
+      <c r="AO188" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP188" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ188" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR188" t="inlineStr"/>
+      <c r="AS188" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT188" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU188" t="n">
+        <v>13.61020192512824</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>13.61020192512824</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>109.1288</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>109.1288</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>0.1694</v>
+      </c>
+      <c r="AZ188" t="inlineStr">
+        <is>
+          <t>A642361</t>
+        </is>
+      </c>
+      <c r="BA188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>72</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>S00325264</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>70637871</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>3150833004</t>
+        </is>
+      </c>
+      <c r="P189" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>4/28/2025 9:40:38 AM</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/1/2025 </t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/1/2025 </t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W189" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y189" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB189" t="inlineStr"/>
+      <c r="AC189" t="inlineStr"/>
+      <c r="AD189" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE189" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF189" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG189" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH189" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI189" t="inlineStr">
+        <is>
+          <t>A642356</t>
+        </is>
+      </c>
+      <c r="AJ189" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK189" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/1/2025 </t>
+        </is>
+      </c>
+      <c r="AM189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/1/2025 </t>
+        </is>
+      </c>
+      <c r="AN189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO189" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP189" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ189" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR189" t="inlineStr"/>
+      <c r="AS189" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT189" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU189" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>181.8814</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>181.8814</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>0.2823</v>
+      </c>
+      <c r="AZ189" t="inlineStr">
+        <is>
+          <t>A642356</t>
+        </is>
+      </c>
+      <c r="BA189" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>72</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>S00325264</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>70637871</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>3150833004</t>
+        </is>
+      </c>
+      <c r="P190" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>4/28/2025 9:40:38 AM</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/1/2025 </t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/1/2025 </t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W190" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="X190" t="inlineStr">
+        <is>
+          <t>TAT1138BK/00</t>
+        </is>
+      </c>
+      <c r="Y190" t="n">
+        <v>50466375</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB190" t="inlineStr"/>
+      <c r="AC190" t="inlineStr"/>
+      <c r="AD190" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE190" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF190" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG190" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH190" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI190" t="inlineStr">
+        <is>
+          <t>A642356</t>
+        </is>
+      </c>
+      <c r="AJ190" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK190" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/1/2025 </t>
+        </is>
+      </c>
+      <c r="AM190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/1/2025 </t>
+        </is>
+      </c>
+      <c r="AN190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO190" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP190" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ190" t="inlineStr">
+        <is>
+          <t>TWS, 13mm driver, 1 AI mic, IPX4, SBC, 1</t>
+        </is>
+      </c>
+      <c r="AR190" t="inlineStr"/>
+      <c r="AS190" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT190" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU190" t="n">
+        <v>0.1757695717928621</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>0.1757695717928621</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>2.5926</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>2.5926</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="AZ190" t="inlineStr">
+        <is>
+          <t>A642356</t>
+        </is>
+      </c>
+      <c r="BA190" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>840063203167</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>BEST BUY CANADA LTD</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>BES005</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>BEST BUY CANADA LTD</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>9200 AIRPORT RD.</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>L6S 6G6</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>S00325861</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>70640499</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>58742722</t>
+        </is>
+      </c>
+      <c r="P191" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>4/29/2025 2:44:33 PM</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/2/2025 </t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/2/2025 </t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W191" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y191" t="n">
+        <v>18597408</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB191" t="inlineStr"/>
+      <c r="AC191" t="inlineStr"/>
+      <c r="AD191" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE191" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF191" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG191" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH191" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI191" t="inlineStr">
+        <is>
+          <t>A642534</t>
+        </is>
+      </c>
+      <c r="AJ191" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK191" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/2/2025 </t>
+        </is>
+      </c>
+      <c r="AM191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/2/2025 </t>
+        </is>
+      </c>
+      <c r="AN191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/2/2025 </t>
+        </is>
+      </c>
+      <c r="AO191" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP191" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ191" t="inlineStr">
+        <is>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+        </is>
+      </c>
+      <c r="AR191" t="inlineStr"/>
+      <c r="AS191" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT191" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU191" t="n">
+        <v>12.86336735330222</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>12.86336735330222</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>145.5051</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>145.5051</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="AZ191" t="inlineStr">
+        <is>
+          <t>A642534</t>
+        </is>
+      </c>
+      <c r="BA191" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>840063203563</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>72</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>S00327094</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>70649274</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>3150833021</t>
+        </is>
+      </c>
+      <c r="P192" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>5/5/2025 9:44:58 AM</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/9/2025 </t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/9/2025 </t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W192" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="X192" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y192" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB192" t="inlineStr"/>
+      <c r="AC192" t="inlineStr"/>
+      <c r="AD192" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE192" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF192" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG192" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH192" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI192" t="inlineStr">
+        <is>
+          <t>A643025</t>
+        </is>
+      </c>
+      <c r="AJ192" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK192" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/9/2025 </t>
+        </is>
+      </c>
+      <c r="AM192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/9/2025 </t>
+        </is>
+      </c>
+      <c r="AN192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/9/2025 </t>
+        </is>
+      </c>
+      <c r="AO192" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP192" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ192" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR192" t="inlineStr"/>
+      <c r="AS192" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT192" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU192" t="n">
+        <v>13.61020192512824</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>13.61020192512824</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>109.1288</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>109.1288</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>0.1694</v>
+      </c>
+      <c r="AZ192" t="inlineStr">
+        <is>
+          <t>A643025</t>
+        </is>
+      </c>
+      <c r="BA192" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>72</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>S00327095</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>70649275</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>3850803372</t>
+        </is>
+      </c>
+      <c r="P193" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>5/5/2025 9:44:59 AM</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/9/2025 </t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/9/2025 </t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" s="2" t="n">
+        <v>45797</v>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W193" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y193" t="n">
+        <v>30858847</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB193" t="inlineStr"/>
+      <c r="AC193" t="inlineStr"/>
+      <c r="AD193" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE193" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF193" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG193" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH193" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI193" t="inlineStr">
+        <is>
+          <t>A643027</t>
+        </is>
+      </c>
+      <c r="AJ193" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK193" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/9/2025 </t>
+        </is>
+      </c>
+      <c r="AM193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/9/2025 </t>
+        </is>
+      </c>
+      <c r="AN193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/9/2025 </t>
+        </is>
+      </c>
+      <c r="AO193" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP193" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ193" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR193" t="inlineStr"/>
+      <c r="AS193" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT193" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU193" t="n">
+        <v>22.17521043382708</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>22.17521043382708</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>110.0548</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>110.0548</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="AZ193" t="inlineStr">
+        <is>
+          <t>A643027</t>
+        </is>
+      </c>
+      <c r="BA193" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>840063202351</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>72</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>S00328977</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>70660486</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>4001223482</t>
+        </is>
+      </c>
+      <c r="P194" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>5/12/2025 9:03:42 AM</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/15/2025 </t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/15/2025 </t>
+        </is>
+      </c>
+      <c r="T194" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="U194" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W194" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="X194" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y194" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB194" t="inlineStr"/>
+      <c r="AC194" t="inlineStr"/>
+      <c r="AD194" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE194" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF194" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG194" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH194" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI194" t="inlineStr">
+        <is>
+          <t>A643741</t>
+        </is>
+      </c>
+      <c r="AJ194" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK194" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/15/2025 </t>
+        </is>
+      </c>
+      <c r="AM194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/15/2025 </t>
+        </is>
+      </c>
+      <c r="AN194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/15/2025 </t>
+        </is>
+      </c>
+      <c r="AO194" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP194" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ194" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR194" t="inlineStr"/>
+      <c r="AS194" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT194" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU194" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>181.8814</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>181.8814</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>0.2823</v>
+      </c>
+      <c r="AZ194" t="inlineStr">
+        <is>
+          <t>A643741</t>
+        </is>
+      </c>
+      <c r="BA194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>72</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>S00328978</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>70660487</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>3850803410</t>
+        </is>
+      </c>
+      <c r="P195" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>5/12/2025 9:03:42 AM</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/15/2025 </t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/15/2025 </t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" s="2" t="n">
+        <v>45801</v>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W195" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y195" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB195" t="inlineStr"/>
+      <c r="AC195" t="inlineStr"/>
+      <c r="AD195" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE195" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF195" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG195" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH195" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI195" t="inlineStr">
+        <is>
+          <t>A643743</t>
+        </is>
+      </c>
+      <c r="AJ195" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK195" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/15/2025 </t>
+        </is>
+      </c>
+      <c r="AM195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/15/2025 </t>
+        </is>
+      </c>
+      <c r="AN195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/15/2025 </t>
+        </is>
+      </c>
+      <c r="AO195" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP195" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ195" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR195" t="inlineStr"/>
+      <c r="AS195" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT195" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU195" t="n">
+        <v>31.75713782529924</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>31.75713782529924</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>254.6339</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>254.6339</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>0.3952</v>
+      </c>
+      <c r="AZ195" t="inlineStr">
+        <is>
+          <t>A643743</t>
+        </is>
+      </c>
+      <c r="BA195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>72</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>S00328979</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>70660485</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>3150833057</t>
+        </is>
+      </c>
+      <c r="P196" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>5/12/2025 9:03:42 AM</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/15/2025 </t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/15/2025 </t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W196" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="X196" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y196" t="n">
+        <v>30858847</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB196" t="inlineStr"/>
+      <c r="AC196" t="inlineStr"/>
+      <c r="AD196" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE196" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF196" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG196" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH196" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI196" t="inlineStr">
+        <is>
+          <t>A643737</t>
+        </is>
+      </c>
+      <c r="AJ196" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK196" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/15/2025 </t>
+        </is>
+      </c>
+      <c r="AM196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/15/2025 </t>
+        </is>
+      </c>
+      <c r="AN196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/15/2025 </t>
+        </is>
+      </c>
+      <c r="AO196" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP196" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ196" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR196" t="inlineStr"/>
+      <c r="AS196" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT196" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU196" t="n">
+        <v>110.8760521691354</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>110.8760521691354</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>550.2738000000001</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>550.2738000000001</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>1.3198</v>
+      </c>
+      <c r="AZ196" t="inlineStr">
+        <is>
+          <t>A643737</t>
+        </is>
+      </c>
+      <c r="BA196" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>840063202351</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>72</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>S00330925</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>70672118</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>3150833093</t>
+        </is>
+      </c>
+      <c r="P197" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>5/19/2025 9:38:39 AM</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/22/2025 </t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/22/2025 </t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" s="2" t="n">
+        <v>45803</v>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W197" s="2" t="n">
+        <v>45799</v>
+      </c>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y197" t="n">
+        <v>30858847</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB197" t="inlineStr"/>
+      <c r="AC197" t="inlineStr"/>
+      <c r="AD197" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE197" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF197" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG197" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH197" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI197" t="inlineStr">
+        <is>
+          <t>A644209</t>
+        </is>
+      </c>
+      <c r="AJ197" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK197" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/22/2025 </t>
+        </is>
+      </c>
+      <c r="AM197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/22/2025 </t>
+        </is>
+      </c>
+      <c r="AN197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/22/2025 </t>
+        </is>
+      </c>
+      <c r="AO197" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP197" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ197" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR197" t="inlineStr"/>
+      <c r="AS197" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT197" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU197" t="n">
+        <v>110.8760521691354</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>110.8760521691354</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>550.2738000000001</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>550.2738000000001</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>1.3198</v>
+      </c>
+      <c r="AZ197" t="inlineStr">
+        <is>
+          <t>A644209</t>
+        </is>
+      </c>
+      <c r="BA197" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>840063202351</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>72</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>S00330927</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
+        <v>70672119</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>3850803434</t>
+        </is>
+      </c>
+      <c r="P198" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>5/19/2025 9:53:42 AM</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/23/2025 </t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/23/2025 </t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" s="2" t="n">
+        <v>45808</v>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W198" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="X198" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y198" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB198" t="inlineStr"/>
+      <c r="AC198" t="inlineStr"/>
+      <c r="AD198" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE198" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF198" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG198" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH198" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI198" t="inlineStr">
+        <is>
+          <t>A644215</t>
+        </is>
+      </c>
+      <c r="AJ198" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK198" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/23/2025 </t>
+        </is>
+      </c>
+      <c r="AM198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/23/2025 </t>
+        </is>
+      </c>
+      <c r="AN198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/23/2025 </t>
+        </is>
+      </c>
+      <c r="AO198" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP198" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ198" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR198" t="inlineStr"/>
+      <c r="AS198" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT198" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU198" t="n">
+        <v>13.61020192512824</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>13.61020192512824</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>109.1288</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>109.1288</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>0.1694</v>
+      </c>
+      <c r="AZ198" t="inlineStr">
+        <is>
+          <t>A644215</t>
+        </is>
+      </c>
+      <c r="BA198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>72</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>S00332470</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>70680795</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>4650520781</t>
+        </is>
+      </c>
+      <c r="P199" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>5/23/2025 5:09:22 PM</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/29/2025 </t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/29/2025 </t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr"/>
+      <c r="U199" s="2" t="n">
+        <v>45808</v>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W199" s="2" t="n">
+        <v>45806</v>
+      </c>
+      <c r="X199" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y199" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>275</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>275</v>
+      </c>
+      <c r="AB199" t="inlineStr"/>
+      <c r="AC199" t="inlineStr"/>
+      <c r="AD199" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE199" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF199" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG199" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH199" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A644828 </t>
+        </is>
+      </c>
+      <c r="AJ199" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK199" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/29/2025 </t>
+        </is>
+      </c>
+      <c r="AM199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/29/2025 </t>
+        </is>
+      </c>
+      <c r="AN199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/29/2025 </t>
+        </is>
+      </c>
+      <c r="AO199" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP199" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ199" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR199" t="inlineStr"/>
+      <c r="AS199" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT199" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU199" t="n">
+        <v>207.9336405227926</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>207.9336405227926</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>1667.2464</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>1667.2464</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>2.5884</v>
+      </c>
+      <c r="AZ199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A644828 </t>
+        </is>
+      </c>
+      <c r="BA199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>72</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>S00332472</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>70680797</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>4900522520</t>
+        </is>
+      </c>
+      <c r="P200" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>5/23/2025 5:09:23 PM</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/28/2025 </t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/28/2025 </t>
+        </is>
+      </c>
+      <c r="T200" s="2" t="n">
+        <v>45810</v>
+      </c>
+      <c r="U200" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W200" s="2" t="n">
+        <v>45805</v>
+      </c>
+      <c r="X200" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y200" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>284</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>284</v>
+      </c>
+      <c r="AB200" t="inlineStr"/>
+      <c r="AC200" t="inlineStr"/>
+      <c r="AD200" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE200" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF200" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG200" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH200" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI200" t="inlineStr">
+        <is>
+          <t>A645149</t>
+        </is>
+      </c>
+      <c r="AJ200" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK200" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/28/2025 </t>
+        </is>
+      </c>
+      <c r="AN200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO200" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP200" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ200" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR200" t="inlineStr"/>
+      <c r="AS200" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT200" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU200" t="n">
+        <v>214.7387414853567</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>214.7387414853567</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>1721.8101</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1721.8101</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>2.6724</v>
+      </c>
+      <c r="AZ200" t="inlineStr">
+        <is>
+          <t>A645149</t>
+        </is>
+      </c>
+      <c r="BA200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>BEST BUY CANADA LTD</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>BES005</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>BEST BUY CANADA LTD</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>L6S 6G6</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>S00335917</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>70700039</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>58865260</t>
+        </is>
+      </c>
+      <c r="P201" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>6/6/2025 12:50:44 PM</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6/12/2025 </t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6/12/2025 </t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr"/>
+      <c r="U201" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W201" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="X201" t="inlineStr">
+        <is>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y201" t="n">
+        <v>18597408</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB201" t="inlineStr"/>
+      <c r="AC201" t="inlineStr"/>
+      <c r="AD201" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE201" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF201" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG201" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH201" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI201" t="inlineStr">
+        <is>
+          <t>A646177</t>
+        </is>
+      </c>
+      <c r="AJ201" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK201" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6/12/2025 </t>
+        </is>
+      </c>
+      <c r="AM201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6/12/2025 </t>
+        </is>
+      </c>
+      <c r="AN201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6/12/2025 </t>
+        </is>
+      </c>
+      <c r="AO201" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP201" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ201" t="inlineStr">
+        <is>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+        </is>
+      </c>
+      <c r="AR201" t="inlineStr"/>
+      <c r="AS201" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT201" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU201" t="n">
+        <v>12.86336735330222</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>12.86336735330222</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>145.5051</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>145.5051</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="AZ201" t="inlineStr">
+        <is>
+          <t>A646177</t>
+        </is>
+      </c>
+      <c r="BA201" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>840063203563</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>72</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>S00337812</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>70715323</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>3850803561</t>
+        </is>
+      </c>
+      <c r="P202" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>6/16/2025 9:42:28 AM</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6/26/2025 </t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6/26/2025 </t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr"/>
+      <c r="U202" s="2" t="n">
+        <v>45836</v>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W202" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="X202" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y202" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB202" t="inlineStr"/>
+      <c r="AC202" t="inlineStr"/>
+      <c r="AD202" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE202" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF202" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG202" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH202" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI202" t="inlineStr">
+        <is>
+          <t>A647130</t>
+        </is>
+      </c>
+      <c r="AJ202" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK202" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6/26/2025 </t>
+        </is>
+      </c>
+      <c r="AM202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6/26/2025 </t>
+        </is>
+      </c>
+      <c r="AN202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6/26/2025 </t>
+        </is>
+      </c>
+      <c r="AO202" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP202" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ202" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR202" t="inlineStr"/>
+      <c r="AS202" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT202" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU202" t="n">
+        <v>13.61020192512824</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>13.61020192512824</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>109.1289</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>109.1289</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>0.1224</v>
+      </c>
+      <c r="AZ202" t="inlineStr">
+        <is>
+          <t>A647130</t>
+        </is>
+      </c>
+      <c r="BA202" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>72</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>S00337812</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>70715323</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>3850803561</t>
+        </is>
+      </c>
+      <c r="P203" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>6/16/2025 9:42:28 AM</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6/26/2025 </t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6/26/2025 </t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr"/>
+      <c r="U203" s="2" t="n">
+        <v>45836</v>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W203" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="X203" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y203" t="n">
+        <v>30858847</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB203" t="inlineStr"/>
+      <c r="AC203" t="inlineStr"/>
+      <c r="AD203" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE203" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF203" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG203" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH203" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI203" t="inlineStr">
+        <is>
+          <t>A647130</t>
+        </is>
+      </c>
+      <c r="AJ203" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK203" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6/26/2025 </t>
+        </is>
+      </c>
+      <c r="AM203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6/26/2025 </t>
+        </is>
+      </c>
+      <c r="AN203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6/26/2025 </t>
+        </is>
+      </c>
+      <c r="AO203" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP203" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ203" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR203" t="inlineStr"/>
+      <c r="AS203" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT203" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU203" t="n">
+        <v>11.08760521691354</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>11.08760521691354</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>55.0274</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>55.0274</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="AZ203" t="inlineStr">
+        <is>
+          <t>A647130</t>
+        </is>
+      </c>
+      <c r="BA203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>840063202351</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>72</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>S00346205</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>70763229</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>3850803673</t>
+        </is>
+      </c>
+      <c r="P204" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>7/14/2025 9:34:16 AM</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/18/2025 </t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/18/2025 </t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr"/>
+      <c r="U204" s="2" t="n">
+        <v>45864</v>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W204" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y204" t="n">
+        <v>30858847</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB204" t="inlineStr"/>
+      <c r="AC204" t="inlineStr"/>
+      <c r="AD204" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE204" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF204" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG204" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH204" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI204" t="inlineStr">
+        <is>
+          <t>A649547</t>
+        </is>
+      </c>
+      <c r="AJ204" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK204" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/18/2025 </t>
+        </is>
+      </c>
+      <c r="AM204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/18/2025 </t>
+        </is>
+      </c>
+      <c r="AN204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/18/2025 </t>
+        </is>
+      </c>
+      <c r="AO204" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP204" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ204" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR204" t="inlineStr"/>
+      <c r="AS204" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT204" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU204" t="n">
+        <v>11.08760521691354</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>11.08760521691354</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>55.0274</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>55.0274</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="AZ204" t="inlineStr">
+        <is>
+          <t>A649547</t>
+        </is>
+      </c>
+      <c r="BA204" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>840063202351</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>BEST BUY CANADA LTD</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>BES005</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>BEST BUY CANADA LTD</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>L6S 6G6</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>S00347994</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>70771958</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>58986963</t>
+        </is>
+      </c>
+      <c r="P205" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>7/18/2025 10:34:05 AM</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/31/2025 </t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/31/2025 </t>
+        </is>
+      </c>
+      <c r="T205" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="U205" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W205" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="X205" t="inlineStr">
+        <is>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y205" t="n">
+        <v>18597408</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB205" t="inlineStr"/>
+      <c r="AC205" t="inlineStr"/>
+      <c r="AD205" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE205" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF205" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG205" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH205" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI205" t="inlineStr">
+        <is>
+          <t>A650538</t>
+        </is>
+      </c>
+      <c r="AJ205" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK205" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/31/2025 </t>
+        </is>
+      </c>
+      <c r="AM205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/31/2025 </t>
+        </is>
+      </c>
+      <c r="AN205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/31/2025 </t>
+        </is>
+      </c>
+      <c r="AO205" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP205" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ205" t="inlineStr">
+        <is>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+        </is>
+      </c>
+      <c r="AR205" t="inlineStr"/>
+      <c r="AS205" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT205" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU205" t="n">
+        <v>12.86336735330222</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>12.86336735330222</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>145.5051</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>145.5051</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="AZ205" t="inlineStr">
+        <is>
+          <t>A650538</t>
+        </is>
+      </c>
+      <c r="BA205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>840063203563</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>72</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>S00348364</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>70774743</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>4001223801</t>
+        </is>
+      </c>
+      <c r="P206" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>7/21/2025 10:27:43 AM</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/28/2025 </t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/28/2025 </t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W206" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="X206" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y206" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB206" t="inlineStr"/>
+      <c r="AC206" t="inlineStr"/>
+      <c r="AD206" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE206" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF206" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG206" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH206" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI206" t="inlineStr">
+        <is>
+          <t>A650111</t>
+        </is>
+      </c>
+      <c r="AJ206" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK206" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/28/2025 </t>
+        </is>
+      </c>
+      <c r="AN206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO206" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP206" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ206" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR206" t="inlineStr"/>
+      <c r="AS206" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT206" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU206" t="n">
+        <v>45.36733975042748</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>45.36733975042748</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>363.6</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>363.6</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>0.8334</v>
+      </c>
+      <c r="AZ206" t="inlineStr">
+        <is>
+          <t>A650111</t>
+        </is>
+      </c>
+      <c r="BA206" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>72</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>S00348366</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
+        <v>70774742</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>3150833357</t>
+        </is>
+      </c>
+      <c r="P207" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>7/21/2025 10:27:44 AM</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>7/24/2025 3:51:10 PM</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>7/24/2025 3:51:10 PM</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr"/>
+      <c r="U207" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W207" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="X207" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y207" t="n">
+        <v>30858847</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB207" t="inlineStr"/>
+      <c r="AC207" t="inlineStr"/>
+      <c r="AD207" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE207" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF207" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG207" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH207" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI207" t="inlineStr">
+        <is>
+          <t>A649959</t>
+        </is>
+      </c>
+      <c r="AJ207" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK207" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/24/2025 </t>
+        </is>
+      </c>
+      <c r="AM207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/24/2025 </t>
+        </is>
+      </c>
+      <c r="AN207" t="inlineStr">
+        <is>
+          <t>7/24/2025 3:51:10 PM</t>
+        </is>
+      </c>
+      <c r="AO207" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP207" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ207" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR207" t="inlineStr"/>
+      <c r="AS207" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT207" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU207" t="n">
+        <v>110.8760521691354</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>110.8760521691354</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>550</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>550</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>1.4286</v>
+      </c>
+      <c r="AZ207" t="inlineStr">
+        <is>
+          <t>A649959</t>
+        </is>
+      </c>
+      <c r="BA207" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>840063202351</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>72</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>S00351405</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
+        <v>70787414</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>3150833404</t>
+        </is>
+      </c>
+      <c r="P208" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>7/28/2025 8:09:52 AM</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/31/2025 </t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/31/2025 </t>
+        </is>
+      </c>
+      <c r="T208" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="U208" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W208" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="X208" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y208" t="n">
+        <v>30858847</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB208" t="inlineStr"/>
+      <c r="AC208" t="inlineStr"/>
+      <c r="AD208" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE208" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF208" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG208" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH208" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI208" t="inlineStr">
+        <is>
+          <t>A650521</t>
+        </is>
+      </c>
+      <c r="AJ208" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK208" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/31/2025 </t>
+        </is>
+      </c>
+      <c r="AM208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/31/2025 </t>
+        </is>
+      </c>
+      <c r="AN208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7/31/2025 </t>
+        </is>
+      </c>
+      <c r="AO208" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP208" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ208" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR208" t="inlineStr"/>
+      <c r="AS208" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT208" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU208" t="n">
+        <v>110.8760521691354</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>110.8760521691354</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>550</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>550</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>1.4286</v>
+      </c>
+      <c r="AZ208" t="inlineStr">
+        <is>
+          <t>A650521</t>
+        </is>
+      </c>
+      <c r="BA208" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>840063202351</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>72</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>S00353114</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
+        <v>70803182</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>3150833417</t>
+        </is>
+      </c>
+      <c r="P209" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>8/4/2025 8:20:37 AM</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>8/11/2025 1:59:12 PM</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>8/11/2025 1:59:12 PM</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W209" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="X209" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y209" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB209" t="inlineStr"/>
+      <c r="AC209" t="inlineStr"/>
+      <c r="AD209" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE209" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF209" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG209" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH209" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A651519  </t>
+        </is>
+      </c>
+      <c r="AJ209" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK209" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="AM209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="AN209" t="inlineStr">
+        <is>
+          <t>8/11/2025 1:59:12 PM</t>
+        </is>
+      </c>
+      <c r="AO209" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP209" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ209" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR209" t="inlineStr"/>
+      <c r="AS209" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT209" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU209" t="n">
+        <v>31.75713782529924</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>31.75713782529924</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>254.6177</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>254.6177</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>0.4221</v>
+      </c>
+      <c r="AZ209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A651519  </t>
+        </is>
+      </c>
+      <c r="BA209" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>72</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>S00353115</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
+        <v>70803185</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>4001223848</t>
+        </is>
+      </c>
+      <c r="P210" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>8/4/2025 8:20:39 AM</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>8/11/2025 2:00:23 PM</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>8/11/2025 2:00:23 PM</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr"/>
+      <c r="U210" s="2" t="n">
+        <v>45885</v>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W210" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="X210" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y210" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB210" t="inlineStr"/>
+      <c r="AC210" t="inlineStr"/>
+      <c r="AD210" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE210" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF210" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG210" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH210" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI210" t="inlineStr">
+        <is>
+          <t>A651517</t>
+        </is>
+      </c>
+      <c r="AJ210" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK210" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="AM210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="AN210" t="inlineStr">
+        <is>
+          <t>8/11/2025 2:00:23 PM</t>
+        </is>
+      </c>
+      <c r="AO210" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP210" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ210" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR210" t="inlineStr"/>
+      <c r="AS210" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT210" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU210" t="n">
+        <v>31.75713782529924</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>31.75713782529924</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>254.52</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>254.52</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>0.5833</v>
+      </c>
+      <c r="AZ210" t="inlineStr">
+        <is>
+          <t>A651517</t>
+        </is>
+      </c>
+      <c r="BA210" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>72</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>S00355154</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
+        <v>70812808</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>4001223881</t>
+        </is>
+      </c>
+      <c r="P211" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>8/11/2025 7:32:19 AM</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr"/>
+      <c r="U211" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W211" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="X211" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y211" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB211" t="inlineStr"/>
+      <c r="AC211" t="inlineStr"/>
+      <c r="AD211" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE211" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF211" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG211" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH211" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI211" t="inlineStr">
+        <is>
+          <t>A651791</t>
+        </is>
+      </c>
+      <c r="AJ211" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK211" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AM211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AN211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AO211" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP211" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ211" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR211" t="inlineStr"/>
+      <c r="AS211" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT211" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU211" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="AZ211" t="inlineStr">
+        <is>
+          <t>A651791</t>
+        </is>
+      </c>
+      <c r="BA211" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>840063202368</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>72</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>S00355154</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
+        <v>70812808</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>4001223881</t>
+        </is>
+      </c>
+      <c r="P212" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>8/11/2025 7:32:19 AM</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr"/>
+      <c r="U212" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W212" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="X212" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y212" t="n">
+        <v>30858847</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB212" t="inlineStr"/>
+      <c r="AC212" t="inlineStr"/>
+      <c r="AD212" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE212" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF212" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG212" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH212" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI212" t="inlineStr">
+        <is>
+          <t>A651791</t>
+        </is>
+      </c>
+      <c r="AJ212" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK212" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AM212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AN212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AO212" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP212" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ212" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR212" t="inlineStr"/>
+      <c r="AS212" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT212" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU212" t="n">
+        <v>166.3140782537031</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>166.3140782537031</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>825</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>825</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>2.1428</v>
+      </c>
+      <c r="AZ212" t="inlineStr">
+        <is>
+          <t>A651791</t>
+        </is>
+      </c>
+      <c r="BA212" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>840063202351</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>72</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>S00355155</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
+        <v>70812807</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>3850803791</t>
+        </is>
+      </c>
+      <c r="P213" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>8/11/2025 7:32:21 AM</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="T213" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="U213" s="2" t="n">
+        <v>45892</v>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W213" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="X213" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y213" t="n">
+        <v>30858847</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB213" t="inlineStr"/>
+      <c r="AC213" t="inlineStr"/>
+      <c r="AD213" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE213" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF213" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG213" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH213" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI213" t="inlineStr">
+        <is>
+          <t>A651798</t>
+        </is>
+      </c>
+      <c r="AJ213" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK213" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AM213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AN213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AO213" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP213" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ213" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR213" t="inlineStr"/>
+      <c r="AS213" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT213" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU213" t="n">
+        <v>121.963657386049</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>121.963657386049</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>605</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>605</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>1.5715</v>
+      </c>
+      <c r="AZ213" t="inlineStr">
+        <is>
+          <t>A651798</t>
+        </is>
+      </c>
+      <c r="BA213" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>840063202351</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD176"/>
+  <dimension ref="A1:BD214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39257,6 +39257,8792 @@
         </is>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>72</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>S00353113</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
+        <v>70803187</v>
+      </c>
+      <c r="O177" t="n">
+        <v>3850803770</v>
+      </c>
+      <c r="P177" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>8/4/2025 8:20:36 AM</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr"/>
+      <c r="U177" s="2" t="n">
+        <v>45885</v>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W177" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y177" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>54</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>54</v>
+      </c>
+      <c r="AB177" t="inlineStr"/>
+      <c r="AC177" t="inlineStr"/>
+      <c r="AD177" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE177" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF177" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG177" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH177" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A651516 </t>
+        </is>
+      </c>
+      <c r="AJ177" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK177" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="AM177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="AN177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="AO177" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP177" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ177" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR177" t="inlineStr"/>
+      <c r="AS177" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT177" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU177" t="n">
+        <v>40.83060577538473</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>40.83060577538473</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>327.2562</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>327.2562</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>0.7231</v>
+      </c>
+      <c r="AZ177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A651516 </t>
+        </is>
+      </c>
+      <c r="BA177" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>840063202368</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD177" t="inlineStr">
+        <is>
+          <t>S00353113-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>72</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>S00353113</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
+        <v>70803187</v>
+      </c>
+      <c r="O178" t="n">
+        <v>3850803770</v>
+      </c>
+      <c r="P178" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>8/4/2025 8:20:36 AM</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" s="2" t="n">
+        <v>45885</v>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W178" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y178" t="n">
+        <v>30858847</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB178" t="inlineStr"/>
+      <c r="AC178" t="inlineStr"/>
+      <c r="AD178" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE178" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF178" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG178" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH178" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A651516 </t>
+        </is>
+      </c>
+      <c r="AJ178" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK178" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="AM178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="AN178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="AO178" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP178" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ178" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR178" t="inlineStr"/>
+      <c r="AS178" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT178" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU178" t="n">
+        <v>88.70084173530833</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>88.70084173530833</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>440</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>440</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>1.1429</v>
+      </c>
+      <c r="AZ178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A651516 </t>
+        </is>
+      </c>
+      <c r="BA178" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>840063202351</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD178" t="inlineStr">
+        <is>
+          <t>S00353113-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>72</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>S00353114</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>70803182</v>
+      </c>
+      <c r="O179" t="n">
+        <v>3150833417</v>
+      </c>
+      <c r="P179" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>8/4/2025 8:20:37 AM</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>8/11/2025 1:59:12 PM</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>8/11/2025 1:59:12 PM</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W179" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y179" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB179" t="inlineStr"/>
+      <c r="AC179" t="inlineStr"/>
+      <c r="AD179" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE179" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF179" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG179" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH179" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A651519  </t>
+        </is>
+      </c>
+      <c r="AJ179" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK179" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="AM179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="AN179" t="inlineStr">
+        <is>
+          <t>8/11/2025 1:59:12 PM</t>
+        </is>
+      </c>
+      <c r="AO179" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP179" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ179" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR179" t="inlineStr"/>
+      <c r="AS179" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT179" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU179" t="n">
+        <v>31.75713782529924</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>31.75713782529924</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>254.6177</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>254.6177</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>0.4221</v>
+      </c>
+      <c r="AZ179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A651519  </t>
+        </is>
+      </c>
+      <c r="BA179" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>840063202368</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD179" t="inlineStr">
+        <is>
+          <t>S00353114-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>72</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>S00353114</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>70803182</v>
+      </c>
+      <c r="O180" t="n">
+        <v>3150833417</v>
+      </c>
+      <c r="P180" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>8/4/2025 8:20:37 AM</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>8/11/2025 1:59:12 PM</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>8/11/2025 1:59:12 PM</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W180" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y180" t="n">
+        <v>30858847</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB180" t="inlineStr"/>
+      <c r="AC180" t="inlineStr"/>
+      <c r="AD180" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE180" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF180" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG180" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH180" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A651519  </t>
+        </is>
+      </c>
+      <c r="AJ180" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK180" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="AM180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="AN180" t="inlineStr">
+        <is>
+          <t>8/11/2025 1:59:12 PM</t>
+        </is>
+      </c>
+      <c r="AO180" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP180" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ180" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR180" t="inlineStr"/>
+      <c r="AS180" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT180" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU180" t="n">
+        <v>55.43802608456771</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>55.43802608456771</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>275</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>275</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>0.7141999999999999</v>
+      </c>
+      <c r="AZ180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A651519  </t>
+        </is>
+      </c>
+      <c r="BA180" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>840063202351</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD180" t="inlineStr">
+        <is>
+          <t>S00353114-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>72</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>S00353115</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>70803185</v>
+      </c>
+      <c r="O181" t="n">
+        <v>4001223848</v>
+      </c>
+      <c r="P181" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>8/4/2025 8:20:39 AM</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>8/11/2025 2:00:23 PM</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>8/11/2025 2:00:23 PM</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" s="2" t="n">
+        <v>45885</v>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W181" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y181" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB181" t="inlineStr"/>
+      <c r="AC181" t="inlineStr"/>
+      <c r="AD181" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE181" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF181" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG181" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH181" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI181" t="inlineStr">
+        <is>
+          <t>A651517</t>
+        </is>
+      </c>
+      <c r="AJ181" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK181" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="AM181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="AN181" t="inlineStr">
+        <is>
+          <t>8/11/2025 2:00:23 PM</t>
+        </is>
+      </c>
+      <c r="AO181" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP181" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ181" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR181" t="inlineStr"/>
+      <c r="AS181" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT181" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU181" t="n">
+        <v>31.75713782529924</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>31.75713782529924</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>254.52</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>254.52</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>0.5833</v>
+      </c>
+      <c r="AZ181" t="inlineStr">
+        <is>
+          <t>A651517</t>
+        </is>
+      </c>
+      <c r="BA181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>840063202368</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD181" t="inlineStr">
+        <is>
+          <t>S00353115-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>72</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>S00353115</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>70803185</v>
+      </c>
+      <c r="O182" t="n">
+        <v>4001223848</v>
+      </c>
+      <c r="P182" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>8/4/2025 8:20:39 AM</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>8/11/2025 2:00:23 PM</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>8/11/2025 2:00:23 PM</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" s="2" t="n">
+        <v>45885</v>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W182" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y182" t="n">
+        <v>30858847</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB182" t="inlineStr"/>
+      <c r="AC182" t="inlineStr"/>
+      <c r="AD182" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE182" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF182" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG182" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH182" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI182" t="inlineStr">
+        <is>
+          <t>A651517</t>
+        </is>
+      </c>
+      <c r="AJ182" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK182" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="AM182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/11/2025 </t>
+        </is>
+      </c>
+      <c r="AN182" t="inlineStr">
+        <is>
+          <t>8/11/2025 2:00:23 PM</t>
+        </is>
+      </c>
+      <c r="AO182" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP182" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ182" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR182" t="inlineStr"/>
+      <c r="AS182" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT182" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU182" t="n">
+        <v>88.70084173530833</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>88.70084173530833</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>440</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>440</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>1.1429</v>
+      </c>
+      <c r="AZ182" t="inlineStr">
+        <is>
+          <t>A651517</t>
+        </is>
+      </c>
+      <c r="BA182" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>840063202351</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD182" t="inlineStr">
+        <is>
+          <t>S00353115-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>72</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>S00355153</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>70812806</v>
+      </c>
+      <c r="O183" t="n">
+        <v>3150833467</v>
+      </c>
+      <c r="P183" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>8/11/2025 7:32:17 AM</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W183" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y183" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB183" t="inlineStr"/>
+      <c r="AC183" t="inlineStr"/>
+      <c r="AD183" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE183" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF183" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG183" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH183" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI183" t="inlineStr">
+        <is>
+          <t>A651794</t>
+        </is>
+      </c>
+      <c r="AJ183" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK183" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AM183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AN183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AO183" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP183" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ183" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR183" t="inlineStr"/>
+      <c r="AS183" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT183" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU183" t="n">
+        <v>36.29387180034198</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>36.29387180034198</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>290.88</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>290.88</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="AZ183" t="inlineStr">
+        <is>
+          <t>A651794</t>
+        </is>
+      </c>
+      <c r="BA183" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>840063202368</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD183" t="inlineStr">
+        <is>
+          <t>S00355153-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>72</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>S00355153</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>70812806</v>
+      </c>
+      <c r="O184" t="n">
+        <v>3150833467</v>
+      </c>
+      <c r="P184" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>8/11/2025 7:32:17 AM</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W184" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y184" t="n">
+        <v>30858847</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB184" t="inlineStr"/>
+      <c r="AC184" t="inlineStr"/>
+      <c r="AD184" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE184" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF184" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG184" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH184" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI184" t="inlineStr">
+        <is>
+          <t>A651794</t>
+        </is>
+      </c>
+      <c r="AJ184" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK184" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AM184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AN184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AO184" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP184" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ184" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR184" t="inlineStr"/>
+      <c r="AS184" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT184" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU184" t="n">
+        <v>133.0512626029625</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>133.0512626029625</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>660</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>660</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>1.7143</v>
+      </c>
+      <c r="AZ184" t="inlineStr">
+        <is>
+          <t>A651794</t>
+        </is>
+      </c>
+      <c r="BA184" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>840063202351</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD184" t="inlineStr">
+        <is>
+          <t>S00355153-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>72</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>S00355154</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>70812808</v>
+      </c>
+      <c r="O185" t="n">
+        <v>4001223881</v>
+      </c>
+      <c r="P185" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>8/11/2025 7:32:19 AM</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W185" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y185" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB185" t="inlineStr"/>
+      <c r="AC185" t="inlineStr"/>
+      <c r="AD185" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE185" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF185" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG185" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH185" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI185" t="inlineStr">
+        <is>
+          <t>A651791</t>
+        </is>
+      </c>
+      <c r="AJ185" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK185" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AM185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AN185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AO185" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP185" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ185" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR185" t="inlineStr"/>
+      <c r="AS185" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT185" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU185" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="AZ185" t="inlineStr">
+        <is>
+          <t>A651791</t>
+        </is>
+      </c>
+      <c r="BA185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>840063202368</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD185" t="inlineStr">
+        <is>
+          <t>S00355154-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>72</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>S00355154</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>70812808</v>
+      </c>
+      <c r="O186" t="n">
+        <v>4001223881</v>
+      </c>
+      <c r="P186" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>8/11/2025 7:32:19 AM</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W186" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y186" t="n">
+        <v>30858847</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB186" t="inlineStr"/>
+      <c r="AC186" t="inlineStr"/>
+      <c r="AD186" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE186" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF186" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG186" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH186" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI186" t="inlineStr">
+        <is>
+          <t>A651791</t>
+        </is>
+      </c>
+      <c r="AJ186" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK186" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AM186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AN186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AO186" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP186" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ186" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR186" t="inlineStr"/>
+      <c r="AS186" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT186" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU186" t="n">
+        <v>166.3140782537031</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>166.3140782537031</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>825</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>825</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>2.1428</v>
+      </c>
+      <c r="AZ186" t="inlineStr">
+        <is>
+          <t>A651791</t>
+        </is>
+      </c>
+      <c r="BA186" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>840063202351</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD186" t="inlineStr">
+        <is>
+          <t>S00355154-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>72</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>S00355155</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>70812807</v>
+      </c>
+      <c r="O187" t="n">
+        <v>3850803791</v>
+      </c>
+      <c r="P187" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>8/11/2025 7:32:21 AM</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="T187" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="U187" s="2" t="n">
+        <v>45892</v>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W187" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y187" t="n">
+        <v>30858847</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB187" t="inlineStr"/>
+      <c r="AC187" t="inlineStr"/>
+      <c r="AD187" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE187" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF187" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG187" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH187" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI187" t="inlineStr">
+        <is>
+          <t>A651798</t>
+        </is>
+      </c>
+      <c r="AJ187" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK187" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AM187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AN187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/14/2025 </t>
+        </is>
+      </c>
+      <c r="AO187" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP187" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ187" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR187" t="inlineStr"/>
+      <c r="AS187" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT187" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU187" t="n">
+        <v>121.963657386049</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>121.963657386049</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>605</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>605</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>1.5715</v>
+      </c>
+      <c r="AZ187" t="inlineStr">
+        <is>
+          <t>A651798</t>
+        </is>
+      </c>
+      <c r="BA187" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>840063202351</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD187" t="inlineStr">
+        <is>
+          <t>S00355155-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>72</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>S00357370</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>70823080</v>
+      </c>
+      <c r="O188" t="n">
+        <v>3850803825</v>
+      </c>
+      <c r="P188" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>8/18/2025 8:05:00 AM</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>8/22/2025 11:17:44 AM</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>8/22/2025 11:17:44 AM</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W188" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y188" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB188" t="inlineStr"/>
+      <c r="AC188" t="inlineStr"/>
+      <c r="AD188" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE188" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF188" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG188" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH188" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI188" t="inlineStr">
+        <is>
+          <t>A652555</t>
+        </is>
+      </c>
+      <c r="AJ188" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK188" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AM188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AN188" t="inlineStr">
+        <is>
+          <t>8/22/2025 11:17:44 AM</t>
+        </is>
+      </c>
+      <c r="AO188" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP188" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ188" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR188" t="inlineStr"/>
+      <c r="AS188" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT188" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU188" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>0.4166</v>
+      </c>
+      <c r="AZ188" t="inlineStr">
+        <is>
+          <t>A652555</t>
+        </is>
+      </c>
+      <c r="BA188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>840063202368</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD188" t="inlineStr">
+        <is>
+          <t>S00357370-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>72</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>S00357370</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>70823080</v>
+      </c>
+      <c r="O189" t="n">
+        <v>3850803825</v>
+      </c>
+      <c r="P189" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>8/18/2025 8:05:00 AM</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>8/22/2025 11:17:44 AM</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>8/22/2025 11:17:44 AM</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W189" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y189" t="n">
+        <v>30858847</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB189" t="inlineStr"/>
+      <c r="AC189" t="inlineStr"/>
+      <c r="AD189" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE189" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF189" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG189" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH189" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI189" t="inlineStr">
+        <is>
+          <t>A652555</t>
+        </is>
+      </c>
+      <c r="AJ189" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK189" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AM189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AN189" t="inlineStr">
+        <is>
+          <t>8/22/2025 11:17:44 AM</t>
+        </is>
+      </c>
+      <c r="AO189" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP189" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ189" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR189" t="inlineStr"/>
+      <c r="AS189" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT189" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU189" t="n">
+        <v>66.52563130148125</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>66.52563130148125</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>330</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>330</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="AZ189" t="inlineStr">
+        <is>
+          <t>A652555</t>
+        </is>
+      </c>
+      <c r="BA189" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>840063202351</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD189" t="inlineStr">
+        <is>
+          <t>S00357370-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>72</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>S00357371</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>70823079</v>
+      </c>
+      <c r="O190" t="n">
+        <v>4001223932</v>
+      </c>
+      <c r="P190" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>8/18/2025 8:05:00 AM</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="T190" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="U190" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W190" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="X190" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y190" t="n">
+        <v>30858488</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB190" t="inlineStr"/>
+      <c r="AC190" t="inlineStr"/>
+      <c r="AD190" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE190" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF190" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG190" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH190" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI190" t="inlineStr">
+        <is>
+          <t>A652551</t>
+        </is>
+      </c>
+      <c r="AJ190" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK190" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AM190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AN190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AO190" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP190" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ190" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR190" t="inlineStr"/>
+      <c r="AS190" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT190" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU190" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>0.4166</v>
+      </c>
+      <c r="AZ190" t="inlineStr">
+        <is>
+          <t>A652551</t>
+        </is>
+      </c>
+      <c r="BA190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>840063202368</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD190" t="inlineStr">
+        <is>
+          <t>S00357371-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>72</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>S00357371</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>70823079</v>
+      </c>
+      <c r="O191" t="n">
+        <v>4001223932</v>
+      </c>
+      <c r="P191" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>8/18/2025 8:05:00 AM</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="T191" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="U191" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W191" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y191" t="n">
+        <v>30858847</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>56</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>56</v>
+      </c>
+      <c r="AB191" t="inlineStr"/>
+      <c r="AC191" t="inlineStr"/>
+      <c r="AD191" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE191" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF191" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG191" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH191" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI191" t="inlineStr">
+        <is>
+          <t>A652551</t>
+        </is>
+      </c>
+      <c r="AJ191" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK191" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AM191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AN191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AO191" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP191" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ191" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR191" t="inlineStr"/>
+      <c r="AS191" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT191" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU191" t="n">
+        <v>155.2264730367896</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>155.2264730367896</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>770</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>770</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>1.9999</v>
+      </c>
+      <c r="AZ191" t="inlineStr">
+        <is>
+          <t>A652551</t>
+        </is>
+      </c>
+      <c r="BA191" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>840063202351</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD191" t="inlineStr">
+        <is>
+          <t>S00357371-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>CANADA COMPUTERS</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>CAN002</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>CANADA COMPUTERS</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>168 Ultimate Drive</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Richmond Hill</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>L4S 1P4</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>S00357206</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>70820798</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>PO2508150026</t>
+        </is>
+      </c>
+      <c r="P192" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>8/15/2025 2:42:08 PM</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W192" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="X192" t="inlineStr">
+        <is>
+          <t>AG276QZD2</t>
+        </is>
+      </c>
+      <c r="Y192" t="inlineStr">
+        <is>
+          <t>MTAOC00097</t>
+        </is>
+      </c>
+      <c r="Z192" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB192" t="inlineStr"/>
+      <c r="AC192" t="inlineStr"/>
+      <c r="AD192" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE192" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF192" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG192" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH192" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI192" t="inlineStr">
+        <is>
+          <t>A653261</t>
+        </is>
+      </c>
+      <c r="AJ192" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK192" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AN192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO192" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP192" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ192" t="inlineStr">
+        <is>
+          <t>AOC 27” QHD OLED gaming monitor</t>
+        </is>
+      </c>
+      <c r="AR192" t="inlineStr"/>
+      <c r="AS192" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT192" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU192" t="n">
+        <v>65.132025</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>65.132025</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>638.96</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>638.96</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>0.9999</v>
+      </c>
+      <c r="AZ192" t="inlineStr">
+        <is>
+          <t>A653261</t>
+        </is>
+      </c>
+      <c r="BA192" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>685417736485</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD192" t="inlineStr">
+        <is>
+          <t>S00357206-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>CANADA COMPUTERS</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>CAN002</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>CANADA COMPUTERS</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>168 Ultimate Drive</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Richmond Hill</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>L4S 1P4</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>S00357206</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>70820798</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>PO2508150026</t>
+        </is>
+      </c>
+      <c r="P193" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>8/15/2025 2:42:08 PM</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W193" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>Q27G3XMN</t>
+        </is>
+      </c>
+      <c r="Y193" t="inlineStr">
+        <is>
+          <t>MTAOC00201</t>
+        </is>
+      </c>
+      <c r="Z193" t="n">
+        <v>96</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>96</v>
+      </c>
+      <c r="AB193" t="inlineStr"/>
+      <c r="AC193" t="inlineStr"/>
+      <c r="AD193" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE193" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF193" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG193" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH193" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI193" t="inlineStr">
+        <is>
+          <t>A653261</t>
+        </is>
+      </c>
+      <c r="AJ193" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK193" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AN193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO193" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP193" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ193" t="inlineStr">
+        <is>
+          <t>AOC 27" Monitor</t>
+        </is>
+      </c>
+      <c r="AR193" t="inlineStr"/>
+      <c r="AS193" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT193" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU193" t="n">
+        <v>212.29131</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>212.29131</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>1938.24</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>1938.24</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>2.667</v>
+      </c>
+      <c r="AZ193" t="inlineStr">
+        <is>
+          <t>A653261</t>
+        </is>
+      </c>
+      <c r="BA193" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>685417733583</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD193" t="inlineStr">
+        <is>
+          <t>S00357206-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>72</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>S00357370</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>70823080</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>3850803825</t>
+        </is>
+      </c>
+      <c r="P194" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>8/18/2025 8:05:00 AM</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>8/22/2025 11:17:44 AM</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>8/22/2025 11:17:44 AM</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W194" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="X194" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y194" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
+      </c>
+      <c r="Z194" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB194" t="inlineStr"/>
+      <c r="AC194" t="inlineStr"/>
+      <c r="AD194" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE194" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF194" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG194" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH194" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI194" t="inlineStr">
+        <is>
+          <t>A652555</t>
+        </is>
+      </c>
+      <c r="AJ194" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK194" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AM194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AN194" t="inlineStr">
+        <is>
+          <t>8/22/2025 11:17:44 AM</t>
+        </is>
+      </c>
+      <c r="AO194" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP194" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ194" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR194" t="inlineStr"/>
+      <c r="AS194" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT194" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU194" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>0.4166</v>
+      </c>
+      <c r="AZ194" t="inlineStr">
+        <is>
+          <t>A652555</t>
+        </is>
+      </c>
+      <c r="BA194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>840063202368</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD194" t="inlineStr">
+        <is>
+          <t>S00357370-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>72</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>S00357370</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>70823080</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>3850803825</t>
+        </is>
+      </c>
+      <c r="P195" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>8/18/2025 8:05:00 AM</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>8/22/2025 11:17:44 AM</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>8/22/2025 11:17:44 AM</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W195" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y195" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
+      </c>
+      <c r="Z195" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB195" t="inlineStr"/>
+      <c r="AC195" t="inlineStr"/>
+      <c r="AD195" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE195" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF195" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG195" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH195" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI195" t="inlineStr">
+        <is>
+          <t>A652555</t>
+        </is>
+      </c>
+      <c r="AJ195" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK195" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AM195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AN195" t="inlineStr">
+        <is>
+          <t>8/22/2025 11:17:44 AM</t>
+        </is>
+      </c>
+      <c r="AO195" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP195" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ195" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR195" t="inlineStr"/>
+      <c r="AS195" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT195" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU195" t="n">
+        <v>66.52563130148125</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>66.52563130148125</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>330</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>330</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="AZ195" t="inlineStr">
+        <is>
+          <t>A652555</t>
+        </is>
+      </c>
+      <c r="BA195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>840063202351</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD195" t="inlineStr">
+        <is>
+          <t>S00357370-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>72</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>S00357371</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>70823079</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>4001223932</t>
+        </is>
+      </c>
+      <c r="P196" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>8/18/2025 8:05:00 AM</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="T196" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="U196" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W196" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="X196" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y196" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
+      </c>
+      <c r="Z196" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB196" t="inlineStr"/>
+      <c r="AC196" t="inlineStr"/>
+      <c r="AD196" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE196" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF196" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG196" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH196" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI196" t="inlineStr">
+        <is>
+          <t>A652551</t>
+        </is>
+      </c>
+      <c r="AJ196" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK196" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AM196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AN196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AO196" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP196" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ196" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR196" t="inlineStr"/>
+      <c r="AS196" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT196" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU196" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>0.4166</v>
+      </c>
+      <c r="AZ196" t="inlineStr">
+        <is>
+          <t>A652551</t>
+        </is>
+      </c>
+      <c r="BA196" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>840063202368</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD196" t="inlineStr">
+        <is>
+          <t>S00357371-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>72</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>S00357371</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>70823079</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>4001223932</t>
+        </is>
+      </c>
+      <c r="P197" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>8/18/2025 8:05:00 AM</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="T197" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="U197" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W197" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y197" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
+      </c>
+      <c r="Z197" t="n">
+        <v>56</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>56</v>
+      </c>
+      <c r="AB197" t="inlineStr"/>
+      <c r="AC197" t="inlineStr"/>
+      <c r="AD197" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE197" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF197" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG197" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH197" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI197" t="inlineStr">
+        <is>
+          <t>A652551</t>
+        </is>
+      </c>
+      <c r="AJ197" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK197" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AM197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AN197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AO197" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP197" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ197" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR197" t="inlineStr"/>
+      <c r="AS197" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT197" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU197" t="n">
+        <v>155.2264730367896</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>155.2264730367896</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>770</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>770</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>1.9999</v>
+      </c>
+      <c r="AZ197" t="inlineStr">
+        <is>
+          <t>A652551</t>
+        </is>
+      </c>
+      <c r="BA197" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>840063202351</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD197" t="inlineStr">
+        <is>
+          <t>S00357371-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>72</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>S00359896</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
+        <v>70838071</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>4001223951</t>
+        </is>
+      </c>
+      <c r="P198" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>8/26/2025 7:21:39 AM</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T198" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="U198" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W198" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="X198" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y198" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
+      </c>
+      <c r="Z198" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB198" t="inlineStr"/>
+      <c r="AC198" t="inlineStr"/>
+      <c r="AD198" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE198" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF198" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG198" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH198" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI198" t="inlineStr">
+        <is>
+          <t>A653231</t>
+        </is>
+      </c>
+      <c r="AJ198" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK198" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AN198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO198" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP198" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ198" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR198" t="inlineStr"/>
+      <c r="AS198" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT198" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU198" t="n">
+        <v>45.36733975042748</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>45.36733975042748</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>363.6461</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>363.6461</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>0.7572</v>
+      </c>
+      <c r="AZ198" t="inlineStr">
+        <is>
+          <t>A653231</t>
+        </is>
+      </c>
+      <c r="BA198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>840063202368</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD198" t="inlineStr">
+        <is>
+          <t>S00359896-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>72</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>S00360097</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>70838223</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>4001223987</t>
+        </is>
+      </c>
+      <c r="P199" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>8/26/2025 12:07:54 PM</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T199" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="U199" s="2" t="n">
+        <v>45906</v>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W199" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="X199" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y199" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
+      </c>
+      <c r="Z199" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB199" t="inlineStr"/>
+      <c r="AC199" t="inlineStr"/>
+      <c r="AD199" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE199" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF199" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG199" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH199" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI199" t="inlineStr">
+        <is>
+          <t>A653239</t>
+        </is>
+      </c>
+      <c r="AJ199" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK199" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AN199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO199" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP199" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ199" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR199" t="inlineStr"/>
+      <c r="AS199" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT199" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU199" t="n">
+        <v>25.7081591919089</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>25.7081591919089</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>206.04</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>206.04</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>0.4722</v>
+      </c>
+      <c r="AZ199" t="inlineStr">
+        <is>
+          <t>A653239</t>
+        </is>
+      </c>
+      <c r="BA199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>840063202368</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD199" t="inlineStr">
+        <is>
+          <t>S00360097-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>72</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>S00360097</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>70838223</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>4001223987</t>
+        </is>
+      </c>
+      <c r="P200" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>8/26/2025 12:07:54 PM</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T200" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="U200" s="2" t="n">
+        <v>45906</v>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W200" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="X200" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y200" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
+      </c>
+      <c r="Z200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB200" t="inlineStr"/>
+      <c r="AC200" t="inlineStr"/>
+      <c r="AD200" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE200" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF200" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG200" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH200" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI200" t="inlineStr">
+        <is>
+          <t>A653239</t>
+        </is>
+      </c>
+      <c r="AJ200" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK200" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AN200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO200" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP200" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ200" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR200" t="inlineStr"/>
+      <c r="AS200" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT200" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU200" t="n">
+        <v>5.543802608456771</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>5.543802608456771</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>27.5136</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>27.5136</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>0.0659</v>
+      </c>
+      <c r="AZ200" t="inlineStr">
+        <is>
+          <t>A653239</t>
+        </is>
+      </c>
+      <c r="BA200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>840063202351</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD200" t="inlineStr">
+        <is>
+          <t>S00360097-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>72</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>S00360098</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>70838222</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>3150833548</t>
+        </is>
+      </c>
+      <c r="P201" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>8/26/2025 12:07:55 PM</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T201" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="U201" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W201" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="X201" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y201" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
+      </c>
+      <c r="Z201" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB201" t="inlineStr"/>
+      <c r="AC201" t="inlineStr"/>
+      <c r="AD201" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE201" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF201" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG201" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH201" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI201" t="inlineStr">
+        <is>
+          <t>A653232</t>
+        </is>
+      </c>
+      <c r="AJ201" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK201" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AN201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO201" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP201" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ201" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR201" t="inlineStr"/>
+      <c r="AS201" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT201" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU201" t="n">
+        <v>18.90305822934478</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>18.90305822934478</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="AZ201" t="inlineStr">
+        <is>
+          <t>A653232</t>
+        </is>
+      </c>
+      <c r="BA201" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>840063202368</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD201" t="inlineStr">
+        <is>
+          <t>S00360098-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>72</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>S00360098</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>70838222</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>3150833548</t>
+        </is>
+      </c>
+      <c r="P202" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>8/26/2025 12:07:55 PM</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T202" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="U202" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W202" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="X202" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y202" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
+      </c>
+      <c r="Z202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB202" t="inlineStr"/>
+      <c r="AC202" t="inlineStr"/>
+      <c r="AD202" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE202" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF202" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG202" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH202" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI202" t="inlineStr">
+        <is>
+          <t>A653232</t>
+        </is>
+      </c>
+      <c r="AJ202" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK202" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AN202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO202" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP202" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ202" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR202" t="inlineStr"/>
+      <c r="AS202" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT202" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU202" t="n">
+        <v>5.543802608456771</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>5.543802608456771</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>27.5137</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>27.5137</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="AZ202" t="inlineStr">
+        <is>
+          <t>A653232</t>
+        </is>
+      </c>
+      <c r="BA202" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>840063202351</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD202" t="inlineStr">
+        <is>
+          <t>S00360098-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>72</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>S00360099</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>70838224</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>3850803890</t>
+        </is>
+      </c>
+      <c r="P203" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>8/26/2025 12:07:56 PM</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T203" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="U203" s="2" t="n">
+        <v>45907</v>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W203" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="X203" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y203" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
+      </c>
+      <c r="Z203" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB203" t="inlineStr"/>
+      <c r="AC203" t="inlineStr"/>
+      <c r="AD203" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE203" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF203" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG203" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH203" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI203" t="inlineStr">
+        <is>
+          <t>A653244</t>
+        </is>
+      </c>
+      <c r="AJ203" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK203" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AN203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO203" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP203" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ203" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR203" t="inlineStr"/>
+      <c r="AS203" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT203" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU203" t="n">
+        <v>12.85407959595445</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>12.85407959595445</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>103.0336</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>103.0336</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>0.2137</v>
+      </c>
+      <c r="AZ203" t="inlineStr">
+        <is>
+          <t>A653244</t>
+        </is>
+      </c>
+      <c r="BA203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>840063202368</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD203" t="inlineStr">
+        <is>
+          <t>S00360099-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>72</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>S00360099</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>70838224</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>3850803890</t>
+        </is>
+      </c>
+      <c r="P204" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>8/26/2025 12:07:56 PM</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T204" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="U204" s="2" t="n">
+        <v>45907</v>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W204" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y204" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
+      </c>
+      <c r="Z204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB204" t="inlineStr"/>
+      <c r="AC204" t="inlineStr"/>
+      <c r="AD204" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE204" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF204" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG204" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH204" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI204" t="inlineStr">
+        <is>
+          <t>A653244</t>
+        </is>
+      </c>
+      <c r="AJ204" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK204" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AN204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO204" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP204" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ204" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR204" t="inlineStr"/>
+      <c r="AS204" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT204" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU204" t="n">
+        <v>11.08760521691354</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>11.08760521691354</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>55</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>55</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>0.1429</v>
+      </c>
+      <c r="AZ204" t="inlineStr">
+        <is>
+          <t>A653244</t>
+        </is>
+      </c>
+      <c r="BA204" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>840063202351</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD204" t="inlineStr">
+        <is>
+          <t>S00360099-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>BEST BUY CANADA LTD</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>BES005</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>BEST BUY CANADA LTD</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>L6S 6G6</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>S00358847</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>70832067</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>59103701</t>
+        </is>
+      </c>
+      <c r="P205" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>8/22/2025 5:35:12 AM</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/29/2025 </t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/29/2025 </t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr"/>
+      <c r="U205" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W205" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="X205" t="inlineStr">
+        <is>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y205" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
+      </c>
+      <c r="Z205" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB205" t="inlineStr"/>
+      <c r="AC205" t="inlineStr"/>
+      <c r="AD205" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE205" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF205" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG205" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH205" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI205" t="inlineStr">
+        <is>
+          <t>A653064</t>
+        </is>
+      </c>
+      <c r="AJ205" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK205" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/29/2025 </t>
+        </is>
+      </c>
+      <c r="AM205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/29/2025 </t>
+        </is>
+      </c>
+      <c r="AN205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/29/2025 </t>
+        </is>
+      </c>
+      <c r="AO205" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP205" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ205" t="inlineStr">
+        <is>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+        </is>
+      </c>
+      <c r="AR205" t="inlineStr"/>
+      <c r="AS205" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT205" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU205" t="n">
+        <v>19.29505102995333</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>19.29505102995333</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>218.2576</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>218.2576</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>0.4546</v>
+      </c>
+      <c r="AZ205" t="inlineStr">
+        <is>
+          <t>A653064</t>
+        </is>
+      </c>
+      <c r="BA205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>840063203563</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD205" t="inlineStr">
+        <is>
+          <t>S00358847-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>72</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>S00357370</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>70823080</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>3850803825</t>
+        </is>
+      </c>
+      <c r="P206" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>8/18/2025 8:05:00 AM</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>8/22/2025 11:17:44 AM</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>8/22/2025 11:17:44 AM</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W206" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="X206" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y206" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
+      </c>
+      <c r="Z206" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB206" t="inlineStr"/>
+      <c r="AC206" t="inlineStr"/>
+      <c r="AD206" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE206" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF206" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG206" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH206" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI206" t="inlineStr">
+        <is>
+          <t>A652555</t>
+        </is>
+      </c>
+      <c r="AJ206" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK206" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AM206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AN206" t="inlineStr">
+        <is>
+          <t>8/22/2025 11:17:44 AM</t>
+        </is>
+      </c>
+      <c r="AO206" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP206" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ206" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR206" t="inlineStr"/>
+      <c r="AS206" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT206" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU206" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>0.4166</v>
+      </c>
+      <c r="AZ206" t="inlineStr">
+        <is>
+          <t>A652555</t>
+        </is>
+      </c>
+      <c r="BA206" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>840063202368</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD206" t="inlineStr">
+        <is>
+          <t>S00357370-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>72</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>S00357371</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
+        <v>70823079</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>4001223932</t>
+        </is>
+      </c>
+      <c r="P207" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>8/18/2025 8:05:00 AM</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="T207" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="U207" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W207" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="X207" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y207" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
+      </c>
+      <c r="Z207" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB207" t="inlineStr"/>
+      <c r="AC207" t="inlineStr"/>
+      <c r="AD207" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE207" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF207" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG207" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH207" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI207" t="inlineStr">
+        <is>
+          <t>A652551</t>
+        </is>
+      </c>
+      <c r="AJ207" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK207" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AM207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AN207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AO207" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP207" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ207" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR207" t="inlineStr"/>
+      <c r="AS207" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT207" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU207" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>22.68366987521374</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>0.4166</v>
+      </c>
+      <c r="AZ207" t="inlineStr">
+        <is>
+          <t>A652551</t>
+        </is>
+      </c>
+      <c r="BA207" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>840063202368</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD207" t="inlineStr">
+        <is>
+          <t>S00357371-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>72</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>S00357371</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
+        <v>70823079</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>4001223932</t>
+        </is>
+      </c>
+      <c r="P208" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>8/18/2025 8:05:00 AM</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="T208" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="U208" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W208" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="X208" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y208" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
+      </c>
+      <c r="Z208" t="n">
+        <v>56</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>56</v>
+      </c>
+      <c r="AB208" t="inlineStr"/>
+      <c r="AC208" t="inlineStr"/>
+      <c r="AD208" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE208" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF208" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG208" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH208" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI208" t="inlineStr">
+        <is>
+          <t>A652551</t>
+        </is>
+      </c>
+      <c r="AJ208" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK208" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AM208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AN208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="AO208" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP208" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ208" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR208" t="inlineStr"/>
+      <c r="AS208" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT208" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU208" t="n">
+        <v>155.2264730367896</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>155.2264730367896</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>770</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>770</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>1.9999</v>
+      </c>
+      <c r="AZ208" t="inlineStr">
+        <is>
+          <t>A652551</t>
+        </is>
+      </c>
+      <c r="BA208" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>840063202351</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD208" t="inlineStr">
+        <is>
+          <t>S00357371-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>BEST BUY CANADA LTD</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>BES005</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>BEST BUY CANADA LTD</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>L6S 6G6</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>S00358847</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
+        <v>70832067</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>59103701</t>
+        </is>
+      </c>
+      <c r="P209" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>8/22/2025 5:35:12 AM</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/29/2025 </t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/29/2025 </t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W209" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="X209" t="inlineStr">
+        <is>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y209" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
+      </c>
+      <c r="Z209" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB209" t="inlineStr"/>
+      <c r="AC209" t="inlineStr"/>
+      <c r="AD209" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE209" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF209" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG209" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH209" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI209" t="inlineStr">
+        <is>
+          <t>A653064</t>
+        </is>
+      </c>
+      <c r="AJ209" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK209" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/29/2025 </t>
+        </is>
+      </c>
+      <c r="AM209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/29/2025 </t>
+        </is>
+      </c>
+      <c r="AN209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/29/2025 </t>
+        </is>
+      </c>
+      <c r="AO209" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP209" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ209" t="inlineStr">
+        <is>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+        </is>
+      </c>
+      <c r="AR209" t="inlineStr"/>
+      <c r="AS209" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT209" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU209" t="n">
+        <v>19.29505102995333</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>19.29505102995333</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>218.2576</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>218.2576</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>0.4546</v>
+      </c>
+      <c r="AZ209" t="inlineStr">
+        <is>
+          <t>A653064</t>
+        </is>
+      </c>
+      <c r="BA209" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>840063203563</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD209" t="inlineStr">
+        <is>
+          <t>S00358847-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>72</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>S00359896</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
+        <v>70838071</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>4001223951</t>
+        </is>
+      </c>
+      <c r="P210" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>8/26/2025 7:21:39 AM</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T210" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="U210" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W210" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="X210" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y210" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
+      </c>
+      <c r="Z210" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB210" t="inlineStr"/>
+      <c r="AC210" t="inlineStr"/>
+      <c r="AD210" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE210" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF210" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG210" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH210" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI210" t="inlineStr">
+        <is>
+          <t>A653231</t>
+        </is>
+      </c>
+      <c r="AJ210" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK210" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AN210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO210" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP210" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ210" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR210" t="inlineStr"/>
+      <c r="AS210" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT210" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU210" t="n">
+        <v>45.36733975042748</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>45.36733975042748</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>363.6461</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>363.6461</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>0.7572</v>
+      </c>
+      <c r="AZ210" t="inlineStr">
+        <is>
+          <t>A653231</t>
+        </is>
+      </c>
+      <c r="BA210" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>840063202368</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD210" t="inlineStr">
+        <is>
+          <t>S00359896-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>72</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>S00360097</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
+        <v>70838223</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>4001223987</t>
+        </is>
+      </c>
+      <c r="P211" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>8/26/2025 12:07:54 PM</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T211" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="U211" s="2" t="n">
+        <v>45906</v>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W211" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="X211" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y211" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
+      </c>
+      <c r="Z211" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB211" t="inlineStr"/>
+      <c r="AC211" t="inlineStr"/>
+      <c r="AD211" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE211" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF211" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG211" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH211" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI211" t="inlineStr">
+        <is>
+          <t>A653239</t>
+        </is>
+      </c>
+      <c r="AJ211" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK211" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AN211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO211" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP211" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ211" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR211" t="inlineStr"/>
+      <c r="AS211" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT211" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU211" t="n">
+        <v>25.7081591919089</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>25.7081591919089</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>206.04</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>206.04</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>0.4722</v>
+      </c>
+      <c r="AZ211" t="inlineStr">
+        <is>
+          <t>A653239</t>
+        </is>
+      </c>
+      <c r="BA211" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>840063202368</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD211" t="inlineStr">
+        <is>
+          <t>S00360097-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>72</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>S00360098</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
+        <v>70838222</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>3150833548</t>
+        </is>
+      </c>
+      <c r="P212" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>8/26/2025 12:07:55 PM</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T212" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="U212" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W212" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="X212" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y212" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
+      </c>
+      <c r="Z212" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB212" t="inlineStr"/>
+      <c r="AC212" t="inlineStr"/>
+      <c r="AD212" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE212" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF212" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG212" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH212" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI212" t="inlineStr">
+        <is>
+          <t>A653232</t>
+        </is>
+      </c>
+      <c r="AJ212" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK212" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AN212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO212" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP212" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ212" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR212" t="inlineStr"/>
+      <c r="AS212" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT212" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU212" t="n">
+        <v>18.90305822934478</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>18.90305822934478</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="AZ212" t="inlineStr">
+        <is>
+          <t>A653232</t>
+        </is>
+      </c>
+      <c r="BA212" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>840063202368</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD212" t="inlineStr">
+        <is>
+          <t>S00360098-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>72</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>S00360099</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
+        <v>70838224</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>3850803890</t>
+        </is>
+      </c>
+      <c r="P213" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>8/26/2025 12:07:56 PM</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T213" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="U213" s="2" t="n">
+        <v>45907</v>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W213" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="X213" t="inlineStr">
+        <is>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y213" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
+      </c>
+      <c r="Z213" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB213" t="inlineStr"/>
+      <c r="AC213" t="inlineStr"/>
+      <c r="AD213" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE213" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF213" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG213" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH213" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI213" t="inlineStr">
+        <is>
+          <t>A653244</t>
+        </is>
+      </c>
+      <c r="AJ213" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK213" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AN213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO213" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP213" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ213" t="inlineStr">
+        <is>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+        </is>
+      </c>
+      <c r="AR213" t="inlineStr"/>
+      <c r="AS213" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT213" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU213" t="n">
+        <v>12.85407959595445</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>12.85407959595445</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>103.0336</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>103.0336</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>0.2137</v>
+      </c>
+      <c r="AZ213" t="inlineStr">
+        <is>
+          <t>A653244</t>
+        </is>
+      </c>
+      <c r="BA213" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>840063202368</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD213" t="inlineStr">
+        <is>
+          <t>S00360099-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>72</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>S00360099</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
+        <v>70838224</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>3850803890</t>
+        </is>
+      </c>
+      <c r="P214" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>8/26/2025 12:07:56 PM</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T214" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="U214" s="2" t="n">
+        <v>45907</v>
+      </c>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W214" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="X214" t="inlineStr">
+        <is>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y214" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
+      </c>
+      <c r="Z214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB214" t="inlineStr"/>
+      <c r="AC214" t="inlineStr"/>
+      <c r="AD214" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE214" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF214" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG214" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH214" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI214" t="inlineStr">
+        <is>
+          <t>A653244</t>
+        </is>
+      </c>
+      <c r="AJ214" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK214" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AN214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO214" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP214" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ214" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR214" t="inlineStr"/>
+      <c r="AS214" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT214" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU214" t="n">
+        <v>11.08760521691354</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>11.08760521691354</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>55</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>55</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>0.1429</v>
+      </c>
+      <c r="AZ214" t="inlineStr">
+        <is>
+          <t>A653244</t>
+        </is>
+      </c>
+      <c r="BA214" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>840063202351</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD214" t="inlineStr">
+        <is>
+          <t>S00360099-20000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD214"/>
+  <dimension ref="A1:BD215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48043,6 +48043,212 @@
         </is>
       </c>
     </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Unis Warehouse</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Unis Warehouse</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>6800 Valley View St</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Buena Park</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>90620</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>S00360479</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="inlineStr"/>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>08272025</t>
+        </is>
+      </c>
+      <c r="P215" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>8/27/2025 2:21:13 PM</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/4/2025 </t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/4/2025 </t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr"/>
+      <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W215" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="X215" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y215" t="inlineStr"/>
+      <c r="Z215" t="n">
+        <v>650</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB215" t="inlineStr"/>
+      <c r="AC215" t="inlineStr"/>
+      <c r="AD215" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="AE215" t="inlineStr"/>
+      <c r="AF215" t="inlineStr">
+        <is>
+          <t>Primary Freight Services Inc</t>
+        </is>
+      </c>
+      <c r="AG215" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AH215" t="inlineStr">
+        <is>
+          <t>Primary Freight Services Inc</t>
+        </is>
+      </c>
+      <c r="AI215" t="inlineStr">
+        <is>
+          <t>08272025</t>
+        </is>
+      </c>
+      <c r="AJ215" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK215" t="inlineStr"/>
+      <c r="AL215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/4/2025 </t>
+        </is>
+      </c>
+      <c r="AM215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/4/2025 </t>
+        </is>
+      </c>
+      <c r="AN215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/4/2025 </t>
+        </is>
+      </c>
+      <c r="AO215" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP215" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="AQ215" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR215" t="inlineStr"/>
+      <c r="AS215" t="inlineStr"/>
+      <c r="AT215" t="inlineStr">
+        <is>
+          <t>EACH</t>
+        </is>
+      </c>
+      <c r="AU215" t="n">
+        <v>384.1527083333334</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>384.1527083333334</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>6.7708</v>
+      </c>
+      <c r="AZ215" t="inlineStr">
+        <is>
+          <t>08272025</t>
+        </is>
+      </c>
+      <c r="BA215" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD215" t="inlineStr">
+        <is>
+          <t>S00360479-10000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD215"/>
+  <dimension ref="A1:BD216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45959,159 +45959,137 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D206" t="n">
-        <v>72</v>
-      </c>
+      <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
+          <t>Unis Warehouse</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>Unis Warehouse</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>6800 Valley View St</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>Buena Park</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>90620</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>S00357370</t>
+          <t>S00360479</t>
         </is>
       </c>
       <c r="M206" t="inlineStr"/>
-      <c r="N206" t="n">
-        <v>70823080</v>
-      </c>
+      <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>3850803825</t>
+          <t>08272025</t>
         </is>
       </c>
       <c r="P206" s="2" t="n">
-        <v>45887</v>
+        <v>45896</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>8/18/2025 8:05:00 AM</t>
+          <t>8/27/2025 2:21:13 PM</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="T206" t="inlineStr"/>
-      <c r="U206" s="2" t="n">
-        <v>45899</v>
-      </c>
+      <c r="U206" t="inlineStr"/>
       <c r="V206" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W206" s="2" t="n">
-        <v>45891</v>
+        <v>45904</v>
       </c>
       <c r="X206" t="inlineStr">
         <is>
-          <t>TAB5106/37</t>
-        </is>
-      </c>
-      <c r="Y206" t="inlineStr">
-        <is>
-          <t>030858488</t>
-        </is>
-      </c>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y206" t="inlineStr"/>
       <c r="Z206" t="n">
-        <v>30</v>
+        <v>650</v>
       </c>
       <c r="AA206" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB206" t="inlineStr"/>
       <c r="AC206" t="inlineStr"/>
       <c r="AD206" t="inlineStr">
         <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE206" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="AE206" t="inlineStr"/>
       <c r="AF206" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Primary Freight Services Inc</t>
         </is>
       </c>
       <c r="AG206" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AH206" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Primary Freight Services Inc</t>
         </is>
       </c>
       <c r="AI206" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>08272025</t>
         </is>
       </c>
       <c r="AJ206" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK206" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK206" t="inlineStr"/>
       <c r="AL206" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="AM206" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="AN206" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="AO206" t="inlineStr">
@@ -46121,57 +46099,53 @@
       </c>
       <c r="AP206" t="inlineStr">
         <is>
-          <t>EDI</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="AQ206" t="inlineStr">
         <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+          <t>Soundbar</t>
         </is>
       </c>
       <c r="AR206" t="inlineStr"/>
-      <c r="AS206" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
+      <c r="AS206" t="inlineStr"/>
       <c r="AT206" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>EACH</t>
         </is>
       </c>
       <c r="AU206" t="n">
-        <v>22.68366987521374</v>
+        <v>384.1527083333334</v>
       </c>
       <c r="AV206" t="n">
-        <v>22.68366987521374</v>
+        <v>384.1527083333334</v>
       </c>
       <c r="AW206" t="n">
-        <v>181.8</v>
+        <v>0</v>
       </c>
       <c r="AX206" t="n">
-        <v>181.8</v>
+        <v>0</v>
       </c>
       <c r="AY206" t="n">
-        <v>0.4166</v>
+        <v>6.7708</v>
       </c>
       <c r="AZ206" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>08272025</t>
         </is>
       </c>
       <c r="BA206" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB206" t="n">
-        <v>840063202368</v>
+        <v>840063204546</v>
       </c>
       <c r="BC206" t="n">
         <v>10000</v>
       </c>
       <c r="BD206" t="inlineStr">
         <is>
-          <t>S00357370-10000</t>
+          <t>S00360479-10000</t>
         </is>
       </c>
     </row>
@@ -46211,12 +46185,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -46226,21 +46200,21 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>S00357371</t>
+          <t>S00357370</t>
         </is>
       </c>
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="n">
-        <v>70823079</v>
+        <v>70823080</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>4001223932</t>
+          <t>3850803825</t>
         </is>
       </c>
       <c r="P207" s="2" t="n">
@@ -46253,19 +46227,17 @@
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
-        </is>
-      </c>
-      <c r="T207" s="2" t="n">
-        <v>45887</v>
-      </c>
+          <t>8/22/2025 11:17:44 AM</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr"/>
       <c r="U207" s="2" t="n">
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="V207" t="inlineStr">
         <is>
@@ -46320,7 +46292,7 @@
       </c>
       <c r="AI207" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A652555</t>
         </is>
       </c>
       <c r="AJ207" t="inlineStr">
@@ -46345,7 +46317,7 @@
       </c>
       <c r="AN207" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="AO207" t="inlineStr">
@@ -46391,7 +46363,7 @@
       </c>
       <c r="AZ207" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A652555</t>
         </is>
       </c>
       <c r="BA207" t="n">
@@ -46405,7 +46377,7 @@
       </c>
       <c r="BD207" t="inlineStr">
         <is>
-          <t>S00357371-10000</t>
+          <t>S00357370-10000</t>
         </is>
       </c>
     </row>
@@ -46511,19 +46483,19 @@
       </c>
       <c r="X208" t="inlineStr">
         <is>
-          <t>TAB5306/37</t>
+          <t>TAB5106/37</t>
         </is>
       </c>
       <c r="Y208" t="inlineStr">
         <is>
-          <t>030858847</t>
+          <t>030858488</t>
         </is>
       </c>
       <c r="Z208" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="AA208" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="AB208" t="inlineStr"/>
       <c r="AC208" t="inlineStr"/>
@@ -46594,7 +46566,7 @@
       </c>
       <c r="AQ208" t="inlineStr">
         <is>
-          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
         </is>
       </c>
       <c r="AR208" t="inlineStr"/>
@@ -46609,19 +46581,19 @@
         </is>
       </c>
       <c r="AU208" t="n">
-        <v>155.2264730367896</v>
+        <v>22.68366987521374</v>
       </c>
       <c r="AV208" t="n">
-        <v>155.2264730367896</v>
+        <v>22.68366987521374</v>
       </c>
       <c r="AW208" t="n">
-        <v>770</v>
+        <v>181.8</v>
       </c>
       <c r="AX208" t="n">
-        <v>770</v>
+        <v>181.8</v>
       </c>
       <c r="AY208" t="n">
-        <v>1.9999</v>
+        <v>0.4166</v>
       </c>
       <c r="AZ208" t="inlineStr">
         <is>
@@ -46632,14 +46604,14 @@
         <v>2</v>
       </c>
       <c r="BB208" t="n">
-        <v>840063202351</v>
+        <v>840063202368</v>
       </c>
       <c r="BC208" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD208" t="inlineStr">
         <is>
-          <t>S00357371-20000</t>
+          <t>S00357371-10000</t>
         </is>
       </c>
     </row>
@@ -46659,30 +46631,32 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>72</v>
+      </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>DC#1016, 9200 AIRPORT RD.</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -46692,68 +46666,70 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>L6S 6G6</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>S00358847</t>
+          <t>S00357371</t>
         </is>
       </c>
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="n">
-        <v>70832067</v>
+        <v>70823079</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>59103701</t>
+          <t>4001223932</t>
         </is>
       </c>
       <c r="P209" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>8/18/2025 8:05:00 AM</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="T209" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="U209" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W209" s="2" t="n">
         <v>45891</v>
       </c>
-      <c r="Q209" t="inlineStr">
-        <is>
-          <t>8/22/2025 5:35:12 AM</t>
-        </is>
-      </c>
-      <c r="R209" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/29/2025 </t>
-        </is>
-      </c>
-      <c r="S209" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/29/2025 </t>
-        </is>
-      </c>
-      <c r="T209" t="inlineStr"/>
-      <c r="U209" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="V209" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W209" s="2" t="n">
-        <v>45898</v>
-      </c>
       <c r="X209" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
+          <t>TAB5306/37</t>
         </is>
       </c>
       <c r="Y209" t="inlineStr">
         <is>
-          <t>18597408</t>
+          <t>030858847</t>
         </is>
       </c>
       <c r="Z209" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="AA209" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="AB209" t="inlineStr"/>
       <c r="AC209" t="inlineStr"/>
@@ -46784,7 +46760,7 @@
       </c>
       <c r="AI209" t="inlineStr">
         <is>
-          <t>A653064</t>
+          <t>A652551</t>
         </is>
       </c>
       <c r="AJ209" t="inlineStr">
@@ -46799,17 +46775,17 @@
       </c>
       <c r="AL209" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AM209" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AN209" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AO209" t="inlineStr">
@@ -46824,7 +46800,7 @@
       </c>
       <c r="AQ209" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
         </is>
       </c>
       <c r="AR209" t="inlineStr"/>
@@ -46839,37 +46815,37 @@
         </is>
       </c>
       <c r="AU209" t="n">
-        <v>19.29505102995333</v>
+        <v>155.2264730367896</v>
       </c>
       <c r="AV209" t="n">
-        <v>19.29505102995333</v>
+        <v>155.2264730367896</v>
       </c>
       <c r="AW209" t="n">
-        <v>218.2576</v>
+        <v>770</v>
       </c>
       <c r="AX209" t="n">
-        <v>218.2576</v>
+        <v>770</v>
       </c>
       <c r="AY209" t="n">
-        <v>0.4546</v>
+        <v>1.9999</v>
       </c>
       <c r="AZ209" t="inlineStr">
         <is>
-          <t>A653064</t>
+          <t>A652551</t>
         </is>
       </c>
       <c r="BA209" t="n">
         <v>2</v>
       </c>
       <c r="BB209" t="n">
-        <v>840063203563</v>
+        <v>840063202351</v>
       </c>
       <c r="BC209" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD209" t="inlineStr">
         <is>
-          <t>S00358847-10000</t>
+          <t>S00357371-20000</t>
         </is>
       </c>
     </row>
@@ -46889,32 +46865,30 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D210" t="n">
-        <v>72</v>
-      </c>
+      <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -46924,46 +46898,44 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>L6S 6G6</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>S00359896</t>
+          <t>S00358847</t>
         </is>
       </c>
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="n">
-        <v>70838071</v>
+        <v>70832067</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>4001223951</t>
+          <t>59103701</t>
         </is>
       </c>
       <c r="P210" s="2" t="n">
-        <v>45895</v>
+        <v>45891</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>8/26/2025 7:21:39 AM</t>
+          <t>8/22/2025 5:35:12 AM</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="S210" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T210" s="2" t="n">
-        <v>45894</v>
-      </c>
+          <t xml:space="preserve">8/29/2025 </t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr"/>
       <c r="U210" s="2" t="n">
-        <v>45905</v>
+        <v>45901</v>
       </c>
       <c r="V210" t="inlineStr">
         <is>
@@ -46971,23 +46943,23 @@
         </is>
       </c>
       <c r="W210" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="X210" t="inlineStr">
         <is>
-          <t>TAB5106/37</t>
+          <t>TAB5109/37</t>
         </is>
       </c>
       <c r="Y210" t="inlineStr">
         <is>
-          <t>030858488</t>
+          <t>18597408</t>
         </is>
       </c>
       <c r="Z210" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AA210" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AB210" t="inlineStr"/>
       <c r="AC210" t="inlineStr"/>
@@ -47018,7 +46990,7 @@
       </c>
       <c r="AI210" t="inlineStr">
         <is>
-          <t>A653231</t>
+          <t>A653064</t>
         </is>
       </c>
       <c r="AJ210" t="inlineStr">
@@ -47033,17 +47005,17 @@
       </c>
       <c r="AL210" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="AM210" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="AN210" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="AO210" t="inlineStr">
@@ -47058,7 +47030,7 @@
       </c>
       <c r="AQ210" t="inlineStr">
         <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR210" t="inlineStr"/>
@@ -47073,37 +47045,37 @@
         </is>
       </c>
       <c r="AU210" t="n">
-        <v>45.36733975042748</v>
+        <v>19.29505102995333</v>
       </c>
       <c r="AV210" t="n">
-        <v>45.36733975042748</v>
+        <v>19.29505102995333</v>
       </c>
       <c r="AW210" t="n">
-        <v>363.6461</v>
+        <v>218.2576</v>
       </c>
       <c r="AX210" t="n">
-        <v>363.6461</v>
+        <v>218.2576</v>
       </c>
       <c r="AY210" t="n">
-        <v>0.7572</v>
+        <v>0.4546</v>
       </c>
       <c r="AZ210" t="inlineStr">
         <is>
-          <t>A653231</t>
+          <t>A653064</t>
         </is>
       </c>
       <c r="BA210" t="n">
         <v>2</v>
       </c>
       <c r="BB210" t="n">
-        <v>840063202368</v>
+        <v>840063203563</v>
       </c>
       <c r="BC210" t="n">
         <v>10000</v>
       </c>
       <c r="BD210" t="inlineStr">
         <is>
-          <t>S00359896-10000</t>
+          <t>S00358847-10000</t>
         </is>
       </c>
     </row>
@@ -47163,16 +47135,16 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>S00360097</t>
+          <t>S00359896</t>
         </is>
       </c>
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="n">
-        <v>70838223</v>
+        <v>70838071</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>4001223987</t>
+          <t>4001223951</t>
         </is>
       </c>
       <c r="P211" s="2" t="n">
@@ -47180,7 +47152,7 @@
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:54 PM</t>
+          <t>8/26/2025 7:21:39 AM</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
@@ -47194,10 +47166,10 @@
         </is>
       </c>
       <c r="T211" s="2" t="n">
-        <v>45895</v>
+        <v>45894</v>
       </c>
       <c r="U211" s="2" t="n">
-        <v>45906</v>
+        <v>45905</v>
       </c>
       <c r="V211" t="inlineStr">
         <is>
@@ -47218,10 +47190,10 @@
         </is>
       </c>
       <c r="Z211" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AA211" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AB211" t="inlineStr"/>
       <c r="AC211" t="inlineStr"/>
@@ -47252,7 +47224,7 @@
       </c>
       <c r="AI211" t="inlineStr">
         <is>
-          <t>A653239</t>
+          <t>A653231</t>
         </is>
       </c>
       <c r="AJ211" t="inlineStr">
@@ -47307,23 +47279,23 @@
         </is>
       </c>
       <c r="AU211" t="n">
-        <v>25.7081591919089</v>
+        <v>45.36733975042748</v>
       </c>
       <c r="AV211" t="n">
-        <v>25.7081591919089</v>
+        <v>45.36733975042748</v>
       </c>
       <c r="AW211" t="n">
-        <v>206.04</v>
+        <v>363.6461</v>
       </c>
       <c r="AX211" t="n">
-        <v>206.04</v>
+        <v>363.6461</v>
       </c>
       <c r="AY211" t="n">
-        <v>0.4722</v>
+        <v>0.7572</v>
       </c>
       <c r="AZ211" t="inlineStr">
         <is>
-          <t>A653239</t>
+          <t>A653231</t>
         </is>
       </c>
       <c r="BA211" t="n">
@@ -47337,7 +47309,7 @@
       </c>
       <c r="BD211" t="inlineStr">
         <is>
-          <t>S00360097-10000</t>
+          <t>S00359896-10000</t>
         </is>
       </c>
     </row>
@@ -47377,36 +47349,36 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>S00360098</t>
+          <t>S00360097</t>
         </is>
       </c>
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="n">
-        <v>70838222</v>
+        <v>70838223</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>3150833548</t>
+          <t>4001223987</t>
         </is>
       </c>
       <c r="P212" s="2" t="n">
@@ -47414,7 +47386,7 @@
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:55 PM</t>
+          <t>8/26/2025 12:07:54 PM</t>
         </is>
       </c>
       <c r="R212" t="inlineStr">
@@ -47431,7 +47403,7 @@
         <v>45895</v>
       </c>
       <c r="U212" s="2" t="n">
-        <v>45902</v>
+        <v>45906</v>
       </c>
       <c r="V212" t="inlineStr">
         <is>
@@ -47452,10 +47424,10 @@
         </is>
       </c>
       <c r="Z212" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AA212" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AB212" t="inlineStr"/>
       <c r="AC212" t="inlineStr"/>
@@ -47486,7 +47458,7 @@
       </c>
       <c r="AI212" t="inlineStr">
         <is>
-          <t>A653232</t>
+          <t>A653239</t>
         </is>
       </c>
       <c r="AJ212" t="inlineStr">
@@ -47541,23 +47513,23 @@
         </is>
       </c>
       <c r="AU212" t="n">
-        <v>18.90305822934478</v>
+        <v>25.7081591919089</v>
       </c>
       <c r="AV212" t="n">
-        <v>18.90305822934478</v>
+        <v>25.7081591919089</v>
       </c>
       <c r="AW212" t="n">
-        <v>151.5</v>
+        <v>206.04</v>
       </c>
       <c r="AX212" t="n">
-        <v>151.5</v>
+        <v>206.04</v>
       </c>
       <c r="AY212" t="n">
-        <v>0.3473</v>
+        <v>0.4722</v>
       </c>
       <c r="AZ212" t="inlineStr">
         <is>
-          <t>A653232</t>
+          <t>A653239</t>
         </is>
       </c>
       <c r="BA212" t="n">
@@ -47571,7 +47543,7 @@
       </c>
       <c r="BD212" t="inlineStr">
         <is>
-          <t>S00360098-10000</t>
+          <t>S00360097-10000</t>
         </is>
       </c>
     </row>
@@ -47611,36 +47583,36 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>CALGARY</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>S00360099</t>
+          <t>S00360098</t>
         </is>
       </c>
       <c r="M213" t="inlineStr"/>
       <c r="N213" t="n">
-        <v>70838224</v>
+        <v>70838222</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>3850803890</t>
+          <t>3150833548</t>
         </is>
       </c>
       <c r="P213" s="2" t="n">
@@ -47648,7 +47620,7 @@
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:56 PM</t>
+          <t>8/26/2025 12:07:55 PM</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
@@ -47665,7 +47637,7 @@
         <v>45895</v>
       </c>
       <c r="U213" s="2" t="n">
-        <v>45907</v>
+        <v>45902</v>
       </c>
       <c r="V213" t="inlineStr">
         <is>
@@ -47686,10 +47658,10 @@
         </is>
       </c>
       <c r="Z213" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AA213" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AB213" t="inlineStr"/>
       <c r="AC213" t="inlineStr"/>
@@ -47720,7 +47692,7 @@
       </c>
       <c r="AI213" t="inlineStr">
         <is>
-          <t>A653244</t>
+          <t>A653232</t>
         </is>
       </c>
       <c r="AJ213" t="inlineStr">
@@ -47775,23 +47747,23 @@
         </is>
       </c>
       <c r="AU213" t="n">
-        <v>12.85407959595445</v>
+        <v>18.90305822934478</v>
       </c>
       <c r="AV213" t="n">
-        <v>12.85407959595445</v>
+        <v>18.90305822934478</v>
       </c>
       <c r="AW213" t="n">
-        <v>103.0336</v>
+        <v>151.5</v>
       </c>
       <c r="AX213" t="n">
-        <v>103.0336</v>
+        <v>151.5</v>
       </c>
       <c r="AY213" t="n">
-        <v>0.2137</v>
+        <v>0.3473</v>
       </c>
       <c r="AZ213" t="inlineStr">
         <is>
-          <t>A653244</t>
+          <t>A653232</t>
         </is>
       </c>
       <c r="BA213" t="n">
@@ -47805,7 +47777,7 @@
       </c>
       <c r="BD213" t="inlineStr">
         <is>
-          <t>S00360099-10000</t>
+          <t>S00360098-10000</t>
         </is>
       </c>
     </row>
@@ -47911,19 +47883,19 @@
       </c>
       <c r="X214" t="inlineStr">
         <is>
-          <t>TAB5306/37</t>
+          <t>TAB5106/37</t>
         </is>
       </c>
       <c r="Y214" t="inlineStr">
         <is>
-          <t>030858847</t>
+          <t>030858488</t>
         </is>
       </c>
       <c r="Z214" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AA214" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AB214" t="inlineStr"/>
       <c r="AC214" t="inlineStr"/>
@@ -47994,7 +47966,7 @@
       </c>
       <c r="AQ214" t="inlineStr">
         <is>
-          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
         </is>
       </c>
       <c r="AR214" t="inlineStr"/>
@@ -48009,19 +47981,19 @@
         </is>
       </c>
       <c r="AU214" t="n">
-        <v>11.08760521691354</v>
+        <v>12.85407959595445</v>
       </c>
       <c r="AV214" t="n">
-        <v>11.08760521691354</v>
+        <v>12.85407959595445</v>
       </c>
       <c r="AW214" t="n">
-        <v>55</v>
+        <v>103.0336</v>
       </c>
       <c r="AX214" t="n">
-        <v>55</v>
+        <v>103.0336</v>
       </c>
       <c r="AY214" t="n">
-        <v>0.1429</v>
+        <v>0.2137</v>
       </c>
       <c r="AZ214" t="inlineStr">
         <is>
@@ -48032,14 +48004,14 @@
         <v>2</v>
       </c>
       <c r="BB214" t="n">
-        <v>840063202351</v>
+        <v>840063202368</v>
       </c>
       <c r="BC214" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD214" t="inlineStr">
         <is>
-          <t>S00360099-20000</t>
+          <t>S00360099-10000</t>
         </is>
       </c>
     </row>
@@ -48059,191 +48031,425 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr"/>
+      <c r="D215" t="n">
+        <v>72</v>
+      </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Unis Warehouse</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr"/>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Unis Warehouse</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>6800 Valley View St</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Buena Park</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>90620</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>S00360479</t>
+          <t>S00360099</t>
         </is>
       </c>
       <c r="M215" t="inlineStr"/>
-      <c r="N215" t="inlineStr"/>
+      <c r="N215" t="n">
+        <v>70838224</v>
+      </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>08272025</t>
+          <t>3850803890</t>
         </is>
       </c>
       <c r="P215" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>8/27/2025 2:21:13 PM</t>
+          <t>8/26/2025 12:07:56 PM</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S215" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4/2025 </t>
-        </is>
-      </c>
-      <c r="T215" t="inlineStr"/>
-      <c r="U215" t="inlineStr"/>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T215" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="U215" s="2" t="n">
+        <v>45907</v>
+      </c>
       <c r="V215" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W215" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
       <c r="X215" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
-        </is>
-      </c>
-      <c r="Y215" t="inlineStr"/>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y215" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
+      </c>
       <c r="Z215" t="n">
-        <v>650</v>
+        <v>4</v>
       </c>
       <c r="AA215" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB215" t="inlineStr"/>
       <c r="AC215" t="inlineStr"/>
       <c r="AD215" t="inlineStr">
         <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE215" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF215" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG215" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH215" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI215" t="inlineStr">
+        <is>
+          <t>A653244</t>
+        </is>
+      </c>
+      <c r="AJ215" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK215" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AN215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO215" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP215" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ215" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR215" t="inlineStr"/>
+      <c r="AS215" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT215" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU215" t="n">
+        <v>11.08760521691354</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>11.08760521691354</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>55</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>55</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>0.1429</v>
+      </c>
+      <c r="AZ215" t="inlineStr">
+        <is>
+          <t>A653244</t>
+        </is>
+      </c>
+      <c r="BA215" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>840063202351</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD215" t="inlineStr">
+        <is>
+          <t>S00360099-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Unis Warehouse</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Unis Warehouse</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>6800 Valley View St</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Buena Park</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>90620</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>S00360479</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="inlineStr"/>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>08272025</t>
+        </is>
+      </c>
+      <c r="P216" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>8/27/2025 2:21:13 PM</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/4/2025 </t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/4/2025 </t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr"/>
+      <c r="U216" t="inlineStr"/>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W216" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="X216" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y216" t="inlineStr"/>
+      <c r="Z216" t="n">
+        <v>650</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB216" t="inlineStr"/>
+      <c r="AC216" t="inlineStr"/>
+      <c r="AD216" t="inlineStr">
+        <is>
           <t>Manual</t>
         </is>
       </c>
-      <c r="AE215" t="inlineStr"/>
-      <c r="AF215" t="inlineStr">
+      <c r="AE216" t="inlineStr"/>
+      <c r="AF216" t="inlineStr">
         <is>
           <t>Primary Freight Services Inc</t>
         </is>
       </c>
-      <c r="AG215" t="inlineStr">
+      <c r="AG216" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="AH215" t="inlineStr">
+      <c r="AH216" t="inlineStr">
         <is>
           <t>Primary Freight Services Inc</t>
         </is>
       </c>
-      <c r="AI215" t="inlineStr">
+      <c r="AI216" t="inlineStr">
         <is>
           <t>08272025</t>
         </is>
       </c>
-      <c r="AJ215" t="inlineStr">
+      <c r="AJ216" t="inlineStr">
         <is>
           <t>Collect</t>
         </is>
       </c>
-      <c r="AK215" t="inlineStr"/>
-      <c r="AL215" t="inlineStr">
+      <c r="AK216" t="inlineStr"/>
+      <c r="AL216" t="inlineStr">
         <is>
           <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
-      <c r="AM215" t="inlineStr">
+      <c r="AM216" t="inlineStr">
         <is>
           <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
-      <c r="AN215" t="inlineStr">
+      <c r="AN216" t="inlineStr">
         <is>
           <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
-      <c r="AO215" t="inlineStr">
+      <c r="AO216" t="inlineStr">
         <is>
           <t>18 Wheels</t>
         </is>
       </c>
-      <c r="AP215" t="inlineStr">
+      <c r="AP216" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
-      <c r="AQ215" t="inlineStr">
+      <c r="AQ216" t="inlineStr">
         <is>
           <t>Soundbar</t>
         </is>
       </c>
-      <c r="AR215" t="inlineStr"/>
-      <c r="AS215" t="inlineStr"/>
-      <c r="AT215" t="inlineStr">
+      <c r="AR216" t="inlineStr"/>
+      <c r="AS216" t="inlineStr"/>
+      <c r="AT216" t="inlineStr">
         <is>
           <t>EACH</t>
         </is>
       </c>
-      <c r="AU215" t="n">
+      <c r="AU216" t="n">
         <v>384.1527083333334</v>
       </c>
-      <c r="AV215" t="n">
+      <c r="AV216" t="n">
         <v>384.1527083333334</v>
       </c>
-      <c r="AW215" t="n">
+      <c r="AW216" t="n">
         <v>0</v>
       </c>
-      <c r="AX215" t="n">
+      <c r="AX216" t="n">
         <v>0</v>
       </c>
-      <c r="AY215" t="n">
+      <c r="AY216" t="n">
         <v>6.7708</v>
       </c>
-      <c r="AZ215" t="inlineStr">
+      <c r="AZ216" t="inlineStr">
         <is>
           <t>08272025</t>
         </is>
       </c>
-      <c r="BA215" t="n">
+      <c r="BA216" t="n">
         <v>4</v>
       </c>
-      <c r="BB215" t="n">
+      <c r="BB216" t="n">
         <v>840063204546</v>
       </c>
-      <c r="BC215" t="n">
+      <c r="BC216" t="n">
         <v>10000</v>
       </c>
-      <c r="BD215" t="inlineStr">
+      <c r="BD216" t="inlineStr">
         <is>
           <t>S00360479-10000</t>
         </is>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD216"/>
+  <dimension ref="A1:BD217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47095,105 +47095,101 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>72</v>
-      </c>
+      <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>DC#1008, 19890-92A AVE.</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>LANGLEY</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>V1M 3A9</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>S00359896</t>
+          <t>S00358848</t>
         </is>
       </c>
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="n">
-        <v>70838071</v>
+        <v>70832065</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>4001223951</t>
+          <t>59103700</t>
         </is>
       </c>
       <c r="P211" s="2" t="n">
-        <v>45895</v>
+        <v>45891</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>8/26/2025 7:21:39 AM</t>
+          <t>8/22/2025 5:35:13 AM</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="S211" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T211" s="2" t="n">
-        <v>45894</v>
-      </c>
+          <t xml:space="preserve">9/5/2025 </t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr"/>
       <c r="U211" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W211" s="2" t="n">
         <v>45905</v>
       </c>
-      <c r="V211" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W211" s="2" t="n">
-        <v>45897</v>
-      </c>
       <c r="X211" t="inlineStr">
         <is>
-          <t>TAB5106/37</t>
+          <t>TAB5109/37</t>
         </is>
       </c>
       <c r="Y211" t="inlineStr">
         <is>
-          <t>030858488</t>
+          <t>18597408</t>
         </is>
       </c>
       <c r="Z211" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AA211" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AB211" t="inlineStr"/>
       <c r="AC211" t="inlineStr"/>
@@ -47224,7 +47220,7 @@
       </c>
       <c r="AI211" t="inlineStr">
         <is>
-          <t>A653231</t>
+          <t>A653091</t>
         </is>
       </c>
       <c r="AJ211" t="inlineStr">
@@ -47239,17 +47235,17 @@
       </c>
       <c r="AL211" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="AM211" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="AN211" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="AO211" t="inlineStr">
@@ -47264,7 +47260,7 @@
       </c>
       <c r="AQ211" t="inlineStr">
         <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR211" t="inlineStr"/>
@@ -47279,37 +47275,37 @@
         </is>
       </c>
       <c r="AU211" t="n">
-        <v>45.36733975042748</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AV211" t="n">
-        <v>45.36733975042748</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AW211" t="n">
-        <v>363.6461</v>
+        <v>72.7526</v>
       </c>
       <c r="AX211" t="n">
-        <v>363.6461</v>
+        <v>72.7526</v>
       </c>
       <c r="AY211" t="n">
-        <v>0.7572</v>
+        <v>0.1516</v>
       </c>
       <c r="AZ211" t="inlineStr">
         <is>
-          <t>A653231</t>
+          <t>A653091</t>
         </is>
       </c>
       <c r="BA211" t="n">
         <v>2</v>
       </c>
       <c r="BB211" t="n">
-        <v>840063202368</v>
+        <v>840063203563</v>
       </c>
       <c r="BC211" t="n">
         <v>10000</v>
       </c>
       <c r="BD211" t="inlineStr">
         <is>
-          <t>S00359896-10000</t>
+          <t>S00358848-10000</t>
         </is>
       </c>
     </row>
@@ -47369,16 +47365,16 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>S00360097</t>
+          <t>S00359896</t>
         </is>
       </c>
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="n">
-        <v>70838223</v>
+        <v>70838071</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>4001223987</t>
+          <t>4001223951</t>
         </is>
       </c>
       <c r="P212" s="2" t="n">
@@ -47386,7 +47382,7 @@
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:54 PM</t>
+          <t>8/26/2025 7:21:39 AM</t>
         </is>
       </c>
       <c r="R212" t="inlineStr">
@@ -47400,10 +47396,10 @@
         </is>
       </c>
       <c r="T212" s="2" t="n">
-        <v>45895</v>
+        <v>45894</v>
       </c>
       <c r="U212" s="2" t="n">
-        <v>45906</v>
+        <v>45905</v>
       </c>
       <c r="V212" t="inlineStr">
         <is>
@@ -47424,10 +47420,10 @@
         </is>
       </c>
       <c r="Z212" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AA212" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AB212" t="inlineStr"/>
       <c r="AC212" t="inlineStr"/>
@@ -47458,7 +47454,7 @@
       </c>
       <c r="AI212" t="inlineStr">
         <is>
-          <t>A653239</t>
+          <t>A653231</t>
         </is>
       </c>
       <c r="AJ212" t="inlineStr">
@@ -47513,23 +47509,23 @@
         </is>
       </c>
       <c r="AU212" t="n">
-        <v>25.7081591919089</v>
+        <v>45.36733975042748</v>
       </c>
       <c r="AV212" t="n">
-        <v>25.7081591919089</v>
+        <v>45.36733975042748</v>
       </c>
       <c r="AW212" t="n">
-        <v>206.04</v>
+        <v>363.6461</v>
       </c>
       <c r="AX212" t="n">
-        <v>206.04</v>
+        <v>363.6461</v>
       </c>
       <c r="AY212" t="n">
-        <v>0.4722</v>
+        <v>0.7572</v>
       </c>
       <c r="AZ212" t="inlineStr">
         <is>
-          <t>A653239</t>
+          <t>A653231</t>
         </is>
       </c>
       <c r="BA212" t="n">
@@ -47543,7 +47539,7 @@
       </c>
       <c r="BD212" t="inlineStr">
         <is>
-          <t>S00360097-10000</t>
+          <t>S00359896-10000</t>
         </is>
       </c>
     </row>
@@ -47583,36 +47579,36 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>S00360098</t>
+          <t>S00360097</t>
         </is>
       </c>
       <c r="M213" t="inlineStr"/>
       <c r="N213" t="n">
-        <v>70838222</v>
+        <v>70838223</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>3150833548</t>
+          <t>4001223987</t>
         </is>
       </c>
       <c r="P213" s="2" t="n">
@@ -47620,7 +47616,7 @@
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:55 PM</t>
+          <t>8/26/2025 12:07:54 PM</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
@@ -47637,7 +47633,7 @@
         <v>45895</v>
       </c>
       <c r="U213" s="2" t="n">
-        <v>45902</v>
+        <v>45906</v>
       </c>
       <c r="V213" t="inlineStr">
         <is>
@@ -47658,10 +47654,10 @@
         </is>
       </c>
       <c r="Z213" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AA213" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AB213" t="inlineStr"/>
       <c r="AC213" t="inlineStr"/>
@@ -47692,7 +47688,7 @@
       </c>
       <c r="AI213" t="inlineStr">
         <is>
-          <t>A653232</t>
+          <t>A653239</t>
         </is>
       </c>
       <c r="AJ213" t="inlineStr">
@@ -47747,23 +47743,23 @@
         </is>
       </c>
       <c r="AU213" t="n">
-        <v>18.90305822934478</v>
+        <v>25.7081591919089</v>
       </c>
       <c r="AV213" t="n">
-        <v>18.90305822934478</v>
+        <v>25.7081591919089</v>
       </c>
       <c r="AW213" t="n">
-        <v>151.5</v>
+        <v>206.04</v>
       </c>
       <c r="AX213" t="n">
-        <v>151.5</v>
+        <v>206.04</v>
       </c>
       <c r="AY213" t="n">
-        <v>0.3473</v>
+        <v>0.4722</v>
       </c>
       <c r="AZ213" t="inlineStr">
         <is>
-          <t>A653232</t>
+          <t>A653239</t>
         </is>
       </c>
       <c r="BA213" t="n">
@@ -47777,7 +47773,7 @@
       </c>
       <c r="BD213" t="inlineStr">
         <is>
-          <t>S00360098-10000</t>
+          <t>S00360097-10000</t>
         </is>
       </c>
     </row>
@@ -47817,36 +47813,36 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>CALGARY</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>S00360099</t>
+          <t>S00360098</t>
         </is>
       </c>
       <c r="M214" t="inlineStr"/>
       <c r="N214" t="n">
-        <v>70838224</v>
+        <v>70838222</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>3850803890</t>
+          <t>3150833548</t>
         </is>
       </c>
       <c r="P214" s="2" t="n">
@@ -47854,7 +47850,7 @@
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:56 PM</t>
+          <t>8/26/2025 12:07:55 PM</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
@@ -47871,7 +47867,7 @@
         <v>45895</v>
       </c>
       <c r="U214" s="2" t="n">
-        <v>45907</v>
+        <v>45902</v>
       </c>
       <c r="V214" t="inlineStr">
         <is>
@@ -47892,10 +47888,10 @@
         </is>
       </c>
       <c r="Z214" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AA214" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AB214" t="inlineStr"/>
       <c r="AC214" t="inlineStr"/>
@@ -47926,7 +47922,7 @@
       </c>
       <c r="AI214" t="inlineStr">
         <is>
-          <t>A653244</t>
+          <t>A653232</t>
         </is>
       </c>
       <c r="AJ214" t="inlineStr">
@@ -47981,23 +47977,23 @@
         </is>
       </c>
       <c r="AU214" t="n">
-        <v>12.85407959595445</v>
+        <v>18.90305822934478</v>
       </c>
       <c r="AV214" t="n">
-        <v>12.85407959595445</v>
+        <v>18.90305822934478</v>
       </c>
       <c r="AW214" t="n">
-        <v>103.0336</v>
+        <v>151.5</v>
       </c>
       <c r="AX214" t="n">
-        <v>103.0336</v>
+        <v>151.5</v>
       </c>
       <c r="AY214" t="n">
-        <v>0.2137</v>
+        <v>0.3473</v>
       </c>
       <c r="AZ214" t="inlineStr">
         <is>
-          <t>A653244</t>
+          <t>A653232</t>
         </is>
       </c>
       <c r="BA214" t="n">
@@ -48011,7 +48007,7 @@
       </c>
       <c r="BD214" t="inlineStr">
         <is>
-          <t>S00360099-10000</t>
+          <t>S00360098-10000</t>
         </is>
       </c>
     </row>
@@ -48117,19 +48113,19 @@
       </c>
       <c r="X215" t="inlineStr">
         <is>
-          <t>TAB5306/37</t>
+          <t>TAB5106/37</t>
         </is>
       </c>
       <c r="Y215" t="inlineStr">
         <is>
-          <t>030858847</t>
+          <t>030858488</t>
         </is>
       </c>
       <c r="Z215" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AA215" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AB215" t="inlineStr"/>
       <c r="AC215" t="inlineStr"/>
@@ -48200,7 +48196,7 @@
       </c>
       <c r="AQ215" t="inlineStr">
         <is>
-          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
         </is>
       </c>
       <c r="AR215" t="inlineStr"/>
@@ -48215,19 +48211,19 @@
         </is>
       </c>
       <c r="AU215" t="n">
-        <v>11.08760521691354</v>
+        <v>12.85407959595445</v>
       </c>
       <c r="AV215" t="n">
-        <v>11.08760521691354</v>
+        <v>12.85407959595445</v>
       </c>
       <c r="AW215" t="n">
-        <v>55</v>
+        <v>103.0336</v>
       </c>
       <c r="AX215" t="n">
-        <v>55</v>
+        <v>103.0336</v>
       </c>
       <c r="AY215" t="n">
-        <v>0.1429</v>
+        <v>0.2137</v>
       </c>
       <c r="AZ215" t="inlineStr">
         <is>
@@ -48238,14 +48234,14 @@
         <v>2</v>
       </c>
       <c r="BB215" t="n">
-        <v>840063202351</v>
+        <v>840063202368</v>
       </c>
       <c r="BC215" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD215" t="inlineStr">
         <is>
-          <t>S00360099-20000</t>
+          <t>S00360099-10000</t>
         </is>
       </c>
     </row>
@@ -48265,191 +48261,425 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>72</v>
+      </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Unis Warehouse</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr"/>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Unis Warehouse</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>6800 Valley View St</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Buena Park</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>90620</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>S00360479</t>
+          <t>S00360099</t>
         </is>
       </c>
       <c r="M216" t="inlineStr"/>
-      <c r="N216" t="inlineStr"/>
+      <c r="N216" t="n">
+        <v>70838224</v>
+      </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>08272025</t>
+          <t>3850803890</t>
         </is>
       </c>
       <c r="P216" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>8/27/2025 2:21:13 PM</t>
+          <t>8/26/2025 12:07:56 PM</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4/2025 </t>
-        </is>
-      </c>
-      <c r="T216" t="inlineStr"/>
-      <c r="U216" t="inlineStr"/>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T216" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="U216" s="2" t="n">
+        <v>45907</v>
+      </c>
       <c r="V216" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W216" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
       <c r="X216" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
-        </is>
-      </c>
-      <c r="Y216" t="inlineStr"/>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y216" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
+      </c>
       <c r="Z216" t="n">
-        <v>650</v>
+        <v>4</v>
       </c>
       <c r="AA216" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB216" t="inlineStr"/>
       <c r="AC216" t="inlineStr"/>
       <c r="AD216" t="inlineStr">
         <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE216" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF216" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG216" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH216" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI216" t="inlineStr">
+        <is>
+          <t>A653244</t>
+        </is>
+      </c>
+      <c r="AJ216" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK216" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AN216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO216" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP216" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ216" t="inlineStr">
+        <is>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+        </is>
+      </c>
+      <c r="AR216" t="inlineStr"/>
+      <c r="AS216" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT216" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU216" t="n">
+        <v>11.08760521691354</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>11.08760521691354</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>55</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>55</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>0.1429</v>
+      </c>
+      <c r="AZ216" t="inlineStr">
+        <is>
+          <t>A653244</t>
+        </is>
+      </c>
+      <c r="BA216" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>840063202351</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD216" t="inlineStr">
+        <is>
+          <t>S00360099-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Unis Warehouse</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Unis Warehouse</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>6800 Valley View St</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Buena Park</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>90620</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>S00360479</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="inlineStr"/>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>08272025</t>
+        </is>
+      </c>
+      <c r="P217" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>8/27/2025 2:21:13 PM</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/4/2025 </t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/4/2025 </t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr"/>
+      <c r="U217" t="inlineStr"/>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W217" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="X217" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y217" t="inlineStr"/>
+      <c r="Z217" t="n">
+        <v>650</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB217" t="inlineStr"/>
+      <c r="AC217" t="inlineStr"/>
+      <c r="AD217" t="inlineStr">
+        <is>
           <t>Manual</t>
         </is>
       </c>
-      <c r="AE216" t="inlineStr"/>
-      <c r="AF216" t="inlineStr">
+      <c r="AE217" t="inlineStr"/>
+      <c r="AF217" t="inlineStr">
         <is>
           <t>Primary Freight Services Inc</t>
         </is>
       </c>
-      <c r="AG216" t="inlineStr">
+      <c r="AG217" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="AH216" t="inlineStr">
+      <c r="AH217" t="inlineStr">
         <is>
           <t>Primary Freight Services Inc</t>
         </is>
       </c>
-      <c r="AI216" t="inlineStr">
+      <c r="AI217" t="inlineStr">
         <is>
           <t>08272025</t>
         </is>
       </c>
-      <c r="AJ216" t="inlineStr">
+      <c r="AJ217" t="inlineStr">
         <is>
           <t>Collect</t>
         </is>
       </c>
-      <c r="AK216" t="inlineStr"/>
-      <c r="AL216" t="inlineStr">
+      <c r="AK217" t="inlineStr"/>
+      <c r="AL217" t="inlineStr">
         <is>
           <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
-      <c r="AM216" t="inlineStr">
+      <c r="AM217" t="inlineStr">
         <is>
           <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
-      <c r="AN216" t="inlineStr">
+      <c r="AN217" t="inlineStr">
         <is>
           <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
-      <c r="AO216" t="inlineStr">
+      <c r="AO217" t="inlineStr">
         <is>
           <t>18 Wheels</t>
         </is>
       </c>
-      <c r="AP216" t="inlineStr">
+      <c r="AP217" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
-      <c r="AQ216" t="inlineStr">
+      <c r="AQ217" t="inlineStr">
         <is>
           <t>Soundbar</t>
         </is>
       </c>
-      <c r="AR216" t="inlineStr"/>
-      <c r="AS216" t="inlineStr"/>
-      <c r="AT216" t="inlineStr">
+      <c r="AR217" t="inlineStr"/>
+      <c r="AS217" t="inlineStr"/>
+      <c r="AT217" t="inlineStr">
         <is>
           <t>EACH</t>
         </is>
       </c>
-      <c r="AU216" t="n">
+      <c r="AU217" t="n">
         <v>384.1527083333334</v>
       </c>
-      <c r="AV216" t="n">
+      <c r="AV217" t="n">
         <v>384.1527083333334</v>
       </c>
-      <c r="AW216" t="n">
+      <c r="AW217" t="n">
         <v>0</v>
       </c>
-      <c r="AX216" t="n">
+      <c r="AX217" t="n">
         <v>0</v>
       </c>
-      <c r="AY216" t="n">
+      <c r="AY217" t="n">
         <v>6.7708</v>
       </c>
-      <c r="AZ216" t="inlineStr">
+      <c r="AZ217" t="inlineStr">
         <is>
           <t>08272025</t>
         </is>
       </c>
-      <c r="BA216" t="n">
+      <c r="BA217" t="n">
         <v>4</v>
       </c>
-      <c r="BB216" t="n">
+      <c r="BB217" t="n">
         <v>840063204546</v>
       </c>
-      <c r="BC216" t="n">
+      <c r="BC217" t="n">
         <v>10000</v>
       </c>
-      <c r="BD216" t="inlineStr">
+      <c r="BD217" t="inlineStr">
         <is>
           <t>S00360479-10000</t>
         </is>

--- a/master.xlsx
+++ b/master.xlsx
@@ -46165,79 +46165,77 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D207" t="n">
-        <v>72</v>
-      </c>
+      <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>DC#1008, 19890-92A AVE.</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>LANGLEY</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>V1M 3A9</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>S00357370</t>
+          <t>S00358848</t>
         </is>
       </c>
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="n">
-        <v>70823080</v>
+        <v>70832065</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>3850803825</t>
+          <t>59103700</t>
         </is>
       </c>
       <c r="P207" s="2" t="n">
-        <v>45887</v>
+        <v>45891</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>8/18/2025 8:05:00 AM</t>
+          <t>8/22/2025 5:35:13 AM</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="T207" t="inlineStr"/>
       <c r="U207" s="2" t="n">
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="V207" t="inlineStr">
         <is>
@@ -46245,23 +46243,23 @@
         </is>
       </c>
       <c r="W207" s="2" t="n">
-        <v>45891</v>
+        <v>45905</v>
       </c>
       <c r="X207" t="inlineStr">
         <is>
-          <t>TAB5106/37</t>
+          <t>TAB5109/37</t>
         </is>
       </c>
       <c r="Y207" t="inlineStr">
         <is>
-          <t>030858488</t>
+          <t>18597408</t>
         </is>
       </c>
       <c r="Z207" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AA207" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AB207" t="inlineStr"/>
       <c r="AC207" t="inlineStr"/>
@@ -46292,7 +46290,7 @@
       </c>
       <c r="AI207" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>A653091</t>
         </is>
       </c>
       <c r="AJ207" t="inlineStr">
@@ -46307,17 +46305,17 @@
       </c>
       <c r="AL207" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="AM207" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="AN207" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="AO207" t="inlineStr">
@@ -46332,7 +46330,7 @@
       </c>
       <c r="AQ207" t="inlineStr">
         <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR207" t="inlineStr"/>
@@ -46347,37 +46345,37 @@
         </is>
       </c>
       <c r="AU207" t="n">
-        <v>22.68366987521374</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AV207" t="n">
-        <v>22.68366987521374</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AW207" t="n">
-        <v>181.8</v>
+        <v>72.7526</v>
       </c>
       <c r="AX207" t="n">
-        <v>181.8</v>
+        <v>72.7526</v>
       </c>
       <c r="AY207" t="n">
-        <v>0.4166</v>
+        <v>0.1516</v>
       </c>
       <c r="AZ207" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>A653091</t>
         </is>
       </c>
       <c r="BA207" t="n">
         <v>2</v>
       </c>
       <c r="BB207" t="n">
-        <v>840063202368</v>
+        <v>840063203563</v>
       </c>
       <c r="BC207" t="n">
         <v>10000</v>
       </c>
       <c r="BD207" t="inlineStr">
         <is>
-          <t>S00357370-10000</t>
+          <t>S00358848-10000</t>
         </is>
       </c>
     </row>
@@ -46417,12 +46415,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -46432,21 +46430,21 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>S00357371</t>
+          <t>S00357370</t>
         </is>
       </c>
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="n">
-        <v>70823079</v>
+        <v>70823080</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>4001223932</t>
+          <t>3850803825</t>
         </is>
       </c>
       <c r="P208" s="2" t="n">
@@ -46459,19 +46457,17 @@
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
-        </is>
-      </c>
-      <c r="T208" s="2" t="n">
-        <v>45887</v>
-      </c>
+          <t>8/22/2025 11:17:44 AM</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr"/>
       <c r="U208" s="2" t="n">
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="V208" t="inlineStr">
         <is>
@@ -46526,7 +46522,7 @@
       </c>
       <c r="AI208" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A652555</t>
         </is>
       </c>
       <c r="AJ208" t="inlineStr">
@@ -46551,7 +46547,7 @@
       </c>
       <c r="AN208" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="AO208" t="inlineStr">
@@ -46597,7 +46593,7 @@
       </c>
       <c r="AZ208" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A652555</t>
         </is>
       </c>
       <c r="BA208" t="n">
@@ -46611,7 +46607,7 @@
       </c>
       <c r="BD208" t="inlineStr">
         <is>
-          <t>S00357371-10000</t>
+          <t>S00357370-10000</t>
         </is>
       </c>
     </row>
@@ -46717,19 +46713,19 @@
       </c>
       <c r="X209" t="inlineStr">
         <is>
-          <t>TAB5306/37</t>
+          <t>TAB5106/37</t>
         </is>
       </c>
       <c r="Y209" t="inlineStr">
         <is>
-          <t>030858847</t>
+          <t>030858488</t>
         </is>
       </c>
       <c r="Z209" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="AA209" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="AB209" t="inlineStr"/>
       <c r="AC209" t="inlineStr"/>
@@ -46800,7 +46796,7 @@
       </c>
       <c r="AQ209" t="inlineStr">
         <is>
-          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
         </is>
       </c>
       <c r="AR209" t="inlineStr"/>
@@ -46815,19 +46811,19 @@
         </is>
       </c>
       <c r="AU209" t="n">
-        <v>155.2264730367896</v>
+        <v>22.68366987521374</v>
       </c>
       <c r="AV209" t="n">
-        <v>155.2264730367896</v>
+        <v>22.68366987521374</v>
       </c>
       <c r="AW209" t="n">
-        <v>770</v>
+        <v>181.8</v>
       </c>
       <c r="AX209" t="n">
-        <v>770</v>
+        <v>181.8</v>
       </c>
       <c r="AY209" t="n">
-        <v>1.9999</v>
+        <v>0.4166</v>
       </c>
       <c r="AZ209" t="inlineStr">
         <is>
@@ -46838,14 +46834,14 @@
         <v>2</v>
       </c>
       <c r="BB209" t="n">
-        <v>840063202351</v>
+        <v>840063202368</v>
       </c>
       <c r="BC209" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD209" t="inlineStr">
         <is>
-          <t>S00357371-20000</t>
+          <t>S00357371-10000</t>
         </is>
       </c>
     </row>
@@ -46865,30 +46861,32 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>72</v>
+      </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>DC#1016, 9200 AIRPORT RD.</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -46898,68 +46896,70 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>L6S 6G6</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>S00358847</t>
+          <t>S00357371</t>
         </is>
       </c>
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="n">
-        <v>70832067</v>
+        <v>70823079</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>59103701</t>
+          <t>4001223932</t>
         </is>
       </c>
       <c r="P210" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>8/18/2025 8:05:00 AM</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="T210" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="U210" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W210" s="2" t="n">
         <v>45891</v>
       </c>
-      <c r="Q210" t="inlineStr">
-        <is>
-          <t>8/22/2025 5:35:12 AM</t>
-        </is>
-      </c>
-      <c r="R210" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/29/2025 </t>
-        </is>
-      </c>
-      <c r="S210" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/29/2025 </t>
-        </is>
-      </c>
-      <c r="T210" t="inlineStr"/>
-      <c r="U210" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="V210" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W210" s="2" t="n">
-        <v>45898</v>
-      </c>
       <c r="X210" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
+          <t>TAB5306/37</t>
         </is>
       </c>
       <c r="Y210" t="inlineStr">
         <is>
-          <t>18597408</t>
+          <t>030858847</t>
         </is>
       </c>
       <c r="Z210" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="AA210" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="AB210" t="inlineStr"/>
       <c r="AC210" t="inlineStr"/>
@@ -46990,7 +46990,7 @@
       </c>
       <c r="AI210" t="inlineStr">
         <is>
-          <t>A653064</t>
+          <t>A652551</t>
         </is>
       </c>
       <c r="AJ210" t="inlineStr">
@@ -47005,17 +47005,17 @@
       </c>
       <c r="AL210" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AM210" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AN210" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AO210" t="inlineStr">
@@ -47030,7 +47030,7 @@
       </c>
       <c r="AQ210" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
         </is>
       </c>
       <c r="AR210" t="inlineStr"/>
@@ -47045,37 +47045,37 @@
         </is>
       </c>
       <c r="AU210" t="n">
-        <v>19.29505102995333</v>
+        <v>155.2264730367896</v>
       </c>
       <c r="AV210" t="n">
-        <v>19.29505102995333</v>
+        <v>155.2264730367896</v>
       </c>
       <c r="AW210" t="n">
-        <v>218.2576</v>
+        <v>770</v>
       </c>
       <c r="AX210" t="n">
-        <v>218.2576</v>
+        <v>770</v>
       </c>
       <c r="AY210" t="n">
-        <v>0.4546</v>
+        <v>1.9999</v>
       </c>
       <c r="AZ210" t="inlineStr">
         <is>
-          <t>A653064</t>
+          <t>A652551</t>
         </is>
       </c>
       <c r="BA210" t="n">
         <v>2</v>
       </c>
       <c r="BB210" t="n">
-        <v>840063203563</v>
+        <v>840063202351</v>
       </c>
       <c r="BC210" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD210" t="inlineStr">
         <is>
-          <t>S00358847-10000</t>
+          <t>S00357371-20000</t>
         </is>
       </c>
     </row>
@@ -47113,36 +47113,36 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>DC#1008, 19890-92A AVE.</t>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>LANGLEY</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>V1M 3A9</t>
+          <t>L6S 6G6</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>S00358848</t>
+          <t>S00358847</t>
         </is>
       </c>
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="n">
-        <v>70832065</v>
+        <v>70832067</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>59103700</t>
+          <t>59103701</t>
         </is>
       </c>
       <c r="P211" s="2" t="n">
@@ -47150,17 +47150,17 @@
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>8/22/2025 5:35:13 AM</t>
+          <t>8/22/2025 5:35:12 AM</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="S211" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="T211" t="inlineStr"/>
@@ -47173,7 +47173,7 @@
         </is>
       </c>
       <c r="W211" s="2" t="n">
-        <v>45905</v>
+        <v>45898</v>
       </c>
       <c r="X211" t="inlineStr">
         <is>
@@ -47186,10 +47186,10 @@
         </is>
       </c>
       <c r="Z211" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AA211" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AB211" t="inlineStr"/>
       <c r="AC211" t="inlineStr"/>
@@ -47220,7 +47220,7 @@
       </c>
       <c r="AI211" t="inlineStr">
         <is>
-          <t>A653091</t>
+          <t>A653064</t>
         </is>
       </c>
       <c r="AJ211" t="inlineStr">
@@ -47235,17 +47235,17 @@
       </c>
       <c r="AL211" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="AM211" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="AN211" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="AO211" t="inlineStr">
@@ -47275,23 +47275,23 @@
         </is>
       </c>
       <c r="AU211" t="n">
-        <v>6.431683676651111</v>
+        <v>19.29505102995333</v>
       </c>
       <c r="AV211" t="n">
-        <v>6.431683676651111</v>
+        <v>19.29505102995333</v>
       </c>
       <c r="AW211" t="n">
-        <v>72.7526</v>
+        <v>218.2576</v>
       </c>
       <c r="AX211" t="n">
-        <v>72.7526</v>
+        <v>218.2576</v>
       </c>
       <c r="AY211" t="n">
-        <v>0.1516</v>
+        <v>0.4546</v>
       </c>
       <c r="AZ211" t="inlineStr">
         <is>
-          <t>A653091</t>
+          <t>A653064</t>
         </is>
       </c>
       <c r="BA211" t="n">
@@ -47305,7 +47305,7 @@
       </c>
       <c r="BD211" t="inlineStr">
         <is>
-          <t>S00358848-10000</t>
+          <t>S00358847-10000</t>
         </is>
       </c>
     </row>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD217"/>
+  <dimension ref="A1:BD214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46395,32 +46395,30 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D208" t="n">
-        <v>72</v>
-      </c>
+      <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -46430,44 +46428,44 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>L6S 6G6</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>S00357370</t>
+          <t>S00358847</t>
         </is>
       </c>
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="n">
-        <v>70823080</v>
+        <v>70832067</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>3850803825</t>
+          <t>59103701</t>
         </is>
       </c>
       <c r="P208" s="2" t="n">
-        <v>45887</v>
+        <v>45891</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>8/18/2025 8:05:00 AM</t>
+          <t>8/22/2025 5:35:12 AM</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="T208" t="inlineStr"/>
       <c r="U208" s="2" t="n">
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="V208" t="inlineStr">
         <is>
@@ -46475,16 +46473,16 @@
         </is>
       </c>
       <c r="W208" s="2" t="n">
-        <v>45891</v>
+        <v>45898</v>
       </c>
       <c r="X208" t="inlineStr">
         <is>
-          <t>TAB5106/37</t>
+          <t>TAB5109/37</t>
         </is>
       </c>
       <c r="Y208" t="inlineStr">
         <is>
-          <t>030858488</t>
+          <t>18597408</t>
         </is>
       </c>
       <c r="Z208" t="n">
@@ -46522,7 +46520,7 @@
       </c>
       <c r="AI208" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>A653064</t>
         </is>
       </c>
       <c r="AJ208" t="inlineStr">
@@ -46537,17 +46535,17 @@
       </c>
       <c r="AL208" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="AM208" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="AN208" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="AO208" t="inlineStr">
@@ -46562,7 +46560,7 @@
       </c>
       <c r="AQ208" t="inlineStr">
         <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR208" t="inlineStr"/>
@@ -46577,37 +46575,37 @@
         </is>
       </c>
       <c r="AU208" t="n">
-        <v>22.68366987521374</v>
+        <v>19.29505102995333</v>
       </c>
       <c r="AV208" t="n">
-        <v>22.68366987521374</v>
+        <v>19.29505102995333</v>
       </c>
       <c r="AW208" t="n">
-        <v>181.8</v>
+        <v>218.2576</v>
       </c>
       <c r="AX208" t="n">
-        <v>181.8</v>
+        <v>218.2576</v>
       </c>
       <c r="AY208" t="n">
-        <v>0.4166</v>
+        <v>0.4546</v>
       </c>
       <c r="AZ208" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>A653064</t>
         </is>
       </c>
       <c r="BA208" t="n">
         <v>2</v>
       </c>
       <c r="BB208" t="n">
-        <v>840063202368</v>
+        <v>840063203563</v>
       </c>
       <c r="BC208" t="n">
         <v>10000</v>
       </c>
       <c r="BD208" t="inlineStr">
         <is>
-          <t>S00357370-10000</t>
+          <t>S00358847-10000</t>
         </is>
       </c>
     </row>
@@ -46667,41 +46665,41 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>S00357371</t>
+          <t>S00359896</t>
         </is>
       </c>
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="n">
-        <v>70823079</v>
+        <v>70838071</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>4001223932</t>
+          <t>4001223951</t>
         </is>
       </c>
       <c r="P209" s="2" t="n">
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>8/18/2025 8:05:00 AM</t>
+          <t>8/26/2025 7:21:39 AM</t>
         </is>
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="T209" s="2" t="n">
-        <v>45887</v>
+        <v>45894</v>
       </c>
       <c r="U209" s="2" t="n">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="V209" t="inlineStr">
         <is>
@@ -46709,7 +46707,7 @@
         </is>
       </c>
       <c r="W209" s="2" t="n">
-        <v>45891</v>
+        <v>45897</v>
       </c>
       <c r="X209" t="inlineStr">
         <is>
@@ -46722,10 +46720,10 @@
         </is>
       </c>
       <c r="Z209" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AA209" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AB209" t="inlineStr"/>
       <c r="AC209" t="inlineStr"/>
@@ -46756,7 +46754,7 @@
       </c>
       <c r="AI209" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A653231</t>
         </is>
       </c>
       <c r="AJ209" t="inlineStr">
@@ -46771,17 +46769,17 @@
       </c>
       <c r="AL209" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM209" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN209" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO209" t="inlineStr">
@@ -46811,23 +46809,23 @@
         </is>
       </c>
       <c r="AU209" t="n">
-        <v>22.68366987521374</v>
+        <v>45.36733975042748</v>
       </c>
       <c r="AV209" t="n">
-        <v>22.68366987521374</v>
+        <v>45.36733975042748</v>
       </c>
       <c r="AW209" t="n">
-        <v>181.8</v>
+        <v>363.6461</v>
       </c>
       <c r="AX209" t="n">
-        <v>181.8</v>
+        <v>363.6461</v>
       </c>
       <c r="AY209" t="n">
-        <v>0.4166</v>
+        <v>0.7572</v>
       </c>
       <c r="AZ209" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A653231</t>
         </is>
       </c>
       <c r="BA209" t="n">
@@ -46841,7 +46839,7 @@
       </c>
       <c r="BD209" t="inlineStr">
         <is>
-          <t>S00357371-10000</t>
+          <t>S00359896-10000</t>
         </is>
       </c>
     </row>
@@ -46901,41 +46899,41 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>S00357371</t>
+          <t>S00360097</t>
         </is>
       </c>
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="n">
-        <v>70823079</v>
+        <v>70838223</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>4001223932</t>
+          <t>4001223987</t>
         </is>
       </c>
       <c r="P210" s="2" t="n">
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>8/18/2025 8:05:00 AM</t>
+          <t>8/26/2025 12:07:54 PM</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S210" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="T210" s="2" t="n">
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="U210" s="2" t="n">
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="V210" t="inlineStr">
         <is>
@@ -46943,23 +46941,23 @@
         </is>
       </c>
       <c r="W210" s="2" t="n">
-        <v>45891</v>
+        <v>45897</v>
       </c>
       <c r="X210" t="inlineStr">
         <is>
-          <t>TAB5306/37</t>
+          <t>TAB5106/37</t>
         </is>
       </c>
       <c r="Y210" t="inlineStr">
         <is>
-          <t>030858847</t>
+          <t>030858488</t>
         </is>
       </c>
       <c r="Z210" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="AA210" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="AB210" t="inlineStr"/>
       <c r="AC210" t="inlineStr"/>
@@ -46990,7 +46988,7 @@
       </c>
       <c r="AI210" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A653239</t>
         </is>
       </c>
       <c r="AJ210" t="inlineStr">
@@ -47005,17 +47003,17 @@
       </c>
       <c r="AL210" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM210" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN210" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO210" t="inlineStr">
@@ -47030,7 +47028,7 @@
       </c>
       <c r="AQ210" t="inlineStr">
         <is>
-          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
         </is>
       </c>
       <c r="AR210" t="inlineStr"/>
@@ -47045,37 +47043,37 @@
         </is>
       </c>
       <c r="AU210" t="n">
-        <v>155.2264730367896</v>
+        <v>25.7081591919089</v>
       </c>
       <c r="AV210" t="n">
-        <v>155.2264730367896</v>
+        <v>25.7081591919089</v>
       </c>
       <c r="AW210" t="n">
-        <v>770</v>
+        <v>206.04</v>
       </c>
       <c r="AX210" t="n">
-        <v>770</v>
+        <v>206.04</v>
       </c>
       <c r="AY210" t="n">
-        <v>1.9999</v>
+        <v>0.4722</v>
       </c>
       <c r="AZ210" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A653239</t>
         </is>
       </c>
       <c r="BA210" t="n">
         <v>2</v>
       </c>
       <c r="BB210" t="n">
-        <v>840063202351</v>
+        <v>840063202368</v>
       </c>
       <c r="BC210" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD210" t="inlineStr">
         <is>
-          <t>S00357371-20000</t>
+          <t>S00360097-10000</t>
         </is>
       </c>
     </row>
@@ -47095,77 +47093,81 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr"/>
+      <c r="D211" t="n">
+        <v>72</v>
+      </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>DC#1016, 9200 AIRPORT RD.</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>CALGARY</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>L6S 6G6</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>S00358847</t>
+          <t>S00360098</t>
         </is>
       </c>
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="n">
-        <v>70832067</v>
+        <v>70838222</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>59103701</t>
+          <t>3150833548</t>
         </is>
       </c>
       <c r="P211" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>8/22/2025 5:35:12 AM</t>
+          <t>8/26/2025 12:07:55 PM</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S211" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
-        </is>
-      </c>
-      <c r="T211" t="inlineStr"/>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T211" s="2" t="n">
+        <v>45895</v>
+      </c>
       <c r="U211" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="V211" t="inlineStr">
         <is>
@@ -47173,23 +47175,23 @@
         </is>
       </c>
       <c r="W211" s="2" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="X211" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
+          <t>TAB5106/37</t>
         </is>
       </c>
       <c r="Y211" t="inlineStr">
         <is>
-          <t>18597408</t>
+          <t>030858488</t>
         </is>
       </c>
       <c r="Z211" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA211" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB211" t="inlineStr"/>
       <c r="AC211" t="inlineStr"/>
@@ -47220,7 +47222,7 @@
       </c>
       <c r="AI211" t="inlineStr">
         <is>
-          <t>A653064</t>
+          <t>A653232</t>
         </is>
       </c>
       <c r="AJ211" t="inlineStr">
@@ -47235,17 +47237,17 @@
       </c>
       <c r="AL211" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM211" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN211" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO211" t="inlineStr">
@@ -47260,7 +47262,7 @@
       </c>
       <c r="AQ211" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
         </is>
       </c>
       <c r="AR211" t="inlineStr"/>
@@ -47275,37 +47277,37 @@
         </is>
       </c>
       <c r="AU211" t="n">
-        <v>19.29505102995333</v>
+        <v>18.90305822934478</v>
       </c>
       <c r="AV211" t="n">
-        <v>19.29505102995333</v>
+        <v>18.90305822934478</v>
       </c>
       <c r="AW211" t="n">
-        <v>218.2576</v>
+        <v>151.5</v>
       </c>
       <c r="AX211" t="n">
-        <v>218.2576</v>
+        <v>151.5</v>
       </c>
       <c r="AY211" t="n">
-        <v>0.4546</v>
+        <v>0.3473</v>
       </c>
       <c r="AZ211" t="inlineStr">
         <is>
-          <t>A653064</t>
+          <t>A653232</t>
         </is>
       </c>
       <c r="BA211" t="n">
         <v>2</v>
       </c>
       <c r="BB211" t="n">
-        <v>840063203563</v>
+        <v>840063202368</v>
       </c>
       <c r="BC211" t="n">
         <v>10000</v>
       </c>
       <c r="BD211" t="inlineStr">
         <is>
-          <t>S00358847-10000</t>
+          <t>S00360098-10000</t>
         </is>
       </c>
     </row>
@@ -47345,12 +47347,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -47360,21 +47362,21 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>S00359896</t>
+          <t>S00360099</t>
         </is>
       </c>
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="n">
-        <v>70838071</v>
+        <v>70838224</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>4001223951</t>
+          <t>3850803890</t>
         </is>
       </c>
       <c r="P212" s="2" t="n">
@@ -47382,7 +47384,7 @@
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>8/26/2025 7:21:39 AM</t>
+          <t>8/26/2025 12:07:56 PM</t>
         </is>
       </c>
       <c r="R212" t="inlineStr">
@@ -47396,10 +47398,10 @@
         </is>
       </c>
       <c r="T212" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="U212" s="2" t="n">
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="V212" t="inlineStr">
         <is>
@@ -47420,10 +47422,10 @@
         </is>
       </c>
       <c r="Z212" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="AA212" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="AB212" t="inlineStr"/>
       <c r="AC212" t="inlineStr"/>
@@ -47454,7 +47456,7 @@
       </c>
       <c r="AI212" t="inlineStr">
         <is>
-          <t>A653231</t>
+          <t>A653244</t>
         </is>
       </c>
       <c r="AJ212" t="inlineStr">
@@ -47509,23 +47511,23 @@
         </is>
       </c>
       <c r="AU212" t="n">
-        <v>45.36733975042748</v>
+        <v>12.85407959595445</v>
       </c>
       <c r="AV212" t="n">
-        <v>45.36733975042748</v>
+        <v>12.85407959595445</v>
       </c>
       <c r="AW212" t="n">
-        <v>363.6461</v>
+        <v>103.0336</v>
       </c>
       <c r="AX212" t="n">
-        <v>363.6461</v>
+        <v>103.0336</v>
       </c>
       <c r="AY212" t="n">
-        <v>0.7572</v>
+        <v>0.2137</v>
       </c>
       <c r="AZ212" t="inlineStr">
         <is>
-          <t>A653231</t>
+          <t>A653244</t>
         </is>
       </c>
       <c r="BA212" t="n">
@@ -47539,7 +47541,7 @@
       </c>
       <c r="BD212" t="inlineStr">
         <is>
-          <t>S00359896-10000</t>
+          <t>S00360099-10000</t>
         </is>
       </c>
     </row>
@@ -47579,12 +47581,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -47594,21 +47596,21 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>S00360097</t>
+          <t>S00360099</t>
         </is>
       </c>
       <c r="M213" t="inlineStr"/>
       <c r="N213" t="n">
-        <v>70838223</v>
+        <v>70838224</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>4001223987</t>
+          <t>3850803890</t>
         </is>
       </c>
       <c r="P213" s="2" t="n">
@@ -47616,7 +47618,7 @@
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:54 PM</t>
+          <t>8/26/2025 12:07:56 PM</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
@@ -47633,7 +47635,7 @@
         <v>45895</v>
       </c>
       <c r="U213" s="2" t="n">
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="V213" t="inlineStr">
         <is>
@@ -47645,19 +47647,19 @@
       </c>
       <c r="X213" t="inlineStr">
         <is>
-          <t>TAB5106/37</t>
+          <t>TAB5306/37</t>
         </is>
       </c>
       <c r="Y213" t="inlineStr">
         <is>
-          <t>030858488</t>
+          <t>030858847</t>
         </is>
       </c>
       <c r="Z213" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="AA213" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="AB213" t="inlineStr"/>
       <c r="AC213" t="inlineStr"/>
@@ -47688,7 +47690,7 @@
       </c>
       <c r="AI213" t="inlineStr">
         <is>
-          <t>A653239</t>
+          <t>A653244</t>
         </is>
       </c>
       <c r="AJ213" t="inlineStr">
@@ -47728,7 +47730,7 @@
       </c>
       <c r="AQ213" t="inlineStr">
         <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
         </is>
       </c>
       <c r="AR213" t="inlineStr"/>
@@ -47743,37 +47745,37 @@
         </is>
       </c>
       <c r="AU213" t="n">
-        <v>25.7081591919089</v>
+        <v>11.08760521691354</v>
       </c>
       <c r="AV213" t="n">
-        <v>25.7081591919089</v>
+        <v>11.08760521691354</v>
       </c>
       <c r="AW213" t="n">
-        <v>206.04</v>
+        <v>55</v>
       </c>
       <c r="AX213" t="n">
-        <v>206.04</v>
+        <v>55</v>
       </c>
       <c r="AY213" t="n">
-        <v>0.4722</v>
+        <v>0.1429</v>
       </c>
       <c r="AZ213" t="inlineStr">
         <is>
-          <t>A653239</t>
+          <t>A653244</t>
         </is>
       </c>
       <c r="BA213" t="n">
         <v>2</v>
       </c>
       <c r="BB213" t="n">
-        <v>840063202368</v>
+        <v>840063202351</v>
       </c>
       <c r="BC213" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD213" t="inlineStr">
         <is>
-          <t>S00360097-10000</t>
+          <t>S00360099-20000</t>
         </is>
       </c>
     </row>
@@ -47793,161 +47795,137 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D214" t="n">
-        <v>72</v>
-      </c>
+      <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
+          <t>Unis Warehouse</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>Unis Warehouse</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>6800 Valley View St</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>Buena Park</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>90620</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>S00360098</t>
+          <t>S00360479</t>
         </is>
       </c>
       <c r="M214" t="inlineStr"/>
-      <c r="N214" t="n">
-        <v>70838222</v>
-      </c>
+      <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>3150833548</t>
+          <t>08272025</t>
         </is>
       </c>
       <c r="P214" s="2" t="n">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:55 PM</t>
+          <t>8/27/2025 2:21:13 PM</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="S214" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T214" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="U214" s="2" t="n">
-        <v>45902</v>
-      </c>
+          <t xml:space="preserve">9/4/2025 </t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr"/>
+      <c r="U214" t="inlineStr"/>
       <c r="V214" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W214" s="2" t="n">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="X214" t="inlineStr">
         <is>
-          <t>TAB5106/37</t>
-        </is>
-      </c>
-      <c r="Y214" t="inlineStr">
-        <is>
-          <t>030858488</t>
-        </is>
-      </c>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y214" t="inlineStr"/>
       <c r="Z214" t="n">
-        <v>25</v>
+        <v>650</v>
       </c>
       <c r="AA214" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AB214" t="inlineStr"/>
       <c r="AC214" t="inlineStr"/>
       <c r="AD214" t="inlineStr">
         <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE214" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="AE214" t="inlineStr"/>
       <c r="AF214" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Primary Freight Services Inc</t>
         </is>
       </c>
       <c r="AG214" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AH214" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Primary Freight Services Inc</t>
         </is>
       </c>
       <c r="AI214" t="inlineStr">
         <is>
-          <t>A653232</t>
+          <t>08272025</t>
         </is>
       </c>
       <c r="AJ214" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK214" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK214" t="inlineStr"/>
       <c r="AL214" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="AM214" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="AN214" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="AO214" t="inlineStr">
@@ -47957,729 +47935,51 @@
       </c>
       <c r="AP214" t="inlineStr">
         <is>
-          <t>EDI</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="AQ214" t="inlineStr">
         <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+          <t>Soundbar</t>
         </is>
       </c>
       <c r="AR214" t="inlineStr"/>
-      <c r="AS214" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
+      <c r="AS214" t="inlineStr"/>
       <c r="AT214" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>EACH</t>
         </is>
       </c>
       <c r="AU214" t="n">
-        <v>18.90305822934478</v>
+        <v>384.1527083333334</v>
       </c>
       <c r="AV214" t="n">
-        <v>18.90305822934478</v>
+        <v>384.1527083333334</v>
       </c>
       <c r="AW214" t="n">
-        <v>151.5</v>
+        <v>0</v>
       </c>
       <c r="AX214" t="n">
-        <v>151.5</v>
+        <v>0</v>
       </c>
       <c r="AY214" t="n">
-        <v>0.3473</v>
+        <v>6.7708</v>
       </c>
       <c r="AZ214" t="inlineStr">
         <is>
-          <t>A653232</t>
+          <t>08272025</t>
         </is>
       </c>
       <c r="BA214" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB214" t="n">
-        <v>840063202368</v>
+        <v>840063204546</v>
       </c>
       <c r="BC214" t="n">
         <v>10000</v>
       </c>
       <c r="BD214" t="inlineStr">
-        <is>
-          <t>S00360098-10000</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D215" t="n">
-        <v>72</v>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2401 SCM WAY RR 1</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>CORNWALL</t>
-        </is>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>K6H 7S1</t>
-        </is>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>S00360099</t>
-        </is>
-      </c>
-      <c r="M215" t="inlineStr"/>
-      <c r="N215" t="n">
-        <v>70838224</v>
-      </c>
-      <c r="O215" t="inlineStr">
-        <is>
-          <t>3850803890</t>
-        </is>
-      </c>
-      <c r="P215" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="Q215" t="inlineStr">
-        <is>
-          <t>8/26/2025 12:07:56 PM</t>
-        </is>
-      </c>
-      <c r="R215" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="S215" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T215" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="U215" s="2" t="n">
-        <v>45907</v>
-      </c>
-      <c r="V215" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W215" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="X215" t="inlineStr">
-        <is>
-          <t>TAB5106/37</t>
-        </is>
-      </c>
-      <c r="Y215" t="inlineStr">
-        <is>
-          <t>030858488</t>
-        </is>
-      </c>
-      <c r="Z215" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA215" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB215" t="inlineStr"/>
-      <c r="AC215" t="inlineStr"/>
-      <c r="AD215" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE215" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF215" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG215" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH215" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI215" t="inlineStr">
-        <is>
-          <t>A653244</t>
-        </is>
-      </c>
-      <c r="AJ215" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK215" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL215" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AM215" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AN215" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AO215" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP215" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ215" t="inlineStr">
-        <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
-        </is>
-      </c>
-      <c r="AR215" t="inlineStr"/>
-      <c r="AS215" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT215" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU215" t="n">
-        <v>12.85407959595445</v>
-      </c>
-      <c r="AV215" t="n">
-        <v>12.85407959595445</v>
-      </c>
-      <c r="AW215" t="n">
-        <v>103.0336</v>
-      </c>
-      <c r="AX215" t="n">
-        <v>103.0336</v>
-      </c>
-      <c r="AY215" t="n">
-        <v>0.2137</v>
-      </c>
-      <c r="AZ215" t="inlineStr">
-        <is>
-          <t>A653244</t>
-        </is>
-      </c>
-      <c r="BA215" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB215" t="n">
-        <v>840063202368</v>
-      </c>
-      <c r="BC215" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BD215" t="inlineStr">
-        <is>
-          <t>S00360099-10000</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
-        <v>72</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2401 SCM WAY RR 1</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>CORNWALL</t>
-        </is>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>K6H 7S1</t>
-        </is>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>S00360099</t>
-        </is>
-      </c>
-      <c r="M216" t="inlineStr"/>
-      <c r="N216" t="n">
-        <v>70838224</v>
-      </c>
-      <c r="O216" t="inlineStr">
-        <is>
-          <t>3850803890</t>
-        </is>
-      </c>
-      <c r="P216" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="Q216" t="inlineStr">
-        <is>
-          <t>8/26/2025 12:07:56 PM</t>
-        </is>
-      </c>
-      <c r="R216" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="S216" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T216" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="U216" s="2" t="n">
-        <v>45907</v>
-      </c>
-      <c r="V216" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W216" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="X216" t="inlineStr">
-        <is>
-          <t>TAB5306/37</t>
-        </is>
-      </c>
-      <c r="Y216" t="inlineStr">
-        <is>
-          <t>030858847</t>
-        </is>
-      </c>
-      <c r="Z216" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA216" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB216" t="inlineStr"/>
-      <c r="AC216" t="inlineStr"/>
-      <c r="AD216" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE216" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF216" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG216" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH216" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI216" t="inlineStr">
-        <is>
-          <t>A653244</t>
-        </is>
-      </c>
-      <c r="AJ216" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK216" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL216" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AM216" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AN216" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AO216" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP216" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ216" t="inlineStr">
-        <is>
-          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
-        </is>
-      </c>
-      <c r="AR216" t="inlineStr"/>
-      <c r="AS216" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT216" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU216" t="n">
-        <v>11.08760521691354</v>
-      </c>
-      <c r="AV216" t="n">
-        <v>11.08760521691354</v>
-      </c>
-      <c r="AW216" t="n">
-        <v>55</v>
-      </c>
-      <c r="AX216" t="n">
-        <v>55</v>
-      </c>
-      <c r="AY216" t="n">
-        <v>0.1429</v>
-      </c>
-      <c r="AZ216" t="inlineStr">
-        <is>
-          <t>A653244</t>
-        </is>
-      </c>
-      <c r="BA216" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB216" t="n">
-        <v>840063202351</v>
-      </c>
-      <c r="BC216" t="n">
-        <v>20000</v>
-      </c>
-      <c r="BD216" t="inlineStr">
-        <is>
-          <t>S00360099-20000</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>Unis Warehouse</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>Unis Warehouse</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>6800 Valley View St</t>
-        </is>
-      </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>Buena Park</t>
-        </is>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>90620</t>
-        </is>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>S00360479</t>
-        </is>
-      </c>
-      <c r="M217" t="inlineStr"/>
-      <c r="N217" t="inlineStr"/>
-      <c r="O217" t="inlineStr">
-        <is>
-          <t>08272025</t>
-        </is>
-      </c>
-      <c r="P217" s="2" t="n">
-        <v>45896</v>
-      </c>
-      <c r="Q217" t="inlineStr">
-        <is>
-          <t>8/27/2025 2:21:13 PM</t>
-        </is>
-      </c>
-      <c r="R217" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/4/2025 </t>
-        </is>
-      </c>
-      <c r="S217" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/4/2025 </t>
-        </is>
-      </c>
-      <c r="T217" t="inlineStr"/>
-      <c r="U217" t="inlineStr"/>
-      <c r="V217" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W217" s="2" t="n">
-        <v>45904</v>
-      </c>
-      <c r="X217" t="inlineStr">
-        <is>
-          <t>TAB4000/37</t>
-        </is>
-      </c>
-      <c r="Y217" t="inlineStr"/>
-      <c r="Z217" t="n">
-        <v>650</v>
-      </c>
-      <c r="AA217" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB217" t="inlineStr"/>
-      <c r="AC217" t="inlineStr"/>
-      <c r="AD217" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="AE217" t="inlineStr"/>
-      <c r="AF217" t="inlineStr">
-        <is>
-          <t>Primary Freight Services Inc</t>
-        </is>
-      </c>
-      <c r="AG217" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH217" t="inlineStr">
-        <is>
-          <t>Primary Freight Services Inc</t>
-        </is>
-      </c>
-      <c r="AI217" t="inlineStr">
-        <is>
-          <t>08272025</t>
-        </is>
-      </c>
-      <c r="AJ217" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK217" t="inlineStr"/>
-      <c r="AL217" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/4/2025 </t>
-        </is>
-      </c>
-      <c r="AM217" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/4/2025 </t>
-        </is>
-      </c>
-      <c r="AN217" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/4/2025 </t>
-        </is>
-      </c>
-      <c r="AO217" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP217" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="AQ217" t="inlineStr">
-        <is>
-          <t>Soundbar</t>
-        </is>
-      </c>
-      <c r="AR217" t="inlineStr"/>
-      <c r="AS217" t="inlineStr"/>
-      <c r="AT217" t="inlineStr">
-        <is>
-          <t>EACH</t>
-        </is>
-      </c>
-      <c r="AU217" t="n">
-        <v>384.1527083333334</v>
-      </c>
-      <c r="AV217" t="n">
-        <v>384.1527083333334</v>
-      </c>
-      <c r="AW217" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX217" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY217" t="n">
-        <v>6.7708</v>
-      </c>
-      <c r="AZ217" t="inlineStr">
-        <is>
-          <t>08272025</t>
-        </is>
-      </c>
-      <c r="BA217" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB217" t="n">
-        <v>840063204546</v>
-      </c>
-      <c r="BC217" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BD217" t="inlineStr">
         <is>
           <t>S00360479-10000</t>
         </is>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD214"/>
+  <dimension ref="A1:BD207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42699,30 +42699,32 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr"/>
+      <c r="D192" t="n">
+        <v>72</v>
+      </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>CANADA COMPUTERS</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>CAN002</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>CANADA COMPUTERS</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>168 Ultimate Drive</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Richmond Hill</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -42732,44 +42734,44 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>L4S 1P4</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>S00357206</t>
+          <t>S00357370</t>
         </is>
       </c>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="n">
-        <v>70820798</v>
+        <v>70823080</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>PO2508150026</t>
+          <t>3850803825</t>
         </is>
       </c>
       <c r="P192" s="2" t="n">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>8/15/2025 2:42:08 PM</t>
+          <t>8/18/2025 8:05:00 AM</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="T192" t="inlineStr"/>
       <c r="U192" s="2" t="n">
-        <v>45896</v>
+        <v>45899</v>
       </c>
       <c r="V192" t="inlineStr">
         <is>
@@ -42777,23 +42779,23 @@
         </is>
       </c>
       <c r="W192" s="2" t="n">
-        <v>45897</v>
+        <v>45891</v>
       </c>
       <c r="X192" t="inlineStr">
         <is>
-          <t>AG276QZD2</t>
+          <t>TAB5106/37</t>
         </is>
       </c>
       <c r="Y192" t="inlineStr">
         <is>
-          <t>MTAOC00097</t>
+          <t>030858488</t>
         </is>
       </c>
       <c r="Z192" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA192" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB192" t="inlineStr"/>
       <c r="AC192" t="inlineStr"/>
@@ -42824,7 +42826,7 @@
       </c>
       <c r="AI192" t="inlineStr">
         <is>
-          <t>A653261</t>
+          <t>A652555</t>
         </is>
       </c>
       <c r="AJ192" t="inlineStr">
@@ -42839,17 +42841,17 @@
       </c>
       <c r="AL192" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AM192" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AN192" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="AO192" t="inlineStr">
@@ -42864,13 +42866,13 @@
       </c>
       <c r="AQ192" t="inlineStr">
         <is>
-          <t>AOC 27” QHD OLED gaming monitor</t>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
         </is>
       </c>
       <c r="AR192" t="inlineStr"/>
       <c r="AS192" t="inlineStr">
         <is>
-          <t>TPV-MNT</t>
+          <t>TPV-AVA</t>
         </is>
       </c>
       <c r="AT192" t="inlineStr">
@@ -42879,37 +42881,37 @@
         </is>
       </c>
       <c r="AU192" t="n">
-        <v>65.132025</v>
+        <v>22.68366987521374</v>
       </c>
       <c r="AV192" t="n">
-        <v>65.132025</v>
+        <v>22.68366987521374</v>
       </c>
       <c r="AW192" t="n">
-        <v>638.96</v>
+        <v>181.8</v>
       </c>
       <c r="AX192" t="n">
-        <v>638.96</v>
+        <v>181.8</v>
       </c>
       <c r="AY192" t="n">
-        <v>0.9999</v>
+        <v>0.4166</v>
       </c>
       <c r="AZ192" t="inlineStr">
         <is>
-          <t>A653261</t>
+          <t>A652555</t>
         </is>
       </c>
       <c r="BA192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB192" t="n">
-        <v>685417736485</v>
+        <v>840063202368</v>
       </c>
       <c r="BC192" t="n">
         <v>10000</v>
       </c>
       <c r="BD192" t="inlineStr">
         <is>
-          <t>S00357206-10000</t>
+          <t>S00357370-10000</t>
         </is>
       </c>
     </row>
@@ -42929,30 +42931,32 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr"/>
+      <c r="D193" t="n">
+        <v>72</v>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>CANADA COMPUTERS</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>CAN002</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>CANADA COMPUTERS</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>168 Ultimate Drive</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Richmond Hill</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -42962,44 +42966,44 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>L4S 1P4</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>S00357206</t>
+          <t>S00357370</t>
         </is>
       </c>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="n">
-        <v>70820798</v>
+        <v>70823080</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>PO2508150026</t>
+          <t>3850803825</t>
         </is>
       </c>
       <c r="P193" s="2" t="n">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>8/15/2025 2:42:08 PM</t>
+          <t>8/18/2025 8:05:00 AM</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="T193" t="inlineStr"/>
       <c r="U193" s="2" t="n">
-        <v>45896</v>
+        <v>45899</v>
       </c>
       <c r="V193" t="inlineStr">
         <is>
@@ -43007,23 +43011,23 @@
         </is>
       </c>
       <c r="W193" s="2" t="n">
-        <v>45897</v>
+        <v>45891</v>
       </c>
       <c r="X193" t="inlineStr">
         <is>
-          <t>Q27G3XMN</t>
+          <t>TAB5306/37</t>
         </is>
       </c>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>MTAOC00201</t>
+          <t>030858847</t>
         </is>
       </c>
       <c r="Z193" t="n">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="AA193" t="n">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="AB193" t="inlineStr"/>
       <c r="AC193" t="inlineStr"/>
@@ -43054,7 +43058,7 @@
       </c>
       <c r="AI193" t="inlineStr">
         <is>
-          <t>A653261</t>
+          <t>A652555</t>
         </is>
       </c>
       <c r="AJ193" t="inlineStr">
@@ -43069,17 +43073,17 @@
       </c>
       <c r="AL193" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AM193" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AN193" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="AO193" t="inlineStr">
@@ -43094,13 +43098,13 @@
       </c>
       <c r="AQ193" t="inlineStr">
         <is>
-          <t>AOC 27" Monitor</t>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
         </is>
       </c>
       <c r="AR193" t="inlineStr"/>
       <c r="AS193" t="inlineStr">
         <is>
-          <t>TPV-MNT</t>
+          <t>TPV-AVA</t>
         </is>
       </c>
       <c r="AT193" t="inlineStr">
@@ -43109,37 +43113,37 @@
         </is>
       </c>
       <c r="AU193" t="n">
-        <v>212.29131</v>
+        <v>66.52563130148125</v>
       </c>
       <c r="AV193" t="n">
-        <v>212.29131</v>
+        <v>66.52563130148125</v>
       </c>
       <c r="AW193" t="n">
-        <v>1938.24</v>
+        <v>330</v>
       </c>
       <c r="AX193" t="n">
-        <v>1938.24</v>
+        <v>330</v>
       </c>
       <c r="AY193" t="n">
-        <v>2.667</v>
+        <v>0.8571</v>
       </c>
       <c r="AZ193" t="inlineStr">
         <is>
-          <t>A653261</t>
+          <t>A652555</t>
         </is>
       </c>
       <c r="BA193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB193" t="n">
-        <v>685417733583</v>
+        <v>840063202351</v>
       </c>
       <c r="BC193" t="n">
         <v>20000</v>
       </c>
       <c r="BD193" t="inlineStr">
         <is>
-          <t>S00357206-20000</t>
+          <t>S00357370-20000</t>
         </is>
       </c>
     </row>
@@ -43179,12 +43183,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -43194,21 +43198,21 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>S00357370</t>
+          <t>S00357371</t>
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="n">
-        <v>70823080</v>
+        <v>70823079</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>3850803825</t>
+          <t>4001223932</t>
         </is>
       </c>
       <c r="P194" s="2" t="n">
@@ -43221,17 +43225,19 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
-        </is>
-      </c>
-      <c r="T194" t="inlineStr"/>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="T194" s="2" t="n">
+        <v>45887</v>
+      </c>
       <c r="U194" s="2" t="n">
-        <v>45899</v>
+        <v>45898</v>
       </c>
       <c r="V194" t="inlineStr">
         <is>
@@ -43286,7 +43292,7 @@
       </c>
       <c r="AI194" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>A652551</t>
         </is>
       </c>
       <c r="AJ194" t="inlineStr">
@@ -43311,7 +43317,7 @@
       </c>
       <c r="AN194" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AO194" t="inlineStr">
@@ -43357,7 +43363,7 @@
       </c>
       <c r="AZ194" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>A652551</t>
         </is>
       </c>
       <c r="BA194" t="n">
@@ -43371,7 +43377,7 @@
       </c>
       <c r="BD194" t="inlineStr">
         <is>
-          <t>S00357370-10000</t>
+          <t>S00357371-10000</t>
         </is>
       </c>
     </row>
@@ -43411,12 +43417,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -43426,21 +43432,21 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>S00357370</t>
+          <t>S00357371</t>
         </is>
       </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
-        <v>70823080</v>
+        <v>70823079</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>3850803825</t>
+          <t>4001223932</t>
         </is>
       </c>
       <c r="P195" s="2" t="n">
@@ -43453,17 +43459,19 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
-        </is>
-      </c>
-      <c r="T195" t="inlineStr"/>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="T195" s="2" t="n">
+        <v>45887</v>
+      </c>
       <c r="U195" s="2" t="n">
-        <v>45899</v>
+        <v>45898</v>
       </c>
       <c r="V195" t="inlineStr">
         <is>
@@ -43484,10 +43492,10 @@
         </is>
       </c>
       <c r="Z195" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="AA195" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="AB195" t="inlineStr"/>
       <c r="AC195" t="inlineStr"/>
@@ -43518,7 +43526,7 @@
       </c>
       <c r="AI195" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>A652551</t>
         </is>
       </c>
       <c r="AJ195" t="inlineStr">
@@ -43543,7 +43551,7 @@
       </c>
       <c r="AN195" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AO195" t="inlineStr">
@@ -43573,23 +43581,23 @@
         </is>
       </c>
       <c r="AU195" t="n">
-        <v>66.52563130148125</v>
+        <v>155.2264730367896</v>
       </c>
       <c r="AV195" t="n">
-        <v>66.52563130148125</v>
+        <v>155.2264730367896</v>
       </c>
       <c r="AW195" t="n">
-        <v>330</v>
+        <v>770</v>
       </c>
       <c r="AX195" t="n">
-        <v>330</v>
+        <v>770</v>
       </c>
       <c r="AY195" t="n">
-        <v>0.8571</v>
+        <v>1.9999</v>
       </c>
       <c r="AZ195" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>A652551</t>
         </is>
       </c>
       <c r="BA195" t="n">
@@ -43603,7 +43611,7 @@
       </c>
       <c r="BD195" t="inlineStr">
         <is>
-          <t>S00357370-20000</t>
+          <t>S00357371-20000</t>
         </is>
       </c>
     </row>
@@ -43623,32 +43631,30 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D196" t="n">
-        <v>72</v>
-      </c>
+      <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>CANADA COMPUTERS</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>CAN002</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>CANADA COMPUTERS</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>168 Ultimate Drive</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>Richmond Hill</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -43658,46 +43664,44 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>L4S 1P4</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>S00357371</t>
+          <t>S00357206</t>
         </is>
       </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="n">
-        <v>70823079</v>
+        <v>70820798</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>4001223932</t>
+          <t>PO2508150026</t>
         </is>
       </c>
       <c r="P196" s="2" t="n">
-        <v>45887</v>
+        <v>45884</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>8/18/2025 8:05:00 AM</t>
+          <t>8/15/2025 2:42:08 PM</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
-        </is>
-      </c>
-      <c r="T196" s="2" t="n">
-        <v>45887</v>
-      </c>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr"/>
       <c r="U196" s="2" t="n">
-        <v>45898</v>
+        <v>45896</v>
       </c>
       <c r="V196" t="inlineStr">
         <is>
@@ -43705,23 +43709,23 @@
         </is>
       </c>
       <c r="W196" s="2" t="n">
-        <v>45891</v>
+        <v>45897</v>
       </c>
       <c r="X196" t="inlineStr">
         <is>
-          <t>TAB5106/37</t>
+          <t>AG276QZD2</t>
         </is>
       </c>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>030858488</t>
+          <t>MTAOC00097</t>
         </is>
       </c>
       <c r="Z196" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA196" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB196" t="inlineStr"/>
       <c r="AC196" t="inlineStr"/>
@@ -43752,7 +43756,7 @@
       </c>
       <c r="AI196" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A653261</t>
         </is>
       </c>
       <c r="AJ196" t="inlineStr">
@@ -43767,17 +43771,17 @@
       </c>
       <c r="AL196" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM196" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN196" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO196" t="inlineStr">
@@ -43792,13 +43796,13 @@
       </c>
       <c r="AQ196" t="inlineStr">
         <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+          <t>AOC 27” QHD OLED gaming monitor</t>
         </is>
       </c>
       <c r="AR196" t="inlineStr"/>
       <c r="AS196" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT196" t="inlineStr">
@@ -43807,37 +43811,37 @@
         </is>
       </c>
       <c r="AU196" t="n">
-        <v>22.68366987521374</v>
+        <v>65.132025</v>
       </c>
       <c r="AV196" t="n">
-        <v>22.68366987521374</v>
+        <v>65.132025</v>
       </c>
       <c r="AW196" t="n">
-        <v>181.8</v>
+        <v>638.96</v>
       </c>
       <c r="AX196" t="n">
-        <v>181.8</v>
+        <v>638.96</v>
       </c>
       <c r="AY196" t="n">
-        <v>0.4166</v>
+        <v>0.9999</v>
       </c>
       <c r="AZ196" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A653261</t>
         </is>
       </c>
       <c r="BA196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB196" t="n">
-        <v>840063202368</v>
+        <v>685417736485</v>
       </c>
       <c r="BC196" t="n">
         <v>10000</v>
       </c>
       <c r="BD196" t="inlineStr">
         <is>
-          <t>S00357371-10000</t>
+          <t>S00357206-10000</t>
         </is>
       </c>
     </row>
@@ -43857,32 +43861,30 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D197" t="n">
-        <v>72</v>
-      </c>
+      <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>CANADA COMPUTERS</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>CAN002</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>CANADA COMPUTERS</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>168 Ultimate Drive</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>Richmond Hill</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -43892,46 +43894,44 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>L4S 1P4</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>S00357371</t>
+          <t>S00357206</t>
         </is>
       </c>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="n">
-        <v>70823079</v>
+        <v>70820798</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>4001223932</t>
+          <t>PO2508150026</t>
         </is>
       </c>
       <c r="P197" s="2" t="n">
-        <v>45887</v>
+        <v>45884</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>8/18/2025 8:05:00 AM</t>
+          <t>8/15/2025 2:42:08 PM</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
-        </is>
-      </c>
-      <c r="T197" s="2" t="n">
-        <v>45887</v>
-      </c>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr"/>
       <c r="U197" s="2" t="n">
-        <v>45898</v>
+        <v>45896</v>
       </c>
       <c r="V197" t="inlineStr">
         <is>
@@ -43939,23 +43939,23 @@
         </is>
       </c>
       <c r="W197" s="2" t="n">
-        <v>45891</v>
+        <v>45897</v>
       </c>
       <c r="X197" t="inlineStr">
         <is>
-          <t>TAB5306/37</t>
+          <t>Q27G3XMN</t>
         </is>
       </c>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>030858847</t>
+          <t>MTAOC00201</t>
         </is>
       </c>
       <c r="Z197" t="n">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AA197" t="n">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AB197" t="inlineStr"/>
       <c r="AC197" t="inlineStr"/>
@@ -43986,7 +43986,7 @@
       </c>
       <c r="AI197" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A653261</t>
         </is>
       </c>
       <c r="AJ197" t="inlineStr">
@@ -44001,17 +44001,17 @@
       </c>
       <c r="AL197" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM197" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN197" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO197" t="inlineStr">
@@ -44026,13 +44026,13 @@
       </c>
       <c r="AQ197" t="inlineStr">
         <is>
-          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+          <t>AOC 27" Monitor</t>
         </is>
       </c>
       <c r="AR197" t="inlineStr"/>
       <c r="AS197" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT197" t="inlineStr">
@@ -44041,37 +44041,37 @@
         </is>
       </c>
       <c r="AU197" t="n">
-        <v>155.2264730367896</v>
+        <v>212.29131</v>
       </c>
       <c r="AV197" t="n">
-        <v>155.2264730367896</v>
+        <v>212.29131</v>
       </c>
       <c r="AW197" t="n">
-        <v>770</v>
+        <v>1938.24</v>
       </c>
       <c r="AX197" t="n">
-        <v>770</v>
+        <v>1938.24</v>
       </c>
       <c r="AY197" t="n">
-        <v>1.9999</v>
+        <v>2.667</v>
       </c>
       <c r="AZ197" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A653261</t>
         </is>
       </c>
       <c r="BA197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB197" t="n">
-        <v>840063202351</v>
+        <v>685417733583</v>
       </c>
       <c r="BC197" t="n">
         <v>20000</v>
       </c>
       <c r="BD197" t="inlineStr">
         <is>
-          <t>S00357371-20000</t>
+          <t>S00357206-20000</t>
         </is>
       </c>
     </row>
@@ -44091,32 +44091,30 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>72</v>
-      </c>
+      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -44126,46 +44124,44 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>L6S 6G6</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>S00359896</t>
+          <t>S00358847</t>
         </is>
       </c>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="n">
-        <v>70838071</v>
+        <v>70832067</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>4001223951</t>
+          <t>59103701</t>
         </is>
       </c>
       <c r="P198" s="2" t="n">
-        <v>45895</v>
+        <v>45891</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>8/26/2025 7:21:39 AM</t>
+          <t>8/22/2025 5:35:12 AM</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T198" s="2" t="n">
-        <v>45894</v>
-      </c>
+          <t xml:space="preserve">8/29/2025 </t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr"/>
       <c r="U198" s="2" t="n">
-        <v>45905</v>
+        <v>45901</v>
       </c>
       <c r="V198" t="inlineStr">
         <is>
@@ -44173,23 +44169,23 @@
         </is>
       </c>
       <c r="W198" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="X198" t="inlineStr">
         <is>
-          <t>TAB5106/37</t>
+          <t>TAB5109/37</t>
         </is>
       </c>
       <c r="Y198" t="inlineStr">
         <is>
-          <t>030858488</t>
+          <t>18597408</t>
         </is>
       </c>
       <c r="Z198" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AA198" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AB198" t="inlineStr"/>
       <c r="AC198" t="inlineStr"/>
@@ -44220,7 +44216,7 @@
       </c>
       <c r="AI198" t="inlineStr">
         <is>
-          <t>A653231</t>
+          <t>A653064</t>
         </is>
       </c>
       <c r="AJ198" t="inlineStr">
@@ -44235,17 +44231,17 @@
       </c>
       <c r="AL198" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="AM198" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="AN198" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="AO198" t="inlineStr">
@@ -44260,7 +44256,7 @@
       </c>
       <c r="AQ198" t="inlineStr">
         <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR198" t="inlineStr"/>
@@ -44275,37 +44271,37 @@
         </is>
       </c>
       <c r="AU198" t="n">
-        <v>45.36733975042748</v>
+        <v>19.29505102995333</v>
       </c>
       <c r="AV198" t="n">
-        <v>45.36733975042748</v>
+        <v>19.29505102995333</v>
       </c>
       <c r="AW198" t="n">
-        <v>363.6461</v>
+        <v>218.2576</v>
       </c>
       <c r="AX198" t="n">
-        <v>363.6461</v>
+        <v>218.2576</v>
       </c>
       <c r="AY198" t="n">
-        <v>0.7572</v>
+        <v>0.4546</v>
       </c>
       <c r="AZ198" t="inlineStr">
         <is>
-          <t>A653231</t>
+          <t>A653064</t>
         </is>
       </c>
       <c r="BA198" t="n">
         <v>2</v>
       </c>
       <c r="BB198" t="n">
-        <v>840063202368</v>
+        <v>840063203563</v>
       </c>
       <c r="BC198" t="n">
         <v>10000</v>
       </c>
       <c r="BD198" t="inlineStr">
         <is>
-          <t>S00359896-10000</t>
+          <t>S00358847-10000</t>
         </is>
       </c>
     </row>
@@ -44325,81 +44321,77 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D199" t="n">
-        <v>72</v>
-      </c>
+      <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>DC#1008, 19890-92A AVE.</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>LANGLEY</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>V1M 3A9</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>S00360097</t>
+          <t>S00358848</t>
         </is>
       </c>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="n">
-        <v>70838223</v>
+        <v>70832065</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>4001223987</t>
+          <t>59103700</t>
         </is>
       </c>
       <c r="P199" s="2" t="n">
-        <v>45895</v>
+        <v>45891</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:54 PM</t>
+          <t>8/22/2025 5:35:13 AM</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="S199" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T199" s="2" t="n">
-        <v>45895</v>
-      </c>
+          <t xml:space="preserve">9/5/2025 </t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr"/>
       <c r="U199" s="2" t="n">
-        <v>45906</v>
+        <v>45901</v>
       </c>
       <c r="V199" t="inlineStr">
         <is>
@@ -44407,23 +44399,23 @@
         </is>
       </c>
       <c r="W199" s="2" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="X199" t="inlineStr">
         <is>
-          <t>TAB5106/37</t>
+          <t>TAB5109/37</t>
         </is>
       </c>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>030858488</t>
+          <t>18597408</t>
         </is>
       </c>
       <c r="Z199" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AA199" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AB199" t="inlineStr"/>
       <c r="AC199" t="inlineStr"/>
@@ -44454,7 +44446,7 @@
       </c>
       <c r="AI199" t="inlineStr">
         <is>
-          <t>A653239</t>
+          <t>A653091</t>
         </is>
       </c>
       <c r="AJ199" t="inlineStr">
@@ -44469,17 +44461,17 @@
       </c>
       <c r="AL199" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="AM199" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="AN199" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="AO199" t="inlineStr">
@@ -44494,7 +44486,7 @@
       </c>
       <c r="AQ199" t="inlineStr">
         <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR199" t="inlineStr"/>
@@ -44509,37 +44501,37 @@
         </is>
       </c>
       <c r="AU199" t="n">
-        <v>25.7081591919089</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AV199" t="n">
-        <v>25.7081591919089</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AW199" t="n">
-        <v>206.04</v>
+        <v>72.7526</v>
       </c>
       <c r="AX199" t="n">
-        <v>206.04</v>
+        <v>72.7526</v>
       </c>
       <c r="AY199" t="n">
-        <v>0.4722</v>
+        <v>0.1516</v>
       </c>
       <c r="AZ199" t="inlineStr">
         <is>
-          <t>A653239</t>
+          <t>A653091</t>
         </is>
       </c>
       <c r="BA199" t="n">
         <v>2</v>
       </c>
       <c r="BB199" t="n">
-        <v>840063202368</v>
+        <v>840063203563</v>
       </c>
       <c r="BC199" t="n">
         <v>10000</v>
       </c>
       <c r="BD199" t="inlineStr">
         <is>
-          <t>S00360097-10000</t>
+          <t>S00358848-10000</t>
         </is>
       </c>
     </row>
@@ -44599,16 +44591,16 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>S00360097</t>
+          <t>S00359896</t>
         </is>
       </c>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="n">
-        <v>70838223</v>
+        <v>70838071</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>4001223987</t>
+          <t>4001223951</t>
         </is>
       </c>
       <c r="P200" s="2" t="n">
@@ -44616,7 +44608,7 @@
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:54 PM</t>
+          <t>8/26/2025 7:21:39 AM</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
@@ -44630,10 +44622,10 @@
         </is>
       </c>
       <c r="T200" s="2" t="n">
-        <v>45895</v>
+        <v>45894</v>
       </c>
       <c r="U200" s="2" t="n">
-        <v>45906</v>
+        <v>45905</v>
       </c>
       <c r="V200" t="inlineStr">
         <is>
@@ -44645,19 +44637,19 @@
       </c>
       <c r="X200" t="inlineStr">
         <is>
-          <t>TAB5306/37</t>
+          <t>TAB5106/37</t>
         </is>
       </c>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>030858847</t>
+          <t>030858488</t>
         </is>
       </c>
       <c r="Z200" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="AA200" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="AB200" t="inlineStr"/>
       <c r="AC200" t="inlineStr"/>
@@ -44688,7 +44680,7 @@
       </c>
       <c r="AI200" t="inlineStr">
         <is>
-          <t>A653239</t>
+          <t>A653231</t>
         </is>
       </c>
       <c r="AJ200" t="inlineStr">
@@ -44728,7 +44720,7 @@
       </c>
       <c r="AQ200" t="inlineStr">
         <is>
-          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
         </is>
       </c>
       <c r="AR200" t="inlineStr"/>
@@ -44743,37 +44735,37 @@
         </is>
       </c>
       <c r="AU200" t="n">
-        <v>5.543802608456771</v>
+        <v>45.36733975042748</v>
       </c>
       <c r="AV200" t="n">
-        <v>5.543802608456771</v>
+        <v>45.36733975042748</v>
       </c>
       <c r="AW200" t="n">
-        <v>27.5136</v>
+        <v>363.6461</v>
       </c>
       <c r="AX200" t="n">
-        <v>27.5136</v>
+        <v>363.6461</v>
       </c>
       <c r="AY200" t="n">
-        <v>0.0659</v>
+        <v>0.7572</v>
       </c>
       <c r="AZ200" t="inlineStr">
         <is>
-          <t>A653239</t>
+          <t>A653231</t>
         </is>
       </c>
       <c r="BA200" t="n">
         <v>2</v>
       </c>
       <c r="BB200" t="n">
-        <v>840063202351</v>
+        <v>840063202368</v>
       </c>
       <c r="BC200" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD200" t="inlineStr">
         <is>
-          <t>S00360097-20000</t>
+          <t>S00359896-10000</t>
         </is>
       </c>
     </row>
@@ -44813,36 +44805,36 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>S00360098</t>
+          <t>S00360097</t>
         </is>
       </c>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="n">
-        <v>70838222</v>
+        <v>70838223</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>3150833548</t>
+          <t>4001223987</t>
         </is>
       </c>
       <c r="P201" s="2" t="n">
@@ -44850,7 +44842,7 @@
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:55 PM</t>
+          <t>8/26/2025 12:07:54 PM</t>
         </is>
       </c>
       <c r="R201" t="inlineStr">
@@ -44867,7 +44859,7 @@
         <v>45895</v>
       </c>
       <c r="U201" s="2" t="n">
-        <v>45902</v>
+        <v>45906</v>
       </c>
       <c r="V201" t="inlineStr">
         <is>
@@ -44888,10 +44880,10 @@
         </is>
       </c>
       <c r="Z201" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AA201" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AB201" t="inlineStr"/>
       <c r="AC201" t="inlineStr"/>
@@ -44922,7 +44914,7 @@
       </c>
       <c r="AI201" t="inlineStr">
         <is>
-          <t>A653232</t>
+          <t>A653239</t>
         </is>
       </c>
       <c r="AJ201" t="inlineStr">
@@ -44977,23 +44969,23 @@
         </is>
       </c>
       <c r="AU201" t="n">
-        <v>18.90305822934478</v>
+        <v>25.7081591919089</v>
       </c>
       <c r="AV201" t="n">
-        <v>18.90305822934478</v>
+        <v>25.7081591919089</v>
       </c>
       <c r="AW201" t="n">
-        <v>151.5</v>
+        <v>206.04</v>
       </c>
       <c r="AX201" t="n">
-        <v>151.5</v>
+        <v>206.04</v>
       </c>
       <c r="AY201" t="n">
-        <v>0.3473</v>
+        <v>0.4722</v>
       </c>
       <c r="AZ201" t="inlineStr">
         <is>
-          <t>A653232</t>
+          <t>A653239</t>
         </is>
       </c>
       <c r="BA201" t="n">
@@ -45007,7 +44999,7 @@
       </c>
       <c r="BD201" t="inlineStr">
         <is>
-          <t>S00360098-10000</t>
+          <t>S00360097-10000</t>
         </is>
       </c>
     </row>
@@ -45047,36 +45039,36 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>S00360098</t>
+          <t>S00360097</t>
         </is>
       </c>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="n">
-        <v>70838222</v>
+        <v>70838223</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>3150833548</t>
+          <t>4001223987</t>
         </is>
       </c>
       <c r="P202" s="2" t="n">
@@ -45084,7 +45076,7 @@
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:55 PM</t>
+          <t>8/26/2025 12:07:54 PM</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
@@ -45101,7 +45093,7 @@
         <v>45895</v>
       </c>
       <c r="U202" s="2" t="n">
-        <v>45902</v>
+        <v>45906</v>
       </c>
       <c r="V202" t="inlineStr">
         <is>
@@ -45156,7 +45148,7 @@
       </c>
       <c r="AI202" t="inlineStr">
         <is>
-          <t>A653232</t>
+          <t>A653239</t>
         </is>
       </c>
       <c r="AJ202" t="inlineStr">
@@ -45217,17 +45209,17 @@
         <v>5.543802608456771</v>
       </c>
       <c r="AW202" t="n">
-        <v>27.5137</v>
+        <v>27.5136</v>
       </c>
       <c r="AX202" t="n">
-        <v>27.5137</v>
+        <v>27.5136</v>
       </c>
       <c r="AY202" t="n">
-        <v>0.066</v>
+        <v>0.0659</v>
       </c>
       <c r="AZ202" t="inlineStr">
         <is>
-          <t>A653232</t>
+          <t>A653239</t>
         </is>
       </c>
       <c r="BA202" t="n">
@@ -45241,7 +45233,7 @@
       </c>
       <c r="BD202" t="inlineStr">
         <is>
-          <t>S00360098-20000</t>
+          <t>S00360097-20000</t>
         </is>
       </c>
     </row>
@@ -45281,36 +45273,36 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>CALGARY</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>S00360099</t>
+          <t>S00360098</t>
         </is>
       </c>
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="n">
-        <v>70838224</v>
+        <v>70838222</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>3850803890</t>
+          <t>3150833548</t>
         </is>
       </c>
       <c r="P203" s="2" t="n">
@@ -45318,7 +45310,7 @@
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:56 PM</t>
+          <t>8/26/2025 12:07:55 PM</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -45335,7 +45327,7 @@
         <v>45895</v>
       </c>
       <c r="U203" s="2" t="n">
-        <v>45907</v>
+        <v>45902</v>
       </c>
       <c r="V203" t="inlineStr">
         <is>
@@ -45356,10 +45348,10 @@
         </is>
       </c>
       <c r="Z203" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AA203" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AB203" t="inlineStr"/>
       <c r="AC203" t="inlineStr"/>
@@ -45390,7 +45382,7 @@
       </c>
       <c r="AI203" t="inlineStr">
         <is>
-          <t>A653244</t>
+          <t>A653232</t>
         </is>
       </c>
       <c r="AJ203" t="inlineStr">
@@ -45445,23 +45437,23 @@
         </is>
       </c>
       <c r="AU203" t="n">
-        <v>12.85407959595445</v>
+        <v>18.90305822934478</v>
       </c>
       <c r="AV203" t="n">
-        <v>12.85407959595445</v>
+        <v>18.90305822934478</v>
       </c>
       <c r="AW203" t="n">
-        <v>103.0336</v>
+        <v>151.5</v>
       </c>
       <c r="AX203" t="n">
-        <v>103.0336</v>
+        <v>151.5</v>
       </c>
       <c r="AY203" t="n">
-        <v>0.2137</v>
+        <v>0.3473</v>
       </c>
       <c r="AZ203" t="inlineStr">
         <is>
-          <t>A653244</t>
+          <t>A653232</t>
         </is>
       </c>
       <c r="BA203" t="n">
@@ -45475,7 +45467,7 @@
       </c>
       <c r="BD203" t="inlineStr">
         <is>
-          <t>S00360099-10000</t>
+          <t>S00360098-10000</t>
         </is>
       </c>
     </row>
@@ -45515,36 +45507,36 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>CALGARY</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>S00360099</t>
+          <t>S00360098</t>
         </is>
       </c>
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="n">
-        <v>70838224</v>
+        <v>70838222</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>3850803890</t>
+          <t>3150833548</t>
         </is>
       </c>
       <c r="P204" s="2" t="n">
@@ -45552,7 +45544,7 @@
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:56 PM</t>
+          <t>8/26/2025 12:07:55 PM</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
@@ -45569,7 +45561,7 @@
         <v>45895</v>
       </c>
       <c r="U204" s="2" t="n">
-        <v>45907</v>
+        <v>45902</v>
       </c>
       <c r="V204" t="inlineStr">
         <is>
@@ -45590,10 +45582,10 @@
         </is>
       </c>
       <c r="Z204" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA204" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB204" t="inlineStr"/>
       <c r="AC204" t="inlineStr"/>
@@ -45624,7 +45616,7 @@
       </c>
       <c r="AI204" t="inlineStr">
         <is>
-          <t>A653244</t>
+          <t>A653232</t>
         </is>
       </c>
       <c r="AJ204" t="inlineStr">
@@ -45679,23 +45671,23 @@
         </is>
       </c>
       <c r="AU204" t="n">
-        <v>11.08760521691354</v>
+        <v>5.543802608456771</v>
       </c>
       <c r="AV204" t="n">
-        <v>11.08760521691354</v>
+        <v>5.543802608456771</v>
       </c>
       <c r="AW204" t="n">
-        <v>55</v>
+        <v>27.5137</v>
       </c>
       <c r="AX204" t="n">
-        <v>55</v>
+        <v>27.5137</v>
       </c>
       <c r="AY204" t="n">
-        <v>0.1429</v>
+        <v>0.066</v>
       </c>
       <c r="AZ204" t="inlineStr">
         <is>
-          <t>A653244</t>
+          <t>A653232</t>
         </is>
       </c>
       <c r="BA204" t="n">
@@ -45709,7 +45701,7 @@
       </c>
       <c r="BD204" t="inlineStr">
         <is>
-          <t>S00360099-20000</t>
+          <t>S00360098-20000</t>
         </is>
       </c>
     </row>
@@ -45729,30 +45721,32 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr"/>
+      <c r="D205" t="n">
+        <v>72</v>
+      </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>DC#1016, 9200 AIRPORT RD.</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -45762,44 +45756,46 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>L6S 6G6</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>S00358847</t>
+          <t>S00360099</t>
         </is>
       </c>
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="n">
-        <v>70832067</v>
+        <v>70838224</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>59103701</t>
+          <t>3850803890</t>
         </is>
       </c>
       <c r="P205" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>8/22/2025 5:35:12 AM</t>
+          <t>8/26/2025 12:07:56 PM</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
-        </is>
-      </c>
-      <c r="T205" t="inlineStr"/>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T205" s="2" t="n">
+        <v>45895</v>
+      </c>
       <c r="U205" s="2" t="n">
-        <v>45901</v>
+        <v>45907</v>
       </c>
       <c r="V205" t="inlineStr">
         <is>
@@ -45807,23 +45803,23 @@
         </is>
       </c>
       <c r="W205" s="2" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="X205" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
+          <t>TAB5106/37</t>
         </is>
       </c>
       <c r="Y205" t="inlineStr">
         <is>
-          <t>18597408</t>
+          <t>030858488</t>
         </is>
       </c>
       <c r="Z205" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AA205" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AB205" t="inlineStr"/>
       <c r="AC205" t="inlineStr"/>
@@ -45854,7 +45850,7 @@
       </c>
       <c r="AI205" t="inlineStr">
         <is>
-          <t>A653064</t>
+          <t>A653244</t>
         </is>
       </c>
       <c r="AJ205" t="inlineStr">
@@ -45869,17 +45865,17 @@
       </c>
       <c r="AL205" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM205" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN205" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO205" t="inlineStr">
@@ -45894,7 +45890,7 @@
       </c>
       <c r="AQ205" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
         </is>
       </c>
       <c r="AR205" t="inlineStr"/>
@@ -45909,37 +45905,37 @@
         </is>
       </c>
       <c r="AU205" t="n">
-        <v>19.29505102995333</v>
+        <v>12.85407959595445</v>
       </c>
       <c r="AV205" t="n">
-        <v>19.29505102995333</v>
+        <v>12.85407959595445</v>
       </c>
       <c r="AW205" t="n">
-        <v>218.2576</v>
+        <v>103.0336</v>
       </c>
       <c r="AX205" t="n">
-        <v>218.2576</v>
+        <v>103.0336</v>
       </c>
       <c r="AY205" t="n">
-        <v>0.4546</v>
+        <v>0.2137</v>
       </c>
       <c r="AZ205" t="inlineStr">
         <is>
-          <t>A653064</t>
+          <t>A653244</t>
         </is>
       </c>
       <c r="BA205" t="n">
         <v>2</v>
       </c>
       <c r="BB205" t="n">
-        <v>840063203563</v>
+        <v>840063202368</v>
       </c>
       <c r="BC205" t="n">
         <v>10000</v>
       </c>
       <c r="BD205" t="inlineStr">
         <is>
-          <t>S00358847-10000</t>
+          <t>S00360099-10000</t>
         </is>
       </c>
     </row>
@@ -45959,137 +45955,161 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr"/>
+      <c r="D206" t="n">
+        <v>72</v>
+      </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Unis Warehouse</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr"/>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Unis Warehouse</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>6800 Valley View St</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Buena Park</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>90620</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>S00360479</t>
+          <t>S00360099</t>
         </is>
       </c>
       <c r="M206" t="inlineStr"/>
-      <c r="N206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>70838224</v>
+      </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>08272025</t>
+          <t>3850803890</t>
         </is>
       </c>
       <c r="P206" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>8/27/2025 2:21:13 PM</t>
+          <t>8/26/2025 12:07:56 PM</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4/2025 </t>
-        </is>
-      </c>
-      <c r="T206" t="inlineStr"/>
-      <c r="U206" t="inlineStr"/>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T206" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="U206" s="2" t="n">
+        <v>45907</v>
+      </c>
       <c r="V206" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W206" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
       <c r="X206" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
-        </is>
-      </c>
-      <c r="Y206" t="inlineStr"/>
+          <t>TAB5306/37</t>
+        </is>
+      </c>
+      <c r="Y206" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
+      </c>
       <c r="Z206" t="n">
-        <v>650</v>
+        <v>4</v>
       </c>
       <c r="AA206" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB206" t="inlineStr"/>
       <c r="AC206" t="inlineStr"/>
       <c r="AD206" t="inlineStr">
         <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="AE206" t="inlineStr"/>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE206" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AF206" t="inlineStr">
         <is>
-          <t>Primary Freight Services Inc</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AG206" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>18W</t>
         </is>
       </c>
       <c r="AH206" t="inlineStr">
         <is>
-          <t>Primary Freight Services Inc</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AI206" t="inlineStr">
         <is>
-          <t>08272025</t>
+          <t>A653244</t>
         </is>
       </c>
       <c r="AJ206" t="inlineStr">
         <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK206" t="inlineStr"/>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK206" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
       <c r="AL206" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM206" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN206" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO206" t="inlineStr">
@@ -46099,53 +46119,57 @@
       </c>
       <c r="AP206" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>EDI</t>
         </is>
       </c>
       <c r="AQ206" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
         </is>
       </c>
       <c r="AR206" t="inlineStr"/>
-      <c r="AS206" t="inlineStr"/>
+      <c r="AS206" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
       <c r="AT206" t="inlineStr">
         <is>
-          <t>EACH</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="AU206" t="n">
-        <v>384.1527083333334</v>
+        <v>11.08760521691354</v>
       </c>
       <c r="AV206" t="n">
-        <v>384.1527083333334</v>
+        <v>11.08760521691354</v>
       </c>
       <c r="AW206" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX206" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AY206" t="n">
-        <v>6.7708</v>
+        <v>0.1429</v>
       </c>
       <c r="AZ206" t="inlineStr">
         <is>
-          <t>08272025</t>
+          <t>A653244</t>
         </is>
       </c>
       <c r="BA206" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB206" t="n">
-        <v>840063204546</v>
+        <v>840063202351</v>
       </c>
       <c r="BC206" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD206" t="inlineStr">
         <is>
-          <t>S00360479-10000</t>
+          <t>S00360099-20000</t>
         </is>
       </c>
     </row>
@@ -46168,154 +46192,134 @@
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>BES005</t>
-        </is>
-      </c>
+          <t>Unis Warehouse</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>Unis Warehouse</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>DC#1008, 19890-92A AVE.</t>
+          <t>6800 Valley View St</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>LANGLEY</t>
+          <t>Buena Park</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>V1M 3A9</t>
+          <t>90620</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>S00358848</t>
+          <t>S00360479</t>
         </is>
       </c>
       <c r="M207" t="inlineStr"/>
-      <c r="N207" t="n">
-        <v>70832065</v>
-      </c>
+      <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>59103700</t>
+          <t>08272025</t>
         </is>
       </c>
       <c r="P207" s="2" t="n">
-        <v>45891</v>
+        <v>45896</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>8/22/2025 5:35:13 AM</t>
+          <t>8/27/2025 2:21:13 PM</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="T207" t="inlineStr"/>
-      <c r="U207" s="2" t="n">
-        <v>45901</v>
-      </c>
+      <c r="U207" t="inlineStr"/>
       <c r="V207" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W207" s="2" t="n">
-        <v>45905</v>
+        <v>45904</v>
       </c>
       <c r="X207" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
-        </is>
-      </c>
-      <c r="Y207" t="inlineStr">
-        <is>
-          <t>18597408</t>
-        </is>
-      </c>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y207" t="inlineStr"/>
       <c r="Z207" t="n">
-        <v>10</v>
+        <v>650</v>
       </c>
       <c r="AA207" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB207" t="inlineStr"/>
       <c r="AC207" t="inlineStr"/>
       <c r="AD207" t="inlineStr">
         <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE207" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="AE207" t="inlineStr"/>
       <c r="AF207" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Primary Freight Services Inc</t>
         </is>
       </c>
       <c r="AG207" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AH207" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Primary Freight Services Inc</t>
         </is>
       </c>
       <c r="AI207" t="inlineStr">
         <is>
-          <t>A653091</t>
+          <t>08272025</t>
         </is>
       </c>
       <c r="AJ207" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK207" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK207" t="inlineStr"/>
       <c r="AL207" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="AM207" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="AN207" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="AO207" t="inlineStr">
@@ -46325,1661 +46329,51 @@
       </c>
       <c r="AP207" t="inlineStr">
         <is>
-          <t>EDI</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="AQ207" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>Soundbar</t>
         </is>
       </c>
       <c r="AR207" t="inlineStr"/>
-      <c r="AS207" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
+      <c r="AS207" t="inlineStr"/>
       <c r="AT207" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>EACH</t>
         </is>
       </c>
       <c r="AU207" t="n">
-        <v>6.431683676651111</v>
+        <v>384.1527083333334</v>
       </c>
       <c r="AV207" t="n">
-        <v>6.431683676651111</v>
+        <v>384.1527083333334</v>
       </c>
       <c r="AW207" t="n">
-        <v>72.7526</v>
+        <v>0</v>
       </c>
       <c r="AX207" t="n">
-        <v>72.7526</v>
+        <v>0</v>
       </c>
       <c r="AY207" t="n">
-        <v>0.1516</v>
+        <v>6.7708</v>
       </c>
       <c r="AZ207" t="inlineStr">
         <is>
-          <t>A653091</t>
+          <t>08272025</t>
         </is>
       </c>
       <c r="BA207" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB207" t="n">
-        <v>840063203563</v>
+        <v>840063204546</v>
       </c>
       <c r="BC207" t="n">
         <v>10000</v>
       </c>
       <c r="BD207" t="inlineStr">
-        <is>
-          <t>S00358848-10000</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>BEST BUY CANADA LTD</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>BES005</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>BEST BUY CANADA LTD</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>DC#1016, 9200 AIRPORT RD.</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>BRAMPTON</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>L6S 6G6</t>
-        </is>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>S00358847</t>
-        </is>
-      </c>
-      <c r="M208" t="inlineStr"/>
-      <c r="N208" t="n">
-        <v>70832067</v>
-      </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>59103701</t>
-        </is>
-      </c>
-      <c r="P208" s="2" t="n">
-        <v>45891</v>
-      </c>
-      <c r="Q208" t="inlineStr">
-        <is>
-          <t>8/22/2025 5:35:12 AM</t>
-        </is>
-      </c>
-      <c r="R208" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/29/2025 </t>
-        </is>
-      </c>
-      <c r="S208" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/29/2025 </t>
-        </is>
-      </c>
-      <c r="T208" t="inlineStr"/>
-      <c r="U208" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="V208" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W208" s="2" t="n">
-        <v>45898</v>
-      </c>
-      <c r="X208" t="inlineStr">
-        <is>
-          <t>TAB5109/37</t>
-        </is>
-      </c>
-      <c r="Y208" t="inlineStr">
-        <is>
-          <t>18597408</t>
-        </is>
-      </c>
-      <c r="Z208" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA208" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB208" t="inlineStr"/>
-      <c r="AC208" t="inlineStr"/>
-      <c r="AD208" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE208" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF208" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG208" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH208" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI208" t="inlineStr">
-        <is>
-          <t>A653064</t>
-        </is>
-      </c>
-      <c r="AJ208" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK208" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL208" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/29/2025 </t>
-        </is>
-      </c>
-      <c r="AM208" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/29/2025 </t>
-        </is>
-      </c>
-      <c r="AN208" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/29/2025 </t>
-        </is>
-      </c>
-      <c r="AO208" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP208" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ208" t="inlineStr">
-        <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
-        </is>
-      </c>
-      <c r="AR208" t="inlineStr"/>
-      <c r="AS208" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT208" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU208" t="n">
-        <v>19.29505102995333</v>
-      </c>
-      <c r="AV208" t="n">
-        <v>19.29505102995333</v>
-      </c>
-      <c r="AW208" t="n">
-        <v>218.2576</v>
-      </c>
-      <c r="AX208" t="n">
-        <v>218.2576</v>
-      </c>
-      <c r="AY208" t="n">
-        <v>0.4546</v>
-      </c>
-      <c r="AZ208" t="inlineStr">
-        <is>
-          <t>A653064</t>
-        </is>
-      </c>
-      <c r="BA208" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB208" t="n">
-        <v>840063203563</v>
-      </c>
-      <c r="BC208" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BD208" t="inlineStr">
-        <is>
-          <t>S00358847-10000</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D209" t="n">
-        <v>72</v>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>6800 MARITZ DRIVE</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>MISSISSAUGA</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>L5W 1W2</t>
-        </is>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>S00359896</t>
-        </is>
-      </c>
-      <c r="M209" t="inlineStr"/>
-      <c r="N209" t="n">
-        <v>70838071</v>
-      </c>
-      <c r="O209" t="inlineStr">
-        <is>
-          <t>4001223951</t>
-        </is>
-      </c>
-      <c r="P209" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="Q209" t="inlineStr">
-        <is>
-          <t>8/26/2025 7:21:39 AM</t>
-        </is>
-      </c>
-      <c r="R209" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="S209" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T209" s="2" t="n">
-        <v>45894</v>
-      </c>
-      <c r="U209" s="2" t="n">
-        <v>45905</v>
-      </c>
-      <c r="V209" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W209" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="X209" t="inlineStr">
-        <is>
-          <t>TAB5106/37</t>
-        </is>
-      </c>
-      <c r="Y209" t="inlineStr">
-        <is>
-          <t>030858488</t>
-        </is>
-      </c>
-      <c r="Z209" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA209" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB209" t="inlineStr"/>
-      <c r="AC209" t="inlineStr"/>
-      <c r="AD209" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE209" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF209" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG209" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH209" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI209" t="inlineStr">
-        <is>
-          <t>A653231</t>
-        </is>
-      </c>
-      <c r="AJ209" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK209" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL209" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AM209" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AN209" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AO209" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP209" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ209" t="inlineStr">
-        <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
-        </is>
-      </c>
-      <c r="AR209" t="inlineStr"/>
-      <c r="AS209" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT209" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU209" t="n">
-        <v>45.36733975042748</v>
-      </c>
-      <c r="AV209" t="n">
-        <v>45.36733975042748</v>
-      </c>
-      <c r="AW209" t="n">
-        <v>363.6461</v>
-      </c>
-      <c r="AX209" t="n">
-        <v>363.6461</v>
-      </c>
-      <c r="AY209" t="n">
-        <v>0.7572</v>
-      </c>
-      <c r="AZ209" t="inlineStr">
-        <is>
-          <t>A653231</t>
-        </is>
-      </c>
-      <c r="BA209" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB209" t="n">
-        <v>840063202368</v>
-      </c>
-      <c r="BC209" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BD209" t="inlineStr">
-        <is>
-          <t>S00359896-10000</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D210" t="n">
-        <v>72</v>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>6800 MARITZ DRIVE</t>
-        </is>
-      </c>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>MISSISSAUGA</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>L5W 1W2</t>
-        </is>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>S00360097</t>
-        </is>
-      </c>
-      <c r="M210" t="inlineStr"/>
-      <c r="N210" t="n">
-        <v>70838223</v>
-      </c>
-      <c r="O210" t="inlineStr">
-        <is>
-          <t>4001223987</t>
-        </is>
-      </c>
-      <c r="P210" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="Q210" t="inlineStr">
-        <is>
-          <t>8/26/2025 12:07:54 PM</t>
-        </is>
-      </c>
-      <c r="R210" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="S210" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T210" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="U210" s="2" t="n">
-        <v>45906</v>
-      </c>
-      <c r="V210" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W210" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="X210" t="inlineStr">
-        <is>
-          <t>TAB5106/37</t>
-        </is>
-      </c>
-      <c r="Y210" t="inlineStr">
-        <is>
-          <t>030858488</t>
-        </is>
-      </c>
-      <c r="Z210" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA210" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB210" t="inlineStr"/>
-      <c r="AC210" t="inlineStr"/>
-      <c r="AD210" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE210" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF210" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG210" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH210" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI210" t="inlineStr">
-        <is>
-          <t>A653239</t>
-        </is>
-      </c>
-      <c r="AJ210" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK210" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL210" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AM210" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AN210" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AO210" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP210" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ210" t="inlineStr">
-        <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
-        </is>
-      </c>
-      <c r="AR210" t="inlineStr"/>
-      <c r="AS210" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT210" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU210" t="n">
-        <v>25.7081591919089</v>
-      </c>
-      <c r="AV210" t="n">
-        <v>25.7081591919089</v>
-      </c>
-      <c r="AW210" t="n">
-        <v>206.04</v>
-      </c>
-      <c r="AX210" t="n">
-        <v>206.04</v>
-      </c>
-      <c r="AY210" t="n">
-        <v>0.4722</v>
-      </c>
-      <c r="AZ210" t="inlineStr">
-        <is>
-          <t>A653239</t>
-        </is>
-      </c>
-      <c r="BA210" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB210" t="n">
-        <v>840063202368</v>
-      </c>
-      <c r="BC210" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BD210" t="inlineStr">
-        <is>
-          <t>S00360097-10000</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D211" t="n">
-        <v>72</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
-        </is>
-      </c>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>CALGARY</t>
-        </is>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>T1Y 7J4</t>
-        </is>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>S00360098</t>
-        </is>
-      </c>
-      <c r="M211" t="inlineStr"/>
-      <c r="N211" t="n">
-        <v>70838222</v>
-      </c>
-      <c r="O211" t="inlineStr">
-        <is>
-          <t>3150833548</t>
-        </is>
-      </c>
-      <c r="P211" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="Q211" t="inlineStr">
-        <is>
-          <t>8/26/2025 12:07:55 PM</t>
-        </is>
-      </c>
-      <c r="R211" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="S211" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T211" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="U211" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="V211" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W211" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="X211" t="inlineStr">
-        <is>
-          <t>TAB5106/37</t>
-        </is>
-      </c>
-      <c r="Y211" t="inlineStr">
-        <is>
-          <t>030858488</t>
-        </is>
-      </c>
-      <c r="Z211" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA211" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB211" t="inlineStr"/>
-      <c r="AC211" t="inlineStr"/>
-      <c r="AD211" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE211" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF211" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG211" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH211" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI211" t="inlineStr">
-        <is>
-          <t>A653232</t>
-        </is>
-      </c>
-      <c r="AJ211" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK211" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL211" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AM211" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AN211" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AO211" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP211" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ211" t="inlineStr">
-        <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
-        </is>
-      </c>
-      <c r="AR211" t="inlineStr"/>
-      <c r="AS211" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT211" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU211" t="n">
-        <v>18.90305822934478</v>
-      </c>
-      <c r="AV211" t="n">
-        <v>18.90305822934478</v>
-      </c>
-      <c r="AW211" t="n">
-        <v>151.5</v>
-      </c>
-      <c r="AX211" t="n">
-        <v>151.5</v>
-      </c>
-      <c r="AY211" t="n">
-        <v>0.3473</v>
-      </c>
-      <c r="AZ211" t="inlineStr">
-        <is>
-          <t>A653232</t>
-        </is>
-      </c>
-      <c r="BA211" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB211" t="n">
-        <v>840063202368</v>
-      </c>
-      <c r="BC211" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BD211" t="inlineStr">
-        <is>
-          <t>S00360098-10000</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D212" t="n">
-        <v>72</v>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2401 SCM WAY RR 1</t>
-        </is>
-      </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>CORNWALL</t>
-        </is>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>K6H 7S1</t>
-        </is>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>S00360099</t>
-        </is>
-      </c>
-      <c r="M212" t="inlineStr"/>
-      <c r="N212" t="n">
-        <v>70838224</v>
-      </c>
-      <c r="O212" t="inlineStr">
-        <is>
-          <t>3850803890</t>
-        </is>
-      </c>
-      <c r="P212" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="Q212" t="inlineStr">
-        <is>
-          <t>8/26/2025 12:07:56 PM</t>
-        </is>
-      </c>
-      <c r="R212" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="S212" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T212" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="U212" s="2" t="n">
-        <v>45907</v>
-      </c>
-      <c r="V212" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W212" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="X212" t="inlineStr">
-        <is>
-          <t>TAB5106/37</t>
-        </is>
-      </c>
-      <c r="Y212" t="inlineStr">
-        <is>
-          <t>030858488</t>
-        </is>
-      </c>
-      <c r="Z212" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA212" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB212" t="inlineStr"/>
-      <c r="AC212" t="inlineStr"/>
-      <c r="AD212" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE212" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF212" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG212" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH212" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI212" t="inlineStr">
-        <is>
-          <t>A653244</t>
-        </is>
-      </c>
-      <c r="AJ212" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK212" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL212" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AM212" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AN212" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AO212" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP212" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ212" t="inlineStr">
-        <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
-        </is>
-      </c>
-      <c r="AR212" t="inlineStr"/>
-      <c r="AS212" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT212" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU212" t="n">
-        <v>12.85407959595445</v>
-      </c>
-      <c r="AV212" t="n">
-        <v>12.85407959595445</v>
-      </c>
-      <c r="AW212" t="n">
-        <v>103.0336</v>
-      </c>
-      <c r="AX212" t="n">
-        <v>103.0336</v>
-      </c>
-      <c r="AY212" t="n">
-        <v>0.2137</v>
-      </c>
-      <c r="AZ212" t="inlineStr">
-        <is>
-          <t>A653244</t>
-        </is>
-      </c>
-      <c r="BA212" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB212" t="n">
-        <v>840063202368</v>
-      </c>
-      <c r="BC212" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BD212" t="inlineStr">
-        <is>
-          <t>S00360099-10000</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D213" t="n">
-        <v>72</v>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2401 SCM WAY RR 1</t>
-        </is>
-      </c>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t>CORNWALL</t>
-        </is>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>K6H 7S1</t>
-        </is>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>S00360099</t>
-        </is>
-      </c>
-      <c r="M213" t="inlineStr"/>
-      <c r="N213" t="n">
-        <v>70838224</v>
-      </c>
-      <c r="O213" t="inlineStr">
-        <is>
-          <t>3850803890</t>
-        </is>
-      </c>
-      <c r="P213" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="Q213" t="inlineStr">
-        <is>
-          <t>8/26/2025 12:07:56 PM</t>
-        </is>
-      </c>
-      <c r="R213" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="S213" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T213" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="U213" s="2" t="n">
-        <v>45907</v>
-      </c>
-      <c r="V213" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W213" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="X213" t="inlineStr">
-        <is>
-          <t>TAB5306/37</t>
-        </is>
-      </c>
-      <c r="Y213" t="inlineStr">
-        <is>
-          <t>030858847</t>
-        </is>
-      </c>
-      <c r="Z213" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA213" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB213" t="inlineStr"/>
-      <c r="AC213" t="inlineStr"/>
-      <c r="AD213" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE213" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF213" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG213" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH213" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI213" t="inlineStr">
-        <is>
-          <t>A653244</t>
-        </is>
-      </c>
-      <c r="AJ213" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK213" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL213" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AM213" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AN213" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AO213" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP213" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ213" t="inlineStr">
-        <is>
-          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
-        </is>
-      </c>
-      <c r="AR213" t="inlineStr"/>
-      <c r="AS213" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT213" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU213" t="n">
-        <v>11.08760521691354</v>
-      </c>
-      <c r="AV213" t="n">
-        <v>11.08760521691354</v>
-      </c>
-      <c r="AW213" t="n">
-        <v>55</v>
-      </c>
-      <c r="AX213" t="n">
-        <v>55</v>
-      </c>
-      <c r="AY213" t="n">
-        <v>0.1429</v>
-      </c>
-      <c r="AZ213" t="inlineStr">
-        <is>
-          <t>A653244</t>
-        </is>
-      </c>
-      <c r="BA213" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB213" t="n">
-        <v>840063202351</v>
-      </c>
-      <c r="BC213" t="n">
-        <v>20000</v>
-      </c>
-      <c r="BD213" t="inlineStr">
-        <is>
-          <t>S00360099-20000</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Unis Warehouse</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>Unis Warehouse</t>
-        </is>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>6800 Valley View St</t>
-        </is>
-      </c>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>Buena Park</t>
-        </is>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>90620</t>
-        </is>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>S00360479</t>
-        </is>
-      </c>
-      <c r="M214" t="inlineStr"/>
-      <c r="N214" t="inlineStr"/>
-      <c r="O214" t="inlineStr">
-        <is>
-          <t>08272025</t>
-        </is>
-      </c>
-      <c r="P214" s="2" t="n">
-        <v>45896</v>
-      </c>
-      <c r="Q214" t="inlineStr">
-        <is>
-          <t>8/27/2025 2:21:13 PM</t>
-        </is>
-      </c>
-      <c r="R214" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/4/2025 </t>
-        </is>
-      </c>
-      <c r="S214" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/4/2025 </t>
-        </is>
-      </c>
-      <c r="T214" t="inlineStr"/>
-      <c r="U214" t="inlineStr"/>
-      <c r="V214" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W214" s="2" t="n">
-        <v>45904</v>
-      </c>
-      <c r="X214" t="inlineStr">
-        <is>
-          <t>TAB4000/37</t>
-        </is>
-      </c>
-      <c r="Y214" t="inlineStr"/>
-      <c r="Z214" t="n">
-        <v>650</v>
-      </c>
-      <c r="AA214" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB214" t="inlineStr"/>
-      <c r="AC214" t="inlineStr"/>
-      <c r="AD214" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="AE214" t="inlineStr"/>
-      <c r="AF214" t="inlineStr">
-        <is>
-          <t>Primary Freight Services Inc</t>
-        </is>
-      </c>
-      <c r="AG214" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH214" t="inlineStr">
-        <is>
-          <t>Primary Freight Services Inc</t>
-        </is>
-      </c>
-      <c r="AI214" t="inlineStr">
-        <is>
-          <t>08272025</t>
-        </is>
-      </c>
-      <c r="AJ214" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK214" t="inlineStr"/>
-      <c r="AL214" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/4/2025 </t>
-        </is>
-      </c>
-      <c r="AM214" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/4/2025 </t>
-        </is>
-      </c>
-      <c r="AN214" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/4/2025 </t>
-        </is>
-      </c>
-      <c r="AO214" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP214" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="AQ214" t="inlineStr">
-        <is>
-          <t>Soundbar</t>
-        </is>
-      </c>
-      <c r="AR214" t="inlineStr"/>
-      <c r="AS214" t="inlineStr"/>
-      <c r="AT214" t="inlineStr">
-        <is>
-          <t>EACH</t>
-        </is>
-      </c>
-      <c r="AU214" t="n">
-        <v>384.1527083333334</v>
-      </c>
-      <c r="AV214" t="n">
-        <v>384.1527083333334</v>
-      </c>
-      <c r="AW214" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX214" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY214" t="n">
-        <v>6.7708</v>
-      </c>
-      <c r="AZ214" t="inlineStr">
-        <is>
-          <t>08272025</t>
-        </is>
-      </c>
-      <c r="BA214" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB214" t="n">
-        <v>840063204546</v>
-      </c>
-      <c r="BC214" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BD214" t="inlineStr">
         <is>
           <t>S00360479-10000</t>
         </is>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD207"/>
+  <dimension ref="A1:BD192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,8 +1020,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y3" t="n">
-        <v>18597408</v>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z3" t="n">
         <v>5</v>
@@ -1234,8 +1236,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y4" t="n">
-        <v>18597408</v>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z4" t="n">
         <v>5</v>
@@ -1872,8 +1876,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y7" t="n">
-        <v>18597408</v>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z7" t="n">
         <v>5</v>
@@ -2094,8 +2100,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y8" t="n">
-        <v>18597408</v>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z8" t="n">
         <v>5</v>
@@ -2544,8 +2552,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y10" t="n">
-        <v>30858488</v>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z10" t="n">
         <v>12</v>
@@ -2750,8 +2760,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y11" t="n">
-        <v>30858847</v>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z11" t="n">
         <v>16</v>
@@ -2956,8 +2968,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y12" t="n">
-        <v>50466375</v>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z12" t="n">
         <v>12</v>
@@ -3162,8 +3176,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y13" t="n">
-        <v>30858488</v>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z13" t="n">
         <v>30</v>
@@ -3368,8 +3384,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y14" t="n">
-        <v>30858847</v>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z14" t="n">
         <v>16</v>
@@ -3574,8 +3592,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y15" t="n">
-        <v>50466375</v>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z15" t="n">
         <v>9</v>
@@ -3780,8 +3800,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y16" t="n">
-        <v>30858488</v>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z16" t="n">
         <v>18</v>
@@ -3986,8 +4008,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y17" t="n">
-        <v>30858847</v>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z17" t="n">
         <v>40</v>
@@ -4192,8 +4216,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y18" t="n">
-        <v>30858488</v>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z18" t="n">
         <v>18</v>
@@ -4398,8 +4424,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y19" t="n">
-        <v>30858847</v>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z19" t="n">
         <v>40</v>
@@ -4604,8 +4632,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y20" t="n">
-        <v>50466375</v>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z20" t="n">
         <v>45</v>
@@ -4808,8 +4838,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y21" t="n">
-        <v>30858488</v>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z21" t="n">
         <v>18</v>
@@ -5012,8 +5044,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y22" t="n">
-        <v>30858847</v>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z22" t="n">
         <v>20</v>
@@ -5216,8 +5250,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y23" t="n">
-        <v>30858488</v>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z23" t="n">
         <v>6</v>
@@ -5420,8 +5456,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y24" t="n">
-        <v>30858847</v>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z24" t="n">
         <v>28</v>
@@ -5624,8 +5662,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y25" t="n">
-        <v>50466375</v>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z25" t="n">
         <v>27</v>
@@ -5830,8 +5870,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y26" t="n">
-        <v>30858488</v>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z26" t="n">
         <v>18</v>
@@ -6036,8 +6078,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y27" t="n">
-        <v>30858847</v>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z27" t="n">
         <v>40</v>
@@ -6242,8 +6286,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y28" t="n">
-        <v>30858488</v>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z28" t="n">
         <v>6</v>
@@ -6448,8 +6494,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y29" t="n">
-        <v>30858847</v>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z29" t="n">
         <v>8</v>
@@ -6654,8 +6702,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y30" t="n">
-        <v>50466375</v>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z30" t="n">
         <v>6</v>
@@ -6858,8 +6908,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y31" t="n">
-        <v>18597408</v>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z31" t="n">
         <v>12</v>
@@ -7064,8 +7116,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y32" t="n">
-        <v>30858488</v>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z32" t="n">
         <v>6</v>
@@ -7270,8 +7324,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y33" t="n">
-        <v>30858847</v>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z33" t="n">
         <v>20</v>
@@ -7476,8 +7532,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y34" t="n">
-        <v>50466375</v>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z34" t="n">
         <v>6</v>
@@ -7682,8 +7740,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y35" t="n">
-        <v>30858488</v>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z35" t="n">
         <v>12</v>
@@ -7888,8 +7948,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y36" t="n">
-        <v>30858847</v>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z36" t="n">
         <v>56</v>
@@ -8094,8 +8156,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y37" t="n">
-        <v>50466375</v>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z37" t="n">
         <v>9</v>
@@ -8300,8 +8364,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y38" t="n">
-        <v>30858488</v>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z38" t="n">
         <v>18</v>
@@ -8506,8 +8572,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y39" t="n">
-        <v>50466375</v>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z39" t="n">
         <v>9</v>
@@ -8710,8 +8778,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y40" t="n">
-        <v>18597408</v>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z40" t="n">
         <v>8</v>
@@ -8914,8 +8984,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y41" t="n">
-        <v>18597408</v>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z41" t="n">
         <v>12</v>
@@ -9120,8 +9192,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y42" t="n">
-        <v>30858488</v>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z42" t="n">
         <v>24</v>
@@ -9326,8 +9400,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y43" t="n">
-        <v>50466375</v>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z43" t="n">
         <v>18</v>
@@ -9532,8 +9608,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y44" t="n">
-        <v>30858488</v>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z44" t="n">
         <v>12</v>
@@ -9738,8 +9816,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y45" t="n">
-        <v>30858847</v>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z45" t="n">
         <v>20</v>
@@ -9944,8 +10024,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y46" t="n">
-        <v>50466375</v>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z46" t="n">
         <v>9</v>
@@ -10150,8 +10232,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y47" t="n">
-        <v>30858488</v>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z47" t="n">
         <v>18</v>
@@ -10356,8 +10440,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y48" t="n">
-        <v>30858847</v>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z48" t="n">
         <v>12</v>
@@ -10562,8 +10648,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y49" t="n">
-        <v>50466375</v>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z49" t="n">
         <v>15</v>
@@ -10768,8 +10856,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y50" t="n">
-        <v>30858488</v>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z50" t="n">
         <v>24</v>
@@ -10974,8 +11064,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y51" t="n">
-        <v>30858847</v>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z51" t="n">
         <v>52</v>
@@ -11180,8 +11272,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y52" t="n">
-        <v>50466375</v>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z52" t="n">
         <v>6</v>
@@ -11386,8 +11480,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y53" t="n">
-        <v>30858488</v>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z53" t="n">
         <v>6</v>
@@ -11592,8 +11688,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y54" t="n">
-        <v>30858847</v>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z54" t="n">
         <v>36</v>
@@ -11798,8 +11896,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y55" t="n">
-        <v>50466375</v>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z55" t="n">
         <v>6</v>
@@ -12004,8 +12104,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y56" t="n">
-        <v>30858488</v>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z56" t="n">
         <v>23</v>
@@ -12210,8 +12312,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y57" t="n">
-        <v>30858847</v>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z57" t="n">
         <v>60</v>
@@ -12416,8 +12520,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y58" t="n">
-        <v>50466375</v>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z58" t="n">
         <v>18</v>
@@ -12620,8 +12726,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y59" t="n">
-        <v>18597408</v>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z59" t="n">
         <v>30</v>
@@ -12824,8 +12932,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y60" t="n">
-        <v>18597408</v>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z60" t="n">
         <v>12</v>
@@ -13030,8 +13140,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y61" t="n">
-        <v>30858488</v>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z61" t="n">
         <v>24</v>
@@ -13236,8 +13348,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y62" t="n">
-        <v>30858847</v>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z62" t="n">
         <v>32</v>
@@ -13446,8 +13560,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y63" t="n">
-        <v>50466375</v>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z63" t="n">
         <v>15</v>
@@ -13656,8 +13772,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y64" t="n">
-        <v>30858488</v>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z64" t="n">
         <v>43</v>
@@ -13862,8 +13980,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y65" t="n">
-        <v>30858847</v>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z65" t="n">
         <v>36</v>
@@ -14072,8 +14192,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y66" t="n">
-        <v>50466375</v>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z66" t="n">
         <v>9</v>
@@ -14284,8 +14406,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y67" t="n">
-        <v>30858488</v>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z67" t="n">
         <v>36</v>
@@ -14492,8 +14616,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y68" t="n">
-        <v>30858847</v>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z68" t="n">
         <v>48</v>
@@ -14704,8 +14830,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y69" t="n">
-        <v>50466375</v>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z69" t="n">
         <v>6</v>
@@ -14914,8 +15042,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y70" t="n">
-        <v>30858488</v>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z70" t="n">
         <v>18</v>
@@ -15120,8 +15250,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y71" t="n">
-        <v>30858847</v>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z71" t="n">
         <v>48</v>
@@ -15332,8 +15464,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y72" t="n">
-        <v>30858488</v>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z72" t="n">
         <v>24</v>
@@ -15540,8 +15674,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y73" t="n">
-        <v>30858847</v>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z73" t="n">
         <v>40</v>
@@ -15752,8 +15888,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y74" t="n">
-        <v>50466375</v>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z74" t="n">
         <v>3</v>
@@ -15964,8 +16102,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y75" t="n">
-        <v>30858488</v>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z75" t="n">
         <v>24</v>
@@ -16172,8 +16312,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y76" t="n">
-        <v>30858847</v>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z76" t="n">
         <v>36</v>
@@ -16384,8 +16526,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y77" t="n">
-        <v>50466375</v>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z77" t="n">
         <v>6</v>
@@ -16596,8 +16740,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y78" t="n">
-        <v>30858488</v>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z78" t="n">
         <v>30</v>
@@ -16824,8 +16970,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y79" t="n">
-        <v>30858847</v>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z79" t="n">
         <v>80</v>
@@ -17056,8 +17204,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y80" t="n">
-        <v>50466375</v>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z80" t="n">
         <v>12</v>
@@ -17288,8 +17438,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y81" t="n">
-        <v>30858488</v>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z81" t="n">
         <v>36</v>
@@ -17516,8 +17668,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y82" t="n">
-        <v>30858847</v>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z82" t="n">
         <v>32</v>
@@ -17748,8 +17902,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y83" t="n">
-        <v>50466375</v>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z83" t="n">
         <v>15</v>
@@ -17978,8 +18134,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y84" t="n">
-        <v>30858488</v>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z84" t="n">
         <v>36</v>
@@ -18204,8 +18362,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y85" t="n">
-        <v>30858847</v>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z85" t="n">
         <v>32</v>
@@ -18434,8 +18594,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y86" t="n">
-        <v>50466375</v>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z86" t="n">
         <v>15</v>
@@ -18662,8 +18824,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y87" t="n">
-        <v>18597408</v>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z87" t="n">
         <v>14</v>
@@ -18890,8 +19054,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y88" t="n">
-        <v>18597408</v>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z88" t="n">
         <v>14</v>
@@ -19120,8 +19286,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y89" t="n">
-        <v>30858488</v>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z89" t="n">
         <v>72</v>
@@ -19350,8 +19518,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y90" t="n">
-        <v>50466375</v>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z90" t="n">
         <v>6</v>
@@ -19580,8 +19750,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y91" t="n">
-        <v>30858488</v>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z91" t="n">
         <v>66</v>
@@ -19812,8 +19984,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y92" t="n">
-        <v>30858488</v>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z92" t="n">
         <v>36</v>
@@ -20042,8 +20216,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y93" t="n">
-        <v>30858488</v>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z93" t="n">
         <v>30</v>
@@ -20272,8 +20448,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y94" t="n">
-        <v>30858847</v>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z94" t="n">
         <v>32</v>
@@ -20502,8 +20680,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y95" t="n">
-        <v>50466375</v>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z95" t="n">
         <v>6</v>
@@ -20732,8 +20912,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y96" t="n">
-        <v>30858488</v>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z96" t="n">
         <v>30</v>
@@ -20962,8 +21144,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y97" t="n">
-        <v>30858847</v>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z97" t="n">
         <v>40</v>
@@ -21192,8 +21376,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y98" t="n">
-        <v>50466375</v>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z98" t="n">
         <v>15</v>
@@ -21422,8 +21608,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y99" t="n">
-        <v>30858488</v>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z99" t="n">
         <v>18</v>
@@ -21652,8 +21840,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y100" t="n">
-        <v>30858847</v>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z100" t="n">
         <v>20</v>
@@ -21880,8 +22070,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y101" t="n">
-        <v>18597408</v>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z101" t="n">
         <v>30</v>
@@ -22110,8 +22302,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y102" t="n">
-        <v>30858488</v>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z102" t="n">
         <v>18</v>
@@ -22340,8 +22534,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y103" t="n">
-        <v>50466375</v>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z103" t="n">
         <v>3</v>
@@ -22570,8 +22766,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y104" t="n">
-        <v>30858488</v>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z104" t="n">
         <v>30</v>
@@ -22800,8 +22998,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y105" t="n">
-        <v>30858488</v>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z105" t="n">
         <v>30</v>
@@ -23030,8 +23230,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y106" t="n">
-        <v>30858847</v>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z106" t="n">
         <v>40</v>
@@ -23260,8 +23462,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y107" t="n">
-        <v>50466375</v>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z107" t="n">
         <v>3</v>
@@ -23490,8 +23694,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y108" t="n">
-        <v>30858488</v>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z108" t="n">
         <v>30</v>
@@ -23720,8 +23926,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y109" t="n">
-        <v>50466375</v>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z109" t="n">
         <v>6</v>
@@ -23952,8 +24160,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y110" t="n">
-        <v>30858847</v>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z110" t="n">
         <v>20</v>
@@ -24182,8 +24392,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y111" t="n">
-        <v>30858488</v>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z111" t="n">
         <v>30</v>
@@ -24412,8 +24624,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y112" t="n">
-        <v>30858847</v>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z112" t="n">
         <v>32</v>
@@ -24642,8 +24856,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y113" t="n">
-        <v>30858488</v>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z113" t="n">
         <v>18</v>
@@ -24872,8 +25088,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y114" t="n">
-        <v>30858847</v>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z114" t="n">
         <v>20</v>
@@ -25102,8 +25320,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y115" t="n">
-        <v>50466375</v>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z115" t="n">
         <v>9</v>
@@ -25332,8 +25552,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y116" t="n">
-        <v>30858488</v>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z116" t="n">
         <v>30</v>
@@ -25562,8 +25784,10 @@
           <t>TAT1138BK/00</t>
         </is>
       </c>
-      <c r="Y117" t="n">
-        <v>50466375</v>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>050466375</t>
+        </is>
       </c>
       <c r="Z117" t="n">
         <v>12</v>
@@ -25790,8 +26014,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y118" t="n">
-        <v>18597408</v>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z118" t="n">
         <v>20</v>
@@ -26018,8 +26244,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y119" t="n">
-        <v>18597408</v>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z119" t="n">
         <v>10</v>
@@ -26248,8 +26476,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y120" t="n">
-        <v>30858488</v>
+      <c r="Y120" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z120" t="n">
         <v>18</v>
@@ -26478,8 +26708,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y121" t="n">
-        <v>30858847</v>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z121" t="n">
         <v>24</v>
@@ -26708,8 +26940,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y122" t="n">
-        <v>30858847</v>
+      <c r="Y122" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z122" t="n">
         <v>8</v>
@@ -26940,8 +27174,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y123" t="n">
-        <v>30858488</v>
+      <c r="Y123" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z123" t="n">
         <v>30</v>
@@ -27172,8 +27408,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y124" t="n">
-        <v>30858847</v>
+      <c r="Y124" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z124" t="n">
         <v>20</v>
@@ -27402,8 +27640,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y125" t="n">
-        <v>30858488</v>
+      <c r="Y125" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z125" t="n">
         <v>42</v>
@@ -27632,8 +27872,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y126" t="n">
-        <v>30858847</v>
+      <c r="Y126" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z126" t="n">
         <v>32</v>
@@ -27862,8 +28104,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y127" t="n">
-        <v>30858488</v>
+      <c r="Y127" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z127" t="n">
         <v>48</v>
@@ -28092,8 +28336,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y128" t="n">
-        <v>30858847</v>
+      <c r="Y128" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z128" t="n">
         <v>40</v>
@@ -28322,8 +28568,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y129" t="n">
-        <v>30858847</v>
+      <c r="Y129" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z129" t="n">
         <v>40</v>
@@ -28552,8 +28800,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y130" t="n">
-        <v>30858488</v>
+      <c r="Y130" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z130" t="n">
         <v>6</v>
@@ -28782,8 +29032,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y131" t="n">
-        <v>30858847</v>
+      <c r="Y131" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z131" t="n">
         <v>32</v>
@@ -29012,8 +29264,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y132" t="n">
-        <v>30858488</v>
+      <c r="Y132" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z132" t="n">
         <v>18</v>
@@ -29242,8 +29496,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y133" t="n">
-        <v>30858847</v>
+      <c r="Y133" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z133" t="n">
         <v>20</v>
@@ -29470,8 +29726,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y134" t="n">
-        <v>18597408</v>
+      <c r="Y134" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z134" t="n">
         <v>12</v>
@@ -29700,8 +29958,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y135" t="n">
-        <v>30858488</v>
+      <c r="Y135" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z135" t="n">
         <v>275</v>
@@ -29930,8 +30190,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y136" t="n">
-        <v>30858847</v>
+      <c r="Y136" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z136" t="n">
         <v>213</v>
@@ -30160,8 +30422,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y137" t="n">
-        <v>30858488</v>
+      <c r="Y137" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z137" t="n">
         <v>241</v>
@@ -30390,8 +30654,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y138" t="n">
-        <v>30858847</v>
+      <c r="Y138" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z138" t="n">
         <v>163</v>
@@ -30622,8 +30888,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y139" t="n">
-        <v>30858488</v>
+      <c r="Y139" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z139" t="n">
         <v>284</v>
@@ -30854,8 +31122,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y140" t="n">
-        <v>30858847</v>
+      <c r="Y140" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z140" t="n">
         <v>224</v>
@@ -31084,8 +31354,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y141" t="n">
-        <v>30858488</v>
+      <c r="Y141" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z141" t="n">
         <v>6</v>
@@ -31314,8 +31586,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y142" t="n">
-        <v>30858847</v>
+      <c r="Y142" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z142" t="n">
         <v>24</v>
@@ -31542,8 +31816,10 @@
           <t>Q27G3XMN</t>
         </is>
       </c>
-      <c r="Y143" t="n">
-        <v>3492730</v>
+      <c r="Y143" t="inlineStr">
+        <is>
+          <t>3492730</t>
+        </is>
       </c>
       <c r="Z143" t="n">
         <v>64</v>
@@ -31770,8 +32046,10 @@
           <t>AG276QZD2</t>
         </is>
       </c>
-      <c r="Y144" t="n">
-        <v>3492762</v>
+      <c r="Y144" t="inlineStr">
+        <is>
+          <t>3492762</t>
+        </is>
       </c>
       <c r="Z144" t="n">
         <v>28</v>
@@ -31998,8 +32276,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y145" t="n">
-        <v>18597408</v>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z145" t="n">
         <v>10</v>
@@ -32226,8 +32506,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y146" t="n">
-        <v>18597408</v>
+      <c r="Y146" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z146" t="n">
         <v>20</v>
@@ -32456,8 +32738,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y147" t="n">
-        <v>30858488</v>
+      <c r="Y147" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z147" t="n">
         <v>36</v>
@@ -32686,8 +32970,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y148" t="n">
-        <v>30858488</v>
+      <c r="Y148" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z148" t="n">
         <v>12</v>
@@ -32916,8 +33202,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y149" t="n">
-        <v>30858488</v>
+      <c r="Y149" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z149" t="n">
         <v>18</v>
@@ -33146,8 +33434,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y150" t="n">
-        <v>30858847</v>
+      <c r="Y150" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z150" t="n">
         <v>4</v>
@@ -33374,8 +33664,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y151" t="n">
-        <v>18597408</v>
+      <c r="Y151" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z151" t="n">
         <v>6</v>
@@ -33602,8 +33894,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y152" t="n">
-        <v>18597408</v>
+      <c r="Y152" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z152" t="n">
         <v>12</v>
@@ -33832,8 +34126,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y153" t="n">
-        <v>30858488</v>
+      <c r="Y153" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z153" t="n">
         <v>54</v>
@@ -34062,8 +34358,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y154" t="n">
-        <v>30858488</v>
+      <c r="Y154" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z154" t="n">
         <v>54</v>
@@ -34292,8 +34590,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y155" t="n">
-        <v>30858847</v>
+      <c r="Y155" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z155" t="n">
         <v>4</v>
@@ -34522,8 +34822,10 @@
           <t>TAB5109/37</t>
         </is>
       </c>
-      <c r="Y156" t="n">
-        <v>18597408</v>
+      <c r="Y156" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z156" t="n">
         <v>20</v>
@@ -34752,8 +35054,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y157" t="n">
-        <v>30858488</v>
+      <c r="Y157" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z157" t="n">
         <v>60</v>
@@ -34982,8 +35286,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y158" t="n">
-        <v>30858847</v>
+      <c r="Y158" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z158" t="n">
         <v>24</v>
@@ -35212,8 +35518,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y159" t="n">
-        <v>30858488</v>
+      <c r="Y159" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z159" t="n">
         <v>54</v>
@@ -35442,8 +35750,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y160" t="n">
-        <v>30858847</v>
+      <c r="Y160" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z160" t="n">
         <v>24</v>
@@ -35672,8 +35982,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y161" t="n">
-        <v>30858488</v>
+      <c r="Y161" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z161" t="n">
         <v>78</v>
@@ -35902,8 +36214,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y162" t="n">
-        <v>30858847</v>
+      <c r="Y162" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z162" t="n">
         <v>40</v>
@@ -36134,8 +36448,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y163" t="n">
-        <v>30858847</v>
+      <c r="Y163" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z163" t="n">
         <v>20</v>
@@ -36366,8 +36682,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y164" t="n">
-        <v>30858847</v>
+      <c r="Y164" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z164" t="n">
         <v>40</v>
@@ -36598,8 +36916,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y165" t="n">
-        <v>30858847</v>
+      <c r="Y165" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z165" t="n">
         <v>12</v>
@@ -36828,8 +37148,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y166" t="n">
-        <v>30858488</v>
+      <c r="Y166" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z166" t="n">
         <v>54</v>
@@ -37058,8 +37380,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y167" t="n">
-        <v>30858847</v>
+      <c r="Y167" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z167" t="n">
         <v>32</v>
@@ -37288,8 +37612,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y168" t="n">
-        <v>30858488</v>
+      <c r="Y168" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z168" t="n">
         <v>42</v>
@@ -37518,8 +37844,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y169" t="n">
-        <v>30858847</v>
+      <c r="Y169" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z169" t="n">
         <v>20</v>
@@ -37748,8 +38076,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y170" t="n">
-        <v>30858488</v>
+      <c r="Y170" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z170" t="n">
         <v>42</v>
@@ -37978,8 +38308,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y171" t="n">
-        <v>30858847</v>
+      <c r="Y171" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z171" t="n">
         <v>32</v>
@@ -38208,8 +38540,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y172" t="n">
-        <v>30858488</v>
+      <c r="Y172" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z172" t="n">
         <v>48</v>
@@ -38438,8 +38772,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y173" t="n">
-        <v>30858847</v>
+      <c r="Y173" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z173" t="n">
         <v>48</v>
@@ -38668,8 +39004,10 @@
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y174" t="n">
-        <v>30858488</v>
+      <c r="Y174" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z174" t="n">
         <v>30</v>
@@ -38898,8 +39236,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y175" t="n">
-        <v>30858847</v>
+      <c r="Y175" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z175" t="n">
         <v>60</v>
@@ -39130,8 +39470,10 @@
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y176" t="n">
-        <v>30858847</v>
+      <c r="Y176" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z176" t="n">
         <v>44</v>
@@ -39273,32 +39615,30 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D177" t="n">
-        <v>72</v>
-      </c>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>CANADA COMPUTERS</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>CAN002</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>CANADA COMPUTERS</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>168 Ultimate Drive</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>Richmond Hill</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -39308,42 +39648,44 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>L4S 1P4</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>S00353113</t>
+          <t>S00357206</t>
         </is>
       </c>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="n">
-        <v>70803187</v>
-      </c>
-      <c r="O177" t="n">
-        <v>3850803770</v>
+        <v>70820798</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>PO2508150026</t>
+        </is>
       </c>
       <c r="P177" s="2" t="n">
-        <v>45873</v>
+        <v>45884</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>8/4/2025 8:20:36 AM</t>
+          <t>8/15/2025 2:42:08 PM</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/11/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/11/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="T177" t="inlineStr"/>
       <c r="U177" s="2" t="n">
-        <v>45885</v>
+        <v>45896</v>
       </c>
       <c r="V177" t="inlineStr">
         <is>
@@ -39351,21 +39693,23 @@
         </is>
       </c>
       <c r="W177" s="2" t="n">
-        <v>45880</v>
+        <v>45897</v>
       </c>
       <c r="X177" t="inlineStr">
         <is>
-          <t>TAB5106/37</t>
-        </is>
-      </c>
-      <c r="Y177" t="n">
-        <v>30858488</v>
+          <t>AG276QZD2</t>
+        </is>
+      </c>
+      <c r="Y177" t="inlineStr">
+        <is>
+          <t>MTAOC00097</t>
+        </is>
       </c>
       <c r="Z177" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="AA177" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="AB177" t="inlineStr"/>
       <c r="AC177" t="inlineStr"/>
@@ -39396,7 +39740,7 @@
       </c>
       <c r="AI177" t="inlineStr">
         <is>
-          <t xml:space="preserve">A651516 </t>
+          <t>A653261</t>
         </is>
       </c>
       <c r="AJ177" t="inlineStr">
@@ -39411,17 +39755,17 @@
       </c>
       <c r="AL177" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/11/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM177" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/11/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN177" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/11/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO177" t="inlineStr">
@@ -39436,13 +39780,13 @@
       </c>
       <c r="AQ177" t="inlineStr">
         <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+          <t>AOC 27” QHD OLED gaming monitor</t>
         </is>
       </c>
       <c r="AR177" t="inlineStr"/>
       <c r="AS177" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT177" t="inlineStr">
@@ -39451,37 +39795,37 @@
         </is>
       </c>
       <c r="AU177" t="n">
-        <v>40.83060577538473</v>
+        <v>65.132025</v>
       </c>
       <c r="AV177" t="n">
-        <v>40.83060577538473</v>
+        <v>65.132025</v>
       </c>
       <c r="AW177" t="n">
-        <v>327.2562</v>
+        <v>638.96</v>
       </c>
       <c r="AX177" t="n">
-        <v>327.2562</v>
+        <v>638.96</v>
       </c>
       <c r="AY177" t="n">
-        <v>0.7231</v>
+        <v>0.9999</v>
       </c>
       <c r="AZ177" t="inlineStr">
         <is>
-          <t xml:space="preserve">A651516 </t>
+          <t>A653261</t>
         </is>
       </c>
       <c r="BA177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB177" t="n">
-        <v>840063202368</v>
+        <v>685417736485</v>
       </c>
       <c r="BC177" t="n">
         <v>10000</v>
       </c>
       <c r="BD177" t="inlineStr">
         <is>
-          <t>S00353113-10000</t>
+          <t>S00357206-10000</t>
         </is>
       </c>
     </row>
@@ -39501,32 +39845,30 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D178" t="n">
-        <v>72</v>
-      </c>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>CANADA COMPUTERS</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>CAN002</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>CANADA COMPUTERS</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>168 Ultimate Drive</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>Richmond Hill</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -39536,42 +39878,44 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>L4S 1P4</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>S00353113</t>
+          <t>S00357206</t>
         </is>
       </c>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="n">
-        <v>70803187</v>
-      </c>
-      <c r="O178" t="n">
-        <v>3850803770</v>
+        <v>70820798</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>PO2508150026</t>
+        </is>
       </c>
       <c r="P178" s="2" t="n">
-        <v>45873</v>
+        <v>45884</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>8/4/2025 8:20:36 AM</t>
+          <t>8/15/2025 2:42:08 PM</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/11/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/11/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="T178" t="inlineStr"/>
       <c r="U178" s="2" t="n">
-        <v>45885</v>
+        <v>45896</v>
       </c>
       <c r="V178" t="inlineStr">
         <is>
@@ -39579,21 +39923,23 @@
         </is>
       </c>
       <c r="W178" s="2" t="n">
-        <v>45880</v>
+        <v>45897</v>
       </c>
       <c r="X178" t="inlineStr">
         <is>
-          <t>TAB5306/37</t>
-        </is>
-      </c>
-      <c r="Y178" t="n">
-        <v>30858847</v>
+          <t>Q27G3XMN</t>
+        </is>
+      </c>
+      <c r="Y178" t="inlineStr">
+        <is>
+          <t>MTAOC00201</t>
+        </is>
       </c>
       <c r="Z178" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="AA178" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="AB178" t="inlineStr"/>
       <c r="AC178" t="inlineStr"/>
@@ -39624,7 +39970,7 @@
       </c>
       <c r="AI178" t="inlineStr">
         <is>
-          <t xml:space="preserve">A651516 </t>
+          <t>A653261</t>
         </is>
       </c>
       <c r="AJ178" t="inlineStr">
@@ -39639,17 +39985,17 @@
       </c>
       <c r="AL178" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/11/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM178" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/11/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN178" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/11/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO178" t="inlineStr">
@@ -39664,13 +40010,13 @@
       </c>
       <c r="AQ178" t="inlineStr">
         <is>
-          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+          <t>AOC 27" Monitor</t>
         </is>
       </c>
       <c r="AR178" t="inlineStr"/>
       <c r="AS178" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT178" t="inlineStr">
@@ -39679,37 +40025,37 @@
         </is>
       </c>
       <c r="AU178" t="n">
-        <v>88.70084173530833</v>
+        <v>212.29131</v>
       </c>
       <c r="AV178" t="n">
-        <v>88.70084173530833</v>
+        <v>212.29131</v>
       </c>
       <c r="AW178" t="n">
-        <v>440</v>
+        <v>1938.24</v>
       </c>
       <c r="AX178" t="n">
-        <v>440</v>
+        <v>1938.24</v>
       </c>
       <c r="AY178" t="n">
-        <v>1.1429</v>
+        <v>2.667</v>
       </c>
       <c r="AZ178" t="inlineStr">
         <is>
-          <t xml:space="preserve">A651516 </t>
+          <t>A653261</t>
         </is>
       </c>
       <c r="BA178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB178" t="n">
-        <v>840063202351</v>
+        <v>685417733583</v>
       </c>
       <c r="BC178" t="n">
         <v>20000</v>
       </c>
       <c r="BD178" t="inlineStr">
         <is>
-          <t>S00353113-20000</t>
+          <t>S00357206-20000</t>
         </is>
       </c>
     </row>
@@ -39749,57 +40095,59 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>S00353114</t>
+          <t>S00357370</t>
         </is>
       </c>
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="n">
-        <v>70803182</v>
-      </c>
-      <c r="O179" t="n">
-        <v>3150833417</v>
+        <v>70823080</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>3850803825</t>
+        </is>
       </c>
       <c r="P179" s="2" t="n">
-        <v>45873</v>
+        <v>45887</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>8/4/2025 8:20:37 AM</t>
+          <t>8/18/2025 8:05:00 AM</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>8/11/2025 1:59:12 PM</t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>8/11/2025 1:59:12 PM</t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="T179" t="inlineStr"/>
       <c r="U179" s="2" t="n">
-        <v>45880</v>
+        <v>45899</v>
       </c>
       <c r="V179" t="inlineStr">
         <is>
@@ -39807,21 +40155,23 @@
         </is>
       </c>
       <c r="W179" s="2" t="n">
-        <v>45880</v>
+        <v>45891</v>
       </c>
       <c r="X179" t="inlineStr">
         <is>
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y179" t="n">
-        <v>30858488</v>
+      <c r="Y179" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z179" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AA179" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AB179" t="inlineStr"/>
       <c r="AC179" t="inlineStr"/>
@@ -39852,7 +40202,7 @@
       </c>
       <c r="AI179" t="inlineStr">
         <is>
-          <t xml:space="preserve">A651519  </t>
+          <t>A652555</t>
         </is>
       </c>
       <c r="AJ179" t="inlineStr">
@@ -39867,17 +40217,17 @@
       </c>
       <c r="AL179" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/11/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AM179" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/11/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AN179" t="inlineStr">
         <is>
-          <t>8/11/2025 1:59:12 PM</t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="AO179" t="inlineStr">
@@ -39907,23 +40257,23 @@
         </is>
       </c>
       <c r="AU179" t="n">
-        <v>31.75713782529924</v>
+        <v>22.68366987521374</v>
       </c>
       <c r="AV179" t="n">
-        <v>31.75713782529924</v>
+        <v>22.68366987521374</v>
       </c>
       <c r="AW179" t="n">
-        <v>254.6177</v>
+        <v>181.8</v>
       </c>
       <c r="AX179" t="n">
-        <v>254.6177</v>
+        <v>181.8</v>
       </c>
       <c r="AY179" t="n">
-        <v>0.4221</v>
+        <v>0.4166</v>
       </c>
       <c r="AZ179" t="inlineStr">
         <is>
-          <t xml:space="preserve">A651519  </t>
+          <t>A652555</t>
         </is>
       </c>
       <c r="BA179" t="n">
@@ -39937,7 +40287,7 @@
       </c>
       <c r="BD179" t="inlineStr">
         <is>
-          <t>S00353114-10000</t>
+          <t>S00357370-10000</t>
         </is>
       </c>
     </row>
@@ -39977,57 +40327,59 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>S00353114</t>
+          <t>S00357370</t>
         </is>
       </c>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="n">
-        <v>70803182</v>
-      </c>
-      <c r="O180" t="n">
-        <v>3150833417</v>
+        <v>70823080</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>3850803825</t>
+        </is>
       </c>
       <c r="P180" s="2" t="n">
-        <v>45873</v>
+        <v>45887</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>8/4/2025 8:20:37 AM</t>
+          <t>8/18/2025 8:05:00 AM</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>8/11/2025 1:59:12 PM</t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="S180" t="inlineStr">
         <is>
-          <t>8/11/2025 1:59:12 PM</t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="T180" t="inlineStr"/>
       <c r="U180" s="2" t="n">
-        <v>45880</v>
+        <v>45899</v>
       </c>
       <c r="V180" t="inlineStr">
         <is>
@@ -40035,21 +40387,23 @@
         </is>
       </c>
       <c r="W180" s="2" t="n">
-        <v>45880</v>
+        <v>45891</v>
       </c>
       <c r="X180" t="inlineStr">
         <is>
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y180" t="n">
-        <v>30858847</v>
+      <c r="Y180" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z180" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AA180" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AB180" t="inlineStr"/>
       <c r="AC180" t="inlineStr"/>
@@ -40080,7 +40434,7 @@
       </c>
       <c r="AI180" t="inlineStr">
         <is>
-          <t xml:space="preserve">A651519  </t>
+          <t>A652555</t>
         </is>
       </c>
       <c r="AJ180" t="inlineStr">
@@ -40095,17 +40449,17 @@
       </c>
       <c r="AL180" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/11/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AM180" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/11/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AN180" t="inlineStr">
         <is>
-          <t>8/11/2025 1:59:12 PM</t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="AO180" t="inlineStr">
@@ -40135,23 +40489,23 @@
         </is>
       </c>
       <c r="AU180" t="n">
-        <v>55.43802608456771</v>
+        <v>66.52563130148125</v>
       </c>
       <c r="AV180" t="n">
-        <v>55.43802608456771</v>
+        <v>66.52563130148125</v>
       </c>
       <c r="AW180" t="n">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="AX180" t="n">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="AY180" t="n">
-        <v>0.7141999999999999</v>
+        <v>0.8571</v>
       </c>
       <c r="AZ180" t="inlineStr">
         <is>
-          <t xml:space="preserve">A651519  </t>
+          <t>A652555</t>
         </is>
       </c>
       <c r="BA180" t="n">
@@ -40165,7 +40519,7 @@
       </c>
       <c r="BD180" t="inlineStr">
         <is>
-          <t>S00353114-20000</t>
+          <t>S00357370-20000</t>
         </is>
       </c>
     </row>
@@ -40225,37 +40579,41 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>S00353115</t>
+          <t>S00357371</t>
         </is>
       </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="n">
-        <v>70803185</v>
-      </c>
-      <c r="O181" t="n">
-        <v>4001223848</v>
+        <v>70823079</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>4001223932</t>
+        </is>
       </c>
       <c r="P181" s="2" t="n">
-        <v>45873</v>
+        <v>45887</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>8/4/2025 8:20:39 AM</t>
+          <t>8/18/2025 8:05:00 AM</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>8/11/2025 2:00:23 PM</t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="S181" t="inlineStr">
         <is>
-          <t>8/11/2025 2:00:23 PM</t>
-        </is>
-      </c>
-      <c r="T181" t="inlineStr"/>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="T181" s="2" t="n">
+        <v>45887</v>
+      </c>
       <c r="U181" s="2" t="n">
-        <v>45885</v>
+        <v>45898</v>
       </c>
       <c r="V181" t="inlineStr">
         <is>
@@ -40263,21 +40621,23 @@
         </is>
       </c>
       <c r="W181" s="2" t="n">
-        <v>45880</v>
+        <v>45891</v>
       </c>
       <c r="X181" t="inlineStr">
         <is>
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y181" t="n">
-        <v>30858488</v>
+      <c r="Y181" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z181" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AA181" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AB181" t="inlineStr"/>
       <c r="AC181" t="inlineStr"/>
@@ -40308,7 +40668,7 @@
       </c>
       <c r="AI181" t="inlineStr">
         <is>
-          <t>A651517</t>
+          <t>A652551</t>
         </is>
       </c>
       <c r="AJ181" t="inlineStr">
@@ -40323,17 +40683,17 @@
       </c>
       <c r="AL181" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/11/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AM181" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/11/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AN181" t="inlineStr">
         <is>
-          <t>8/11/2025 2:00:23 PM</t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AO181" t="inlineStr">
@@ -40363,23 +40723,23 @@
         </is>
       </c>
       <c r="AU181" t="n">
-        <v>31.75713782529924</v>
+        <v>22.68366987521374</v>
       </c>
       <c r="AV181" t="n">
-        <v>31.75713782529924</v>
+        <v>22.68366987521374</v>
       </c>
       <c r="AW181" t="n">
-        <v>254.52</v>
+        <v>181.8</v>
       </c>
       <c r="AX181" t="n">
-        <v>254.52</v>
+        <v>181.8</v>
       </c>
       <c r="AY181" t="n">
-        <v>0.5833</v>
+        <v>0.4166</v>
       </c>
       <c r="AZ181" t="inlineStr">
         <is>
-          <t>A651517</t>
+          <t>A652551</t>
         </is>
       </c>
       <c r="BA181" t="n">
@@ -40393,7 +40753,7 @@
       </c>
       <c r="BD181" t="inlineStr">
         <is>
-          <t>S00353115-10000</t>
+          <t>S00357371-10000</t>
         </is>
       </c>
     </row>
@@ -40453,37 +40813,41 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>S00353115</t>
+          <t>S00357371</t>
         </is>
       </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="n">
-        <v>70803185</v>
-      </c>
-      <c r="O182" t="n">
-        <v>4001223848</v>
+        <v>70823079</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>4001223932</t>
+        </is>
       </c>
       <c r="P182" s="2" t="n">
-        <v>45873</v>
+        <v>45887</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>8/4/2025 8:20:39 AM</t>
+          <t>8/18/2025 8:05:00 AM</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>8/11/2025 2:00:23 PM</t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>8/11/2025 2:00:23 PM</t>
-        </is>
-      </c>
-      <c r="T182" t="inlineStr"/>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="T182" s="2" t="n">
+        <v>45887</v>
+      </c>
       <c r="U182" s="2" t="n">
-        <v>45885</v>
+        <v>45898</v>
       </c>
       <c r="V182" t="inlineStr">
         <is>
@@ -40491,21 +40855,23 @@
         </is>
       </c>
       <c r="W182" s="2" t="n">
-        <v>45880</v>
+        <v>45891</v>
       </c>
       <c r="X182" t="inlineStr">
         <is>
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y182" t="n">
-        <v>30858847</v>
+      <c r="Y182" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z182" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="AA182" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="AB182" t="inlineStr"/>
       <c r="AC182" t="inlineStr"/>
@@ -40536,7 +40902,7 @@
       </c>
       <c r="AI182" t="inlineStr">
         <is>
-          <t>A651517</t>
+          <t>A652551</t>
         </is>
       </c>
       <c r="AJ182" t="inlineStr">
@@ -40551,17 +40917,17 @@
       </c>
       <c r="AL182" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/11/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AM182" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/11/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AN182" t="inlineStr">
         <is>
-          <t>8/11/2025 2:00:23 PM</t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AO182" t="inlineStr">
@@ -40591,23 +40957,23 @@
         </is>
       </c>
       <c r="AU182" t="n">
-        <v>88.70084173530833</v>
+        <v>155.2264730367896</v>
       </c>
       <c r="AV182" t="n">
-        <v>88.70084173530833</v>
+        <v>155.2264730367896</v>
       </c>
       <c r="AW182" t="n">
-        <v>440</v>
+        <v>770</v>
       </c>
       <c r="AX182" t="n">
-        <v>440</v>
+        <v>770</v>
       </c>
       <c r="AY182" t="n">
-        <v>1.1429</v>
+        <v>1.9999</v>
       </c>
       <c r="AZ182" t="inlineStr">
         <is>
-          <t>A651517</t>
+          <t>A652551</t>
         </is>
       </c>
       <c r="BA182" t="n">
@@ -40621,7 +40987,7 @@
       </c>
       <c r="BD182" t="inlineStr">
         <is>
-          <t>S00353115-20000</t>
+          <t>S00357371-20000</t>
         </is>
       </c>
     </row>
@@ -40641,77 +41007,77 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D183" t="n">
-        <v>72</v>
-      </c>
+      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>L6S 6G6</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>S00355153</t>
+          <t>S00358847</t>
         </is>
       </c>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="n">
-        <v>70812806</v>
-      </c>
-      <c r="O183" t="n">
-        <v>3150833467</v>
+        <v>70832067</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>59103701</t>
+        </is>
       </c>
       <c r="P183" s="2" t="n">
-        <v>45880</v>
+        <v>45891</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>8/11/2025 7:32:17 AM</t>
+          <t>8/22/2025 5:35:12 AM</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="T183" t="inlineStr"/>
       <c r="U183" s="2" t="n">
-        <v>45887</v>
+        <v>45901</v>
       </c>
       <c r="V183" t="inlineStr">
         <is>
@@ -40719,21 +41085,23 @@
         </is>
       </c>
       <c r="W183" s="2" t="n">
-        <v>45883</v>
+        <v>45898</v>
       </c>
       <c r="X183" t="inlineStr">
         <is>
-          <t>TAB5106/37</t>
-        </is>
-      </c>
-      <c r="Y183" t="n">
-        <v>30858488</v>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y183" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z183" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AA183" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AB183" t="inlineStr"/>
       <c r="AC183" t="inlineStr"/>
@@ -40764,7 +41132,7 @@
       </c>
       <c r="AI183" t="inlineStr">
         <is>
-          <t>A651794</t>
+          <t>A653064</t>
         </is>
       </c>
       <c r="AJ183" t="inlineStr">
@@ -40779,17 +41147,17 @@
       </c>
       <c r="AL183" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="AM183" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="AN183" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="AO183" t="inlineStr">
@@ -40804,7 +41172,7 @@
       </c>
       <c r="AQ183" t="inlineStr">
         <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR183" t="inlineStr"/>
@@ -40819,37 +41187,37 @@
         </is>
       </c>
       <c r="AU183" t="n">
-        <v>36.29387180034198</v>
+        <v>19.29505102995333</v>
       </c>
       <c r="AV183" t="n">
-        <v>36.29387180034198</v>
+        <v>19.29505102995333</v>
       </c>
       <c r="AW183" t="n">
-        <v>290.88</v>
+        <v>218.2576</v>
       </c>
       <c r="AX183" t="n">
-        <v>290.88</v>
+        <v>218.2576</v>
       </c>
       <c r="AY183" t="n">
-        <v>0.6667</v>
+        <v>0.4546</v>
       </c>
       <c r="AZ183" t="inlineStr">
         <is>
-          <t>A651794</t>
+          <t>A653064</t>
         </is>
       </c>
       <c r="BA183" t="n">
         <v>2</v>
       </c>
       <c r="BB183" t="n">
-        <v>840063202368</v>
+        <v>840063203563</v>
       </c>
       <c r="BC183" t="n">
         <v>10000</v>
       </c>
       <c r="BD183" t="inlineStr">
         <is>
-          <t>S00355153-10000</t>
+          <t>S00358847-10000</t>
         </is>
       </c>
     </row>
@@ -40869,77 +41237,77 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D184" t="n">
-        <v>72</v>
-      </c>
+      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>DC#1008, 19890-92A AVE.</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>LANGLEY</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>V1M 3A9</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>S00355153</t>
+          <t>S00358848</t>
         </is>
       </c>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="n">
-        <v>70812806</v>
-      </c>
-      <c r="O184" t="n">
-        <v>3150833467</v>
+        <v>70832065</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>59103700</t>
+        </is>
       </c>
       <c r="P184" s="2" t="n">
-        <v>45880</v>
+        <v>45891</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>8/11/2025 7:32:17 AM</t>
+          <t>8/22/2025 5:35:13 AM</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="T184" t="inlineStr"/>
       <c r="U184" s="2" t="n">
-        <v>45887</v>
+        <v>45901</v>
       </c>
       <c r="V184" t="inlineStr">
         <is>
@@ -40947,21 +41315,23 @@
         </is>
       </c>
       <c r="W184" s="2" t="n">
-        <v>45883</v>
+        <v>45905</v>
       </c>
       <c r="X184" t="inlineStr">
         <is>
-          <t>TAB5306/37</t>
-        </is>
-      </c>
-      <c r="Y184" t="n">
-        <v>30858847</v>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y184" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z184" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="AA184" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="AB184" t="inlineStr"/>
       <c r="AC184" t="inlineStr"/>
@@ -40992,7 +41362,7 @@
       </c>
       <c r="AI184" t="inlineStr">
         <is>
-          <t>A651794</t>
+          <t>A653091</t>
         </is>
       </c>
       <c r="AJ184" t="inlineStr">
@@ -41007,17 +41377,17 @@
       </c>
       <c r="AL184" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="AM184" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="AN184" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="AO184" t="inlineStr">
@@ -41032,7 +41402,7 @@
       </c>
       <c r="AQ184" t="inlineStr">
         <is>
-          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR184" t="inlineStr"/>
@@ -41047,37 +41417,37 @@
         </is>
       </c>
       <c r="AU184" t="n">
-        <v>133.0512626029625</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AV184" t="n">
-        <v>133.0512626029625</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AW184" t="n">
-        <v>660</v>
+        <v>72.7526</v>
       </c>
       <c r="AX184" t="n">
-        <v>660</v>
+        <v>72.7526</v>
       </c>
       <c r="AY184" t="n">
-        <v>1.7143</v>
+        <v>0.1516</v>
       </c>
       <c r="AZ184" t="inlineStr">
         <is>
-          <t>A651794</t>
+          <t>A653091</t>
         </is>
       </c>
       <c r="BA184" t="n">
         <v>2</v>
       </c>
       <c r="BB184" t="n">
-        <v>840063202351</v>
+        <v>840063203563</v>
       </c>
       <c r="BC184" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD184" t="inlineStr">
         <is>
-          <t>S00355153-20000</t>
+          <t>S00358848-10000</t>
         </is>
       </c>
     </row>
@@ -41137,37 +41507,41 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>S00355154</t>
+          <t>S00359896</t>
         </is>
       </c>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="n">
-        <v>70812808</v>
-      </c>
-      <c r="O185" t="n">
-        <v>4001223881</v>
+        <v>70838071</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>4001223951</t>
+        </is>
       </c>
       <c r="P185" s="2" t="n">
-        <v>45880</v>
+        <v>45895</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>8/11/2025 7:32:19 AM</t>
+          <t>8/26/2025 7:21:39 AM</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S185" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
-        </is>
-      </c>
-      <c r="T185" t="inlineStr"/>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T185" s="2" t="n">
+        <v>45894</v>
+      </c>
       <c r="U185" s="2" t="n">
-        <v>45891</v>
+        <v>45905</v>
       </c>
       <c r="V185" t="inlineStr">
         <is>
@@ -41175,21 +41549,23 @@
         </is>
       </c>
       <c r="W185" s="2" t="n">
-        <v>45883</v>
+        <v>45897</v>
       </c>
       <c r="X185" t="inlineStr">
         <is>
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y185" t="n">
-        <v>30858488</v>
+      <c r="Y185" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z185" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AA185" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AB185" t="inlineStr"/>
       <c r="AC185" t="inlineStr"/>
@@ -41220,7 +41596,7 @@
       </c>
       <c r="AI185" t="inlineStr">
         <is>
-          <t>A651791</t>
+          <t>A653231</t>
         </is>
       </c>
       <c r="AJ185" t="inlineStr">
@@ -41235,17 +41611,17 @@
       </c>
       <c r="AL185" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM185" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN185" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO185" t="inlineStr">
@@ -41275,23 +41651,23 @@
         </is>
       </c>
       <c r="AU185" t="n">
-        <v>22.68366987521374</v>
+        <v>45.36733975042748</v>
       </c>
       <c r="AV185" t="n">
-        <v>22.68366987521374</v>
+        <v>45.36733975042748</v>
       </c>
       <c r="AW185" t="n">
-        <v>181.8</v>
+        <v>363.6461</v>
       </c>
       <c r="AX185" t="n">
-        <v>181.8</v>
+        <v>363.6461</v>
       </c>
       <c r="AY185" t="n">
-        <v>0.4167</v>
+        <v>0.7572</v>
       </c>
       <c r="AZ185" t="inlineStr">
         <is>
-          <t>A651791</t>
+          <t>A653231</t>
         </is>
       </c>
       <c r="BA185" t="n">
@@ -41305,7 +41681,7 @@
       </c>
       <c r="BD185" t="inlineStr">
         <is>
-          <t>S00355154-10000</t>
+          <t>S00359896-10000</t>
         </is>
       </c>
     </row>
@@ -41365,37 +41741,41 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>S00355154</t>
+          <t>S00360097</t>
         </is>
       </c>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="n">
-        <v>70812808</v>
-      </c>
-      <c r="O186" t="n">
-        <v>4001223881</v>
+        <v>70838223</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>4001223987</t>
+        </is>
       </c>
       <c r="P186" s="2" t="n">
-        <v>45880</v>
+        <v>45895</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>8/11/2025 7:32:19 AM</t>
+          <t>8/26/2025 12:07:54 PM</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S186" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
-        </is>
-      </c>
-      <c r="T186" t="inlineStr"/>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T186" s="2" t="n">
+        <v>45895</v>
+      </c>
       <c r="U186" s="2" t="n">
-        <v>45891</v>
+        <v>45906</v>
       </c>
       <c r="V186" t="inlineStr">
         <is>
@@ -41403,21 +41783,23 @@
         </is>
       </c>
       <c r="W186" s="2" t="n">
-        <v>45883</v>
+        <v>45897</v>
       </c>
       <c r="X186" t="inlineStr">
         <is>
-          <t>TAB5306/37</t>
-        </is>
-      </c>
-      <c r="Y186" t="n">
-        <v>30858847</v>
+          <t>TAB5106/37</t>
+        </is>
+      </c>
+      <c r="Y186" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z186" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AA186" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AB186" t="inlineStr"/>
       <c r="AC186" t="inlineStr"/>
@@ -41448,7 +41830,7 @@
       </c>
       <c r="AI186" t="inlineStr">
         <is>
-          <t>A651791</t>
+          <t>A653239</t>
         </is>
       </c>
       <c r="AJ186" t="inlineStr">
@@ -41463,17 +41845,17 @@
       </c>
       <c r="AL186" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM186" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN186" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO186" t="inlineStr">
@@ -41488,7 +41870,7 @@
       </c>
       <c r="AQ186" t="inlineStr">
         <is>
-          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
         </is>
       </c>
       <c r="AR186" t="inlineStr"/>
@@ -41503,37 +41885,37 @@
         </is>
       </c>
       <c r="AU186" t="n">
-        <v>166.3140782537031</v>
+        <v>25.7081591919089</v>
       </c>
       <c r="AV186" t="n">
-        <v>166.3140782537031</v>
+        <v>25.7081591919089</v>
       </c>
       <c r="AW186" t="n">
-        <v>825</v>
+        <v>206.04</v>
       </c>
       <c r="AX186" t="n">
-        <v>825</v>
+        <v>206.04</v>
       </c>
       <c r="AY186" t="n">
-        <v>2.1428</v>
+        <v>0.4722</v>
       </c>
       <c r="AZ186" t="inlineStr">
         <is>
-          <t>A651791</t>
+          <t>A653239</t>
         </is>
       </c>
       <c r="BA186" t="n">
         <v>2</v>
       </c>
       <c r="BB186" t="n">
-        <v>840063202351</v>
+        <v>840063202368</v>
       </c>
       <c r="BC186" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD186" t="inlineStr">
         <is>
-          <t>S00355154-20000</t>
+          <t>S00360097-10000</t>
         </is>
       </c>
     </row>
@@ -41573,12 +41955,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -41588,44 +41970,46 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>S00355155</t>
+          <t>S00360097</t>
         </is>
       </c>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="n">
-        <v>70812807</v>
-      </c>
-      <c r="O187" t="n">
-        <v>3850803791</v>
+        <v>70838223</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>4001223987</t>
+        </is>
       </c>
       <c r="P187" s="2" t="n">
-        <v>45880</v>
+        <v>45895</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>8/11/2025 7:32:21 AM</t>
+          <t>8/26/2025 12:07:54 PM</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="T187" s="2" t="n">
-        <v>45880</v>
+        <v>45895</v>
       </c>
       <c r="U187" s="2" t="n">
-        <v>45892</v>
+        <v>45906</v>
       </c>
       <c r="V187" t="inlineStr">
         <is>
@@ -41633,21 +42017,23 @@
         </is>
       </c>
       <c r="W187" s="2" t="n">
-        <v>45883</v>
+        <v>45897</v>
       </c>
       <c r="X187" t="inlineStr">
         <is>
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y187" t="n">
-        <v>30858847</v>
+      <c r="Y187" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z187" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AA187" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AB187" t="inlineStr"/>
       <c r="AC187" t="inlineStr"/>
@@ -41678,7 +42064,7 @@
       </c>
       <c r="AI187" t="inlineStr">
         <is>
-          <t>A651798</t>
+          <t>A653239</t>
         </is>
       </c>
       <c r="AJ187" t="inlineStr">
@@ -41693,17 +42079,17 @@
       </c>
       <c r="AL187" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM187" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN187" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/14/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO187" t="inlineStr">
@@ -41733,23 +42119,23 @@
         </is>
       </c>
       <c r="AU187" t="n">
-        <v>121.963657386049</v>
+        <v>5.543802608456771</v>
       </c>
       <c r="AV187" t="n">
-        <v>121.963657386049</v>
+        <v>5.543802608456771</v>
       </c>
       <c r="AW187" t="n">
-        <v>605</v>
+        <v>27.5136</v>
       </c>
       <c r="AX187" t="n">
-        <v>605</v>
+        <v>27.5136</v>
       </c>
       <c r="AY187" t="n">
-        <v>1.5715</v>
+        <v>0.0659</v>
       </c>
       <c r="AZ187" t="inlineStr">
         <is>
-          <t>A651798</t>
+          <t>A653239</t>
         </is>
       </c>
       <c r="BA187" t="n">
@@ -41759,11 +42145,11 @@
         <v>840063202351</v>
       </c>
       <c r="BC187" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD187" t="inlineStr">
         <is>
-          <t>S00355155-10000</t>
+          <t>S00360097-20000</t>
         </is>
       </c>
     </row>
@@ -41803,57 +42189,61 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>CALGARY</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>S00357370</t>
+          <t>S00360098</t>
         </is>
       </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
-        <v>70823080</v>
-      </c>
-      <c r="O188" t="n">
-        <v>3850803825</v>
+        <v>70838222</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>3150833548</t>
+        </is>
       </c>
       <c r="P188" s="2" t="n">
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>8/18/2025 8:05:00 AM</t>
+          <t>8/26/2025 12:07:55 PM</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
-        </is>
-      </c>
-      <c r="T188" t="inlineStr"/>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T188" s="2" t="n">
+        <v>45895</v>
+      </c>
       <c r="U188" s="2" t="n">
-        <v>45899</v>
+        <v>45902</v>
       </c>
       <c r="V188" t="inlineStr">
         <is>
@@ -41861,21 +42251,23 @@
         </is>
       </c>
       <c r="W188" s="2" t="n">
-        <v>45891</v>
+        <v>45897</v>
       </c>
       <c r="X188" t="inlineStr">
         <is>
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y188" t="n">
-        <v>30858488</v>
+      <c r="Y188" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z188" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA188" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB188" t="inlineStr"/>
       <c r="AC188" t="inlineStr"/>
@@ -41906,7 +42298,7 @@
       </c>
       <c r="AI188" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>A653232</t>
         </is>
       </c>
       <c r="AJ188" t="inlineStr">
@@ -41921,17 +42313,17 @@
       </c>
       <c r="AL188" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM188" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN188" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO188" t="inlineStr">
@@ -41961,23 +42353,23 @@
         </is>
       </c>
       <c r="AU188" t="n">
-        <v>22.68366987521374</v>
+        <v>18.90305822934478</v>
       </c>
       <c r="AV188" t="n">
-        <v>22.68366987521374</v>
+        <v>18.90305822934478</v>
       </c>
       <c r="AW188" t="n">
-        <v>181.8</v>
+        <v>151.5</v>
       </c>
       <c r="AX188" t="n">
-        <v>181.8</v>
+        <v>151.5</v>
       </c>
       <c r="AY188" t="n">
-        <v>0.4166</v>
+        <v>0.3473</v>
       </c>
       <c r="AZ188" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>A653232</t>
         </is>
       </c>
       <c r="BA188" t="n">
@@ -41991,7 +42383,7 @@
       </c>
       <c r="BD188" t="inlineStr">
         <is>
-          <t>S00357370-10000</t>
+          <t>S00360098-10000</t>
         </is>
       </c>
     </row>
@@ -42031,57 +42423,61 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>CALGARY</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>S00357370</t>
+          <t>S00360098</t>
         </is>
       </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="n">
-        <v>70823080</v>
-      </c>
-      <c r="O189" t="n">
-        <v>3850803825</v>
+        <v>70838222</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>3150833548</t>
+        </is>
       </c>
       <c r="P189" s="2" t="n">
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>8/18/2025 8:05:00 AM</t>
+          <t>8/26/2025 12:07:55 PM</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
-        </is>
-      </c>
-      <c r="T189" t="inlineStr"/>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T189" s="2" t="n">
+        <v>45895</v>
+      </c>
       <c r="U189" s="2" t="n">
-        <v>45899</v>
+        <v>45902</v>
       </c>
       <c r="V189" t="inlineStr">
         <is>
@@ -42089,21 +42485,23 @@
         </is>
       </c>
       <c r="W189" s="2" t="n">
-        <v>45891</v>
+        <v>45897</v>
       </c>
       <c r="X189" t="inlineStr">
         <is>
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y189" t="n">
-        <v>30858847</v>
+      <c r="Y189" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z189" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="AA189" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="AB189" t="inlineStr"/>
       <c r="AC189" t="inlineStr"/>
@@ -42134,7 +42532,7 @@
       </c>
       <c r="AI189" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>A653232</t>
         </is>
       </c>
       <c r="AJ189" t="inlineStr">
@@ -42149,17 +42547,17 @@
       </c>
       <c r="AL189" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM189" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN189" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO189" t="inlineStr">
@@ -42189,23 +42587,23 @@
         </is>
       </c>
       <c r="AU189" t="n">
-        <v>66.52563130148125</v>
+        <v>5.543802608456771</v>
       </c>
       <c r="AV189" t="n">
-        <v>66.52563130148125</v>
+        <v>5.543802608456771</v>
       </c>
       <c r="AW189" t="n">
-        <v>330</v>
+        <v>27.5137</v>
       </c>
       <c r="AX189" t="n">
-        <v>330</v>
+        <v>27.5137</v>
       </c>
       <c r="AY189" t="n">
-        <v>0.8571</v>
+        <v>0.066</v>
       </c>
       <c r="AZ189" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>A653232</t>
         </is>
       </c>
       <c r="BA189" t="n">
@@ -42219,7 +42617,7 @@
       </c>
       <c r="BD189" t="inlineStr">
         <is>
-          <t>S00357370-20000</t>
+          <t>S00360098-20000</t>
         </is>
       </c>
     </row>
@@ -42259,12 +42657,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -42274,44 +42672,46 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>S00357371</t>
+          <t>S00360099</t>
         </is>
       </c>
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="n">
-        <v>70823079</v>
-      </c>
-      <c r="O190" t="n">
-        <v>4001223932</v>
+        <v>70838224</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>3850803890</t>
+        </is>
       </c>
       <c r="P190" s="2" t="n">
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>8/18/2025 8:05:00 AM</t>
+          <t>8/26/2025 12:07:56 PM</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="T190" s="2" t="n">
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="U190" s="2" t="n">
-        <v>45898</v>
+        <v>45907</v>
       </c>
       <c r="V190" t="inlineStr">
         <is>
@@ -42319,21 +42719,23 @@
         </is>
       </c>
       <c r="W190" s="2" t="n">
-        <v>45891</v>
+        <v>45897</v>
       </c>
       <c r="X190" t="inlineStr">
         <is>
           <t>TAB5106/37</t>
         </is>
       </c>
-      <c r="Y190" t="n">
-        <v>30858488</v>
+      <c r="Y190" t="inlineStr">
+        <is>
+          <t>030858488</t>
+        </is>
       </c>
       <c r="Z190" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AA190" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AB190" t="inlineStr"/>
       <c r="AC190" t="inlineStr"/>
@@ -42364,7 +42766,7 @@
       </c>
       <c r="AI190" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A653244</t>
         </is>
       </c>
       <c r="AJ190" t="inlineStr">
@@ -42379,17 +42781,17 @@
       </c>
       <c r="AL190" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM190" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN190" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO190" t="inlineStr">
@@ -42419,23 +42821,23 @@
         </is>
       </c>
       <c r="AU190" t="n">
-        <v>22.68366987521374</v>
+        <v>12.85407959595445</v>
       </c>
       <c r="AV190" t="n">
-        <v>22.68366987521374</v>
+        <v>12.85407959595445</v>
       </c>
       <c r="AW190" t="n">
-        <v>181.8</v>
+        <v>103.0336</v>
       </c>
       <c r="AX190" t="n">
-        <v>181.8</v>
+        <v>103.0336</v>
       </c>
       <c r="AY190" t="n">
-        <v>0.4166</v>
+        <v>0.2137</v>
       </c>
       <c r="AZ190" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A653244</t>
         </is>
       </c>
       <c r="BA190" t="n">
@@ -42449,7 +42851,7 @@
       </c>
       <c r="BD190" t="inlineStr">
         <is>
-          <t>S00357371-10000</t>
+          <t>S00360099-10000</t>
         </is>
       </c>
     </row>
@@ -42489,12 +42891,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -42504,44 +42906,46 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>S00357371</t>
+          <t>S00360099</t>
         </is>
       </c>
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="n">
-        <v>70823079</v>
-      </c>
-      <c r="O191" t="n">
-        <v>4001223932</v>
+        <v>70838224</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>3850803890</t>
+        </is>
       </c>
       <c r="P191" s="2" t="n">
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>8/18/2025 8:05:00 AM</t>
+          <t>8/26/2025 12:07:56 PM</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="T191" s="2" t="n">
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="U191" s="2" t="n">
-        <v>45898</v>
+        <v>45907</v>
       </c>
       <c r="V191" t="inlineStr">
         <is>
@@ -42549,21 +42953,23 @@
         </is>
       </c>
       <c r="W191" s="2" t="n">
-        <v>45891</v>
+        <v>45897</v>
       </c>
       <c r="X191" t="inlineStr">
         <is>
           <t>TAB5306/37</t>
         </is>
       </c>
-      <c r="Y191" t="n">
-        <v>30858847</v>
+      <c r="Y191" t="inlineStr">
+        <is>
+          <t>030858847</t>
+        </is>
       </c>
       <c r="Z191" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="AA191" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="AB191" t="inlineStr"/>
       <c r="AC191" t="inlineStr"/>
@@ -42594,7 +43000,7 @@
       </c>
       <c r="AI191" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A653244</t>
         </is>
       </c>
       <c r="AJ191" t="inlineStr">
@@ -42609,17 +43015,17 @@
       </c>
       <c r="AL191" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM191" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN191" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO191" t="inlineStr">
@@ -42649,23 +43055,23 @@
         </is>
       </c>
       <c r="AU191" t="n">
-        <v>155.2264730367896</v>
+        <v>11.08760521691354</v>
       </c>
       <c r="AV191" t="n">
-        <v>155.2264730367896</v>
+        <v>11.08760521691354</v>
       </c>
       <c r="AW191" t="n">
-        <v>770</v>
+        <v>55</v>
       </c>
       <c r="AX191" t="n">
-        <v>770</v>
+        <v>55</v>
       </c>
       <c r="AY191" t="n">
-        <v>1.9999</v>
+        <v>0.1429</v>
       </c>
       <c r="AZ191" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A653244</t>
         </is>
       </c>
       <c r="BA191" t="n">
@@ -42679,7 +43085,7 @@
       </c>
       <c r="BD191" t="inlineStr">
         <is>
-          <t>S00357371-20000</t>
+          <t>S00360099-20000</t>
         </is>
       </c>
     </row>
@@ -42699,159 +43105,137 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D192" t="n">
-        <v>72</v>
-      </c>
+      <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
+          <t>Unis Warehouse</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>Unis Warehouse</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>6800 Valley View St</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>Buena Park</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>90620</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>S00357370</t>
+          <t>S00360479</t>
         </is>
       </c>
       <c r="M192" t="inlineStr"/>
-      <c r="N192" t="n">
-        <v>70823080</v>
-      </c>
+      <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>3850803825</t>
+          <t>08272025</t>
         </is>
       </c>
       <c r="P192" s="2" t="n">
-        <v>45887</v>
+        <v>45896</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>8/18/2025 8:05:00 AM</t>
+          <t>8/27/2025 2:21:13 PM</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="T192" t="inlineStr"/>
-      <c r="U192" s="2" t="n">
-        <v>45899</v>
-      </c>
+      <c r="U192" t="inlineStr"/>
       <c r="V192" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W192" s="2" t="n">
-        <v>45891</v>
+        <v>45904</v>
       </c>
       <c r="X192" t="inlineStr">
         <is>
-          <t>TAB5106/37</t>
-        </is>
-      </c>
-      <c r="Y192" t="inlineStr">
-        <is>
-          <t>030858488</t>
-        </is>
-      </c>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="n">
-        <v>30</v>
+        <v>650</v>
       </c>
       <c r="AA192" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB192" t="inlineStr"/>
       <c r="AC192" t="inlineStr"/>
       <c r="AD192" t="inlineStr">
         <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE192" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="AE192" t="inlineStr"/>
       <c r="AF192" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Primary Freight Services Inc</t>
         </is>
       </c>
       <c r="AG192" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AH192" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Primary Freight Services Inc</t>
         </is>
       </c>
       <c r="AI192" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>08272025</t>
         </is>
       </c>
       <c r="AJ192" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK192" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK192" t="inlineStr"/>
       <c r="AL192" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="AM192" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="AN192" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="AO192" t="inlineStr">
@@ -42861,3519 +43245,51 @@
       </c>
       <c r="AP192" t="inlineStr">
         <is>
-          <t>EDI</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="AQ192" t="inlineStr">
         <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+          <t>Soundbar</t>
         </is>
       </c>
       <c r="AR192" t="inlineStr"/>
-      <c r="AS192" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
+      <c r="AS192" t="inlineStr"/>
       <c r="AT192" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>EACH</t>
         </is>
       </c>
       <c r="AU192" t="n">
-        <v>22.68366987521374</v>
+        <v>384.1527083333334</v>
       </c>
       <c r="AV192" t="n">
-        <v>22.68366987521374</v>
+        <v>384.1527083333334</v>
       </c>
       <c r="AW192" t="n">
-        <v>181.8</v>
+        <v>0</v>
       </c>
       <c r="AX192" t="n">
-        <v>181.8</v>
+        <v>0</v>
       </c>
       <c r="AY192" t="n">
-        <v>0.4166</v>
+        <v>6.7708</v>
       </c>
       <c r="AZ192" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>08272025</t>
         </is>
       </c>
       <c r="BA192" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB192" t="n">
-        <v>840063202368</v>
+        <v>840063204546</v>
       </c>
       <c r="BC192" t="n">
         <v>10000</v>
       </c>
       <c r="BD192" t="inlineStr">
-        <is>
-          <t>S00357370-10000</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D193" t="n">
-        <v>72</v>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2401 SCM WAY RR 1</t>
-        </is>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>CORNWALL</t>
-        </is>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>K6H 7S1</t>
-        </is>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>S00357370</t>
-        </is>
-      </c>
-      <c r="M193" t="inlineStr"/>
-      <c r="N193" t="n">
-        <v>70823080</v>
-      </c>
-      <c r="O193" t="inlineStr">
-        <is>
-          <t>3850803825</t>
-        </is>
-      </c>
-      <c r="P193" s="2" t="n">
-        <v>45887</v>
-      </c>
-      <c r="Q193" t="inlineStr">
-        <is>
-          <t>8/18/2025 8:05:00 AM</t>
-        </is>
-      </c>
-      <c r="R193" t="inlineStr">
-        <is>
-          <t>8/22/2025 11:17:44 AM</t>
-        </is>
-      </c>
-      <c r="S193" t="inlineStr">
-        <is>
-          <t>8/22/2025 11:17:44 AM</t>
-        </is>
-      </c>
-      <c r="T193" t="inlineStr"/>
-      <c r="U193" s="2" t="n">
-        <v>45899</v>
-      </c>
-      <c r="V193" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W193" s="2" t="n">
-        <v>45891</v>
-      </c>
-      <c r="X193" t="inlineStr">
-        <is>
-          <t>TAB5306/37</t>
-        </is>
-      </c>
-      <c r="Y193" t="inlineStr">
-        <is>
-          <t>030858847</t>
-        </is>
-      </c>
-      <c r="Z193" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA193" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB193" t="inlineStr"/>
-      <c r="AC193" t="inlineStr"/>
-      <c r="AD193" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE193" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF193" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG193" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH193" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI193" t="inlineStr">
-        <is>
-          <t>A652555</t>
-        </is>
-      </c>
-      <c r="AJ193" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK193" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL193" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/22/2025 </t>
-        </is>
-      </c>
-      <c r="AM193" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/22/2025 </t>
-        </is>
-      </c>
-      <c r="AN193" t="inlineStr">
-        <is>
-          <t>8/22/2025 11:17:44 AM</t>
-        </is>
-      </c>
-      <c r="AO193" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP193" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ193" t="inlineStr">
-        <is>
-          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
-        </is>
-      </c>
-      <c r="AR193" t="inlineStr"/>
-      <c r="AS193" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT193" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU193" t="n">
-        <v>66.52563130148125</v>
-      </c>
-      <c r="AV193" t="n">
-        <v>66.52563130148125</v>
-      </c>
-      <c r="AW193" t="n">
-        <v>330</v>
-      </c>
-      <c r="AX193" t="n">
-        <v>330</v>
-      </c>
-      <c r="AY193" t="n">
-        <v>0.8571</v>
-      </c>
-      <c r="AZ193" t="inlineStr">
-        <is>
-          <t>A652555</t>
-        </is>
-      </c>
-      <c r="BA193" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB193" t="n">
-        <v>840063202351</v>
-      </c>
-      <c r="BC193" t="n">
-        <v>20000</v>
-      </c>
-      <c r="BD193" t="inlineStr">
-        <is>
-          <t>S00357370-20000</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D194" t="n">
-        <v>72</v>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>6800 MARITZ DRIVE</t>
-        </is>
-      </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>MISSISSAUGA</t>
-        </is>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>L5W 1W2</t>
-        </is>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>S00357371</t>
-        </is>
-      </c>
-      <c r="M194" t="inlineStr"/>
-      <c r="N194" t="n">
-        <v>70823079</v>
-      </c>
-      <c r="O194" t="inlineStr">
-        <is>
-          <t>4001223932</t>
-        </is>
-      </c>
-      <c r="P194" s="2" t="n">
-        <v>45887</v>
-      </c>
-      <c r="Q194" t="inlineStr">
-        <is>
-          <t>8/18/2025 8:05:00 AM</t>
-        </is>
-      </c>
-      <c r="R194" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/22/2025 </t>
-        </is>
-      </c>
-      <c r="S194" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/22/2025 </t>
-        </is>
-      </c>
-      <c r="T194" s="2" t="n">
-        <v>45887</v>
-      </c>
-      <c r="U194" s="2" t="n">
-        <v>45898</v>
-      </c>
-      <c r="V194" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W194" s="2" t="n">
-        <v>45891</v>
-      </c>
-      <c r="X194" t="inlineStr">
-        <is>
-          <t>TAB5106/37</t>
-        </is>
-      </c>
-      <c r="Y194" t="inlineStr">
-        <is>
-          <t>030858488</t>
-        </is>
-      </c>
-      <c r="Z194" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA194" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB194" t="inlineStr"/>
-      <c r="AC194" t="inlineStr"/>
-      <c r="AD194" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE194" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF194" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG194" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH194" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI194" t="inlineStr">
-        <is>
-          <t>A652551</t>
-        </is>
-      </c>
-      <c r="AJ194" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK194" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL194" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/22/2025 </t>
-        </is>
-      </c>
-      <c r="AM194" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/22/2025 </t>
-        </is>
-      </c>
-      <c r="AN194" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/22/2025 </t>
-        </is>
-      </c>
-      <c r="AO194" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP194" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ194" t="inlineStr">
-        <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
-        </is>
-      </c>
-      <c r="AR194" t="inlineStr"/>
-      <c r="AS194" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT194" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU194" t="n">
-        <v>22.68366987521374</v>
-      </c>
-      <c r="AV194" t="n">
-        <v>22.68366987521374</v>
-      </c>
-      <c r="AW194" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="AX194" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="AY194" t="n">
-        <v>0.4166</v>
-      </c>
-      <c r="AZ194" t="inlineStr">
-        <is>
-          <t>A652551</t>
-        </is>
-      </c>
-      <c r="BA194" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB194" t="n">
-        <v>840063202368</v>
-      </c>
-      <c r="BC194" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BD194" t="inlineStr">
-        <is>
-          <t>S00357371-10000</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D195" t="n">
-        <v>72</v>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>6800 MARITZ DRIVE</t>
-        </is>
-      </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>MISSISSAUGA</t>
-        </is>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>L5W 1W2</t>
-        </is>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>S00357371</t>
-        </is>
-      </c>
-      <c r="M195" t="inlineStr"/>
-      <c r="N195" t="n">
-        <v>70823079</v>
-      </c>
-      <c r="O195" t="inlineStr">
-        <is>
-          <t>4001223932</t>
-        </is>
-      </c>
-      <c r="P195" s="2" t="n">
-        <v>45887</v>
-      </c>
-      <c r="Q195" t="inlineStr">
-        <is>
-          <t>8/18/2025 8:05:00 AM</t>
-        </is>
-      </c>
-      <c r="R195" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/22/2025 </t>
-        </is>
-      </c>
-      <c r="S195" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/22/2025 </t>
-        </is>
-      </c>
-      <c r="T195" s="2" t="n">
-        <v>45887</v>
-      </c>
-      <c r="U195" s="2" t="n">
-        <v>45898</v>
-      </c>
-      <c r="V195" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W195" s="2" t="n">
-        <v>45891</v>
-      </c>
-      <c r="X195" t="inlineStr">
-        <is>
-          <t>TAB5306/37</t>
-        </is>
-      </c>
-      <c r="Y195" t="inlineStr">
-        <is>
-          <t>030858847</t>
-        </is>
-      </c>
-      <c r="Z195" t="n">
-        <v>56</v>
-      </c>
-      <c r="AA195" t="n">
-        <v>56</v>
-      </c>
-      <c r="AB195" t="inlineStr"/>
-      <c r="AC195" t="inlineStr"/>
-      <c r="AD195" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE195" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF195" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG195" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH195" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI195" t="inlineStr">
-        <is>
-          <t>A652551</t>
-        </is>
-      </c>
-      <c r="AJ195" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK195" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL195" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/22/2025 </t>
-        </is>
-      </c>
-      <c r="AM195" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/22/2025 </t>
-        </is>
-      </c>
-      <c r="AN195" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/22/2025 </t>
-        </is>
-      </c>
-      <c r="AO195" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP195" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ195" t="inlineStr">
-        <is>
-          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
-        </is>
-      </c>
-      <c r="AR195" t="inlineStr"/>
-      <c r="AS195" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT195" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU195" t="n">
-        <v>155.2264730367896</v>
-      </c>
-      <c r="AV195" t="n">
-        <v>155.2264730367896</v>
-      </c>
-      <c r="AW195" t="n">
-        <v>770</v>
-      </c>
-      <c r="AX195" t="n">
-        <v>770</v>
-      </c>
-      <c r="AY195" t="n">
-        <v>1.9999</v>
-      </c>
-      <c r="AZ195" t="inlineStr">
-        <is>
-          <t>A652551</t>
-        </is>
-      </c>
-      <c r="BA195" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB195" t="n">
-        <v>840063202351</v>
-      </c>
-      <c r="BC195" t="n">
-        <v>20000</v>
-      </c>
-      <c r="BD195" t="inlineStr">
-        <is>
-          <t>S00357371-20000</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>CANADA COMPUTERS</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>CAN002</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>CANADA COMPUTERS</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>168 Ultimate Drive</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>Richmond Hill</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>L4S 1P4</t>
-        </is>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>S00357206</t>
-        </is>
-      </c>
-      <c r="M196" t="inlineStr"/>
-      <c r="N196" t="n">
-        <v>70820798</v>
-      </c>
-      <c r="O196" t="inlineStr">
-        <is>
-          <t>PO2508150026</t>
-        </is>
-      </c>
-      <c r="P196" s="2" t="n">
-        <v>45884</v>
-      </c>
-      <c r="Q196" t="inlineStr">
-        <is>
-          <t>8/15/2025 2:42:08 PM</t>
-        </is>
-      </c>
-      <c r="R196" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="S196" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T196" t="inlineStr"/>
-      <c r="U196" s="2" t="n">
-        <v>45896</v>
-      </c>
-      <c r="V196" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W196" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="X196" t="inlineStr">
-        <is>
-          <t>AG276QZD2</t>
-        </is>
-      </c>
-      <c r="Y196" t="inlineStr">
-        <is>
-          <t>MTAOC00097</t>
-        </is>
-      </c>
-      <c r="Z196" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA196" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB196" t="inlineStr"/>
-      <c r="AC196" t="inlineStr"/>
-      <c r="AD196" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE196" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF196" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG196" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH196" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI196" t="inlineStr">
-        <is>
-          <t>A653261</t>
-        </is>
-      </c>
-      <c r="AJ196" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK196" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL196" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AM196" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AN196" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AO196" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP196" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ196" t="inlineStr">
-        <is>
-          <t>AOC 27” QHD OLED gaming monitor</t>
-        </is>
-      </c>
-      <c r="AR196" t="inlineStr"/>
-      <c r="AS196" t="inlineStr">
-        <is>
-          <t>TPV-MNT</t>
-        </is>
-      </c>
-      <c r="AT196" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU196" t="n">
-        <v>65.132025</v>
-      </c>
-      <c r="AV196" t="n">
-        <v>65.132025</v>
-      </c>
-      <c r="AW196" t="n">
-        <v>638.96</v>
-      </c>
-      <c r="AX196" t="n">
-        <v>638.96</v>
-      </c>
-      <c r="AY196" t="n">
-        <v>0.9999</v>
-      </c>
-      <c r="AZ196" t="inlineStr">
-        <is>
-          <t>A653261</t>
-        </is>
-      </c>
-      <c r="BA196" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB196" t="n">
-        <v>685417736485</v>
-      </c>
-      <c r="BC196" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BD196" t="inlineStr">
-        <is>
-          <t>S00357206-10000</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>CANADA COMPUTERS</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>CAN002</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>CANADA COMPUTERS</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>168 Ultimate Drive</t>
-        </is>
-      </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>Richmond Hill</t>
-        </is>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>L4S 1P4</t>
-        </is>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>S00357206</t>
-        </is>
-      </c>
-      <c r="M197" t="inlineStr"/>
-      <c r="N197" t="n">
-        <v>70820798</v>
-      </c>
-      <c r="O197" t="inlineStr">
-        <is>
-          <t>PO2508150026</t>
-        </is>
-      </c>
-      <c r="P197" s="2" t="n">
-        <v>45884</v>
-      </c>
-      <c r="Q197" t="inlineStr">
-        <is>
-          <t>8/15/2025 2:42:08 PM</t>
-        </is>
-      </c>
-      <c r="R197" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="S197" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T197" t="inlineStr"/>
-      <c r="U197" s="2" t="n">
-        <v>45896</v>
-      </c>
-      <c r="V197" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W197" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="X197" t="inlineStr">
-        <is>
-          <t>Q27G3XMN</t>
-        </is>
-      </c>
-      <c r="Y197" t="inlineStr">
-        <is>
-          <t>MTAOC00201</t>
-        </is>
-      </c>
-      <c r="Z197" t="n">
-        <v>96</v>
-      </c>
-      <c r="AA197" t="n">
-        <v>96</v>
-      </c>
-      <c r="AB197" t="inlineStr"/>
-      <c r="AC197" t="inlineStr"/>
-      <c r="AD197" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE197" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF197" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG197" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH197" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI197" t="inlineStr">
-        <is>
-          <t>A653261</t>
-        </is>
-      </c>
-      <c r="AJ197" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK197" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL197" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AM197" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AN197" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AO197" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP197" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ197" t="inlineStr">
-        <is>
-          <t>AOC 27" Monitor</t>
-        </is>
-      </c>
-      <c r="AR197" t="inlineStr"/>
-      <c r="AS197" t="inlineStr">
-        <is>
-          <t>TPV-MNT</t>
-        </is>
-      </c>
-      <c r="AT197" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU197" t="n">
-        <v>212.29131</v>
-      </c>
-      <c r="AV197" t="n">
-        <v>212.29131</v>
-      </c>
-      <c r="AW197" t="n">
-        <v>1938.24</v>
-      </c>
-      <c r="AX197" t="n">
-        <v>1938.24</v>
-      </c>
-      <c r="AY197" t="n">
-        <v>2.667</v>
-      </c>
-      <c r="AZ197" t="inlineStr">
-        <is>
-          <t>A653261</t>
-        </is>
-      </c>
-      <c r="BA197" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB197" t="n">
-        <v>685417733583</v>
-      </c>
-      <c r="BC197" t="n">
-        <v>20000</v>
-      </c>
-      <c r="BD197" t="inlineStr">
-        <is>
-          <t>S00357206-20000</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>BEST BUY CANADA LTD</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>BES005</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>BEST BUY CANADA LTD</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>DC#1016, 9200 AIRPORT RD.</t>
-        </is>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>BRAMPTON</t>
-        </is>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>L6S 6G6</t>
-        </is>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>S00358847</t>
-        </is>
-      </c>
-      <c r="M198" t="inlineStr"/>
-      <c r="N198" t="n">
-        <v>70832067</v>
-      </c>
-      <c r="O198" t="inlineStr">
-        <is>
-          <t>59103701</t>
-        </is>
-      </c>
-      <c r="P198" s="2" t="n">
-        <v>45891</v>
-      </c>
-      <c r="Q198" t="inlineStr">
-        <is>
-          <t>8/22/2025 5:35:12 AM</t>
-        </is>
-      </c>
-      <c r="R198" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/29/2025 </t>
-        </is>
-      </c>
-      <c r="S198" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/29/2025 </t>
-        </is>
-      </c>
-      <c r="T198" t="inlineStr"/>
-      <c r="U198" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="V198" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W198" s="2" t="n">
-        <v>45898</v>
-      </c>
-      <c r="X198" t="inlineStr">
-        <is>
-          <t>TAB5109/37</t>
-        </is>
-      </c>
-      <c r="Y198" t="inlineStr">
-        <is>
-          <t>18597408</t>
-        </is>
-      </c>
-      <c r="Z198" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA198" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB198" t="inlineStr"/>
-      <c r="AC198" t="inlineStr"/>
-      <c r="AD198" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE198" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF198" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG198" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH198" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI198" t="inlineStr">
-        <is>
-          <t>A653064</t>
-        </is>
-      </c>
-      <c r="AJ198" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK198" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL198" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/29/2025 </t>
-        </is>
-      </c>
-      <c r="AM198" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/29/2025 </t>
-        </is>
-      </c>
-      <c r="AN198" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/29/2025 </t>
-        </is>
-      </c>
-      <c r="AO198" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP198" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ198" t="inlineStr">
-        <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
-        </is>
-      </c>
-      <c r="AR198" t="inlineStr"/>
-      <c r="AS198" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT198" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU198" t="n">
-        <v>19.29505102995333</v>
-      </c>
-      <c r="AV198" t="n">
-        <v>19.29505102995333</v>
-      </c>
-      <c r="AW198" t="n">
-        <v>218.2576</v>
-      </c>
-      <c r="AX198" t="n">
-        <v>218.2576</v>
-      </c>
-      <c r="AY198" t="n">
-        <v>0.4546</v>
-      </c>
-      <c r="AZ198" t="inlineStr">
-        <is>
-          <t>A653064</t>
-        </is>
-      </c>
-      <c r="BA198" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB198" t="n">
-        <v>840063203563</v>
-      </c>
-      <c r="BC198" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BD198" t="inlineStr">
-        <is>
-          <t>S00358847-10000</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>BEST BUY CANADA LTD</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>BES005</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>BEST BUY CANADA LTD</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>DC#1008, 19890-92A AVE.</t>
-        </is>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>LANGLEY</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>BC</t>
-        </is>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>V1M 3A9</t>
-        </is>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>S00358848</t>
-        </is>
-      </c>
-      <c r="M199" t="inlineStr"/>
-      <c r="N199" t="n">
-        <v>70832065</v>
-      </c>
-      <c r="O199" t="inlineStr">
-        <is>
-          <t>59103700</t>
-        </is>
-      </c>
-      <c r="P199" s="2" t="n">
-        <v>45891</v>
-      </c>
-      <c r="Q199" t="inlineStr">
-        <is>
-          <t>8/22/2025 5:35:13 AM</t>
-        </is>
-      </c>
-      <c r="R199" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/5/2025 </t>
-        </is>
-      </c>
-      <c r="S199" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/5/2025 </t>
-        </is>
-      </c>
-      <c r="T199" t="inlineStr"/>
-      <c r="U199" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="V199" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W199" s="2" t="n">
-        <v>45905</v>
-      </c>
-      <c r="X199" t="inlineStr">
-        <is>
-          <t>TAB5109/37</t>
-        </is>
-      </c>
-      <c r="Y199" t="inlineStr">
-        <is>
-          <t>18597408</t>
-        </is>
-      </c>
-      <c r="Z199" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA199" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB199" t="inlineStr"/>
-      <c r="AC199" t="inlineStr"/>
-      <c r="AD199" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE199" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF199" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG199" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH199" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI199" t="inlineStr">
-        <is>
-          <t>A653091</t>
-        </is>
-      </c>
-      <c r="AJ199" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK199" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL199" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/5/2025 </t>
-        </is>
-      </c>
-      <c r="AM199" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/5/2025 </t>
-        </is>
-      </c>
-      <c r="AN199" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/5/2025 </t>
-        </is>
-      </c>
-      <c r="AO199" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP199" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ199" t="inlineStr">
-        <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
-        </is>
-      </c>
-      <c r="AR199" t="inlineStr"/>
-      <c r="AS199" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT199" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU199" t="n">
-        <v>6.431683676651111</v>
-      </c>
-      <c r="AV199" t="n">
-        <v>6.431683676651111</v>
-      </c>
-      <c r="AW199" t="n">
-        <v>72.7526</v>
-      </c>
-      <c r="AX199" t="n">
-        <v>72.7526</v>
-      </c>
-      <c r="AY199" t="n">
-        <v>0.1516</v>
-      </c>
-      <c r="AZ199" t="inlineStr">
-        <is>
-          <t>A653091</t>
-        </is>
-      </c>
-      <c r="BA199" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB199" t="n">
-        <v>840063203563</v>
-      </c>
-      <c r="BC199" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BD199" t="inlineStr">
-        <is>
-          <t>S00358848-10000</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D200" t="n">
-        <v>72</v>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>6800 MARITZ DRIVE</t>
-        </is>
-      </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>MISSISSAUGA</t>
-        </is>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>L5W 1W2</t>
-        </is>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>S00359896</t>
-        </is>
-      </c>
-      <c r="M200" t="inlineStr"/>
-      <c r="N200" t="n">
-        <v>70838071</v>
-      </c>
-      <c r="O200" t="inlineStr">
-        <is>
-          <t>4001223951</t>
-        </is>
-      </c>
-      <c r="P200" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="Q200" t="inlineStr">
-        <is>
-          <t>8/26/2025 7:21:39 AM</t>
-        </is>
-      </c>
-      <c r="R200" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="S200" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T200" s="2" t="n">
-        <v>45894</v>
-      </c>
-      <c r="U200" s="2" t="n">
-        <v>45905</v>
-      </c>
-      <c r="V200" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W200" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="X200" t="inlineStr">
-        <is>
-          <t>TAB5106/37</t>
-        </is>
-      </c>
-      <c r="Y200" t="inlineStr">
-        <is>
-          <t>030858488</t>
-        </is>
-      </c>
-      <c r="Z200" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA200" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB200" t="inlineStr"/>
-      <c r="AC200" t="inlineStr"/>
-      <c r="AD200" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE200" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF200" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG200" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH200" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI200" t="inlineStr">
-        <is>
-          <t>A653231</t>
-        </is>
-      </c>
-      <c r="AJ200" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK200" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL200" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AM200" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AN200" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AO200" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP200" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ200" t="inlineStr">
-        <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
-        </is>
-      </c>
-      <c r="AR200" t="inlineStr"/>
-      <c r="AS200" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT200" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU200" t="n">
-        <v>45.36733975042748</v>
-      </c>
-      <c r="AV200" t="n">
-        <v>45.36733975042748</v>
-      </c>
-      <c r="AW200" t="n">
-        <v>363.6461</v>
-      </c>
-      <c r="AX200" t="n">
-        <v>363.6461</v>
-      </c>
-      <c r="AY200" t="n">
-        <v>0.7572</v>
-      </c>
-      <c r="AZ200" t="inlineStr">
-        <is>
-          <t>A653231</t>
-        </is>
-      </c>
-      <c r="BA200" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB200" t="n">
-        <v>840063202368</v>
-      </c>
-      <c r="BC200" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BD200" t="inlineStr">
-        <is>
-          <t>S00359896-10000</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>72</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>6800 MARITZ DRIVE</t>
-        </is>
-      </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>MISSISSAUGA</t>
-        </is>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>L5W 1W2</t>
-        </is>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>S00360097</t>
-        </is>
-      </c>
-      <c r="M201" t="inlineStr"/>
-      <c r="N201" t="n">
-        <v>70838223</v>
-      </c>
-      <c r="O201" t="inlineStr">
-        <is>
-          <t>4001223987</t>
-        </is>
-      </c>
-      <c r="P201" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="Q201" t="inlineStr">
-        <is>
-          <t>8/26/2025 12:07:54 PM</t>
-        </is>
-      </c>
-      <c r="R201" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="S201" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T201" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="U201" s="2" t="n">
-        <v>45906</v>
-      </c>
-      <c r="V201" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W201" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="X201" t="inlineStr">
-        <is>
-          <t>TAB5106/37</t>
-        </is>
-      </c>
-      <c r="Y201" t="inlineStr">
-        <is>
-          <t>030858488</t>
-        </is>
-      </c>
-      <c r="Z201" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA201" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB201" t="inlineStr"/>
-      <c r="AC201" t="inlineStr"/>
-      <c r="AD201" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE201" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF201" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG201" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH201" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI201" t="inlineStr">
-        <is>
-          <t>A653239</t>
-        </is>
-      </c>
-      <c r="AJ201" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK201" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL201" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AM201" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AN201" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AO201" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP201" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ201" t="inlineStr">
-        <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
-        </is>
-      </c>
-      <c r="AR201" t="inlineStr"/>
-      <c r="AS201" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT201" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU201" t="n">
-        <v>25.7081591919089</v>
-      </c>
-      <c r="AV201" t="n">
-        <v>25.7081591919089</v>
-      </c>
-      <c r="AW201" t="n">
-        <v>206.04</v>
-      </c>
-      <c r="AX201" t="n">
-        <v>206.04</v>
-      </c>
-      <c r="AY201" t="n">
-        <v>0.4722</v>
-      </c>
-      <c r="AZ201" t="inlineStr">
-        <is>
-          <t>A653239</t>
-        </is>
-      </c>
-      <c r="BA201" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB201" t="n">
-        <v>840063202368</v>
-      </c>
-      <c r="BC201" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BD201" t="inlineStr">
-        <is>
-          <t>S00360097-10000</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>72</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>6800 MARITZ DRIVE</t>
-        </is>
-      </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>MISSISSAUGA</t>
-        </is>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>L5W 1W2</t>
-        </is>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>S00360097</t>
-        </is>
-      </c>
-      <c r="M202" t="inlineStr"/>
-      <c r="N202" t="n">
-        <v>70838223</v>
-      </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>4001223987</t>
-        </is>
-      </c>
-      <c r="P202" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="Q202" t="inlineStr">
-        <is>
-          <t>8/26/2025 12:07:54 PM</t>
-        </is>
-      </c>
-      <c r="R202" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="S202" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T202" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="U202" s="2" t="n">
-        <v>45906</v>
-      </c>
-      <c r="V202" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W202" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="X202" t="inlineStr">
-        <is>
-          <t>TAB5306/37</t>
-        </is>
-      </c>
-      <c r="Y202" t="inlineStr">
-        <is>
-          <t>030858847</t>
-        </is>
-      </c>
-      <c r="Z202" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA202" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB202" t="inlineStr"/>
-      <c r="AC202" t="inlineStr"/>
-      <c r="AD202" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE202" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF202" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG202" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH202" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI202" t="inlineStr">
-        <is>
-          <t>A653239</t>
-        </is>
-      </c>
-      <c r="AJ202" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK202" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL202" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AM202" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AN202" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AO202" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP202" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ202" t="inlineStr">
-        <is>
-          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
-        </is>
-      </c>
-      <c r="AR202" t="inlineStr"/>
-      <c r="AS202" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT202" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU202" t="n">
-        <v>5.543802608456771</v>
-      </c>
-      <c r="AV202" t="n">
-        <v>5.543802608456771</v>
-      </c>
-      <c r="AW202" t="n">
-        <v>27.5136</v>
-      </c>
-      <c r="AX202" t="n">
-        <v>27.5136</v>
-      </c>
-      <c r="AY202" t="n">
-        <v>0.0659</v>
-      </c>
-      <c r="AZ202" t="inlineStr">
-        <is>
-          <t>A653239</t>
-        </is>
-      </c>
-      <c r="BA202" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB202" t="n">
-        <v>840063202351</v>
-      </c>
-      <c r="BC202" t="n">
-        <v>20000</v>
-      </c>
-      <c r="BD202" t="inlineStr">
-        <is>
-          <t>S00360097-20000</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>72</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
-        </is>
-      </c>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>CALGARY</t>
-        </is>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>T1Y 7J4</t>
-        </is>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>S00360098</t>
-        </is>
-      </c>
-      <c r="M203" t="inlineStr"/>
-      <c r="N203" t="n">
-        <v>70838222</v>
-      </c>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>3150833548</t>
-        </is>
-      </c>
-      <c r="P203" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="Q203" t="inlineStr">
-        <is>
-          <t>8/26/2025 12:07:55 PM</t>
-        </is>
-      </c>
-      <c r="R203" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="S203" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T203" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="U203" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="V203" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W203" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="X203" t="inlineStr">
-        <is>
-          <t>TAB5106/37</t>
-        </is>
-      </c>
-      <c r="Y203" t="inlineStr">
-        <is>
-          <t>030858488</t>
-        </is>
-      </c>
-      <c r="Z203" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA203" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB203" t="inlineStr"/>
-      <c r="AC203" t="inlineStr"/>
-      <c r="AD203" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE203" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF203" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG203" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH203" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI203" t="inlineStr">
-        <is>
-          <t>A653232</t>
-        </is>
-      </c>
-      <c r="AJ203" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK203" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL203" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AM203" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AN203" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AO203" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP203" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ203" t="inlineStr">
-        <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
-        </is>
-      </c>
-      <c r="AR203" t="inlineStr"/>
-      <c r="AS203" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT203" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU203" t="n">
-        <v>18.90305822934478</v>
-      </c>
-      <c r="AV203" t="n">
-        <v>18.90305822934478</v>
-      </c>
-      <c r="AW203" t="n">
-        <v>151.5</v>
-      </c>
-      <c r="AX203" t="n">
-        <v>151.5</v>
-      </c>
-      <c r="AY203" t="n">
-        <v>0.3473</v>
-      </c>
-      <c r="AZ203" t="inlineStr">
-        <is>
-          <t>A653232</t>
-        </is>
-      </c>
-      <c r="BA203" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB203" t="n">
-        <v>840063202368</v>
-      </c>
-      <c r="BC203" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BD203" t="inlineStr">
-        <is>
-          <t>S00360098-10000</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>72</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
-        </is>
-      </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>CALGARY</t>
-        </is>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>T1Y 7J4</t>
-        </is>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>S00360098</t>
-        </is>
-      </c>
-      <c r="M204" t="inlineStr"/>
-      <c r="N204" t="n">
-        <v>70838222</v>
-      </c>
-      <c r="O204" t="inlineStr">
-        <is>
-          <t>3150833548</t>
-        </is>
-      </c>
-      <c r="P204" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="Q204" t="inlineStr">
-        <is>
-          <t>8/26/2025 12:07:55 PM</t>
-        </is>
-      </c>
-      <c r="R204" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="S204" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T204" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="U204" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="V204" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W204" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="X204" t="inlineStr">
-        <is>
-          <t>TAB5306/37</t>
-        </is>
-      </c>
-      <c r="Y204" t="inlineStr">
-        <is>
-          <t>030858847</t>
-        </is>
-      </c>
-      <c r="Z204" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA204" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB204" t="inlineStr"/>
-      <c r="AC204" t="inlineStr"/>
-      <c r="AD204" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE204" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF204" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG204" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH204" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI204" t="inlineStr">
-        <is>
-          <t>A653232</t>
-        </is>
-      </c>
-      <c r="AJ204" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK204" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL204" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AM204" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AN204" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AO204" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP204" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ204" t="inlineStr">
-        <is>
-          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
-        </is>
-      </c>
-      <c r="AR204" t="inlineStr"/>
-      <c r="AS204" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT204" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU204" t="n">
-        <v>5.543802608456771</v>
-      </c>
-      <c r="AV204" t="n">
-        <v>5.543802608456771</v>
-      </c>
-      <c r="AW204" t="n">
-        <v>27.5137</v>
-      </c>
-      <c r="AX204" t="n">
-        <v>27.5137</v>
-      </c>
-      <c r="AY204" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="AZ204" t="inlineStr">
-        <is>
-          <t>A653232</t>
-        </is>
-      </c>
-      <c r="BA204" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB204" t="n">
-        <v>840063202351</v>
-      </c>
-      <c r="BC204" t="n">
-        <v>20000</v>
-      </c>
-      <c r="BD204" t="inlineStr">
-        <is>
-          <t>S00360098-20000</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>72</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2401 SCM WAY RR 1</t>
-        </is>
-      </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>CORNWALL</t>
-        </is>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>K6H 7S1</t>
-        </is>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>S00360099</t>
-        </is>
-      </c>
-      <c r="M205" t="inlineStr"/>
-      <c r="N205" t="n">
-        <v>70838224</v>
-      </c>
-      <c r="O205" t="inlineStr">
-        <is>
-          <t>3850803890</t>
-        </is>
-      </c>
-      <c r="P205" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="Q205" t="inlineStr">
-        <is>
-          <t>8/26/2025 12:07:56 PM</t>
-        </is>
-      </c>
-      <c r="R205" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="S205" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T205" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="U205" s="2" t="n">
-        <v>45907</v>
-      </c>
-      <c r="V205" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W205" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="X205" t="inlineStr">
-        <is>
-          <t>TAB5106/37</t>
-        </is>
-      </c>
-      <c r="Y205" t="inlineStr">
-        <is>
-          <t>030858488</t>
-        </is>
-      </c>
-      <c r="Z205" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA205" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB205" t="inlineStr"/>
-      <c r="AC205" t="inlineStr"/>
-      <c r="AD205" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE205" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF205" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG205" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH205" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI205" t="inlineStr">
-        <is>
-          <t>A653244</t>
-        </is>
-      </c>
-      <c r="AJ205" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK205" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL205" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AM205" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AN205" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AO205" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP205" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ205" t="inlineStr">
-        <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
-        </is>
-      </c>
-      <c r="AR205" t="inlineStr"/>
-      <c r="AS205" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT205" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU205" t="n">
-        <v>12.85407959595445</v>
-      </c>
-      <c r="AV205" t="n">
-        <v>12.85407959595445</v>
-      </c>
-      <c r="AW205" t="n">
-        <v>103.0336</v>
-      </c>
-      <c r="AX205" t="n">
-        <v>103.0336</v>
-      </c>
-      <c r="AY205" t="n">
-        <v>0.2137</v>
-      </c>
-      <c r="AZ205" t="inlineStr">
-        <is>
-          <t>A653244</t>
-        </is>
-      </c>
-      <c r="BA205" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB205" t="n">
-        <v>840063202368</v>
-      </c>
-      <c r="BC205" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BD205" t="inlineStr">
-        <is>
-          <t>S00360099-10000</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>72</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2401 SCM WAY RR 1</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>CORNWALL</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>K6H 7S1</t>
-        </is>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>S00360099</t>
-        </is>
-      </c>
-      <c r="M206" t="inlineStr"/>
-      <c r="N206" t="n">
-        <v>70838224</v>
-      </c>
-      <c r="O206" t="inlineStr">
-        <is>
-          <t>3850803890</t>
-        </is>
-      </c>
-      <c r="P206" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="Q206" t="inlineStr">
-        <is>
-          <t>8/26/2025 12:07:56 PM</t>
-        </is>
-      </c>
-      <c r="R206" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="S206" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T206" s="2" t="n">
-        <v>45895</v>
-      </c>
-      <c r="U206" s="2" t="n">
-        <v>45907</v>
-      </c>
-      <c r="V206" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W206" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="X206" t="inlineStr">
-        <is>
-          <t>TAB5306/37</t>
-        </is>
-      </c>
-      <c r="Y206" t="inlineStr">
-        <is>
-          <t>030858847</t>
-        </is>
-      </c>
-      <c r="Z206" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA206" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB206" t="inlineStr"/>
-      <c r="AC206" t="inlineStr"/>
-      <c r="AD206" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE206" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF206" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG206" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH206" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI206" t="inlineStr">
-        <is>
-          <t>A653244</t>
-        </is>
-      </c>
-      <c r="AJ206" t="inlineStr">
-        <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK206" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AL206" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AM206" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AN206" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="AO206" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP206" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AQ206" t="inlineStr">
-        <is>
-          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
-        </is>
-      </c>
-      <c r="AR206" t="inlineStr"/>
-      <c r="AS206" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
-      <c r="AT206" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="AU206" t="n">
-        <v>11.08760521691354</v>
-      </c>
-      <c r="AV206" t="n">
-        <v>11.08760521691354</v>
-      </c>
-      <c r="AW206" t="n">
-        <v>55</v>
-      </c>
-      <c r="AX206" t="n">
-        <v>55</v>
-      </c>
-      <c r="AY206" t="n">
-        <v>0.1429</v>
-      </c>
-      <c r="AZ206" t="inlineStr">
-        <is>
-          <t>A653244</t>
-        </is>
-      </c>
-      <c r="BA206" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB206" t="n">
-        <v>840063202351</v>
-      </c>
-      <c r="BC206" t="n">
-        <v>20000</v>
-      </c>
-      <c r="BD206" t="inlineStr">
-        <is>
-          <t>S00360099-20000</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>18W-CAN</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>TPVISION</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Unis Warehouse</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>Unis Warehouse</t>
-        </is>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>6800 Valley View St</t>
-        </is>
-      </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>Buena Park</t>
-        </is>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>90620</t>
-        </is>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>S00360479</t>
-        </is>
-      </c>
-      <c r="M207" t="inlineStr"/>
-      <c r="N207" t="inlineStr"/>
-      <c r="O207" t="inlineStr">
-        <is>
-          <t>08272025</t>
-        </is>
-      </c>
-      <c r="P207" s="2" t="n">
-        <v>45896</v>
-      </c>
-      <c r="Q207" t="inlineStr">
-        <is>
-          <t>8/27/2025 2:21:13 PM</t>
-        </is>
-      </c>
-      <c r="R207" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/4/2025 </t>
-        </is>
-      </c>
-      <c r="S207" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/4/2025 </t>
-        </is>
-      </c>
-      <c r="T207" t="inlineStr"/>
-      <c r="U207" t="inlineStr"/>
-      <c r="V207" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W207" s="2" t="n">
-        <v>45904</v>
-      </c>
-      <c r="X207" t="inlineStr">
-        <is>
-          <t>TAB4000/37</t>
-        </is>
-      </c>
-      <c r="Y207" t="inlineStr"/>
-      <c r="Z207" t="n">
-        <v>650</v>
-      </c>
-      <c r="AA207" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB207" t="inlineStr"/>
-      <c r="AC207" t="inlineStr"/>
-      <c r="AD207" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="AE207" t="inlineStr"/>
-      <c r="AF207" t="inlineStr">
-        <is>
-          <t>Primary Freight Services Inc</t>
-        </is>
-      </c>
-      <c r="AG207" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH207" t="inlineStr">
-        <is>
-          <t>Primary Freight Services Inc</t>
-        </is>
-      </c>
-      <c r="AI207" t="inlineStr">
-        <is>
-          <t>08272025</t>
-        </is>
-      </c>
-      <c r="AJ207" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK207" t="inlineStr"/>
-      <c r="AL207" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/4/2025 </t>
-        </is>
-      </c>
-      <c r="AM207" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/4/2025 </t>
-        </is>
-      </c>
-      <c r="AN207" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/4/2025 </t>
-        </is>
-      </c>
-      <c r="AO207" t="inlineStr">
-        <is>
-          <t>18 Wheels</t>
-        </is>
-      </c>
-      <c r="AP207" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="AQ207" t="inlineStr">
-        <is>
-          <t>Soundbar</t>
-        </is>
-      </c>
-      <c r="AR207" t="inlineStr"/>
-      <c r="AS207" t="inlineStr"/>
-      <c r="AT207" t="inlineStr">
-        <is>
-          <t>EACH</t>
-        </is>
-      </c>
-      <c r="AU207" t="n">
-        <v>384.1527083333334</v>
-      </c>
-      <c r="AV207" t="n">
-        <v>384.1527083333334</v>
-      </c>
-      <c r="AW207" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX207" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY207" t="n">
-        <v>6.7708</v>
-      </c>
-      <c r="AZ207" t="inlineStr">
-        <is>
-          <t>08272025</t>
-        </is>
-      </c>
-      <c r="BA207" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB207" t="n">
-        <v>840063204546</v>
-      </c>
-      <c r="BC207" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BD207" t="inlineStr">
         <is>
           <t>S00360479-10000</t>
         </is>

--- a/master.xlsx
+++ b/master.xlsx
@@ -39615,30 +39615,32 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr"/>
+      <c r="D177" t="n">
+        <v>72</v>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CANADA COMPUTERS</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>CAN002</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>CANADA COMPUTERS</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>168 Ultimate Drive</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Richmond Hill</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -39648,44 +39650,44 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>L4S 1P4</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>S00357206</t>
+          <t>S00357370</t>
         </is>
       </c>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="n">
-        <v>70820798</v>
+        <v>70823080</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>PO2508150026</t>
+          <t>3850803825</t>
         </is>
       </c>
       <c r="P177" s="2" t="n">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>8/15/2025 2:42:08 PM</t>
+          <t>8/18/2025 8:05:00 AM</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="T177" t="inlineStr"/>
       <c r="U177" s="2" t="n">
-        <v>45896</v>
+        <v>45899</v>
       </c>
       <c r="V177" t="inlineStr">
         <is>
@@ -39693,23 +39695,23 @@
         </is>
       </c>
       <c r="W177" s="2" t="n">
-        <v>45897</v>
+        <v>45891</v>
       </c>
       <c r="X177" t="inlineStr">
         <is>
-          <t>AG276QZD2</t>
+          <t>TAB5106/37</t>
         </is>
       </c>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>MTAOC00097</t>
+          <t>030858488</t>
         </is>
       </c>
       <c r="Z177" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA177" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB177" t="inlineStr"/>
       <c r="AC177" t="inlineStr"/>
@@ -39740,7 +39742,7 @@
       </c>
       <c r="AI177" t="inlineStr">
         <is>
-          <t>A653261</t>
+          <t>A652555</t>
         </is>
       </c>
       <c r="AJ177" t="inlineStr">
@@ -39755,17 +39757,17 @@
       </c>
       <c r="AL177" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AM177" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AN177" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="AO177" t="inlineStr">
@@ -39780,13 +39782,13 @@
       </c>
       <c r="AQ177" t="inlineStr">
         <is>
-          <t>AOC 27” QHD OLED gaming monitor</t>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
         </is>
       </c>
       <c r="AR177" t="inlineStr"/>
       <c r="AS177" t="inlineStr">
         <is>
-          <t>TPV-MNT</t>
+          <t>TPV-AVA</t>
         </is>
       </c>
       <c r="AT177" t="inlineStr">
@@ -39795,37 +39797,37 @@
         </is>
       </c>
       <c r="AU177" t="n">
-        <v>65.132025</v>
+        <v>22.68366987521374</v>
       </c>
       <c r="AV177" t="n">
-        <v>65.132025</v>
+        <v>22.68366987521374</v>
       </c>
       <c r="AW177" t="n">
-        <v>638.96</v>
+        <v>181.8</v>
       </c>
       <c r="AX177" t="n">
-        <v>638.96</v>
+        <v>181.8</v>
       </c>
       <c r="AY177" t="n">
-        <v>0.9999</v>
+        <v>0.4166</v>
       </c>
       <c r="AZ177" t="inlineStr">
         <is>
-          <t>A653261</t>
+          <t>A652555</t>
         </is>
       </c>
       <c r="BA177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB177" t="n">
-        <v>685417736485</v>
+        <v>840063202368</v>
       </c>
       <c r="BC177" t="n">
         <v>10000</v>
       </c>
       <c r="BD177" t="inlineStr">
         <is>
-          <t>S00357206-10000</t>
+          <t>S00357370-10000</t>
         </is>
       </c>
     </row>
@@ -39845,30 +39847,32 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
+      <c r="D178" t="n">
+        <v>72</v>
+      </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>CANADA COMPUTERS</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>CAN002</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>CANADA COMPUTERS</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>168 Ultimate Drive</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Richmond Hill</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -39878,44 +39882,44 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>L4S 1P4</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>S00357206</t>
+          <t>S00357370</t>
         </is>
       </c>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="n">
-        <v>70820798</v>
+        <v>70823080</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>PO2508150026</t>
+          <t>3850803825</t>
         </is>
       </c>
       <c r="P178" s="2" t="n">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>8/15/2025 2:42:08 PM</t>
+          <t>8/18/2025 8:05:00 AM</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="T178" t="inlineStr"/>
       <c r="U178" s="2" t="n">
-        <v>45896</v>
+        <v>45899</v>
       </c>
       <c r="V178" t="inlineStr">
         <is>
@@ -39923,23 +39927,23 @@
         </is>
       </c>
       <c r="W178" s="2" t="n">
-        <v>45897</v>
+        <v>45891</v>
       </c>
       <c r="X178" t="inlineStr">
         <is>
-          <t>Q27G3XMN</t>
+          <t>TAB5306/37</t>
         </is>
       </c>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>MTAOC00201</t>
+          <t>030858847</t>
         </is>
       </c>
       <c r="Z178" t="n">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="AA178" t="n">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="AB178" t="inlineStr"/>
       <c r="AC178" t="inlineStr"/>
@@ -39970,7 +39974,7 @@
       </c>
       <c r="AI178" t="inlineStr">
         <is>
-          <t>A653261</t>
+          <t>A652555</t>
         </is>
       </c>
       <c r="AJ178" t="inlineStr">
@@ -39985,17 +39989,17 @@
       </c>
       <c r="AL178" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AM178" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AN178" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t>8/22/2025 11:17:44 AM</t>
         </is>
       </c>
       <c r="AO178" t="inlineStr">
@@ -40010,13 +40014,13 @@
       </c>
       <c r="AQ178" t="inlineStr">
         <is>
-          <t>AOC 27" Monitor</t>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
         </is>
       </c>
       <c r="AR178" t="inlineStr"/>
       <c r="AS178" t="inlineStr">
         <is>
-          <t>TPV-MNT</t>
+          <t>TPV-AVA</t>
         </is>
       </c>
       <c r="AT178" t="inlineStr">
@@ -40025,37 +40029,37 @@
         </is>
       </c>
       <c r="AU178" t="n">
-        <v>212.29131</v>
+        <v>66.52563130148125</v>
       </c>
       <c r="AV178" t="n">
-        <v>212.29131</v>
+        <v>66.52563130148125</v>
       </c>
       <c r="AW178" t="n">
-        <v>1938.24</v>
+        <v>330</v>
       </c>
       <c r="AX178" t="n">
-        <v>1938.24</v>
+        <v>330</v>
       </c>
       <c r="AY178" t="n">
-        <v>2.667</v>
+        <v>0.8571</v>
       </c>
       <c r="AZ178" t="inlineStr">
         <is>
-          <t>A653261</t>
+          <t>A652555</t>
         </is>
       </c>
       <c r="BA178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB178" t="n">
-        <v>685417733583</v>
+        <v>840063202351</v>
       </c>
       <c r="BC178" t="n">
         <v>20000</v>
       </c>
       <c r="BD178" t="inlineStr">
         <is>
-          <t>S00357206-20000</t>
+          <t>S00357370-20000</t>
         </is>
       </c>
     </row>
@@ -40095,12 +40099,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -40110,21 +40114,21 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>S00357370</t>
+          <t>S00357371</t>
         </is>
       </c>
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="n">
-        <v>70823080</v>
+        <v>70823079</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>3850803825</t>
+          <t>4001223932</t>
         </is>
       </c>
       <c r="P179" s="2" t="n">
@@ -40137,17 +40141,19 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
-        </is>
-      </c>
-      <c r="T179" t="inlineStr"/>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="T179" s="2" t="n">
+        <v>45887</v>
+      </c>
       <c r="U179" s="2" t="n">
-        <v>45899</v>
+        <v>45898</v>
       </c>
       <c r="V179" t="inlineStr">
         <is>
@@ -40202,7 +40208,7 @@
       </c>
       <c r="AI179" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>A652551</t>
         </is>
       </c>
       <c r="AJ179" t="inlineStr">
@@ -40227,7 +40233,7 @@
       </c>
       <c r="AN179" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AO179" t="inlineStr">
@@ -40273,7 +40279,7 @@
       </c>
       <c r="AZ179" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>A652551</t>
         </is>
       </c>
       <c r="BA179" t="n">
@@ -40287,7 +40293,7 @@
       </c>
       <c r="BD179" t="inlineStr">
         <is>
-          <t>S00357370-10000</t>
+          <t>S00357371-10000</t>
         </is>
       </c>
     </row>
@@ -40327,12 +40333,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -40342,21 +40348,21 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>S00357370</t>
+          <t>S00357371</t>
         </is>
       </c>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="n">
-        <v>70823080</v>
+        <v>70823079</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>3850803825</t>
+          <t>4001223932</t>
         </is>
       </c>
       <c r="P180" s="2" t="n">
@@ -40369,17 +40375,19 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="S180" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
-        </is>
-      </c>
-      <c r="T180" t="inlineStr"/>
+          <t xml:space="preserve">8/22/2025 </t>
+        </is>
+      </c>
+      <c r="T180" s="2" t="n">
+        <v>45887</v>
+      </c>
       <c r="U180" s="2" t="n">
-        <v>45899</v>
+        <v>45898</v>
       </c>
       <c r="V180" t="inlineStr">
         <is>
@@ -40400,10 +40408,10 @@
         </is>
       </c>
       <c r="Z180" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="AA180" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="AB180" t="inlineStr"/>
       <c r="AC180" t="inlineStr"/>
@@ -40434,7 +40442,7 @@
       </c>
       <c r="AI180" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>A652551</t>
         </is>
       </c>
       <c r="AJ180" t="inlineStr">
@@ -40459,7 +40467,7 @@
       </c>
       <c r="AN180" t="inlineStr">
         <is>
-          <t>8/22/2025 11:17:44 AM</t>
+          <t xml:space="preserve">8/22/2025 </t>
         </is>
       </c>
       <c r="AO180" t="inlineStr">
@@ -40489,23 +40497,23 @@
         </is>
       </c>
       <c r="AU180" t="n">
-        <v>66.52563130148125</v>
+        <v>155.2264730367896</v>
       </c>
       <c r="AV180" t="n">
-        <v>66.52563130148125</v>
+        <v>155.2264730367896</v>
       </c>
       <c r="AW180" t="n">
-        <v>330</v>
+        <v>770</v>
       </c>
       <c r="AX180" t="n">
-        <v>330</v>
+        <v>770</v>
       </c>
       <c r="AY180" t="n">
-        <v>0.8571</v>
+        <v>1.9999</v>
       </c>
       <c r="AZ180" t="inlineStr">
         <is>
-          <t>A652555</t>
+          <t>A652551</t>
         </is>
       </c>
       <c r="BA180" t="n">
@@ -40519,7 +40527,7 @@
       </c>
       <c r="BD180" t="inlineStr">
         <is>
-          <t>S00357370-20000</t>
+          <t>S00357371-20000</t>
         </is>
       </c>
     </row>
@@ -40539,32 +40547,30 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D181" t="n">
-        <v>72</v>
-      </c>
+      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>CANADA COMPUTERS</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>CAN002</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>CANADA COMPUTERS</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>168 Ultimate Drive</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>Richmond Hill</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -40574,46 +40580,44 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>L4S 1P4</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>S00357371</t>
+          <t>S00357206</t>
         </is>
       </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="n">
-        <v>70823079</v>
+        <v>70820798</v>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>4001223932</t>
+          <t>PO2508150026</t>
         </is>
       </c>
       <c r="P181" s="2" t="n">
-        <v>45887</v>
+        <v>45884</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>8/18/2025 8:05:00 AM</t>
+          <t>8/15/2025 2:42:08 PM</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S181" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
-        </is>
-      </c>
-      <c r="T181" s="2" t="n">
-        <v>45887</v>
-      </c>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr"/>
       <c r="U181" s="2" t="n">
-        <v>45898</v>
+        <v>45896</v>
       </c>
       <c r="V181" t="inlineStr">
         <is>
@@ -40621,23 +40625,23 @@
         </is>
       </c>
       <c r="W181" s="2" t="n">
-        <v>45891</v>
+        <v>45897</v>
       </c>
       <c r="X181" t="inlineStr">
         <is>
-          <t>TAB5106/37</t>
+          <t>AG276QZD2</t>
         </is>
       </c>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>030858488</t>
+          <t>MTAOC00097</t>
         </is>
       </c>
       <c r="Z181" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA181" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB181" t="inlineStr"/>
       <c r="AC181" t="inlineStr"/>
@@ -40668,7 +40672,7 @@
       </c>
       <c r="AI181" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A653261</t>
         </is>
       </c>
       <c r="AJ181" t="inlineStr">
@@ -40683,17 +40687,17 @@
       </c>
       <c r="AL181" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM181" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN181" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO181" t="inlineStr">
@@ -40708,13 +40712,13 @@
       </c>
       <c r="AQ181" t="inlineStr">
         <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+          <t>AOC 27” QHD OLED gaming monitor</t>
         </is>
       </c>
       <c r="AR181" t="inlineStr"/>
       <c r="AS181" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT181" t="inlineStr">
@@ -40723,37 +40727,37 @@
         </is>
       </c>
       <c r="AU181" t="n">
-        <v>22.68366987521374</v>
+        <v>65.132025</v>
       </c>
       <c r="AV181" t="n">
-        <v>22.68366987521374</v>
+        <v>65.132025</v>
       </c>
       <c r="AW181" t="n">
-        <v>181.8</v>
+        <v>638.96</v>
       </c>
       <c r="AX181" t="n">
-        <v>181.8</v>
+        <v>638.96</v>
       </c>
       <c r="AY181" t="n">
-        <v>0.4166</v>
+        <v>0.9999</v>
       </c>
       <c r="AZ181" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A653261</t>
         </is>
       </c>
       <c r="BA181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB181" t="n">
-        <v>840063202368</v>
+        <v>685417736485</v>
       </c>
       <c r="BC181" t="n">
         <v>10000</v>
       </c>
       <c r="BD181" t="inlineStr">
         <is>
-          <t>S00357371-10000</t>
+          <t>S00357206-10000</t>
         </is>
       </c>
     </row>
@@ -40773,32 +40777,30 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D182" t="n">
-        <v>72</v>
-      </c>
+      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>CANADA COMPUTERS</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>CAN002</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>CANADA COMPUTERS</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>168 Ultimate Drive</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>Richmond Hill</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -40808,46 +40810,44 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>L4S 1P4</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>S00357371</t>
+          <t>S00357206</t>
         </is>
       </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="n">
-        <v>70823079</v>
+        <v>70820798</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>4001223932</t>
+          <t>PO2508150026</t>
         </is>
       </c>
       <c r="P182" s="2" t="n">
-        <v>45887</v>
+        <v>45884</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>8/18/2025 8:05:00 AM</t>
+          <t>8/15/2025 2:42:08 PM</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
-        </is>
-      </c>
-      <c r="T182" s="2" t="n">
-        <v>45887</v>
-      </c>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr"/>
       <c r="U182" s="2" t="n">
-        <v>45898</v>
+        <v>45896</v>
       </c>
       <c r="V182" t="inlineStr">
         <is>
@@ -40855,23 +40855,23 @@
         </is>
       </c>
       <c r="W182" s="2" t="n">
-        <v>45891</v>
+        <v>45897</v>
       </c>
       <c r="X182" t="inlineStr">
         <is>
-          <t>TAB5306/37</t>
+          <t>Q27G3XMN</t>
         </is>
       </c>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>030858847</t>
+          <t>MTAOC00201</t>
         </is>
       </c>
       <c r="Z182" t="n">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AA182" t="n">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AB182" t="inlineStr"/>
       <c r="AC182" t="inlineStr"/>
@@ -40902,7 +40902,7 @@
       </c>
       <c r="AI182" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A653261</t>
         </is>
       </c>
       <c r="AJ182" t="inlineStr">
@@ -40917,17 +40917,17 @@
       </c>
       <c r="AL182" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM182" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN182" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO182" t="inlineStr">
@@ -40942,13 +40942,13 @@
       </c>
       <c r="AQ182" t="inlineStr">
         <is>
-          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+          <t>AOC 27" Monitor</t>
         </is>
       </c>
       <c r="AR182" t="inlineStr"/>
       <c r="AS182" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT182" t="inlineStr">
@@ -40957,37 +40957,37 @@
         </is>
       </c>
       <c r="AU182" t="n">
-        <v>155.2264730367896</v>
+        <v>212.29131</v>
       </c>
       <c r="AV182" t="n">
-        <v>155.2264730367896</v>
+        <v>212.29131</v>
       </c>
       <c r="AW182" t="n">
-        <v>770</v>
+        <v>1938.24</v>
       </c>
       <c r="AX182" t="n">
-        <v>770</v>
+        <v>1938.24</v>
       </c>
       <c r="AY182" t="n">
-        <v>1.9999</v>
+        <v>2.667</v>
       </c>
       <c r="AZ182" t="inlineStr">
         <is>
-          <t>A652551</t>
+          <t>A653261</t>
         </is>
       </c>
       <c r="BA182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB182" t="n">
-        <v>840063202351</v>
+        <v>685417733583</v>
       </c>
       <c r="BC182" t="n">
         <v>20000</v>
       </c>
       <c r="BD182" t="inlineStr">
         <is>
-          <t>S00357371-20000</t>
+          <t>S00357206-20000</t>
         </is>
       </c>
     </row>

--- a/master.xlsx
+++ b/master.xlsx
@@ -41007,30 +41007,32 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr"/>
+      <c r="D183" t="n">
+        <v>72</v>
+      </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>DC#1016, 9200 AIRPORT RD.</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -41040,44 +41042,46 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>L6S 6G6</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>S00358847</t>
+          <t>S00359896</t>
         </is>
       </c>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="n">
-        <v>70832067</v>
+        <v>70838071</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>59103701</t>
+          <t>4001223951</t>
         </is>
       </c>
       <c r="P183" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>8/22/2025 5:35:12 AM</t>
+          <t>8/26/2025 7:21:39 AM</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
-        </is>
-      </c>
-      <c r="T183" t="inlineStr"/>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T183" s="2" t="n">
+        <v>45894</v>
+      </c>
       <c r="U183" s="2" t="n">
-        <v>45901</v>
+        <v>45905</v>
       </c>
       <c r="V183" t="inlineStr">
         <is>
@@ -41085,23 +41089,23 @@
         </is>
       </c>
       <c r="W183" s="2" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="X183" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
+          <t>TAB5106/37</t>
         </is>
       </c>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>18597408</t>
+          <t>030858488</t>
         </is>
       </c>
       <c r="Z183" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AA183" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AB183" t="inlineStr"/>
       <c r="AC183" t="inlineStr"/>
@@ -41132,7 +41136,7 @@
       </c>
       <c r="AI183" t="inlineStr">
         <is>
-          <t>A653064</t>
+          <t>A653231</t>
         </is>
       </c>
       <c r="AJ183" t="inlineStr">
@@ -41147,17 +41151,17 @@
       </c>
       <c r="AL183" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM183" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN183" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO183" t="inlineStr">
@@ -41172,7 +41176,7 @@
       </c>
       <c r="AQ183" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
         </is>
       </c>
       <c r="AR183" t="inlineStr"/>
@@ -41187,37 +41191,37 @@
         </is>
       </c>
       <c r="AU183" t="n">
-        <v>19.29505102995333</v>
+        <v>45.36733975042748</v>
       </c>
       <c r="AV183" t="n">
-        <v>19.29505102995333</v>
+        <v>45.36733975042748</v>
       </c>
       <c r="AW183" t="n">
-        <v>218.2576</v>
+        <v>363.6461</v>
       </c>
       <c r="AX183" t="n">
-        <v>218.2576</v>
+        <v>363.6461</v>
       </c>
       <c r="AY183" t="n">
-        <v>0.4546</v>
+        <v>0.7572</v>
       </c>
       <c r="AZ183" t="inlineStr">
         <is>
-          <t>A653064</t>
+          <t>A653231</t>
         </is>
       </c>
       <c r="BA183" t="n">
         <v>2</v>
       </c>
       <c r="BB183" t="n">
-        <v>840063203563</v>
+        <v>840063202368</v>
       </c>
       <c r="BC183" t="n">
         <v>10000</v>
       </c>
       <c r="BD183" t="inlineStr">
         <is>
-          <t>S00358847-10000</t>
+          <t>S00359896-10000</t>
         </is>
       </c>
     </row>
@@ -41237,77 +41241,81 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr"/>
+      <c r="D184" t="n">
+        <v>72</v>
+      </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>DC#1008, 19890-92A AVE.</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>LANGLEY</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>V1M 3A9</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>S00358848</t>
+          <t>S00360097</t>
         </is>
       </c>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="n">
-        <v>70832065</v>
+        <v>70838223</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>59103700</t>
+          <t>4001223987</t>
         </is>
       </c>
       <c r="P184" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>8/22/2025 5:35:13 AM</t>
+          <t>8/26/2025 12:07:54 PM</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
-        </is>
-      </c>
-      <c r="T184" t="inlineStr"/>
+          <t xml:space="preserve">8/28/2025 </t>
+        </is>
+      </c>
+      <c r="T184" s="2" t="n">
+        <v>45895</v>
+      </c>
       <c r="U184" s="2" t="n">
-        <v>45901</v>
+        <v>45906</v>
       </c>
       <c r="V184" t="inlineStr">
         <is>
@@ -41315,23 +41323,23 @@
         </is>
       </c>
       <c r="W184" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
       <c r="X184" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
+          <t>TAB5106/37</t>
         </is>
       </c>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>18597408</t>
+          <t>030858488</t>
         </is>
       </c>
       <c r="Z184" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AA184" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AB184" t="inlineStr"/>
       <c r="AC184" t="inlineStr"/>
@@ -41362,7 +41370,7 @@
       </c>
       <c r="AI184" t="inlineStr">
         <is>
-          <t>A653091</t>
+          <t>A653239</t>
         </is>
       </c>
       <c r="AJ184" t="inlineStr">
@@ -41377,17 +41385,17 @@
       </c>
       <c r="AL184" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AM184" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AN184" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
+          <t xml:space="preserve">8/28/2025 </t>
         </is>
       </c>
       <c r="AO184" t="inlineStr">
@@ -41402,7 +41410,7 @@
       </c>
       <c r="AQ184" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
         </is>
       </c>
       <c r="AR184" t="inlineStr"/>
@@ -41417,37 +41425,37 @@
         </is>
       </c>
       <c r="AU184" t="n">
-        <v>6.431683676651111</v>
+        <v>25.7081591919089</v>
       </c>
       <c r="AV184" t="n">
-        <v>6.431683676651111</v>
+        <v>25.7081591919089</v>
       </c>
       <c r="AW184" t="n">
-        <v>72.7526</v>
+        <v>206.04</v>
       </c>
       <c r="AX184" t="n">
-        <v>72.7526</v>
+        <v>206.04</v>
       </c>
       <c r="AY184" t="n">
-        <v>0.1516</v>
+        <v>0.4722</v>
       </c>
       <c r="AZ184" t="inlineStr">
         <is>
-          <t>A653091</t>
+          <t>A653239</t>
         </is>
       </c>
       <c r="BA184" t="n">
         <v>2</v>
       </c>
       <c r="BB184" t="n">
-        <v>840063203563</v>
+        <v>840063202368</v>
       </c>
       <c r="BC184" t="n">
         <v>10000</v>
       </c>
       <c r="BD184" t="inlineStr">
         <is>
-          <t>S00358848-10000</t>
+          <t>S00360097-10000</t>
         </is>
       </c>
     </row>
@@ -41507,16 +41515,16 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>S00359896</t>
+          <t>S00360097</t>
         </is>
       </c>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="n">
-        <v>70838071</v>
+        <v>70838223</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>4001223951</t>
+          <t>4001223987</t>
         </is>
       </c>
       <c r="P185" s="2" t="n">
@@ -41524,7 +41532,7 @@
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>8/26/2025 7:21:39 AM</t>
+          <t>8/26/2025 12:07:54 PM</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -41538,10 +41546,10 @@
         </is>
       </c>
       <c r="T185" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="U185" s="2" t="n">
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="V185" t="inlineStr">
         <is>
@@ -41553,19 +41561,19 @@
       </c>
       <c r="X185" t="inlineStr">
         <is>
-          <t>TAB5106/37</t>
+          <t>TAB5306/37</t>
         </is>
       </c>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>030858488</t>
+          <t>030858847</t>
         </is>
       </c>
       <c r="Z185" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="AA185" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="AB185" t="inlineStr"/>
       <c r="AC185" t="inlineStr"/>
@@ -41596,7 +41604,7 @@
       </c>
       <c r="AI185" t="inlineStr">
         <is>
-          <t>A653231</t>
+          <t>A653239</t>
         </is>
       </c>
       <c r="AJ185" t="inlineStr">
@@ -41636,7 +41644,7 @@
       </c>
       <c r="AQ185" t="inlineStr">
         <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
         </is>
       </c>
       <c r="AR185" t="inlineStr"/>
@@ -41651,37 +41659,37 @@
         </is>
       </c>
       <c r="AU185" t="n">
-        <v>45.36733975042748</v>
+        <v>5.543802608456771</v>
       </c>
       <c r="AV185" t="n">
-        <v>45.36733975042748</v>
+        <v>5.543802608456771</v>
       </c>
       <c r="AW185" t="n">
-        <v>363.6461</v>
+        <v>27.5136</v>
       </c>
       <c r="AX185" t="n">
-        <v>363.6461</v>
+        <v>27.5136</v>
       </c>
       <c r="AY185" t="n">
-        <v>0.7572</v>
+        <v>0.0659</v>
       </c>
       <c r="AZ185" t="inlineStr">
         <is>
-          <t>A653231</t>
+          <t>A653239</t>
         </is>
       </c>
       <c r="BA185" t="n">
         <v>2</v>
       </c>
       <c r="BB185" t="n">
-        <v>840063202368</v>
+        <v>840063202351</v>
       </c>
       <c r="BC185" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD185" t="inlineStr">
         <is>
-          <t>S00359896-10000</t>
+          <t>S00360097-20000</t>
         </is>
       </c>
     </row>
@@ -41721,36 +41729,36 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CALGARY</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>S00360097</t>
+          <t>S00360098</t>
         </is>
       </c>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="n">
-        <v>70838223</v>
+        <v>70838222</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>4001223987</t>
+          <t>3150833548</t>
         </is>
       </c>
       <c r="P186" s="2" t="n">
@@ -41758,7 +41766,7 @@
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:54 PM</t>
+          <t>8/26/2025 12:07:55 PM</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -41775,7 +41783,7 @@
         <v>45895</v>
       </c>
       <c r="U186" s="2" t="n">
-        <v>45906</v>
+        <v>45902</v>
       </c>
       <c r="V186" t="inlineStr">
         <is>
@@ -41796,10 +41804,10 @@
         </is>
       </c>
       <c r="Z186" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AA186" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AB186" t="inlineStr"/>
       <c r="AC186" t="inlineStr"/>
@@ -41830,7 +41838,7 @@
       </c>
       <c r="AI186" t="inlineStr">
         <is>
-          <t>A653239</t>
+          <t>A653232</t>
         </is>
       </c>
       <c r="AJ186" t="inlineStr">
@@ -41885,23 +41893,23 @@
         </is>
       </c>
       <c r="AU186" t="n">
-        <v>25.7081591919089</v>
+        <v>18.90305822934478</v>
       </c>
       <c r="AV186" t="n">
-        <v>25.7081591919089</v>
+        <v>18.90305822934478</v>
       </c>
       <c r="AW186" t="n">
-        <v>206.04</v>
+        <v>151.5</v>
       </c>
       <c r="AX186" t="n">
-        <v>206.04</v>
+        <v>151.5</v>
       </c>
       <c r="AY186" t="n">
-        <v>0.4722</v>
+        <v>0.3473</v>
       </c>
       <c r="AZ186" t="inlineStr">
         <is>
-          <t>A653239</t>
+          <t>A653232</t>
         </is>
       </c>
       <c r="BA186" t="n">
@@ -41915,7 +41923,7 @@
       </c>
       <c r="BD186" t="inlineStr">
         <is>
-          <t>S00360097-10000</t>
+          <t>S00360098-10000</t>
         </is>
       </c>
     </row>
@@ -41955,36 +41963,36 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CALGARY</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>S00360097</t>
+          <t>S00360098</t>
         </is>
       </c>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="n">
-        <v>70838223</v>
+        <v>70838222</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>4001223987</t>
+          <t>3150833548</t>
         </is>
       </c>
       <c r="P187" s="2" t="n">
@@ -41992,7 +42000,7 @@
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:54 PM</t>
+          <t>8/26/2025 12:07:55 PM</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
@@ -42009,7 +42017,7 @@
         <v>45895</v>
       </c>
       <c r="U187" s="2" t="n">
-        <v>45906</v>
+        <v>45902</v>
       </c>
       <c r="V187" t="inlineStr">
         <is>
@@ -42064,7 +42072,7 @@
       </c>
       <c r="AI187" t="inlineStr">
         <is>
-          <t>A653239</t>
+          <t>A653232</t>
         </is>
       </c>
       <c r="AJ187" t="inlineStr">
@@ -42125,17 +42133,17 @@
         <v>5.543802608456771</v>
       </c>
       <c r="AW187" t="n">
-        <v>27.5136</v>
+        <v>27.5137</v>
       </c>
       <c r="AX187" t="n">
-        <v>27.5136</v>
+        <v>27.5137</v>
       </c>
       <c r="AY187" t="n">
-        <v>0.0659</v>
+        <v>0.066</v>
       </c>
       <c r="AZ187" t="inlineStr">
         <is>
-          <t>A653239</t>
+          <t>A653232</t>
         </is>
       </c>
       <c r="BA187" t="n">
@@ -42149,7 +42157,7 @@
       </c>
       <c r="BD187" t="inlineStr">
         <is>
-          <t>S00360097-20000</t>
+          <t>S00360098-20000</t>
         </is>
       </c>
     </row>
@@ -42189,36 +42197,36 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>S00360098</t>
+          <t>S00360099</t>
         </is>
       </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
-        <v>70838222</v>
+        <v>70838224</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>3150833548</t>
+          <t>3850803890</t>
         </is>
       </c>
       <c r="P188" s="2" t="n">
@@ -42226,7 +42234,7 @@
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:55 PM</t>
+          <t>8/26/2025 12:07:56 PM</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -42243,7 +42251,7 @@
         <v>45895</v>
       </c>
       <c r="U188" s="2" t="n">
-        <v>45902</v>
+        <v>45907</v>
       </c>
       <c r="V188" t="inlineStr">
         <is>
@@ -42264,10 +42272,10 @@
         </is>
       </c>
       <c r="Z188" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AA188" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AB188" t="inlineStr"/>
       <c r="AC188" t="inlineStr"/>
@@ -42298,7 +42306,7 @@
       </c>
       <c r="AI188" t="inlineStr">
         <is>
-          <t>A653232</t>
+          <t>A653244</t>
         </is>
       </c>
       <c r="AJ188" t="inlineStr">
@@ -42353,23 +42361,23 @@
         </is>
       </c>
       <c r="AU188" t="n">
-        <v>18.90305822934478</v>
+        <v>12.85407959595445</v>
       </c>
       <c r="AV188" t="n">
-        <v>18.90305822934478</v>
+        <v>12.85407959595445</v>
       </c>
       <c r="AW188" t="n">
-        <v>151.5</v>
+        <v>103.0336</v>
       </c>
       <c r="AX188" t="n">
-        <v>151.5</v>
+        <v>103.0336</v>
       </c>
       <c r="AY188" t="n">
-        <v>0.3473</v>
+        <v>0.2137</v>
       </c>
       <c r="AZ188" t="inlineStr">
         <is>
-          <t>A653232</t>
+          <t>A653244</t>
         </is>
       </c>
       <c r="BA188" t="n">
@@ -42383,7 +42391,7 @@
       </c>
       <c r="BD188" t="inlineStr">
         <is>
-          <t>S00360098-10000</t>
+          <t>S00360099-10000</t>
         </is>
       </c>
     </row>
@@ -42423,36 +42431,36 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>S00360098</t>
+          <t>S00360099</t>
         </is>
       </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="n">
-        <v>70838222</v>
+        <v>70838224</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>3150833548</t>
+          <t>3850803890</t>
         </is>
       </c>
       <c r="P189" s="2" t="n">
@@ -42460,7 +42468,7 @@
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:55 PM</t>
+          <t>8/26/2025 12:07:56 PM</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -42477,7 +42485,7 @@
         <v>45895</v>
       </c>
       <c r="U189" s="2" t="n">
-        <v>45902</v>
+        <v>45907</v>
       </c>
       <c r="V189" t="inlineStr">
         <is>
@@ -42498,10 +42506,10 @@
         </is>
       </c>
       <c r="Z189" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA189" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB189" t="inlineStr"/>
       <c r="AC189" t="inlineStr"/>
@@ -42532,7 +42540,7 @@
       </c>
       <c r="AI189" t="inlineStr">
         <is>
-          <t>A653232</t>
+          <t>A653244</t>
         </is>
       </c>
       <c r="AJ189" t="inlineStr">
@@ -42587,23 +42595,23 @@
         </is>
       </c>
       <c r="AU189" t="n">
-        <v>5.543802608456771</v>
+        <v>11.08760521691354</v>
       </c>
       <c r="AV189" t="n">
-        <v>5.543802608456771</v>
+        <v>11.08760521691354</v>
       </c>
       <c r="AW189" t="n">
-        <v>27.5137</v>
+        <v>55</v>
       </c>
       <c r="AX189" t="n">
-        <v>27.5137</v>
+        <v>55</v>
       </c>
       <c r="AY189" t="n">
-        <v>0.066</v>
+        <v>0.1429</v>
       </c>
       <c r="AZ189" t="inlineStr">
         <is>
-          <t>A653232</t>
+          <t>A653244</t>
         </is>
       </c>
       <c r="BA189" t="n">
@@ -42617,7 +42625,7 @@
       </c>
       <c r="BD189" t="inlineStr">
         <is>
-          <t>S00360098-20000</t>
+          <t>S00360099-20000</t>
         </is>
       </c>
     </row>
@@ -42637,32 +42645,30 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D190" t="n">
-        <v>72</v>
-      </c>
+      <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -42672,46 +42678,42 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>L6S 6G6</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>S00360099</t>
+          <t>S00358847</t>
         </is>
       </c>
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="n">
-        <v>70838224</v>
-      </c>
-      <c r="O190" t="inlineStr">
-        <is>
-          <t>3850803890</t>
-        </is>
+        <v>70832067</v>
+      </c>
+      <c r="O190" t="n">
+        <v>59103701</v>
       </c>
       <c r="P190" s="2" t="n">
-        <v>45895</v>
+        <v>45891</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:56 PM</t>
+          <t>8/22/2025 5:35:12 AM</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T190" s="2" t="n">
-        <v>45895</v>
-      </c>
+          <t xml:space="preserve">8/29/2025 </t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr"/>
       <c r="U190" s="2" t="n">
-        <v>45907</v>
+        <v>45901</v>
       </c>
       <c r="V190" t="inlineStr">
         <is>
@@ -42719,23 +42721,21 @@
         </is>
       </c>
       <c r="W190" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="X190" t="inlineStr">
         <is>
-          <t>TAB5106/37</t>
-        </is>
-      </c>
-      <c r="Y190" t="inlineStr">
-        <is>
-          <t>030858488</t>
-        </is>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y190" t="n">
+        <v>18597408</v>
       </c>
       <c r="Z190" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AA190" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AB190" t="inlineStr"/>
       <c r="AC190" t="inlineStr"/>
@@ -42766,7 +42766,7 @@
       </c>
       <c r="AI190" t="inlineStr">
         <is>
-          <t>A653244</t>
+          <t>A653064</t>
         </is>
       </c>
       <c r="AJ190" t="inlineStr">
@@ -42781,17 +42781,17 @@
       </c>
       <c r="AL190" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="AM190" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="AN190" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">8/29/2025 </t>
         </is>
       </c>
       <c r="AO190" t="inlineStr">
@@ -42806,7 +42806,7 @@
       </c>
       <c r="AQ190" t="inlineStr">
         <is>
-          <t>2.0CH 30W soundbar speaker, BT, Optical,</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR190" t="inlineStr"/>
@@ -42821,37 +42821,37 @@
         </is>
       </c>
       <c r="AU190" t="n">
-        <v>12.85407959595445</v>
+        <v>19.29505102995333</v>
       </c>
       <c r="AV190" t="n">
-        <v>12.85407959595445</v>
+        <v>19.29505102995333</v>
       </c>
       <c r="AW190" t="n">
-        <v>103.0336</v>
+        <v>218.2576</v>
       </c>
       <c r="AX190" t="n">
-        <v>103.0336</v>
+        <v>218.2576</v>
       </c>
       <c r="AY190" t="n">
-        <v>0.2137</v>
+        <v>0.4546</v>
       </c>
       <c r="AZ190" t="inlineStr">
         <is>
-          <t>A653244</t>
+          <t>A653064</t>
         </is>
       </c>
       <c r="BA190" t="n">
         <v>2</v>
       </c>
       <c r="BB190" t="n">
-        <v>840063202368</v>
+        <v>840063203563</v>
       </c>
       <c r="BC190" t="n">
         <v>10000</v>
       </c>
       <c r="BD190" t="inlineStr">
         <is>
-          <t>S00360099-10000</t>
+          <t>S00358847-10000</t>
         </is>
       </c>
     </row>
@@ -42871,81 +42871,75 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D191" t="n">
-        <v>72</v>
-      </c>
+      <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>DC#1008, 19890-92A AVE.</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>LANGLEY</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>V1M 3A9</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>S00360099</t>
+          <t>S00358848</t>
         </is>
       </c>
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="n">
-        <v>70838224</v>
-      </c>
-      <c r="O191" t="inlineStr">
-        <is>
-          <t>3850803890</t>
-        </is>
+        <v>70832065</v>
+      </c>
+      <c r="O191" t="n">
+        <v>59103700</v>
       </c>
       <c r="P191" s="2" t="n">
-        <v>45895</v>
+        <v>45891</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>8/26/2025 12:07:56 PM</t>
+          <t>8/22/2025 5:35:13 AM</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
-        </is>
-      </c>
-      <c r="T191" s="2" t="n">
-        <v>45895</v>
-      </c>
+          <t xml:space="preserve">9/5/2025 </t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr"/>
       <c r="U191" s="2" t="n">
-        <v>45907</v>
+        <v>45901</v>
       </c>
       <c r="V191" t="inlineStr">
         <is>
@@ -42953,23 +42947,21 @@
         </is>
       </c>
       <c r="W191" s="2" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="X191" t="inlineStr">
         <is>
-          <t>TAB5306/37</t>
-        </is>
-      </c>
-      <c r="Y191" t="inlineStr">
-        <is>
-          <t>030858847</t>
-        </is>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y191" t="n">
+        <v>18597408</v>
       </c>
       <c r="Z191" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AA191" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AB191" t="inlineStr"/>
       <c r="AC191" t="inlineStr"/>
@@ -43000,7 +42992,7 @@
       </c>
       <c r="AI191" t="inlineStr">
         <is>
-          <t>A653244</t>
+          <t>A653091</t>
         </is>
       </c>
       <c r="AJ191" t="inlineStr">
@@ -43015,17 +43007,17 @@
       </c>
       <c r="AL191" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="AM191" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="AN191" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="AO191" t="inlineStr">
@@ -43040,7 +43032,7 @@
       </c>
       <c r="AQ191" t="inlineStr">
         <is>
-          <t>2.1CH 70W, wireless subwoofer soundbar,</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR191" t="inlineStr"/>
@@ -43055,37 +43047,37 @@
         </is>
       </c>
       <c r="AU191" t="n">
-        <v>11.08760521691354</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AV191" t="n">
-        <v>11.08760521691354</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AW191" t="n">
-        <v>55</v>
+        <v>72.7526</v>
       </c>
       <c r="AX191" t="n">
-        <v>55</v>
+        <v>72.7526</v>
       </c>
       <c r="AY191" t="n">
-        <v>0.1429</v>
+        <v>0.1516</v>
       </c>
       <c r="AZ191" t="inlineStr">
         <is>
-          <t>A653244</t>
+          <t>A653091</t>
         </is>
       </c>
       <c r="BA191" t="n">
         <v>2</v>
       </c>
       <c r="BB191" t="n">
-        <v>840063202351</v>
+        <v>840063203563</v>
       </c>
       <c r="BC191" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD191" t="inlineStr">
         <is>
-          <t>S00360099-20000</t>
+          <t>S00358848-10000</t>
         </is>
       </c>
     </row>
@@ -43144,10 +43136,8 @@
       </c>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr">
-        <is>
-          <t>08272025</t>
-        </is>
+      <c r="O192" t="n">
+        <v>8272025</v>
       </c>
       <c r="P192" s="2" t="n">
         <v>45896</v>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD192"/>
+  <dimension ref="A1:BD193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43285,6 +43285,228 @@
         </is>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>BEST BUY CANADA LTD</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>BES005</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>BEST BUY CANADA LTD</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>L6S 6G6</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>S00361736</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>70852845</v>
+      </c>
+      <c r="O193" t="n">
+        <v>59157142</v>
+      </c>
+      <c r="P193" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>9/2/2025 11:49:54 AM</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/12/2025 </t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/12/2025 </t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W193" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y193" t="n">
+        <v>18597408</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB193" t="inlineStr"/>
+      <c r="AC193" t="inlineStr"/>
+      <c r="AD193" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE193" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF193" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG193" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH193" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A654244 </t>
+        </is>
+      </c>
+      <c r="AJ193" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK193" t="inlineStr"/>
+      <c r="AL193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/12/2025 </t>
+        </is>
+      </c>
+      <c r="AM193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/12/2025 </t>
+        </is>
+      </c>
+      <c r="AN193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/12/2025 </t>
+        </is>
+      </c>
+      <c r="AO193" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP193" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ193" t="inlineStr">
+        <is>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+        </is>
+      </c>
+      <c r="AR193" t="inlineStr"/>
+      <c r="AS193" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT193" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU193" t="n">
+        <v>12.86336735330222</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>12.86336735330222</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>145.5051</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>145.5051</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="AZ193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A654244 </t>
+        </is>
+      </c>
+      <c r="BA193" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>840063203563</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD193" t="inlineStr">
+        <is>
+          <t>S00361736-10000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -43247,7 +43247,7 @@
       <c r="AS192" t="inlineStr"/>
       <c r="AT192" t="inlineStr">
         <is>
-          <t>EACH</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="AU192" t="n">

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD193"/>
+  <dimension ref="A1:BD197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43507,6 +43507,910 @@
         </is>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>72</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>S00364307</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>70863735</v>
+      </c>
+      <c r="O194" t="n">
+        <v>6600680007</v>
+      </c>
+      <c r="P194" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>9/10/2025 2:23:55 PM</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" s="2" t="n">
+        <v>45921</v>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W194" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="X194" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y194" t="n">
+        <v>50914401</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB194" t="inlineStr"/>
+      <c r="AC194" t="inlineStr"/>
+      <c r="AD194" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE194" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF194" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG194" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH194" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI194" t="inlineStr">
+        <is>
+          <t>A654833</t>
+        </is>
+      </c>
+      <c r="AJ194" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK194" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="AM194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="AN194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="AO194" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP194" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ194" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR194" t="inlineStr"/>
+      <c r="AS194" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT194" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU194" t="n">
+        <v>140.9093858333333</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>140.9093858333333</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>661.2</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>661.2</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ194" t="inlineStr">
+        <is>
+          <t>A654833</t>
+        </is>
+      </c>
+      <c r="BA194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD194" t="inlineStr">
+        <is>
+          <t>S00364307-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>72</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>S00364307</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>70863735</v>
+      </c>
+      <c r="O195" t="n">
+        <v>6600680007</v>
+      </c>
+      <c r="P195" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>9/10/2025 2:23:55 PM</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" s="2" t="n">
+        <v>45921</v>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W195" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y195" t="n">
+        <v>50914402</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB195" t="inlineStr"/>
+      <c r="AC195" t="inlineStr"/>
+      <c r="AD195" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE195" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF195" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG195" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH195" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI195" t="inlineStr">
+        <is>
+          <t>A654833</t>
+        </is>
+      </c>
+      <c r="AJ195" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK195" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="AM195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="AN195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="AO195" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP195" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ195" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR195" t="inlineStr"/>
+      <c r="AS195" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT195" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU195" t="n">
+        <v>70.9205</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>70.9205</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>595.2</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>595.2</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AZ195" t="inlineStr">
+        <is>
+          <t>A654833</t>
+        </is>
+      </c>
+      <c r="BA195" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD195" t="inlineStr">
+        <is>
+          <t>S00364307-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>72</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Calgary</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>S00364308</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>70863736</v>
+      </c>
+      <c r="O196" t="n">
+        <v>7400960004</v>
+      </c>
+      <c r="P196" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>9/10/2025 2:23:57 PM</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W196" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="X196" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y196" t="n">
+        <v>50914401</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB196" t="inlineStr"/>
+      <c r="AC196" t="inlineStr"/>
+      <c r="AD196" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE196" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF196" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG196" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH196" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI196" t="inlineStr">
+        <is>
+          <t>A654856</t>
+        </is>
+      </c>
+      <c r="AJ196" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK196" t="inlineStr"/>
+      <c r="AL196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="AM196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="AN196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="AO196" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP196" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ196" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR196" t="inlineStr"/>
+      <c r="AS196" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT196" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU196" t="n">
+        <v>187.8791811111111</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>187.8791811111111</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>881.6</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>881.6</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ196" t="inlineStr">
+        <is>
+          <t>A654856</t>
+        </is>
+      </c>
+      <c r="BA196" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD196" t="inlineStr">
+        <is>
+          <t>S00364308-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>72</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Calgary</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>S00364308</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>70863736</v>
+      </c>
+      <c r="O197" t="n">
+        <v>7400960004</v>
+      </c>
+      <c r="P197" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>9/10/2025 2:23:57 PM</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W197" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y197" t="n">
+        <v>50914402</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>114</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>114</v>
+      </c>
+      <c r="AB197" t="inlineStr"/>
+      <c r="AC197" t="inlineStr"/>
+      <c r="AD197" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE197" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF197" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG197" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH197" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI197" t="inlineStr">
+        <is>
+          <t>A654856</t>
+        </is>
+      </c>
+      <c r="AJ197" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK197" t="inlineStr"/>
+      <c r="AL197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="AM197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="AN197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="AO197" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP197" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ197" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR197" t="inlineStr"/>
+      <c r="AS197" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT197" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU197" t="n">
+        <v>67.374475</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>67.374475</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>565.4400000000001</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>565.4400000000001</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="AZ197" t="inlineStr">
+        <is>
+          <t>A654856</t>
+        </is>
+      </c>
+      <c r="BA197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD197" t="inlineStr">
+        <is>
+          <t>S00364308-20000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD197"/>
+  <dimension ref="A1:BD199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43543,12 +43543,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -43558,42 +43558,42 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>S00364307</t>
+          <t>S00364306</t>
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="n">
-        <v>70863735</v>
+        <v>70863737</v>
       </c>
       <c r="O194" t="n">
-        <v>6600680007</v>
+        <v>1950680012</v>
       </c>
       <c r="P194" s="2" t="n">
         <v>45910</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:55 PM</t>
+          <t>9/10/2025 2:23:54 PM</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="T194" t="inlineStr"/>
       <c r="U194" s="2" t="n">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="V194" t="inlineStr">
         <is>
@@ -43601,7 +43601,7 @@
         </is>
       </c>
       <c r="W194" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="X194" t="inlineStr">
         <is>
@@ -43612,10 +43612,10 @@
         <v>50914401</v>
       </c>
       <c r="Z194" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AA194" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AB194" t="inlineStr"/>
       <c r="AC194" t="inlineStr"/>
@@ -43646,7 +43646,7 @@
       </c>
       <c r="AI194" t="inlineStr">
         <is>
-          <t>A654833</t>
+          <t>A654835</t>
         </is>
       </c>
       <c r="AJ194" t="inlineStr">
@@ -43661,17 +43661,17 @@
       </c>
       <c r="AL194" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AM194" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AN194" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AO194" t="inlineStr">
@@ -43701,23 +43701,23 @@
         </is>
       </c>
       <c r="AU194" t="n">
-        <v>140.9093858333333</v>
+        <v>103.3335496111111</v>
       </c>
       <c r="AV194" t="n">
-        <v>140.9093858333333</v>
+        <v>103.3335496111111</v>
       </c>
       <c r="AW194" t="n">
-        <v>661.2</v>
+        <v>484.88</v>
       </c>
       <c r="AX194" t="n">
-        <v>661.2</v>
+        <v>484.88</v>
       </c>
       <c r="AY194" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AZ194" t="inlineStr">
         <is>
-          <t>A654833</t>
+          <t>A654835</t>
         </is>
       </c>
       <c r="BA194" t="n">
@@ -43731,7 +43731,7 @@
       </c>
       <c r="BD194" t="inlineStr">
         <is>
-          <t>S00364307-10000</t>
+          <t>S00364306-10000</t>
         </is>
       </c>
     </row>
@@ -43771,12 +43771,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -43786,42 +43786,42 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>S00364307</t>
+          <t>S00364306</t>
         </is>
       </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
-        <v>70863735</v>
+        <v>70863737</v>
       </c>
       <c r="O195" t="n">
-        <v>6600680007</v>
+        <v>1950680012</v>
       </c>
       <c r="P195" s="2" t="n">
         <v>45910</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:55 PM</t>
+          <t>9/10/2025 2:23:54 PM</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="T195" t="inlineStr"/>
       <c r="U195" s="2" t="n">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="V195" t="inlineStr">
         <is>
@@ -43829,7 +43829,7 @@
         </is>
       </c>
       <c r="W195" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="X195" t="inlineStr">
         <is>
@@ -43840,10 +43840,10 @@
         <v>50914402</v>
       </c>
       <c r="Z195" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AA195" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AB195" t="inlineStr"/>
       <c r="AC195" t="inlineStr"/>
@@ -43874,7 +43874,7 @@
       </c>
       <c r="AI195" t="inlineStr">
         <is>
-          <t>A654833</t>
+          <t>A654835</t>
         </is>
       </c>
       <c r="AJ195" t="inlineStr">
@@ -43889,17 +43889,17 @@
       </c>
       <c r="AL195" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AM195" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AN195" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AO195" t="inlineStr">
@@ -43929,23 +43929,23 @@
         </is>
       </c>
       <c r="AU195" t="n">
-        <v>70.9205</v>
+        <v>53.190375</v>
       </c>
       <c r="AV195" t="n">
-        <v>70.9205</v>
+        <v>53.190375</v>
       </c>
       <c r="AW195" t="n">
-        <v>595.2</v>
+        <v>446.4</v>
       </c>
       <c r="AX195" t="n">
-        <v>595.2</v>
+        <v>446.4</v>
       </c>
       <c r="AY195" t="n">
-        <v>1.25</v>
+        <v>0.9375</v>
       </c>
       <c r="AZ195" t="inlineStr">
         <is>
-          <t>A654833</t>
+          <t>A654835</t>
         </is>
       </c>
       <c r="BA195" t="n">
@@ -43959,7 +43959,7 @@
       </c>
       <c r="BD195" t="inlineStr">
         <is>
-          <t>S00364307-20000</t>
+          <t>S00364306-20000</t>
         </is>
       </c>
     </row>
@@ -43999,42 +43999,42 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>S00364308</t>
+          <t>S00364307</t>
         </is>
       </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="n">
-        <v>70863736</v>
+        <v>70863735</v>
       </c>
       <c r="O196" t="n">
-        <v>7400960004</v>
+        <v>6600680007</v>
       </c>
       <c r="P196" s="2" t="n">
         <v>45910</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:57 PM</t>
+          <t>9/10/2025 2:23:55 PM</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
@@ -44049,7 +44049,7 @@
       </c>
       <c r="T196" t="inlineStr"/>
       <c r="U196" s="2" t="n">
-        <v>45917</v>
+        <v>45921</v>
       </c>
       <c r="V196" t="inlineStr">
         <is>
@@ -44068,10 +44068,10 @@
         <v>50914401</v>
       </c>
       <c r="Z196" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AA196" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AB196" t="inlineStr"/>
       <c r="AC196" t="inlineStr"/>
@@ -44102,15 +44102,19 @@
       </c>
       <c r="AI196" t="inlineStr">
         <is>
-          <t>A654856</t>
+          <t>A654833</t>
         </is>
       </c>
       <c r="AJ196" t="inlineStr">
         <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK196" t="inlineStr"/>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK196" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
       <c r="AL196" t="inlineStr">
         <is>
           <t xml:space="preserve">9/16/2025 </t>
@@ -44153,23 +44157,23 @@
         </is>
       </c>
       <c r="AU196" t="n">
-        <v>187.8791811111111</v>
+        <v>140.9093858333333</v>
       </c>
       <c r="AV196" t="n">
-        <v>187.8791811111111</v>
+        <v>140.9093858333333</v>
       </c>
       <c r="AW196" t="n">
-        <v>881.6</v>
+        <v>661.2</v>
       </c>
       <c r="AX196" t="n">
-        <v>881.6</v>
+        <v>661.2</v>
       </c>
       <c r="AY196" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ196" t="inlineStr">
         <is>
-          <t>A654856</t>
+          <t>A654833</t>
         </is>
       </c>
       <c r="BA196" t="n">
@@ -44183,7 +44187,7 @@
       </c>
       <c r="BD196" t="inlineStr">
         <is>
-          <t>S00364308-10000</t>
+          <t>S00364307-10000</t>
         </is>
       </c>
     </row>
@@ -44223,42 +44227,42 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>S00364308</t>
+          <t>S00364307</t>
         </is>
       </c>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="n">
-        <v>70863736</v>
+        <v>70863735</v>
       </c>
       <c r="O197" t="n">
-        <v>7400960004</v>
+        <v>6600680007</v>
       </c>
       <c r="P197" s="2" t="n">
         <v>45910</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:57 PM</t>
+          <t>9/10/2025 2:23:55 PM</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -44273,7 +44277,7 @@
       </c>
       <c r="T197" t="inlineStr"/>
       <c r="U197" s="2" t="n">
-        <v>45917</v>
+        <v>45921</v>
       </c>
       <c r="V197" t="inlineStr">
         <is>
@@ -44292,10 +44296,10 @@
         <v>50914402</v>
       </c>
       <c r="Z197" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AA197" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AB197" t="inlineStr"/>
       <c r="AC197" t="inlineStr"/>
@@ -44326,15 +44330,19 @@
       </c>
       <c r="AI197" t="inlineStr">
         <is>
-          <t>A654856</t>
+          <t>A654833</t>
         </is>
       </c>
       <c r="AJ197" t="inlineStr">
         <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK197" t="inlineStr"/>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK197" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
       <c r="AL197" t="inlineStr">
         <is>
           <t xml:space="preserve">9/16/2025 </t>
@@ -44377,23 +44385,23 @@
         </is>
       </c>
       <c r="AU197" t="n">
-        <v>67.374475</v>
+        <v>70.9205</v>
       </c>
       <c r="AV197" t="n">
-        <v>67.374475</v>
+        <v>70.9205</v>
       </c>
       <c r="AW197" t="n">
-        <v>565.4400000000001</v>
+        <v>595.2</v>
       </c>
       <c r="AX197" t="n">
-        <v>565.4400000000001</v>
+        <v>595.2</v>
       </c>
       <c r="AY197" t="n">
-        <v>1.1875</v>
+        <v>1.25</v>
       </c>
       <c r="AZ197" t="inlineStr">
         <is>
-          <t>A654856</t>
+          <t>A654833</t>
         </is>
       </c>
       <c r="BA197" t="n">
@@ -44406,6 +44414,454 @@
         <v>20000</v>
       </c>
       <c r="BD197" t="inlineStr">
+        <is>
+          <t>S00364307-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>72</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Calgary</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>S00364308</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
+        <v>70863736</v>
+      </c>
+      <c r="O198" t="n">
+        <v>7400960004</v>
+      </c>
+      <c r="P198" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>9/10/2025 2:23:57 PM</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W198" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="X198" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y198" t="n">
+        <v>50914401</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB198" t="inlineStr"/>
+      <c r="AC198" t="inlineStr"/>
+      <c r="AD198" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE198" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF198" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG198" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH198" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI198" t="inlineStr">
+        <is>
+          <t>A654856</t>
+        </is>
+      </c>
+      <c r="AJ198" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK198" t="inlineStr"/>
+      <c r="AL198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="AM198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="AN198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="AO198" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP198" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ198" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR198" t="inlineStr"/>
+      <c r="AS198" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT198" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU198" t="n">
+        <v>187.8791811111111</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>187.8791811111111</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>881.6</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>881.6</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ198" t="inlineStr">
+        <is>
+          <t>A654856</t>
+        </is>
+      </c>
+      <c r="BA198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD198" t="inlineStr">
+        <is>
+          <t>S00364308-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>72</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Calgary</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>S00364308</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>70863736</v>
+      </c>
+      <c r="O199" t="n">
+        <v>7400960004</v>
+      </c>
+      <c r="P199" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>9/10/2025 2:23:57 PM</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr"/>
+      <c r="U199" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W199" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="X199" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y199" t="n">
+        <v>50914402</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>114</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>114</v>
+      </c>
+      <c r="AB199" t="inlineStr"/>
+      <c r="AC199" t="inlineStr"/>
+      <c r="AD199" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE199" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF199" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG199" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH199" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI199" t="inlineStr">
+        <is>
+          <t>A654856</t>
+        </is>
+      </c>
+      <c r="AJ199" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK199" t="inlineStr"/>
+      <c r="AL199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="AM199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="AN199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/16/2025 </t>
+        </is>
+      </c>
+      <c r="AO199" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP199" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ199" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR199" t="inlineStr"/>
+      <c r="AS199" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT199" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU199" t="n">
+        <v>67.374475</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>67.374475</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>565.4400000000001</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>565.4400000000001</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="AZ199" t="inlineStr">
+        <is>
+          <t>A654856</t>
+        </is>
+      </c>
+      <c r="BA199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD199" t="inlineStr">
         <is>
           <t>S00364308-20000</t>
         </is>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD199"/>
+  <dimension ref="A1:BD205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42874,150 +42874,132 @@
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>BES005</t>
-        </is>
-      </c>
+          <t>Unis Warehouse</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>Unis Warehouse</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>DC#1008, 19890-92A AVE.</t>
+          <t>6800 Valley View St</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>LANGLEY</t>
+          <t>Buena Park</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>V1M 3A9</t>
+          <t>90620</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>S00358848</t>
+          <t>S00360479</t>
         </is>
       </c>
       <c r="M191" t="inlineStr"/>
-      <c r="N191" t="n">
-        <v>70832065</v>
-      </c>
+      <c r="N191" t="inlineStr"/>
       <c r="O191" t="n">
-        <v>59103700</v>
+        <v>8272025</v>
       </c>
       <c r="P191" s="2" t="n">
-        <v>45891</v>
+        <v>45896</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>8/22/2025 5:35:13 AM</t>
+          <t>8/27/2025 2:21:13 PM</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="T191" t="inlineStr"/>
-      <c r="U191" s="2" t="n">
-        <v>45901</v>
-      </c>
+      <c r="U191" t="inlineStr"/>
       <c r="V191" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W191" s="2" t="n">
-        <v>45905</v>
+        <v>45904</v>
       </c>
       <c r="X191" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
-        </is>
-      </c>
-      <c r="Y191" t="n">
-        <v>18597408</v>
-      </c>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y191" t="inlineStr"/>
       <c r="Z191" t="n">
-        <v>10</v>
+        <v>650</v>
       </c>
       <c r="AA191" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB191" t="inlineStr"/>
       <c r="AC191" t="inlineStr"/>
       <c r="AD191" t="inlineStr">
         <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="AE191" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="AE191" t="inlineStr"/>
       <c r="AF191" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Primary Freight Services Inc</t>
         </is>
       </c>
       <c r="AG191" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AH191" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Primary Freight Services Inc</t>
         </is>
       </c>
       <c r="AI191" t="inlineStr">
         <is>
-          <t>A653091</t>
+          <t>08272025</t>
         </is>
       </c>
       <c r="AJ191" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK191" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK191" t="inlineStr"/>
       <c r="AL191" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="AM191" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="AN191" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5/2025 </t>
+          <t xml:space="preserve">9/4/2025 </t>
         </is>
       </c>
       <c r="AO191" t="inlineStr">
@@ -43027,57 +43009,53 @@
       </c>
       <c r="AP191" t="inlineStr">
         <is>
-          <t>EDI</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="AQ191" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>Soundbar</t>
         </is>
       </c>
       <c r="AR191" t="inlineStr"/>
-      <c r="AS191" t="inlineStr">
-        <is>
-          <t>TPV-AVA</t>
-        </is>
-      </c>
+      <c r="AS191" t="inlineStr"/>
       <c r="AT191" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
       <c r="AU191" t="n">
-        <v>6.431683676651111</v>
+        <v>384.1527083333334</v>
       </c>
       <c r="AV191" t="n">
-        <v>6.431683676651111</v>
+        <v>384.1527083333334</v>
       </c>
       <c r="AW191" t="n">
-        <v>72.7526</v>
+        <v>0</v>
       </c>
       <c r="AX191" t="n">
-        <v>72.7526</v>
+        <v>0</v>
       </c>
       <c r="AY191" t="n">
-        <v>0.1516</v>
+        <v>6.7708</v>
       </c>
       <c r="AZ191" t="inlineStr">
         <is>
-          <t>A653091</t>
+          <t>08272025</t>
         </is>
       </c>
       <c r="BA191" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB191" t="n">
-        <v>840063203563</v>
+        <v>840063204546</v>
       </c>
       <c r="BC191" t="n">
         <v>10000</v>
       </c>
       <c r="BD191" t="inlineStr">
         <is>
-          <t>S00358848-10000</t>
+          <t>S00360479-10000</t>
         </is>
       </c>
     </row>
@@ -43100,132 +43078,150 @@
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Unis Warehouse</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr"/>
+          <t>BEST BUY CANADA LTD</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>BES005</t>
+        </is>
+      </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Unis Warehouse</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>6800 Valley View St</t>
+          <t>DC#1008, 19890-92A AVE.</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Buena Park</t>
+          <t>LANGLEY</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>90620</t>
+          <t>V1M 3A9</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>S00360479</t>
+          <t>S00358848</t>
         </is>
       </c>
       <c r="M192" t="inlineStr"/>
-      <c r="N192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>70832065</v>
+      </c>
       <c r="O192" t="n">
-        <v>8272025</v>
+        <v>59103700</v>
       </c>
       <c r="P192" s="2" t="n">
-        <v>45896</v>
+        <v>45891</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>8/27/2025 2:21:13 PM</t>
+          <t>8/22/2025 5:35:13 AM</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="T192" t="inlineStr"/>
-      <c r="U192" t="inlineStr"/>
+      <c r="U192" s="2" t="n">
+        <v>45901</v>
+      </c>
       <c r="V192" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W192" s="2" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="X192" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
-        </is>
-      </c>
-      <c r="Y192" t="inlineStr"/>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y192" t="n">
+        <v>18597408</v>
+      </c>
       <c r="Z192" t="n">
-        <v>650</v>
+        <v>10</v>
       </c>
       <c r="AA192" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB192" t="inlineStr"/>
       <c r="AC192" t="inlineStr"/>
       <c r="AD192" t="inlineStr">
         <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="AE192" t="inlineStr"/>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE192" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AF192" t="inlineStr">
         <is>
-          <t>Primary Freight Services Inc</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AG192" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>18W</t>
         </is>
       </c>
       <c r="AH192" t="inlineStr">
         <is>
-          <t>Primary Freight Services Inc</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AI192" t="inlineStr">
         <is>
-          <t>08272025</t>
+          <t>A653091</t>
         </is>
       </c>
       <c r="AJ192" t="inlineStr">
         <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK192" t="inlineStr"/>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK192" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
       <c r="AL192" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="AM192" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="AN192" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4/2025 </t>
+          <t xml:space="preserve">9/5/2025 </t>
         </is>
       </c>
       <c r="AO192" t="inlineStr">
@@ -43235,53 +43231,57 @@
       </c>
       <c r="AP192" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>EDI</t>
         </is>
       </c>
       <c r="AQ192" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR192" t="inlineStr"/>
-      <c r="AS192" t="inlineStr"/>
+      <c r="AS192" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
       <c r="AT192" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
       <c r="AU192" t="n">
-        <v>384.1527083333334</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AV192" t="n">
-        <v>384.1527083333334</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AW192" t="n">
-        <v>0</v>
+        <v>72.7526</v>
       </c>
       <c r="AX192" t="n">
-        <v>0</v>
+        <v>72.7526</v>
       </c>
       <c r="AY192" t="n">
-        <v>6.7708</v>
+        <v>0.1516</v>
       </c>
       <c r="AZ192" t="inlineStr">
         <is>
-          <t>08272025</t>
+          <t>A653091</t>
         </is>
       </c>
       <c r="BA192" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB192" t="n">
-        <v>840063204546</v>
+        <v>840063203563</v>
       </c>
       <c r="BC192" t="n">
         <v>10000</v>
       </c>
       <c r="BD192" t="inlineStr">
         <is>
-          <t>S00360479-10000</t>
+          <t>S00358848-10000</t>
         </is>
       </c>
     </row>
@@ -44864,6 +44864,1374 @@
       <c r="BD199" t="inlineStr">
         <is>
           <t>S00364308-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>72</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>S00365494</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>70870422</v>
+      </c>
+      <c r="O200" t="n">
+        <v>8950800525</v>
+      </c>
+      <c r="P200" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>9/15/2025 9:24:42 AM</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:37:53 PM</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:37:53 PM</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr"/>
+      <c r="U200" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W200" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="X200" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y200" t="n">
+        <v>50914401</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>92</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>92</v>
+      </c>
+      <c r="AB200" t="inlineStr"/>
+      <c r="AC200" t="inlineStr"/>
+      <c r="AD200" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE200" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF200" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG200" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH200" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI200" t="inlineStr">
+        <is>
+          <t>A655231</t>
+        </is>
+      </c>
+      <c r="AJ200" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK200" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/19/2025 </t>
+        </is>
+      </c>
+      <c r="AM200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/19/2025 </t>
+        </is>
+      </c>
+      <c r="AN200" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:37:53 PM</t>
+        </is>
+      </c>
+      <c r="AO200" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP200" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ200" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR200" t="inlineStr"/>
+      <c r="AS200" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT200" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU200" t="n">
+        <v>216.0610582777778</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>216.0610582777778</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>1013.84</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1013.84</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AZ200" t="inlineStr">
+        <is>
+          <t>A655231</t>
+        </is>
+      </c>
+      <c r="BA200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD200" t="inlineStr">
+        <is>
+          <t>S00365494-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>72</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>S00365494</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>70870422</v>
+      </c>
+      <c r="O201" t="n">
+        <v>8950800525</v>
+      </c>
+      <c r="P201" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>9/15/2025 9:24:42 AM</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:37:53 PM</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:37:53 PM</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr"/>
+      <c r="U201" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W201" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="X201" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y201" t="n">
+        <v>50914402</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>57</v>
+      </c>
+      <c r="AB201" t="inlineStr"/>
+      <c r="AC201" t="inlineStr"/>
+      <c r="AD201" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE201" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF201" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG201" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH201" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI201" t="inlineStr">
+        <is>
+          <t>A655231</t>
+        </is>
+      </c>
+      <c r="AJ201" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK201" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/19/2025 </t>
+        </is>
+      </c>
+      <c r="AM201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/19/2025 </t>
+        </is>
+      </c>
+      <c r="AN201" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:37:53 PM</t>
+        </is>
+      </c>
+      <c r="AO201" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP201" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ201" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR201" t="inlineStr"/>
+      <c r="AS201" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT201" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU201" t="n">
+        <v>33.6872375</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>33.6872375</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>282.72</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>282.72</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>0.6794</v>
+      </c>
+      <c r="AZ201" t="inlineStr">
+        <is>
+          <t>A655231</t>
+        </is>
+      </c>
+      <c r="BA201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD201" t="inlineStr">
+        <is>
+          <t>S00365494-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>72</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>S00365495</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>70870420</v>
+      </c>
+      <c r="O202" t="n">
+        <v>8900800534</v>
+      </c>
+      <c r="P202" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>9/15/2025 9:24:44 AM</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:39:28 PM</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:39:28 PM</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr"/>
+      <c r="U202" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W202" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="X202" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y202" t="n">
+        <v>50914401</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>84</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>84</v>
+      </c>
+      <c r="AB202" t="inlineStr"/>
+      <c r="AC202" t="inlineStr"/>
+      <c r="AD202" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE202" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF202" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG202" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH202" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI202" t="inlineStr">
+        <is>
+          <t>A655230</t>
+        </is>
+      </c>
+      <c r="AJ202" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK202" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/19/2025 </t>
+        </is>
+      </c>
+      <c r="AM202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/19/2025 </t>
+        </is>
+      </c>
+      <c r="AN202" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:39:28 PM</t>
+        </is>
+      </c>
+      <c r="AO202" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP202" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ202" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR202" t="inlineStr"/>
+      <c r="AS202" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT202" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU202" t="n">
+        <v>197.2731401666667</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>197.2731401666667</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>925.6799999999999</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>925.6799999999999</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AZ202" t="inlineStr">
+        <is>
+          <t>A655230</t>
+        </is>
+      </c>
+      <c r="BA202" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD202" t="inlineStr">
+        <is>
+          <t>S00365495-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>72</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>S00365495</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>70870420</v>
+      </c>
+      <c r="O203" t="n">
+        <v>8900800534</v>
+      </c>
+      <c r="P203" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>9/15/2025 9:24:44 AM</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:39:28 PM</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:39:28 PM</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr"/>
+      <c r="U203" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W203" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="X203" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y203" t="n">
+        <v>50914402</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>57</v>
+      </c>
+      <c r="AB203" t="inlineStr"/>
+      <c r="AC203" t="inlineStr"/>
+      <c r="AD203" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE203" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF203" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG203" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH203" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI203" t="inlineStr">
+        <is>
+          <t>A655230</t>
+        </is>
+      </c>
+      <c r="AJ203" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK203" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/19/2025 </t>
+        </is>
+      </c>
+      <c r="AM203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/19/2025 </t>
+        </is>
+      </c>
+      <c r="AN203" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:39:28 PM</t>
+        </is>
+      </c>
+      <c r="AO203" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP203" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ203" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR203" t="inlineStr"/>
+      <c r="AS203" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT203" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU203" t="n">
+        <v>33.6872375</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>33.6872375</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>282.72</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>282.72</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>0.5938</v>
+      </c>
+      <c r="AZ203" t="inlineStr">
+        <is>
+          <t>A655230</t>
+        </is>
+      </c>
+      <c r="BA203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD203" t="inlineStr">
+        <is>
+          <t>S00365495-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>72</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>S00365496</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>70870418</v>
+      </c>
+      <c r="O204" t="n">
+        <v>8300840366</v>
+      </c>
+      <c r="P204" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>9/15/2025 9:24:45 AM</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:42:35 PM</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:42:35 PM</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr"/>
+      <c r="U204" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W204" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y204" t="n">
+        <v>50914401</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB204" t="inlineStr"/>
+      <c r="AC204" t="inlineStr"/>
+      <c r="AD204" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE204" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF204" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG204" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH204" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI204" t="inlineStr">
+        <is>
+          <t>A655228</t>
+        </is>
+      </c>
+      <c r="AJ204" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK204" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/19/2025 </t>
+        </is>
+      </c>
+      <c r="AM204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/19/2025 </t>
+        </is>
+      </c>
+      <c r="AN204" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:42:35 PM</t>
+        </is>
+      </c>
+      <c r="AO204" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP204" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ204" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR204" t="inlineStr"/>
+      <c r="AS204" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT204" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU204" t="n">
+        <v>70.45469291666667</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>70.45469291666667</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>330.6</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>330.6</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AZ204" t="inlineStr">
+        <is>
+          <t>A655228</t>
+        </is>
+      </c>
+      <c r="BA204" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD204" t="inlineStr">
+        <is>
+          <t>S00365496-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>72</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>S00365496</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>70870418</v>
+      </c>
+      <c r="O205" t="n">
+        <v>8300840366</v>
+      </c>
+      <c r="P205" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>9/15/2025 9:24:45 AM</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:42:35 PM</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:42:35 PM</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr"/>
+      <c r="U205" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W205" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="X205" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y205" t="n">
+        <v>50914402</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>84</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>84</v>
+      </c>
+      <c r="AB205" t="inlineStr"/>
+      <c r="AC205" t="inlineStr"/>
+      <c r="AD205" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE205" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF205" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG205" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH205" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI205" t="inlineStr">
+        <is>
+          <t>A655228</t>
+        </is>
+      </c>
+      <c r="AJ205" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK205" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/19/2025 </t>
+        </is>
+      </c>
+      <c r="AM205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/19/2025 </t>
+        </is>
+      </c>
+      <c r="AN205" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:42:35 PM</t>
+        </is>
+      </c>
+      <c r="AO205" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP205" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ205" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR205" t="inlineStr"/>
+      <c r="AS205" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT205" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU205" t="n">
+        <v>49.64435</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>49.64435</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>416.64</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>416.64</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="AZ205" t="inlineStr">
+        <is>
+          <t>A655228</t>
+        </is>
+      </c>
+      <c r="BA205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD205" t="inlineStr">
+        <is>
+          <t>S00365496-20000</t>
         </is>
       </c>
     </row>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD205"/>
+  <dimension ref="A1:BD206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43319,52 +43319,52 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>DC#1016, 9200 AIRPORT RD.</t>
+          <t>DC#1008, 19890-92A AVE.</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>LANGLEY</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>L6S 6G6</t>
+          <t>V1M 3A9</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>S00361736</t>
+          <t>S00361732</t>
         </is>
       </c>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="n">
-        <v>70852845</v>
+        <v>70852843</v>
       </c>
       <c r="O193" t="n">
-        <v>59157142</v>
+        <v>59157141</v>
       </c>
       <c r="P193" s="2" t="n">
         <v>45902</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>9/2/2025 11:49:54 AM</t>
+          <t>9/2/2025 11:34:51 AM</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="T193" t="inlineStr"/>
@@ -43377,7 +43377,7 @@
         </is>
       </c>
       <c r="W193" s="2" t="n">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="X193" t="inlineStr">
         <is>
@@ -43388,10 +43388,10 @@
         <v>18597408</v>
       </c>
       <c r="Z193" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AA193" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AB193" t="inlineStr"/>
       <c r="AC193" t="inlineStr"/>
@@ -43422,28 +43422,32 @@
       </c>
       <c r="AI193" t="inlineStr">
         <is>
-          <t xml:space="preserve">A654244 </t>
+          <t>A654265</t>
         </is>
       </c>
       <c r="AJ193" t="inlineStr">
         <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK193" t="inlineStr"/>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK193" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
       <c r="AL193" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AM193" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AN193" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AO193" t="inlineStr">
@@ -43473,23 +43477,23 @@
         </is>
       </c>
       <c r="AU193" t="n">
-        <v>12.86336735330222</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AV193" t="n">
-        <v>12.86336735330222</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AW193" t="n">
-        <v>145.5051</v>
+        <v>72.7</v>
       </c>
       <c r="AX193" t="n">
-        <v>145.5051</v>
+        <v>72.7</v>
       </c>
       <c r="AY193" t="n">
-        <v>0.303</v>
+        <v>0.1515</v>
       </c>
       <c r="AZ193" t="inlineStr">
         <is>
-          <t xml:space="preserve">A654244 </t>
+          <t>A654265</t>
         </is>
       </c>
       <c r="BA193" t="n">
@@ -43503,7 +43507,7 @@
       </c>
       <c r="BD193" t="inlineStr">
         <is>
-          <t>S00361736-10000</t>
+          <t>S00361732-10000</t>
         </is>
       </c>
     </row>
@@ -43523,32 +43527,30 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D194" t="n">
-        <v>72</v>
-      </c>
+      <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -43558,42 +43560,42 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>L6S 6G6</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>S00364306</t>
+          <t>S00361736</t>
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="n">
-        <v>70863737</v>
+        <v>70852845</v>
       </c>
       <c r="O194" t="n">
-        <v>1950680012</v>
+        <v>59157142</v>
       </c>
       <c r="P194" s="2" t="n">
-        <v>45910</v>
+        <v>45902</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:54 PM</t>
+          <t>9/2/2025 11:49:54 AM</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/12/2025 </t>
         </is>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/12/2025 </t>
         </is>
       </c>
       <c r="T194" t="inlineStr"/>
       <c r="U194" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="V194" t="inlineStr">
         <is>
@@ -43601,21 +43603,21 @@
         </is>
       </c>
       <c r="W194" s="2" t="n">
-        <v>45917</v>
+        <v>45912</v>
       </c>
       <c r="X194" t="inlineStr">
         <is>
-          <t>TAB4500/37</t>
+          <t>TAB5109/37</t>
         </is>
       </c>
       <c r="Y194" t="n">
-        <v>50914401</v>
+        <v>18597408</v>
       </c>
       <c r="Z194" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="AA194" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="AB194" t="inlineStr"/>
       <c r="AC194" t="inlineStr"/>
@@ -43646,32 +43648,28 @@
       </c>
       <c r="AI194" t="inlineStr">
         <is>
-          <t>A654835</t>
+          <t xml:space="preserve">A654244 </t>
         </is>
       </c>
       <c r="AJ194" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK194" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK194" t="inlineStr"/>
       <c r="AL194" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/12/2025 </t>
         </is>
       </c>
       <c r="AM194" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/12/2025 </t>
         </is>
       </c>
       <c r="AN194" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/12/2025 </t>
         </is>
       </c>
       <c r="AO194" t="inlineStr">
@@ -43686,7 +43684,7 @@
       </c>
       <c r="AQ194" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR194" t="inlineStr"/>
@@ -43701,37 +43699,37 @@
         </is>
       </c>
       <c r="AU194" t="n">
-        <v>103.3335496111111</v>
+        <v>12.86336735330222</v>
       </c>
       <c r="AV194" t="n">
-        <v>103.3335496111111</v>
+        <v>12.86336735330222</v>
       </c>
       <c r="AW194" t="n">
-        <v>484.88</v>
+        <v>145.5051</v>
       </c>
       <c r="AX194" t="n">
-        <v>484.88</v>
+        <v>145.5051</v>
       </c>
       <c r="AY194" t="n">
-        <v>2.2</v>
+        <v>0.303</v>
       </c>
       <c r="AZ194" t="inlineStr">
         <is>
-          <t>A654835</t>
+          <t xml:space="preserve">A654244 </t>
         </is>
       </c>
       <c r="BA194" t="n">
         <v>2</v>
       </c>
       <c r="BB194" t="n">
-        <v>840063204553</v>
+        <v>840063203563</v>
       </c>
       <c r="BC194" t="n">
         <v>10000</v>
       </c>
       <c r="BD194" t="inlineStr">
         <is>
-          <t>S00364306-10000</t>
+          <t>S00361736-10000</t>
         </is>
       </c>
     </row>
@@ -43833,17 +43831,17 @@
       </c>
       <c r="X195" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>TAB4500/37</t>
         </is>
       </c>
       <c r="Y195" t="n">
-        <v>50914402</v>
+        <v>50914401</v>
       </c>
       <c r="Z195" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AA195" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AB195" t="inlineStr"/>
       <c r="AC195" t="inlineStr"/>
@@ -43929,19 +43927,19 @@
         </is>
       </c>
       <c r="AU195" t="n">
-        <v>53.190375</v>
+        <v>103.3335496111111</v>
       </c>
       <c r="AV195" t="n">
-        <v>53.190375</v>
+        <v>103.3335496111111</v>
       </c>
       <c r="AW195" t="n">
-        <v>446.4</v>
+        <v>484.88</v>
       </c>
       <c r="AX195" t="n">
-        <v>446.4</v>
+        <v>484.88</v>
       </c>
       <c r="AY195" t="n">
-        <v>0.9375</v>
+        <v>2.2</v>
       </c>
       <c r="AZ195" t="inlineStr">
         <is>
@@ -43949,17 +43947,17 @@
         </is>
       </c>
       <c r="BA195" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB195" t="n">
-        <v>840063204546</v>
+        <v>840063204553</v>
       </c>
       <c r="BC195" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD195" t="inlineStr">
         <is>
-          <t>S00364306-20000</t>
+          <t>S00364306-10000</t>
         </is>
       </c>
     </row>
@@ -43999,12 +43997,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -44014,42 +44012,42 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>S00364307</t>
+          <t>S00364306</t>
         </is>
       </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="n">
-        <v>70863735</v>
+        <v>70863737</v>
       </c>
       <c r="O196" t="n">
-        <v>6600680007</v>
+        <v>1950680012</v>
       </c>
       <c r="P196" s="2" t="n">
         <v>45910</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:55 PM</t>
+          <t>9/10/2025 2:23:54 PM</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="T196" t="inlineStr"/>
       <c r="U196" s="2" t="n">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="V196" t="inlineStr">
         <is>
@@ -44057,21 +44055,21 @@
         </is>
       </c>
       <c r="W196" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="X196" t="inlineStr">
         <is>
-          <t>TAB4500/37</t>
+          <t>TAB4000/37</t>
         </is>
       </c>
       <c r="Y196" t="n">
-        <v>50914401</v>
+        <v>50914402</v>
       </c>
       <c r="Z196" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AA196" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AB196" t="inlineStr"/>
       <c r="AC196" t="inlineStr"/>
@@ -44102,7 +44100,7 @@
       </c>
       <c r="AI196" t="inlineStr">
         <is>
-          <t>A654833</t>
+          <t>A654835</t>
         </is>
       </c>
       <c r="AJ196" t="inlineStr">
@@ -44117,17 +44115,17 @@
       </c>
       <c r="AL196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AM196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AN196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AO196" t="inlineStr">
@@ -44157,37 +44155,37 @@
         </is>
       </c>
       <c r="AU196" t="n">
-        <v>140.9093858333333</v>
+        <v>53.190375</v>
       </c>
       <c r="AV196" t="n">
-        <v>140.9093858333333</v>
+        <v>53.190375</v>
       </c>
       <c r="AW196" t="n">
-        <v>661.2</v>
+        <v>446.4</v>
       </c>
       <c r="AX196" t="n">
-        <v>661.2</v>
+        <v>446.4</v>
       </c>
       <c r="AY196" t="n">
-        <v>3</v>
+        <v>0.9375</v>
       </c>
       <c r="AZ196" t="inlineStr">
         <is>
-          <t>A654833</t>
+          <t>A654835</t>
         </is>
       </c>
       <c r="BA196" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB196" t="n">
-        <v>840063204553</v>
+        <v>840063204546</v>
       </c>
       <c r="BC196" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD196" t="inlineStr">
         <is>
-          <t>S00364307-10000</t>
+          <t>S00364306-20000</t>
         </is>
       </c>
     </row>
@@ -44289,17 +44287,17 @@
       </c>
       <c r="X197" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>TAB4500/37</t>
         </is>
       </c>
       <c r="Y197" t="n">
-        <v>50914402</v>
+        <v>50914401</v>
       </c>
       <c r="Z197" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AA197" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AB197" t="inlineStr"/>
       <c r="AC197" t="inlineStr"/>
@@ -44385,19 +44383,19 @@
         </is>
       </c>
       <c r="AU197" t="n">
-        <v>70.9205</v>
+        <v>140.9093858333333</v>
       </c>
       <c r="AV197" t="n">
-        <v>70.9205</v>
+        <v>140.9093858333333</v>
       </c>
       <c r="AW197" t="n">
-        <v>595.2</v>
+        <v>661.2</v>
       </c>
       <c r="AX197" t="n">
-        <v>595.2</v>
+        <v>661.2</v>
       </c>
       <c r="AY197" t="n">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="AZ197" t="inlineStr">
         <is>
@@ -44405,17 +44403,17 @@
         </is>
       </c>
       <c r="BA197" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB197" t="n">
-        <v>840063204546</v>
+        <v>840063204553</v>
       </c>
       <c r="BC197" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD197" t="inlineStr">
         <is>
-          <t>S00364307-20000</t>
+          <t>S00364307-10000</t>
         </is>
       </c>
     </row>
@@ -44455,42 +44453,42 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>S00364308</t>
+          <t>S00364307</t>
         </is>
       </c>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="n">
-        <v>70863736</v>
+        <v>70863735</v>
       </c>
       <c r="O198" t="n">
-        <v>7400960004</v>
+        <v>6600680007</v>
       </c>
       <c r="P198" s="2" t="n">
         <v>45910</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:57 PM</t>
+          <t>9/10/2025 2:23:55 PM</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -44505,7 +44503,7 @@
       </c>
       <c r="T198" t="inlineStr"/>
       <c r="U198" s="2" t="n">
-        <v>45917</v>
+        <v>45921</v>
       </c>
       <c r="V198" t="inlineStr">
         <is>
@@ -44517,17 +44515,17 @@
       </c>
       <c r="X198" t="inlineStr">
         <is>
-          <t>TAB4500/37</t>
+          <t>TAB4000/37</t>
         </is>
       </c>
       <c r="Y198" t="n">
-        <v>50914401</v>
+        <v>50914402</v>
       </c>
       <c r="Z198" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AA198" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AB198" t="inlineStr"/>
       <c r="AC198" t="inlineStr"/>
@@ -44558,15 +44556,19 @@
       </c>
       <c r="AI198" t="inlineStr">
         <is>
-          <t>A654856</t>
+          <t>A654833</t>
         </is>
       </c>
       <c r="AJ198" t="inlineStr">
         <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK198" t="inlineStr"/>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK198" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
       <c r="AL198" t="inlineStr">
         <is>
           <t xml:space="preserve">9/16/2025 </t>
@@ -44609,37 +44611,37 @@
         </is>
       </c>
       <c r="AU198" t="n">
-        <v>187.8791811111111</v>
+        <v>70.9205</v>
       </c>
       <c r="AV198" t="n">
-        <v>187.8791811111111</v>
+        <v>70.9205</v>
       </c>
       <c r="AW198" t="n">
-        <v>881.6</v>
+        <v>595.2</v>
       </c>
       <c r="AX198" t="n">
-        <v>881.6</v>
+        <v>595.2</v>
       </c>
       <c r="AY198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AZ198" t="inlineStr">
+        <is>
+          <t>A654833</t>
+        </is>
+      </c>
+      <c r="BA198" t="n">
         <v>4</v>
       </c>
-      <c r="AZ198" t="inlineStr">
-        <is>
-          <t>A654856</t>
-        </is>
-      </c>
-      <c r="BA198" t="n">
-        <v>2</v>
-      </c>
       <c r="BB198" t="n">
-        <v>840063204553</v>
+        <v>840063204546</v>
       </c>
       <c r="BC198" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD198" t="inlineStr">
         <is>
-          <t>S00364308-10000</t>
+          <t>S00364307-20000</t>
         </is>
       </c>
     </row>
@@ -44741,17 +44743,17 @@
       </c>
       <c r="X199" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>TAB4500/37</t>
         </is>
       </c>
       <c r="Y199" t="n">
-        <v>50914402</v>
+        <v>50914401</v>
       </c>
       <c r="Z199" t="n">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="AA199" t="n">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="AB199" t="inlineStr"/>
       <c r="AC199" t="inlineStr"/>
@@ -44833,19 +44835,19 @@
         </is>
       </c>
       <c r="AU199" t="n">
-        <v>67.374475</v>
+        <v>187.8791811111111</v>
       </c>
       <c r="AV199" t="n">
-        <v>67.374475</v>
+        <v>187.8791811111111</v>
       </c>
       <c r="AW199" t="n">
-        <v>565.4400000000001</v>
+        <v>881.6</v>
       </c>
       <c r="AX199" t="n">
-        <v>565.4400000000001</v>
+        <v>881.6</v>
       </c>
       <c r="AY199" t="n">
-        <v>1.1875</v>
+        <v>4</v>
       </c>
       <c r="AZ199" t="inlineStr">
         <is>
@@ -44853,17 +44855,17 @@
         </is>
       </c>
       <c r="BA199" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB199" t="n">
-        <v>840063204546</v>
+        <v>840063204553</v>
       </c>
       <c r="BC199" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD199" t="inlineStr">
         <is>
-          <t>S00364308-20000</t>
+          <t>S00364308-10000</t>
         </is>
       </c>
     </row>
@@ -44903,57 +44905,57 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>S00365494</t>
+          <t>S00364308</t>
         </is>
       </c>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="n">
-        <v>70870422</v>
+        <v>70863736</v>
       </c>
       <c r="O200" t="n">
-        <v>8950800525</v>
+        <v>7400960004</v>
       </c>
       <c r="P200" s="2" t="n">
-        <v>45915</v>
+        <v>45910</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>9/15/2025 9:24:42 AM</t>
+          <t>9/10/2025 2:23:57 PM</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>9/19/2025 1:37:53 PM</t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>9/19/2025 1:37:53 PM</t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="T200" t="inlineStr"/>
       <c r="U200" s="2" t="n">
-        <v>45927</v>
+        <v>45917</v>
       </c>
       <c r="V200" t="inlineStr">
         <is>
@@ -44961,21 +44963,21 @@
         </is>
       </c>
       <c r="W200" s="2" t="n">
-        <v>45919</v>
+        <v>45916</v>
       </c>
       <c r="X200" t="inlineStr">
         <is>
-          <t>TAB4500/37</t>
+          <t>TAB4000/37</t>
         </is>
       </c>
       <c r="Y200" t="n">
-        <v>50914401</v>
+        <v>50914402</v>
       </c>
       <c r="Z200" t="n">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="AA200" t="n">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="AB200" t="inlineStr"/>
       <c r="AC200" t="inlineStr"/>
@@ -45006,32 +45008,28 @@
       </c>
       <c r="AI200" t="inlineStr">
         <is>
-          <t>A655231</t>
+          <t>A654856</t>
         </is>
       </c>
       <c r="AJ200" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK200" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK200" t="inlineStr"/>
       <c r="AL200" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AM200" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AN200" t="inlineStr">
         <is>
-          <t>9/19/2025 1:37:53 PM</t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AO200" t="inlineStr">
@@ -45061,37 +45059,37 @@
         </is>
       </c>
       <c r="AU200" t="n">
-        <v>216.0610582777778</v>
+        <v>67.374475</v>
       </c>
       <c r="AV200" t="n">
-        <v>216.0610582777778</v>
+        <v>67.374475</v>
       </c>
       <c r="AW200" t="n">
-        <v>1013.84</v>
+        <v>565.4400000000001</v>
       </c>
       <c r="AX200" t="n">
-        <v>1013.84</v>
+        <v>565.4400000000001</v>
       </c>
       <c r="AY200" t="n">
-        <v>4.6</v>
+        <v>1.1875</v>
       </c>
       <c r="AZ200" t="inlineStr">
         <is>
-          <t>A655231</t>
+          <t>A654856</t>
         </is>
       </c>
       <c r="BA200" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB200" t="n">
-        <v>840063204553</v>
+        <v>840063204546</v>
       </c>
       <c r="BC200" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD200" t="inlineStr">
         <is>
-          <t>S00365494-10000</t>
+          <t>S00364308-20000</t>
         </is>
       </c>
     </row>
@@ -45193,17 +45191,17 @@
       </c>
       <c r="X201" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>TAB4500/37</t>
         </is>
       </c>
       <c r="Y201" t="n">
-        <v>50914402</v>
+        <v>50914401</v>
       </c>
       <c r="Z201" t="n">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="AA201" t="n">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="AB201" t="inlineStr"/>
       <c r="AC201" t="inlineStr"/>
@@ -45289,19 +45287,19 @@
         </is>
       </c>
       <c r="AU201" t="n">
-        <v>33.6872375</v>
+        <v>216.0610582777778</v>
       </c>
       <c r="AV201" t="n">
-        <v>33.6872375</v>
+        <v>216.0610582777778</v>
       </c>
       <c r="AW201" t="n">
-        <v>282.72</v>
+        <v>1013.84</v>
       </c>
       <c r="AX201" t="n">
-        <v>282.72</v>
+        <v>1013.84</v>
       </c>
       <c r="AY201" t="n">
-        <v>0.6794</v>
+        <v>4.6</v>
       </c>
       <c r="AZ201" t="inlineStr">
         <is>
@@ -45309,17 +45307,17 @@
         </is>
       </c>
       <c r="BA201" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB201" t="n">
-        <v>840063204546</v>
+        <v>840063204553</v>
       </c>
       <c r="BC201" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD201" t="inlineStr">
         <is>
-          <t>S00365494-20000</t>
+          <t>S00365494-10000</t>
         </is>
       </c>
     </row>
@@ -45359,12 +45357,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -45374,42 +45372,42 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>S00365495</t>
+          <t>S00365494</t>
         </is>
       </c>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="n">
-        <v>70870420</v>
+        <v>70870422</v>
       </c>
       <c r="O202" t="n">
-        <v>8900800534</v>
+        <v>8950800525</v>
       </c>
       <c r="P202" s="2" t="n">
         <v>45915</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>9/15/2025 9:24:44 AM</t>
+          <t>9/15/2025 9:24:42 AM</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>9/19/2025 1:39:28 PM</t>
+          <t>9/19/2025 1:37:53 PM</t>
         </is>
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t>9/19/2025 1:39:28 PM</t>
+          <t>9/19/2025 1:37:53 PM</t>
         </is>
       </c>
       <c r="T202" t="inlineStr"/>
       <c r="U202" s="2" t="n">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="V202" t="inlineStr">
         <is>
@@ -45421,17 +45419,17 @@
       </c>
       <c r="X202" t="inlineStr">
         <is>
-          <t>TAB4500/37</t>
+          <t>TAB4000/37</t>
         </is>
       </c>
       <c r="Y202" t="n">
-        <v>50914401</v>
+        <v>50914402</v>
       </c>
       <c r="Z202" t="n">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="AA202" t="n">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="AB202" t="inlineStr"/>
       <c r="AC202" t="inlineStr"/>
@@ -45462,7 +45460,7 @@
       </c>
       <c r="AI202" t="inlineStr">
         <is>
-          <t>A655230</t>
+          <t>A655231</t>
         </is>
       </c>
       <c r="AJ202" t="inlineStr">
@@ -45487,7 +45485,7 @@
       </c>
       <c r="AN202" t="inlineStr">
         <is>
-          <t>9/19/2025 1:39:28 PM</t>
+          <t>9/19/2025 1:37:53 PM</t>
         </is>
       </c>
       <c r="AO202" t="inlineStr">
@@ -45517,37 +45515,37 @@
         </is>
       </c>
       <c r="AU202" t="n">
-        <v>197.2731401666667</v>
+        <v>33.6872375</v>
       </c>
       <c r="AV202" t="n">
-        <v>197.2731401666667</v>
+        <v>33.6872375</v>
       </c>
       <c r="AW202" t="n">
-        <v>925.6799999999999</v>
+        <v>282.72</v>
       </c>
       <c r="AX202" t="n">
-        <v>925.6799999999999</v>
+        <v>282.72</v>
       </c>
       <c r="AY202" t="n">
-        <v>4.2</v>
+        <v>0.6794</v>
       </c>
       <c r="AZ202" t="inlineStr">
         <is>
-          <t>A655230</t>
+          <t>A655231</t>
         </is>
       </c>
       <c r="BA202" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB202" t="n">
-        <v>840063204553</v>
+        <v>840063204546</v>
       </c>
       <c r="BC202" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD202" t="inlineStr">
         <is>
-          <t>S00365495-10000</t>
+          <t>S00365494-20000</t>
         </is>
       </c>
     </row>
@@ -45649,17 +45647,17 @@
       </c>
       <c r="X203" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>TAB4500/37</t>
         </is>
       </c>
       <c r="Y203" t="n">
-        <v>50914402</v>
+        <v>50914401</v>
       </c>
       <c r="Z203" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="AA203" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="AB203" t="inlineStr"/>
       <c r="AC203" t="inlineStr"/>
@@ -45745,19 +45743,19 @@
         </is>
       </c>
       <c r="AU203" t="n">
-        <v>33.6872375</v>
+        <v>197.2731401666667</v>
       </c>
       <c r="AV203" t="n">
-        <v>33.6872375</v>
+        <v>197.2731401666667</v>
       </c>
       <c r="AW203" t="n">
-        <v>282.72</v>
+        <v>925.6799999999999</v>
       </c>
       <c r="AX203" t="n">
-        <v>282.72</v>
+        <v>925.6799999999999</v>
       </c>
       <c r="AY203" t="n">
-        <v>0.5938</v>
+        <v>4.2</v>
       </c>
       <c r="AZ203" t="inlineStr">
         <is>
@@ -45765,17 +45763,17 @@
         </is>
       </c>
       <c r="BA203" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB203" t="n">
-        <v>840063204546</v>
+        <v>840063204553</v>
       </c>
       <c r="BC203" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD203" t="inlineStr">
         <is>
-          <t>S00365495-20000</t>
+          <t>S00365495-10000</t>
         </is>
       </c>
     </row>
@@ -45815,57 +45813,57 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>S00365496</t>
+          <t>S00365495</t>
         </is>
       </c>
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="n">
-        <v>70870418</v>
+        <v>70870420</v>
       </c>
       <c r="O204" t="n">
-        <v>8300840366</v>
+        <v>8900800534</v>
       </c>
       <c r="P204" s="2" t="n">
         <v>45915</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>9/15/2025 9:24:45 AM</t>
+          <t>9/15/2025 9:24:44 AM</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>9/19/2025 1:42:35 PM</t>
+          <t>9/19/2025 1:39:28 PM</t>
         </is>
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>9/19/2025 1:42:35 PM</t>
+          <t>9/19/2025 1:39:28 PM</t>
         </is>
       </c>
       <c r="T204" t="inlineStr"/>
       <c r="U204" s="2" t="n">
-        <v>45922</v>
+        <v>45926</v>
       </c>
       <c r="V204" t="inlineStr">
         <is>
@@ -45877,17 +45875,17 @@
       </c>
       <c r="X204" t="inlineStr">
         <is>
-          <t>TAB4500/37</t>
+          <t>TAB4000/37</t>
         </is>
       </c>
       <c r="Y204" t="n">
-        <v>50914401</v>
+        <v>50914402</v>
       </c>
       <c r="Z204" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="AA204" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="AB204" t="inlineStr"/>
       <c r="AC204" t="inlineStr"/>
@@ -45918,7 +45916,7 @@
       </c>
       <c r="AI204" t="inlineStr">
         <is>
-          <t>A655228</t>
+          <t>A655230</t>
         </is>
       </c>
       <c r="AJ204" t="inlineStr">
@@ -45943,7 +45941,7 @@
       </c>
       <c r="AN204" t="inlineStr">
         <is>
-          <t>9/19/2025 1:42:35 PM</t>
+          <t>9/19/2025 1:39:28 PM</t>
         </is>
       </c>
       <c r="AO204" t="inlineStr">
@@ -45973,37 +45971,37 @@
         </is>
       </c>
       <c r="AU204" t="n">
-        <v>70.45469291666667</v>
+        <v>33.6872375</v>
       </c>
       <c r="AV204" t="n">
-        <v>70.45469291666667</v>
+        <v>33.6872375</v>
       </c>
       <c r="AW204" t="n">
-        <v>330.6</v>
+        <v>282.72</v>
       </c>
       <c r="AX204" t="n">
-        <v>330.6</v>
+        <v>282.72</v>
       </c>
       <c r="AY204" t="n">
-        <v>1.5</v>
+        <v>0.5938</v>
       </c>
       <c r="AZ204" t="inlineStr">
         <is>
-          <t>A655228</t>
+          <t>A655230</t>
         </is>
       </c>
       <c r="BA204" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB204" t="n">
-        <v>840063204553</v>
+        <v>840063204546</v>
       </c>
       <c r="BC204" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD204" t="inlineStr">
         <is>
-          <t>S00365496-10000</t>
+          <t>S00365495-20000</t>
         </is>
       </c>
     </row>
@@ -46105,17 +46103,17 @@
       </c>
       <c r="X205" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>TAB4500/37</t>
         </is>
       </c>
       <c r="Y205" t="n">
-        <v>50914402</v>
+        <v>50914401</v>
       </c>
       <c r="Z205" t="n">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="AA205" t="n">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="AB205" t="inlineStr"/>
       <c r="AC205" t="inlineStr"/>
@@ -46201,35 +46199,263 @@
         </is>
       </c>
       <c r="AU205" t="n">
+        <v>70.45469291666667</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>70.45469291666667</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>330.6</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>330.6</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AZ205" t="inlineStr">
+        <is>
+          <t>A655228</t>
+        </is>
+      </c>
+      <c r="BA205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD205" t="inlineStr">
+        <is>
+          <t>S00365496-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>72</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>S00365496</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>70870418</v>
+      </c>
+      <c r="O206" t="n">
+        <v>8300840366</v>
+      </c>
+      <c r="P206" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>9/15/2025 9:24:45 AM</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:42:35 PM</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:42:35 PM</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W206" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="X206" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y206" t="n">
+        <v>50914402</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>84</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>84</v>
+      </c>
+      <c r="AB206" t="inlineStr"/>
+      <c r="AC206" t="inlineStr"/>
+      <c r="AD206" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE206" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF206" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG206" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH206" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI206" t="inlineStr">
+        <is>
+          <t>A655228</t>
+        </is>
+      </c>
+      <c r="AJ206" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK206" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/19/2025 </t>
+        </is>
+      </c>
+      <c r="AM206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/19/2025 </t>
+        </is>
+      </c>
+      <c r="AN206" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:42:35 PM</t>
+        </is>
+      </c>
+      <c r="AO206" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP206" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ206" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR206" t="inlineStr"/>
+      <c r="AS206" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT206" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU206" t="n">
         <v>49.64435</v>
       </c>
-      <c r="AV205" t="n">
+      <c r="AV206" t="n">
         <v>49.64435</v>
       </c>
-      <c r="AW205" t="n">
+      <c r="AW206" t="n">
         <v>416.64</v>
       </c>
-      <c r="AX205" t="n">
+      <c r="AX206" t="n">
         <v>416.64</v>
       </c>
-      <c r="AY205" t="n">
+      <c r="AY206" t="n">
         <v>0.875</v>
       </c>
-      <c r="AZ205" t="inlineStr">
+      <c r="AZ206" t="inlineStr">
         <is>
           <t>A655228</t>
         </is>
       </c>
-      <c r="BA205" t="n">
+      <c r="BA206" t="n">
         <v>4</v>
       </c>
-      <c r="BB205" t="n">
+      <c r="BB206" t="n">
         <v>840063204546</v>
       </c>
-      <c r="BC205" t="n">
+      <c r="BC206" t="n">
         <v>20000</v>
       </c>
-      <c r="BD205" t="inlineStr">
+      <c r="BD206" t="inlineStr">
         <is>
           <t>S00365496-20000</t>
         </is>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD206"/>
+  <dimension ref="A1:BD208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43304,72 +43304,72 @@
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>TD SYNNEX Canada ULC</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>SUP009</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>TD SYNNEX Canada ULC</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>DC#1008, 19890-92A AVE.</t>
+          <t>5280 72 Avenue SE</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>LANGLEY</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>V1M 3A9</t>
+          <t>T2C 4G6</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>S00361732</t>
+          <t>S00360016</t>
         </is>
       </c>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="n">
-        <v>70852843</v>
+        <v>70838121</v>
       </c>
       <c r="O193" t="n">
-        <v>59157141</v>
+        <v>5370144</v>
       </c>
       <c r="P193" s="2" t="n">
-        <v>45902</v>
+        <v>45895</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>9/2/2025 11:34:51 AM</t>
+          <t>8/26/2025 9:52:19 AM</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="T193" t="inlineStr"/>
       <c r="U193" s="2" t="n">
-        <v>45915</v>
+        <v>45902</v>
       </c>
       <c r="V193" t="inlineStr">
         <is>
@@ -43377,21 +43377,23 @@
         </is>
       </c>
       <c r="W193" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="X193" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
-        </is>
-      </c>
-      <c r="Y193" t="n">
-        <v>18597408</v>
+          <t>Q27G3XMN</t>
+        </is>
+      </c>
+      <c r="Y193" t="inlineStr">
+        <is>
+          <t>ENV-Q27G3XMN</t>
+        </is>
       </c>
       <c r="Z193" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AA193" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AB193" t="inlineStr"/>
       <c r="AC193" t="inlineStr"/>
@@ -43405,49 +43407,29 @@
           <t>M</t>
         </is>
       </c>
-      <c r="AF193" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG193" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH193" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI193" t="inlineStr">
-        <is>
-          <t>A654265</t>
-        </is>
-      </c>
+      <c r="AF193" t="inlineStr"/>
+      <c r="AG193" t="inlineStr"/>
+      <c r="AH193" t="inlineStr"/>
+      <c r="AI193" t="inlineStr"/>
       <c r="AJ193" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK193" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK193" t="inlineStr"/>
       <c r="AL193" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/23/2025 </t>
         </is>
       </c>
       <c r="AM193" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/23/2025 </t>
         </is>
       </c>
       <c r="AN193" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="AO193" t="inlineStr">
@@ -43462,13 +43444,13 @@
       </c>
       <c r="AQ193" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>AOC 27" Monitor</t>
         </is>
       </c>
       <c r="AR193" t="inlineStr"/>
       <c r="AS193" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT193" t="inlineStr">
@@ -43477,37 +43459,33 @@
         </is>
       </c>
       <c r="AU193" t="n">
-        <v>6.431683676651111</v>
+        <v>70.76376999999999</v>
       </c>
       <c r="AV193" t="n">
-        <v>6.431683676651111</v>
+        <v>70.76376999999999</v>
       </c>
       <c r="AW193" t="n">
-        <v>72.7</v>
+        <v>646.08</v>
       </c>
       <c r="AX193" t="n">
-        <v>72.7</v>
+        <v>646.08</v>
       </c>
       <c r="AY193" t="n">
-        <v>0.1515</v>
-      </c>
-      <c r="AZ193" t="inlineStr">
-        <is>
-          <t>A654265</t>
-        </is>
-      </c>
+        <v>0.8889</v>
+      </c>
+      <c r="AZ193" t="inlineStr"/>
       <c r="BA193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB193" t="n">
-        <v>840063203563</v>
+        <v>685417733583</v>
       </c>
       <c r="BC193" t="n">
         <v>10000</v>
       </c>
       <c r="BD193" t="inlineStr">
         <is>
-          <t>S00361732-10000</t>
+          <t>S00360016-10000</t>
         </is>
       </c>
     </row>
@@ -43530,72 +43508,72 @@
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>TD SYNNEX Canada ULC</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>SUP009</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>TD SYNNEX Canada ULC</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>DC#1016, 9200 AIRPORT RD.</t>
+          <t>5280 72 Avenue SE</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>L6S 6G6</t>
+          <t>T2C 4G6</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>S00361736</t>
+          <t>S00360016</t>
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="n">
-        <v>70852845</v>
+        <v>70838121</v>
       </c>
       <c r="O194" t="n">
-        <v>59157142</v>
+        <v>5370144</v>
       </c>
       <c r="P194" s="2" t="n">
-        <v>45902</v>
+        <v>45895</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>9/2/2025 11:49:54 AM</t>
+          <t>8/26/2025 9:52:19 AM</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="T194" t="inlineStr"/>
       <c r="U194" s="2" t="n">
-        <v>45915</v>
+        <v>45902</v>
       </c>
       <c r="V194" t="inlineStr">
         <is>
@@ -43603,21 +43581,23 @@
         </is>
       </c>
       <c r="W194" s="2" t="n">
-        <v>45912</v>
+        <v>45923</v>
       </c>
       <c r="X194" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
-        </is>
-      </c>
-      <c r="Y194" t="n">
-        <v>18597408</v>
+          <t>AG276QZD2</t>
+        </is>
+      </c>
+      <c r="Y194" t="inlineStr">
+        <is>
+          <t>ENV-AG276QZD2</t>
+        </is>
       </c>
       <c r="Z194" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AA194" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AB194" t="inlineStr"/>
       <c r="AC194" t="inlineStr"/>
@@ -43631,26 +43611,10 @@
           <t>M</t>
         </is>
       </c>
-      <c r="AF194" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG194" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH194" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI194" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A654244 </t>
-        </is>
-      </c>
+      <c r="AF194" t="inlineStr"/>
+      <c r="AG194" t="inlineStr"/>
+      <c r="AH194" t="inlineStr"/>
+      <c r="AI194" t="inlineStr"/>
       <c r="AJ194" t="inlineStr">
         <is>
           <t>Collect</t>
@@ -43659,17 +43623,17 @@
       <c r="AK194" t="inlineStr"/>
       <c r="AL194" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12/2025 </t>
+          <t xml:space="preserve">9/23/2025 </t>
         </is>
       </c>
       <c r="AM194" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12/2025 </t>
+          <t xml:space="preserve">9/23/2025 </t>
         </is>
       </c>
       <c r="AN194" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="AO194" t="inlineStr">
@@ -43684,13 +43648,13 @@
       </c>
       <c r="AQ194" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>AOC 27” QHD OLED gaming monitor</t>
         </is>
       </c>
       <c r="AR194" t="inlineStr"/>
       <c r="AS194" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT194" t="inlineStr">
@@ -43699,37 +43663,33 @@
         </is>
       </c>
       <c r="AU194" t="n">
-        <v>12.86336735330222</v>
+        <v>65.132025</v>
       </c>
       <c r="AV194" t="n">
-        <v>12.86336735330222</v>
+        <v>65.132025</v>
       </c>
       <c r="AW194" t="n">
-        <v>145.5051</v>
+        <v>638.96</v>
       </c>
       <c r="AX194" t="n">
-        <v>145.5051</v>
+        <v>638.96</v>
       </c>
       <c r="AY194" t="n">
-        <v>0.303</v>
-      </c>
-      <c r="AZ194" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A654244 </t>
-        </is>
-      </c>
+        <v>1.0001</v>
+      </c>
+      <c r="AZ194" t="inlineStr"/>
       <c r="BA194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB194" t="n">
-        <v>840063203563</v>
+        <v>685417736485</v>
       </c>
       <c r="BC194" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD194" t="inlineStr">
         <is>
-          <t>S00361736-10000</t>
+          <t>S00360016-20000</t>
         </is>
       </c>
     </row>
@@ -43749,77 +43709,75 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D195" t="n">
-        <v>72</v>
-      </c>
+      <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>DC#1008, 19890-92A AVE.</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>LANGLEY</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>V1M 3A9</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>S00364306</t>
+          <t>S00361732</t>
         </is>
       </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
-        <v>70863737</v>
+        <v>70852843</v>
       </c>
       <c r="O195" t="n">
-        <v>1950680012</v>
+        <v>59157141</v>
       </c>
       <c r="P195" s="2" t="n">
-        <v>45910</v>
+        <v>45902</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:54 PM</t>
+          <t>9/2/2025 11:34:51 AM</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="T195" t="inlineStr"/>
       <c r="U195" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="V195" t="inlineStr">
         <is>
@@ -43827,21 +43785,23 @@
         </is>
       </c>
       <c r="W195" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="X195" t="inlineStr">
         <is>
-          <t>TAB4500/37</t>
-        </is>
-      </c>
-      <c r="Y195" t="n">
-        <v>50914401</v>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y195" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z195" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="AA195" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="AB195" t="inlineStr"/>
       <c r="AC195" t="inlineStr"/>
@@ -43872,7 +43832,7 @@
       </c>
       <c r="AI195" t="inlineStr">
         <is>
-          <t>A654835</t>
+          <t>A654265</t>
         </is>
       </c>
       <c r="AJ195" t="inlineStr">
@@ -43887,17 +43847,17 @@
       </c>
       <c r="AL195" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AM195" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AN195" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AO195" t="inlineStr">
@@ -43912,7 +43872,7 @@
       </c>
       <c r="AQ195" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR195" t="inlineStr"/>
@@ -43927,37 +43887,37 @@
         </is>
       </c>
       <c r="AU195" t="n">
-        <v>103.3335496111111</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AV195" t="n">
-        <v>103.3335496111111</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AW195" t="n">
-        <v>484.88</v>
+        <v>72.7</v>
       </c>
       <c r="AX195" t="n">
-        <v>484.88</v>
+        <v>72.7</v>
       </c>
       <c r="AY195" t="n">
-        <v>2.2</v>
+        <v>0.1515</v>
       </c>
       <c r="AZ195" t="inlineStr">
         <is>
-          <t>A654835</t>
+          <t>A654265</t>
         </is>
       </c>
       <c r="BA195" t="n">
         <v>2</v>
       </c>
       <c r="BB195" t="n">
-        <v>840063204553</v>
+        <v>840063203563</v>
       </c>
       <c r="BC195" t="n">
         <v>10000</v>
       </c>
       <c r="BD195" t="inlineStr">
         <is>
-          <t>S00364306-10000</t>
+          <t>S00361732-10000</t>
         </is>
       </c>
     </row>
@@ -43977,32 +43937,30 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D196" t="n">
-        <v>72</v>
-      </c>
+      <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -44012,42 +43970,42 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>L6S 6G6</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>S00364306</t>
+          <t>S00361736</t>
         </is>
       </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="n">
-        <v>70863737</v>
+        <v>70852845</v>
       </c>
       <c r="O196" t="n">
-        <v>1950680012</v>
+        <v>59157142</v>
       </c>
       <c r="P196" s="2" t="n">
-        <v>45910</v>
+        <v>45902</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:54 PM</t>
+          <t>9/2/2025 11:49:54 AM</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/12/2025 </t>
         </is>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/12/2025 </t>
         </is>
       </c>
       <c r="T196" t="inlineStr"/>
       <c r="U196" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="V196" t="inlineStr">
         <is>
@@ -44055,21 +44013,23 @@
         </is>
       </c>
       <c r="W196" s="2" t="n">
-        <v>45917</v>
+        <v>45912</v>
       </c>
       <c r="X196" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
-        </is>
-      </c>
-      <c r="Y196" t="n">
-        <v>50914402</v>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y196" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
       </c>
       <c r="Z196" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="AA196" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="AB196" t="inlineStr"/>
       <c r="AC196" t="inlineStr"/>
@@ -44100,32 +44060,28 @@
       </c>
       <c r="AI196" t="inlineStr">
         <is>
-          <t>A654835</t>
+          <t xml:space="preserve">A654244 </t>
         </is>
       </c>
       <c r="AJ196" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK196" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK196" t="inlineStr"/>
       <c r="AL196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/12/2025 </t>
         </is>
       </c>
       <c r="AM196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/12/2025 </t>
         </is>
       </c>
       <c r="AN196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/12/2025 </t>
         </is>
       </c>
       <c r="AO196" t="inlineStr">
@@ -44140,7 +44096,7 @@
       </c>
       <c r="AQ196" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR196" t="inlineStr"/>
@@ -44155,37 +44111,37 @@
         </is>
       </c>
       <c r="AU196" t="n">
-        <v>53.190375</v>
+        <v>12.86336735330222</v>
       </c>
       <c r="AV196" t="n">
-        <v>53.190375</v>
+        <v>12.86336735330222</v>
       </c>
       <c r="AW196" t="n">
-        <v>446.4</v>
+        <v>145.5051</v>
       </c>
       <c r="AX196" t="n">
-        <v>446.4</v>
+        <v>145.5051</v>
       </c>
       <c r="AY196" t="n">
-        <v>0.9375</v>
+        <v>0.303</v>
       </c>
       <c r="AZ196" t="inlineStr">
         <is>
-          <t>A654835</t>
+          <t xml:space="preserve">A654244 </t>
         </is>
       </c>
       <c r="BA196" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB196" t="n">
-        <v>840063204546</v>
+        <v>840063203563</v>
       </c>
       <c r="BC196" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD196" t="inlineStr">
         <is>
-          <t>S00364306-20000</t>
+          <t>S00361736-10000</t>
         </is>
       </c>
     </row>
@@ -44225,12 +44181,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -44240,42 +44196,42 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>S00364307</t>
+          <t>S00364306</t>
         </is>
       </c>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="n">
-        <v>70863735</v>
+        <v>70863737</v>
       </c>
       <c r="O197" t="n">
-        <v>6600680007</v>
+        <v>1950680012</v>
       </c>
       <c r="P197" s="2" t="n">
         <v>45910</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:55 PM</t>
+          <t>9/10/2025 2:23:54 PM</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="T197" t="inlineStr"/>
       <c r="U197" s="2" t="n">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="V197" t="inlineStr">
         <is>
@@ -44283,21 +44239,23 @@
         </is>
       </c>
       <c r="W197" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="X197" t="inlineStr">
         <is>
           <t>TAB4500/37</t>
         </is>
       </c>
-      <c r="Y197" t="n">
-        <v>50914401</v>
+      <c r="Y197" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
       </c>
       <c r="Z197" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AA197" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AB197" t="inlineStr"/>
       <c r="AC197" t="inlineStr"/>
@@ -44328,7 +44286,7 @@
       </c>
       <c r="AI197" t="inlineStr">
         <is>
-          <t>A654833</t>
+          <t>A654835</t>
         </is>
       </c>
       <c r="AJ197" t="inlineStr">
@@ -44343,17 +44301,17 @@
       </c>
       <c r="AL197" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AM197" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AN197" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AO197" t="inlineStr">
@@ -44383,23 +44341,23 @@
         </is>
       </c>
       <c r="AU197" t="n">
-        <v>140.9093858333333</v>
+        <v>103.3335496111111</v>
       </c>
       <c r="AV197" t="n">
-        <v>140.9093858333333</v>
+        <v>103.3335496111111</v>
       </c>
       <c r="AW197" t="n">
-        <v>661.2</v>
+        <v>484.88</v>
       </c>
       <c r="AX197" t="n">
-        <v>661.2</v>
+        <v>484.88</v>
       </c>
       <c r="AY197" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AZ197" t="inlineStr">
         <is>
-          <t>A654833</t>
+          <t>A654835</t>
         </is>
       </c>
       <c r="BA197" t="n">
@@ -44413,7 +44371,7 @@
       </c>
       <c r="BD197" t="inlineStr">
         <is>
-          <t>S00364307-10000</t>
+          <t>S00364306-10000</t>
         </is>
       </c>
     </row>
@@ -44453,12 +44411,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -44468,42 +44426,42 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>S00364307</t>
+          <t>S00364306</t>
         </is>
       </c>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="n">
-        <v>70863735</v>
+        <v>70863737</v>
       </c>
       <c r="O198" t="n">
-        <v>6600680007</v>
+        <v>1950680012</v>
       </c>
       <c r="P198" s="2" t="n">
         <v>45910</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:55 PM</t>
+          <t>9/10/2025 2:23:54 PM</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="T198" t="inlineStr"/>
       <c r="U198" s="2" t="n">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="V198" t="inlineStr">
         <is>
@@ -44511,21 +44469,23 @@
         </is>
       </c>
       <c r="W198" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="X198" t="inlineStr">
         <is>
           <t>TAB4000/37</t>
         </is>
       </c>
-      <c r="Y198" t="n">
-        <v>50914402</v>
+      <c r="Y198" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
       </c>
       <c r="Z198" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AA198" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AB198" t="inlineStr"/>
       <c r="AC198" t="inlineStr"/>
@@ -44556,7 +44516,7 @@
       </c>
       <c r="AI198" t="inlineStr">
         <is>
-          <t>A654833</t>
+          <t>A654835</t>
         </is>
       </c>
       <c r="AJ198" t="inlineStr">
@@ -44571,17 +44531,17 @@
       </c>
       <c r="AL198" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AM198" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AN198" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AO198" t="inlineStr">
@@ -44611,23 +44571,23 @@
         </is>
       </c>
       <c r="AU198" t="n">
-        <v>70.9205</v>
+        <v>53.190375</v>
       </c>
       <c r="AV198" t="n">
-        <v>70.9205</v>
+        <v>53.190375</v>
       </c>
       <c r="AW198" t="n">
-        <v>595.2</v>
+        <v>446.4</v>
       </c>
       <c r="AX198" t="n">
-        <v>595.2</v>
+        <v>446.4</v>
       </c>
       <c r="AY198" t="n">
-        <v>1.25</v>
+        <v>0.9375</v>
       </c>
       <c r="AZ198" t="inlineStr">
         <is>
-          <t>A654833</t>
+          <t>A654835</t>
         </is>
       </c>
       <c r="BA198" t="n">
@@ -44641,7 +44601,7 @@
       </c>
       <c r="BD198" t="inlineStr">
         <is>
-          <t>S00364307-20000</t>
+          <t>S00364306-20000</t>
         </is>
       </c>
     </row>
@@ -44681,42 +44641,42 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>S00364308</t>
+          <t>S00364307</t>
         </is>
       </c>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="n">
-        <v>70863736</v>
+        <v>70863735</v>
       </c>
       <c r="O199" t="n">
-        <v>7400960004</v>
+        <v>6600680007</v>
       </c>
       <c r="P199" s="2" t="n">
         <v>45910</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:57 PM</t>
+          <t>9/10/2025 2:23:55 PM</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
@@ -44731,7 +44691,7 @@
       </c>
       <c r="T199" t="inlineStr"/>
       <c r="U199" s="2" t="n">
-        <v>45917</v>
+        <v>45921</v>
       </c>
       <c r="V199" t="inlineStr">
         <is>
@@ -44746,14 +44706,16 @@
           <t>TAB4500/37</t>
         </is>
       </c>
-      <c r="Y199" t="n">
-        <v>50914401</v>
+      <c r="Y199" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
       </c>
       <c r="Z199" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AA199" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AB199" t="inlineStr"/>
       <c r="AC199" t="inlineStr"/>
@@ -44784,15 +44746,19 @@
       </c>
       <c r="AI199" t="inlineStr">
         <is>
-          <t>A654856</t>
+          <t>A654833</t>
         </is>
       </c>
       <c r="AJ199" t="inlineStr">
         <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK199" t="inlineStr"/>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK199" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
       <c r="AL199" t="inlineStr">
         <is>
           <t xml:space="preserve">9/16/2025 </t>
@@ -44835,23 +44801,23 @@
         </is>
       </c>
       <c r="AU199" t="n">
-        <v>187.8791811111111</v>
+        <v>140.9093858333333</v>
       </c>
       <c r="AV199" t="n">
-        <v>187.8791811111111</v>
+        <v>140.9093858333333</v>
       </c>
       <c r="AW199" t="n">
-        <v>881.6</v>
+        <v>661.2</v>
       </c>
       <c r="AX199" t="n">
-        <v>881.6</v>
+        <v>661.2</v>
       </c>
       <c r="AY199" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ199" t="inlineStr">
         <is>
-          <t>A654856</t>
+          <t>A654833</t>
         </is>
       </c>
       <c r="BA199" t="n">
@@ -44865,7 +44831,7 @@
       </c>
       <c r="BD199" t="inlineStr">
         <is>
-          <t>S00364308-10000</t>
+          <t>S00364307-10000</t>
         </is>
       </c>
     </row>
@@ -44905,42 +44871,42 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>S00364308</t>
+          <t>S00364307</t>
         </is>
       </c>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="n">
-        <v>70863736</v>
+        <v>70863735</v>
       </c>
       <c r="O200" t="n">
-        <v>7400960004</v>
+        <v>6600680007</v>
       </c>
       <c r="P200" s="2" t="n">
         <v>45910</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:57 PM</t>
+          <t>9/10/2025 2:23:55 PM</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
@@ -44955,7 +44921,7 @@
       </c>
       <c r="T200" t="inlineStr"/>
       <c r="U200" s="2" t="n">
-        <v>45917</v>
+        <v>45921</v>
       </c>
       <c r="V200" t="inlineStr">
         <is>
@@ -44970,14 +44936,16 @@
           <t>TAB4000/37</t>
         </is>
       </c>
-      <c r="Y200" t="n">
-        <v>50914402</v>
+      <c r="Y200" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
       </c>
       <c r="Z200" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AA200" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AB200" t="inlineStr"/>
       <c r="AC200" t="inlineStr"/>
@@ -45008,15 +44976,19 @@
       </c>
       <c r="AI200" t="inlineStr">
         <is>
-          <t>A654856</t>
+          <t>A654833</t>
         </is>
       </c>
       <c r="AJ200" t="inlineStr">
         <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK200" t="inlineStr"/>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK200" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
       <c r="AL200" t="inlineStr">
         <is>
           <t xml:space="preserve">9/16/2025 </t>
@@ -45059,23 +45031,23 @@
         </is>
       </c>
       <c r="AU200" t="n">
-        <v>67.374475</v>
+        <v>70.9205</v>
       </c>
       <c r="AV200" t="n">
-        <v>67.374475</v>
+        <v>70.9205</v>
       </c>
       <c r="AW200" t="n">
-        <v>565.4400000000001</v>
+        <v>595.2</v>
       </c>
       <c r="AX200" t="n">
-        <v>565.4400000000001</v>
+        <v>595.2</v>
       </c>
       <c r="AY200" t="n">
-        <v>1.1875</v>
+        <v>1.25</v>
       </c>
       <c r="AZ200" t="inlineStr">
         <is>
-          <t>A654856</t>
+          <t>A654833</t>
         </is>
       </c>
       <c r="BA200" t="n">
@@ -45089,7 +45061,7 @@
       </c>
       <c r="BD200" t="inlineStr">
         <is>
-          <t>S00364308-20000</t>
+          <t>S00364307-20000</t>
         </is>
       </c>
     </row>
@@ -45129,57 +45101,57 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>S00365494</t>
+          <t>S00364308</t>
         </is>
       </c>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="n">
-        <v>70870422</v>
+        <v>70863736</v>
       </c>
       <c r="O201" t="n">
-        <v>8950800525</v>
+        <v>7400960004</v>
       </c>
       <c r="P201" s="2" t="n">
-        <v>45915</v>
+        <v>45910</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>9/15/2025 9:24:42 AM</t>
+          <t>9/10/2025 2:23:57 PM</t>
         </is>
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>9/19/2025 1:37:53 PM</t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>9/19/2025 1:37:53 PM</t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="T201" t="inlineStr"/>
       <c r="U201" s="2" t="n">
-        <v>45927</v>
+        <v>45917</v>
       </c>
       <c r="V201" t="inlineStr">
         <is>
@@ -45187,21 +45159,23 @@
         </is>
       </c>
       <c r="W201" s="2" t="n">
-        <v>45919</v>
+        <v>45916</v>
       </c>
       <c r="X201" t="inlineStr">
         <is>
           <t>TAB4500/37</t>
         </is>
       </c>
-      <c r="Y201" t="n">
-        <v>50914401</v>
+      <c r="Y201" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
       </c>
       <c r="Z201" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AA201" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AB201" t="inlineStr"/>
       <c r="AC201" t="inlineStr"/>
@@ -45232,32 +45206,28 @@
       </c>
       <c r="AI201" t="inlineStr">
         <is>
-          <t>A655231</t>
+          <t>A654856</t>
         </is>
       </c>
       <c r="AJ201" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK201" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK201" t="inlineStr"/>
       <c r="AL201" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AM201" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AN201" t="inlineStr">
         <is>
-          <t>9/19/2025 1:37:53 PM</t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AO201" t="inlineStr">
@@ -45287,23 +45257,23 @@
         </is>
       </c>
       <c r="AU201" t="n">
-        <v>216.0610582777778</v>
+        <v>187.8791811111111</v>
       </c>
       <c r="AV201" t="n">
-        <v>216.0610582777778</v>
+        <v>187.8791811111111</v>
       </c>
       <c r="AW201" t="n">
-        <v>1013.84</v>
+        <v>881.6</v>
       </c>
       <c r="AX201" t="n">
-        <v>1013.84</v>
+        <v>881.6</v>
       </c>
       <c r="AY201" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="AZ201" t="inlineStr">
         <is>
-          <t>A655231</t>
+          <t>A654856</t>
         </is>
       </c>
       <c r="BA201" t="n">
@@ -45317,7 +45287,7 @@
       </c>
       <c r="BD201" t="inlineStr">
         <is>
-          <t>S00365494-10000</t>
+          <t>S00364308-10000</t>
         </is>
       </c>
     </row>
@@ -45357,57 +45327,57 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>S00365494</t>
+          <t>S00364308</t>
         </is>
       </c>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="n">
-        <v>70870422</v>
+        <v>70863736</v>
       </c>
       <c r="O202" t="n">
-        <v>8950800525</v>
+        <v>7400960004</v>
       </c>
       <c r="P202" s="2" t="n">
-        <v>45915</v>
+        <v>45910</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>9/15/2025 9:24:42 AM</t>
+          <t>9/10/2025 2:23:57 PM</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>9/19/2025 1:37:53 PM</t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t>9/19/2025 1:37:53 PM</t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="T202" t="inlineStr"/>
       <c r="U202" s="2" t="n">
-        <v>45927</v>
+        <v>45917</v>
       </c>
       <c r="V202" t="inlineStr">
         <is>
@@ -45415,21 +45385,23 @@
         </is>
       </c>
       <c r="W202" s="2" t="n">
-        <v>45919</v>
+        <v>45916</v>
       </c>
       <c r="X202" t="inlineStr">
         <is>
           <t>TAB4000/37</t>
         </is>
       </c>
-      <c r="Y202" t="n">
-        <v>50914402</v>
+      <c r="Y202" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
       </c>
       <c r="Z202" t="n">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="AA202" t="n">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="AB202" t="inlineStr"/>
       <c r="AC202" t="inlineStr"/>
@@ -45460,32 +45432,28 @@
       </c>
       <c r="AI202" t="inlineStr">
         <is>
-          <t>A655231</t>
+          <t>A654856</t>
         </is>
       </c>
       <c r="AJ202" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK202" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK202" t="inlineStr"/>
       <c r="AL202" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AM202" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AN202" t="inlineStr">
         <is>
-          <t>9/19/2025 1:37:53 PM</t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AO202" t="inlineStr">
@@ -45515,23 +45483,23 @@
         </is>
       </c>
       <c r="AU202" t="n">
-        <v>33.6872375</v>
+        <v>67.374475</v>
       </c>
       <c r="AV202" t="n">
-        <v>33.6872375</v>
+        <v>67.374475</v>
       </c>
       <c r="AW202" t="n">
-        <v>282.72</v>
+        <v>565.4400000000001</v>
       </c>
       <c r="AX202" t="n">
-        <v>282.72</v>
+        <v>565.4400000000001</v>
       </c>
       <c r="AY202" t="n">
-        <v>0.6794</v>
+        <v>1.1875</v>
       </c>
       <c r="AZ202" t="inlineStr">
         <is>
-          <t>A655231</t>
+          <t>A654856</t>
         </is>
       </c>
       <c r="BA202" t="n">
@@ -45545,7 +45513,7 @@
       </c>
       <c r="BD202" t="inlineStr">
         <is>
-          <t>S00365494-20000</t>
+          <t>S00364308-20000</t>
         </is>
       </c>
     </row>
@@ -45585,12 +45553,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -45600,42 +45568,42 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>S00365495</t>
+          <t>S00365494</t>
         </is>
       </c>
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="n">
-        <v>70870420</v>
+        <v>70870422</v>
       </c>
       <c r="O203" t="n">
-        <v>8900800534</v>
+        <v>8950800525</v>
       </c>
       <c r="P203" s="2" t="n">
         <v>45915</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>9/15/2025 9:24:44 AM</t>
+          <t>9/15/2025 9:24:42 AM</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>9/19/2025 1:39:28 PM</t>
+          <t>9/19/2025 1:37:53 PM</t>
         </is>
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>9/19/2025 1:39:28 PM</t>
+          <t>9/19/2025 1:37:53 PM</t>
         </is>
       </c>
       <c r="T203" t="inlineStr"/>
       <c r="U203" s="2" t="n">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="V203" t="inlineStr">
         <is>
@@ -45650,14 +45618,16 @@
           <t>TAB4500/37</t>
         </is>
       </c>
-      <c r="Y203" t="n">
-        <v>50914401</v>
+      <c r="Y203" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
       </c>
       <c r="Z203" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AA203" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AB203" t="inlineStr"/>
       <c r="AC203" t="inlineStr"/>
@@ -45688,7 +45658,7 @@
       </c>
       <c r="AI203" t="inlineStr">
         <is>
-          <t>A655230</t>
+          <t>A655231</t>
         </is>
       </c>
       <c r="AJ203" t="inlineStr">
@@ -45713,7 +45683,7 @@
       </c>
       <c r="AN203" t="inlineStr">
         <is>
-          <t>9/19/2025 1:39:28 PM</t>
+          <t>9/19/2025 1:37:53 PM</t>
         </is>
       </c>
       <c r="AO203" t="inlineStr">
@@ -45743,23 +45713,23 @@
         </is>
       </c>
       <c r="AU203" t="n">
-        <v>197.2731401666667</v>
+        <v>216.0610582777778</v>
       </c>
       <c r="AV203" t="n">
-        <v>197.2731401666667</v>
+        <v>216.0610582777778</v>
       </c>
       <c r="AW203" t="n">
-        <v>925.6799999999999</v>
+        <v>1013.84</v>
       </c>
       <c r="AX203" t="n">
-        <v>925.6799999999999</v>
+        <v>1013.84</v>
       </c>
       <c r="AY203" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AZ203" t="inlineStr">
         <is>
-          <t>A655230</t>
+          <t>A655231</t>
         </is>
       </c>
       <c r="BA203" t="n">
@@ -45773,7 +45743,7 @@
       </c>
       <c r="BD203" t="inlineStr">
         <is>
-          <t>S00365495-10000</t>
+          <t>S00365494-10000</t>
         </is>
       </c>
     </row>
@@ -45813,12 +45783,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -45828,42 +45798,42 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>S00365495</t>
+          <t>S00365494</t>
         </is>
       </c>
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="n">
-        <v>70870420</v>
+        <v>70870422</v>
       </c>
       <c r="O204" t="n">
-        <v>8900800534</v>
+        <v>8950800525</v>
       </c>
       <c r="P204" s="2" t="n">
         <v>45915</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>9/15/2025 9:24:44 AM</t>
+          <t>9/15/2025 9:24:42 AM</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>9/19/2025 1:39:28 PM</t>
+          <t>9/19/2025 1:37:53 PM</t>
         </is>
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>9/19/2025 1:39:28 PM</t>
+          <t>9/19/2025 1:37:53 PM</t>
         </is>
       </c>
       <c r="T204" t="inlineStr"/>
       <c r="U204" s="2" t="n">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="V204" t="inlineStr">
         <is>
@@ -45878,8 +45848,10 @@
           <t>TAB4000/37</t>
         </is>
       </c>
-      <c r="Y204" t="n">
-        <v>50914402</v>
+      <c r="Y204" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
       </c>
       <c r="Z204" t="n">
         <v>57</v>
@@ -45916,7 +45888,7 @@
       </c>
       <c r="AI204" t="inlineStr">
         <is>
-          <t>A655230</t>
+          <t>A655231</t>
         </is>
       </c>
       <c r="AJ204" t="inlineStr">
@@ -45941,7 +45913,7 @@
       </c>
       <c r="AN204" t="inlineStr">
         <is>
-          <t>9/19/2025 1:39:28 PM</t>
+          <t>9/19/2025 1:37:53 PM</t>
         </is>
       </c>
       <c r="AO204" t="inlineStr">
@@ -45983,11 +45955,11 @@
         <v>282.72</v>
       </c>
       <c r="AY204" t="n">
-        <v>0.5938</v>
+        <v>0.6794</v>
       </c>
       <c r="AZ204" t="inlineStr">
         <is>
-          <t>A655230</t>
+          <t>A655231</t>
         </is>
       </c>
       <c r="BA204" t="n">
@@ -46001,7 +45973,7 @@
       </c>
       <c r="BD204" t="inlineStr">
         <is>
-          <t>S00365495-20000</t>
+          <t>S00365494-20000</t>
         </is>
       </c>
     </row>
@@ -46041,57 +46013,57 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>S00365496</t>
+          <t>S00365495</t>
         </is>
       </c>
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="n">
-        <v>70870418</v>
+        <v>70870420</v>
       </c>
       <c r="O205" t="n">
-        <v>8300840366</v>
+        <v>8900800534</v>
       </c>
       <c r="P205" s="2" t="n">
         <v>45915</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>9/15/2025 9:24:45 AM</t>
+          <t>9/15/2025 9:24:44 AM</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>9/19/2025 1:42:35 PM</t>
+          <t>9/19/2025 1:39:28 PM</t>
         </is>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>9/19/2025 1:42:35 PM</t>
+          <t>9/19/2025 1:39:28 PM</t>
         </is>
       </c>
       <c r="T205" t="inlineStr"/>
       <c r="U205" s="2" t="n">
-        <v>45922</v>
+        <v>45926</v>
       </c>
       <c r="V205" t="inlineStr">
         <is>
@@ -46106,14 +46078,16 @@
           <t>TAB4500/37</t>
         </is>
       </c>
-      <c r="Y205" t="n">
-        <v>50914401</v>
+      <c r="Y205" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
       </c>
       <c r="Z205" t="n">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="AA205" t="n">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="AB205" t="inlineStr"/>
       <c r="AC205" t="inlineStr"/>
@@ -46144,7 +46118,7 @@
       </c>
       <c r="AI205" t="inlineStr">
         <is>
-          <t>A655228</t>
+          <t>A655230</t>
         </is>
       </c>
       <c r="AJ205" t="inlineStr">
@@ -46169,7 +46143,7 @@
       </c>
       <c r="AN205" t="inlineStr">
         <is>
-          <t>9/19/2025 1:42:35 PM</t>
+          <t>9/19/2025 1:39:28 PM</t>
         </is>
       </c>
       <c r="AO205" t="inlineStr">
@@ -46199,23 +46173,23 @@
         </is>
       </c>
       <c r="AU205" t="n">
-        <v>70.45469291666667</v>
+        <v>197.2731401666667</v>
       </c>
       <c r="AV205" t="n">
-        <v>70.45469291666667</v>
+        <v>197.2731401666667</v>
       </c>
       <c r="AW205" t="n">
-        <v>330.6</v>
+        <v>925.6799999999999</v>
       </c>
       <c r="AX205" t="n">
-        <v>330.6</v>
+        <v>925.6799999999999</v>
       </c>
       <c r="AY205" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="AZ205" t="inlineStr">
         <is>
-          <t>A655228</t>
+          <t>A655230</t>
         </is>
       </c>
       <c r="BA205" t="n">
@@ -46229,7 +46203,7 @@
       </c>
       <c r="BD205" t="inlineStr">
         <is>
-          <t>S00365496-10000</t>
+          <t>S00365495-10000</t>
         </is>
       </c>
     </row>
@@ -46269,57 +46243,57 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>S00365496</t>
+          <t>S00365495</t>
         </is>
       </c>
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="n">
-        <v>70870418</v>
+        <v>70870420</v>
       </c>
       <c r="O206" t="n">
-        <v>8300840366</v>
+        <v>8900800534</v>
       </c>
       <c r="P206" s="2" t="n">
         <v>45915</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>9/15/2025 9:24:45 AM</t>
+          <t>9/15/2025 9:24:44 AM</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>9/19/2025 1:42:35 PM</t>
+          <t>9/19/2025 1:39:28 PM</t>
         </is>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>9/19/2025 1:42:35 PM</t>
+          <t>9/19/2025 1:39:28 PM</t>
         </is>
       </c>
       <c r="T206" t="inlineStr"/>
       <c r="U206" s="2" t="n">
-        <v>45922</v>
+        <v>45926</v>
       </c>
       <c r="V206" t="inlineStr">
         <is>
@@ -46334,14 +46308,16 @@
           <t>TAB4000/37</t>
         </is>
       </c>
-      <c r="Y206" t="n">
-        <v>50914402</v>
+      <c r="Y206" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
       </c>
       <c r="Z206" t="n">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="AA206" t="n">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="AB206" t="inlineStr"/>
       <c r="AC206" t="inlineStr"/>
@@ -46372,7 +46348,7 @@
       </c>
       <c r="AI206" t="inlineStr">
         <is>
-          <t>A655228</t>
+          <t>A655230</t>
         </is>
       </c>
       <c r="AJ206" t="inlineStr">
@@ -46397,7 +46373,7 @@
       </c>
       <c r="AN206" t="inlineStr">
         <is>
-          <t>9/19/2025 1:42:35 PM</t>
+          <t>9/19/2025 1:39:28 PM</t>
         </is>
       </c>
       <c r="AO206" t="inlineStr">
@@ -46427,23 +46403,23 @@
         </is>
       </c>
       <c r="AU206" t="n">
-        <v>49.64435</v>
+        <v>33.6872375</v>
       </c>
       <c r="AV206" t="n">
-        <v>49.64435</v>
+        <v>33.6872375</v>
       </c>
       <c r="AW206" t="n">
-        <v>416.64</v>
+        <v>282.72</v>
       </c>
       <c r="AX206" t="n">
-        <v>416.64</v>
+        <v>282.72</v>
       </c>
       <c r="AY206" t="n">
-        <v>0.875</v>
+        <v>0.5938</v>
       </c>
       <c r="AZ206" t="inlineStr">
         <is>
-          <t>A655228</t>
+          <t>A655230</t>
         </is>
       </c>
       <c r="BA206" t="n">
@@ -46456,6 +46432,466 @@
         <v>20000</v>
       </c>
       <c r="BD206" t="inlineStr">
+        <is>
+          <t>S00365495-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>72</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>S00365496</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
+        <v>70870418</v>
+      </c>
+      <c r="O207" t="n">
+        <v>8300840366</v>
+      </c>
+      <c r="P207" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>9/15/2025 9:24:45 AM</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:42:35 PM</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:42:35 PM</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr"/>
+      <c r="U207" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W207" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="X207" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y207" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
+      </c>
+      <c r="Z207" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB207" t="inlineStr"/>
+      <c r="AC207" t="inlineStr"/>
+      <c r="AD207" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE207" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF207" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG207" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH207" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI207" t="inlineStr">
+        <is>
+          <t>A655228</t>
+        </is>
+      </c>
+      <c r="AJ207" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK207" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/19/2025 </t>
+        </is>
+      </c>
+      <c r="AM207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/19/2025 </t>
+        </is>
+      </c>
+      <c r="AN207" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:42:35 PM</t>
+        </is>
+      </c>
+      <c r="AO207" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP207" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ207" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR207" t="inlineStr"/>
+      <c r="AS207" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT207" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU207" t="n">
+        <v>70.45469291666667</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>70.45469291666667</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>330.6</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>330.6</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AZ207" t="inlineStr">
+        <is>
+          <t>A655228</t>
+        </is>
+      </c>
+      <c r="BA207" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD207" t="inlineStr">
+        <is>
+          <t>S00365496-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>72</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>S00365496</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
+        <v>70870418</v>
+      </c>
+      <c r="O208" t="n">
+        <v>8300840366</v>
+      </c>
+      <c r="P208" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>9/15/2025 9:24:45 AM</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:42:35 PM</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:42:35 PM</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr"/>
+      <c r="U208" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W208" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="X208" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y208" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z208" t="n">
+        <v>84</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>84</v>
+      </c>
+      <c r="AB208" t="inlineStr"/>
+      <c r="AC208" t="inlineStr"/>
+      <c r="AD208" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE208" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF208" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG208" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH208" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI208" t="inlineStr">
+        <is>
+          <t>A655228</t>
+        </is>
+      </c>
+      <c r="AJ208" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK208" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/19/2025 </t>
+        </is>
+      </c>
+      <c r="AM208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/19/2025 </t>
+        </is>
+      </c>
+      <c r="AN208" t="inlineStr">
+        <is>
+          <t>9/19/2025 1:42:35 PM</t>
+        </is>
+      </c>
+      <c r="AO208" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP208" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ208" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR208" t="inlineStr"/>
+      <c r="AS208" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT208" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU208" t="n">
+        <v>49.64435</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>49.64435</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>416.64</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>416.64</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="AZ208" t="inlineStr">
+        <is>
+          <t>A655228</t>
+        </is>
+      </c>
+      <c r="BA208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD208" t="inlineStr">
         <is>
           <t>S00365496-20000</t>
         </is>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD208"/>
+  <dimension ref="A1:BD213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46897,6 +46897,1156 @@
         </is>
       </c>
     </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>72</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>S00367336</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
+        <v>70884096</v>
+      </c>
+      <c r="O209" t="n">
+        <v>8300840372</v>
+      </c>
+      <c r="P209" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>9/22/2025 6:40:48 AM</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W209" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="X209" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y209" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
+      </c>
+      <c r="Z209" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB209" t="inlineStr"/>
+      <c r="AC209" t="inlineStr"/>
+      <c r="AD209" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE209" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF209" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG209" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH209" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI209" t="inlineStr">
+        <is>
+          <t>A655589</t>
+        </is>
+      </c>
+      <c r="AJ209" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK209" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="AM209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="AN209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="AO209" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP209" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ209" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR209" t="inlineStr"/>
+      <c r="AS209" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT209" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU209" t="n">
+        <v>58.99822255555556</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>58.99822255555556</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AZ209" t="inlineStr">
+        <is>
+          <t>A655589</t>
+        </is>
+      </c>
+      <c r="BA209" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD209" t="inlineStr">
+        <is>
+          <t>S00367336-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>72</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>S00367337</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
+        <v>70884101</v>
+      </c>
+      <c r="O210" t="n">
+        <v>8950800531</v>
+      </c>
+      <c r="P210" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>9/22/2025 6:40:50 AM</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr"/>
+      <c r="U210" s="2" t="n">
+        <v>45934</v>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W210" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="X210" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y210" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
+      </c>
+      <c r="Z210" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB210" t="inlineStr"/>
+      <c r="AC210" t="inlineStr"/>
+      <c r="AD210" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE210" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF210" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG210" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH210" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI210" t="inlineStr">
+        <is>
+          <t>A655834</t>
+        </is>
+      </c>
+      <c r="AJ210" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK210" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="AM210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="AN210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="AO210" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP210" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ210" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR210" t="inlineStr"/>
+      <c r="AS210" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT210" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU210" t="n">
+        <v>14.10827061111111</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>14.10827061111111</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AZ210" t="inlineStr">
+        <is>
+          <t>A655834</t>
+        </is>
+      </c>
+      <c r="BA210" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD210" t="inlineStr">
+        <is>
+          <t>S00367337-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>72</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>S00367337</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
+        <v>70884101</v>
+      </c>
+      <c r="O211" t="n">
+        <v>8950800531</v>
+      </c>
+      <c r="P211" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>9/22/2025 6:40:50 AM</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr"/>
+      <c r="U211" s="2" t="n">
+        <v>45934</v>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W211" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="X211" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y211" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z211" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB211" t="inlineStr"/>
+      <c r="AC211" t="inlineStr"/>
+      <c r="AD211" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE211" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF211" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG211" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH211" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI211" t="inlineStr">
+        <is>
+          <t>A655834</t>
+        </is>
+      </c>
+      <c r="AJ211" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK211" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="AM211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="AN211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="AO211" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP211" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ211" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR211" t="inlineStr"/>
+      <c r="AS211" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT211" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU211" t="n">
+        <v>2.216265625</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>2.216265625</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>0.2083</v>
+      </c>
+      <c r="AZ211" t="inlineStr">
+        <is>
+          <t>A655834</t>
+        </is>
+      </c>
+      <c r="BA211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD211" t="inlineStr">
+        <is>
+          <t>S00367337-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>72</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>S00367338</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
+        <v>70884097</v>
+      </c>
+      <c r="O212" t="n">
+        <v>8900800539</v>
+      </c>
+      <c r="P212" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>9/22/2025 6:40:51 AM</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr"/>
+      <c r="U212" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W212" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="X212" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y212" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
+      </c>
+      <c r="Z212" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB212" t="inlineStr"/>
+      <c r="AC212" t="inlineStr"/>
+      <c r="AD212" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE212" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF212" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG212" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH212" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI212" t="inlineStr">
+        <is>
+          <t>A655832</t>
+        </is>
+      </c>
+      <c r="AJ212" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK212" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="AM212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="AN212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="AO212" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP212" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ212" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR212" t="inlineStr"/>
+      <c r="AS212" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT212" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU212" t="n">
+        <v>30.78168133333334</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>30.78168133333334</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AZ212" t="inlineStr">
+        <is>
+          <t>A655832</t>
+        </is>
+      </c>
+      <c r="BA212" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD212" t="inlineStr">
+        <is>
+          <t>S00367338-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>72</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>S00367338</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
+        <v>70884097</v>
+      </c>
+      <c r="O213" t="n">
+        <v>8900800539</v>
+      </c>
+      <c r="P213" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>9/22/2025 6:40:51 AM</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr"/>
+      <c r="U213" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W213" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="X213" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y213" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z213" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB213" t="inlineStr"/>
+      <c r="AC213" t="inlineStr"/>
+      <c r="AD213" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE213" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF213" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG213" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH213" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI213" t="inlineStr">
+        <is>
+          <t>A655832</t>
+        </is>
+      </c>
+      <c r="AJ213" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK213" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="AM213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="AN213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9/26/2025 </t>
+        </is>
+      </c>
+      <c r="AO213" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP213" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ213" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR213" t="inlineStr"/>
+      <c r="AS213" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT213" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU213" t="n">
+        <v>3.102771875</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>3.102771875</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>0.2917</v>
+      </c>
+      <c r="AZ213" t="inlineStr">
+        <is>
+          <t>A655832</t>
+        </is>
+      </c>
+      <c r="BA213" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD213" t="inlineStr">
+        <is>
+          <t>S00367338-20000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -43304,72 +43304,72 @@
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>TD SYNNEX Canada ULC</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>SUP009</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>TD SYNNEX Canada ULC</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>5280 72 Avenue SE</t>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>T2C 4G6</t>
+          <t>L6S 6G6</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>S00360016</t>
+          <t>S00361736</t>
         </is>
       </c>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="n">
-        <v>70838121</v>
+        <v>70852845</v>
       </c>
       <c r="O193" t="n">
-        <v>5370144</v>
+        <v>59157142</v>
       </c>
       <c r="P193" s="2" t="n">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>8/26/2025 9:52:19 AM</t>
+          <t>9/2/2025 11:49:54 AM</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t xml:space="preserve">9/12/2025 </t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t xml:space="preserve">9/12/2025 </t>
         </is>
       </c>
       <c r="T193" t="inlineStr"/>
       <c r="U193" s="2" t="n">
-        <v>45902</v>
+        <v>45915</v>
       </c>
       <c r="V193" t="inlineStr">
         <is>
@@ -43377,23 +43377,23 @@
         </is>
       </c>
       <c r="W193" s="2" t="n">
-        <v>45923</v>
+        <v>45912</v>
       </c>
       <c r="X193" t="inlineStr">
         <is>
-          <t>Q27G3XMN</t>
+          <t>TAB5109/37</t>
         </is>
       </c>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>ENV-Q27G3XMN</t>
+          <t>18597408</t>
         </is>
       </c>
       <c r="Z193" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AA193" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AB193" t="inlineStr"/>
       <c r="AC193" t="inlineStr"/>
@@ -43407,10 +43407,26 @@
           <t>M</t>
         </is>
       </c>
-      <c r="AF193" t="inlineStr"/>
-      <c r="AG193" t="inlineStr"/>
-      <c r="AH193" t="inlineStr"/>
-      <c r="AI193" t="inlineStr"/>
+      <c r="AF193" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG193" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH193" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A654244 </t>
+        </is>
+      </c>
       <c r="AJ193" t="inlineStr">
         <is>
           <t>Collect</t>
@@ -43419,17 +43435,17 @@
       <c r="AK193" t="inlineStr"/>
       <c r="AL193" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/23/2025 </t>
+          <t xml:space="preserve">9/12/2025 </t>
         </is>
       </c>
       <c r="AM193" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/23/2025 </t>
+          <t xml:space="preserve">9/12/2025 </t>
         </is>
       </c>
       <c r="AN193" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t xml:space="preserve">9/12/2025 </t>
         </is>
       </c>
       <c r="AO193" t="inlineStr">
@@ -43444,13 +43460,13 @@
       </c>
       <c r="AQ193" t="inlineStr">
         <is>
-          <t>AOC 27" Monitor</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR193" t="inlineStr"/>
       <c r="AS193" t="inlineStr">
         <is>
-          <t>TPV-MNT</t>
+          <t>TPV-AVA</t>
         </is>
       </c>
       <c r="AT193" t="inlineStr">
@@ -43459,33 +43475,37 @@
         </is>
       </c>
       <c r="AU193" t="n">
-        <v>70.76376999999999</v>
+        <v>12.86336735330222</v>
       </c>
       <c r="AV193" t="n">
-        <v>70.76376999999999</v>
+        <v>12.86336735330222</v>
       </c>
       <c r="AW193" t="n">
-        <v>646.08</v>
+        <v>145.5051</v>
       </c>
       <c r="AX193" t="n">
-        <v>646.08</v>
+        <v>145.5051</v>
       </c>
       <c r="AY193" t="n">
-        <v>0.8889</v>
-      </c>
-      <c r="AZ193" t="inlineStr"/>
+        <v>0.303</v>
+      </c>
+      <c r="AZ193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A654244 </t>
+        </is>
+      </c>
       <c r="BA193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB193" t="n">
-        <v>685417733583</v>
+        <v>840063203563</v>
       </c>
       <c r="BC193" t="n">
         <v>10000</v>
       </c>
       <c r="BD193" t="inlineStr">
         <is>
-          <t>S00360016-10000</t>
+          <t>S00361736-10000</t>
         </is>
       </c>
     </row>
@@ -43585,19 +43605,19 @@
       </c>
       <c r="X194" t="inlineStr">
         <is>
-          <t>AG276QZD2</t>
+          <t>Q27G3XMN</t>
         </is>
       </c>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>ENV-AG276QZD2</t>
+          <t>ENV-Q27G3XMN</t>
         </is>
       </c>
       <c r="Z194" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AA194" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AB194" t="inlineStr"/>
       <c r="AC194" t="inlineStr"/>
@@ -43648,7 +43668,7 @@
       </c>
       <c r="AQ194" t="inlineStr">
         <is>
-          <t>AOC 27” QHD OLED gaming monitor</t>
+          <t>AOC 27" Monitor</t>
         </is>
       </c>
       <c r="AR194" t="inlineStr"/>
@@ -43663,33 +43683,33 @@
         </is>
       </c>
       <c r="AU194" t="n">
-        <v>65.132025</v>
+        <v>70.76376999999999</v>
       </c>
       <c r="AV194" t="n">
-        <v>65.132025</v>
+        <v>70.76376999999999</v>
       </c>
       <c r="AW194" t="n">
-        <v>638.96</v>
+        <v>646.08</v>
       </c>
       <c r="AX194" t="n">
-        <v>638.96</v>
+        <v>646.08</v>
       </c>
       <c r="AY194" t="n">
-        <v>1.0001</v>
+        <v>0.8889</v>
       </c>
       <c r="AZ194" t="inlineStr"/>
       <c r="BA194" t="n">
         <v>1</v>
       </c>
       <c r="BB194" t="n">
-        <v>685417736485</v>
+        <v>685417733583</v>
       </c>
       <c r="BC194" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD194" t="inlineStr">
         <is>
-          <t>S00360016-20000</t>
+          <t>S00360016-10000</t>
         </is>
       </c>
     </row>
@@ -43712,72 +43732,72 @@
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>TD SYNNEX Canada ULC</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>SUP009</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>TD SYNNEX Canada ULC</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>DC#1008, 19890-92A AVE.</t>
+          <t>5280 72 Avenue SE</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>LANGLEY</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>V1M 3A9</t>
+          <t>T2C 4G6</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>S00361732</t>
+          <t>S00360016</t>
         </is>
       </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
-        <v>70852843</v>
+        <v>70838121</v>
       </c>
       <c r="O195" t="n">
-        <v>59157141</v>
+        <v>5370144</v>
       </c>
       <c r="P195" s="2" t="n">
-        <v>45902</v>
+        <v>45895</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>9/2/2025 11:34:51 AM</t>
+          <t>8/26/2025 9:52:19 AM</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="T195" t="inlineStr"/>
       <c r="U195" s="2" t="n">
-        <v>45915</v>
+        <v>45902</v>
       </c>
       <c r="V195" t="inlineStr">
         <is>
@@ -43785,23 +43805,23 @@
         </is>
       </c>
       <c r="W195" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="X195" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
+          <t>AG276QZD2</t>
         </is>
       </c>
       <c r="Y195" t="inlineStr">
         <is>
-          <t>18597408</t>
+          <t>ENV-AG276QZD2</t>
         </is>
       </c>
       <c r="Z195" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AA195" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AB195" t="inlineStr"/>
       <c r="AC195" t="inlineStr"/>
@@ -43815,49 +43835,29 @@
           <t>M</t>
         </is>
       </c>
-      <c r="AF195" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG195" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH195" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI195" t="inlineStr">
-        <is>
-          <t>A654265</t>
-        </is>
-      </c>
+      <c r="AF195" t="inlineStr"/>
+      <c r="AG195" t="inlineStr"/>
+      <c r="AH195" t="inlineStr"/>
+      <c r="AI195" t="inlineStr"/>
       <c r="AJ195" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK195" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK195" t="inlineStr"/>
       <c r="AL195" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/23/2025 </t>
         </is>
       </c>
       <c r="AM195" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/23/2025 </t>
         </is>
       </c>
       <c r="AN195" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="AO195" t="inlineStr">
@@ -43872,13 +43872,13 @@
       </c>
       <c r="AQ195" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>AOC 27” QHD OLED gaming monitor</t>
         </is>
       </c>
       <c r="AR195" t="inlineStr"/>
       <c r="AS195" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT195" t="inlineStr">
@@ -43887,37 +43887,33 @@
         </is>
       </c>
       <c r="AU195" t="n">
-        <v>6.431683676651111</v>
+        <v>65.132025</v>
       </c>
       <c r="AV195" t="n">
-        <v>6.431683676651111</v>
+        <v>65.132025</v>
       </c>
       <c r="AW195" t="n">
-        <v>72.7</v>
+        <v>638.96</v>
       </c>
       <c r="AX195" t="n">
-        <v>72.7</v>
+        <v>638.96</v>
       </c>
       <c r="AY195" t="n">
-        <v>0.1515</v>
-      </c>
-      <c r="AZ195" t="inlineStr">
-        <is>
-          <t>A654265</t>
-        </is>
-      </c>
+        <v>1.0001</v>
+      </c>
+      <c r="AZ195" t="inlineStr"/>
       <c r="BA195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB195" t="n">
-        <v>840063203563</v>
+        <v>685417736485</v>
       </c>
       <c r="BC195" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD195" t="inlineStr">
         <is>
-          <t>S00361732-10000</t>
+          <t>S00360016-20000</t>
         </is>
       </c>
     </row>
@@ -43955,52 +43951,52 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>DC#1016, 9200 AIRPORT RD.</t>
+          <t>DC#1008, 19890-92A AVE.</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>LANGLEY</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>L6S 6G6</t>
+          <t>V1M 3A9</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>S00361736</t>
+          <t>S00361732</t>
         </is>
       </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="n">
-        <v>70852845</v>
+        <v>70852843</v>
       </c>
       <c r="O196" t="n">
-        <v>59157142</v>
+        <v>59157141</v>
       </c>
       <c r="P196" s="2" t="n">
         <v>45902</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>9/2/2025 11:49:54 AM</t>
+          <t>9/2/2025 11:34:51 AM</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="T196" t="inlineStr"/>
@@ -44013,7 +44009,7 @@
         </is>
       </c>
       <c r="W196" s="2" t="n">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="X196" t="inlineStr">
         <is>
@@ -44026,10 +44022,10 @@
         </is>
       </c>
       <c r="Z196" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AA196" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AB196" t="inlineStr"/>
       <c r="AC196" t="inlineStr"/>
@@ -44060,28 +44056,32 @@
       </c>
       <c r="AI196" t="inlineStr">
         <is>
-          <t xml:space="preserve">A654244 </t>
+          <t>A654265</t>
         </is>
       </c>
       <c r="AJ196" t="inlineStr">
         <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK196" t="inlineStr"/>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK196" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
       <c r="AL196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AM196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AN196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AO196" t="inlineStr">
@@ -44111,23 +44111,23 @@
         </is>
       </c>
       <c r="AU196" t="n">
-        <v>12.86336735330222</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AV196" t="n">
-        <v>12.86336735330222</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AW196" t="n">
-        <v>145.5051</v>
+        <v>72.7</v>
       </c>
       <c r="AX196" t="n">
-        <v>145.5051</v>
+        <v>72.7</v>
       </c>
       <c r="AY196" t="n">
-        <v>0.303</v>
+        <v>0.1515</v>
       </c>
       <c r="AZ196" t="inlineStr">
         <is>
-          <t xml:space="preserve">A654244 </t>
+          <t>A654265</t>
         </is>
       </c>
       <c r="BA196" t="n">
@@ -44141,7 +44141,7 @@
       </c>
       <c r="BD196" t="inlineStr">
         <is>
-          <t>S00361736-10000</t>
+          <t>S00361732-10000</t>
         </is>
       </c>
     </row>

--- a/master.xlsx
+++ b/master.xlsx
@@ -43525,75 +43525,77 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr"/>
+      <c r="D194" t="n">
+        <v>72</v>
+      </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>TD SYNNEX Canada ULC</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>SUP009</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>TD SYNNEX Canada ULC</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>5280 72 Avenue SE</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>T2C 4G6</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>S00360016</t>
+          <t>S00364307</t>
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="n">
-        <v>70838121</v>
+        <v>70863735</v>
       </c>
       <c r="O194" t="n">
-        <v>5370144</v>
+        <v>6600680007</v>
       </c>
       <c r="P194" s="2" t="n">
-        <v>45895</v>
+        <v>45910</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>8/26/2025 9:52:19 AM</t>
+          <t>9/10/2025 2:23:55 PM</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="T194" t="inlineStr"/>
       <c r="U194" s="2" t="n">
-        <v>45902</v>
+        <v>45921</v>
       </c>
       <c r="V194" t="inlineStr">
         <is>
@@ -43601,23 +43603,23 @@
         </is>
       </c>
       <c r="W194" s="2" t="n">
-        <v>45923</v>
+        <v>45916</v>
       </c>
       <c r="X194" t="inlineStr">
         <is>
-          <t>Q27G3XMN</t>
+          <t>TAB4500/37</t>
         </is>
       </c>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>ENV-Q27G3XMN</t>
+          <t>050914401</t>
         </is>
       </c>
       <c r="Z194" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AA194" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AB194" t="inlineStr"/>
       <c r="AC194" t="inlineStr"/>
@@ -43631,29 +43633,49 @@
           <t>M</t>
         </is>
       </c>
-      <c r="AF194" t="inlineStr"/>
-      <c r="AG194" t="inlineStr"/>
-      <c r="AH194" t="inlineStr"/>
-      <c r="AI194" t="inlineStr"/>
+      <c r="AF194" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG194" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH194" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI194" t="inlineStr">
+        <is>
+          <t>A654833</t>
+        </is>
+      </c>
       <c r="AJ194" t="inlineStr">
         <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK194" t="inlineStr"/>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK194" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
       <c r="AL194" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/23/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AM194" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/23/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AN194" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AO194" t="inlineStr">
@@ -43668,13 +43690,13 @@
       </c>
       <c r="AQ194" t="inlineStr">
         <is>
-          <t>AOC 27" Monitor</t>
+          <t>Soundbar</t>
         </is>
       </c>
       <c r="AR194" t="inlineStr"/>
       <c r="AS194" t="inlineStr">
         <is>
-          <t>TPV-MNT</t>
+          <t>TPV-AVA</t>
         </is>
       </c>
       <c r="AT194" t="inlineStr">
@@ -43683,33 +43705,37 @@
         </is>
       </c>
       <c r="AU194" t="n">
-        <v>70.76376999999999</v>
+        <v>140.9093858333333</v>
       </c>
       <c r="AV194" t="n">
-        <v>70.76376999999999</v>
+        <v>140.9093858333333</v>
       </c>
       <c r="AW194" t="n">
-        <v>646.08</v>
+        <v>661.2</v>
       </c>
       <c r="AX194" t="n">
-        <v>646.08</v>
+        <v>661.2</v>
       </c>
       <c r="AY194" t="n">
-        <v>0.8889</v>
-      </c>
-      <c r="AZ194" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="AZ194" t="inlineStr">
+        <is>
+          <t>A654833</t>
+        </is>
+      </c>
       <c r="BA194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB194" t="n">
-        <v>685417733583</v>
+        <v>840063204553</v>
       </c>
       <c r="BC194" t="n">
         <v>10000</v>
       </c>
       <c r="BD194" t="inlineStr">
         <is>
-          <t>S00360016-10000</t>
+          <t>S00364307-10000</t>
         </is>
       </c>
     </row>
@@ -43729,75 +43755,77 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr"/>
+      <c r="D195" t="n">
+        <v>72</v>
+      </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>TD SYNNEX Canada ULC</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>SUP009</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>TD SYNNEX Canada ULC</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>5280 72 Avenue SE</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>T2C 4G6</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>S00360016</t>
+          <t>S00364307</t>
         </is>
       </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
-        <v>70838121</v>
+        <v>70863735</v>
       </c>
       <c r="O195" t="n">
-        <v>5370144</v>
+        <v>6600680007</v>
       </c>
       <c r="P195" s="2" t="n">
-        <v>45895</v>
+        <v>45910</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>8/26/2025 9:52:19 AM</t>
+          <t>9/10/2025 2:23:55 PM</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="T195" t="inlineStr"/>
       <c r="U195" s="2" t="n">
-        <v>45902</v>
+        <v>45921</v>
       </c>
       <c r="V195" t="inlineStr">
         <is>
@@ -43805,23 +43833,23 @@
         </is>
       </c>
       <c r="W195" s="2" t="n">
-        <v>45923</v>
+        <v>45916</v>
       </c>
       <c r="X195" t="inlineStr">
         <is>
-          <t>AG276QZD2</t>
+          <t>TAB4000/37</t>
         </is>
       </c>
       <c r="Y195" t="inlineStr">
         <is>
-          <t>ENV-AG276QZD2</t>
+          <t>050914402</t>
         </is>
       </c>
       <c r="Z195" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="AA195" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="AB195" t="inlineStr"/>
       <c r="AC195" t="inlineStr"/>
@@ -43835,29 +43863,49 @@
           <t>M</t>
         </is>
       </c>
-      <c r="AF195" t="inlineStr"/>
-      <c r="AG195" t="inlineStr"/>
-      <c r="AH195" t="inlineStr"/>
-      <c r="AI195" t="inlineStr"/>
+      <c r="AF195" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG195" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH195" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI195" t="inlineStr">
+        <is>
+          <t>A654833</t>
+        </is>
+      </c>
       <c r="AJ195" t="inlineStr">
         <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK195" t="inlineStr"/>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK195" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
       <c r="AL195" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/23/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AM195" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/23/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AN195" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AO195" t="inlineStr">
@@ -43872,13 +43920,13 @@
       </c>
       <c r="AQ195" t="inlineStr">
         <is>
-          <t>AOC 27” QHD OLED gaming monitor</t>
+          <t>Soundbar</t>
         </is>
       </c>
       <c r="AR195" t="inlineStr"/>
       <c r="AS195" t="inlineStr">
         <is>
-          <t>TPV-MNT</t>
+          <t>TPV-AVA</t>
         </is>
       </c>
       <c r="AT195" t="inlineStr">
@@ -43887,33 +43935,37 @@
         </is>
       </c>
       <c r="AU195" t="n">
-        <v>65.132025</v>
+        <v>70.9205</v>
       </c>
       <c r="AV195" t="n">
-        <v>65.132025</v>
+        <v>70.9205</v>
       </c>
       <c r="AW195" t="n">
-        <v>638.96</v>
+        <v>595.2</v>
       </c>
       <c r="AX195" t="n">
-        <v>638.96</v>
+        <v>595.2</v>
       </c>
       <c r="AY195" t="n">
-        <v>1.0001</v>
-      </c>
-      <c r="AZ195" t="inlineStr"/>
+        <v>1.25</v>
+      </c>
+      <c r="AZ195" t="inlineStr">
+        <is>
+          <t>A654833</t>
+        </is>
+      </c>
       <c r="BA195" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB195" t="n">
-        <v>685417736485</v>
+        <v>840063204546</v>
       </c>
       <c r="BC195" t="n">
         <v>20000</v>
       </c>
       <c r="BD195" t="inlineStr">
         <is>
-          <t>S00360016-20000</t>
+          <t>S00364307-20000</t>
         </is>
       </c>
     </row>
@@ -43933,75 +43985,77 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr"/>
+      <c r="D196" t="n">
+        <v>72</v>
+      </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>DC#1008, 19890-92A AVE.</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>LANGLEY</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>V1M 3A9</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>S00361732</t>
+          <t>S00364308</t>
         </is>
       </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="n">
-        <v>70852843</v>
+        <v>70863736</v>
       </c>
       <c r="O196" t="n">
-        <v>59157141</v>
+        <v>7400960004</v>
       </c>
       <c r="P196" s="2" t="n">
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>9/2/2025 11:34:51 AM</t>
+          <t>9/10/2025 2:23:57 PM</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="T196" t="inlineStr"/>
       <c r="U196" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="V196" t="inlineStr">
         <is>
@@ -44009,23 +44063,23 @@
         </is>
       </c>
       <c r="W196" s="2" t="n">
-        <v>45919</v>
+        <v>45916</v>
       </c>
       <c r="X196" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
+          <t>TAB4500/37</t>
         </is>
       </c>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>18597408</t>
+          <t>050914401</t>
         </is>
       </c>
       <c r="Z196" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="AA196" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="AB196" t="inlineStr"/>
       <c r="AC196" t="inlineStr"/>
@@ -44056,32 +44110,28 @@
       </c>
       <c r="AI196" t="inlineStr">
         <is>
-          <t>A654265</t>
+          <t>A654856</t>
         </is>
       </c>
       <c r="AJ196" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK196" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK196" t="inlineStr"/>
       <c r="AL196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AM196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AN196" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AO196" t="inlineStr">
@@ -44096,7 +44146,7 @@
       </c>
       <c r="AQ196" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>Soundbar</t>
         </is>
       </c>
       <c r="AR196" t="inlineStr"/>
@@ -44111,37 +44161,37 @@
         </is>
       </c>
       <c r="AU196" t="n">
-        <v>6.431683676651111</v>
+        <v>187.8791811111111</v>
       </c>
       <c r="AV196" t="n">
-        <v>6.431683676651111</v>
+        <v>187.8791811111111</v>
       </c>
       <c r="AW196" t="n">
-        <v>72.7</v>
+        <v>881.6</v>
       </c>
       <c r="AX196" t="n">
-        <v>72.7</v>
+        <v>881.6</v>
       </c>
       <c r="AY196" t="n">
-        <v>0.1515</v>
+        <v>4</v>
       </c>
       <c r="AZ196" t="inlineStr">
         <is>
-          <t>A654265</t>
+          <t>A654856</t>
         </is>
       </c>
       <c r="BA196" t="n">
         <v>2</v>
       </c>
       <c r="BB196" t="n">
-        <v>840063203563</v>
+        <v>840063204553</v>
       </c>
       <c r="BC196" t="n">
         <v>10000</v>
       </c>
       <c r="BD196" t="inlineStr">
         <is>
-          <t>S00361732-10000</t>
+          <t>S00364308-10000</t>
         </is>
       </c>
     </row>
@@ -44181,57 +44231,57 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>S00364306</t>
+          <t>S00364308</t>
         </is>
       </c>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="n">
-        <v>70863737</v>
+        <v>70863736</v>
       </c>
       <c r="O197" t="n">
-        <v>1950680012</v>
+        <v>7400960004</v>
       </c>
       <c r="P197" s="2" t="n">
         <v>45910</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:54 PM</t>
+          <t>9/10/2025 2:23:57 PM</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="T197" t="inlineStr"/>
       <c r="U197" s="2" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="V197" t="inlineStr">
         <is>
@@ -44239,23 +44289,23 @@
         </is>
       </c>
       <c r="W197" s="2" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="X197" t="inlineStr">
         <is>
-          <t>TAB4500/37</t>
+          <t>TAB4000/37</t>
         </is>
       </c>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>050914401</t>
+          <t>050914402</t>
         </is>
       </c>
       <c r="Z197" t="n">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="AA197" t="n">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="AB197" t="inlineStr"/>
       <c r="AC197" t="inlineStr"/>
@@ -44286,32 +44336,28 @@
       </c>
       <c r="AI197" t="inlineStr">
         <is>
-          <t>A654835</t>
+          <t>A654856</t>
         </is>
       </c>
       <c r="AJ197" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK197" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK197" t="inlineStr"/>
       <c r="AL197" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AM197" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AN197" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/16/2025 </t>
         </is>
       </c>
       <c r="AO197" t="inlineStr">
@@ -44341,37 +44387,37 @@
         </is>
       </c>
       <c r="AU197" t="n">
-        <v>103.3335496111111</v>
+        <v>67.374475</v>
       </c>
       <c r="AV197" t="n">
-        <v>103.3335496111111</v>
+        <v>67.374475</v>
       </c>
       <c r="AW197" t="n">
-        <v>484.88</v>
+        <v>565.4400000000001</v>
       </c>
       <c r="AX197" t="n">
-        <v>484.88</v>
+        <v>565.4400000000001</v>
       </c>
       <c r="AY197" t="n">
-        <v>2.2</v>
+        <v>1.1875</v>
       </c>
       <c r="AZ197" t="inlineStr">
         <is>
-          <t>A654835</t>
+          <t>A654856</t>
         </is>
       </c>
       <c r="BA197" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB197" t="n">
-        <v>840063204553</v>
+        <v>840063204546</v>
       </c>
       <c r="BC197" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD197" t="inlineStr">
         <is>
-          <t>S00364306-10000</t>
+          <t>S00364308-20000</t>
         </is>
       </c>
     </row>
@@ -44391,77 +44437,75 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>72</v>
-      </c>
+      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>SUP009</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>TD SYNNEX Canada ULC</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>5280 72 Avenue SE</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>T2C 4G6</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>S00364306</t>
+          <t>S00360016</t>
         </is>
       </c>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="n">
-        <v>70863737</v>
+        <v>70838121</v>
       </c>
       <c r="O198" t="n">
-        <v>1950680012</v>
+        <v>5370144</v>
       </c>
       <c r="P198" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:54 PM</t>
+          <t>8/26/2025 9:52:19 AM</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="T198" t="inlineStr"/>
       <c r="U198" s="2" t="n">
-        <v>45922</v>
+        <v>45902</v>
       </c>
       <c r="V198" t="inlineStr">
         <is>
@@ -44469,23 +44513,23 @@
         </is>
       </c>
       <c r="W198" s="2" t="n">
-        <v>45917</v>
+        <v>45923</v>
       </c>
       <c r="X198" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>Q27G3XMN</t>
         </is>
       </c>
       <c r="Y198" t="inlineStr">
         <is>
-          <t>050914402</t>
+          <t>ENV-Q27G3XMN</t>
         </is>
       </c>
       <c r="Z198" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AA198" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AB198" t="inlineStr"/>
       <c r="AC198" t="inlineStr"/>
@@ -44499,49 +44543,29 @@
           <t>M</t>
         </is>
       </c>
-      <c r="AF198" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG198" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH198" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI198" t="inlineStr">
-        <is>
-          <t>A654835</t>
-        </is>
-      </c>
+      <c r="AF198" t="inlineStr"/>
+      <c r="AG198" t="inlineStr"/>
+      <c r="AH198" t="inlineStr"/>
+      <c r="AI198" t="inlineStr"/>
       <c r="AJ198" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK198" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK198" t="inlineStr"/>
       <c r="AL198" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/23/2025 </t>
         </is>
       </c>
       <c r="AM198" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/23/2025 </t>
         </is>
       </c>
       <c r="AN198" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="AO198" t="inlineStr">
@@ -44556,13 +44580,13 @@
       </c>
       <c r="AQ198" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>AOC 27" Monitor</t>
         </is>
       </c>
       <c r="AR198" t="inlineStr"/>
       <c r="AS198" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT198" t="inlineStr">
@@ -44571,37 +44595,33 @@
         </is>
       </c>
       <c r="AU198" t="n">
-        <v>53.190375</v>
+        <v>70.76376999999999</v>
       </c>
       <c r="AV198" t="n">
-        <v>53.190375</v>
+        <v>70.76376999999999</v>
       </c>
       <c r="AW198" t="n">
-        <v>446.4</v>
+        <v>646.08</v>
       </c>
       <c r="AX198" t="n">
-        <v>446.4</v>
+        <v>646.08</v>
       </c>
       <c r="AY198" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="AZ198" t="inlineStr">
-        <is>
-          <t>A654835</t>
-        </is>
-      </c>
+        <v>0.8889</v>
+      </c>
+      <c r="AZ198" t="inlineStr"/>
       <c r="BA198" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB198" t="n">
-        <v>840063204546</v>
+        <v>685417733583</v>
       </c>
       <c r="BC198" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD198" t="inlineStr">
         <is>
-          <t>S00364306-20000</t>
+          <t>S00360016-10000</t>
         </is>
       </c>
     </row>
@@ -44621,77 +44641,75 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D199" t="n">
-        <v>72</v>
-      </c>
+      <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>SUP009</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>TD SYNNEX Canada ULC</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>5280 72 Avenue SE</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>T2C 4G6</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>S00364307</t>
+          <t>S00360016</t>
         </is>
       </c>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="n">
-        <v>70863735</v>
+        <v>70838121</v>
       </c>
       <c r="O199" t="n">
-        <v>6600680007</v>
+        <v>5370144</v>
       </c>
       <c r="P199" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:55 PM</t>
+          <t>8/26/2025 9:52:19 AM</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="S199" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="T199" t="inlineStr"/>
       <c r="U199" s="2" t="n">
-        <v>45921</v>
+        <v>45902</v>
       </c>
       <c r="V199" t="inlineStr">
         <is>
@@ -44699,23 +44717,23 @@
         </is>
       </c>
       <c r="W199" s="2" t="n">
-        <v>45916</v>
+        <v>45923</v>
       </c>
       <c r="X199" t="inlineStr">
         <is>
-          <t>TAB4500/37</t>
+          <t>AG276QZD2</t>
         </is>
       </c>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>050914401</t>
+          <t>ENV-AG276QZD2</t>
         </is>
       </c>
       <c r="Z199" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="AA199" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="AB199" t="inlineStr"/>
       <c r="AC199" t="inlineStr"/>
@@ -44729,49 +44747,29 @@
           <t>M</t>
         </is>
       </c>
-      <c r="AF199" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG199" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH199" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI199" t="inlineStr">
-        <is>
-          <t>A654833</t>
-        </is>
-      </c>
+      <c r="AF199" t="inlineStr"/>
+      <c r="AG199" t="inlineStr"/>
+      <c r="AH199" t="inlineStr"/>
+      <c r="AI199" t="inlineStr"/>
       <c r="AJ199" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK199" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK199" t="inlineStr"/>
       <c r="AL199" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/23/2025 </t>
         </is>
       </c>
       <c r="AM199" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/23/2025 </t>
         </is>
       </c>
       <c r="AN199" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="AO199" t="inlineStr">
@@ -44786,13 +44784,13 @@
       </c>
       <c r="AQ199" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>AOC 27” QHD OLED gaming monitor</t>
         </is>
       </c>
       <c r="AR199" t="inlineStr"/>
       <c r="AS199" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT199" t="inlineStr">
@@ -44801,37 +44799,33 @@
         </is>
       </c>
       <c r="AU199" t="n">
-        <v>140.9093858333333</v>
+        <v>65.132025</v>
       </c>
       <c r="AV199" t="n">
-        <v>140.9093858333333</v>
+        <v>65.132025</v>
       </c>
       <c r="AW199" t="n">
-        <v>661.2</v>
+        <v>638.96</v>
       </c>
       <c r="AX199" t="n">
-        <v>661.2</v>
+        <v>638.96</v>
       </c>
       <c r="AY199" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ199" t="inlineStr">
-        <is>
-          <t>A654833</t>
-        </is>
-      </c>
+        <v>1.0001</v>
+      </c>
+      <c r="AZ199" t="inlineStr"/>
       <c r="BA199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB199" t="n">
-        <v>840063204553</v>
+        <v>685417736485</v>
       </c>
       <c r="BC199" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD199" t="inlineStr">
         <is>
-          <t>S00364307-10000</t>
+          <t>S00360016-20000</t>
         </is>
       </c>
     </row>
@@ -44851,77 +44845,75 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D200" t="n">
-        <v>72</v>
-      </c>
+      <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>DC#1008, 19890-92A AVE.</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>LANGLEY</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>V1M 3A9</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>S00364307</t>
+          <t>S00361732</t>
         </is>
       </c>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="n">
-        <v>70863735</v>
+        <v>70852843</v>
       </c>
       <c r="O200" t="n">
-        <v>6600680007</v>
+        <v>59157141</v>
       </c>
       <c r="P200" s="2" t="n">
-        <v>45910</v>
+        <v>45902</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:55 PM</t>
+          <t>9/2/2025 11:34:51 AM</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="T200" t="inlineStr"/>
       <c r="U200" s="2" t="n">
-        <v>45921</v>
+        <v>45915</v>
       </c>
       <c r="V200" t="inlineStr">
         <is>
@@ -44929,23 +44921,23 @@
         </is>
       </c>
       <c r="W200" s="2" t="n">
-        <v>45916</v>
+        <v>45919</v>
       </c>
       <c r="X200" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>TAB5109/37</t>
         </is>
       </c>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>050914402</t>
+          <t>18597408</t>
         </is>
       </c>
       <c r="Z200" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="AA200" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="AB200" t="inlineStr"/>
       <c r="AC200" t="inlineStr"/>
@@ -44976,7 +44968,7 @@
       </c>
       <c r="AI200" t="inlineStr">
         <is>
-          <t>A654833</t>
+          <t>A654265</t>
         </is>
       </c>
       <c r="AJ200" t="inlineStr">
@@ -44991,17 +44983,17 @@
       </c>
       <c r="AL200" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AM200" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AN200" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AO200" t="inlineStr">
@@ -45016,7 +45008,7 @@
       </c>
       <c r="AQ200" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR200" t="inlineStr"/>
@@ -45031,37 +45023,37 @@
         </is>
       </c>
       <c r="AU200" t="n">
-        <v>70.9205</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AV200" t="n">
-        <v>70.9205</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AW200" t="n">
-        <v>595.2</v>
+        <v>72.7</v>
       </c>
       <c r="AX200" t="n">
-        <v>595.2</v>
+        <v>72.7</v>
       </c>
       <c r="AY200" t="n">
-        <v>1.25</v>
+        <v>0.1515</v>
       </c>
       <c r="AZ200" t="inlineStr">
         <is>
-          <t>A654833</t>
+          <t>A654265</t>
         </is>
       </c>
       <c r="BA200" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB200" t="n">
-        <v>840063204546</v>
+        <v>840063203563</v>
       </c>
       <c r="BC200" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD200" t="inlineStr">
         <is>
-          <t>S00364307-20000</t>
+          <t>S00361732-10000</t>
         </is>
       </c>
     </row>
@@ -45086,81 +45078,81 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
           <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>S00364308</t>
+          <t>S00364306</t>
         </is>
       </c>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="n">
-        <v>70863736</v>
+        <v>70863737</v>
       </c>
       <c r="O201" t="n">
-        <v>7400960004</v>
+        <v>1950680012</v>
       </c>
       <c r="P201" s="2" t="n">
         <v>45910</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:57 PM</t>
+          <t>9/10/2025 2:23:54 PM</t>
         </is>
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="T201" t="inlineStr"/>
       <c r="U201" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W201" s="2" t="n">
         <v>45917</v>
       </c>
-      <c r="V201" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W201" s="2" t="n">
-        <v>45916</v>
-      </c>
       <c r="X201" t="inlineStr">
         <is>
           <t>TAB4500/37</t>
@@ -45172,10 +45164,10 @@
         </is>
       </c>
       <c r="Z201" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AA201" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AB201" t="inlineStr"/>
       <c r="AC201" t="inlineStr"/>
@@ -45206,28 +45198,32 @@
       </c>
       <c r="AI201" t="inlineStr">
         <is>
-          <t>A654856</t>
+          <t>A654835</t>
         </is>
       </c>
       <c r="AJ201" t="inlineStr">
         <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK201" t="inlineStr"/>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK201" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
       <c r="AL201" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AM201" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AN201" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AO201" t="inlineStr">
@@ -45257,23 +45253,23 @@
         </is>
       </c>
       <c r="AU201" t="n">
-        <v>187.8791811111111</v>
+        <v>103.3335496111111</v>
       </c>
       <c r="AV201" t="n">
-        <v>187.8791811111111</v>
+        <v>103.3335496111111</v>
       </c>
       <c r="AW201" t="n">
-        <v>881.6</v>
+        <v>484.88</v>
       </c>
       <c r="AX201" t="n">
-        <v>881.6</v>
+        <v>484.88</v>
       </c>
       <c r="AY201" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="AZ201" t="inlineStr">
         <is>
-          <t>A654856</t>
+          <t>A654835</t>
         </is>
       </c>
       <c r="BA201" t="n">
@@ -45287,7 +45283,7 @@
       </c>
       <c r="BD201" t="inlineStr">
         <is>
-          <t>S00364308-10000</t>
+          <t>S00364306-10000</t>
         </is>
       </c>
     </row>
@@ -45312,81 +45308,81 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
           <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>WAL005</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>WAL-MART CANADA CORP</t>
-        </is>
-      </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>S00364308</t>
+          <t>S00364306</t>
         </is>
       </c>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="n">
-        <v>70863736</v>
+        <v>70863737</v>
       </c>
       <c r="O202" t="n">
-        <v>7400960004</v>
+        <v>1950680012</v>
       </c>
       <c r="P202" s="2" t="n">
         <v>45910</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:57 PM</t>
+          <t>9/10/2025 2:23:54 PM</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="T202" t="inlineStr"/>
       <c r="U202" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W202" s="2" t="n">
         <v>45917</v>
       </c>
-      <c r="V202" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W202" s="2" t="n">
-        <v>45916</v>
-      </c>
       <c r="X202" t="inlineStr">
         <is>
           <t>TAB4000/37</t>
@@ -45398,10 +45394,10 @@
         </is>
       </c>
       <c r="Z202" t="n">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="AA202" t="n">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="AB202" t="inlineStr"/>
       <c r="AC202" t="inlineStr"/>
@@ -45432,28 +45428,32 @@
       </c>
       <c r="AI202" t="inlineStr">
         <is>
-          <t>A654856</t>
+          <t>A654835</t>
         </is>
       </c>
       <c r="AJ202" t="inlineStr">
         <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK202" t="inlineStr"/>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK202" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
       <c r="AL202" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AM202" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AN202" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AO202" t="inlineStr">
@@ -45483,23 +45483,23 @@
         </is>
       </c>
       <c r="AU202" t="n">
-        <v>67.374475</v>
+        <v>53.190375</v>
       </c>
       <c r="AV202" t="n">
-        <v>67.374475</v>
+        <v>53.190375</v>
       </c>
       <c r="AW202" t="n">
-        <v>565.4400000000001</v>
+        <v>446.4</v>
       </c>
       <c r="AX202" t="n">
-        <v>565.4400000000001</v>
+        <v>446.4</v>
       </c>
       <c r="AY202" t="n">
-        <v>1.1875</v>
+        <v>0.9375</v>
       </c>
       <c r="AZ202" t="inlineStr">
         <is>
-          <t>A654856</t>
+          <t>A654835</t>
         </is>
       </c>
       <c r="BA202" t="n">
@@ -45513,7 +45513,7 @@
       </c>
       <c r="BD202" t="inlineStr">
         <is>
-          <t>S00364308-20000</t>
+          <t>S00364306-20000</t>
         </is>
       </c>
     </row>
@@ -45538,7 +45538,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -45768,7 +45768,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -45998,7 +45998,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -46228,7 +46228,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -46458,7 +46458,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -46688,7 +46688,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -46918,7 +46918,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -47148,7 +47148,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -47378,7 +47378,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -47608,7 +47608,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -47838,7 +47838,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD213"/>
+  <dimension ref="A1:BD250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44437,75 +44437,77 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>72</v>
+      </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>SUP009</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>TD SYNNEX Canada ULC</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>5280 72 Avenue SE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>T2C 4G6</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>S00360016</t>
+          <t>S00364306</t>
         </is>
       </c>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="n">
-        <v>70838121</v>
+        <v>70863737</v>
       </c>
       <c r="O198" t="n">
-        <v>5370144</v>
+        <v>1950680012</v>
       </c>
       <c r="P198" s="2" t="n">
-        <v>45895</v>
+        <v>45910</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>8/26/2025 9:52:19 AM</t>
+          <t>9/10/2025 2:23:54 PM</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="T198" t="inlineStr"/>
       <c r="U198" s="2" t="n">
-        <v>45902</v>
+        <v>45922</v>
       </c>
       <c r="V198" t="inlineStr">
         <is>
@@ -44513,23 +44515,23 @@
         </is>
       </c>
       <c r="W198" s="2" t="n">
-        <v>45923</v>
+        <v>45917</v>
       </c>
       <c r="X198" t="inlineStr">
         <is>
-          <t>Q27G3XMN</t>
+          <t>TAB4500/37</t>
         </is>
       </c>
       <c r="Y198" t="inlineStr">
         <is>
-          <t>ENV-Q27G3XMN</t>
+          <t>050914401</t>
         </is>
       </c>
       <c r="Z198" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AA198" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AB198" t="inlineStr"/>
       <c r="AC198" t="inlineStr"/>
@@ -44543,29 +44545,49 @@
           <t>M</t>
         </is>
       </c>
-      <c r="AF198" t="inlineStr"/>
-      <c r="AG198" t="inlineStr"/>
-      <c r="AH198" t="inlineStr"/>
-      <c r="AI198" t="inlineStr"/>
+      <c r="AF198" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG198" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH198" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI198" t="inlineStr">
+        <is>
+          <t>A654835</t>
+        </is>
+      </c>
       <c r="AJ198" t="inlineStr">
         <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK198" t="inlineStr"/>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK198" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
       <c r="AL198" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/23/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AM198" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/23/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AN198" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AO198" t="inlineStr">
@@ -44580,13 +44602,13 @@
       </c>
       <c r="AQ198" t="inlineStr">
         <is>
-          <t>AOC 27" Monitor</t>
+          <t>Soundbar</t>
         </is>
       </c>
       <c r="AR198" t="inlineStr"/>
       <c r="AS198" t="inlineStr">
         <is>
-          <t>TPV-MNT</t>
+          <t>TPV-AVA</t>
         </is>
       </c>
       <c r="AT198" t="inlineStr">
@@ -44595,33 +44617,37 @@
         </is>
       </c>
       <c r="AU198" t="n">
-        <v>70.76376999999999</v>
+        <v>103.3335496111111</v>
       </c>
       <c r="AV198" t="n">
-        <v>70.76376999999999</v>
+        <v>103.3335496111111</v>
       </c>
       <c r="AW198" t="n">
-        <v>646.08</v>
+        <v>484.88</v>
       </c>
       <c r="AX198" t="n">
-        <v>646.08</v>
+        <v>484.88</v>
       </c>
       <c r="AY198" t="n">
-        <v>0.8889</v>
-      </c>
-      <c r="AZ198" t="inlineStr"/>
+        <v>2.2</v>
+      </c>
+      <c r="AZ198" t="inlineStr">
+        <is>
+          <t>A654835</t>
+        </is>
+      </c>
       <c r="BA198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB198" t="n">
-        <v>685417733583</v>
+        <v>840063204553</v>
       </c>
       <c r="BC198" t="n">
         <v>10000</v>
       </c>
       <c r="BD198" t="inlineStr">
         <is>
-          <t>S00360016-10000</t>
+          <t>S00364306-10000</t>
         </is>
       </c>
     </row>
@@ -44641,75 +44667,77 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>72</v>
+      </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>SUP009</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>TD SYNNEX Canada ULC</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>5280 72 Avenue SE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>T2C 4G6</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>S00360016</t>
+          <t>S00364306</t>
         </is>
       </c>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="n">
-        <v>70838121</v>
+        <v>70863737</v>
       </c>
       <c r="O199" t="n">
-        <v>5370144</v>
+        <v>1950680012</v>
       </c>
       <c r="P199" s="2" t="n">
-        <v>45895</v>
+        <v>45910</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>8/26/2025 9:52:19 AM</t>
+          <t>9/10/2025 2:23:54 PM</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="S199" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="T199" t="inlineStr"/>
       <c r="U199" s="2" t="n">
-        <v>45902</v>
+        <v>45922</v>
       </c>
       <c r="V199" t="inlineStr">
         <is>
@@ -44717,23 +44745,23 @@
         </is>
       </c>
       <c r="W199" s="2" t="n">
-        <v>45923</v>
+        <v>45917</v>
       </c>
       <c r="X199" t="inlineStr">
         <is>
-          <t>AG276QZD2</t>
+          <t>TAB4000/37</t>
         </is>
       </c>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>ENV-AG276QZD2</t>
+          <t>050914402</t>
         </is>
       </c>
       <c r="Z199" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="AA199" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="AB199" t="inlineStr"/>
       <c r="AC199" t="inlineStr"/>
@@ -44747,29 +44775,49 @@
           <t>M</t>
         </is>
       </c>
-      <c r="AF199" t="inlineStr"/>
-      <c r="AG199" t="inlineStr"/>
-      <c r="AH199" t="inlineStr"/>
-      <c r="AI199" t="inlineStr"/>
+      <c r="AF199" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG199" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH199" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI199" t="inlineStr">
+        <is>
+          <t>A654835</t>
+        </is>
+      </c>
       <c r="AJ199" t="inlineStr">
         <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK199" t="inlineStr"/>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK199" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
       <c r="AL199" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/23/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AM199" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/23/2025 </t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AN199" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t xml:space="preserve">9/17/2025 </t>
         </is>
       </c>
       <c r="AO199" t="inlineStr">
@@ -44784,13 +44832,13 @@
       </c>
       <c r="AQ199" t="inlineStr">
         <is>
-          <t>AOC 27” QHD OLED gaming monitor</t>
+          <t>Soundbar</t>
         </is>
       </c>
       <c r="AR199" t="inlineStr"/>
       <c r="AS199" t="inlineStr">
         <is>
-          <t>TPV-MNT</t>
+          <t>TPV-AVA</t>
         </is>
       </c>
       <c r="AT199" t="inlineStr">
@@ -44799,33 +44847,37 @@
         </is>
       </c>
       <c r="AU199" t="n">
-        <v>65.132025</v>
+        <v>53.190375</v>
       </c>
       <c r="AV199" t="n">
-        <v>65.132025</v>
+        <v>53.190375</v>
       </c>
       <c r="AW199" t="n">
-        <v>638.96</v>
+        <v>446.4</v>
       </c>
       <c r="AX199" t="n">
-        <v>638.96</v>
+        <v>446.4</v>
       </c>
       <c r="AY199" t="n">
-        <v>1.0001</v>
-      </c>
-      <c r="AZ199" t="inlineStr"/>
+        <v>0.9375</v>
+      </c>
+      <c r="AZ199" t="inlineStr">
+        <is>
+          <t>A654835</t>
+        </is>
+      </c>
       <c r="BA199" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB199" t="n">
-        <v>685417736485</v>
+        <v>840063204546</v>
       </c>
       <c r="BC199" t="n">
         <v>20000</v>
       </c>
       <c r="BD199" t="inlineStr">
         <is>
-          <t>S00360016-20000</t>
+          <t>S00364306-20000</t>
         </is>
       </c>
     </row>
@@ -44848,72 +44900,74 @@
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>SUP009</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>TD SYNNEX Canada ULC</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>DC#1008, 19890-92A AVE.</t>
+          <t>5280 72 Avenue SE</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>LANGLEY</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>V1M 3A9</t>
+          <t>T2C 4G6</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>S00361732</t>
+          <t>S00360016</t>
         </is>
       </c>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="n">
-        <v>70852843</v>
-      </c>
-      <c r="O200" t="n">
-        <v>59157141</v>
+        <v>70838121</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>5370144</t>
+        </is>
       </c>
       <c r="P200" s="2" t="n">
-        <v>45902</v>
+        <v>45895</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>9/2/2025 11:34:51 AM</t>
+          <t>8/26/2025 9:52:19 AM</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="T200" t="inlineStr"/>
       <c r="U200" s="2" t="n">
-        <v>45915</v>
+        <v>45902</v>
       </c>
       <c r="V200" t="inlineStr">
         <is>
@@ -44921,23 +44975,23 @@
         </is>
       </c>
       <c r="W200" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="X200" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
+          <t>Q27G3XMN</t>
         </is>
       </c>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>18597408</t>
+          <t>ENV-Q27G3XMN</t>
         </is>
       </c>
       <c r="Z200" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AA200" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AB200" t="inlineStr"/>
       <c r="AC200" t="inlineStr"/>
@@ -44951,49 +45005,29 @@
           <t>M</t>
         </is>
       </c>
-      <c r="AF200" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG200" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH200" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI200" t="inlineStr">
-        <is>
-          <t>A654265</t>
-        </is>
-      </c>
+      <c r="AF200" t="inlineStr"/>
+      <c r="AG200" t="inlineStr"/>
+      <c r="AH200" t="inlineStr"/>
+      <c r="AI200" t="inlineStr"/>
       <c r="AJ200" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK200" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK200" t="inlineStr"/>
       <c r="AL200" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/23/2025 </t>
         </is>
       </c>
       <c r="AM200" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/23/2025 </t>
         </is>
       </c>
       <c r="AN200" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="AO200" t="inlineStr">
@@ -45008,13 +45042,13 @@
       </c>
       <c r="AQ200" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>AOC 27" Monitor</t>
         </is>
       </c>
       <c r="AR200" t="inlineStr"/>
       <c r="AS200" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT200" t="inlineStr">
@@ -45023,37 +45057,33 @@
         </is>
       </c>
       <c r="AU200" t="n">
-        <v>6.431683676651111</v>
+        <v>70.76376999999999</v>
       </c>
       <c r="AV200" t="n">
-        <v>6.431683676651111</v>
+        <v>70.76376999999999</v>
       </c>
       <c r="AW200" t="n">
-        <v>72.7</v>
+        <v>646.08</v>
       </c>
       <c r="AX200" t="n">
-        <v>72.7</v>
+        <v>646.08</v>
       </c>
       <c r="AY200" t="n">
-        <v>0.1515</v>
-      </c>
-      <c r="AZ200" t="inlineStr">
-        <is>
-          <t>A654265</t>
-        </is>
-      </c>
+        <v>0.8889</v>
+      </c>
+      <c r="AZ200" t="inlineStr"/>
       <c r="BA200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB200" t="n">
-        <v>840063203563</v>
+        <v>685417733583</v>
       </c>
       <c r="BC200" t="n">
         <v>10000</v>
       </c>
       <c r="BD200" t="inlineStr">
         <is>
-          <t>S00361732-10000</t>
+          <t>S00360016-10000</t>
         </is>
       </c>
     </row>
@@ -45073,77 +45103,77 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D201" t="n">
-        <v>72</v>
-      </c>
+      <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>WM CANADA</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>SUP009</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>TD SYNNEX Canada ULC</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>5280 72 Avenue SE</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>T2C 4G6</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>S00364306</t>
+          <t>S00360016</t>
         </is>
       </c>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="n">
-        <v>70863737</v>
-      </c>
-      <c r="O201" t="n">
-        <v>1950680012</v>
+        <v>70838121</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>5370144</t>
+        </is>
       </c>
       <c r="P201" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:54 PM</t>
+          <t>8/26/2025 9:52:19 AM</t>
         </is>
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="T201" t="inlineStr"/>
       <c r="U201" s="2" t="n">
-        <v>45922</v>
+        <v>45902</v>
       </c>
       <c r="V201" t="inlineStr">
         <is>
@@ -45151,23 +45181,23 @@
         </is>
       </c>
       <c r="W201" s="2" t="n">
-        <v>45917</v>
+        <v>45923</v>
       </c>
       <c r="X201" t="inlineStr">
         <is>
-          <t>TAB4500/37</t>
+          <t>AG276QZD2</t>
         </is>
       </c>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>050914401</t>
+          <t>ENV-AG276QZD2</t>
         </is>
       </c>
       <c r="Z201" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AA201" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AB201" t="inlineStr"/>
       <c r="AC201" t="inlineStr"/>
@@ -45181,49 +45211,29 @@
           <t>M</t>
         </is>
       </c>
-      <c r="AF201" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG201" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH201" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI201" t="inlineStr">
-        <is>
-          <t>A654835</t>
-        </is>
-      </c>
+      <c r="AF201" t="inlineStr"/>
+      <c r="AG201" t="inlineStr"/>
+      <c r="AH201" t="inlineStr"/>
+      <c r="AI201" t="inlineStr"/>
       <c r="AJ201" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK201" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK201" t="inlineStr"/>
       <c r="AL201" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/23/2025 </t>
         </is>
       </c>
       <c r="AM201" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/23/2025 </t>
         </is>
       </c>
       <c r="AN201" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="AO201" t="inlineStr">
@@ -45238,13 +45248,13 @@
       </c>
       <c r="AQ201" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>AOC 27” QHD OLED gaming monitor</t>
         </is>
       </c>
       <c r="AR201" t="inlineStr"/>
       <c r="AS201" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT201" t="inlineStr">
@@ -45253,37 +45263,33 @@
         </is>
       </c>
       <c r="AU201" t="n">
-        <v>103.3335496111111</v>
+        <v>65.132025</v>
       </c>
       <c r="AV201" t="n">
-        <v>103.3335496111111</v>
+        <v>65.132025</v>
       </c>
       <c r="AW201" t="n">
-        <v>484.88</v>
+        <v>638.96</v>
       </c>
       <c r="AX201" t="n">
-        <v>484.88</v>
+        <v>638.96</v>
       </c>
       <c r="AY201" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AZ201" t="inlineStr">
-        <is>
-          <t>A654835</t>
-        </is>
-      </c>
+        <v>1.0001</v>
+      </c>
+      <c r="AZ201" t="inlineStr"/>
       <c r="BA201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB201" t="n">
-        <v>840063204553</v>
+        <v>685417736485</v>
       </c>
       <c r="BC201" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD201" t="inlineStr">
         <is>
-          <t>S00364306-10000</t>
+          <t>S00360016-20000</t>
         </is>
       </c>
     </row>
@@ -45303,77 +45309,77 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D202" t="n">
-        <v>72</v>
-      </c>
+      <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>WM CANADA</t>
+          <t>BEST BUY CANADA</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>DC#1008, 19890-92A AVE.</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>LANGLEY</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>V1M 3A9</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>S00364306</t>
+          <t>S00361732</t>
         </is>
       </c>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="n">
-        <v>70863737</v>
-      </c>
-      <c r="O202" t="n">
-        <v>1950680012</v>
+        <v>70852843</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>59157141</t>
+        </is>
       </c>
       <c r="P202" s="2" t="n">
-        <v>45910</v>
+        <v>45902</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>9/10/2025 2:23:54 PM</t>
+          <t>9/2/2025 11:34:51 AM</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="T202" t="inlineStr"/>
       <c r="U202" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="V202" t="inlineStr">
         <is>
@@ -45381,23 +45387,23 @@
         </is>
       </c>
       <c r="W202" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="X202" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>TAB5109/37</t>
         </is>
       </c>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>050914402</t>
+          <t>18597408</t>
         </is>
       </c>
       <c r="Z202" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="AA202" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="AB202" t="inlineStr"/>
       <c r="AC202" t="inlineStr"/>
@@ -45428,7 +45434,7 @@
       </c>
       <c r="AI202" t="inlineStr">
         <is>
-          <t>A654835</t>
+          <t>A654265</t>
         </is>
       </c>
       <c r="AJ202" t="inlineStr">
@@ -45443,17 +45449,17 @@
       </c>
       <c r="AL202" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AM202" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AN202" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AO202" t="inlineStr">
@@ -45468,7 +45474,7 @@
       </c>
       <c r="AQ202" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR202" t="inlineStr"/>
@@ -45483,37 +45489,37 @@
         </is>
       </c>
       <c r="AU202" t="n">
-        <v>53.190375</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AV202" t="n">
-        <v>53.190375</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AW202" t="n">
-        <v>446.4</v>
+        <v>72.7</v>
       </c>
       <c r="AX202" t="n">
-        <v>446.4</v>
+        <v>72.7</v>
       </c>
       <c r="AY202" t="n">
-        <v>0.9375</v>
+        <v>0.1515</v>
       </c>
       <c r="AZ202" t="inlineStr">
         <is>
-          <t>A654835</t>
+          <t>A654265</t>
         </is>
       </c>
       <c r="BA202" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB202" t="n">
-        <v>840063204546</v>
+        <v>840063203563</v>
       </c>
       <c r="BC202" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD202" t="inlineStr">
         <is>
-          <t>S00364306-20000</t>
+          <t>S00361732-10000</t>
         </is>
       </c>
     </row>
@@ -45580,8 +45586,10 @@
       <c r="N203" t="n">
         <v>70870422</v>
       </c>
-      <c r="O203" t="n">
-        <v>8950800525</v>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>8950800525</t>
+        </is>
       </c>
       <c r="P203" s="2" t="n">
         <v>45915</v>
@@ -45810,8 +45818,10 @@
       <c r="N204" t="n">
         <v>70870422</v>
       </c>
-      <c r="O204" t="n">
-        <v>8950800525</v>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>8950800525</t>
+        </is>
       </c>
       <c r="P204" s="2" t="n">
         <v>45915</v>
@@ -46040,8 +46050,10 @@
       <c r="N205" t="n">
         <v>70870420</v>
       </c>
-      <c r="O205" t="n">
-        <v>8900800534</v>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>8900800534</t>
+        </is>
       </c>
       <c r="P205" s="2" t="n">
         <v>45915</v>
@@ -46270,8 +46282,10 @@
       <c r="N206" t="n">
         <v>70870420</v>
       </c>
-      <c r="O206" t="n">
-        <v>8900800534</v>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>8900800534</t>
+        </is>
       </c>
       <c r="P206" s="2" t="n">
         <v>45915</v>
@@ -46500,8 +46514,10 @@
       <c r="N207" t="n">
         <v>70870418</v>
       </c>
-      <c r="O207" t="n">
-        <v>8300840366</v>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>8300840366</t>
+        </is>
       </c>
       <c r="P207" s="2" t="n">
         <v>45915</v>
@@ -46730,8 +46746,10 @@
       <c r="N208" t="n">
         <v>70870418</v>
       </c>
-      <c r="O208" t="n">
-        <v>8300840366</v>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>8300840366</t>
+        </is>
       </c>
       <c r="P208" s="2" t="n">
         <v>45915</v>
@@ -46960,8 +46978,10 @@
       <c r="N209" t="n">
         <v>70884096</v>
       </c>
-      <c r="O209" t="n">
-        <v>8300840372</v>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>8300840372</t>
+        </is>
       </c>
       <c r="P209" s="2" t="n">
         <v>45922</v>
@@ -47190,8 +47210,10 @@
       <c r="N210" t="n">
         <v>70884101</v>
       </c>
-      <c r="O210" t="n">
-        <v>8950800531</v>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>8950800531</t>
+        </is>
       </c>
       <c r="P210" s="2" t="n">
         <v>45922</v>
@@ -47420,8 +47442,10 @@
       <c r="N211" t="n">
         <v>70884101</v>
       </c>
-      <c r="O211" t="n">
-        <v>8950800531</v>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>8950800531</t>
+        </is>
       </c>
       <c r="P211" s="2" t="n">
         <v>45922</v>
@@ -47650,8 +47674,10 @@
       <c r="N212" t="n">
         <v>70884097</v>
       </c>
-      <c r="O212" t="n">
-        <v>8900800539</v>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>8900800539</t>
+        </is>
       </c>
       <c r="P212" s="2" t="n">
         <v>45922</v>
@@ -47880,8 +47906,10 @@
       <c r="N213" t="n">
         <v>70884097</v>
       </c>
-      <c r="O213" t="n">
-        <v>8900800539</v>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>8900800539</t>
+        </is>
       </c>
       <c r="P213" s="2" t="n">
         <v>45922</v>
@@ -48044,6 +48072,8380 @@
       <c r="BD213" t="inlineStr">
         <is>
           <t>S00367338-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>789 Salem Rd N</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>L1Z 0J2</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>S00368323</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
+        <v>70889384</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>74P6PAQQ</t>
+        </is>
+      </c>
+      <c r="P214" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>9/24/2025 2:50:25 PM</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr"/>
+      <c r="U214" t="inlineStr"/>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W214" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X214" t="inlineStr">
+        <is>
+          <t>AG276QZD2</t>
+        </is>
+      </c>
+      <c r="Y214" t="inlineStr">
+        <is>
+          <t>B0D682HF6R</t>
+        </is>
+      </c>
+      <c r="Z214" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB214" t="inlineStr"/>
+      <c r="AC214" t="inlineStr"/>
+      <c r="AD214" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE214" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF214" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AG214" t="inlineStr">
+        <is>
+          <t>ABFS</t>
+        </is>
+      </c>
+      <c r="AH214" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AI214" t="inlineStr">
+        <is>
+          <t>167591191</t>
+        </is>
+      </c>
+      <c r="AJ214" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK214" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL214" s="2" t="n">
+        <v>45931.52083333334</v>
+      </c>
+      <c r="AM214" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO214" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP214" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ214" t="inlineStr">
+        <is>
+          <t>AOC 27” QHD OLED gaming monitor</t>
+        </is>
+      </c>
+      <c r="AR214" t="inlineStr"/>
+      <c r="AS214" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT214" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU214" t="n">
+        <v>65.132025</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>65.132025</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>638.96</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>638.96</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>1.0001</v>
+      </c>
+      <c r="AZ214" t="inlineStr">
+        <is>
+          <t>167591191</t>
+        </is>
+      </c>
+      <c r="BA214" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>685417736485</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD214" t="inlineStr">
+        <is>
+          <t>S00368323-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>789 Salem Rd N</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>L1Z 0J2</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>S00368323</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
+        <v>70889384</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>74P6PAQQ</t>
+        </is>
+      </c>
+      <c r="P215" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>9/24/2025 2:50:25 PM</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr"/>
+      <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W215" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X215" t="inlineStr">
+        <is>
+          <t>Q27G4ZD</t>
+        </is>
+      </c>
+      <c r="Y215" t="inlineStr">
+        <is>
+          <t>B0DQVP7TNH</t>
+        </is>
+      </c>
+      <c r="Z215" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB215" t="inlineStr"/>
+      <c r="AC215" t="inlineStr"/>
+      <c r="AD215" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE215" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF215" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AG215" t="inlineStr">
+        <is>
+          <t>ABFS</t>
+        </is>
+      </c>
+      <c r="AH215" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AI215" t="inlineStr">
+        <is>
+          <t>167591191</t>
+        </is>
+      </c>
+      <c r="AJ215" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK215" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL215" s="2" t="n">
+        <v>45931.52083333334</v>
+      </c>
+      <c r="AM215" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO215" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP215" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ215" t="inlineStr">
+        <is>
+          <t>27 QHD OLED Gaming Monitor</t>
+        </is>
+      </c>
+      <c r="AR215" t="inlineStr"/>
+      <c r="AS215" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT215" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU215" t="n">
+        <v>26.66052272222222</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>26.66052272222222</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AZ215" t="inlineStr">
+        <is>
+          <t>167591191</t>
+        </is>
+      </c>
+      <c r="BA215" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>685417739080</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD215" t="inlineStr">
+        <is>
+          <t>S00368323-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Amazon.com.ca ULC.</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>271 Church Street S</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>L1S 0A1</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>S00368324</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
+        <v>70889383</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>73XAR1NH</t>
+        </is>
+      </c>
+      <c r="P216" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>9/24/2025 2:50:27 PM</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr"/>
+      <c r="U216" t="inlineStr"/>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W216" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X216" t="inlineStr">
+        <is>
+          <t>AG276QZD2</t>
+        </is>
+      </c>
+      <c r="Y216" t="inlineStr">
+        <is>
+          <t>B0D682HF6R</t>
+        </is>
+      </c>
+      <c r="Z216" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB216" t="inlineStr"/>
+      <c r="AC216" t="inlineStr"/>
+      <c r="AD216" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE216" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF216" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AG216" t="inlineStr">
+        <is>
+          <t>ABFS</t>
+        </is>
+      </c>
+      <c r="AH216" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AI216" t="inlineStr">
+        <is>
+          <t>167591194</t>
+        </is>
+      </c>
+      <c r="AJ216" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK216" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL216" s="2" t="n">
+        <v>45931.52083333334</v>
+      </c>
+      <c r="AM216" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO216" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP216" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ216" t="inlineStr">
+        <is>
+          <t>AOC 27” QHD OLED gaming monitor</t>
+        </is>
+      </c>
+      <c r="AR216" t="inlineStr"/>
+      <c r="AS216" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT216" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU216" t="n">
+        <v>48.84901875</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>48.84901875</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>479.22</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>479.22</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AZ216" t="inlineStr">
+        <is>
+          <t>167591194</t>
+        </is>
+      </c>
+      <c r="BA216" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>685417736485</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD216" t="inlineStr">
+        <is>
+          <t>S00368324-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Amazon.com.ca ULC.</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>271 Church Street S</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>L1S 0A1</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>S00368324</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
+        <v>70889383</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>73XAR1NH</t>
+        </is>
+      </c>
+      <c r="P217" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>9/24/2025 2:50:27 PM</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr"/>
+      <c r="U217" t="inlineStr"/>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W217" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X217" t="inlineStr">
+        <is>
+          <t>Q27G4ZD</t>
+        </is>
+      </c>
+      <c r="Y217" t="inlineStr">
+        <is>
+          <t>B0DQVP7TNH</t>
+        </is>
+      </c>
+      <c r="Z217" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB217" t="inlineStr"/>
+      <c r="AC217" t="inlineStr"/>
+      <c r="AD217" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE217" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF217" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AG217" t="inlineStr">
+        <is>
+          <t>ABFS</t>
+        </is>
+      </c>
+      <c r="AH217" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AI217" t="inlineStr">
+        <is>
+          <t>167591194</t>
+        </is>
+      </c>
+      <c r="AJ217" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK217" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL217" s="2" t="n">
+        <v>45931.52083333334</v>
+      </c>
+      <c r="AM217" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO217" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP217" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ217" t="inlineStr">
+        <is>
+          <t>27 QHD OLED Gaming Monitor</t>
+        </is>
+      </c>
+      <c r="AR217" t="inlineStr"/>
+      <c r="AS217" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT217" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU217" t="n">
+        <v>17.77368181481481</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>17.77368181481481</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AZ217" t="inlineStr">
+        <is>
+          <t>167591194</t>
+        </is>
+      </c>
+      <c r="BA217" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>685417739080</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD217" t="inlineStr">
+        <is>
+          <t>S00368324-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>6351 Steeles Ave E</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Scarborough</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>M1X 1N5</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>S00368325</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
+        <v>70889381</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>19IPBVCI</t>
+        </is>
+      </c>
+      <c r="P218" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>9/24/2025 2:50:28 PM</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr"/>
+      <c r="U218" t="inlineStr"/>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W218" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X218" t="inlineStr">
+        <is>
+          <t>AG276QZD2</t>
+        </is>
+      </c>
+      <c r="Y218" t="inlineStr">
+        <is>
+          <t>B0D682HF6R</t>
+        </is>
+      </c>
+      <c r="Z218" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB218" t="inlineStr"/>
+      <c r="AC218" t="inlineStr"/>
+      <c r="AD218" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE218" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF218" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AG218" t="inlineStr">
+        <is>
+          <t>QXTI</t>
+        </is>
+      </c>
+      <c r="AH218" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AI218" t="inlineStr">
+        <is>
+          <t>R1555579</t>
+        </is>
+      </c>
+      <c r="AJ218" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK218" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL218" s="2" t="n">
+        <v>45931.60416666666</v>
+      </c>
+      <c r="AM218" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO218" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP218" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ218" t="inlineStr">
+        <is>
+          <t>AOC 27” QHD OLED gaming monitor</t>
+        </is>
+      </c>
+      <c r="AR218" t="inlineStr"/>
+      <c r="AS218" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT218" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU218" t="n">
+        <v>65.132025</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>65.132025</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>638.96</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>638.96</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ218" t="inlineStr">
+        <is>
+          <t>R1555579</t>
+        </is>
+      </c>
+      <c r="BA218" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>685417736485</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD218" t="inlineStr">
+        <is>
+          <t>S00368325-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>6351 Steeles Ave E</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Scarborough</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>M1X 1N5</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>S00368325</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
+        <v>70889381</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>19IPBVCI</t>
+        </is>
+      </c>
+      <c r="P219" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>9/24/2025 2:50:28 PM</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr"/>
+      <c r="U219" t="inlineStr"/>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W219" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X219" t="inlineStr">
+        <is>
+          <t>Q27G4ZD</t>
+        </is>
+      </c>
+      <c r="Y219" t="inlineStr">
+        <is>
+          <t>B0DQVP7TNH</t>
+        </is>
+      </c>
+      <c r="Z219" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB219" t="inlineStr"/>
+      <c r="AC219" t="inlineStr"/>
+      <c r="AD219" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE219" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF219" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AG219" t="inlineStr">
+        <is>
+          <t>QXTI</t>
+        </is>
+      </c>
+      <c r="AH219" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AI219" t="inlineStr">
+        <is>
+          <t>R1555579</t>
+        </is>
+      </c>
+      <c r="AJ219" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK219" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL219" s="2" t="n">
+        <v>45931.60416666666</v>
+      </c>
+      <c r="AM219" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO219" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP219" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ219" t="inlineStr">
+        <is>
+          <t>27 QHD OLED Gaming Monitor</t>
+        </is>
+      </c>
+      <c r="AR219" t="inlineStr"/>
+      <c r="AS219" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT219" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU219" t="n">
+        <v>26.66052272222222</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>26.66052272222222</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AZ219" t="inlineStr">
+        <is>
+          <t>R1555579</t>
+        </is>
+      </c>
+      <c r="BA219" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>685417739080</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD219" t="inlineStr">
+        <is>
+          <t>S00368325-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>AMAZON.COM, CA INC.</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>109 Braid Street</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>New Westminster</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>V3L 5H4</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>S00368326</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
+        <v>70889385</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>7H7E4L4L</t>
+        </is>
+      </c>
+      <c r="P220" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>9/24/2025 2:50:29 PM</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr"/>
+      <c r="U220" t="inlineStr"/>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W220" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X220" t="inlineStr">
+        <is>
+          <t>AG276QZD2</t>
+        </is>
+      </c>
+      <c r="Y220" t="inlineStr">
+        <is>
+          <t>B0D682HF6R</t>
+        </is>
+      </c>
+      <c r="Z220" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB220" t="inlineStr"/>
+      <c r="AC220" t="inlineStr"/>
+      <c r="AD220" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE220" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF220" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG220" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH220" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI220" t="inlineStr">
+        <is>
+          <t>38839695911</t>
+        </is>
+      </c>
+      <c r="AJ220" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK220" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL220" s="2" t="n">
+        <v>45931.66666666666</v>
+      </c>
+      <c r="AM220" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO220" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP220" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ220" t="inlineStr">
+        <is>
+          <t>AOC 27” QHD OLED gaming monitor</t>
+        </is>
+      </c>
+      <c r="AR220" t="inlineStr"/>
+      <c r="AS220" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT220" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU220" t="n">
+        <v>65.132025</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>65.132025</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>638.96</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>638.96</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ220" t="inlineStr">
+        <is>
+          <t>38839695911</t>
+        </is>
+      </c>
+      <c r="BA220" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>685417736485</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD220" t="inlineStr">
+        <is>
+          <t>S00368326-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>AMAZON.COM, CA INC.</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>109 Braid Street</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>New Westminster</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>V3L 5H4</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>S00368326</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
+        <v>70889385</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>7H7E4L4L</t>
+        </is>
+      </c>
+      <c r="P221" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>9/24/2025 2:50:29 PM</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr"/>
+      <c r="U221" t="inlineStr"/>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W221" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X221" t="inlineStr">
+        <is>
+          <t>Q27G4ZD</t>
+        </is>
+      </c>
+      <c r="Y221" t="inlineStr">
+        <is>
+          <t>B0DQVP7TNH</t>
+        </is>
+      </c>
+      <c r="Z221" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB221" t="inlineStr"/>
+      <c r="AC221" t="inlineStr"/>
+      <c r="AD221" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE221" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF221" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG221" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH221" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI221" t="inlineStr">
+        <is>
+          <t>38839695911</t>
+        </is>
+      </c>
+      <c r="AJ221" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK221" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL221" s="2" t="n">
+        <v>45931.66666666666</v>
+      </c>
+      <c r="AM221" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO221" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP221" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ221" t="inlineStr">
+        <is>
+          <t>27 QHD OLED Gaming Monitor</t>
+        </is>
+      </c>
+      <c r="AR221" t="inlineStr"/>
+      <c r="AS221" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT221" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU221" t="n">
+        <v>22.21710226851852</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>22.21710226851852</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="AZ221" t="inlineStr">
+        <is>
+          <t>38839695911</t>
+        </is>
+      </c>
+      <c r="BA221" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>685417739080</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD221" t="inlineStr">
+        <is>
+          <t>S00368326-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>1440 39 AVE</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>T9E 0B4</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>S00368327</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
+        <v>70889387</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>87MACZZW</t>
+        </is>
+      </c>
+      <c r="P222" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>9/24/2025 2:50:31 PM</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr"/>
+      <c r="U222" t="inlineStr"/>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W222" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X222" t="inlineStr">
+        <is>
+          <t>AG276QZD2</t>
+        </is>
+      </c>
+      <c r="Y222" t="inlineStr">
+        <is>
+          <t>B0D682HF6R</t>
+        </is>
+      </c>
+      <c r="Z222" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB222" t="inlineStr"/>
+      <c r="AC222" t="inlineStr"/>
+      <c r="AD222" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE222" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF222" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AG222" t="inlineStr">
+        <is>
+          <t>QXTI</t>
+        </is>
+      </c>
+      <c r="AH222" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AI222" t="inlineStr">
+        <is>
+          <t>R1555569</t>
+        </is>
+      </c>
+      <c r="AJ222" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK222" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL222" s="2" t="n">
+        <v>45931.60416666666</v>
+      </c>
+      <c r="AM222" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO222" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP222" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ222" t="inlineStr">
+        <is>
+          <t>AOC 27” QHD OLED gaming monitor</t>
+        </is>
+      </c>
+      <c r="AR222" t="inlineStr"/>
+      <c r="AS222" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT222" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU222" t="n">
+        <v>34.89215625</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>34.89215625</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>342.3</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>342.3</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>0.5358000000000001</v>
+      </c>
+      <c r="AZ222" t="inlineStr">
+        <is>
+          <t>R1555569</t>
+        </is>
+      </c>
+      <c r="BA222" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>685417736485</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD222" t="inlineStr">
+        <is>
+          <t>S00368327-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>1440 39 AVE</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>T9E 0B4</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>S00368327</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
+        <v>70889387</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>87MACZZW</t>
+        </is>
+      </c>
+      <c r="P223" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>9/24/2025 2:50:31 PM</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr"/>
+      <c r="U223" t="inlineStr"/>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W223" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X223" t="inlineStr">
+        <is>
+          <t>Q27G4ZD</t>
+        </is>
+      </c>
+      <c r="Y223" t="inlineStr">
+        <is>
+          <t>B0DQVP7TNH</t>
+        </is>
+      </c>
+      <c r="Z223" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB223" t="inlineStr"/>
+      <c r="AC223" t="inlineStr"/>
+      <c r="AD223" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE223" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF223" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AG223" t="inlineStr">
+        <is>
+          <t>QXTI</t>
+        </is>
+      </c>
+      <c r="AH223" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AI223" t="inlineStr">
+        <is>
+          <t>R1555569</t>
+        </is>
+      </c>
+      <c r="AJ223" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK223" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL223" s="2" t="n">
+        <v>45931.60416666666</v>
+      </c>
+      <c r="AM223" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO223" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP223" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ223" t="inlineStr">
+        <is>
+          <t>27 QHD OLED Gaming Monitor</t>
+        </is>
+      </c>
+      <c r="AR223" t="inlineStr"/>
+      <c r="AS223" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT223" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU223" t="n">
+        <v>24.43881249537037</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>24.43881249537037</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>0.3438</v>
+      </c>
+      <c r="AZ223" t="inlineStr">
+        <is>
+          <t>R1555569</t>
+        </is>
+      </c>
+      <c r="BA223" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>685417739080</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD223" t="inlineStr">
+        <is>
+          <t>S00368327-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>AMAZON.COM, CA INC.</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>5225 Boundary Road</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Navan</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>K4B 0L3</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>S00368328</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
+        <v>70889386</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>7ZOVDAKI</t>
+        </is>
+      </c>
+      <c r="P224" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>9/24/2025 2:50:32 PM</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr"/>
+      <c r="U224" t="inlineStr"/>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W224" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X224" t="inlineStr">
+        <is>
+          <t>AG276QZD2</t>
+        </is>
+      </c>
+      <c r="Y224" t="inlineStr">
+        <is>
+          <t>B0D682HF6R</t>
+        </is>
+      </c>
+      <c r="Z224" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB224" t="inlineStr"/>
+      <c r="AC224" t="inlineStr"/>
+      <c r="AD224" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE224" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF224" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG224" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH224" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI224" t="inlineStr">
+        <is>
+          <t>38839683281</t>
+        </is>
+      </c>
+      <c r="AJ224" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK224" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL224" s="2" t="n">
+        <v>45931.66666666666</v>
+      </c>
+      <c r="AM224" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO224" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP224" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ224" t="inlineStr">
+        <is>
+          <t>AOC 27” QHD OLED gaming monitor</t>
+        </is>
+      </c>
+      <c r="AR224" t="inlineStr"/>
+      <c r="AS224" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT224" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU224" t="n">
+        <v>65.132025</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>65.132025</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>638.96</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>638.96</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>1.0001</v>
+      </c>
+      <c r="AZ224" t="inlineStr">
+        <is>
+          <t>38839683281</t>
+        </is>
+      </c>
+      <c r="BA224" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>685417736485</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD224" t="inlineStr">
+        <is>
+          <t>S00368328-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>AMAZON.COM, CA INC.</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>5225 Boundary Road</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Navan</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>K4B 0L3</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>S00368328</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
+        <v>70889386</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>7ZOVDAKI</t>
+        </is>
+      </c>
+      <c r="P225" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>9/24/2025 2:50:32 PM</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr"/>
+      <c r="U225" t="inlineStr"/>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W225" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X225" t="inlineStr">
+        <is>
+          <t>Q27G4ZD</t>
+        </is>
+      </c>
+      <c r="Y225" t="inlineStr">
+        <is>
+          <t>B0DQVP7TNH</t>
+        </is>
+      </c>
+      <c r="Z225" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB225" t="inlineStr"/>
+      <c r="AC225" t="inlineStr"/>
+      <c r="AD225" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE225" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF225" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG225" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH225" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI225" t="inlineStr">
+        <is>
+          <t>38839683281</t>
+        </is>
+      </c>
+      <c r="AJ225" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK225" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL225" s="2" t="n">
+        <v>45931.66666666666</v>
+      </c>
+      <c r="AM225" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO225" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP225" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ225" t="inlineStr">
+        <is>
+          <t>27 QHD OLED Gaming Monitor</t>
+        </is>
+      </c>
+      <c r="AR225" t="inlineStr"/>
+      <c r="AS225" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT225" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU225" t="n">
+        <v>26.66052272222222</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>26.66052272222222</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AZ225" t="inlineStr">
+        <is>
+          <t>38839683281</t>
+        </is>
+      </c>
+      <c r="BA225" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>685417739080</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD225" t="inlineStr">
+        <is>
+          <t>S00368328-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Amazon.com.Ca</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>1882 118th Avenue NE</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Calgary</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>T3K 0R1</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>S00368329</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
+        <v>70889382</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>1UXTTJFA</t>
+        </is>
+      </c>
+      <c r="P226" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>9/24/2025 2:50:34 PM</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr"/>
+      <c r="U226" t="inlineStr"/>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W226" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X226" t="inlineStr">
+        <is>
+          <t>AG276QZD2</t>
+        </is>
+      </c>
+      <c r="Y226" t="inlineStr">
+        <is>
+          <t>B0D682HF6R</t>
+        </is>
+      </c>
+      <c r="Z226" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB226" t="inlineStr"/>
+      <c r="AC226" t="inlineStr"/>
+      <c r="AD226" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE226" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF226" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AG226" t="inlineStr">
+        <is>
+          <t>QXTI</t>
+        </is>
+      </c>
+      <c r="AH226" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AI226" t="inlineStr">
+        <is>
+          <t>R1555585</t>
+        </is>
+      </c>
+      <c r="AJ226" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK226" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL226" s="2" t="n">
+        <v>45931.60416666666</v>
+      </c>
+      <c r="AM226" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO226" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP226" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ226" t="inlineStr">
+        <is>
+          <t>AOC 27” QHD OLED gaming monitor</t>
+        </is>
+      </c>
+      <c r="AR226" t="inlineStr"/>
+      <c r="AS226" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT226" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU226" t="n">
+        <v>65.132025</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>65.132025</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>638.96</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>638.96</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ226" t="inlineStr">
+        <is>
+          <t>R1555585</t>
+        </is>
+      </c>
+      <c r="BA226" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>685417736485</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD226" t="inlineStr">
+        <is>
+          <t>S00368329-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Amazon.com.Ca</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>1882 118th Avenue NE</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Calgary</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>T3K 0R1</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>S00368329</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
+        <v>70889382</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>1UXTTJFA</t>
+        </is>
+      </c>
+      <c r="P227" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>9/24/2025 2:50:34 PM</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr"/>
+      <c r="U227" t="inlineStr"/>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W227" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X227" t="inlineStr">
+        <is>
+          <t>Q27G4ZD</t>
+        </is>
+      </c>
+      <c r="Y227" t="inlineStr">
+        <is>
+          <t>B0DQVP7TNH</t>
+        </is>
+      </c>
+      <c r="Z227" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB227" t="inlineStr"/>
+      <c r="AC227" t="inlineStr"/>
+      <c r="AD227" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE227" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF227" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AG227" t="inlineStr">
+        <is>
+          <t>QXTI</t>
+        </is>
+      </c>
+      <c r="AH227" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AI227" t="inlineStr">
+        <is>
+          <t>R1555585</t>
+        </is>
+      </c>
+      <c r="AJ227" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK227" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL227" s="2" t="n">
+        <v>45931.60416666666</v>
+      </c>
+      <c r="AM227" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO227" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP227" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ227" t="inlineStr">
+        <is>
+          <t>27 QHD OLED Gaming Monitor</t>
+        </is>
+      </c>
+      <c r="AR227" t="inlineStr"/>
+      <c r="AS227" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT227" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU227" t="n">
+        <v>19.99539204166667</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>19.99539204166667</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>0.2813</v>
+      </c>
+      <c r="AZ227" t="inlineStr">
+        <is>
+          <t>R1555585</t>
+        </is>
+      </c>
+      <c r="BA227" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>685417739080</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD227" t="inlineStr">
+        <is>
+          <t>S00368329-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>AMAZON.COM, CA INC.</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>109 Braid Street</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>New Westminster</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>V3L 5H4</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>S00368803</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
+        <v>70893932</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>1RQ2QM2E</t>
+        </is>
+      </c>
+      <c r="P228" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:05 PM</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr"/>
+      <c r="U228" t="inlineStr"/>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W228" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X228" t="inlineStr">
+        <is>
+          <t>Q27G3XMN</t>
+        </is>
+      </c>
+      <c r="Y228" t="inlineStr">
+        <is>
+          <t>B0C8ZJKPWC</t>
+        </is>
+      </c>
+      <c r="Z228" t="n">
+        <v>176</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>176</v>
+      </c>
+      <c r="AB228" t="inlineStr"/>
+      <c r="AC228" t="inlineStr"/>
+      <c r="AD228" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE228" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF228" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG228" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH228" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI228" t="inlineStr">
+        <is>
+          <t>38929797821</t>
+        </is>
+      </c>
+      <c r="AJ228" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK228" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL228" s="2" t="n">
+        <v>45931.66666666666</v>
+      </c>
+      <c r="AM228" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO228" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP228" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ228" t="inlineStr">
+        <is>
+          <t>AOC 27" Monitor</t>
+        </is>
+      </c>
+      <c r="AR228" t="inlineStr"/>
+      <c r="AS228" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT228" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU228" t="n">
+        <v>389.200735</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>389.200735</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>3553.44</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>3553.44</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>4.8889</v>
+      </c>
+      <c r="AZ228" t="inlineStr">
+        <is>
+          <t>38929797821</t>
+        </is>
+      </c>
+      <c r="BA228" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>685417733583</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD228" t="inlineStr">
+        <is>
+          <t>S00368803-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>AMAZON.COM, CA INC.</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>109 Braid Street</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>New Westminster</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>V3L 5H4</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>S00368804</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
+        <v>70893935</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>3YOHMVNB</t>
+        </is>
+      </c>
+      <c r="P229" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:07 PM</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr"/>
+      <c r="U229" t="inlineStr"/>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W229" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X229" t="inlineStr">
+        <is>
+          <t>C32G2</t>
+        </is>
+      </c>
+      <c r="Y229" t="inlineStr">
+        <is>
+          <t>B08BT9DZQW</t>
+        </is>
+      </c>
+      <c r="Z229" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB229" t="inlineStr"/>
+      <c r="AC229" t="inlineStr"/>
+      <c r="AD229" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE229" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF229" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG229" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH229" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI229" t="inlineStr">
+        <is>
+          <t>38929797821</t>
+        </is>
+      </c>
+      <c r="AJ229" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK229" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL229" s="2" t="n">
+        <v>45931.66666666666</v>
+      </c>
+      <c r="AM229" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO229" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP229" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ229" t="inlineStr">
+        <is>
+          <t>AOC 32" Monitor</t>
+        </is>
+      </c>
+      <c r="AR229" t="inlineStr"/>
+      <c r="AS229" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT229" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU229" t="n">
+        <v>37.89825554166666</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>37.89825554166666</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>250.91</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>250.91</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AZ229" t="inlineStr">
+        <is>
+          <t>38929797821</t>
+        </is>
+      </c>
+      <c r="BA229" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>685417724789</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD229" t="inlineStr">
+        <is>
+          <t>S00368804-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>AMAZON.COM, CA INC.</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>109 Braid Street</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>New Westminster</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>V3L 5H4</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>S00368804</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
+        <v>70893935</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>3YOHMVNB</t>
+        </is>
+      </c>
+      <c r="P230" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:07 PM</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr"/>
+      <c r="U230" t="inlineStr"/>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W230" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X230" t="inlineStr">
+        <is>
+          <t>241V8LB</t>
+        </is>
+      </c>
+      <c r="Y230" t="inlineStr">
+        <is>
+          <t>B0C8ZKV5R9</t>
+        </is>
+      </c>
+      <c r="Z230" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>52</v>
+      </c>
+      <c r="AB230" t="inlineStr"/>
+      <c r="AC230" t="inlineStr"/>
+      <c r="AD230" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE230" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF230" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG230" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH230" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI230" t="inlineStr">
+        <is>
+          <t>38929797821</t>
+        </is>
+      </c>
+      <c r="AJ230" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK230" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL230" s="2" t="n">
+        <v>45931.66666666666</v>
+      </c>
+      <c r="AM230" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO230" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP230" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ230" t="inlineStr">
+        <is>
+          <t>23.8 FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR230" t="inlineStr"/>
+      <c r="AS230" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT230" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU230" t="n">
+        <v>61.55146592592592</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>61.55146592592592</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>494</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>494</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>0.5778</v>
+      </c>
+      <c r="AZ230" t="inlineStr">
+        <is>
+          <t>38929797821</t>
+        </is>
+      </c>
+      <c r="BA230" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>609585256750</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD230" t="inlineStr">
+        <is>
+          <t>S00368804-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>AMAZON.COM, CA INC.</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>109 Braid Street</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>New Westminster</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>V3L 5H4</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>S00368804</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
+        <v>70893935</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>3YOHMVNB</t>
+        </is>
+      </c>
+      <c r="P231" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:07 PM</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr"/>
+      <c r="U231" t="inlineStr"/>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W231" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X231" t="inlineStr">
+        <is>
+          <t>C27G4ZH</t>
+        </is>
+      </c>
+      <c r="Y231" t="inlineStr">
+        <is>
+          <t>B0D685N3NV</t>
+        </is>
+      </c>
+      <c r="Z231" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>39</v>
+      </c>
+      <c r="AB231" t="inlineStr"/>
+      <c r="AC231" t="inlineStr"/>
+      <c r="AD231" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE231" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF231" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG231" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH231" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI231" t="inlineStr">
+        <is>
+          <t>38929797821</t>
+        </is>
+      </c>
+      <c r="AJ231" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK231" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL231" s="2" t="n">
+        <v>45931.66666666666</v>
+      </c>
+      <c r="AM231" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO231" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP231" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ231" t="inlineStr">
+        <is>
+          <t>27 Curved FHD Gaming Monitor</t>
+        </is>
+      </c>
+      <c r="AR231" t="inlineStr"/>
+      <c r="AS231" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT231" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU231" t="n">
+        <v>104.387521875</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>104.387521875</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>464.1</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>464.1</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>1.393</v>
+      </c>
+      <c r="AZ231" t="inlineStr">
+        <is>
+          <t>38929797821</t>
+        </is>
+      </c>
+      <c r="BA231" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>685417735983</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BD231" t="inlineStr">
+        <is>
+          <t>S00368804-30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Amazon.com.Ca</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>1882 118th Avenue NE</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Calgary</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>T3K 0R1</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>S00368805</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
+        <v>70893934</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>3X5I6K9P</t>
+        </is>
+      </c>
+      <c r="P232" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:09 PM</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr"/>
+      <c r="U232" t="inlineStr"/>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W232" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X232" t="inlineStr">
+        <is>
+          <t>C32G2</t>
+        </is>
+      </c>
+      <c r="Y232" t="inlineStr">
+        <is>
+          <t>B08BT9DZQW</t>
+        </is>
+      </c>
+      <c r="Z232" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB232" t="inlineStr"/>
+      <c r="AC232" t="inlineStr"/>
+      <c r="AD232" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE232" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF232" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AG232" t="inlineStr">
+        <is>
+          <t>QXTI</t>
+        </is>
+      </c>
+      <c r="AH232" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AI232" t="inlineStr">
+        <is>
+          <t>R1558122</t>
+        </is>
+      </c>
+      <c r="AJ232" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK232" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL232" s="2" t="n">
+        <v>45931.60416666666</v>
+      </c>
+      <c r="AM232" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO232" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP232" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ232" t="inlineStr">
+        <is>
+          <t>AOC 32" Monitor</t>
+        </is>
+      </c>
+      <c r="AR232" t="inlineStr"/>
+      <c r="AS232" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT232" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU232" t="n">
+        <v>13.78118383333333</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>13.78118383333333</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>91.23999999999999</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>91.23999999999999</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AZ232" t="inlineStr">
+        <is>
+          <t>R1558122</t>
+        </is>
+      </c>
+      <c r="BA232" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>685417724789</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD232" t="inlineStr">
+        <is>
+          <t>S00368805-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Amazon.com.Ca</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>1882 118th Avenue NE</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Calgary</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>T3K 0R1</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>S00368805</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
+        <v>70893934</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>3X5I6K9P</t>
+        </is>
+      </c>
+      <c r="P233" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:09 PM</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr"/>
+      <c r="U233" t="inlineStr"/>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W233" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X233" t="inlineStr">
+        <is>
+          <t>241V8LB</t>
+        </is>
+      </c>
+      <c r="Y233" t="inlineStr">
+        <is>
+          <t>B0C8ZKV5R9</t>
+        </is>
+      </c>
+      <c r="Z233" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB233" t="inlineStr"/>
+      <c r="AC233" t="inlineStr"/>
+      <c r="AD233" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE233" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF233" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AG233" t="inlineStr">
+        <is>
+          <t>QXTI</t>
+        </is>
+      </c>
+      <c r="AH233" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AI233" t="inlineStr">
+        <is>
+          <t>R1558122</t>
+        </is>
+      </c>
+      <c r="AJ233" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK233" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL233" s="2" t="n">
+        <v>45931.60416666666</v>
+      </c>
+      <c r="AM233" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO233" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP233" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ233" t="inlineStr">
+        <is>
+          <t>23.8 FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR233" t="inlineStr"/>
+      <c r="AS233" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT233" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU233" t="n">
+        <v>14.20418444444444</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>14.20418444444444</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>114</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>114</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>0.1333</v>
+      </c>
+      <c r="AZ233" t="inlineStr">
+        <is>
+          <t>R1558122</t>
+        </is>
+      </c>
+      <c r="BA233" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>609585256750</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD233" t="inlineStr">
+        <is>
+          <t>S00368805-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Amazon.com.Ca</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>1882 118th Avenue NE</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Calgary</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>T3K 0R1</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>S00368805</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
+        <v>70893934</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>3X5I6K9P</t>
+        </is>
+      </c>
+      <c r="P234" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:09 PM</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr"/>
+      <c r="U234" t="inlineStr"/>
+      <c r="V234" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W234" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X234" t="inlineStr">
+        <is>
+          <t>C27G4ZH</t>
+        </is>
+      </c>
+      <c r="Y234" t="inlineStr">
+        <is>
+          <t>B0D685N3NV</t>
+        </is>
+      </c>
+      <c r="Z234" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB234" t="inlineStr"/>
+      <c r="AC234" t="inlineStr"/>
+      <c r="AD234" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE234" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF234" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AG234" t="inlineStr">
+        <is>
+          <t>QXTI</t>
+        </is>
+      </c>
+      <c r="AH234" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AI234" t="inlineStr">
+        <is>
+          <t>R1558122</t>
+        </is>
+      </c>
+      <c r="AJ234" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK234" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL234" s="2" t="n">
+        <v>45931.60416666666</v>
+      </c>
+      <c r="AM234" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO234" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP234" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ234" t="inlineStr">
+        <is>
+          <t>27 Curved FHD Gaming Monitor</t>
+        </is>
+      </c>
+      <c r="AR234" t="inlineStr"/>
+      <c r="AS234" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT234" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU234" t="n">
+        <v>50.855459375</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>50.855459375</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>0.6786</v>
+      </c>
+      <c r="AZ234" t="inlineStr">
+        <is>
+          <t>R1558122</t>
+        </is>
+      </c>
+      <c r="BA234" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>685417735983</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BD234" t="inlineStr">
+        <is>
+          <t>S00368805-30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>789 Salem Rd N</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>L1Z 0J2</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>S00368806</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
+        <v>70893931</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>1AGK9NBW</t>
+        </is>
+      </c>
+      <c r="P235" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:10 PM</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr"/>
+      <c r="U235" t="inlineStr"/>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W235" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X235" t="inlineStr">
+        <is>
+          <t>C32G2</t>
+        </is>
+      </c>
+      <c r="Y235" t="inlineStr">
+        <is>
+          <t>B08BT9DZQW</t>
+        </is>
+      </c>
+      <c r="Z235" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB235" t="inlineStr"/>
+      <c r="AC235" t="inlineStr"/>
+      <c r="AD235" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE235" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF235" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AG235" t="inlineStr">
+        <is>
+          <t>ABFS</t>
+        </is>
+      </c>
+      <c r="AH235" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AI235" t="inlineStr">
+        <is>
+          <t>167591192</t>
+        </is>
+      </c>
+      <c r="AJ235" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK235" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL235" s="2" t="n">
+        <v>45931.52083333334</v>
+      </c>
+      <c r="AM235" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO235" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP235" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ235" t="inlineStr">
+        <is>
+          <t>AOC 32" Monitor</t>
+        </is>
+      </c>
+      <c r="AR235" t="inlineStr"/>
+      <c r="AS235" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT235" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU235" t="n">
+        <v>51.679439375</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>51.679439375</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>342.15</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>342.15</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AZ235" t="inlineStr">
+        <is>
+          <t>167591192</t>
+        </is>
+      </c>
+      <c r="BA235" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>685417724789</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD235" t="inlineStr">
+        <is>
+          <t>S00368806-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>789 Salem Rd N</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>L1Z 0J2</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>S00368806</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
+        <v>70893931</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>1AGK9NBW</t>
+        </is>
+      </c>
+      <c r="P236" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:10 PM</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr"/>
+      <c r="U236" t="inlineStr"/>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W236" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X236" t="inlineStr">
+        <is>
+          <t>241V8LB</t>
+        </is>
+      </c>
+      <c r="Y236" t="inlineStr">
+        <is>
+          <t>B0C8ZKV5R9</t>
+        </is>
+      </c>
+      <c r="Z236" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB236" t="inlineStr"/>
+      <c r="AC236" t="inlineStr"/>
+      <c r="AD236" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE236" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF236" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AG236" t="inlineStr">
+        <is>
+          <t>ABFS</t>
+        </is>
+      </c>
+      <c r="AH236" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AI236" t="inlineStr">
+        <is>
+          <t>167591192</t>
+        </is>
+      </c>
+      <c r="AJ236" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK236" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL236" s="2" t="n">
+        <v>45931.52083333334</v>
+      </c>
+      <c r="AM236" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO236" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP236" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ236" t="inlineStr">
+        <is>
+          <t>23.8 FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR236" t="inlineStr"/>
+      <c r="AS236" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT236" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU236" t="n">
+        <v>79.30669648148148</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>79.30669648148148</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>0.7445000000000001</v>
+      </c>
+      <c r="AZ236" t="inlineStr">
+        <is>
+          <t>167591192</t>
+        </is>
+      </c>
+      <c r="BA236" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>609585256750</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD236" t="inlineStr">
+        <is>
+          <t>S00368806-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>789 Salem Rd N</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>L1Z 0J2</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>S00368806</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
+        <v>70893931</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>1AGK9NBW</t>
+        </is>
+      </c>
+      <c r="P237" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:10 PM</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr"/>
+      <c r="U237" t="inlineStr"/>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W237" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X237" t="inlineStr">
+        <is>
+          <t>C27G4ZH</t>
+        </is>
+      </c>
+      <c r="Y237" t="inlineStr">
+        <is>
+          <t>B0D685N3NV</t>
+        </is>
+      </c>
+      <c r="Z237" t="n">
+        <v>68</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>68</v>
+      </c>
+      <c r="AB237" t="inlineStr"/>
+      <c r="AC237" t="inlineStr"/>
+      <c r="AD237" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE237" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF237" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AG237" t="inlineStr">
+        <is>
+          <t>ABFS</t>
+        </is>
+      </c>
+      <c r="AH237" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AI237" t="inlineStr">
+        <is>
+          <t>167591192</t>
+        </is>
+      </c>
+      <c r="AJ237" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK237" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL237" s="2" t="n">
+        <v>45931.52083333334</v>
+      </c>
+      <c r="AM237" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO237" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP237" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ237" t="inlineStr">
+        <is>
+          <t>27 Curved FHD Gaming Monitor</t>
+        </is>
+      </c>
+      <c r="AR237" t="inlineStr"/>
+      <c r="AS237" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT237" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU237" t="n">
+        <v>182.0090125</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>182.0090125</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>809.2</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>809.2</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>2.4286</v>
+      </c>
+      <c r="AZ237" t="inlineStr">
+        <is>
+          <t>167591192</t>
+        </is>
+      </c>
+      <c r="BA237" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>685417735983</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BD237" t="inlineStr">
+        <is>
+          <t>S00368806-30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>AMAZON.COM, CA INC.</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>5225 Boundary Road</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Navan</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>K4B 0L3</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>S00368807</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
+        <v>70893938</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>82HOSBLQ</t>
+        </is>
+      </c>
+      <c r="P238" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:11 PM</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr"/>
+      <c r="U238" t="inlineStr"/>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W238" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X238" t="inlineStr">
+        <is>
+          <t>C32G2</t>
+        </is>
+      </c>
+      <c r="Y238" t="inlineStr">
+        <is>
+          <t>B08BT9DZQW</t>
+        </is>
+      </c>
+      <c r="Z238" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB238" t="inlineStr"/>
+      <c r="AC238" t="inlineStr"/>
+      <c r="AD238" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE238" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF238" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG238" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH238" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI238" t="inlineStr">
+        <is>
+          <t>38929630231</t>
+        </is>
+      </c>
+      <c r="AJ238" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK238" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL238" s="2" t="n">
+        <v>45931.66666666666</v>
+      </c>
+      <c r="AM238" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO238" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP238" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ238" t="inlineStr">
+        <is>
+          <t>AOC 32" Monitor</t>
+        </is>
+      </c>
+      <c r="AR238" t="inlineStr"/>
+      <c r="AS238" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT238" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU238" t="n">
+        <v>58.57003129166667</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>58.57003129166667</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>387.77</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>387.77</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AZ238" t="inlineStr">
+        <is>
+          <t>38929630231</t>
+        </is>
+      </c>
+      <c r="BA238" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>685417724789</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD238" t="inlineStr">
+        <is>
+          <t>S00368807-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>AMAZON.COM, CA INC.</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>5225 Boundary Road</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Navan</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>K4B 0L3</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>S00368807</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>70893938</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>82HOSBLQ</t>
+        </is>
+      </c>
+      <c r="P239" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:11 PM</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr"/>
+      <c r="U239" t="inlineStr"/>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W239" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X239" t="inlineStr">
+        <is>
+          <t>241V8LB</t>
+        </is>
+      </c>
+      <c r="Y239" t="inlineStr">
+        <is>
+          <t>B0C8ZKV5R9</t>
+        </is>
+      </c>
+      <c r="Z239" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB239" t="inlineStr"/>
+      <c r="AC239" t="inlineStr"/>
+      <c r="AD239" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE239" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF239" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG239" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH239" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI239" t="inlineStr">
+        <is>
+          <t>38929630231</t>
+        </is>
+      </c>
+      <c r="AJ239" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK239" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL239" s="2" t="n">
+        <v>45931.66666666666</v>
+      </c>
+      <c r="AM239" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO239" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP239" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ239" t="inlineStr">
+        <is>
+          <t>23.8 FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR239" t="inlineStr"/>
+      <c r="AS239" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT239" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU239" t="n">
+        <v>95.87824500000001</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>95.87824500000001</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>769.5</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>769.5</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AZ239" t="inlineStr">
+        <is>
+          <t>38929630231</t>
+        </is>
+      </c>
+      <c r="BA239" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>609585256750</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD239" t="inlineStr">
+        <is>
+          <t>S00368807-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>AMAZON.COM, CA INC.</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>5225 Boundary Road</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Navan</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>K4B 0L3</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>S00368807</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>70893938</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>82HOSBLQ</t>
+        </is>
+      </c>
+      <c r="P240" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:11 PM</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr"/>
+      <c r="U240" t="inlineStr"/>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W240" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X240" t="inlineStr">
+        <is>
+          <t>C27G4ZH</t>
+        </is>
+      </c>
+      <c r="Y240" t="inlineStr">
+        <is>
+          <t>B0D685N3NV</t>
+        </is>
+      </c>
+      <c r="Z240" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>72</v>
+      </c>
+      <c r="AB240" t="inlineStr"/>
+      <c r="AC240" t="inlineStr"/>
+      <c r="AD240" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE240" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF240" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG240" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH240" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI240" t="inlineStr">
+        <is>
+          <t>38929630231</t>
+        </is>
+      </c>
+      <c r="AJ240" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK240" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL240" s="2" t="n">
+        <v>45931.66666666666</v>
+      </c>
+      <c r="AM240" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO240" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP240" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ240" t="inlineStr">
+        <is>
+          <t>27 Curved FHD Gaming Monitor</t>
+        </is>
+      </c>
+      <c r="AR240" t="inlineStr"/>
+      <c r="AS240" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT240" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU240" t="n">
+        <v>192.715425</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>192.715425</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>2.5715</v>
+      </c>
+      <c r="AZ240" t="inlineStr">
+        <is>
+          <t>38929630231</t>
+        </is>
+      </c>
+      <c r="BA240" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>685417735983</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BD240" t="inlineStr">
+        <is>
+          <t>S00368807-30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>1440 39 AVE</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>T9E 0B4</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>S00368808</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>70893933</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>1S76K3OK</t>
+        </is>
+      </c>
+      <c r="P241" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:13 PM</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr"/>
+      <c r="U241" t="inlineStr"/>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W241" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X241" t="inlineStr">
+        <is>
+          <t>C32G2</t>
+        </is>
+      </c>
+      <c r="Y241" t="inlineStr">
+        <is>
+          <t>B08BT9DZQW</t>
+        </is>
+      </c>
+      <c r="Z241" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB241" t="inlineStr"/>
+      <c r="AC241" t="inlineStr"/>
+      <c r="AD241" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE241" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF241" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG241" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH241" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">38929717681 </t>
+        </is>
+      </c>
+      <c r="AJ241" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK241" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL241" s="2" t="n">
+        <v>45931.66666666666</v>
+      </c>
+      <c r="AM241" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO241" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP241" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ241" t="inlineStr">
+        <is>
+          <t>AOC 32" Monitor</t>
+        </is>
+      </c>
+      <c r="AR241" t="inlineStr"/>
+      <c r="AS241" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT241" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU241" t="n">
+        <v>27.56236766666667</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>27.56236766666667</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>182.48</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>182.48</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AZ241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">38929717681 </t>
+        </is>
+      </c>
+      <c r="BA241" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>685417724789</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD241" t="inlineStr">
+        <is>
+          <t>S00368808-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>1440 39 AVE</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>T9E 0B4</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>S00368808</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>70893933</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>1S76K3OK</t>
+        </is>
+      </c>
+      <c r="P242" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:13 PM</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr"/>
+      <c r="U242" t="inlineStr"/>
+      <c r="V242" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W242" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X242" t="inlineStr">
+        <is>
+          <t>C27G4ZH</t>
+        </is>
+      </c>
+      <c r="Y242" t="inlineStr">
+        <is>
+          <t>B0D685N3NV</t>
+        </is>
+      </c>
+      <c r="Z242" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB242" t="inlineStr"/>
+      <c r="AC242" t="inlineStr"/>
+      <c r="AD242" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE242" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF242" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG242" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH242" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">38929717681 </t>
+        </is>
+      </c>
+      <c r="AJ242" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK242" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL242" s="2" t="n">
+        <v>45931.66666666666</v>
+      </c>
+      <c r="AM242" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO242" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP242" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ242" t="inlineStr">
+        <is>
+          <t>27 Curved FHD Gaming Monitor</t>
+        </is>
+      </c>
+      <c r="AR242" t="inlineStr"/>
+      <c r="AS242" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT242" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU242" t="n">
+        <v>69.59168124999999</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>69.59168124999999</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>309.4</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>309.4</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>0.9286</v>
+      </c>
+      <c r="AZ242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">38929717681 </t>
+        </is>
+      </c>
+      <c r="BA242" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>685417735983</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD242" t="inlineStr">
+        <is>
+          <t>S00368808-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>6351 Steeles Ave E</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Scarborough</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>M1X 1N5</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>S00368809</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>70893937</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>7LPV32OH</t>
+        </is>
+      </c>
+      <c r="P243" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:14 PM</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr"/>
+      <c r="U243" t="inlineStr"/>
+      <c r="V243" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W243" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X243" t="inlineStr">
+        <is>
+          <t>C32G2</t>
+        </is>
+      </c>
+      <c r="Y243" t="inlineStr">
+        <is>
+          <t>B08BT9DZQW</t>
+        </is>
+      </c>
+      <c r="Z243" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB243" t="inlineStr"/>
+      <c r="AC243" t="inlineStr"/>
+      <c r="AD243" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE243" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF243" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AG243" t="inlineStr">
+        <is>
+          <t>QXTI</t>
+        </is>
+      </c>
+      <c r="AH243" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AI243" t="inlineStr">
+        <is>
+          <t>R1558116</t>
+        </is>
+      </c>
+      <c r="AJ243" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK243" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL243" s="2" t="n">
+        <v>45931.60416666666</v>
+      </c>
+      <c r="AM243" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO243" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP243" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ243" t="inlineStr">
+        <is>
+          <t>AOC 32" Monitor</t>
+        </is>
+      </c>
+      <c r="AR243" t="inlineStr"/>
+      <c r="AS243" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT243" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU243" t="n">
+        <v>48.23414341666667</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>48.23414341666667</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>319.34</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>319.34</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AZ243" t="inlineStr">
+        <is>
+          <t>R1558116</t>
+        </is>
+      </c>
+      <c r="BA243" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>685417724789</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD243" t="inlineStr">
+        <is>
+          <t>S00368809-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>6351 Steeles Ave E</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Scarborough</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>M1X 1N5</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>S00368809</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>70893937</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>7LPV32OH</t>
+        </is>
+      </c>
+      <c r="P244" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:14 PM</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr"/>
+      <c r="U244" t="inlineStr"/>
+      <c r="V244" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W244" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X244" t="inlineStr">
+        <is>
+          <t>241V8LB</t>
+        </is>
+      </c>
+      <c r="Y244" t="inlineStr">
+        <is>
+          <t>B0C8ZKV5R9</t>
+        </is>
+      </c>
+      <c r="Z244" t="n">
+        <v>66</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>66</v>
+      </c>
+      <c r="AB244" t="inlineStr"/>
+      <c r="AC244" t="inlineStr"/>
+      <c r="AD244" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE244" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF244" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AG244" t="inlineStr">
+        <is>
+          <t>QXTI</t>
+        </is>
+      </c>
+      <c r="AH244" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AI244" t="inlineStr">
+        <is>
+          <t>R1558116</t>
+        </is>
+      </c>
+      <c r="AJ244" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK244" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL244" s="2" t="n">
+        <v>45931.60416666666</v>
+      </c>
+      <c r="AM244" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO244" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP244" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ244" t="inlineStr">
+        <is>
+          <t>23.8 FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR244" t="inlineStr"/>
+      <c r="AS244" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT244" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU244" t="n">
+        <v>78.12301444444445</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>78.12301444444445</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>627</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>627</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>0.7333</v>
+      </c>
+      <c r="AZ244" t="inlineStr">
+        <is>
+          <t>R1558116</t>
+        </is>
+      </c>
+      <c r="BA244" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>609585256750</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD244" t="inlineStr">
+        <is>
+          <t>S00368809-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>6351 Steeles Ave E</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Scarborough</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>M1X 1N5</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>S00368809</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
+        <v>70893937</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>7LPV32OH</t>
+        </is>
+      </c>
+      <c r="P245" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:14 PM</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr"/>
+      <c r="U245" t="inlineStr"/>
+      <c r="V245" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W245" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X245" t="inlineStr">
+        <is>
+          <t>C27G4ZH</t>
+        </is>
+      </c>
+      <c r="Y245" t="inlineStr">
+        <is>
+          <t>B0D685N3NV</t>
+        </is>
+      </c>
+      <c r="Z245" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB245" t="inlineStr"/>
+      <c r="AC245" t="inlineStr"/>
+      <c r="AD245" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE245" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF245" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AG245" t="inlineStr">
+        <is>
+          <t>QXTI</t>
+        </is>
+      </c>
+      <c r="AH245" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AI245" t="inlineStr">
+        <is>
+          <t>R1558116</t>
+        </is>
+      </c>
+      <c r="AJ245" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK245" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL245" s="2" t="n">
+        <v>45931.60416666666</v>
+      </c>
+      <c r="AM245" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO245" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP245" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ245" t="inlineStr">
+        <is>
+          <t>27 Curved FHD Gaming Monitor</t>
+        </is>
+      </c>
+      <c r="AR245" t="inlineStr"/>
+      <c r="AS245" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT245" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU245" t="n">
+        <v>99.034315625</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>99.034315625</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>440.3</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>440.3</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>1.3214</v>
+      </c>
+      <c r="AZ245" t="inlineStr">
+        <is>
+          <t>R1558116</t>
+        </is>
+      </c>
+      <c r="BA245" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>685417735983</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BD245" t="inlineStr">
+        <is>
+          <t>S00368809-30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Amazon.com.ca ULC.</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>271 Church Street S</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>L1S 0A1</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>S00368810</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
+        <v>70893936</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>4GLBD52O</t>
+        </is>
+      </c>
+      <c r="P246" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:16 PM</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr"/>
+      <c r="U246" t="inlineStr"/>
+      <c r="V246" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W246" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X246" t="inlineStr">
+        <is>
+          <t>C32G2</t>
+        </is>
+      </c>
+      <c r="Y246" t="inlineStr">
+        <is>
+          <t>B08BT9DZQW</t>
+        </is>
+      </c>
+      <c r="Z246" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB246" t="inlineStr"/>
+      <c r="AC246" t="inlineStr"/>
+      <c r="AD246" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE246" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF246" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AG246" t="inlineStr">
+        <is>
+          <t>ABFS</t>
+        </is>
+      </c>
+      <c r="AH246" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AI246" t="inlineStr">
+        <is>
+          <t>167591193</t>
+        </is>
+      </c>
+      <c r="AJ246" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK246" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL246" s="2" t="n">
+        <v>45931.52083333334</v>
+      </c>
+      <c r="AM246" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO246" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP246" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ246" t="inlineStr">
+        <is>
+          <t>AOC 32" Monitor</t>
+        </is>
+      </c>
+      <c r="AR246" t="inlineStr"/>
+      <c r="AS246" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT246" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU246" t="n">
+        <v>17.22647979166667</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>17.22647979166667</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>114.05</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>114.05</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AZ246" t="inlineStr">
+        <is>
+          <t>167591193</t>
+        </is>
+      </c>
+      <c r="BA246" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>685417724789</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD246" t="inlineStr">
+        <is>
+          <t>S00368810-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Amazon.com.ca ULC.</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>271 Church Street S</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>L1S 0A1</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>S00368810</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
+        <v>70893936</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>4GLBD52O</t>
+        </is>
+      </c>
+      <c r="P247" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:16 PM</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr"/>
+      <c r="U247" t="inlineStr"/>
+      <c r="V247" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W247" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X247" t="inlineStr">
+        <is>
+          <t>241V8LB</t>
+        </is>
+      </c>
+      <c r="Y247" t="inlineStr">
+        <is>
+          <t>B0C8ZKV5R9</t>
+        </is>
+      </c>
+      <c r="Z247" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB247" t="inlineStr"/>
+      <c r="AC247" t="inlineStr"/>
+      <c r="AD247" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE247" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF247" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AG247" t="inlineStr">
+        <is>
+          <t>ABFS</t>
+        </is>
+      </c>
+      <c r="AH247" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AI247" t="inlineStr">
+        <is>
+          <t>167591193</t>
+        </is>
+      </c>
+      <c r="AJ247" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK247" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL247" s="2" t="n">
+        <v>45931.52083333334</v>
+      </c>
+      <c r="AM247" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO247" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP247" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ247" t="inlineStr">
+        <is>
+          <t>23.8 FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR247" t="inlineStr"/>
+      <c r="AS247" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT247" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU247" t="n">
+        <v>49.71464555555556</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>49.71464555555556</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>399</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>399</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>0.4667</v>
+      </c>
+      <c r="AZ247" t="inlineStr">
+        <is>
+          <t>167591193</t>
+        </is>
+      </c>
+      <c r="BA247" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>609585256750</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD247" t="inlineStr">
+        <is>
+          <t>S00368810-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Amazon.com.ca ULC.</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>271 Church Street S</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>L1S 0A1</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>S00368810</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
+        <v>70893936</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>4GLBD52O</t>
+        </is>
+      </c>
+      <c r="P248" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>9/25/2025 9:00:16 PM</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr"/>
+      <c r="U248" t="inlineStr"/>
+      <c r="V248" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W248" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X248" t="inlineStr">
+        <is>
+          <t>C27G4ZH</t>
+        </is>
+      </c>
+      <c r="Y248" t="inlineStr">
+        <is>
+          <t>B0D685N3NV</t>
+        </is>
+      </c>
+      <c r="Z248" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB248" t="inlineStr"/>
+      <c r="AC248" t="inlineStr"/>
+      <c r="AD248" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE248" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF248" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AG248" t="inlineStr">
+        <is>
+          <t>ABFS</t>
+        </is>
+      </c>
+      <c r="AH248" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AI248" t="inlineStr">
+        <is>
+          <t>167591193</t>
+        </is>
+      </c>
+      <c r="AJ248" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK248" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL248" s="2" t="n">
+        <v>45931.52083333334</v>
+      </c>
+      <c r="AM248" t="inlineStr">
+        <is>
+          <t>9/29/2025 9:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO248" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP248" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ248" t="inlineStr">
+        <is>
+          <t>27 Curved FHD Gaming Monitor</t>
+        </is>
+      </c>
+      <c r="AR248" t="inlineStr"/>
+      <c r="AS248" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT248" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU248" t="n">
+        <v>50.855459375</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>50.855459375</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>0.6785</v>
+      </c>
+      <c r="AZ248" t="inlineStr">
+        <is>
+          <t>167591193</t>
+        </is>
+      </c>
+      <c r="BA248" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>685417735983</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BD248" t="inlineStr">
+        <is>
+          <t>S00368810-30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>72</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>10 HIGH PLNS TRL</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>ROCKY VIEW COUNTY</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>T4A 3M6</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>S00368846</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
+        <v>70896070</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>4900980032</t>
+        </is>
+      </c>
+      <c r="P249" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>9/26/2025 8:16:59 AM</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr"/>
+      <c r="U249" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="V249" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W249" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X249" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y249" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z249" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB249" t="inlineStr"/>
+      <c r="AC249" t="inlineStr"/>
+      <c r="AD249" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE249" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF249" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG249" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH249" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI249" t="inlineStr">
+        <is>
+          <t>A656296</t>
+        </is>
+      </c>
+      <c r="AJ249" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK249" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AM249" t="inlineStr">
+        <is>
+          <t>10/1/2025 2:20:00 PM</t>
+        </is>
+      </c>
+      <c r="AN249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO249" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP249" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ249" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR249" t="inlineStr"/>
+      <c r="AS249" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT249" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU249" t="n">
+        <v>7.387552083333333</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>7.387552083333333</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>62</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>62</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>0.6945</v>
+      </c>
+      <c r="AZ249" t="inlineStr">
+        <is>
+          <t>A656296</t>
+        </is>
+      </c>
+      <c r="BA249" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD249" t="inlineStr">
+        <is>
+          <t>S00368846-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>72</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>233 MADILL BLVD</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>L5W 1Y6</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>S00368847</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
+        <v>70896071</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>5450980000</t>
+        </is>
+      </c>
+      <c r="P250" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>9/26/2025 8:17:01 AM</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr"/>
+      <c r="U250" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="V250" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W250" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X250" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y250" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z250" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB250" t="inlineStr"/>
+      <c r="AC250" t="inlineStr"/>
+      <c r="AD250" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE250" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF250" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG250" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH250" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI250" t="inlineStr">
+        <is>
+          <t>A656297</t>
+        </is>
+      </c>
+      <c r="AJ250" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK250" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AM250" t="inlineStr">
+        <is>
+          <t>10/1/2025 2:20:00 PM</t>
+        </is>
+      </c>
+      <c r="AN250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/1/2025 </t>
+        </is>
+      </c>
+      <c r="AO250" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP250" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ250" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR250" t="inlineStr"/>
+      <c r="AS250" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT250" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU250" t="n">
+        <v>22.16265625</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>22.16265625</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>186</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>186</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>2.0834</v>
+      </c>
+      <c r="AZ250" t="inlineStr">
+        <is>
+          <t>A656297</t>
+        </is>
+      </c>
+      <c r="BA250" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD250" t="inlineStr">
+        <is>
+          <t>S00368847-10000</t>
         </is>
       </c>
     </row>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD250"/>
+  <dimension ref="A1:BD252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56449,6 +56449,470 @@
         </is>
       </c>
     </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>72</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>S00369503</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
+        <v>70900279</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>8300840377</t>
+        </is>
+      </c>
+      <c r="P251" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>9/29/2025 7:56:35 AM</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/2/2025 </t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/2/2025 </t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr"/>
+      <c r="U251" s="2" t="n">
+        <v>45936</v>
+      </c>
+      <c r="V251" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W251" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="X251" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y251" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
+      </c>
+      <c r="Z251" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB251" t="inlineStr"/>
+      <c r="AC251" t="inlineStr"/>
+      <c r="AD251" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE251" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF251" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG251" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH251" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI251" t="inlineStr">
+        <is>
+          <t>A656366</t>
+        </is>
+      </c>
+      <c r="AJ251" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK251" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/2/2025 </t>
+        </is>
+      </c>
+      <c r="AM251" t="inlineStr">
+        <is>
+          <t>10/2/2025 1:50:00 PM</t>
+        </is>
+      </c>
+      <c r="AN251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/2/2025 </t>
+        </is>
+      </c>
+      <c r="AO251" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP251" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ251" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR251" t="inlineStr"/>
+      <c r="AS251" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT251" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU251" t="n">
+        <v>20.52112088888889</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>20.52112088888889</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AZ251" t="inlineStr">
+        <is>
+          <t>A656366</t>
+        </is>
+      </c>
+      <c r="BA251" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD251" t="inlineStr">
+        <is>
+          <t>S00369503-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>72</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>S00369504</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
+        <v>70900280</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>8900800545</t>
+        </is>
+      </c>
+      <c r="P252" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>9/29/2025 7:56:40 AM</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/2/2025 </t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/2/2025 </t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr"/>
+      <c r="U252" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="V252" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W252" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="X252" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y252" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
+      </c>
+      <c r="Z252" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB252" t="inlineStr"/>
+      <c r="AC252" t="inlineStr"/>
+      <c r="AD252" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE252" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF252" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG252" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH252" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI252" t="inlineStr">
+        <is>
+          <t>A656369</t>
+        </is>
+      </c>
+      <c r="AJ252" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK252" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/2/2025 </t>
+        </is>
+      </c>
+      <c r="AM252" t="inlineStr">
+        <is>
+          <t>10/2/2025 1:50:00 PM</t>
+        </is>
+      </c>
+      <c r="AN252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/2/2025 </t>
+        </is>
+      </c>
+      <c r="AO252" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP252" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ252" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR252" t="inlineStr"/>
+      <c r="AS252" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT252" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU252" t="n">
+        <v>16.67341072222222</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>16.67341072222222</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AZ252" t="inlineStr">
+        <is>
+          <t>A656369</t>
+        </is>
+      </c>
+      <c r="BA252" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD252" t="inlineStr">
+        <is>
+          <t>S00369504-10000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -44900,74 +44900,74 @@
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>BEST BUY CANADA</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>SUP009</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>TD SYNNEX Canada ULC</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>5280 72 Avenue SE</t>
+          <t>DC#1008, 19890-92A AVE.</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>LANGLEY</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>T2C 4G6</t>
+          <t>V1M 3A9</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>S00360016</t>
+          <t>S00361732</t>
         </is>
       </c>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="n">
-        <v>70838121</v>
+        <v>70852843</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>5370144</t>
+          <t>59157141</t>
         </is>
       </c>
       <c r="P200" s="2" t="n">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>8/26/2025 9:52:19 AM</t>
+          <t>9/2/2025 11:34:51 AM</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="T200" t="inlineStr"/>
       <c r="U200" s="2" t="n">
-        <v>45902</v>
+        <v>45915</v>
       </c>
       <c r="V200" t="inlineStr">
         <is>
@@ -44975,23 +44975,23 @@
         </is>
       </c>
       <c r="W200" s="2" t="n">
-        <v>45923</v>
+        <v>45919</v>
       </c>
       <c r="X200" t="inlineStr">
         <is>
-          <t>Q27G3XMN</t>
+          <t>TAB5109/37</t>
         </is>
       </c>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>ENV-Q27G3XMN</t>
+          <t>18597408</t>
         </is>
       </c>
       <c r="Z200" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="AA200" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="AB200" t="inlineStr"/>
       <c r="AC200" t="inlineStr"/>
@@ -45005,29 +45005,49 @@
           <t>M</t>
         </is>
       </c>
-      <c r="AF200" t="inlineStr"/>
-      <c r="AG200" t="inlineStr"/>
-      <c r="AH200" t="inlineStr"/>
-      <c r="AI200" t="inlineStr"/>
+      <c r="AF200" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG200" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH200" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI200" t="inlineStr">
+        <is>
+          <t>A654265</t>
+        </is>
+      </c>
       <c r="AJ200" t="inlineStr">
         <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK200" t="inlineStr"/>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK200" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
       <c r="AL200" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/23/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AM200" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/23/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AN200" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AO200" t="inlineStr">
@@ -45042,13 +45062,13 @@
       </c>
       <c r="AQ200" t="inlineStr">
         <is>
-          <t>AOC 27" Monitor</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR200" t="inlineStr"/>
       <c r="AS200" t="inlineStr">
         <is>
-          <t>TPV-MNT</t>
+          <t>TPV-AVA</t>
         </is>
       </c>
       <c r="AT200" t="inlineStr">
@@ -45057,33 +45077,37 @@
         </is>
       </c>
       <c r="AU200" t="n">
-        <v>70.76376999999999</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AV200" t="n">
-        <v>70.76376999999999</v>
+        <v>6.431683676651111</v>
       </c>
       <c r="AW200" t="n">
-        <v>646.08</v>
+        <v>72.7</v>
       </c>
       <c r="AX200" t="n">
-        <v>646.08</v>
+        <v>72.7</v>
       </c>
       <c r="AY200" t="n">
-        <v>0.8889</v>
-      </c>
-      <c r="AZ200" t="inlineStr"/>
+        <v>0.1515</v>
+      </c>
+      <c r="AZ200" t="inlineStr">
+        <is>
+          <t>A654265</t>
+        </is>
+      </c>
       <c r="BA200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB200" t="n">
-        <v>685417733583</v>
+        <v>840063203563</v>
       </c>
       <c r="BC200" t="n">
         <v>10000</v>
       </c>
       <c r="BD200" t="inlineStr">
         <is>
-          <t>S00360016-10000</t>
+          <t>S00361732-10000</t>
         </is>
       </c>
     </row>
@@ -45103,77 +45127,79 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr"/>
+      <c r="D201" t="n">
+        <v>72</v>
+      </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>SUP009</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>TD SYNNEX Canada ULC</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>5280 72 Avenue SE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>T2C 4G6</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>S00360016</t>
+          <t>S00365494</t>
         </is>
       </c>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="n">
-        <v>70838121</v>
+        <v>70870422</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>5370144</t>
+          <t>8950800525</t>
         </is>
       </c>
       <c r="P201" s="2" t="n">
-        <v>45895</v>
+        <v>45915</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>8/26/2025 9:52:19 AM</t>
+          <t>9/15/2025 9:24:42 AM</t>
         </is>
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t>9/19/2025 1:37:53 PM</t>
         </is>
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t>9/19/2025 1:37:53 PM</t>
         </is>
       </c>
       <c r="T201" t="inlineStr"/>
       <c r="U201" s="2" t="n">
-        <v>45902</v>
+        <v>45927</v>
       </c>
       <c r="V201" t="inlineStr">
         <is>
@@ -45181,23 +45207,23 @@
         </is>
       </c>
       <c r="W201" s="2" t="n">
-        <v>45923</v>
+        <v>45919</v>
       </c>
       <c r="X201" t="inlineStr">
         <is>
-          <t>AG276QZD2</t>
+          <t>TAB4500/37</t>
         </is>
       </c>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>ENV-AG276QZD2</t>
+          <t>050914401</t>
         </is>
       </c>
       <c r="Z201" t="n">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="AA201" t="n">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="AB201" t="inlineStr"/>
       <c r="AC201" t="inlineStr"/>
@@ -45211,29 +45237,49 @@
           <t>M</t>
         </is>
       </c>
-      <c r="AF201" t="inlineStr"/>
-      <c r="AG201" t="inlineStr"/>
-      <c r="AH201" t="inlineStr"/>
-      <c r="AI201" t="inlineStr"/>
+      <c r="AF201" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG201" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH201" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI201" t="inlineStr">
+        <is>
+          <t>A655231</t>
+        </is>
+      </c>
       <c r="AJ201" t="inlineStr">
         <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK201" t="inlineStr"/>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK201" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
       <c r="AL201" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/23/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AM201" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/23/2025 </t>
+          <t xml:space="preserve">9/19/2025 </t>
         </is>
       </c>
       <c r="AN201" t="inlineStr">
         <is>
-          <t>9/23/2025 10:33:35 AM</t>
+          <t>9/19/2025 1:37:53 PM</t>
         </is>
       </c>
       <c r="AO201" t="inlineStr">
@@ -45248,13 +45294,13 @@
       </c>
       <c r="AQ201" t="inlineStr">
         <is>
-          <t>AOC 27” QHD OLED gaming monitor</t>
+          <t>Soundbar</t>
         </is>
       </c>
       <c r="AR201" t="inlineStr"/>
       <c r="AS201" t="inlineStr">
         <is>
-          <t>TPV-MNT</t>
+          <t>TPV-AVA</t>
         </is>
       </c>
       <c r="AT201" t="inlineStr">
@@ -45263,33 +45309,37 @@
         </is>
       </c>
       <c r="AU201" t="n">
-        <v>65.132025</v>
+        <v>216.0610582777778</v>
       </c>
       <c r="AV201" t="n">
-        <v>65.132025</v>
+        <v>216.0610582777778</v>
       </c>
       <c r="AW201" t="n">
-        <v>638.96</v>
+        <v>1013.84</v>
       </c>
       <c r="AX201" t="n">
-        <v>638.96</v>
+        <v>1013.84</v>
       </c>
       <c r="AY201" t="n">
-        <v>1.0001</v>
-      </c>
-      <c r="AZ201" t="inlineStr"/>
+        <v>4.6</v>
+      </c>
+      <c r="AZ201" t="inlineStr">
+        <is>
+          <t>A655231</t>
+        </is>
+      </c>
       <c r="BA201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB201" t="n">
-        <v>685417736485</v>
+        <v>840063204553</v>
       </c>
       <c r="BC201" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD201" t="inlineStr">
         <is>
-          <t>S00360016-20000</t>
+          <t>S00365494-10000</t>
         </is>
       </c>
     </row>
@@ -45309,77 +45359,79 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr"/>
+      <c r="D202" t="n">
+        <v>72</v>
+      </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>DC#1008, 19890-92A AVE.</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>LANGLEY</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>V1M 3A9</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>S00361732</t>
+          <t>S00365494</t>
         </is>
       </c>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="n">
-        <v>70852843</v>
+        <v>70870422</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>59157141</t>
+          <t>8950800525</t>
         </is>
       </c>
       <c r="P202" s="2" t="n">
-        <v>45902</v>
+        <v>45915</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>9/2/2025 11:34:51 AM</t>
+          <t>9/15/2025 9:24:42 AM</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t>9/19/2025 1:37:53 PM</t>
         </is>
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t>9/19/2025 1:37:53 PM</t>
         </is>
       </c>
       <c r="T202" t="inlineStr"/>
       <c r="U202" s="2" t="n">
-        <v>45915</v>
+        <v>45927</v>
       </c>
       <c r="V202" t="inlineStr">
         <is>
@@ -45391,19 +45443,19 @@
       </c>
       <c r="X202" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
+          <t>TAB4000/37</t>
         </is>
       </c>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>18597408</t>
+          <t>050914402</t>
         </is>
       </c>
       <c r="Z202" t="n">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="AA202" t="n">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="AB202" t="inlineStr"/>
       <c r="AC202" t="inlineStr"/>
@@ -45434,7 +45486,7 @@
       </c>
       <c r="AI202" t="inlineStr">
         <is>
-          <t>A654265</t>
+          <t>A655231</t>
         </is>
       </c>
       <c r="AJ202" t="inlineStr">
@@ -45459,7 +45511,7 @@
       </c>
       <c r="AN202" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t>9/19/2025 1:37:53 PM</t>
         </is>
       </c>
       <c r="AO202" t="inlineStr">
@@ -45474,7 +45526,7 @@
       </c>
       <c r="AQ202" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>Soundbar</t>
         </is>
       </c>
       <c r="AR202" t="inlineStr"/>
@@ -45489,37 +45541,37 @@
         </is>
       </c>
       <c r="AU202" t="n">
-        <v>6.431683676651111</v>
+        <v>33.6872375</v>
       </c>
       <c r="AV202" t="n">
-        <v>6.431683676651111</v>
+        <v>33.6872375</v>
       </c>
       <c r="AW202" t="n">
-        <v>72.7</v>
+        <v>282.72</v>
       </c>
       <c r="AX202" t="n">
-        <v>72.7</v>
+        <v>282.72</v>
       </c>
       <c r="AY202" t="n">
-        <v>0.1515</v>
+        <v>0.6794</v>
       </c>
       <c r="AZ202" t="inlineStr">
         <is>
-          <t>A654265</t>
+          <t>A655231</t>
         </is>
       </c>
       <c r="BA202" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB202" t="n">
-        <v>840063203563</v>
+        <v>840063204546</v>
       </c>
       <c r="BC202" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD202" t="inlineStr">
         <is>
-          <t>S00361732-10000</t>
+          <t>S00365494-20000</t>
         </is>
       </c>
     </row>
@@ -45559,12 +45611,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -45574,21 +45626,21 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>S00365494</t>
+          <t>S00365495</t>
         </is>
       </c>
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="n">
-        <v>70870422</v>
+        <v>70870420</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>8950800525</t>
+          <t>8900800534</t>
         </is>
       </c>
       <c r="P203" s="2" t="n">
@@ -45596,22 +45648,22 @@
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>9/15/2025 9:24:42 AM</t>
+          <t>9/15/2025 9:24:44 AM</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>9/19/2025 1:37:53 PM</t>
+          <t>9/19/2025 1:39:28 PM</t>
         </is>
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>9/19/2025 1:37:53 PM</t>
+          <t>9/19/2025 1:39:28 PM</t>
         </is>
       </c>
       <c r="T203" t="inlineStr"/>
       <c r="U203" s="2" t="n">
-        <v>45927</v>
+        <v>45926</v>
       </c>
       <c r="V203" t="inlineStr">
         <is>
@@ -45632,10 +45684,10 @@
         </is>
       </c>
       <c r="Z203" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AA203" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AB203" t="inlineStr"/>
       <c r="AC203" t="inlineStr"/>
@@ -45666,7 +45718,7 @@
       </c>
       <c r="AI203" t="inlineStr">
         <is>
-          <t>A655231</t>
+          <t>A655230</t>
         </is>
       </c>
       <c r="AJ203" t="inlineStr">
@@ -45691,7 +45743,7 @@
       </c>
       <c r="AN203" t="inlineStr">
         <is>
-          <t>9/19/2025 1:37:53 PM</t>
+          <t>9/19/2025 1:39:28 PM</t>
         </is>
       </c>
       <c r="AO203" t="inlineStr">
@@ -45721,23 +45773,23 @@
         </is>
       </c>
       <c r="AU203" t="n">
-        <v>216.0610582777778</v>
+        <v>197.2731401666667</v>
       </c>
       <c r="AV203" t="n">
-        <v>216.0610582777778</v>
+        <v>197.2731401666667</v>
       </c>
       <c r="AW203" t="n">
-        <v>1013.84</v>
+        <v>925.6799999999999</v>
       </c>
       <c r="AX203" t="n">
-        <v>1013.84</v>
+        <v>925.6799999999999</v>
       </c>
       <c r="AY203" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="AZ203" t="inlineStr">
         <is>
-          <t>A655231</t>
+          <t>A655230</t>
         </is>
       </c>
       <c r="BA203" t="n">
@@ -45751,7 +45803,7 @@
       </c>
       <c r="BD203" t="inlineStr">
         <is>
-          <t>S00365494-10000</t>
+          <t>S00365495-10000</t>
         </is>
       </c>
     </row>
@@ -45791,12 +45843,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -45806,21 +45858,21 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>S00365494</t>
+          <t>S00365495</t>
         </is>
       </c>
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="n">
-        <v>70870422</v>
+        <v>70870420</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>8950800525</t>
+          <t>8900800534</t>
         </is>
       </c>
       <c r="P204" s="2" t="n">
@@ -45828,22 +45880,22 @@
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>9/15/2025 9:24:42 AM</t>
+          <t>9/15/2025 9:24:44 AM</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>9/19/2025 1:37:53 PM</t>
+          <t>9/19/2025 1:39:28 PM</t>
         </is>
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>9/19/2025 1:37:53 PM</t>
+          <t>9/19/2025 1:39:28 PM</t>
         </is>
       </c>
       <c r="T204" t="inlineStr"/>
       <c r="U204" s="2" t="n">
-        <v>45927</v>
+        <v>45926</v>
       </c>
       <c r="V204" t="inlineStr">
         <is>
@@ -45898,7 +45950,7 @@
       </c>
       <c r="AI204" t="inlineStr">
         <is>
-          <t>A655231</t>
+          <t>A655230</t>
         </is>
       </c>
       <c r="AJ204" t="inlineStr">
@@ -45923,7 +45975,7 @@
       </c>
       <c r="AN204" t="inlineStr">
         <is>
-          <t>9/19/2025 1:37:53 PM</t>
+          <t>9/19/2025 1:39:28 PM</t>
         </is>
       </c>
       <c r="AO204" t="inlineStr">
@@ -45965,11 +46017,11 @@
         <v>282.72</v>
       </c>
       <c r="AY204" t="n">
-        <v>0.6794</v>
+        <v>0.5938</v>
       </c>
       <c r="AZ204" t="inlineStr">
         <is>
-          <t>A655231</t>
+          <t>A655230</t>
         </is>
       </c>
       <c r="BA204" t="n">
@@ -45983,7 +46035,7 @@
       </c>
       <c r="BD204" t="inlineStr">
         <is>
-          <t>S00365494-20000</t>
+          <t>S00365495-20000</t>
         </is>
       </c>
     </row>
@@ -46023,36 +46075,36 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CALGARY</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>S00365495</t>
+          <t>S00365496</t>
         </is>
       </c>
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="n">
-        <v>70870420</v>
+        <v>70870418</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>8900800534</t>
+          <t>8300840366</t>
         </is>
       </c>
       <c r="P205" s="2" t="n">
@@ -46060,22 +46112,22 @@
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>9/15/2025 9:24:44 AM</t>
+          <t>9/15/2025 9:24:45 AM</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>9/19/2025 1:39:28 PM</t>
+          <t>9/19/2025 1:42:35 PM</t>
         </is>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>9/19/2025 1:39:28 PM</t>
+          <t>9/19/2025 1:42:35 PM</t>
         </is>
       </c>
       <c r="T205" t="inlineStr"/>
       <c r="U205" s="2" t="n">
-        <v>45926</v>
+        <v>45922</v>
       </c>
       <c r="V205" t="inlineStr">
         <is>
@@ -46096,10 +46148,10 @@
         </is>
       </c>
       <c r="Z205" t="n">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="AA205" t="n">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="AB205" t="inlineStr"/>
       <c r="AC205" t="inlineStr"/>
@@ -46130,7 +46182,7 @@
       </c>
       <c r="AI205" t="inlineStr">
         <is>
-          <t>A655230</t>
+          <t>A655228</t>
         </is>
       </c>
       <c r="AJ205" t="inlineStr">
@@ -46155,7 +46207,7 @@
       </c>
       <c r="AN205" t="inlineStr">
         <is>
-          <t>9/19/2025 1:39:28 PM</t>
+          <t>9/19/2025 1:42:35 PM</t>
         </is>
       </c>
       <c r="AO205" t="inlineStr">
@@ -46185,23 +46237,23 @@
         </is>
       </c>
       <c r="AU205" t="n">
-        <v>197.2731401666667</v>
+        <v>70.45469291666667</v>
       </c>
       <c r="AV205" t="n">
-        <v>197.2731401666667</v>
+        <v>70.45469291666667</v>
       </c>
       <c r="AW205" t="n">
-        <v>925.6799999999999</v>
+        <v>330.6</v>
       </c>
       <c r="AX205" t="n">
-        <v>925.6799999999999</v>
+        <v>330.6</v>
       </c>
       <c r="AY205" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="AZ205" t="inlineStr">
         <is>
-          <t>A655230</t>
+          <t>A655228</t>
         </is>
       </c>
       <c r="BA205" t="n">
@@ -46215,7 +46267,7 @@
       </c>
       <c r="BD205" t="inlineStr">
         <is>
-          <t>S00365495-10000</t>
+          <t>S00365496-10000</t>
         </is>
       </c>
     </row>
@@ -46255,36 +46307,36 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CALGARY</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>S00365495</t>
+          <t>S00365496</t>
         </is>
       </c>
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="n">
-        <v>70870420</v>
+        <v>70870418</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>8900800534</t>
+          <t>8300840366</t>
         </is>
       </c>
       <c r="P206" s="2" t="n">
@@ -46292,22 +46344,22 @@
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>9/15/2025 9:24:44 AM</t>
+          <t>9/15/2025 9:24:45 AM</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>9/19/2025 1:39:28 PM</t>
+          <t>9/19/2025 1:42:35 PM</t>
         </is>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>9/19/2025 1:39:28 PM</t>
+          <t>9/19/2025 1:42:35 PM</t>
         </is>
       </c>
       <c r="T206" t="inlineStr"/>
       <c r="U206" s="2" t="n">
-        <v>45926</v>
+        <v>45922</v>
       </c>
       <c r="V206" t="inlineStr">
         <is>
@@ -46328,10 +46380,10 @@
         </is>
       </c>
       <c r="Z206" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="AA206" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="AB206" t="inlineStr"/>
       <c r="AC206" t="inlineStr"/>
@@ -46362,7 +46414,7 @@
       </c>
       <c r="AI206" t="inlineStr">
         <is>
-          <t>A655230</t>
+          <t>A655228</t>
         </is>
       </c>
       <c r="AJ206" t="inlineStr">
@@ -46387,7 +46439,7 @@
       </c>
       <c r="AN206" t="inlineStr">
         <is>
-          <t>9/19/2025 1:39:28 PM</t>
+          <t>9/19/2025 1:42:35 PM</t>
         </is>
       </c>
       <c r="AO206" t="inlineStr">
@@ -46417,23 +46469,23 @@
         </is>
       </c>
       <c r="AU206" t="n">
-        <v>33.6872375</v>
+        <v>49.64435</v>
       </c>
       <c r="AV206" t="n">
-        <v>33.6872375</v>
+        <v>49.64435</v>
       </c>
       <c r="AW206" t="n">
-        <v>282.72</v>
+        <v>416.64</v>
       </c>
       <c r="AX206" t="n">
-        <v>282.72</v>
+        <v>416.64</v>
       </c>
       <c r="AY206" t="n">
-        <v>0.5938</v>
+        <v>0.875</v>
       </c>
       <c r="AZ206" t="inlineStr">
         <is>
-          <t>A655230</t>
+          <t>A655228</t>
         </is>
       </c>
       <c r="BA206" t="n">
@@ -46447,7 +46499,7 @@
       </c>
       <c r="BD206" t="inlineStr">
         <is>
-          <t>S00365495-20000</t>
+          <t>S00365496-20000</t>
         </is>
       </c>
     </row>
@@ -46467,32 +46519,30 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D207" t="n">
-        <v>72</v>
-      </c>
+      <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>WM CANADA</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>SUP009</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>TD SYNNEX Canada ULC</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>5280 72 Avenue SE</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -46502,44 +46552,44 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>T2C 4G6</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>S00365496</t>
+          <t>S00360016</t>
         </is>
       </c>
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="n">
-        <v>70870418</v>
+        <v>70838121</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>8300840366</t>
+          <t>5370144</t>
         </is>
       </c>
       <c r="P207" s="2" t="n">
-        <v>45915</v>
+        <v>45895</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>9/15/2025 9:24:45 AM</t>
+          <t>8/26/2025 9:52:19 AM</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>9/19/2025 1:42:35 PM</t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>9/19/2025 1:42:35 PM</t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="T207" t="inlineStr"/>
       <c r="U207" s="2" t="n">
-        <v>45922</v>
+        <v>45902</v>
       </c>
       <c r="V207" t="inlineStr">
         <is>
@@ -46547,23 +46597,23 @@
         </is>
       </c>
       <c r="W207" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="X207" t="inlineStr">
         <is>
-          <t>TAB4500/37</t>
+          <t>Q27G3XMN</t>
         </is>
       </c>
       <c r="Y207" t="inlineStr">
         <is>
-          <t>050914401</t>
+          <t>ENV-Q27G3XMN</t>
         </is>
       </c>
       <c r="Z207" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA207" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB207" t="inlineStr"/>
       <c r="AC207" t="inlineStr"/>
@@ -46577,49 +46627,29 @@
           <t>M</t>
         </is>
       </c>
-      <c r="AF207" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG207" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH207" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI207" t="inlineStr">
-        <is>
-          <t>A655228</t>
-        </is>
-      </c>
+      <c r="AF207" t="inlineStr"/>
+      <c r="AG207" t="inlineStr"/>
+      <c r="AH207" t="inlineStr"/>
+      <c r="AI207" t="inlineStr"/>
       <c r="AJ207" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK207" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK207" t="inlineStr"/>
       <c r="AL207" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/23/2025 </t>
         </is>
       </c>
       <c r="AM207" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/23/2025 </t>
         </is>
       </c>
       <c r="AN207" t="inlineStr">
         <is>
-          <t>9/19/2025 1:42:35 PM</t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="AO207" t="inlineStr">
@@ -46634,13 +46664,13 @@
       </c>
       <c r="AQ207" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>AOC 27" Monitor</t>
         </is>
       </c>
       <c r="AR207" t="inlineStr"/>
       <c r="AS207" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT207" t="inlineStr">
@@ -46649,37 +46679,33 @@
         </is>
       </c>
       <c r="AU207" t="n">
-        <v>70.45469291666667</v>
+        <v>70.76376999999999</v>
       </c>
       <c r="AV207" t="n">
-        <v>70.45469291666667</v>
+        <v>70.76376999999999</v>
       </c>
       <c r="AW207" t="n">
-        <v>330.6</v>
+        <v>646.08</v>
       </c>
       <c r="AX207" t="n">
-        <v>330.6</v>
+        <v>646.08</v>
       </c>
       <c r="AY207" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AZ207" t="inlineStr">
-        <is>
-          <t>A655228</t>
-        </is>
-      </c>
+        <v>0.8889</v>
+      </c>
+      <c r="AZ207" t="inlineStr"/>
       <c r="BA207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB207" t="n">
-        <v>840063204553</v>
+        <v>685417733583</v>
       </c>
       <c r="BC207" t="n">
         <v>10000</v>
       </c>
       <c r="BD207" t="inlineStr">
         <is>
-          <t>S00365496-10000</t>
+          <t>S00360016-10000</t>
         </is>
       </c>
     </row>
@@ -46699,32 +46725,30 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D208" t="n">
-        <v>72</v>
-      </c>
+      <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>WM CANADA</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>SUP009</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>TD SYNNEX Canada ULC</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>5280 72 Avenue SE</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -46734,44 +46758,44 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>T2C 4G6</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>S00365496</t>
+          <t>S00360016</t>
         </is>
       </c>
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="n">
-        <v>70870418</v>
+        <v>70838121</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>8300840366</t>
+          <t>5370144</t>
         </is>
       </c>
       <c r="P208" s="2" t="n">
-        <v>45915</v>
+        <v>45895</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>9/15/2025 9:24:45 AM</t>
+          <t>8/26/2025 9:52:19 AM</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>9/19/2025 1:42:35 PM</t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>9/19/2025 1:42:35 PM</t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="T208" t="inlineStr"/>
       <c r="U208" s="2" t="n">
-        <v>45922</v>
+        <v>45902</v>
       </c>
       <c r="V208" t="inlineStr">
         <is>
@@ -46779,23 +46803,23 @@
         </is>
       </c>
       <c r="W208" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="X208" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>AG276QZD2</t>
         </is>
       </c>
       <c r="Y208" t="inlineStr">
         <is>
-          <t>050914402</t>
+          <t>ENV-AG276QZD2</t>
         </is>
       </c>
       <c r="Z208" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="AA208" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="AB208" t="inlineStr"/>
       <c r="AC208" t="inlineStr"/>
@@ -46809,49 +46833,29 @@
           <t>M</t>
         </is>
       </c>
-      <c r="AF208" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AG208" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
-      <c r="AH208" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI208" t="inlineStr">
-        <is>
-          <t>A655228</t>
-        </is>
-      </c>
+      <c r="AF208" t="inlineStr"/>
+      <c r="AG208" t="inlineStr"/>
+      <c r="AH208" t="inlineStr"/>
+      <c r="AI208" t="inlineStr"/>
       <c r="AJ208" t="inlineStr">
         <is>
-          <t>Prepaid</t>
-        </is>
-      </c>
-      <c r="AK208" t="inlineStr">
-        <is>
-          <t>18W</t>
-        </is>
-      </c>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK208" t="inlineStr"/>
       <c r="AL208" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/23/2025 </t>
         </is>
       </c>
       <c r="AM208" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19/2025 </t>
+          <t xml:space="preserve">9/23/2025 </t>
         </is>
       </c>
       <c r="AN208" t="inlineStr">
         <is>
-          <t>9/19/2025 1:42:35 PM</t>
+          <t>9/23/2025 10:33:35 AM</t>
         </is>
       </c>
       <c r="AO208" t="inlineStr">
@@ -46866,13 +46870,13 @@
       </c>
       <c r="AQ208" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>AOC 27” QHD OLED gaming monitor</t>
         </is>
       </c>
       <c r="AR208" t="inlineStr"/>
       <c r="AS208" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT208" t="inlineStr">
@@ -46881,37 +46885,33 @@
         </is>
       </c>
       <c r="AU208" t="n">
-        <v>49.64435</v>
+        <v>65.132025</v>
       </c>
       <c r="AV208" t="n">
-        <v>49.64435</v>
+        <v>65.132025</v>
       </c>
       <c r="AW208" t="n">
-        <v>416.64</v>
+        <v>638.96</v>
       </c>
       <c r="AX208" t="n">
-        <v>416.64</v>
+        <v>638.96</v>
       </c>
       <c r="AY208" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="AZ208" t="inlineStr">
-        <is>
-          <t>A655228</t>
-        </is>
-      </c>
+        <v>1.0001</v>
+      </c>
+      <c r="AZ208" t="inlineStr"/>
       <c r="BA208" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB208" t="n">
-        <v>840063204546</v>
+        <v>685417736485</v>
       </c>
       <c r="BC208" t="n">
         <v>20000</v>
       </c>
       <c r="BD208" t="inlineStr">
         <is>
-          <t>S00365496-20000</t>
+          <t>S00360016-20000</t>
         </is>
       </c>
     </row>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD252"/>
+  <dimension ref="A1:BD257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56913,6 +56913,1136 @@
         </is>
       </c>
     </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>AMAZON.COM, CA INC.</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>5225 Boundary Road</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Navan</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>K4B 0L3</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>S00369874</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
+        <v>70904134</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>24EX144I</t>
+        </is>
+      </c>
+      <c r="P253" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>9/30/2025 11:01:50 AM</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/3/2025 </t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/3/2025 </t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr"/>
+      <c r="U253" t="inlineStr"/>
+      <c r="V253" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W253" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="X253" t="inlineStr">
+        <is>
+          <t>221V8LB</t>
+        </is>
+      </c>
+      <c r="Y253" t="inlineStr">
+        <is>
+          <t>B0CVM2GJCN</t>
+        </is>
+      </c>
+      <c r="Z253" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB253" t="inlineStr"/>
+      <c r="AC253" t="inlineStr"/>
+      <c r="AD253" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE253" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF253" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG253" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH253" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI253" t="inlineStr">
+        <is>
+          <t>38962215151</t>
+        </is>
+      </c>
+      <c r="AJ253" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK253" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL253" s="2" t="n">
+        <v>45933.54861111111</v>
+      </c>
+      <c r="AM253" t="inlineStr">
+        <is>
+          <t>10/3/2025 2:00:00 PM</t>
+        </is>
+      </c>
+      <c r="AN253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/3/2025 </t>
+        </is>
+      </c>
+      <c r="AO253" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP253" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ253" t="inlineStr">
+        <is>
+          <t>21.5 FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR253" t="inlineStr"/>
+      <c r="AS253" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT253" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU253" t="n">
+        <v>40.245205</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>40.245205</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>345.24</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>345.24</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>0.4468</v>
+      </c>
+      <c r="AZ253" t="inlineStr">
+        <is>
+          <t>38962215151</t>
+        </is>
+      </c>
+      <c r="BA253" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>609585257030</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD253" t="inlineStr">
+        <is>
+          <t>S00369874-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>AMAZON.COM, CA INC.</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>109 Braid Street</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>New Westminster</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>V3L 5H4</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>S00369875</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
+        <v>70904137</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>7BVGAFKO</t>
+        </is>
+      </c>
+      <c r="P254" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>9/30/2025 11:01:52 AM</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/3/2025 </t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/3/2025 </t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr"/>
+      <c r="U254" t="inlineStr"/>
+      <c r="V254" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W254" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="X254" t="inlineStr">
+        <is>
+          <t>221V8LB</t>
+        </is>
+      </c>
+      <c r="Y254" t="inlineStr">
+        <is>
+          <t>B0CVM2GJCN</t>
+        </is>
+      </c>
+      <c r="Z254" t="n">
+        <v>311</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>311</v>
+      </c>
+      <c r="AB254" t="inlineStr"/>
+      <c r="AC254" t="inlineStr"/>
+      <c r="AD254" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE254" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF254" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG254" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH254" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI254" t="inlineStr">
+        <is>
+          <t>38962169621</t>
+        </is>
+      </c>
+      <c r="AJ254" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK254" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL254" s="2" t="n">
+        <v>45933.54861111111</v>
+      </c>
+      <c r="AM254" t="inlineStr">
+        <is>
+          <t>10/3/2025 2:00:00 PM</t>
+        </is>
+      </c>
+      <c r="AN254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/3/2025 </t>
+        </is>
+      </c>
+      <c r="AO254" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP254" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ254" t="inlineStr">
+        <is>
+          <t>21.5 FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR254" t="inlineStr"/>
+      <c r="AS254" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT254" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU254" t="n">
+        <v>298.0061608333334</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>298.0061608333334</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>2556.42</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>2556.42</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>3.3085</v>
+      </c>
+      <c r="AZ254" t="inlineStr">
+        <is>
+          <t>38962169621</t>
+        </is>
+      </c>
+      <c r="BA254" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>609585257030</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD254" t="inlineStr">
+        <is>
+          <t>S00369875-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Amazon.com.Ca</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>1882 118th Avenue NE</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Calgary</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>T3K 0R1</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>S00369876</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
+        <v>70904136</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>43GY849N</t>
+        </is>
+      </c>
+      <c r="P255" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>9/30/2025 11:01:54 AM</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/3/2025 </t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/3/2025 </t>
+        </is>
+      </c>
+      <c r="T255" t="inlineStr"/>
+      <c r="U255" t="inlineStr"/>
+      <c r="V255" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W255" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="X255" t="inlineStr">
+        <is>
+          <t>221V8LB</t>
+        </is>
+      </c>
+      <c r="Y255" t="inlineStr">
+        <is>
+          <t>B0CVM2GJCN</t>
+        </is>
+      </c>
+      <c r="Z255" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB255" t="inlineStr"/>
+      <c r="AC255" t="inlineStr"/>
+      <c r="AD255" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE255" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF255" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG255" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH255" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI255" t="inlineStr">
+        <is>
+          <t>38962183621</t>
+        </is>
+      </c>
+      <c r="AJ255" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK255" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL255" s="2" t="n">
+        <v>45933.54861111111</v>
+      </c>
+      <c r="AM255" t="inlineStr">
+        <is>
+          <t>10/3/2025 2:00:00 PM</t>
+        </is>
+      </c>
+      <c r="AN255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/3/2025 </t>
+        </is>
+      </c>
+      <c r="AO255" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP255" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ255" t="inlineStr">
+        <is>
+          <t>21.5 FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR255" t="inlineStr"/>
+      <c r="AS255" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT255" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU255" t="n">
+        <v>27.78835583333333</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>27.78835583333333</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>238.38</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>238.38</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>0.3085</v>
+      </c>
+      <c r="AZ255" t="inlineStr">
+        <is>
+          <t>38962183621</t>
+        </is>
+      </c>
+      <c r="BA255" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>609585257030</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD255" t="inlineStr">
+        <is>
+          <t>S00369876-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>789 Salem Rd N</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>L1Z 0J2</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>S00369877</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
+        <v>70904135</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>3AK5PIHT</t>
+        </is>
+      </c>
+      <c r="P256" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>9/30/2025 11:01:55 AM</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/3/2025 </t>
+        </is>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/3/2025 </t>
+        </is>
+      </c>
+      <c r="T256" t="inlineStr"/>
+      <c r="U256" t="inlineStr"/>
+      <c r="V256" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W256" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="X256" t="inlineStr">
+        <is>
+          <t>221V8LB</t>
+        </is>
+      </c>
+      <c r="Y256" t="inlineStr">
+        <is>
+          <t>B0CVM2GJCN</t>
+        </is>
+      </c>
+      <c r="Z256" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB256" t="inlineStr"/>
+      <c r="AC256" t="inlineStr"/>
+      <c r="AD256" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE256" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF256" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AG256" t="inlineStr">
+        <is>
+          <t>ABFS</t>
+        </is>
+      </c>
+      <c r="AH256" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AI256" t="inlineStr">
+        <is>
+          <t>167583137</t>
+        </is>
+      </c>
+      <c r="AJ256" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK256" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL256" s="2" t="n">
+        <v>45933.48055555556</v>
+      </c>
+      <c r="AM256" t="inlineStr">
+        <is>
+          <t>10/3/2025 2:00:00 PM</t>
+        </is>
+      </c>
+      <c r="AN256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/3/2025 </t>
+        </is>
+      </c>
+      <c r="AO256" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP256" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ256" t="inlineStr">
+        <is>
+          <t>21.5 FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR256" t="inlineStr"/>
+      <c r="AS256" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT256" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU256" t="n">
+        <v>42.16164333333333</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>42.16164333333333</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>361.68</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>361.68</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>0.4681</v>
+      </c>
+      <c r="AZ256" t="inlineStr">
+        <is>
+          <t>167583137</t>
+        </is>
+      </c>
+      <c r="BA256" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>609585257030</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD256" t="inlineStr">
+        <is>
+          <t>S00369877-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>6351 Steeles Ave E</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Scarborough</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>M1X 1N5</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>S00369878</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
+        <v>70904138</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>7O2RRJDJ</t>
+        </is>
+      </c>
+      <c r="P257" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>9/30/2025 11:01:57 AM</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/3/2025 </t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/3/2025 </t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr"/>
+      <c r="U257" t="inlineStr"/>
+      <c r="V257" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W257" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="X257" t="inlineStr">
+        <is>
+          <t>221V8LB</t>
+        </is>
+      </c>
+      <c r="Y257" t="inlineStr">
+        <is>
+          <t>B0CVM2GJCN</t>
+        </is>
+      </c>
+      <c r="Z257" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB257" t="inlineStr"/>
+      <c r="AC257" t="inlineStr"/>
+      <c r="AD257" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE257" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF257" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AG257" t="inlineStr">
+        <is>
+          <t>QXTI</t>
+        </is>
+      </c>
+      <c r="AH257" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AI257" t="inlineStr">
+        <is>
+          <t>R1560523</t>
+        </is>
+      </c>
+      <c r="AJ257" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK257" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL257" s="2" t="n">
+        <v>45933.44652777778</v>
+      </c>
+      <c r="AM257" t="inlineStr">
+        <is>
+          <t>10/3/2025 11:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/3/2025 </t>
+        </is>
+      </c>
+      <c r="AO257" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP257" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ257" t="inlineStr">
+        <is>
+          <t>21.5 FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR257" t="inlineStr"/>
+      <c r="AS257" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT257" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU257" t="n">
+        <v>18.20616416666667</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>18.20616416666667</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>156.18</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>156.18</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>0.2021</v>
+      </c>
+      <c r="AZ257" t="inlineStr">
+        <is>
+          <t>R1560523</t>
+        </is>
+      </c>
+      <c r="BA257" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>609585257030</v>
+      </c>
+      <c r="BC257" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD257" t="inlineStr">
+        <is>
+          <t>S00369878-10000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD257"/>
+  <dimension ref="A1:BD258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58043,6 +58043,232 @@
         </is>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>AMAZON.COM, CA INC.</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>109 Braid Street</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>New Westminster</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>V3L 5H4</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>S00369879</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
+        <v>70904139</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>7RMS9D9S</t>
+        </is>
+      </c>
+      <c r="P258" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>9/30/2025 11:01:58 AM</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/3/2025 </t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/3/2025 </t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr"/>
+      <c r="U258" t="inlineStr"/>
+      <c r="V258" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W258" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="X258" t="inlineStr">
+        <is>
+          <t>Q27G3XMN</t>
+        </is>
+      </c>
+      <c r="Y258" t="inlineStr">
+        <is>
+          <t>B0C8ZJKPWC</t>
+        </is>
+      </c>
+      <c r="Z258" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB258" t="inlineStr"/>
+      <c r="AC258" t="inlineStr"/>
+      <c r="AD258" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE258" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF258" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG258" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH258" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI258" t="inlineStr">
+        <is>
+          <t>38962169621</t>
+        </is>
+      </c>
+      <c r="AJ258" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK258" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL258" s="2" t="n">
+        <v>45933.54861111111</v>
+      </c>
+      <c r="AM258" t="inlineStr">
+        <is>
+          <t>10/3/2025 2:00:00 PM</t>
+        </is>
+      </c>
+      <c r="AN258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/3/2025 </t>
+        </is>
+      </c>
+      <c r="AO258" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP258" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ258" t="inlineStr">
+        <is>
+          <t>AOC 27" Monitor</t>
+        </is>
+      </c>
+      <c r="AR258" t="inlineStr"/>
+      <c r="AS258" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT258" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU258" t="n">
+        <v>121.6252296875</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>121.6252296875</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>1110.45</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>1110.45</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>1.5277</v>
+      </c>
+      <c r="AZ258" t="inlineStr">
+        <is>
+          <t>38962169621</t>
+        </is>
+      </c>
+      <c r="BA258" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>685417733583</v>
+      </c>
+      <c r="BC258" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD258" t="inlineStr">
+        <is>
+          <t>S00369879-10000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD258"/>
+  <dimension ref="A1:BD265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58269,6 +58269,1594 @@
         </is>
       </c>
     </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>789 Salem Rd N</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>L1Z 0J2</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>S00370947</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
+        <v>70909630</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>6FBSBPLK</t>
+        </is>
+      </c>
+      <c r="P259" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>10/3/2025 5:36:06 PM</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr"/>
+      <c r="U259" t="inlineStr"/>
+      <c r="V259" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W259" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="X259" t="inlineStr">
+        <is>
+          <t>221V8LB</t>
+        </is>
+      </c>
+      <c r="Y259" t="inlineStr">
+        <is>
+          <t>B0CVM2GJCN</t>
+        </is>
+      </c>
+      <c r="Z259" t="n">
+        <v>94</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>94</v>
+      </c>
+      <c r="AB259" t="inlineStr"/>
+      <c r="AC259" t="inlineStr"/>
+      <c r="AD259" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE259" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF259" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AG259" t="inlineStr">
+        <is>
+          <t>ABFS</t>
+        </is>
+      </c>
+      <c r="AH259" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AI259" t="inlineStr">
+        <is>
+          <t>167571143</t>
+        </is>
+      </c>
+      <c r="AJ259" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK259" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL259" s="2" t="n">
+        <v>45938.5</v>
+      </c>
+      <c r="AM259" t="inlineStr">
+        <is>
+          <t>10/8/2025 11:30:00 AM</t>
+        </is>
+      </c>
+      <c r="AN259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="AO259" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP259" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ259" t="inlineStr">
+        <is>
+          <t>21.5 FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR259" t="inlineStr"/>
+      <c r="AS259" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT259" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU259" t="n">
+        <v>90.07260166666667</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>90.07260166666667</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>772.6799999999999</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>772.6799999999999</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ259" t="inlineStr">
+        <is>
+          <t>167571143</t>
+        </is>
+      </c>
+      <c r="BA259" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>609585257030</v>
+      </c>
+      <c r="BC259" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD259" t="inlineStr">
+        <is>
+          <t>S00370947-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>1440 39 AVE</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>T9E 0B4</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>S00370949</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
+        <v>70909631</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>73QUEAMM</t>
+        </is>
+      </c>
+      <c r="P260" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>10/3/2025 5:36:09 PM</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr"/>
+      <c r="U260" t="inlineStr"/>
+      <c r="V260" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W260" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="X260" t="inlineStr">
+        <is>
+          <t>221V8LB</t>
+        </is>
+      </c>
+      <c r="Y260" t="inlineStr">
+        <is>
+          <t>B0CVM2GJCN</t>
+        </is>
+      </c>
+      <c r="Z260" t="n">
+        <v>94</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>94</v>
+      </c>
+      <c r="AB260" t="inlineStr"/>
+      <c r="AC260" t="inlineStr"/>
+      <c r="AD260" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE260" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF260" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG260" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH260" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI260" t="inlineStr">
+        <is>
+          <t>38997247501</t>
+        </is>
+      </c>
+      <c r="AJ260" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK260" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL260" s="2" t="n">
+        <v>45938.59583333333</v>
+      </c>
+      <c r="AM260" t="inlineStr">
+        <is>
+          <t>10/8/2025 2:00:00 PM</t>
+        </is>
+      </c>
+      <c r="AN260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="AO260" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP260" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ260" t="inlineStr">
+        <is>
+          <t>21.5 FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR260" t="inlineStr"/>
+      <c r="AS260" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT260" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU260" t="n">
+        <v>90.07260166666667</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>90.07260166666667</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>772.6799999999999</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>772.6799999999999</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ260" t="inlineStr">
+        <is>
+          <t>38997247501</t>
+        </is>
+      </c>
+      <c r="BA260" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>609585257030</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD260" t="inlineStr">
+        <is>
+          <t>S00370949-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>6351 Steeles Ave E</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Scarborough</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>M1X 1N5</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>S00370950</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
+        <v>70909634</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>7XNOEFOY</t>
+        </is>
+      </c>
+      <c r="P261" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>10/3/2025 5:36:11 PM</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr"/>
+      <c r="U261" t="inlineStr"/>
+      <c r="V261" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W261" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="X261" t="inlineStr">
+        <is>
+          <t>221V8LB</t>
+        </is>
+      </c>
+      <c r="Y261" t="inlineStr">
+        <is>
+          <t>B0CVM2GJCN</t>
+        </is>
+      </c>
+      <c r="Z261" t="n">
+        <v>188</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>188</v>
+      </c>
+      <c r="AB261" t="inlineStr"/>
+      <c r="AC261" t="inlineStr"/>
+      <c r="AD261" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE261" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF261" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AG261" t="inlineStr">
+        <is>
+          <t>QXTI</t>
+        </is>
+      </c>
+      <c r="AH261" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AI261" t="inlineStr">
+        <is>
+          <t>R1564770</t>
+        </is>
+      </c>
+      <c r="AJ261" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK261" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL261" s="2" t="n">
+        <v>45938.63333333333</v>
+      </c>
+      <c r="AM261" t="inlineStr">
+        <is>
+          <t>10/8/2025 11:30:00 AM</t>
+        </is>
+      </c>
+      <c r="AN261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="AO261" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP261" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ261" t="inlineStr">
+        <is>
+          <t>21.5 FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR261" t="inlineStr"/>
+      <c r="AS261" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT261" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU261" t="n">
+        <v>180.1452033333333</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>180.1452033333333</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>1545.36</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>1545.36</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ261" t="inlineStr">
+        <is>
+          <t>R1564770</t>
+        </is>
+      </c>
+      <c r="BA261" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>609585257030</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD261" t="inlineStr">
+        <is>
+          <t>S00370950-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Amazon.com.ca ULC.</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>271 Church Street S</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>L1S 0A1</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>S00370951</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
+        <v>70909633</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>7MK8K6NJ</t>
+        </is>
+      </c>
+      <c r="P262" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>10/3/2025 5:36:12 PM</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr"/>
+      <c r="U262" t="inlineStr"/>
+      <c r="V262" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W262" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="X262" t="inlineStr">
+        <is>
+          <t>221V8LB</t>
+        </is>
+      </c>
+      <c r="Y262" t="inlineStr">
+        <is>
+          <t>B0CVM2GJCN</t>
+        </is>
+      </c>
+      <c r="Z262" t="n">
+        <v>94</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>94</v>
+      </c>
+      <c r="AB262" t="inlineStr"/>
+      <c r="AC262" t="inlineStr"/>
+      <c r="AD262" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE262" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF262" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AG262" t="inlineStr">
+        <is>
+          <t>ABFS</t>
+        </is>
+      </c>
+      <c r="AH262" t="inlineStr">
+        <is>
+          <t>ABF</t>
+        </is>
+      </c>
+      <c r="AI262" t="inlineStr">
+        <is>
+          <t>167571144</t>
+        </is>
+      </c>
+      <c r="AJ262" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK262" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL262" s="2" t="n">
+        <v>45938.5</v>
+      </c>
+      <c r="AM262" t="inlineStr">
+        <is>
+          <t>10/8/2025 11:30:00 AM</t>
+        </is>
+      </c>
+      <c r="AN262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="AO262" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP262" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ262" t="inlineStr">
+        <is>
+          <t>21.5 FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR262" t="inlineStr"/>
+      <c r="AS262" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT262" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU262" t="n">
+        <v>90.07260166666667</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>90.07260166666667</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>772.6799999999999</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>772.6799999999999</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ262" t="inlineStr">
+        <is>
+          <t>167571144</t>
+        </is>
+      </c>
+      <c r="BA262" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>609585257030</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD262" t="inlineStr">
+        <is>
+          <t>S00370951-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Amazon.com.Ca</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>1882 118th Avenue NE</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>Calgary</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>T3K 0R1</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>S00370952</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
+        <v>70909636</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>8WK2KJBJ</t>
+        </is>
+      </c>
+      <c r="P263" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>10/3/2025 5:36:13 PM</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr"/>
+      <c r="U263" t="inlineStr"/>
+      <c r="V263" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W263" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="X263" t="inlineStr">
+        <is>
+          <t>221V8LB</t>
+        </is>
+      </c>
+      <c r="Y263" t="inlineStr">
+        <is>
+          <t>B0CVM2GJCN</t>
+        </is>
+      </c>
+      <c r="Z263" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB263" t="inlineStr"/>
+      <c r="AC263" t="inlineStr"/>
+      <c r="AD263" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE263" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF263" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG263" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH263" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI263" t="inlineStr">
+        <is>
+          <t>38997202091</t>
+        </is>
+      </c>
+      <c r="AJ263" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK263" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL263" s="2" t="n">
+        <v>45938.59583333333</v>
+      </c>
+      <c r="AM263" t="inlineStr">
+        <is>
+          <t>10/8/2025 2:00:00 PM</t>
+        </is>
+      </c>
+      <c r="AN263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="AO263" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP263" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ263" t="inlineStr">
+        <is>
+          <t>21.5 FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR263" t="inlineStr"/>
+      <c r="AS263" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT263" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU263" t="n">
+        <v>18.20616416666667</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>18.20616416666667</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>156.18</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>156.18</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>0.2022</v>
+      </c>
+      <c r="AZ263" t="inlineStr">
+        <is>
+          <t>38997202091</t>
+        </is>
+      </c>
+      <c r="BA263" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>609585257030</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD263" t="inlineStr">
+        <is>
+          <t>S00370952-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>AMAZON.COM, CA INC.</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>5225 Boundary Road</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Navan</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>K4B 0L3</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>S00370953</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
+        <v>70909632</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>7I92AYWC</t>
+        </is>
+      </c>
+      <c r="P264" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>10/3/2025 5:36:15 PM</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr"/>
+      <c r="U264" t="inlineStr"/>
+      <c r="V264" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W264" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="X264" t="inlineStr">
+        <is>
+          <t>221V8LB</t>
+        </is>
+      </c>
+      <c r="Y264" t="inlineStr">
+        <is>
+          <t>B0CVM2GJCN</t>
+        </is>
+      </c>
+      <c r="Z264" t="n">
+        <v>188</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>188</v>
+      </c>
+      <c r="AB264" t="inlineStr"/>
+      <c r="AC264" t="inlineStr"/>
+      <c r="AD264" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE264" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF264" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG264" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH264" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI264" t="inlineStr">
+        <is>
+          <t>38997191151</t>
+        </is>
+      </c>
+      <c r="AJ264" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK264" t="inlineStr">
+        <is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL264" s="2" t="n">
+        <v>45938.59583333333</v>
+      </c>
+      <c r="AM264" t="inlineStr">
+        <is>
+          <t>10/8/2025 2:00:00 PM</t>
+        </is>
+      </c>
+      <c r="AN264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="AO264" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP264" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ264" t="inlineStr">
+        <is>
+          <t>21.5 FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR264" t="inlineStr"/>
+      <c r="AS264" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT264" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU264" t="n">
+        <v>180.1452033333333</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>180.1452033333333</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>1545.36</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>1545.36</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ264" t="inlineStr">
+        <is>
+          <t>38997191151</t>
+        </is>
+      </c>
+      <c r="BA264" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>609585257030</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD264" t="inlineStr">
+        <is>
+          <t>S00370953-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>72</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>S00371012</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
+        <v>70910765</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>8300840382</t>
+        </is>
+      </c>
+      <c r="P265" s="2" t="n">
+        <v>45936</v>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>10/6/2025 7:29:21 AM</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="T265" t="inlineStr"/>
+      <c r="U265" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="V265" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W265" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="X265" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y265" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
+      </c>
+      <c r="Z265" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB265" t="inlineStr"/>
+      <c r="AC265" t="inlineStr"/>
+      <c r="AD265" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE265" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF265" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG265" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH265" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI265" t="inlineStr">
+        <is>
+          <t>A656992</t>
+        </is>
+      </c>
+      <c r="AJ265" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK265" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="AM265" t="inlineStr">
+        <is>
+          <t>10/9/2025 1:48:00 PM</t>
+        </is>
+      </c>
+      <c r="AN265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="AO265" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP265" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ265" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR265" t="inlineStr"/>
+      <c r="AS265" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT265" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU265" t="n">
+        <v>44.88995194444445</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>44.88995194444445</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AZ265" t="inlineStr">
+        <is>
+          <t>A656992</t>
+        </is>
+      </c>
+      <c r="BA265" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD265" t="inlineStr">
+        <is>
+          <t>S00371012-10000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD265"/>
+  <dimension ref="A1:BD268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59661,36 +59661,36 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>S00371012</t>
+          <t>S00371010</t>
         </is>
       </c>
       <c r="M265" t="inlineStr"/>
       <c r="N265" t="n">
-        <v>70910765</v>
+        <v>70910767</v>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>8300840382</t>
+          <t>8950800544</t>
         </is>
       </c>
       <c r="P265" s="2" t="n">
@@ -59698,7 +59698,7 @@
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>10/6/2025 7:29:21 AM</t>
+          <t>10/6/2025 7:29:18 AM</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
@@ -59713,7 +59713,7 @@
       </c>
       <c r="T265" t="inlineStr"/>
       <c r="U265" s="2" t="n">
-        <v>45943</v>
+        <v>45948</v>
       </c>
       <c r="V265" t="inlineStr">
         <is>
@@ -59734,10 +59734,10 @@
         </is>
       </c>
       <c r="Z265" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="AA265" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="AB265" t="inlineStr"/>
       <c r="AC265" t="inlineStr"/>
@@ -59768,7 +59768,7 @@
       </c>
       <c r="AI265" t="inlineStr">
         <is>
-          <t>A656992</t>
+          <t xml:space="preserve">A657250 </t>
         </is>
       </c>
       <c r="AJ265" t="inlineStr">
@@ -59788,7 +59788,7 @@
       </c>
       <c r="AM265" t="inlineStr">
         <is>
-          <t>10/9/2025 1:48:00 PM</t>
+          <t>10/9/2025 12:40:00 PM</t>
         </is>
       </c>
       <c r="AN265" t="inlineStr">
@@ -59823,10 +59823,10 @@
         </is>
       </c>
       <c r="AU265" t="n">
-        <v>44.88995194444445</v>
+        <v>11.5431305</v>
       </c>
       <c r="AV265" t="n">
-        <v>44.88995194444445</v>
+        <v>11.5431305</v>
       </c>
       <c r="AW265" t="n">
         <v>0</v>
@@ -59835,11 +59835,11 @@
         <v>0</v>
       </c>
       <c r="AY265" t="n">
-        <v>1.75</v>
+        <v>0.45</v>
       </c>
       <c r="AZ265" t="inlineStr">
         <is>
-          <t>A656992</t>
+          <t xml:space="preserve">A657250 </t>
         </is>
       </c>
       <c r="BA265" t="n">
@@ -59852,6 +59852,702 @@
         <v>10000</v>
       </c>
       <c r="BD265" t="inlineStr">
+        <is>
+          <t>S00371010-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>72</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>S00371010</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
+        <v>70910767</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>8950800544</t>
+        </is>
+      </c>
+      <c r="P266" s="2" t="n">
+        <v>45936</v>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>10/6/2025 7:29:18 AM</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="T266" t="inlineStr"/>
+      <c r="U266" s="2" t="n">
+        <v>45948</v>
+      </c>
+      <c r="V266" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W266" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="X266" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y266" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z266" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB266" t="inlineStr"/>
+      <c r="AC266" t="inlineStr"/>
+      <c r="AD266" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE266" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF266" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG266" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH266" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A657250 </t>
+        </is>
+      </c>
+      <c r="AJ266" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK266" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="AM266" t="inlineStr">
+        <is>
+          <t>10/9/2025 12:40:00 PM</t>
+        </is>
+      </c>
+      <c r="AN266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="AO266" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP266" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ266" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR266" t="inlineStr"/>
+      <c r="AS266" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT266" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU266" t="n">
+        <v>1.625261458333333</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1.625261458333333</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>0.1528</v>
+      </c>
+      <c r="AZ266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A657250 </t>
+        </is>
+      </c>
+      <c r="BA266" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD266" t="inlineStr">
+        <is>
+          <t>S00371010-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>72</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>S00371011</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
+        <v>70910766</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>8900800550</t>
+        </is>
+      </c>
+      <c r="P267" s="2" t="n">
+        <v>45936</v>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>10/6/2025 7:29:19 AM</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr"/>
+      <c r="U267" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="V267" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W267" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="X267" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y267" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
+      </c>
+      <c r="Z267" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB267" t="inlineStr"/>
+      <c r="AC267" t="inlineStr"/>
+      <c r="AD267" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE267" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF267" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG267" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH267" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI267" t="inlineStr">
+        <is>
+          <t>A657259</t>
+        </is>
+      </c>
+      <c r="AJ267" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK267" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="AM267" t="inlineStr">
+        <is>
+          <t>10/9/2025 12:51:00 PM</t>
+        </is>
+      </c>
+      <c r="AN267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="AO267" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP267" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ267" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR267" t="inlineStr"/>
+      <c r="AS267" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT267" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU267" t="n">
+        <v>19.23855083333333</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>19.23855083333333</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AZ267" t="inlineStr">
+        <is>
+          <t>A657259</t>
+        </is>
+      </c>
+      <c r="BA267" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD267" t="inlineStr">
+        <is>
+          <t>S00371011-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>72</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>S00371012</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
+        <v>70910765</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>8300840382</t>
+        </is>
+      </c>
+      <c r="P268" s="2" t="n">
+        <v>45936</v>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>10/6/2025 7:29:21 AM</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr"/>
+      <c r="U268" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="V268" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W268" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="X268" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y268" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
+      </c>
+      <c r="Z268" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB268" t="inlineStr"/>
+      <c r="AC268" t="inlineStr"/>
+      <c r="AD268" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE268" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF268" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG268" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH268" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI268" t="inlineStr">
+        <is>
+          <t>A656992</t>
+        </is>
+      </c>
+      <c r="AJ268" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK268" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="AM268" t="inlineStr">
+        <is>
+          <t>10/9/2025 1:48:00 PM</t>
+        </is>
+      </c>
+      <c r="AN268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/9/2025 </t>
+        </is>
+      </c>
+      <c r="AO268" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP268" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ268" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR268" t="inlineStr"/>
+      <c r="AS268" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT268" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU268" t="n">
+        <v>44.88995194444445</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>44.88995194444445</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AZ268" t="inlineStr">
+        <is>
+          <t>A656992</t>
+        </is>
+      </c>
+      <c r="BA268" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD268" t="inlineStr">
         <is>
           <t>S00371012-10000</t>
         </is>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD268"/>
+  <dimension ref="A1:BD269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60553,6 +60553,230 @@
         </is>
       </c>
     </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>JDC001</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>JAACX DISTRIBUTORS CORPORATION</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>2275 NW 84th Ave</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>33122</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>S00371954</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
+        <v>70913048</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>3660</t>
+        </is>
+      </c>
+      <c r="P269" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>10/8/2025 12:54:42 PM</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/15/2025 </t>
+        </is>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/15/2025 </t>
+        </is>
+      </c>
+      <c r="T269" t="inlineStr"/>
+      <c r="U269" t="inlineStr"/>
+      <c r="V269" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W269" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="X269" t="inlineStr">
+        <is>
+          <t>TAT1138BK/00</t>
+        </is>
+      </c>
+      <c r="Y269" t="inlineStr"/>
+      <c r="Z269" t="n">
+        <v>1680</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>1680</v>
+      </c>
+      <c r="AB269" t="inlineStr"/>
+      <c r="AC269" t="inlineStr"/>
+      <c r="AD269" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE269" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF269" t="inlineStr">
+        <is>
+          <t>Primary Freight Services Inc</t>
+        </is>
+      </c>
+      <c r="AG269" t="inlineStr">
+        <is>
+          <t>PRIMARY</t>
+        </is>
+      </c>
+      <c r="AH269" t="inlineStr">
+        <is>
+          <t>Primary Freight Services Inc</t>
+        </is>
+      </c>
+      <c r="AI269" t="inlineStr">
+        <is>
+          <t>94294452</t>
+        </is>
+      </c>
+      <c r="AJ269" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK269" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/15/2025 </t>
+        </is>
+      </c>
+      <c r="AM269" t="inlineStr">
+        <is>
+          <t>10/15/2025 12:30:00 PM</t>
+        </is>
+      </c>
+      <c r="AN269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/15/2025 </t>
+        </is>
+      </c>
+      <c r="AO269" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP269" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ269" t="inlineStr">
+        <is>
+          <t>TWS, 13mm driver, 1 AI mic, IPX4, SBC, 1</t>
+        </is>
+      </c>
+      <c r="AR269" t="inlineStr"/>
+      <c r="AS269" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT269" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU269" t="n">
+        <v>1.028564930555556</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>1.028564930555556</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AZ269" t="inlineStr">
+        <is>
+          <t>94294452</t>
+        </is>
+      </c>
+      <c r="BA269" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB269" t="n">
+        <v>840063203167</v>
+      </c>
+      <c r="BC269" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD269" t="inlineStr">
+        <is>
+          <t>S00371954-10000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD269"/>
+  <dimension ref="A1:BD277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60777,6 +60777,1856 @@
         </is>
       </c>
     </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>AMAZON.COM, CA INC.</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>109 Braid Street</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>New Westminster</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>V3L 5H4</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>S00373039</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
+        <v>70921771</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>3P625ZBQ</t>
+        </is>
+      </c>
+      <c r="P270" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>10/13/2025 12:30:40 PM</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="T270" t="inlineStr"/>
+      <c r="U270" t="inlineStr"/>
+      <c r="V270" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W270" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="X270" t="inlineStr">
+        <is>
+          <t>Q27G3XMN</t>
+        </is>
+      </c>
+      <c r="Y270" t="inlineStr">
+        <is>
+          <t>B0C8ZJKPWC</t>
+        </is>
+      </c>
+      <c r="Z270" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB270" t="inlineStr"/>
+      <c r="AC270" t="inlineStr"/>
+      <c r="AD270" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE270" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF270" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG270" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH270" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI270" t="inlineStr">
+        <is>
+          <t>39195282401</t>
+        </is>
+      </c>
+      <c r="AJ270" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK270" t="inlineStr">
+        <is>
+          <t>AMZCSPLT</t>
+        </is>
+      </c>
+      <c r="AL270" s="2" t="n">
+        <v>45946.54722222222</v>
+      </c>
+      <c r="AM270" t="inlineStr">
+        <is>
+          <t>10/16/2025 3:00:00 PM</t>
+        </is>
+      </c>
+      <c r="AN270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="AO270" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP270" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ270" t="inlineStr">
+        <is>
+          <t>AOC 27" Monitor</t>
+        </is>
+      </c>
+      <c r="AR270" t="inlineStr"/>
+      <c r="AS270" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT270" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU270" t="n">
+        <v>61.91829875</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>61.91829875</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>565.3200000000001</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>565.3200000000001</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>0.7778</v>
+      </c>
+      <c r="AZ270" t="inlineStr">
+        <is>
+          <t>39195282401</t>
+        </is>
+      </c>
+      <c r="BA270" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>685417733583</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD270" t="inlineStr">
+        <is>
+          <t>S00373039-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>72</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>S00373056</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
+        <v>70923691</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>8300840387</t>
+        </is>
+      </c>
+      <c r="P271" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>10/14/2025 7:33:13 AM</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="T271" t="inlineStr"/>
+      <c r="U271" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="V271" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W271" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="X271" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y271" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
+      </c>
+      <c r="Z271" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>61</v>
+      </c>
+      <c r="AB271" t="inlineStr"/>
+      <c r="AC271" t="inlineStr"/>
+      <c r="AD271" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE271" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF271" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG271" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH271" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI271" t="inlineStr">
+        <is>
+          <t>A657665</t>
+        </is>
+      </c>
+      <c r="AJ271" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK271" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="AM271" t="inlineStr">
+        <is>
+          <t>10/16/2025 12:29:00 PM</t>
+        </is>
+      </c>
+      <c r="AN271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="AO271" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP271" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ271" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR271" t="inlineStr"/>
+      <c r="AS271" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT271" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU271" t="n">
+        <v>78.23677338888889</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>78.23677338888889</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AZ271" t="inlineStr">
+        <is>
+          <t>A657665</t>
+        </is>
+      </c>
+      <c r="BA271" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD271" t="inlineStr">
+        <is>
+          <t>S00373056-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>72</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>S00373056</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
+        <v>70923691</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>8300840387</t>
+        </is>
+      </c>
+      <c r="P272" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>10/14/2025 7:33:13 AM</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr"/>
+      <c r="U272" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="V272" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W272" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="X272" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y272" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z272" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>43</v>
+      </c>
+      <c r="AB272" t="inlineStr"/>
+      <c r="AC272" t="inlineStr"/>
+      <c r="AD272" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE272" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF272" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG272" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH272" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI272" t="inlineStr">
+        <is>
+          <t>A657665</t>
+        </is>
+      </c>
+      <c r="AJ272" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK272" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="AM272" t="inlineStr">
+        <is>
+          <t>10/16/2025 12:29:00 PM</t>
+        </is>
+      </c>
+      <c r="AN272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="AO272" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP272" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ272" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR272" t="inlineStr"/>
+      <c r="AS272" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT272" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU272" t="n">
+        <v>6.353294791666666</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>6.353294791666666</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>53.32</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>53.32</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>0.5972</v>
+      </c>
+      <c r="AZ272" t="inlineStr">
+        <is>
+          <t>A657665</t>
+        </is>
+      </c>
+      <c r="BA272" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD272" t="inlineStr">
+        <is>
+          <t>S00373056-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>72</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>S00373057</t>
+        </is>
+      </c>
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
+        <v>70923693</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>8950800547</t>
+        </is>
+      </c>
+      <c r="P273" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>10/14/2025 7:33:15 AM</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="T273" t="inlineStr"/>
+      <c r="U273" s="2" t="n">
+        <v>45955</v>
+      </c>
+      <c r="V273" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W273" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="X273" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y273" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
+      </c>
+      <c r="Z273" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>31</v>
+      </c>
+      <c r="AB273" t="inlineStr"/>
+      <c r="AC273" t="inlineStr"/>
+      <c r="AD273" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE273" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF273" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG273" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH273" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI273" t="inlineStr">
+        <is>
+          <t>A657804</t>
+        </is>
+      </c>
+      <c r="AJ273" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK273" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="AM273" t="inlineStr">
+        <is>
+          <t>10/16/2025 12:34:00 PM</t>
+        </is>
+      </c>
+      <c r="AN273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="AO273" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP273" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ273" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR273" t="inlineStr"/>
+      <c r="AS273" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT273" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU273" t="n">
+        <v>39.75967172222222</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>39.75967172222222</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AZ273" t="inlineStr">
+        <is>
+          <t>A657804</t>
+        </is>
+      </c>
+      <c r="BA273" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD273" t="inlineStr">
+        <is>
+          <t>S00373057-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>72</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>S00373057</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
+        <v>70923693</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>8950800547</t>
+        </is>
+      </c>
+      <c r="P274" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>10/14/2025 7:33:15 AM</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="T274" t="inlineStr"/>
+      <c r="U274" s="2" t="n">
+        <v>45955</v>
+      </c>
+      <c r="V274" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W274" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="X274" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y274" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z274" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB274" t="inlineStr"/>
+      <c r="AC274" t="inlineStr"/>
+      <c r="AD274" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE274" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF274" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG274" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH274" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI274" t="inlineStr">
+        <is>
+          <t>A657804</t>
+        </is>
+      </c>
+      <c r="AJ274" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK274" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="AM274" t="inlineStr">
+        <is>
+          <t>10/16/2025 12:34:00 PM</t>
+        </is>
+      </c>
+      <c r="AN274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="AO274" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP274" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ274" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR274" t="inlineStr"/>
+      <c r="AS274" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT274" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU274" t="n">
+        <v>6.796547916666666</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>6.796547916666666</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>57.04</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>57.04</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>0.6389</v>
+      </c>
+      <c r="AZ274" t="inlineStr">
+        <is>
+          <t>A657804</t>
+        </is>
+      </c>
+      <c r="BA274" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD274" t="inlineStr">
+        <is>
+          <t>S00373057-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>72</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>S00373058</t>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
+        <v>70923692</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>8900800554</t>
+        </is>
+      </c>
+      <c r="P275" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>10/14/2025 7:33:17 AM</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="T275" t="inlineStr"/>
+      <c r="U275" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="V275" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W275" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="X275" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y275" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
+      </c>
+      <c r="Z275" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB275" t="inlineStr"/>
+      <c r="AC275" t="inlineStr"/>
+      <c r="AD275" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE275" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF275" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG275" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH275" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI275" t="inlineStr">
+        <is>
+          <t>A657810</t>
+        </is>
+      </c>
+      <c r="AJ275" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK275" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="AM275" t="inlineStr">
+        <is>
+          <t>10/16/2025 12:29:00 PM</t>
+        </is>
+      </c>
+      <c r="AN275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="AO275" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP275" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ275" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR275" t="inlineStr"/>
+      <c r="AS275" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT275" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU275" t="n">
+        <v>34.6293915</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>34.6293915</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AZ275" t="inlineStr">
+        <is>
+          <t>A657810</t>
+        </is>
+      </c>
+      <c r="BA275" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD275" t="inlineStr">
+        <is>
+          <t>S00373058-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>72</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>S00373058</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
+        <v>70923692</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>8900800554</t>
+        </is>
+      </c>
+      <c r="P276" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>10/14/2025 7:33:17 AM</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="T276" t="inlineStr"/>
+      <c r="U276" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="V276" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W276" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="X276" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y276" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z276" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB276" t="inlineStr"/>
+      <c r="AC276" t="inlineStr"/>
+      <c r="AD276" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE276" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF276" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG276" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH276" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI276" t="inlineStr">
+        <is>
+          <t>A657810</t>
+        </is>
+      </c>
+      <c r="AJ276" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK276" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="AM276" t="inlineStr">
+        <is>
+          <t>10/16/2025 12:29:00 PM</t>
+        </is>
+      </c>
+      <c r="AN276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="AO276" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP276" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ276" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR276" t="inlineStr"/>
+      <c r="AS276" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT276" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU276" t="n">
+        <v>2.511767708333333</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>2.511767708333333</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>0.2361</v>
+      </c>
+      <c r="AZ276" t="inlineStr">
+        <is>
+          <t>A657810</t>
+        </is>
+      </c>
+      <c r="BA276" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD276" t="inlineStr">
+        <is>
+          <t>S00373058-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>72</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>S00373318</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
+        <v>70923852</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>3850804288</t>
+        </is>
+      </c>
+      <c r="P277" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>10/14/2025 2:34:14 PM</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="T277" t="inlineStr"/>
+      <c r="U277" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="V277" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W277" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="X277" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y277" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z277" t="n">
+        <v>143</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>143</v>
+      </c>
+      <c r="AB277" t="inlineStr"/>
+      <c r="AC277" t="inlineStr"/>
+      <c r="AD277" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE277" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF277" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG277" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH277" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI277" t="inlineStr">
+        <is>
+          <t>A657805</t>
+        </is>
+      </c>
+      <c r="AJ277" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK277" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="AM277" t="inlineStr">
+        <is>
+          <t>10/16/2025 12:34:00 PM</t>
+        </is>
+      </c>
+      <c r="AN277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
+      </c>
+      <c r="AO277" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP277" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ277" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR277" t="inlineStr"/>
+      <c r="AS277" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT277" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU277" t="n">
+        <v>21.12839895833333</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>21.12839895833333</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>177.32</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>177.32</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>1.9861</v>
+      </c>
+      <c r="AZ277" t="inlineStr">
+        <is>
+          <t>A657805</t>
+        </is>
+      </c>
+      <c r="BA277" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD277" t="inlineStr">
+        <is>
+          <t>S00373318-10000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD277"/>
+  <dimension ref="A1:BD278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62627,6 +62627,234 @@
         </is>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>INGRAM MICRO CANADA</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>ING006</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>INGRAM MICRO LP</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>88 Foster Crescent</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Mississauga</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>L5R 4A2</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>S00373520</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
+        <v>70926811</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>40U8592S</t>
+        </is>
+      </c>
+      <c r="P278" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>10/15/2025 11:52:12 AM</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/17/2025 </t>
+        </is>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/17/2025 </t>
+        </is>
+      </c>
+      <c r="T278" t="inlineStr"/>
+      <c r="U278" t="inlineStr"/>
+      <c r="V278" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W278" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="X278" t="inlineStr">
+        <is>
+          <t>273V7QJAB</t>
+        </is>
+      </c>
+      <c r="Y278" t="inlineStr">
+        <is>
+          <t>375AAN</t>
+        </is>
+      </c>
+      <c r="Z278" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB278" t="inlineStr"/>
+      <c r="AC278" t="inlineStr"/>
+      <c r="AD278" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE278" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF278" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG278" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH278" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI278" t="inlineStr">
+        <is>
+          <t>A658049</t>
+        </is>
+      </c>
+      <c r="AJ278" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK278" t="inlineStr">
+        <is>
+          <t>TUINGRAM</t>
+        </is>
+      </c>
+      <c r="AL278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/17/2025 </t>
+        </is>
+      </c>
+      <c r="AM278" t="inlineStr">
+        <is>
+          <t>10/17/2025 1:30:00 PM</t>
+        </is>
+      </c>
+      <c r="AN278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/17/2025 </t>
+        </is>
+      </c>
+      <c r="AO278" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP278" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ278" t="inlineStr">
+        <is>
+          <t>Philips 27" FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR278" t="inlineStr"/>
+      <c r="AS278" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT278" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU278" t="n">
+        <v>31.34839583333333</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>31.34839583333333</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>308.88</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>308.88</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="AZ278" t="inlineStr">
+        <is>
+          <t>A658049</t>
+        </is>
+      </c>
+      <c r="BA278" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>609585252608</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD278" t="inlineStr">
+        <is>
+          <t>S00373520-10000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD278"/>
+  <dimension ref="A1:BD280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62855,6 +62855,470 @@
         </is>
       </c>
     </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>72</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>S00375016</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
+        <v>70940875</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>3850804289</t>
+        </is>
+      </c>
+      <c r="P279" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>10/22/2025 9:20:49 AM</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/24/2025 </t>
+        </is>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/24/2025 </t>
+        </is>
+      </c>
+      <c r="T279" t="inlineStr"/>
+      <c r="U279" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="V279" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W279" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="X279" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y279" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z279" t="n">
+        <v>1485</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>1485</v>
+      </c>
+      <c r="AB279" t="inlineStr"/>
+      <c r="AC279" t="inlineStr"/>
+      <c r="AD279" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE279" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF279" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG279" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH279" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI279" t="inlineStr">
+        <is>
+          <t>A658561</t>
+        </is>
+      </c>
+      <c r="AJ279" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK279" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/24/2025 </t>
+        </is>
+      </c>
+      <c r="AM279" t="inlineStr">
+        <is>
+          <t>10/24/2025 1:39:00 PM</t>
+        </is>
+      </c>
+      <c r="AN279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/24/2025 </t>
+        </is>
+      </c>
+      <c r="AO279" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP279" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ279" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR279" t="inlineStr"/>
+      <c r="AS279" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT279" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU279" t="n">
+        <v>219.410296875</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>219.410296875</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>1841.4</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>1841.4</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>20.6248</v>
+      </c>
+      <c r="AZ279" t="inlineStr">
+        <is>
+          <t>A658561</t>
+        </is>
+      </c>
+      <c r="BA279" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD279" t="inlineStr">
+        <is>
+          <t>S00375016-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>72</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>S00375017</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
+        <v>70940874</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>4001224463</t>
+        </is>
+      </c>
+      <c r="P280" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>10/22/2025 9:20:51 AM</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>10/24/2025 5:26:09 PM</t>
+        </is>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>10/24/2025 5:26:09 PM</t>
+        </is>
+      </c>
+      <c r="T280" t="inlineStr"/>
+      <c r="U280" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="V280" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W280" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="X280" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y280" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z280" t="n">
+        <v>1361</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>1361</v>
+      </c>
+      <c r="AB280" t="inlineStr"/>
+      <c r="AC280" t="inlineStr"/>
+      <c r="AD280" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE280" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF280" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG280" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH280" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI280" t="inlineStr">
+        <is>
+          <t>A658563</t>
+        </is>
+      </c>
+      <c r="AJ280" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK280" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/24/2025 </t>
+        </is>
+      </c>
+      <c r="AM280" t="inlineStr">
+        <is>
+          <t>10/24/2025 1:20:00 PM</t>
+        </is>
+      </c>
+      <c r="AN280" t="inlineStr">
+        <is>
+          <t>10/24/2025 5:26:09 PM</t>
+        </is>
+      </c>
+      <c r="AO280" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP280" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ280" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR280" t="inlineStr"/>
+      <c r="AS280" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT280" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU280" t="n">
+        <v>201.0891677083333</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>201.0891677083333</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>1687.64</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>1687.64</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>18.9026</v>
+      </c>
+      <c r="AZ280" t="inlineStr">
+        <is>
+          <t>A658563</t>
+        </is>
+      </c>
+      <c r="BA280" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD280" t="inlineStr">
+        <is>
+          <t>S00375017-10000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD280"/>
+  <dimension ref="A1:BD282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62871,32 +62871,30 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D279" t="n">
-        <v>72</v>
-      </c>
+      <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr">
         <is>
-          <t>WM CANADA</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>SUP009</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>TD SYNNEX Canada ULC</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>6901 Credit View Road</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>Mississauga</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -62906,68 +62904,66 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>L5N 8E9</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>S00375016</t>
+          <t>S00373827</t>
         </is>
       </c>
       <c r="M279" t="inlineStr"/>
       <c r="N279" t="n">
-        <v>70940875</v>
+        <v>70929613</v>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>3850804289</t>
+          <t>5333943</t>
         </is>
       </c>
       <c r="P279" s="2" t="n">
-        <v>45952</v>
+        <v>45946</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>10/22/2025 9:20:49 AM</t>
+          <t>10/16/2025 2:10:58 PM</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24/2025 </t>
+          <t xml:space="preserve">10/27/2025 </t>
         </is>
       </c>
       <c r="S279" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24/2025 </t>
+          <t xml:space="preserve">10/27/2025 </t>
         </is>
       </c>
       <c r="T279" t="inlineStr"/>
-      <c r="U279" s="2" t="n">
-        <v>45964</v>
-      </c>
+      <c r="U279" t="inlineStr"/>
       <c r="V279" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W279" s="2" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="X279" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>273V7QJAB</t>
         </is>
       </c>
       <c r="Y279" t="inlineStr">
         <is>
-          <t>050914402</t>
+          <t>MMD-273V7QJAB</t>
         </is>
       </c>
       <c r="Z279" t="n">
-        <v>1485</v>
+        <v>60</v>
       </c>
       <c r="AA279" t="n">
-        <v>1485</v>
+        <v>60</v>
       </c>
       <c r="AB279" t="inlineStr"/>
       <c r="AC279" t="inlineStr"/>
@@ -62983,22 +62979,22 @@
       </c>
       <c r="AF279" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Day &amp; Ross</t>
         </is>
       </c>
       <c r="AG279" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>DAY</t>
         </is>
       </c>
       <c r="AH279" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Day &amp; Ross</t>
         </is>
       </c>
       <c r="AI279" t="inlineStr">
         <is>
-          <t>A658561</t>
+          <t>VAN 417 6230 3</t>
         </is>
       </c>
       <c r="AJ279" t="inlineStr">
@@ -63008,22 +63004,22 @@
       </c>
       <c r="AK279" t="inlineStr">
         <is>
-          <t>TPVWLMT</t>
+          <t>TDSYNNEX</t>
         </is>
       </c>
       <c r="AL279" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24/2025 </t>
+          <t xml:space="preserve">10/27/2025 </t>
         </is>
       </c>
       <c r="AM279" t="inlineStr">
         <is>
-          <t>10/24/2025 1:39:00 PM</t>
+          <t>10/27/2025 1:28:00 PM</t>
         </is>
       </c>
       <c r="AN279" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24/2025 </t>
+          <t xml:space="preserve">10/27/2025 </t>
         </is>
       </c>
       <c r="AO279" t="inlineStr">
@@ -63038,13 +63034,13 @@
       </c>
       <c r="AQ279" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>Philips 27" FHD Monitor</t>
         </is>
       </c>
       <c r="AR279" t="inlineStr"/>
       <c r="AS279" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT279" t="inlineStr">
@@ -63053,37 +63049,37 @@
         </is>
       </c>
       <c r="AU279" t="n">
-        <v>219.410296875</v>
+        <v>85.495625</v>
       </c>
       <c r="AV279" t="n">
-        <v>219.410296875</v>
+        <v>85.495625</v>
       </c>
       <c r="AW279" t="n">
-        <v>1841.4</v>
+        <v>842.4</v>
       </c>
       <c r="AX279" t="n">
-        <v>1841.4</v>
+        <v>842.4</v>
       </c>
       <c r="AY279" t="n">
-        <v>20.6248</v>
+        <v>1.111</v>
       </c>
       <c r="AZ279" t="inlineStr">
         <is>
-          <t>A658561</t>
+          <t>VAN 417 6230 3</t>
         </is>
       </c>
       <c r="BA279" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB279" t="n">
-        <v>840063204546</v>
+        <v>609585252608</v>
       </c>
       <c r="BC279" t="n">
         <v>10000</v>
       </c>
       <c r="BD279" t="inlineStr">
         <is>
-          <t>S00375016-10000</t>
+          <t>S00373827-10000</t>
         </is>
       </c>
     </row>
@@ -63103,103 +63099,99 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D280" t="n">
-        <v>72</v>
-      </c>
+      <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
-          <t>WM CANADA</t>
+          <t>AMAZON</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>AMA002</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>AMAZON.COM, CA INC.</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>109 Braid Street</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>New Westminster</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>V3L 5H4</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>S00375017</t>
+          <t>S00374921</t>
         </is>
       </c>
       <c r="M280" t="inlineStr"/>
       <c r="N280" t="n">
-        <v>70940874</v>
+        <v>70936928</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>4001224463</t>
+          <t>8TVCD2BV</t>
         </is>
       </c>
       <c r="P280" s="2" t="n">
-        <v>45952</v>
+        <v>45951</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>10/22/2025 9:20:51 AM</t>
+          <t>10/21/2025 2:02:52 PM</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>10/24/2025 5:26:09 PM</t>
+          <t>10/27/2025 4:29:20 PM</t>
         </is>
       </c>
       <c r="S280" t="inlineStr">
         <is>
-          <t>10/24/2025 5:26:09 PM</t>
+          <t>10/27/2025 4:29:20 PM</t>
         </is>
       </c>
       <c r="T280" t="inlineStr"/>
-      <c r="U280" s="2" t="n">
-        <v>45964</v>
-      </c>
+      <c r="U280" t="inlineStr"/>
       <c r="V280" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W280" s="2" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="X280" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>Q27G3XMN</t>
         </is>
       </c>
       <c r="Y280" t="inlineStr">
         <is>
-          <t>050914402</t>
+          <t>B0C8ZJKPWC</t>
         </is>
       </c>
       <c r="Z280" t="n">
-        <v>1361</v>
+        <v>8</v>
       </c>
       <c r="AA280" t="n">
-        <v>1361</v>
+        <v>8</v>
       </c>
       <c r="AB280" t="inlineStr"/>
       <c r="AC280" t="inlineStr"/>
@@ -63215,22 +63207,22 @@
       </c>
       <c r="AF280" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>CEVA Logistics (USL)</t>
         </is>
       </c>
       <c r="AG280" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>CEVA</t>
         </is>
       </c>
       <c r="AH280" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>CEVA Logistics (USL)</t>
         </is>
       </c>
       <c r="AI280" t="inlineStr">
         <is>
-          <t>A658563</t>
+          <t>39355551961</t>
         </is>
       </c>
       <c r="AJ280" t="inlineStr">
@@ -63240,22 +63232,20 @@
       </c>
       <c r="AK280" t="inlineStr">
         <is>
-          <t>TPVWLMT</t>
-        </is>
-      </c>
-      <c r="AL280" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/24/2025 </t>
-        </is>
+          <t>AMZCSPLT</t>
+        </is>
+      </c>
+      <c r="AL280" s="2" t="n">
+        <v>45957.64583333334</v>
       </c>
       <c r="AM280" t="inlineStr">
         <is>
-          <t>10/24/2025 1:20:00 PM</t>
+          <t>10/23/2025 2:00:00 PM</t>
         </is>
       </c>
       <c r="AN280" t="inlineStr">
         <is>
-          <t>10/24/2025 5:26:09 PM</t>
+          <t>10/27/2025 4:29:20 PM</t>
         </is>
       </c>
       <c r="AO280" t="inlineStr">
@@ -63270,13 +63260,13 @@
       </c>
       <c r="AQ280" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>AOC 27" Monitor</t>
         </is>
       </c>
       <c r="AR280" t="inlineStr"/>
       <c r="AS280" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT280" t="inlineStr">
@@ -63285,35 +63275,499 @@
         </is>
       </c>
       <c r="AU280" t="n">
-        <v>201.0891677083333</v>
+        <v>17.6909425</v>
       </c>
       <c r="AV280" t="n">
-        <v>201.0891677083333</v>
+        <v>17.6909425</v>
       </c>
       <c r="AW280" t="n">
-        <v>1687.64</v>
+        <v>161.52</v>
       </c>
       <c r="AX280" t="n">
-        <v>1687.64</v>
+        <v>161.52</v>
       </c>
       <c r="AY280" t="n">
-        <v>18.9026</v>
+        <v>0.2222</v>
       </c>
       <c r="AZ280" t="inlineStr">
         <is>
-          <t>A658563</t>
+          <t>39355551961</t>
         </is>
       </c>
       <c r="BA280" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB280" t="n">
-        <v>840063204546</v>
+        <v>685417733583</v>
       </c>
       <c r="BC280" t="n">
         <v>10000</v>
       </c>
       <c r="BD280" t="inlineStr">
+        <is>
+          <t>S00374921-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>72</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>S00375016</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
+        <v>70940875</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>3850804289</t>
+        </is>
+      </c>
+      <c r="P281" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>10/22/2025 9:20:49 AM</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/24/2025 </t>
+        </is>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/24/2025 </t>
+        </is>
+      </c>
+      <c r="T281" t="inlineStr"/>
+      <c r="U281" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="V281" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W281" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="X281" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y281" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z281" t="n">
+        <v>1485</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>1485</v>
+      </c>
+      <c r="AB281" t="inlineStr"/>
+      <c r="AC281" t="inlineStr"/>
+      <c r="AD281" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE281" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF281" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG281" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH281" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI281" t="inlineStr">
+        <is>
+          <t>A658561</t>
+        </is>
+      </c>
+      <c r="AJ281" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK281" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/24/2025 </t>
+        </is>
+      </c>
+      <c r="AM281" t="inlineStr">
+        <is>
+          <t>10/24/2025 1:39:00 PM</t>
+        </is>
+      </c>
+      <c r="AN281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/24/2025 </t>
+        </is>
+      </c>
+      <c r="AO281" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP281" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ281" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR281" t="inlineStr"/>
+      <c r="AS281" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT281" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU281" t="n">
+        <v>219.410296875</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>219.410296875</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>1841.4</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>1841.4</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>20.6248</v>
+      </c>
+      <c r="AZ281" t="inlineStr">
+        <is>
+          <t>A658561</t>
+        </is>
+      </c>
+      <c r="BA281" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD281" t="inlineStr">
+        <is>
+          <t>S00375016-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>72</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>S00375017</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
+        <v>70940874</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>4001224463</t>
+        </is>
+      </c>
+      <c r="P282" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>10/22/2025 9:20:51 AM</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>10/24/2025 5:26:09 PM</t>
+        </is>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>10/24/2025 5:26:09 PM</t>
+        </is>
+      </c>
+      <c r="T282" t="inlineStr"/>
+      <c r="U282" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="V282" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W282" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="X282" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y282" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z282" t="n">
+        <v>1361</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>1361</v>
+      </c>
+      <c r="AB282" t="inlineStr"/>
+      <c r="AC282" t="inlineStr"/>
+      <c r="AD282" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE282" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF282" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG282" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH282" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI282" t="inlineStr">
+        <is>
+          <t>A658563</t>
+        </is>
+      </c>
+      <c r="AJ282" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK282" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/24/2025 </t>
+        </is>
+      </c>
+      <c r="AM282" t="inlineStr">
+        <is>
+          <t>10/24/2025 1:20:00 PM</t>
+        </is>
+      </c>
+      <c r="AN282" t="inlineStr">
+        <is>
+          <t>10/24/2025 5:26:09 PM</t>
+        </is>
+      </c>
+      <c r="AO282" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP282" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ282" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR282" t="inlineStr"/>
+      <c r="AS282" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT282" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU282" t="n">
+        <v>201.0891677083333</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>201.0891677083333</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>1687.64</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>1687.64</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>18.9026</v>
+      </c>
+      <c r="AZ282" t="inlineStr">
+        <is>
+          <t>A658563</t>
+        </is>
+      </c>
+      <c r="BA282" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB282" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC282" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD282" t="inlineStr">
         <is>
           <t>S00375017-10000</t>
         </is>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD282"/>
+  <dimension ref="A1:BD283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63773,6 +63773,236 @@
         </is>
       </c>
     </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>SUP009</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>TD SYNNEX Canada ULC</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>6901 Credit View Road</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Mississauga</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>L5N 8E9</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>S00375653</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
+        <v>70945088</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>5413381</t>
+        </is>
+      </c>
+      <c r="P283" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>10/24/2025 10:59:04 AM</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/28/2025 </t>
+        </is>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/28/2025 </t>
+        </is>
+      </c>
+      <c r="T283" t="inlineStr"/>
+      <c r="U283" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W283" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="X283" t="inlineStr">
+        <is>
+          <t>243V7QJAB</t>
+        </is>
+      </c>
+      <c r="Y283" t="inlineStr">
+        <is>
+          <t>MMD-243V7QJAB</t>
+        </is>
+      </c>
+      <c r="Z283" t="n">
+        <v>128</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>128</v>
+      </c>
+      <c r="AB283" t="inlineStr"/>
+      <c r="AC283" t="inlineStr"/>
+      <c r="AD283" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE283" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF283" t="inlineStr">
+        <is>
+          <t>Day &amp; Ross</t>
+        </is>
+      </c>
+      <c r="AG283" t="inlineStr">
+        <is>
+          <t>DAY</t>
+        </is>
+      </c>
+      <c r="AH283" t="inlineStr">
+        <is>
+          <t>Day &amp; Ross</t>
+        </is>
+      </c>
+      <c r="AI283" t="inlineStr">
+        <is>
+          <t>VAN 400 6391 9</t>
+        </is>
+      </c>
+      <c r="AJ283" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK283" t="inlineStr">
+        <is>
+          <t>TDSYNNEX</t>
+        </is>
+      </c>
+      <c r="AL283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM283" t="inlineStr">
+        <is>
+          <t>10/28/2025 10:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO283" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP283" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ283" t="inlineStr">
+        <is>
+          <t>Philips 24" FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR283" t="inlineStr"/>
+      <c r="AS283" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT283" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU283" t="n">
+        <v>140.91</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>140.91</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>1356.8</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>1356.8</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>1.829</v>
+      </c>
+      <c r="AZ283" t="inlineStr">
+        <is>
+          <t>VAN 400 6391 9</t>
+        </is>
+      </c>
+      <c r="BA283" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>609585251434</v>
+      </c>
+      <c r="BC283" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD283" t="inlineStr">
+        <is>
+          <t>S00375653-10000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD283"/>
+  <dimension ref="A1:BD284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60831,34 +60831,34 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>S00373039</t>
+          <t>S00370948</t>
         </is>
       </c>
       <c r="M270" t="inlineStr"/>
       <c r="N270" t="n">
-        <v>70921771</v>
+        <v>70909635</v>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>3P625ZBQ</t>
+          <t>84HVE3ZP</t>
         </is>
       </c>
       <c r="P270" s="2" t="n">
-        <v>45943</v>
+        <v>45933</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>10/13/2025 12:30:40 PM</t>
+          <t>10/3/2025 5:36:08 PM</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16/2025 </t>
+          <t xml:space="preserve">10/29/2025 </t>
         </is>
       </c>
       <c r="S270" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16/2025 </t>
+          <t xml:space="preserve">10/29/2025 </t>
         </is>
       </c>
       <c r="T270" t="inlineStr"/>
@@ -60869,23 +60869,23 @@
         </is>
       </c>
       <c r="W270" s="2" t="n">
-        <v>45946</v>
+        <v>45959</v>
       </c>
       <c r="X270" t="inlineStr">
         <is>
-          <t>Q27G3XMN</t>
+          <t>221V8LB</t>
         </is>
       </c>
       <c r="Y270" t="inlineStr">
         <is>
-          <t>B0C8ZJKPWC</t>
+          <t>B0CVM2GJCN</t>
         </is>
       </c>
       <c r="Z270" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="AA270" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="AB270" t="inlineStr"/>
       <c r="AC270" t="inlineStr"/>
@@ -60901,22 +60901,22 @@
       </c>
       <c r="AF270" t="inlineStr">
         <is>
-          <t>CEVA Logistics (USL)</t>
+          <t>UPS Ground (small parcel)</t>
         </is>
       </c>
       <c r="AG270" t="inlineStr">
         <is>
-          <t>CEVA</t>
+          <t>UPSN</t>
         </is>
       </c>
       <c r="AH270" t="inlineStr">
         <is>
-          <t>CEVA Logistics (USL)</t>
+          <t>UPS Ground (small parcel)</t>
         </is>
       </c>
       <c r="AI270" t="inlineStr">
         <is>
-          <t>39195282401</t>
+          <t>1ZX94A632098393168</t>
         </is>
       </c>
       <c r="AJ270" t="inlineStr">
@@ -60926,20 +60926,20 @@
       </c>
       <c r="AK270" t="inlineStr">
         <is>
-          <t>AMZCSPLT</t>
+          <t>AMZCSPLTM</t>
         </is>
       </c>
       <c r="AL270" s="2" t="n">
-        <v>45946.54722222222</v>
+        <v>45959.66666666666</v>
       </c>
       <c r="AM270" t="inlineStr">
         <is>
-          <t>10/16/2025 3:00:00 PM</t>
+          <t>10/8/2025 11:30:00 AM</t>
         </is>
       </c>
       <c r="AN270" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16/2025 </t>
+          <t xml:space="preserve">10/29/2025 </t>
         </is>
       </c>
       <c r="AO270" t="inlineStr">
@@ -60954,7 +60954,7 @@
       </c>
       <c r="AQ270" t="inlineStr">
         <is>
-          <t>AOC 27" Monitor</t>
+          <t>21.5 FHD Monitor</t>
         </is>
       </c>
       <c r="AR270" t="inlineStr"/>
@@ -60969,37 +60969,37 @@
         </is>
       </c>
       <c r="AU270" t="n">
-        <v>61.91829875</v>
+        <v>5.749315</v>
       </c>
       <c r="AV270" t="n">
-        <v>61.91829875</v>
+        <v>5.749315</v>
       </c>
       <c r="AW270" t="n">
-        <v>565.3200000000001</v>
+        <v>49.32</v>
       </c>
       <c r="AX270" t="n">
-        <v>565.3200000000001</v>
+        <v>49.32</v>
       </c>
       <c r="AY270" t="n">
-        <v>0.7778</v>
+        <v>0.0638</v>
       </c>
       <c r="AZ270" t="inlineStr">
         <is>
-          <t>39195282401</t>
+          <t>1ZX94A632098393168</t>
         </is>
       </c>
       <c r="BA270" t="n">
         <v>1</v>
       </c>
       <c r="BB270" t="n">
-        <v>685417733583</v>
+        <v>609585257030</v>
       </c>
       <c r="BC270" t="n">
         <v>10000</v>
       </c>
       <c r="BD270" t="inlineStr">
         <is>
-          <t>S00373039-10000</t>
+          <t>S00370948-10000</t>
         </is>
       </c>
     </row>
@@ -61019,64 +61019,62 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D271" t="n">
-        <v>72</v>
-      </c>
+      <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>WM CANADA</t>
+          <t>AMAZON</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>AMA002</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>AMAZON.COM, CA INC.</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>109 Braid Street</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>New Westminster</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>V3L 5H4</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>S00373056</t>
+          <t>S00373039</t>
         </is>
       </c>
       <c r="M271" t="inlineStr"/>
       <c r="N271" t="n">
-        <v>70923691</v>
+        <v>70921771</v>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>8300840387</t>
+          <t>3P625ZBQ</t>
         </is>
       </c>
       <c r="P271" s="2" t="n">
-        <v>45944</v>
+        <v>45943</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>10/14/2025 7:33:13 AM</t>
+          <t>10/13/2025 12:30:40 PM</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -61090,9 +61088,7 @@
         </is>
       </c>
       <c r="T271" t="inlineStr"/>
-      <c r="U271" s="2" t="n">
-        <v>45950</v>
-      </c>
+      <c r="U271" t="inlineStr"/>
       <c r="V271" t="inlineStr">
         <is>
           <t>Posted</t>
@@ -61103,19 +61099,19 @@
       </c>
       <c r="X271" t="inlineStr">
         <is>
-          <t>TAB4500/37</t>
+          <t>Q27G3XMN</t>
         </is>
       </c>
       <c r="Y271" t="inlineStr">
         <is>
-          <t>050914401</t>
+          <t>B0C8ZJKPWC</t>
         </is>
       </c>
       <c r="Z271" t="n">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="AA271" t="n">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="AB271" t="inlineStr"/>
       <c r="AC271" t="inlineStr"/>
@@ -61131,22 +61127,22 @@
       </c>
       <c r="AF271" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>CEVA Logistics (USL)</t>
         </is>
       </c>
       <c r="AG271" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>CEVA</t>
         </is>
       </c>
       <c r="AH271" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>CEVA Logistics (USL)</t>
         </is>
       </c>
       <c r="AI271" t="inlineStr">
         <is>
-          <t>A657665</t>
+          <t>39195282401</t>
         </is>
       </c>
       <c r="AJ271" t="inlineStr">
@@ -61156,24 +61152,22 @@
       </c>
       <c r="AK271" t="inlineStr">
         <is>
-          <t>TPVWLMT</t>
-        </is>
-      </c>
-      <c r="AL271" t="inlineStr">
+          <t>AMZCSPLT</t>
+        </is>
+      </c>
+      <c r="AL271" s="2" t="n">
+        <v>45946.54722222222</v>
+      </c>
+      <c r="AM271" t="inlineStr">
+        <is>
+          <t>10/16/2025 3:00:00 PM</t>
+        </is>
+      </c>
+      <c r="AN271" t="inlineStr">
         <is>
           <t xml:space="preserve">10/16/2025 </t>
         </is>
       </c>
-      <c r="AM271" t="inlineStr">
-        <is>
-          <t>10/16/2025 12:29:00 PM</t>
-        </is>
-      </c>
-      <c r="AN271" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/16/2025 </t>
-        </is>
-      </c>
       <c r="AO271" t="inlineStr">
         <is>
           <t>18 Wheels</t>
@@ -61186,13 +61180,13 @@
       </c>
       <c r="AQ271" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>AOC 27" Monitor</t>
         </is>
       </c>
       <c r="AR271" t="inlineStr"/>
       <c r="AS271" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT271" t="inlineStr">
@@ -61201,37 +61195,37 @@
         </is>
       </c>
       <c r="AU271" t="n">
-        <v>78.23677338888889</v>
+        <v>61.91829875</v>
       </c>
       <c r="AV271" t="n">
-        <v>78.23677338888889</v>
+        <v>61.91829875</v>
       </c>
       <c r="AW271" t="n">
-        <v>0</v>
+        <v>565.3200000000001</v>
       </c>
       <c r="AX271" t="n">
-        <v>0</v>
+        <v>565.3200000000001</v>
       </c>
       <c r="AY271" t="n">
-        <v>3.05</v>
+        <v>0.7778</v>
       </c>
       <c r="AZ271" t="inlineStr">
         <is>
-          <t>A657665</t>
+          <t>39195282401</t>
         </is>
       </c>
       <c r="BA271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB271" t="n">
-        <v>840063204553</v>
+        <v>685417733583</v>
       </c>
       <c r="BC271" t="n">
         <v>10000</v>
       </c>
       <c r="BD271" t="inlineStr">
         <is>
-          <t>S00373056-10000</t>
+          <t>S00373039-10000</t>
         </is>
       </c>
     </row>
@@ -61335,19 +61329,19 @@
       </c>
       <c r="X272" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>TAB4500/37</t>
         </is>
       </c>
       <c r="Y272" t="inlineStr">
         <is>
-          <t>050914402</t>
+          <t>050914401</t>
         </is>
       </c>
       <c r="Z272" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="AA272" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="AB272" t="inlineStr"/>
       <c r="AC272" t="inlineStr"/>
@@ -61433,19 +61427,19 @@
         </is>
       </c>
       <c r="AU272" t="n">
-        <v>6.353294791666666</v>
+        <v>78.23677338888889</v>
       </c>
       <c r="AV272" t="n">
-        <v>6.353294791666666</v>
+        <v>78.23677338888889</v>
       </c>
       <c r="AW272" t="n">
-        <v>53.32</v>
+        <v>0</v>
       </c>
       <c r="AX272" t="n">
-        <v>53.32</v>
+        <v>0</v>
       </c>
       <c r="AY272" t="n">
-        <v>0.5972</v>
+        <v>3.05</v>
       </c>
       <c r="AZ272" t="inlineStr">
         <is>
@@ -61453,17 +61447,17 @@
         </is>
       </c>
       <c r="BA272" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB272" t="n">
-        <v>840063204546</v>
+        <v>840063204553</v>
       </c>
       <c r="BC272" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD272" t="inlineStr">
         <is>
-          <t>S00373056-20000</t>
+          <t>S00373056-10000</t>
         </is>
       </c>
     </row>
@@ -61503,36 +61497,36 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>CALGARY</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>S00373057</t>
+          <t>S00373056</t>
         </is>
       </c>
       <c r="M273" t="inlineStr"/>
       <c r="N273" t="n">
-        <v>70923693</v>
+        <v>70923691</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>8950800547</t>
+          <t>8300840387</t>
         </is>
       </c>
       <c r="P273" s="2" t="n">
@@ -61540,7 +61534,7 @@
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>10/14/2025 7:33:15 AM</t>
+          <t>10/14/2025 7:33:13 AM</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
@@ -61555,7 +61549,7 @@
       </c>
       <c r="T273" t="inlineStr"/>
       <c r="U273" s="2" t="n">
-        <v>45955</v>
+        <v>45950</v>
       </c>
       <c r="V273" t="inlineStr">
         <is>
@@ -61567,19 +61561,19 @@
       </c>
       <c r="X273" t="inlineStr">
         <is>
-          <t>TAB4500/37</t>
+          <t>TAB4000/37</t>
         </is>
       </c>
       <c r="Y273" t="inlineStr">
         <is>
-          <t>050914401</t>
+          <t>050914402</t>
         </is>
       </c>
       <c r="Z273" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AA273" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AB273" t="inlineStr"/>
       <c r="AC273" t="inlineStr"/>
@@ -61610,7 +61604,7 @@
       </c>
       <c r="AI273" t="inlineStr">
         <is>
-          <t>A657804</t>
+          <t>A657665</t>
         </is>
       </c>
       <c r="AJ273" t="inlineStr">
@@ -61630,7 +61624,7 @@
       </c>
       <c r="AM273" t="inlineStr">
         <is>
-          <t>10/16/2025 12:34:00 PM</t>
+          <t>10/16/2025 12:29:00 PM</t>
         </is>
       </c>
       <c r="AN273" t="inlineStr">
@@ -61665,37 +61659,37 @@
         </is>
       </c>
       <c r="AU273" t="n">
-        <v>39.75967172222222</v>
+        <v>6.353294791666666</v>
       </c>
       <c r="AV273" t="n">
-        <v>39.75967172222222</v>
+        <v>6.353294791666666</v>
       </c>
       <c r="AW273" t="n">
-        <v>0</v>
+        <v>53.32</v>
       </c>
       <c r="AX273" t="n">
-        <v>0</v>
+        <v>53.32</v>
       </c>
       <c r="AY273" t="n">
-        <v>1.55</v>
+        <v>0.5972</v>
       </c>
       <c r="AZ273" t="inlineStr">
         <is>
-          <t>A657804</t>
+          <t>A657665</t>
         </is>
       </c>
       <c r="BA273" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB273" t="n">
-        <v>840063204553</v>
+        <v>840063204546</v>
       </c>
       <c r="BC273" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD273" t="inlineStr">
         <is>
-          <t>S00373057-10000</t>
+          <t>S00373056-20000</t>
         </is>
       </c>
     </row>
@@ -61799,19 +61793,19 @@
       </c>
       <c r="X274" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>TAB4500/37</t>
         </is>
       </c>
       <c r="Y274" t="inlineStr">
         <is>
-          <t>050914402</t>
+          <t>050914401</t>
         </is>
       </c>
       <c r="Z274" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="AA274" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="AB274" t="inlineStr"/>
       <c r="AC274" t="inlineStr"/>
@@ -61897,19 +61891,19 @@
         </is>
       </c>
       <c r="AU274" t="n">
-        <v>6.796547916666666</v>
+        <v>39.75967172222222</v>
       </c>
       <c r="AV274" t="n">
-        <v>6.796547916666666</v>
+        <v>39.75967172222222</v>
       </c>
       <c r="AW274" t="n">
-        <v>57.04</v>
+        <v>0</v>
       </c>
       <c r="AX274" t="n">
-        <v>57.04</v>
+        <v>0</v>
       </c>
       <c r="AY274" t="n">
-        <v>0.6389</v>
+        <v>1.55</v>
       </c>
       <c r="AZ274" t="inlineStr">
         <is>
@@ -61917,17 +61911,17 @@
         </is>
       </c>
       <c r="BA274" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB274" t="n">
-        <v>840063204546</v>
+        <v>840063204553</v>
       </c>
       <c r="BC274" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD274" t="inlineStr">
         <is>
-          <t>S00373057-20000</t>
+          <t>S00373057-10000</t>
         </is>
       </c>
     </row>
@@ -61967,12 +61961,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -61982,21 +61976,21 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>S00373058</t>
+          <t>S00373057</t>
         </is>
       </c>
       <c r="M275" t="inlineStr"/>
       <c r="N275" t="n">
-        <v>70923692</v>
+        <v>70923693</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>8900800554</t>
+          <t>8950800547</t>
         </is>
       </c>
       <c r="P275" s="2" t="n">
@@ -62004,7 +61998,7 @@
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>10/14/2025 7:33:17 AM</t>
+          <t>10/14/2025 7:33:15 AM</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -62019,7 +62013,7 @@
       </c>
       <c r="T275" t="inlineStr"/>
       <c r="U275" s="2" t="n">
-        <v>45954</v>
+        <v>45955</v>
       </c>
       <c r="V275" t="inlineStr">
         <is>
@@ -62031,19 +62025,19 @@
       </c>
       <c r="X275" t="inlineStr">
         <is>
-          <t>TAB4500/37</t>
+          <t>TAB4000/37</t>
         </is>
       </c>
       <c r="Y275" t="inlineStr">
         <is>
-          <t>050914401</t>
+          <t>050914402</t>
         </is>
       </c>
       <c r="Z275" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AA275" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AB275" t="inlineStr"/>
       <c r="AC275" t="inlineStr"/>
@@ -62074,7 +62068,7 @@
       </c>
       <c r="AI275" t="inlineStr">
         <is>
-          <t>A657810</t>
+          <t>A657804</t>
         </is>
       </c>
       <c r="AJ275" t="inlineStr">
@@ -62094,7 +62088,7 @@
       </c>
       <c r="AM275" t="inlineStr">
         <is>
-          <t>10/16/2025 12:29:00 PM</t>
+          <t>10/16/2025 12:34:00 PM</t>
         </is>
       </c>
       <c r="AN275" t="inlineStr">
@@ -62129,37 +62123,37 @@
         </is>
       </c>
       <c r="AU275" t="n">
-        <v>34.6293915</v>
+        <v>6.796547916666666</v>
       </c>
       <c r="AV275" t="n">
-        <v>34.6293915</v>
+        <v>6.796547916666666</v>
       </c>
       <c r="AW275" t="n">
-        <v>0</v>
+        <v>57.04</v>
       </c>
       <c r="AX275" t="n">
-        <v>0</v>
+        <v>57.04</v>
       </c>
       <c r="AY275" t="n">
-        <v>1.35</v>
+        <v>0.6389</v>
       </c>
       <c r="AZ275" t="inlineStr">
         <is>
-          <t>A657810</t>
+          <t>A657804</t>
         </is>
       </c>
       <c r="BA275" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB275" t="n">
-        <v>840063204553</v>
+        <v>840063204546</v>
       </c>
       <c r="BC275" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD275" t="inlineStr">
         <is>
-          <t>S00373058-10000</t>
+          <t>S00373057-20000</t>
         </is>
       </c>
     </row>
@@ -62263,19 +62257,19 @@
       </c>
       <c r="X276" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>TAB4500/37</t>
         </is>
       </c>
       <c r="Y276" t="inlineStr">
         <is>
-          <t>050914402</t>
+          <t>050914401</t>
         </is>
       </c>
       <c r="Z276" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AA276" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AB276" t="inlineStr"/>
       <c r="AC276" t="inlineStr"/>
@@ -62361,19 +62355,19 @@
         </is>
       </c>
       <c r="AU276" t="n">
-        <v>2.511767708333333</v>
+        <v>34.6293915</v>
       </c>
       <c r="AV276" t="n">
-        <v>2.511767708333333</v>
+        <v>34.6293915</v>
       </c>
       <c r="AW276" t="n">
-        <v>21.08</v>
+        <v>0</v>
       </c>
       <c r="AX276" t="n">
-        <v>21.08</v>
+        <v>0</v>
       </c>
       <c r="AY276" t="n">
-        <v>0.2361</v>
+        <v>1.35</v>
       </c>
       <c r="AZ276" t="inlineStr">
         <is>
@@ -62381,17 +62375,17 @@
         </is>
       </c>
       <c r="BA276" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB276" t="n">
-        <v>840063204546</v>
+        <v>840063204553</v>
       </c>
       <c r="BC276" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD276" t="inlineStr">
         <is>
-          <t>S00373058-20000</t>
+          <t>S00373058-10000</t>
         </is>
       </c>
     </row>
@@ -62431,12 +62425,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -62446,21 +62440,21 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>S00373318</t>
+          <t>S00373058</t>
         </is>
       </c>
       <c r="M277" t="inlineStr"/>
       <c r="N277" t="n">
-        <v>70923852</v>
+        <v>70923692</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>3850804288</t>
+          <t>8900800554</t>
         </is>
       </c>
       <c r="P277" s="2" t="n">
@@ -62468,7 +62462,7 @@
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>10/14/2025 2:34:14 PM</t>
+          <t>10/14/2025 7:33:17 AM</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
@@ -62483,7 +62477,7 @@
       </c>
       <c r="T277" t="inlineStr"/>
       <c r="U277" s="2" t="n">
-        <v>45957</v>
+        <v>45954</v>
       </c>
       <c r="V277" t="inlineStr">
         <is>
@@ -62504,10 +62498,10 @@
         </is>
       </c>
       <c r="Z277" t="n">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="AA277" t="n">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="AB277" t="inlineStr"/>
       <c r="AC277" t="inlineStr"/>
@@ -62538,7 +62532,7 @@
       </c>
       <c r="AI277" t="inlineStr">
         <is>
-          <t>A657805</t>
+          <t>A657810</t>
         </is>
       </c>
       <c r="AJ277" t="inlineStr">
@@ -62558,7 +62552,7 @@
       </c>
       <c r="AM277" t="inlineStr">
         <is>
-          <t>10/16/2025 12:34:00 PM</t>
+          <t>10/16/2025 12:29:00 PM</t>
         </is>
       </c>
       <c r="AN277" t="inlineStr">
@@ -62593,23 +62587,23 @@
         </is>
       </c>
       <c r="AU277" t="n">
-        <v>21.12839895833333</v>
+        <v>2.511767708333333</v>
       </c>
       <c r="AV277" t="n">
-        <v>21.12839895833333</v>
+        <v>2.511767708333333</v>
       </c>
       <c r="AW277" t="n">
-        <v>177.32</v>
+        <v>21.08</v>
       </c>
       <c r="AX277" t="n">
-        <v>177.32</v>
+        <v>21.08</v>
       </c>
       <c r="AY277" t="n">
-        <v>1.9861</v>
+        <v>0.2361</v>
       </c>
       <c r="AZ277" t="inlineStr">
         <is>
-          <t>A657805</t>
+          <t>A657810</t>
         </is>
       </c>
       <c r="BA277" t="n">
@@ -62619,11 +62613,11 @@
         <v>840063204546</v>
       </c>
       <c r="BC277" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD277" t="inlineStr">
         <is>
-          <t>S00373318-10000</t>
+          <t>S00373058-20000</t>
         </is>
       </c>
     </row>
@@ -62643,30 +62637,32 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr"/>
+      <c r="D278" t="n">
+        <v>72</v>
+      </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>INGRAM MICRO CANADA</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>ING006</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>INGRAM MICRO LP</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>88 Foster Crescent</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Mississauga</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -62676,66 +62672,68 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>L5R 4A2</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>S00373520</t>
+          <t>S00373318</t>
         </is>
       </c>
       <c r="M278" t="inlineStr"/>
       <c r="N278" t="n">
-        <v>70926811</v>
+        <v>70923852</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>40U8592S</t>
+          <t>3850804288</t>
         </is>
       </c>
       <c r="P278" s="2" t="n">
-        <v>45945</v>
+        <v>45944</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>10/15/2025 11:52:12 AM</t>
+          <t>10/14/2025 2:34:14 PM</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17/2025 </t>
+          <t xml:space="preserve">10/16/2025 </t>
         </is>
       </c>
       <c r="S278" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17/2025 </t>
+          <t xml:space="preserve">10/16/2025 </t>
         </is>
       </c>
       <c r="T278" t="inlineStr"/>
-      <c r="U278" t="inlineStr"/>
+      <c r="U278" s="2" t="n">
+        <v>45957</v>
+      </c>
       <c r="V278" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W278" s="2" t="n">
-        <v>45947</v>
+        <v>45946</v>
       </c>
       <c r="X278" t="inlineStr">
         <is>
-          <t>273V7QJAB</t>
+          <t>TAB4000/37</t>
         </is>
       </c>
       <c r="Y278" t="inlineStr">
         <is>
-          <t>375AAN</t>
+          <t>050914402</t>
         </is>
       </c>
       <c r="Z278" t="n">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="AA278" t="n">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="AB278" t="inlineStr"/>
       <c r="AC278" t="inlineStr"/>
@@ -62766,7 +62764,7 @@
       </c>
       <c r="AI278" t="inlineStr">
         <is>
-          <t>A658049</t>
+          <t>A657805</t>
         </is>
       </c>
       <c r="AJ278" t="inlineStr">
@@ -62776,22 +62774,22 @@
       </c>
       <c r="AK278" t="inlineStr">
         <is>
-          <t>TUINGRAM</t>
+          <t>TPVWLMT</t>
         </is>
       </c>
       <c r="AL278" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17/2025 </t>
+          <t xml:space="preserve">10/16/2025 </t>
         </is>
       </c>
       <c r="AM278" t="inlineStr">
         <is>
-          <t>10/17/2025 1:30:00 PM</t>
+          <t>10/16/2025 12:34:00 PM</t>
         </is>
       </c>
       <c r="AN278" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17/2025 </t>
+          <t xml:space="preserve">10/16/2025 </t>
         </is>
       </c>
       <c r="AO278" t="inlineStr">
@@ -62806,13 +62804,13 @@
       </c>
       <c r="AQ278" t="inlineStr">
         <is>
-          <t>Philips 27" FHD Monitor</t>
+          <t>Soundbar</t>
         </is>
       </c>
       <c r="AR278" t="inlineStr"/>
       <c r="AS278" t="inlineStr">
         <is>
-          <t>TPV-MNT</t>
+          <t>TPV-AVA</t>
         </is>
       </c>
       <c r="AT278" t="inlineStr">
@@ -62821,37 +62819,37 @@
         </is>
       </c>
       <c r="AU278" t="n">
-        <v>31.34839583333333</v>
+        <v>21.12839895833333</v>
       </c>
       <c r="AV278" t="n">
-        <v>31.34839583333333</v>
+        <v>21.12839895833333</v>
       </c>
       <c r="AW278" t="n">
-        <v>308.88</v>
+        <v>177.32</v>
       </c>
       <c r="AX278" t="n">
-        <v>308.88</v>
+        <v>177.32</v>
       </c>
       <c r="AY278" t="n">
-        <v>0.407</v>
+        <v>1.9861</v>
       </c>
       <c r="AZ278" t="inlineStr">
         <is>
-          <t>A658049</t>
+          <t>A657805</t>
         </is>
       </c>
       <c r="BA278" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB278" t="n">
-        <v>609585252608</v>
+        <v>840063204546</v>
       </c>
       <c r="BC278" t="n">
         <v>10000</v>
       </c>
       <c r="BD278" t="inlineStr">
         <is>
-          <t>S00373520-10000</t>
+          <t>S00373318-10000</t>
         </is>
       </c>
     </row>
@@ -62874,22 +62872,22 @@
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>INGRAM MICRO CANADA</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>SUP009</t>
+          <t>ING006</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>TD SYNNEX Canada ULC</t>
+          <t>INGRAM MICRO LP</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>6901 Credit View Road</t>
+          <t>88 Foster Crescent</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -62904,39 +62902,39 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>L5N 8E9</t>
+          <t>L5R 4A2</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>S00373827</t>
+          <t>S00373520</t>
         </is>
       </c>
       <c r="M279" t="inlineStr"/>
       <c r="N279" t="n">
-        <v>70929613</v>
+        <v>70926811</v>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>5333943</t>
+          <t>40U8592S</t>
         </is>
       </c>
       <c r="P279" s="2" t="n">
-        <v>45946</v>
+        <v>45945</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>10/16/2025 2:10:58 PM</t>
+          <t>10/15/2025 11:52:12 AM</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27/2025 </t>
+          <t xml:space="preserve">10/17/2025 </t>
         </is>
       </c>
       <c r="S279" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27/2025 </t>
+          <t xml:space="preserve">10/17/2025 </t>
         </is>
       </c>
       <c r="T279" t="inlineStr"/>
@@ -62947,7 +62945,7 @@
         </is>
       </c>
       <c r="W279" s="2" t="n">
-        <v>45957</v>
+        <v>45947</v>
       </c>
       <c r="X279" t="inlineStr">
         <is>
@@ -62956,14 +62954,14 @@
       </c>
       <c r="Y279" t="inlineStr">
         <is>
-          <t>MMD-273V7QJAB</t>
+          <t>375AAN</t>
         </is>
       </c>
       <c r="Z279" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="AA279" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="AB279" t="inlineStr"/>
       <c r="AC279" t="inlineStr"/>
@@ -62979,22 +62977,22 @@
       </c>
       <c r="AF279" t="inlineStr">
         <is>
-          <t>Day &amp; Ross</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AG279" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>18W</t>
         </is>
       </c>
       <c r="AH279" t="inlineStr">
         <is>
-          <t>Day &amp; Ross</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AI279" t="inlineStr">
         <is>
-          <t>VAN 417 6230 3</t>
+          <t>A658049</t>
         </is>
       </c>
       <c r="AJ279" t="inlineStr">
@@ -63004,22 +63002,22 @@
       </c>
       <c r="AK279" t="inlineStr">
         <is>
-          <t>TDSYNNEX</t>
+          <t>TUINGRAM</t>
         </is>
       </c>
       <c r="AL279" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27/2025 </t>
+          <t xml:space="preserve">10/17/2025 </t>
         </is>
       </c>
       <c r="AM279" t="inlineStr">
         <is>
-          <t>10/27/2025 1:28:00 PM</t>
+          <t>10/17/2025 1:30:00 PM</t>
         </is>
       </c>
       <c r="AN279" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27/2025 </t>
+          <t xml:space="preserve">10/17/2025 </t>
         </is>
       </c>
       <c r="AO279" t="inlineStr">
@@ -63049,23 +63047,23 @@
         </is>
       </c>
       <c r="AU279" t="n">
-        <v>85.495625</v>
+        <v>31.34839583333333</v>
       </c>
       <c r="AV279" t="n">
-        <v>85.495625</v>
+        <v>31.34839583333333</v>
       </c>
       <c r="AW279" t="n">
-        <v>842.4</v>
+        <v>308.88</v>
       </c>
       <c r="AX279" t="n">
-        <v>842.4</v>
+        <v>308.88</v>
       </c>
       <c r="AY279" t="n">
-        <v>1.111</v>
+        <v>0.407</v>
       </c>
       <c r="AZ279" t="inlineStr">
         <is>
-          <t>VAN 417 6230 3</t>
+          <t>A658049</t>
         </is>
       </c>
       <c r="BA279" t="n">
@@ -63079,7 +63077,7 @@
       </c>
       <c r="BD279" t="inlineStr">
         <is>
-          <t>S00373827-10000</t>
+          <t>S00373520-10000</t>
         </is>
       </c>
     </row>
@@ -63102,69 +63100,69 @@
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>AMA002</t>
+          <t>SUP009</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>AMAZON.COM, CA INC.</t>
+          <t>TD SYNNEX Canada ULC</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>109 Braid Street</t>
+          <t>6901 Credit View Road</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>New Westminster</t>
+          <t>Mississauga</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>V3L 5H4</t>
+          <t>L5N 8E9</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>S00374921</t>
+          <t>S00373827</t>
         </is>
       </c>
       <c r="M280" t="inlineStr"/>
       <c r="N280" t="n">
-        <v>70936928</v>
+        <v>70929613</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>8TVCD2BV</t>
+          <t>5333943</t>
         </is>
       </c>
       <c r="P280" s="2" t="n">
-        <v>45951</v>
+        <v>45946</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>10/21/2025 2:02:52 PM</t>
+          <t>10/16/2025 2:10:58 PM</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>10/27/2025 4:29:20 PM</t>
+          <t xml:space="preserve">10/27/2025 </t>
         </is>
       </c>
       <c r="S280" t="inlineStr">
         <is>
-          <t>10/27/2025 4:29:20 PM</t>
+          <t xml:space="preserve">10/27/2025 </t>
         </is>
       </c>
       <c r="T280" t="inlineStr"/>
@@ -63179,19 +63177,19 @@
       </c>
       <c r="X280" t="inlineStr">
         <is>
-          <t>Q27G3XMN</t>
+          <t>273V7QJAB</t>
         </is>
       </c>
       <c r="Y280" t="inlineStr">
         <is>
-          <t>B0C8ZJKPWC</t>
+          <t>MMD-273V7QJAB</t>
         </is>
       </c>
       <c r="Z280" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="AA280" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="AB280" t="inlineStr"/>
       <c r="AC280" t="inlineStr"/>
@@ -63207,22 +63205,22 @@
       </c>
       <c r="AF280" t="inlineStr">
         <is>
-          <t>CEVA Logistics (USL)</t>
+          <t>Day &amp; Ross</t>
         </is>
       </c>
       <c r="AG280" t="inlineStr">
         <is>
-          <t>CEVA</t>
+          <t>DAY</t>
         </is>
       </c>
       <c r="AH280" t="inlineStr">
         <is>
-          <t>CEVA Logistics (USL)</t>
+          <t>Day &amp; Ross</t>
         </is>
       </c>
       <c r="AI280" t="inlineStr">
         <is>
-          <t>39355551961</t>
+          <t>VAN 417 6230 3</t>
         </is>
       </c>
       <c r="AJ280" t="inlineStr">
@@ -63232,20 +63230,22 @@
       </c>
       <c r="AK280" t="inlineStr">
         <is>
-          <t>AMZCSPLT</t>
-        </is>
-      </c>
-      <c r="AL280" s="2" t="n">
-        <v>45957.64583333334</v>
+          <t>TDSYNNEX</t>
+        </is>
+      </c>
+      <c r="AL280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/27/2025 </t>
+        </is>
       </c>
       <c r="AM280" t="inlineStr">
         <is>
-          <t>10/23/2025 2:00:00 PM</t>
+          <t>10/27/2025 1:28:00 PM</t>
         </is>
       </c>
       <c r="AN280" t="inlineStr">
         <is>
-          <t>10/27/2025 4:29:20 PM</t>
+          <t xml:space="preserve">10/27/2025 </t>
         </is>
       </c>
       <c r="AO280" t="inlineStr">
@@ -63260,7 +63260,7 @@
       </c>
       <c r="AQ280" t="inlineStr">
         <is>
-          <t>AOC 27" Monitor</t>
+          <t>Philips 27" FHD Monitor</t>
         </is>
       </c>
       <c r="AR280" t="inlineStr"/>
@@ -63275,37 +63275,37 @@
         </is>
       </c>
       <c r="AU280" t="n">
-        <v>17.6909425</v>
+        <v>85.495625</v>
       </c>
       <c r="AV280" t="n">
-        <v>17.6909425</v>
+        <v>85.495625</v>
       </c>
       <c r="AW280" t="n">
-        <v>161.52</v>
+        <v>842.4</v>
       </c>
       <c r="AX280" t="n">
-        <v>161.52</v>
+        <v>842.4</v>
       </c>
       <c r="AY280" t="n">
-        <v>0.2222</v>
+        <v>1.111</v>
       </c>
       <c r="AZ280" t="inlineStr">
         <is>
-          <t>39355551961</t>
+          <t>VAN 417 6230 3</t>
         </is>
       </c>
       <c r="BA280" t="n">
         <v>1</v>
       </c>
       <c r="BB280" t="n">
-        <v>685417733583</v>
+        <v>609585252608</v>
       </c>
       <c r="BC280" t="n">
         <v>10000</v>
       </c>
       <c r="BD280" t="inlineStr">
         <is>
-          <t>S00374921-10000</t>
+          <t>S00373827-10000</t>
         </is>
       </c>
     </row>
@@ -63325,103 +63325,99 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D281" t="n">
-        <v>72</v>
-      </c>
+      <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr">
         <is>
-          <t>WM CANADA</t>
+          <t>AMAZON</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>AMA002</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>AMAZON.COM, CA INC.</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>109 Braid Street</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>New Westminster</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>V3L 5H4</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>S00375016</t>
+          <t>S00374921</t>
         </is>
       </c>
       <c r="M281" t="inlineStr"/>
       <c r="N281" t="n">
-        <v>70940875</v>
+        <v>70936928</v>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>3850804289</t>
+          <t>8TVCD2BV</t>
         </is>
       </c>
       <c r="P281" s="2" t="n">
-        <v>45952</v>
+        <v>45951</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>10/22/2025 9:20:49 AM</t>
+          <t>10/21/2025 2:02:52 PM</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24/2025 </t>
+          <t>10/27/2025 4:29:20 PM</t>
         </is>
       </c>
       <c r="S281" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24/2025 </t>
+          <t>10/27/2025 4:29:20 PM</t>
         </is>
       </c>
       <c r="T281" t="inlineStr"/>
-      <c r="U281" s="2" t="n">
-        <v>45964</v>
-      </c>
+      <c r="U281" t="inlineStr"/>
       <c r="V281" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W281" s="2" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="X281" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>Q27G3XMN</t>
         </is>
       </c>
       <c r="Y281" t="inlineStr">
         <is>
-          <t>050914402</t>
+          <t>B0C8ZJKPWC</t>
         </is>
       </c>
       <c r="Z281" t="n">
-        <v>1485</v>
+        <v>8</v>
       </c>
       <c r="AA281" t="n">
-        <v>1485</v>
+        <v>8</v>
       </c>
       <c r="AB281" t="inlineStr"/>
       <c r="AC281" t="inlineStr"/>
@@ -63437,22 +63433,22 @@
       </c>
       <c r="AF281" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>CEVA Logistics (USL)</t>
         </is>
       </c>
       <c r="AG281" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>CEVA</t>
         </is>
       </c>
       <c r="AH281" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>CEVA Logistics (USL)</t>
         </is>
       </c>
       <c r="AI281" t="inlineStr">
         <is>
-          <t>A658561</t>
+          <t>39355551961</t>
         </is>
       </c>
       <c r="AJ281" t="inlineStr">
@@ -63462,22 +63458,20 @@
       </c>
       <c r="AK281" t="inlineStr">
         <is>
-          <t>TPVWLMT</t>
-        </is>
-      </c>
-      <c r="AL281" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/24/2025 </t>
-        </is>
+          <t>AMZCSPLT</t>
+        </is>
+      </c>
+      <c r="AL281" s="2" t="n">
+        <v>45957.64583333334</v>
       </c>
       <c r="AM281" t="inlineStr">
         <is>
-          <t>10/24/2025 1:39:00 PM</t>
+          <t>10/23/2025 2:00:00 PM</t>
         </is>
       </c>
       <c r="AN281" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24/2025 </t>
+          <t>10/27/2025 4:29:20 PM</t>
         </is>
       </c>
       <c r="AO281" t="inlineStr">
@@ -63492,13 +63486,13 @@
       </c>
       <c r="AQ281" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>AOC 27" Monitor</t>
         </is>
       </c>
       <c r="AR281" t="inlineStr"/>
       <c r="AS281" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT281" t="inlineStr">
@@ -63507,37 +63501,37 @@
         </is>
       </c>
       <c r="AU281" t="n">
-        <v>219.410296875</v>
+        <v>17.6909425</v>
       </c>
       <c r="AV281" t="n">
-        <v>219.410296875</v>
+        <v>17.6909425</v>
       </c>
       <c r="AW281" t="n">
-        <v>1841.4</v>
+        <v>161.52</v>
       </c>
       <c r="AX281" t="n">
-        <v>1841.4</v>
+        <v>161.52</v>
       </c>
       <c r="AY281" t="n">
-        <v>20.6248</v>
+        <v>0.2222</v>
       </c>
       <c r="AZ281" t="inlineStr">
         <is>
-          <t>A658561</t>
+          <t>39355551961</t>
         </is>
       </c>
       <c r="BA281" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB281" t="n">
-        <v>840063204546</v>
+        <v>685417733583</v>
       </c>
       <c r="BC281" t="n">
         <v>10000</v>
       </c>
       <c r="BD281" t="inlineStr">
         <is>
-          <t>S00375016-10000</t>
+          <t>S00374921-10000</t>
         </is>
       </c>
     </row>
@@ -63577,12 +63571,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -63592,21 +63586,21 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>S00375017</t>
+          <t>S00375016</t>
         </is>
       </c>
       <c r="M282" t="inlineStr"/>
       <c r="N282" t="n">
-        <v>70940874</v>
+        <v>70940875</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>4001224463</t>
+          <t>3850804289</t>
         </is>
       </c>
       <c r="P282" s="2" t="n">
@@ -63614,17 +63608,17 @@
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>10/22/2025 9:20:51 AM</t>
+          <t>10/22/2025 9:20:49 AM</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>10/24/2025 5:26:09 PM</t>
+          <t xml:space="preserve">10/24/2025 </t>
         </is>
       </c>
       <c r="S282" t="inlineStr">
         <is>
-          <t>10/24/2025 5:26:09 PM</t>
+          <t xml:space="preserve">10/24/2025 </t>
         </is>
       </c>
       <c r="T282" t="inlineStr"/>
@@ -63650,10 +63644,10 @@
         </is>
       </c>
       <c r="Z282" t="n">
-        <v>1361</v>
+        <v>1485</v>
       </c>
       <c r="AA282" t="n">
-        <v>1361</v>
+        <v>1485</v>
       </c>
       <c r="AB282" t="inlineStr"/>
       <c r="AC282" t="inlineStr"/>
@@ -63684,7 +63678,7 @@
       </c>
       <c r="AI282" t="inlineStr">
         <is>
-          <t>A658563</t>
+          <t>A658561</t>
         </is>
       </c>
       <c r="AJ282" t="inlineStr">
@@ -63704,12 +63698,12 @@
       </c>
       <c r="AM282" t="inlineStr">
         <is>
-          <t>10/24/2025 1:20:00 PM</t>
+          <t>10/24/2025 1:39:00 PM</t>
         </is>
       </c>
       <c r="AN282" t="inlineStr">
         <is>
-          <t>10/24/2025 5:26:09 PM</t>
+          <t xml:space="preserve">10/24/2025 </t>
         </is>
       </c>
       <c r="AO282" t="inlineStr">
@@ -63739,23 +63733,23 @@
         </is>
       </c>
       <c r="AU282" t="n">
-        <v>201.0891677083333</v>
+        <v>219.410296875</v>
       </c>
       <c r="AV282" t="n">
-        <v>201.0891677083333</v>
+        <v>219.410296875</v>
       </c>
       <c r="AW282" t="n">
-        <v>1687.64</v>
+        <v>1841.4</v>
       </c>
       <c r="AX282" t="n">
-        <v>1687.64</v>
+        <v>1841.4</v>
       </c>
       <c r="AY282" t="n">
-        <v>18.9026</v>
+        <v>20.6248</v>
       </c>
       <c r="AZ282" t="inlineStr">
         <is>
-          <t>A658563</t>
+          <t>A658561</t>
         </is>
       </c>
       <c r="BA282" t="n">
@@ -63769,7 +63763,7 @@
       </c>
       <c r="BD282" t="inlineStr">
         <is>
-          <t>S00375017-10000</t>
+          <t>S00375016-10000</t>
         </is>
       </c>
     </row>
@@ -63789,30 +63783,32 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D283" t="inlineStr"/>
+      <c r="D283" t="n">
+        <v>72</v>
+      </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>SUP009</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>TD SYNNEX Canada ULC</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>6901 Credit View Road</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Mississauga</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -63822,44 +63818,44 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>L5N 8E9</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>S00375653</t>
+          <t>S00375017</t>
         </is>
       </c>
       <c r="M283" t="inlineStr"/>
       <c r="N283" t="n">
-        <v>70945088</v>
+        <v>70940874</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>5413381</t>
+          <t>4001224463</t>
         </is>
       </c>
       <c r="P283" s="2" t="n">
-        <v>45954</v>
+        <v>45952</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>10/24/2025 10:59:04 AM</t>
+          <t>10/22/2025 9:20:51 AM</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28/2025 </t>
+          <t>10/24/2025 5:26:09 PM</t>
         </is>
       </c>
       <c r="S283" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28/2025 </t>
+          <t>10/24/2025 5:26:09 PM</t>
         </is>
       </c>
       <c r="T283" t="inlineStr"/>
       <c r="U283" s="2" t="n">
-        <v>46070</v>
+        <v>45964</v>
       </c>
       <c r="V283" t="inlineStr">
         <is>
@@ -63867,23 +63863,23 @@
         </is>
       </c>
       <c r="W283" s="2" t="n">
-        <v>45958</v>
+        <v>45954</v>
       </c>
       <c r="X283" t="inlineStr">
         <is>
-          <t>243V7QJAB</t>
+          <t>TAB4000/37</t>
         </is>
       </c>
       <c r="Y283" t="inlineStr">
         <is>
-          <t>MMD-243V7QJAB</t>
+          <t>050914402</t>
         </is>
       </c>
       <c r="Z283" t="n">
-        <v>128</v>
+        <v>1361</v>
       </c>
       <c r="AA283" t="n">
-        <v>128</v>
+        <v>1361</v>
       </c>
       <c r="AB283" t="inlineStr"/>
       <c r="AC283" t="inlineStr"/>
@@ -63899,22 +63895,22 @@
       </c>
       <c r="AF283" t="inlineStr">
         <is>
-          <t>Day &amp; Ross</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AG283" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>18W</t>
         </is>
       </c>
       <c r="AH283" t="inlineStr">
         <is>
-          <t>Day &amp; Ross</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AI283" t="inlineStr">
         <is>
-          <t>VAN 400 6391 9</t>
+          <t>A658563</t>
         </is>
       </c>
       <c r="AJ283" t="inlineStr">
@@ -63924,22 +63920,22 @@
       </c>
       <c r="AK283" t="inlineStr">
         <is>
-          <t>TDSYNNEX</t>
+          <t>TPVWLMT</t>
         </is>
       </c>
       <c r="AL283" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28/2025 </t>
+          <t xml:space="preserve">10/24/2025 </t>
         </is>
       </c>
       <c r="AM283" t="inlineStr">
         <is>
-          <t>10/28/2025 10:00:00 AM</t>
+          <t>10/24/2025 1:20:00 PM</t>
         </is>
       </c>
       <c r="AN283" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28/2025 </t>
+          <t>10/24/2025 5:26:09 PM</t>
         </is>
       </c>
       <c r="AO283" t="inlineStr">
@@ -63954,13 +63950,13 @@
       </c>
       <c r="AQ283" t="inlineStr">
         <is>
-          <t>Philips 24" FHD Monitor</t>
+          <t>Soundbar</t>
         </is>
       </c>
       <c r="AR283" t="inlineStr"/>
       <c r="AS283" t="inlineStr">
         <is>
-          <t>TPV-MNT</t>
+          <t>TPV-AVA</t>
         </is>
       </c>
       <c r="AT283" t="inlineStr">
@@ -63969,35 +63965,265 @@
         </is>
       </c>
       <c r="AU283" t="n">
-        <v>140.91</v>
+        <v>201.0891677083333</v>
       </c>
       <c r="AV283" t="n">
-        <v>140.91</v>
+        <v>201.0891677083333</v>
       </c>
       <c r="AW283" t="n">
-        <v>1356.8</v>
+        <v>1687.64</v>
       </c>
       <c r="AX283" t="n">
-        <v>1356.8</v>
+        <v>1687.64</v>
       </c>
       <c r="AY283" t="n">
-        <v>1.829</v>
+        <v>18.9026</v>
       </c>
       <c r="AZ283" t="inlineStr">
         <is>
-          <t>VAN 400 6391 9</t>
+          <t>A658563</t>
         </is>
       </c>
       <c r="BA283" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB283" t="n">
-        <v>609585251434</v>
+        <v>840063204546</v>
       </c>
       <c r="BC283" t="n">
         <v>10000</v>
       </c>
       <c r="BD283" t="inlineStr">
+        <is>
+          <t>S00375017-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>SUP009</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>TD SYNNEX Canada ULC</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>6901 Credit View Road</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>Mississauga</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>L5N 8E9</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>S00375653</t>
+        </is>
+      </c>
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
+        <v>70945088</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>5413381</t>
+        </is>
+      </c>
+      <c r="P284" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>10/24/2025 10:59:04 AM</t>
+        </is>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/28/2025 </t>
+        </is>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/28/2025 </t>
+        </is>
+      </c>
+      <c r="T284" t="inlineStr"/>
+      <c r="U284" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="V284" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W284" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="X284" t="inlineStr">
+        <is>
+          <t>243V7QJAB</t>
+        </is>
+      </c>
+      <c r="Y284" t="inlineStr">
+        <is>
+          <t>MMD-243V7QJAB</t>
+        </is>
+      </c>
+      <c r="Z284" t="n">
+        <v>128</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>128</v>
+      </c>
+      <c r="AB284" t="inlineStr"/>
+      <c r="AC284" t="inlineStr"/>
+      <c r="AD284" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE284" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF284" t="inlineStr">
+        <is>
+          <t>Day &amp; Ross</t>
+        </is>
+      </c>
+      <c r="AG284" t="inlineStr">
+        <is>
+          <t>DAY</t>
+        </is>
+      </c>
+      <c r="AH284" t="inlineStr">
+        <is>
+          <t>Day &amp; Ross</t>
+        </is>
+      </c>
+      <c r="AI284" t="inlineStr">
+        <is>
+          <t>VAN 400 6391 9</t>
+        </is>
+      </c>
+      <c r="AJ284" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK284" t="inlineStr">
+        <is>
+          <t>TDSYNNEX</t>
+        </is>
+      </c>
+      <c r="AL284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/28/2025 </t>
+        </is>
+      </c>
+      <c r="AM284" t="inlineStr">
+        <is>
+          <t>10/28/2025 10:00:00 AM</t>
+        </is>
+      </c>
+      <c r="AN284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/28/2025 </t>
+        </is>
+      </c>
+      <c r="AO284" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP284" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ284" t="inlineStr">
+        <is>
+          <t>Philips 24" FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR284" t="inlineStr"/>
+      <c r="AS284" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT284" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU284" t="n">
+        <v>140.91</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>140.91</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>1356.8</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>1356.8</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>1.829</v>
+      </c>
+      <c r="AZ284" t="inlineStr">
+        <is>
+          <t>VAN 400 6391 9</t>
+        </is>
+      </c>
+      <c r="BA284" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>609585251434</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD284" t="inlineStr">
         <is>
           <t>S00375653-10000</t>
         </is>

--- a/master.xlsx
+++ b/master.xlsx
@@ -60831,34 +60831,34 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>S00370948</t>
+          <t>S00373039</t>
         </is>
       </c>
       <c r="M270" t="inlineStr"/>
       <c r="N270" t="n">
-        <v>70909635</v>
+        <v>70921771</v>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>84HVE3ZP</t>
+          <t>3P625ZBQ</t>
         </is>
       </c>
       <c r="P270" s="2" t="n">
-        <v>45933</v>
+        <v>45943</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>10/3/2025 5:36:08 PM</t>
+          <t>10/13/2025 12:30:40 PM</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29/2025 </t>
+          <t xml:space="preserve">10/16/2025 </t>
         </is>
       </c>
       <c r="S270" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29/2025 </t>
+          <t xml:space="preserve">10/16/2025 </t>
         </is>
       </c>
       <c r="T270" t="inlineStr"/>
@@ -60869,23 +60869,23 @@
         </is>
       </c>
       <c r="W270" s="2" t="n">
-        <v>45959</v>
+        <v>45946</v>
       </c>
       <c r="X270" t="inlineStr">
         <is>
-          <t>221V8LB</t>
+          <t>Q27G3XMN</t>
         </is>
       </c>
       <c r="Y270" t="inlineStr">
         <is>
-          <t>B0CVM2GJCN</t>
+          <t>B0C8ZJKPWC</t>
         </is>
       </c>
       <c r="Z270" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="AA270" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="AB270" t="inlineStr"/>
       <c r="AC270" t="inlineStr"/>
@@ -60901,22 +60901,22 @@
       </c>
       <c r="AF270" t="inlineStr">
         <is>
-          <t>UPS Ground (small parcel)</t>
+          <t>CEVA Logistics (USL)</t>
         </is>
       </c>
       <c r="AG270" t="inlineStr">
         <is>
-          <t>UPSN</t>
+          <t>CEVA</t>
         </is>
       </c>
       <c r="AH270" t="inlineStr">
         <is>
-          <t>UPS Ground (small parcel)</t>
+          <t>CEVA Logistics (USL)</t>
         </is>
       </c>
       <c r="AI270" t="inlineStr">
         <is>
-          <t>1ZX94A632098393168</t>
+          <t>39195282401</t>
         </is>
       </c>
       <c r="AJ270" t="inlineStr">
@@ -60926,20 +60926,20 @@
       </c>
       <c r="AK270" t="inlineStr">
         <is>
-          <t>AMZCSPLTM</t>
+          <t>AMZCSPLT</t>
         </is>
       </c>
       <c r="AL270" s="2" t="n">
-        <v>45959.66666666666</v>
+        <v>45946.54722222222</v>
       </c>
       <c r="AM270" t="inlineStr">
         <is>
-          <t>10/8/2025 11:30:00 AM</t>
+          <t>10/16/2025 3:00:00 PM</t>
         </is>
       </c>
       <c r="AN270" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29/2025 </t>
+          <t xml:space="preserve">10/16/2025 </t>
         </is>
       </c>
       <c r="AO270" t="inlineStr">
@@ -60954,7 +60954,7 @@
       </c>
       <c r="AQ270" t="inlineStr">
         <is>
-          <t>21.5 FHD Monitor</t>
+          <t>AOC 27" Monitor</t>
         </is>
       </c>
       <c r="AR270" t="inlineStr"/>
@@ -60969,37 +60969,37 @@
         </is>
       </c>
       <c r="AU270" t="n">
-        <v>5.749315</v>
+        <v>61.91829875</v>
       </c>
       <c r="AV270" t="n">
-        <v>5.749315</v>
+        <v>61.91829875</v>
       </c>
       <c r="AW270" t="n">
-        <v>49.32</v>
+        <v>565.3200000000001</v>
       </c>
       <c r="AX270" t="n">
-        <v>49.32</v>
+        <v>565.3200000000001</v>
       </c>
       <c r="AY270" t="n">
-        <v>0.0638</v>
+        <v>0.7778</v>
       </c>
       <c r="AZ270" t="inlineStr">
         <is>
-          <t>1ZX94A632098393168</t>
+          <t>39195282401</t>
         </is>
       </c>
       <c r="BA270" t="n">
         <v>1</v>
       </c>
       <c r="BB270" t="n">
-        <v>609585257030</v>
+        <v>685417733583</v>
       </c>
       <c r="BC270" t="n">
         <v>10000</v>
       </c>
       <c r="BD270" t="inlineStr">
         <is>
-          <t>S00370948-10000</t>
+          <t>S00373039-10000</t>
         </is>
       </c>
     </row>
@@ -61019,62 +61019,64 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D271" t="inlineStr"/>
+      <c r="D271" t="n">
+        <v>72</v>
+      </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>AMA002</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>AMAZON.COM, CA INC.</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>109 Braid Street</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>New Westminster</t>
+          <t>CALGARY</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>V3L 5H4</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>S00373039</t>
+          <t>S00373056</t>
         </is>
       </c>
       <c r="M271" t="inlineStr"/>
       <c r="N271" t="n">
-        <v>70921771</v>
+        <v>70923691</v>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>3P625ZBQ</t>
+          <t>8300840387</t>
         </is>
       </c>
       <c r="P271" s="2" t="n">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>10/13/2025 12:30:40 PM</t>
+          <t>10/14/2025 7:33:13 AM</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -61088,7 +61090,9 @@
         </is>
       </c>
       <c r="T271" t="inlineStr"/>
-      <c r="U271" t="inlineStr"/>
+      <c r="U271" s="2" t="n">
+        <v>45950</v>
+      </c>
       <c r="V271" t="inlineStr">
         <is>
           <t>Posted</t>
@@ -61099,19 +61103,19 @@
       </c>
       <c r="X271" t="inlineStr">
         <is>
-          <t>Q27G3XMN</t>
+          <t>TAB4500/37</t>
         </is>
       </c>
       <c r="Y271" t="inlineStr">
         <is>
-          <t>B0C8ZJKPWC</t>
+          <t>050914401</t>
         </is>
       </c>
       <c r="Z271" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="AA271" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="AB271" t="inlineStr"/>
       <c r="AC271" t="inlineStr"/>
@@ -61127,22 +61131,22 @@
       </c>
       <c r="AF271" t="inlineStr">
         <is>
-          <t>CEVA Logistics (USL)</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AG271" t="inlineStr">
         <is>
-          <t>CEVA</t>
+          <t>18W</t>
         </is>
       </c>
       <c r="AH271" t="inlineStr">
         <is>
-          <t>CEVA Logistics (USL)</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AI271" t="inlineStr">
         <is>
-          <t>39195282401</t>
+          <t>A657665</t>
         </is>
       </c>
       <c r="AJ271" t="inlineStr">
@@ -61152,15 +61156,17 @@
       </c>
       <c r="AK271" t="inlineStr">
         <is>
-          <t>AMZCSPLT</t>
-        </is>
-      </c>
-      <c r="AL271" s="2" t="n">
-        <v>45946.54722222222</v>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/16/2025 </t>
+        </is>
       </c>
       <c r="AM271" t="inlineStr">
         <is>
-          <t>10/16/2025 3:00:00 PM</t>
+          <t>10/16/2025 12:29:00 PM</t>
         </is>
       </c>
       <c r="AN271" t="inlineStr">
@@ -61180,13 +61186,13 @@
       </c>
       <c r="AQ271" t="inlineStr">
         <is>
-          <t>AOC 27" Monitor</t>
+          <t>Soundbar</t>
         </is>
       </c>
       <c r="AR271" t="inlineStr"/>
       <c r="AS271" t="inlineStr">
         <is>
-          <t>TPV-MNT</t>
+          <t>TPV-AVA</t>
         </is>
       </c>
       <c r="AT271" t="inlineStr">
@@ -61195,37 +61201,37 @@
         </is>
       </c>
       <c r="AU271" t="n">
-        <v>61.91829875</v>
+        <v>78.23677338888889</v>
       </c>
       <c r="AV271" t="n">
-        <v>61.91829875</v>
+        <v>78.23677338888889</v>
       </c>
       <c r="AW271" t="n">
-        <v>565.3200000000001</v>
+        <v>0</v>
       </c>
       <c r="AX271" t="n">
-        <v>565.3200000000001</v>
+        <v>0</v>
       </c>
       <c r="AY271" t="n">
-        <v>0.7778</v>
+        <v>3.05</v>
       </c>
       <c r="AZ271" t="inlineStr">
         <is>
-          <t>39195282401</t>
+          <t>A657665</t>
         </is>
       </c>
       <c r="BA271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB271" t="n">
-        <v>685417733583</v>
+        <v>840063204553</v>
       </c>
       <c r="BC271" t="n">
         <v>10000</v>
       </c>
       <c r="BD271" t="inlineStr">
         <is>
-          <t>S00373039-10000</t>
+          <t>S00373056-10000</t>
         </is>
       </c>
     </row>
@@ -61329,19 +61335,19 @@
       </c>
       <c r="X272" t="inlineStr">
         <is>
-          <t>TAB4500/37</t>
+          <t>TAB4000/37</t>
         </is>
       </c>
       <c r="Y272" t="inlineStr">
         <is>
-          <t>050914401</t>
+          <t>050914402</t>
         </is>
       </c>
       <c r="Z272" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="AA272" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="AB272" t="inlineStr"/>
       <c r="AC272" t="inlineStr"/>
@@ -61427,19 +61433,19 @@
         </is>
       </c>
       <c r="AU272" t="n">
-        <v>78.23677338888889</v>
+        <v>6.353294791666666</v>
       </c>
       <c r="AV272" t="n">
-        <v>78.23677338888889</v>
+        <v>6.353294791666666</v>
       </c>
       <c r="AW272" t="n">
-        <v>0</v>
+        <v>53.32</v>
       </c>
       <c r="AX272" t="n">
-        <v>0</v>
+        <v>53.32</v>
       </c>
       <c r="AY272" t="n">
-        <v>3.05</v>
+        <v>0.5972</v>
       </c>
       <c r="AZ272" t="inlineStr">
         <is>
@@ -61447,17 +61453,17 @@
         </is>
       </c>
       <c r="BA272" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB272" t="n">
-        <v>840063204553</v>
+        <v>840063204546</v>
       </c>
       <c r="BC272" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD272" t="inlineStr">
         <is>
-          <t>S00373056-10000</t>
+          <t>S00373056-20000</t>
         </is>
       </c>
     </row>
@@ -61497,36 +61503,36 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>S00373056</t>
+          <t>S00373057</t>
         </is>
       </c>
       <c r="M273" t="inlineStr"/>
       <c r="N273" t="n">
-        <v>70923691</v>
+        <v>70923693</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>8300840387</t>
+          <t>8950800547</t>
         </is>
       </c>
       <c r="P273" s="2" t="n">
@@ -61534,7 +61540,7 @@
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>10/14/2025 7:33:13 AM</t>
+          <t>10/14/2025 7:33:15 AM</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
@@ -61549,7 +61555,7 @@
       </c>
       <c r="T273" t="inlineStr"/>
       <c r="U273" s="2" t="n">
-        <v>45950</v>
+        <v>45955</v>
       </c>
       <c r="V273" t="inlineStr">
         <is>
@@ -61561,19 +61567,19 @@
       </c>
       <c r="X273" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>TAB4500/37</t>
         </is>
       </c>
       <c r="Y273" t="inlineStr">
         <is>
-          <t>050914402</t>
+          <t>050914401</t>
         </is>
       </c>
       <c r="Z273" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="AA273" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="AB273" t="inlineStr"/>
       <c r="AC273" t="inlineStr"/>
@@ -61604,7 +61610,7 @@
       </c>
       <c r="AI273" t="inlineStr">
         <is>
-          <t>A657665</t>
+          <t>A657804</t>
         </is>
       </c>
       <c r="AJ273" t="inlineStr">
@@ -61624,7 +61630,7 @@
       </c>
       <c r="AM273" t="inlineStr">
         <is>
-          <t>10/16/2025 12:29:00 PM</t>
+          <t>10/16/2025 12:34:00 PM</t>
         </is>
       </c>
       <c r="AN273" t="inlineStr">
@@ -61659,37 +61665,37 @@
         </is>
       </c>
       <c r="AU273" t="n">
-        <v>6.353294791666666</v>
+        <v>39.75967172222222</v>
       </c>
       <c r="AV273" t="n">
-        <v>6.353294791666666</v>
+        <v>39.75967172222222</v>
       </c>
       <c r="AW273" t="n">
-        <v>53.32</v>
+        <v>0</v>
       </c>
       <c r="AX273" t="n">
-        <v>53.32</v>
+        <v>0</v>
       </c>
       <c r="AY273" t="n">
-        <v>0.5972</v>
+        <v>1.55</v>
       </c>
       <c r="AZ273" t="inlineStr">
         <is>
-          <t>A657665</t>
+          <t>A657804</t>
         </is>
       </c>
       <c r="BA273" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB273" t="n">
-        <v>840063204546</v>
+        <v>840063204553</v>
       </c>
       <c r="BC273" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD273" t="inlineStr">
         <is>
-          <t>S00373056-20000</t>
+          <t>S00373057-10000</t>
         </is>
       </c>
     </row>
@@ -61793,19 +61799,19 @@
       </c>
       <c r="X274" t="inlineStr">
         <is>
-          <t>TAB4500/37</t>
+          <t>TAB4000/37</t>
         </is>
       </c>
       <c r="Y274" t="inlineStr">
         <is>
-          <t>050914401</t>
+          <t>050914402</t>
         </is>
       </c>
       <c r="Z274" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="AA274" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="AB274" t="inlineStr"/>
       <c r="AC274" t="inlineStr"/>
@@ -61891,19 +61897,19 @@
         </is>
       </c>
       <c r="AU274" t="n">
-        <v>39.75967172222222</v>
+        <v>6.796547916666666</v>
       </c>
       <c r="AV274" t="n">
-        <v>39.75967172222222</v>
+        <v>6.796547916666666</v>
       </c>
       <c r="AW274" t="n">
-        <v>0</v>
+        <v>57.04</v>
       </c>
       <c r="AX274" t="n">
-        <v>0</v>
+        <v>57.04</v>
       </c>
       <c r="AY274" t="n">
-        <v>1.55</v>
+        <v>0.6389</v>
       </c>
       <c r="AZ274" t="inlineStr">
         <is>
@@ -61911,17 +61917,17 @@
         </is>
       </c>
       <c r="BA274" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB274" t="n">
-        <v>840063204553</v>
+        <v>840063204546</v>
       </c>
       <c r="BC274" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD274" t="inlineStr">
         <is>
-          <t>S00373057-10000</t>
+          <t>S00373057-20000</t>
         </is>
       </c>
     </row>
@@ -61961,12 +61967,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -61976,21 +61982,21 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>S00373057</t>
+          <t>S00373058</t>
         </is>
       </c>
       <c r="M275" t="inlineStr"/>
       <c r="N275" t="n">
-        <v>70923693</v>
+        <v>70923692</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>8950800547</t>
+          <t>8900800554</t>
         </is>
       </c>
       <c r="P275" s="2" t="n">
@@ -61998,7 +62004,7 @@
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>10/14/2025 7:33:15 AM</t>
+          <t>10/14/2025 7:33:17 AM</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -62013,7 +62019,7 @@
       </c>
       <c r="T275" t="inlineStr"/>
       <c r="U275" s="2" t="n">
-        <v>45955</v>
+        <v>45954</v>
       </c>
       <c r="V275" t="inlineStr">
         <is>
@@ -62025,19 +62031,19 @@
       </c>
       <c r="X275" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>TAB4500/37</t>
         </is>
       </c>
       <c r="Y275" t="inlineStr">
         <is>
-          <t>050914402</t>
+          <t>050914401</t>
         </is>
       </c>
       <c r="Z275" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AA275" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AB275" t="inlineStr"/>
       <c r="AC275" t="inlineStr"/>
@@ -62068,7 +62074,7 @@
       </c>
       <c r="AI275" t="inlineStr">
         <is>
-          <t>A657804</t>
+          <t>A657810</t>
         </is>
       </c>
       <c r="AJ275" t="inlineStr">
@@ -62088,7 +62094,7 @@
       </c>
       <c r="AM275" t="inlineStr">
         <is>
-          <t>10/16/2025 12:34:00 PM</t>
+          <t>10/16/2025 12:29:00 PM</t>
         </is>
       </c>
       <c r="AN275" t="inlineStr">
@@ -62123,37 +62129,37 @@
         </is>
       </c>
       <c r="AU275" t="n">
-        <v>6.796547916666666</v>
+        <v>34.6293915</v>
       </c>
       <c r="AV275" t="n">
-        <v>6.796547916666666</v>
+        <v>34.6293915</v>
       </c>
       <c r="AW275" t="n">
-        <v>57.04</v>
+        <v>0</v>
       </c>
       <c r="AX275" t="n">
-        <v>57.04</v>
+        <v>0</v>
       </c>
       <c r="AY275" t="n">
-        <v>0.6389</v>
+        <v>1.35</v>
       </c>
       <c r="AZ275" t="inlineStr">
         <is>
-          <t>A657804</t>
+          <t>A657810</t>
         </is>
       </c>
       <c r="BA275" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB275" t="n">
-        <v>840063204546</v>
+        <v>840063204553</v>
       </c>
       <c r="BC275" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD275" t="inlineStr">
         <is>
-          <t>S00373057-20000</t>
+          <t>S00373058-10000</t>
         </is>
       </c>
     </row>
@@ -62257,19 +62263,19 @@
       </c>
       <c r="X276" t="inlineStr">
         <is>
-          <t>TAB4500/37</t>
+          <t>TAB4000/37</t>
         </is>
       </c>
       <c r="Y276" t="inlineStr">
         <is>
-          <t>050914401</t>
+          <t>050914402</t>
         </is>
       </c>
       <c r="Z276" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AA276" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AB276" t="inlineStr"/>
       <c r="AC276" t="inlineStr"/>
@@ -62355,19 +62361,19 @@
         </is>
       </c>
       <c r="AU276" t="n">
-        <v>34.6293915</v>
+        <v>2.511767708333333</v>
       </c>
       <c r="AV276" t="n">
-        <v>34.6293915</v>
+        <v>2.511767708333333</v>
       </c>
       <c r="AW276" t="n">
-        <v>0</v>
+        <v>21.08</v>
       </c>
       <c r="AX276" t="n">
-        <v>0</v>
+        <v>21.08</v>
       </c>
       <c r="AY276" t="n">
-        <v>1.35</v>
+        <v>0.2361</v>
       </c>
       <c r="AZ276" t="inlineStr">
         <is>
@@ -62375,17 +62381,17 @@
         </is>
       </c>
       <c r="BA276" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB276" t="n">
-        <v>840063204553</v>
+        <v>840063204546</v>
       </c>
       <c r="BC276" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="BD276" t="inlineStr">
         <is>
-          <t>S00373058-10000</t>
+          <t>S00373058-20000</t>
         </is>
       </c>
     </row>
@@ -62425,12 +62431,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -62440,21 +62446,21 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>S00373058</t>
+          <t>S00373318</t>
         </is>
       </c>
       <c r="M277" t="inlineStr"/>
       <c r="N277" t="n">
-        <v>70923692</v>
+        <v>70923852</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>8900800554</t>
+          <t>3850804288</t>
         </is>
       </c>
       <c r="P277" s="2" t="n">
@@ -62462,7 +62468,7 @@
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>10/14/2025 7:33:17 AM</t>
+          <t>10/14/2025 2:34:14 PM</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
@@ -62477,7 +62483,7 @@
       </c>
       <c r="T277" t="inlineStr"/>
       <c r="U277" s="2" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="V277" t="inlineStr">
         <is>
@@ -62498,10 +62504,10 @@
         </is>
       </c>
       <c r="Z277" t="n">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="AA277" t="n">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="AB277" t="inlineStr"/>
       <c r="AC277" t="inlineStr"/>
@@ -62532,7 +62538,7 @@
       </c>
       <c r="AI277" t="inlineStr">
         <is>
-          <t>A657810</t>
+          <t>A657805</t>
         </is>
       </c>
       <c r="AJ277" t="inlineStr">
@@ -62552,7 +62558,7 @@
       </c>
       <c r="AM277" t="inlineStr">
         <is>
-          <t>10/16/2025 12:29:00 PM</t>
+          <t>10/16/2025 12:34:00 PM</t>
         </is>
       </c>
       <c r="AN277" t="inlineStr">
@@ -62587,23 +62593,23 @@
         </is>
       </c>
       <c r="AU277" t="n">
-        <v>2.511767708333333</v>
+        <v>21.12839895833333</v>
       </c>
       <c r="AV277" t="n">
-        <v>2.511767708333333</v>
+        <v>21.12839895833333</v>
       </c>
       <c r="AW277" t="n">
-        <v>21.08</v>
+        <v>177.32</v>
       </c>
       <c r="AX277" t="n">
-        <v>21.08</v>
+        <v>177.32</v>
       </c>
       <c r="AY277" t="n">
-        <v>0.2361</v>
+        <v>1.9861</v>
       </c>
       <c r="AZ277" t="inlineStr">
         <is>
-          <t>A657810</t>
+          <t>A657805</t>
         </is>
       </c>
       <c r="BA277" t="n">
@@ -62613,11 +62619,11 @@
         <v>840063204546</v>
       </c>
       <c r="BC277" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="BD277" t="inlineStr">
         <is>
-          <t>S00373058-20000</t>
+          <t>S00373318-10000</t>
         </is>
       </c>
     </row>
@@ -62637,103 +62643,99 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D278" t="n">
-        <v>72</v>
-      </c>
+      <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr">
         <is>
-          <t>WM CANADA</t>
+          <t>AMAZON</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>AMA002</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>AMAZON.COM, CA INC.</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>109 Braid Street</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>New Westminster</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>V3L 5H4</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>S00373318</t>
+          <t>S00370948</t>
         </is>
       </c>
       <c r="M278" t="inlineStr"/>
       <c r="N278" t="n">
-        <v>70923852</v>
+        <v>70909635</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>3850804288</t>
+          <t>84HVE3ZP</t>
         </is>
       </c>
       <c r="P278" s="2" t="n">
-        <v>45944</v>
+        <v>45933</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>10/14/2025 2:34:14 PM</t>
+          <t>10/3/2025 5:36:08 PM</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16/2025 </t>
+          <t xml:space="preserve">10/29/2025 </t>
         </is>
       </c>
       <c r="S278" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16/2025 </t>
+          <t xml:space="preserve">10/29/2025 </t>
         </is>
       </c>
       <c r="T278" t="inlineStr"/>
-      <c r="U278" s="2" t="n">
-        <v>45957</v>
-      </c>
+      <c r="U278" t="inlineStr"/>
       <c r="V278" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W278" s="2" t="n">
-        <v>45946</v>
+        <v>45959</v>
       </c>
       <c r="X278" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>221V8LB</t>
         </is>
       </c>
       <c r="Y278" t="inlineStr">
         <is>
-          <t>050914402</t>
+          <t>B0CVM2GJCN</t>
         </is>
       </c>
       <c r="Z278" t="n">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="AA278" t="n">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="AB278" t="inlineStr"/>
       <c r="AC278" t="inlineStr"/>
@@ -62749,22 +62751,22 @@
       </c>
       <c r="AF278" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>UPS Ground (small parcel)</t>
         </is>
       </c>
       <c r="AG278" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>UPSN</t>
         </is>
       </c>
       <c r="AH278" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>UPS Ground (small parcel)</t>
         </is>
       </c>
       <c r="AI278" t="inlineStr">
         <is>
-          <t>A657805</t>
+          <t>1ZX94A632098393168</t>
         </is>
       </c>
       <c r="AJ278" t="inlineStr">
@@ -62774,22 +62776,20 @@
       </c>
       <c r="AK278" t="inlineStr">
         <is>
-          <t>TPVWLMT</t>
-        </is>
-      </c>
-      <c r="AL278" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/16/2025 </t>
-        </is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL278" s="2" t="n">
+        <v>45959.66666666666</v>
       </c>
       <c r="AM278" t="inlineStr">
         <is>
-          <t>10/16/2025 12:34:00 PM</t>
+          <t>10/8/2025 11:30:00 AM</t>
         </is>
       </c>
       <c r="AN278" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16/2025 </t>
+          <t xml:space="preserve">10/29/2025 </t>
         </is>
       </c>
       <c r="AO278" t="inlineStr">
@@ -62804,13 +62804,13 @@
       </c>
       <c r="AQ278" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>21.5 FHD Monitor</t>
         </is>
       </c>
       <c r="AR278" t="inlineStr"/>
       <c r="AS278" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT278" t="inlineStr">
@@ -62819,37 +62819,37 @@
         </is>
       </c>
       <c r="AU278" t="n">
-        <v>21.12839895833333</v>
+        <v>5.749315</v>
       </c>
       <c r="AV278" t="n">
-        <v>21.12839895833333</v>
+        <v>5.749315</v>
       </c>
       <c r="AW278" t="n">
-        <v>177.32</v>
+        <v>49.32</v>
       </c>
       <c r="AX278" t="n">
-        <v>177.32</v>
+        <v>49.32</v>
       </c>
       <c r="AY278" t="n">
-        <v>1.9861</v>
+        <v>0.0638</v>
       </c>
       <c r="AZ278" t="inlineStr">
         <is>
-          <t>A657805</t>
+          <t>1ZX94A632098393168</t>
         </is>
       </c>
       <c r="BA278" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB278" t="n">
-        <v>840063204546</v>
+        <v>609585257030</v>
       </c>
       <c r="BC278" t="n">
         <v>10000</v>
       </c>
       <c r="BD278" t="inlineStr">
         <is>
-          <t>S00373318-10000</t>
+          <t>S00370948-10000</t>
         </is>
       </c>
     </row>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD284"/>
+  <dimension ref="A1:BD286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62646,69 +62646,69 @@
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>INGRAM MICRO CANADA</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>AMA002</t>
+          <t>ING006</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>AMAZON.COM, CA INC.</t>
+          <t>INGRAM MICRO LP</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>109 Braid Street</t>
+          <t>88 Foster Crescent</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>New Westminster</t>
+          <t>Mississauga</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>V3L 5H4</t>
+          <t>L5R 4A2</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>S00370948</t>
+          <t>S00373520</t>
         </is>
       </c>
       <c r="M278" t="inlineStr"/>
       <c r="N278" t="n">
-        <v>70909635</v>
+        <v>70926811</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>84HVE3ZP</t>
+          <t>40U8592S</t>
         </is>
       </c>
       <c r="P278" s="2" t="n">
-        <v>45933</v>
+        <v>45945</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>10/3/2025 5:36:08 PM</t>
+          <t>10/15/2025 11:52:12 AM</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29/2025 </t>
+          <t xml:space="preserve">10/17/2025 </t>
         </is>
       </c>
       <c r="S278" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29/2025 </t>
+          <t xml:space="preserve">10/17/2025 </t>
         </is>
       </c>
       <c r="T278" t="inlineStr"/>
@@ -62719,23 +62719,23 @@
         </is>
       </c>
       <c r="W278" s="2" t="n">
-        <v>45959</v>
+        <v>45947</v>
       </c>
       <c r="X278" t="inlineStr">
         <is>
-          <t>221V8LB</t>
+          <t>273V7QJAB</t>
         </is>
       </c>
       <c r="Y278" t="inlineStr">
         <is>
-          <t>B0CVM2GJCN</t>
+          <t>375AAN</t>
         </is>
       </c>
       <c r="Z278" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AA278" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AB278" t="inlineStr"/>
       <c r="AC278" t="inlineStr"/>
@@ -62751,22 +62751,22 @@
       </c>
       <c r="AF278" t="inlineStr">
         <is>
-          <t>UPS Ground (small parcel)</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AG278" t="inlineStr">
         <is>
-          <t>UPSN</t>
+          <t>18W</t>
         </is>
       </c>
       <c r="AH278" t="inlineStr">
         <is>
-          <t>UPS Ground (small parcel)</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AI278" t="inlineStr">
         <is>
-          <t>1ZX94A632098393168</t>
+          <t>A658049</t>
         </is>
       </c>
       <c r="AJ278" t="inlineStr">
@@ -62776,20 +62776,22 @@
       </c>
       <c r="AK278" t="inlineStr">
         <is>
-          <t>AMZCSPLTM</t>
-        </is>
-      </c>
-      <c r="AL278" s="2" t="n">
-        <v>45959.66666666666</v>
+          <t>TUINGRAM</t>
+        </is>
+      </c>
+      <c r="AL278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/17/2025 </t>
+        </is>
       </c>
       <c r="AM278" t="inlineStr">
         <is>
-          <t>10/8/2025 11:30:00 AM</t>
+          <t>10/17/2025 1:30:00 PM</t>
         </is>
       </c>
       <c r="AN278" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29/2025 </t>
+          <t xml:space="preserve">10/17/2025 </t>
         </is>
       </c>
       <c r="AO278" t="inlineStr">
@@ -62804,7 +62806,7 @@
       </c>
       <c r="AQ278" t="inlineStr">
         <is>
-          <t>21.5 FHD Monitor</t>
+          <t>Philips 27" FHD Monitor</t>
         </is>
       </c>
       <c r="AR278" t="inlineStr"/>
@@ -62819,37 +62821,37 @@
         </is>
       </c>
       <c r="AU278" t="n">
-        <v>5.749315</v>
+        <v>31.34839583333333</v>
       </c>
       <c r="AV278" t="n">
-        <v>5.749315</v>
+        <v>31.34839583333333</v>
       </c>
       <c r="AW278" t="n">
-        <v>49.32</v>
+        <v>308.88</v>
       </c>
       <c r="AX278" t="n">
-        <v>49.32</v>
+        <v>308.88</v>
       </c>
       <c r="AY278" t="n">
-        <v>0.0638</v>
+        <v>0.407</v>
       </c>
       <c r="AZ278" t="inlineStr">
         <is>
-          <t>1ZX94A632098393168</t>
+          <t>A658049</t>
         </is>
       </c>
       <c r="BA278" t="n">
         <v>1</v>
       </c>
       <c r="BB278" t="n">
-        <v>609585257030</v>
+        <v>609585252608</v>
       </c>
       <c r="BC278" t="n">
         <v>10000</v>
       </c>
       <c r="BD278" t="inlineStr">
         <is>
-          <t>S00370948-10000</t>
+          <t>S00373520-10000</t>
         </is>
       </c>
     </row>
@@ -62872,69 +62874,69 @@
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr">
         <is>
-          <t>INGRAM MICRO CANADA</t>
+          <t>AMAZON</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>ING006</t>
+          <t>AMA002</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>INGRAM MICRO LP</t>
+          <t>AMAZON.COM, CA INC.</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>88 Foster Crescent</t>
+          <t>109 Braid Street</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Mississauga</t>
+          <t>New Westminster</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>L5R 4A2</t>
+          <t>V3L 5H4</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>S00373520</t>
+          <t>S00370948</t>
         </is>
       </c>
       <c r="M279" t="inlineStr"/>
       <c r="N279" t="n">
-        <v>70926811</v>
+        <v>70909635</v>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>40U8592S</t>
+          <t>84HVE3ZP</t>
         </is>
       </c>
       <c r="P279" s="2" t="n">
-        <v>45945</v>
+        <v>45933</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>10/15/2025 11:52:12 AM</t>
+          <t>10/3/2025 5:36:08 PM</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17/2025 </t>
+          <t xml:space="preserve">10/29/2025 </t>
         </is>
       </c>
       <c r="S279" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17/2025 </t>
+          <t xml:space="preserve">10/29/2025 </t>
         </is>
       </c>
       <c r="T279" t="inlineStr"/>
@@ -62945,23 +62947,23 @@
         </is>
       </c>
       <c r="W279" s="2" t="n">
-        <v>45947</v>
+        <v>45959</v>
       </c>
       <c r="X279" t="inlineStr">
         <is>
-          <t>273V7QJAB</t>
+          <t>221V8LB</t>
         </is>
       </c>
       <c r="Y279" t="inlineStr">
         <is>
-          <t>375AAN</t>
+          <t>B0CVM2GJCN</t>
         </is>
       </c>
       <c r="Z279" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="AA279" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="AB279" t="inlineStr"/>
       <c r="AC279" t="inlineStr"/>
@@ -62977,22 +62979,22 @@
       </c>
       <c r="AF279" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>UPS Ground (small parcel)</t>
         </is>
       </c>
       <c r="AG279" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>UPSN</t>
         </is>
       </c>
       <c r="AH279" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>UPS Ground (small parcel)</t>
         </is>
       </c>
       <c r="AI279" t="inlineStr">
         <is>
-          <t>A658049</t>
+          <t>1ZX94A632098393168</t>
         </is>
       </c>
       <c r="AJ279" t="inlineStr">
@@ -63002,22 +63004,20 @@
       </c>
       <c r="AK279" t="inlineStr">
         <is>
-          <t>TUINGRAM</t>
-        </is>
-      </c>
-      <c r="AL279" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/17/2025 </t>
-        </is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL279" s="2" t="n">
+        <v>45959.66666666666</v>
       </c>
       <c r="AM279" t="inlineStr">
         <is>
-          <t>10/17/2025 1:30:00 PM</t>
+          <t>10/8/2025 11:30:00 AM</t>
         </is>
       </c>
       <c r="AN279" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17/2025 </t>
+          <t xml:space="preserve">10/29/2025 </t>
         </is>
       </c>
       <c r="AO279" t="inlineStr">
@@ -63032,7 +63032,7 @@
       </c>
       <c r="AQ279" t="inlineStr">
         <is>
-          <t>Philips 27" FHD Monitor</t>
+          <t>21.5 FHD Monitor</t>
         </is>
       </c>
       <c r="AR279" t="inlineStr"/>
@@ -63047,37 +63047,37 @@
         </is>
       </c>
       <c r="AU279" t="n">
-        <v>31.34839583333333</v>
+        <v>5.749315</v>
       </c>
       <c r="AV279" t="n">
-        <v>31.34839583333333</v>
+        <v>5.749315</v>
       </c>
       <c r="AW279" t="n">
-        <v>308.88</v>
+        <v>49.32</v>
       </c>
       <c r="AX279" t="n">
-        <v>308.88</v>
+        <v>49.32</v>
       </c>
       <c r="AY279" t="n">
-        <v>0.407</v>
+        <v>0.0638</v>
       </c>
       <c r="AZ279" t="inlineStr">
         <is>
-          <t>A658049</t>
+          <t>1ZX94A632098393168</t>
         </is>
       </c>
       <c r="BA279" t="n">
         <v>1</v>
       </c>
       <c r="BB279" t="n">
-        <v>609585252608</v>
+        <v>609585257030</v>
       </c>
       <c r="BC279" t="n">
         <v>10000</v>
       </c>
       <c r="BD279" t="inlineStr">
         <is>
-          <t>S00373520-10000</t>
+          <t>S00370948-10000</t>
         </is>
       </c>
     </row>
@@ -64226,6 +64226,466 @@
       <c r="BD284" t="inlineStr">
         <is>
           <t>S00375653-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>72</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>S00377540</t>
+        </is>
+      </c>
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="n">
+        <v>70959362</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>3150833974</t>
+        </is>
+      </c>
+      <c r="P285" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>10/31/2025 5:43:51 AM</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="T285" t="inlineStr"/>
+      <c r="U285" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="V285" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W285" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="X285" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y285" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z285" t="n">
+        <v>1771</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>1771</v>
+      </c>
+      <c r="AB285" t="inlineStr"/>
+      <c r="AC285" t="inlineStr"/>
+      <c r="AD285" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE285" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF285" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG285" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH285" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI285" t="inlineStr">
+        <is>
+          <t>A659216</t>
+        </is>
+      </c>
+      <c r="AJ285" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK285" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="AM285" t="inlineStr">
+        <is>
+          <t>10/31/2025 1:00:00 PM</t>
+        </is>
+      </c>
+      <c r="AN285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="AO285" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP285" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ285" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR285" t="inlineStr"/>
+      <c r="AS285" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT285" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU285" t="n">
+        <v>261.6670947916667</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>261.6670947916667</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>2196.04</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>2196.04</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>24.5973</v>
+      </c>
+      <c r="AZ285" t="inlineStr">
+        <is>
+          <t>A659216</t>
+        </is>
+      </c>
+      <c r="BA285" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB285" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC285" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD285" t="inlineStr">
+        <is>
+          <t>S00377540-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>72</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>S00377541</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
+        <v>70959499</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>4001224463</t>
+        </is>
+      </c>
+      <c r="P286" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>10/31/2025 5:43:53 AM</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="T286" t="inlineStr"/>
+      <c r="U286" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="V286" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W286" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="X286" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y286" t="inlineStr"/>
+      <c r="Z286" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB286" t="inlineStr"/>
+      <c r="AC286" t="inlineStr"/>
+      <c r="AD286" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE286" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF286" t="inlineStr">
+        <is>
+          <t>FEDEX - GROUND</t>
+        </is>
+      </c>
+      <c r="AG286" t="inlineStr">
+        <is>
+          <t>FEDX</t>
+        </is>
+      </c>
+      <c r="AH286" t="inlineStr">
+        <is>
+          <t>FEDEX - GROUND</t>
+        </is>
+      </c>
+      <c r="AI286" t="inlineStr">
+        <is>
+          <t>8856 5312 7169</t>
+        </is>
+      </c>
+      <c r="AJ286" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK286" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="AM286" t="inlineStr">
+        <is>
+          <t>10/31/2025 12:30:00 PM</t>
+        </is>
+      </c>
+      <c r="AN286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="AO286" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP286" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ286" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR286" t="inlineStr"/>
+      <c r="AS286" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT286" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU286" t="n">
+        <v>4.43253125</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>4.43253125</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>0.4166</v>
+      </c>
+      <c r="AZ286" t="inlineStr">
+        <is>
+          <t>8856 5312 7169</t>
+        </is>
+      </c>
+      <c r="BA286" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD286" t="inlineStr">
+        <is>
+          <t>S00377541-10000</t>
         </is>
       </c>
     </row>

--- a/master.xlsx
+++ b/master.xlsx
@@ -63644,10 +63644,10 @@
         </is>
       </c>
       <c r="Z282" t="n">
-        <v>1485</v>
+        <v>1495</v>
       </c>
       <c r="AA282" t="n">
-        <v>1485</v>
+        <v>1495</v>
       </c>
       <c r="AB282" t="inlineStr"/>
       <c r="AC282" t="inlineStr"/>
@@ -63733,19 +63733,19 @@
         </is>
       </c>
       <c r="AU282" t="n">
-        <v>219.410296875</v>
+        <v>220.8878072916667</v>
       </c>
       <c r="AV282" t="n">
-        <v>219.410296875</v>
+        <v>220.8878072916667</v>
       </c>
       <c r="AW282" t="n">
-        <v>1841.4</v>
+        <v>1853.8</v>
       </c>
       <c r="AX282" t="n">
-        <v>1841.4</v>
+        <v>1853.8</v>
       </c>
       <c r="AY282" t="n">
-        <v>20.6248</v>
+        <v>20.7639</v>
       </c>
       <c r="AZ282" t="inlineStr">
         <is>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD286"/>
+  <dimension ref="A1:BD288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64018,27 +64018,27 @@
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>BEST BUY CANADA</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>SUP009</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>TD SYNNEX Canada ULC</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>6901 Credit View Road</t>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Mississauga</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -64048,44 +64048,44 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>L5N 8E9</t>
+          <t>L6S 6G6</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>S00375653</t>
+          <t>S00375055</t>
         </is>
       </c>
       <c r="M284" t="inlineStr"/>
       <c r="N284" t="n">
-        <v>70945088</v>
+        <v>70940964</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>5413381</t>
+          <t>59344912</t>
         </is>
       </c>
       <c r="P284" s="2" t="n">
-        <v>45954</v>
+        <v>45952</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>10/24/2025 10:59:04 AM</t>
+          <t>10/22/2025 9:51:12 AM</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="S284" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="T284" t="inlineStr"/>
       <c r="U284" s="2" t="n">
-        <v>46070</v>
+        <v>45964</v>
       </c>
       <c r="V284" t="inlineStr">
         <is>
@@ -64093,23 +64093,23 @@
         </is>
       </c>
       <c r="W284" s="2" t="n">
-        <v>45958</v>
+        <v>45964</v>
       </c>
       <c r="X284" t="inlineStr">
         <is>
-          <t>243V7QJAB</t>
+          <t>TAB5109/37</t>
         </is>
       </c>
       <c r="Y284" t="inlineStr">
         <is>
-          <t>MMD-243V7QJAB</t>
+          <t>18597408</t>
         </is>
       </c>
       <c r="Z284" t="n">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="AA284" t="n">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="AB284" t="inlineStr"/>
       <c r="AC284" t="inlineStr"/>
@@ -64125,22 +64125,22 @@
       </c>
       <c r="AF284" t="inlineStr">
         <is>
-          <t>Day &amp; Ross</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AG284" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>18W</t>
         </is>
       </c>
       <c r="AH284" t="inlineStr">
         <is>
-          <t>Day &amp; Ross</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AI284" t="inlineStr">
         <is>
-          <t>VAN 400 6391 9</t>
+          <t xml:space="preserve">A659372 </t>
         </is>
       </c>
       <c r="AJ284" t="inlineStr">
@@ -64150,22 +64150,22 @@
       </c>
       <c r="AK284" t="inlineStr">
         <is>
-          <t>TDSYNNEX</t>
+          <t>TPVBB</t>
         </is>
       </c>
       <c r="AL284" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="AM284" t="inlineStr">
         <is>
-          <t>10/28/2025 10:00:00 AM</t>
+          <t>11/3/2025 1:18:00 PM</t>
         </is>
       </c>
       <c r="AN284" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="AO284" t="inlineStr">
@@ -64180,13 +64180,13 @@
       </c>
       <c r="AQ284" t="inlineStr">
         <is>
-          <t>Philips 24" FHD Monitor</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR284" t="inlineStr"/>
       <c r="AS284" t="inlineStr">
         <is>
-          <t>TPV-MNT</t>
+          <t>TPV-AVA</t>
         </is>
       </c>
       <c r="AT284" t="inlineStr">
@@ -64195,37 +64195,37 @@
         </is>
       </c>
       <c r="AU284" t="n">
-        <v>140.91</v>
+        <v>9.641876041666666</v>
       </c>
       <c r="AV284" t="n">
-        <v>140.91</v>
+        <v>9.641876041666666</v>
       </c>
       <c r="AW284" t="n">
-        <v>1356.8</v>
+        <v>0</v>
       </c>
       <c r="AX284" t="n">
-        <v>1356.8</v>
+        <v>0</v>
       </c>
       <c r="AY284" t="n">
-        <v>1.829</v>
+        <v>0.4546</v>
       </c>
       <c r="AZ284" t="inlineStr">
         <is>
-          <t>VAN 400 6391 9</t>
+          <t xml:space="preserve">A659372 </t>
         </is>
       </c>
       <c r="BA284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB284" t="n">
-        <v>609585251434</v>
+        <v>840063203563</v>
       </c>
       <c r="BC284" t="n">
         <v>10000</v>
       </c>
       <c r="BD284" t="inlineStr">
         <is>
-          <t>S00375653-10000</t>
+          <t>S00375055-10000</t>
         </is>
       </c>
     </row>
@@ -64245,79 +64245,77 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D285" t="n">
-        <v>72</v>
-      </c>
+      <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr">
         <is>
-          <t>WM CANADA</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>SUP009</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>TD SYNNEX Canada ULC</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>6901 Credit View Road</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>Mississauga</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>L5N 8E9</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>S00377540</t>
+          <t>S00375653</t>
         </is>
       </c>
       <c r="M285" t="inlineStr"/>
       <c r="N285" t="n">
-        <v>70959362</v>
+        <v>70945088</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>3150833974</t>
+          <t>5413381</t>
         </is>
       </c>
       <c r="P285" s="2" t="n">
-        <v>45961</v>
+        <v>45954</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>10/31/2025 5:43:51 AM</t>
+          <t>10/24/2025 10:59:04 AM</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">10/28/2025 </t>
         </is>
       </c>
       <c r="S285" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">10/28/2025 </t>
         </is>
       </c>
       <c r="T285" t="inlineStr"/>
       <c r="U285" s="2" t="n">
-        <v>45964</v>
+        <v>46070</v>
       </c>
       <c r="V285" t="inlineStr">
         <is>
@@ -64325,23 +64323,23 @@
         </is>
       </c>
       <c r="W285" s="2" t="n">
-        <v>45961</v>
+        <v>45958</v>
       </c>
       <c r="X285" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>243V7QJAB</t>
         </is>
       </c>
       <c r="Y285" t="inlineStr">
         <is>
-          <t>050914402</t>
+          <t>MMD-243V7QJAB</t>
         </is>
       </c>
       <c r="Z285" t="n">
-        <v>1771</v>
+        <v>128</v>
       </c>
       <c r="AA285" t="n">
-        <v>1771</v>
+        <v>128</v>
       </c>
       <c r="AB285" t="inlineStr"/>
       <c r="AC285" t="inlineStr"/>
@@ -64357,22 +64355,22 @@
       </c>
       <c r="AF285" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Day &amp; Ross</t>
         </is>
       </c>
       <c r="AG285" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>DAY</t>
         </is>
       </c>
       <c r="AH285" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Day &amp; Ross</t>
         </is>
       </c>
       <c r="AI285" t="inlineStr">
         <is>
-          <t>A659216</t>
+          <t>VAN 400 6391 9</t>
         </is>
       </c>
       <c r="AJ285" t="inlineStr">
@@ -64382,22 +64380,22 @@
       </c>
       <c r="AK285" t="inlineStr">
         <is>
-          <t>TPVWLMT</t>
+          <t>TDSYNNEX</t>
         </is>
       </c>
       <c r="AL285" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">10/28/2025 </t>
         </is>
       </c>
       <c r="AM285" t="inlineStr">
         <is>
-          <t>10/31/2025 1:00:00 PM</t>
+          <t>10/28/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="AN285" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">10/28/2025 </t>
         </is>
       </c>
       <c r="AO285" t="inlineStr">
@@ -64412,13 +64410,13 @@
       </c>
       <c r="AQ285" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>Philips 24" FHD Monitor</t>
         </is>
       </c>
       <c r="AR285" t="inlineStr"/>
       <c r="AS285" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT285" t="inlineStr">
@@ -64427,37 +64425,37 @@
         </is>
       </c>
       <c r="AU285" t="n">
-        <v>261.6670947916667</v>
+        <v>140.91</v>
       </c>
       <c r="AV285" t="n">
-        <v>261.6670947916667</v>
+        <v>140.91</v>
       </c>
       <c r="AW285" t="n">
-        <v>2196.04</v>
+        <v>1356.8</v>
       </c>
       <c r="AX285" t="n">
-        <v>2196.04</v>
+        <v>1356.8</v>
       </c>
       <c r="AY285" t="n">
-        <v>24.5973</v>
+        <v>1.829</v>
       </c>
       <c r="AZ285" t="inlineStr">
         <is>
-          <t>A659216</t>
+          <t>VAN 400 6391 9</t>
         </is>
       </c>
       <c r="BA285" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB285" t="n">
-        <v>840063204546</v>
+        <v>609585251434</v>
       </c>
       <c r="BC285" t="n">
         <v>10000</v>
       </c>
       <c r="BD285" t="inlineStr">
         <is>
-          <t>S00377540-10000</t>
+          <t>S00375653-10000</t>
         </is>
       </c>
     </row>
@@ -64477,32 +64475,30 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D286" t="n">
-        <v>72</v>
-      </c>
+      <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr">
         <is>
-          <t>WM CANADA</t>
+          <t>BEST BUY CANADA</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -64512,39 +64508,39 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>L6S 6G6</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>S00377541</t>
+          <t>S00377130</t>
         </is>
       </c>
       <c r="M286" t="inlineStr"/>
       <c r="N286" t="n">
-        <v>70959499</v>
+        <v>70954042</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>4001224463</t>
+          <t>59365797</t>
         </is>
       </c>
       <c r="P286" s="2" t="n">
-        <v>45961</v>
+        <v>45959</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>10/31/2025 5:43:53 AM</t>
+          <t>10/29/2025 12:50:06 PM</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="T286" t="inlineStr"/>
@@ -64557,19 +64553,23 @@
         </is>
       </c>
       <c r="W286" s="2" t="n">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="X286" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
-        </is>
-      </c>
-      <c r="Y286" t="inlineStr"/>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y286" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
+      </c>
       <c r="Z286" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA286" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB286" t="inlineStr"/>
       <c r="AC286" t="inlineStr"/>
@@ -64585,22 +64585,22 @@
       </c>
       <c r="AF286" t="inlineStr">
         <is>
-          <t>FEDEX - GROUND</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AG286" t="inlineStr">
         <is>
-          <t>FEDX</t>
+          <t>18W</t>
         </is>
       </c>
       <c r="AH286" t="inlineStr">
         <is>
-          <t>FEDEX - GROUND</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AI286" t="inlineStr">
         <is>
-          <t>8856 5312 7169</t>
+          <t xml:space="preserve">A659372 </t>
         </is>
       </c>
       <c r="AJ286" t="inlineStr">
@@ -64610,22 +64610,22 @@
       </c>
       <c r="AK286" t="inlineStr">
         <is>
-          <t>TPVWLMT</t>
+          <t>TPVBB</t>
         </is>
       </c>
       <c r="AL286" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="AM286" t="inlineStr">
         <is>
-          <t>10/31/2025 12:30:00 PM</t>
+          <t>11/3/2025 1:18:00 PM</t>
         </is>
       </c>
       <c r="AN286" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="AO286" t="inlineStr">
@@ -64640,7 +64640,7 @@
       </c>
       <c r="AQ286" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR286" t="inlineStr"/>
@@ -64655,35 +64655,495 @@
         </is>
       </c>
       <c r="AU286" t="n">
-        <v>4.43253125</v>
+        <v>12.85583472222222</v>
       </c>
       <c r="AV286" t="n">
-        <v>4.43253125</v>
+        <v>12.85583472222222</v>
       </c>
       <c r="AW286" t="n">
-        <v>37.2</v>
+        <v>0</v>
       </c>
       <c r="AX286" t="n">
-        <v>37.2</v>
+        <v>0</v>
       </c>
       <c r="AY286" t="n">
-        <v>0.4166</v>
+        <v>0.6061</v>
       </c>
       <c r="AZ286" t="inlineStr">
         <is>
-          <t>8856 5312 7169</t>
+          <t xml:space="preserve">A659372 </t>
         </is>
       </c>
       <c r="BA286" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB286" t="n">
-        <v>840063204546</v>
+        <v>840063203563</v>
       </c>
       <c r="BC286" t="n">
         <v>10000</v>
       </c>
       <c r="BD286" t="inlineStr">
+        <is>
+          <t>S00377130-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>72</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>S00377540</t>
+        </is>
+      </c>
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
+        <v>70959362</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>3150833974</t>
+        </is>
+      </c>
+      <c r="P287" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>10/31/2025 5:43:51 AM</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="T287" t="inlineStr"/>
+      <c r="U287" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="V287" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W287" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="X287" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y287" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z287" t="n">
+        <v>1771</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>1771</v>
+      </c>
+      <c r="AB287" t="inlineStr"/>
+      <c r="AC287" t="inlineStr"/>
+      <c r="AD287" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE287" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF287" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG287" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH287" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI287" t="inlineStr">
+        <is>
+          <t>A659216</t>
+        </is>
+      </c>
+      <c r="AJ287" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK287" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="AM287" t="inlineStr">
+        <is>
+          <t>10/31/2025 1:00:00 PM</t>
+        </is>
+      </c>
+      <c r="AN287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="AO287" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP287" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ287" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR287" t="inlineStr"/>
+      <c r="AS287" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT287" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU287" t="n">
+        <v>261.6670947916667</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>261.6670947916667</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>2196.04</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>2196.04</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>24.5973</v>
+      </c>
+      <c r="AZ287" t="inlineStr">
+        <is>
+          <t>A659216</t>
+        </is>
+      </c>
+      <c r="BA287" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD287" t="inlineStr">
+        <is>
+          <t>S00377540-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>72</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>S00377541</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
+        <v>70959499</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>4001224463</t>
+        </is>
+      </c>
+      <c r="P288" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>10/31/2025 5:43:53 AM</t>
+        </is>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="T288" t="inlineStr"/>
+      <c r="U288" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="V288" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W288" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="X288" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y288" t="inlineStr"/>
+      <c r="Z288" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB288" t="inlineStr"/>
+      <c r="AC288" t="inlineStr"/>
+      <c r="AD288" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE288" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF288" t="inlineStr">
+        <is>
+          <t>FEDEX - GROUND</t>
+        </is>
+      </c>
+      <c r="AG288" t="inlineStr">
+        <is>
+          <t>FEDX</t>
+        </is>
+      </c>
+      <c r="AH288" t="inlineStr">
+        <is>
+          <t>FEDEX - GROUND</t>
+        </is>
+      </c>
+      <c r="AI288" t="inlineStr">
+        <is>
+          <t>8856 5312 7169</t>
+        </is>
+      </c>
+      <c r="AJ288" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK288" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="AM288" t="inlineStr">
+        <is>
+          <t>10/31/2025 12:30:00 PM</t>
+        </is>
+      </c>
+      <c r="AN288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="AO288" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP288" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ288" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR288" t="inlineStr"/>
+      <c r="AS288" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT288" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU288" t="n">
+        <v>4.43253125</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>4.43253125</v>
+      </c>
+      <c r="AW288" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>0.4166</v>
+      </c>
+      <c r="AZ288" t="inlineStr">
+        <is>
+          <t>8856 5312 7169</t>
+        </is>
+      </c>
+      <c r="BA288" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD288" t="inlineStr">
         <is>
           <t>S00377541-10000</t>
         </is>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD288"/>
+  <dimension ref="A1:BD289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64478,98 +64478,92 @@
       <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>JDC001</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>JAACX DISTRIBUTORS CORPORATION</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>DC#1016, 9200 AIRPORT RD.</t>
+          <t>2275 NW 84th Ave</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>L6S 6G6</t>
+          <t>33122</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>S00377130</t>
+          <t>S00376546</t>
         </is>
       </c>
       <c r="M286" t="inlineStr"/>
       <c r="N286" t="n">
-        <v>70954042</v>
+        <v>70950747</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>59365797</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="P286" s="2" t="n">
-        <v>45959</v>
+        <v>45958</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>10/29/2025 12:50:06 PM</t>
+          <t>10/28/2025 8:11:30 AM</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="T286" t="inlineStr"/>
-      <c r="U286" s="2" t="n">
-        <v>45964</v>
-      </c>
+      <c r="U286" t="inlineStr"/>
       <c r="V286" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W286" s="2" t="n">
-        <v>45964</v>
+        <v>45966</v>
       </c>
       <c r="X286" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
-        </is>
-      </c>
-      <c r="Y286" t="inlineStr">
-        <is>
-          <t>18597408</t>
-        </is>
-      </c>
+          <t>TAT1108BK/00</t>
+        </is>
+      </c>
+      <c r="Y286" t="inlineStr"/>
       <c r="Z286" t="n">
-        <v>40</v>
+        <v>1800</v>
       </c>
       <c r="AA286" t="n">
-        <v>40</v>
+        <v>1800</v>
       </c>
       <c r="AB286" t="inlineStr"/>
       <c r="AC286" t="inlineStr"/>
@@ -64585,47 +64579,47 @@
       </c>
       <c r="AF286" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Primary Freight Services Inc</t>
         </is>
       </c>
       <c r="AG286" t="inlineStr">
         <is>
+          <t>PRIMARY</t>
+        </is>
+      </c>
+      <c r="AH286" t="inlineStr">
+        <is>
+          <t>Primary Freight Services Inc</t>
+        </is>
+      </c>
+      <c r="AI286" t="inlineStr">
+        <is>
+          <t>167 600 183</t>
+        </is>
+      </c>
+      <c r="AJ286" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK286" t="inlineStr">
+        <is>
           <t>18W</t>
         </is>
       </c>
-      <c r="AH286" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI286" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A659372 </t>
-        </is>
-      </c>
-      <c r="AJ286" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK286" t="inlineStr">
-        <is>
-          <t>TPVBB</t>
-        </is>
-      </c>
       <c r="AL286" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="AM286" t="inlineStr">
         <is>
-          <t>11/3/2025 1:18:00 PM</t>
+          <t>11/5/2025 12:10:00 PM</t>
         </is>
       </c>
       <c r="AN286" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="AO286" t="inlineStr">
@@ -64640,7 +64634,7 @@
       </c>
       <c r="AQ286" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>TWS, 6mm driver, 1 AI mic, IPX4, SBC, 15</t>
         </is>
       </c>
       <c r="AR286" t="inlineStr"/>
@@ -64655,10 +64649,10 @@
         </is>
       </c>
       <c r="AU286" t="n">
-        <v>12.85583472222222</v>
+        <v>1.102033854166667</v>
       </c>
       <c r="AV286" t="n">
-        <v>12.85583472222222</v>
+        <v>1.102033854166667</v>
       </c>
       <c r="AW286" t="n">
         <v>0</v>
@@ -64667,25 +64661,23 @@
         <v>0</v>
       </c>
       <c r="AY286" t="n">
-        <v>0.6061</v>
+        <v>0.4934</v>
       </c>
       <c r="AZ286" t="inlineStr">
         <is>
-          <t xml:space="preserve">A659372 </t>
+          <t>167 600 183</t>
         </is>
       </c>
       <c r="BA286" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB286" t="n">
-        <v>840063203563</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="BB286" t="inlineStr"/>
       <c r="BC286" t="n">
         <v>10000</v>
       </c>
       <c r="BD286" t="inlineStr">
         <is>
-          <t>S00377130-10000</t>
+          <t>S00376546-10000</t>
         </is>
       </c>
     </row>
@@ -64705,74 +64697,72 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D287" t="n">
-        <v>72</v>
-      </c>
+      <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr">
         <is>
-          <t>WM CANADA</t>
+          <t>BEST BUY CANADA</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>L6S 6G6</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>S00377540</t>
+          <t>S00377130</t>
         </is>
       </c>
       <c r="M287" t="inlineStr"/>
       <c r="N287" t="n">
-        <v>70959362</v>
+        <v>70954042</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>3150833974</t>
+          <t>59365797</t>
         </is>
       </c>
       <c r="P287" s="2" t="n">
-        <v>45961</v>
+        <v>45959</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>10/31/2025 5:43:51 AM</t>
+          <t>10/29/2025 12:50:06 PM</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="T287" t="inlineStr"/>
@@ -64785,23 +64775,23 @@
         </is>
       </c>
       <c r="W287" s="2" t="n">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="X287" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>TAB5109/37</t>
         </is>
       </c>
       <c r="Y287" t="inlineStr">
         <is>
-          <t>050914402</t>
+          <t>18597408</t>
         </is>
       </c>
       <c r="Z287" t="n">
-        <v>1771</v>
+        <v>40</v>
       </c>
       <c r="AA287" t="n">
-        <v>1771</v>
+        <v>40</v>
       </c>
       <c r="AB287" t="inlineStr"/>
       <c r="AC287" t="inlineStr"/>
@@ -64832,7 +64822,7 @@
       </c>
       <c r="AI287" t="inlineStr">
         <is>
-          <t>A659216</t>
+          <t xml:space="preserve">A659372 </t>
         </is>
       </c>
       <c r="AJ287" t="inlineStr">
@@ -64842,22 +64832,22 @@
       </c>
       <c r="AK287" t="inlineStr">
         <is>
-          <t>TPVWLMT</t>
+          <t>TPVBB</t>
         </is>
       </c>
       <c r="AL287" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="AM287" t="inlineStr">
         <is>
-          <t>10/31/2025 1:00:00 PM</t>
+          <t>11/3/2025 1:18:00 PM</t>
         </is>
       </c>
       <c r="AN287" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="AO287" t="inlineStr">
@@ -64872,7 +64862,7 @@
       </c>
       <c r="AQ287" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR287" t="inlineStr"/>
@@ -64887,37 +64877,37 @@
         </is>
       </c>
       <c r="AU287" t="n">
-        <v>261.6670947916667</v>
+        <v>12.85583472222222</v>
       </c>
       <c r="AV287" t="n">
-        <v>261.6670947916667</v>
+        <v>12.85583472222222</v>
       </c>
       <c r="AW287" t="n">
-        <v>2196.04</v>
+        <v>0</v>
       </c>
       <c r="AX287" t="n">
-        <v>2196.04</v>
+        <v>0</v>
       </c>
       <c r="AY287" t="n">
-        <v>24.5973</v>
+        <v>0.6061</v>
       </c>
       <c r="AZ287" t="inlineStr">
         <is>
-          <t>A659216</t>
+          <t xml:space="preserve">A659372 </t>
         </is>
       </c>
       <c r="BA287" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB287" t="n">
-        <v>840063204546</v>
+        <v>840063203563</v>
       </c>
       <c r="BC287" t="n">
         <v>10000</v>
       </c>
       <c r="BD287" t="inlineStr">
         <is>
-          <t>S00377540-10000</t>
+          <t>S00377130-10000</t>
         </is>
       </c>
     </row>
@@ -64957,36 +64947,36 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CALGARY</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>S00377541</t>
+          <t>S00377540</t>
         </is>
       </c>
       <c r="M288" t="inlineStr"/>
       <c r="N288" t="n">
-        <v>70959499</v>
+        <v>70959362</v>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>4001224463</t>
+          <t>3150833974</t>
         </is>
       </c>
       <c r="P288" s="2" t="n">
@@ -64994,7 +64984,7 @@
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>10/31/2025 5:43:53 AM</t>
+          <t>10/31/2025 5:43:51 AM</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
@@ -65024,12 +65014,16 @@
           <t>TAB4000/37</t>
         </is>
       </c>
-      <c r="Y288" t="inlineStr"/>
+      <c r="Y288" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
       <c r="Z288" t="n">
-        <v>30</v>
+        <v>1771</v>
       </c>
       <c r="AA288" t="n">
-        <v>30</v>
+        <v>1771</v>
       </c>
       <c r="AB288" t="inlineStr"/>
       <c r="AC288" t="inlineStr"/>
@@ -65045,22 +65039,22 @@
       </c>
       <c r="AF288" t="inlineStr">
         <is>
-          <t>FEDEX - GROUND</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AG288" t="inlineStr">
         <is>
-          <t>FEDX</t>
+          <t>18W</t>
         </is>
       </c>
       <c r="AH288" t="inlineStr">
         <is>
-          <t>FEDEX - GROUND</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AI288" t="inlineStr">
         <is>
-          <t>8856 5312 7169</t>
+          <t>A659216</t>
         </is>
       </c>
       <c r="AJ288" t="inlineStr">
@@ -65080,7 +65074,7 @@
       </c>
       <c r="AM288" t="inlineStr">
         <is>
-          <t>10/31/2025 12:30:00 PM</t>
+          <t>10/31/2025 1:00:00 PM</t>
         </is>
       </c>
       <c r="AN288" t="inlineStr">
@@ -65115,23 +65109,23 @@
         </is>
       </c>
       <c r="AU288" t="n">
-        <v>4.43253125</v>
+        <v>261.6670947916667</v>
       </c>
       <c r="AV288" t="n">
-        <v>4.43253125</v>
+        <v>261.6670947916667</v>
       </c>
       <c r="AW288" t="n">
-        <v>37.2</v>
+        <v>2196.04</v>
       </c>
       <c r="AX288" t="n">
-        <v>37.2</v>
+        <v>2196.04</v>
       </c>
       <c r="AY288" t="n">
-        <v>0.4166</v>
+        <v>24.5973</v>
       </c>
       <c r="AZ288" t="inlineStr">
         <is>
-          <t>8856 5312 7169</t>
+          <t>A659216</t>
         </is>
       </c>
       <c r="BA288" t="n">
@@ -65144,6 +65138,234 @@
         <v>10000</v>
       </c>
       <c r="BD288" t="inlineStr">
+        <is>
+          <t>S00377540-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>72</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>S00377541</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="n">
+        <v>70959499</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>4001224463</t>
+        </is>
+      </c>
+      <c r="P289" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>10/31/2025 5:43:53 AM</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="T289" t="inlineStr"/>
+      <c r="U289" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="V289" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W289" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="X289" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y289" t="inlineStr"/>
+      <c r="Z289" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB289" t="inlineStr"/>
+      <c r="AC289" t="inlineStr"/>
+      <c r="AD289" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE289" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF289" t="inlineStr">
+        <is>
+          <t>FEDEX - GROUND</t>
+        </is>
+      </c>
+      <c r="AG289" t="inlineStr">
+        <is>
+          <t>FEDX</t>
+        </is>
+      </c>
+      <c r="AH289" t="inlineStr">
+        <is>
+          <t>FEDEX - GROUND</t>
+        </is>
+      </c>
+      <c r="AI289" t="inlineStr">
+        <is>
+          <t>8856 5312 7169</t>
+        </is>
+      </c>
+      <c r="AJ289" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK289" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="AM289" t="inlineStr">
+        <is>
+          <t>10/31/2025 12:30:00 PM</t>
+        </is>
+      </c>
+      <c r="AN289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="AO289" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP289" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ289" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR289" t="inlineStr"/>
+      <c r="AS289" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT289" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU289" t="n">
+        <v>4.43253125</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>4.43253125</v>
+      </c>
+      <c r="AW289" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="AX289" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="AY289" t="n">
+        <v>0.4166</v>
+      </c>
+      <c r="AZ289" t="inlineStr">
+        <is>
+          <t>8856 5312 7169</t>
+        </is>
+      </c>
+      <c r="BA289" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB289" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC289" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD289" t="inlineStr">
         <is>
           <t>S00377541-10000</t>
         </is>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD289"/>
+  <dimension ref="A1:BD293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64033,36 +64033,36 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>DC#1016, 9200 AIRPORT RD.</t>
+          <t>DC#1008, 19890-92A AVE.</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>LANGLEY</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>L6S 6G6</t>
+          <t>V1M 3A9</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>S00375055</t>
+          <t>S00375054</t>
         </is>
       </c>
       <c r="M284" t="inlineStr"/>
       <c r="N284" t="n">
-        <v>70940964</v>
+        <v>70940963</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>59344912</t>
+          <t>59344911</t>
         </is>
       </c>
       <c r="P284" s="2" t="n">
@@ -64070,17 +64070,17 @@
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>10/22/2025 9:51:12 AM</t>
+          <t>10/22/2025 9:51:10 AM</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="S284" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="T284" t="inlineStr"/>
@@ -64093,7 +64093,7 @@
         </is>
       </c>
       <c r="W284" s="2" t="n">
-        <v>45964</v>
+        <v>45967</v>
       </c>
       <c r="X284" t="inlineStr">
         <is>
@@ -64106,10 +64106,10 @@
         </is>
       </c>
       <c r="Z284" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AA284" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AB284" t="inlineStr"/>
       <c r="AC284" t="inlineStr"/>
@@ -64140,7 +64140,7 @@
       </c>
       <c r="AI284" t="inlineStr">
         <is>
-          <t xml:space="preserve">A659372 </t>
+          <t xml:space="preserve">A659398 </t>
         </is>
       </c>
       <c r="AJ284" t="inlineStr">
@@ -64155,17 +64155,17 @@
       </c>
       <c r="AL284" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="AM284" t="inlineStr">
         <is>
-          <t>11/3/2025 1:18:00 PM</t>
+          <t>11/6/2025 8:13:00 AM</t>
         </is>
       </c>
       <c r="AN284" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="AO284" t="inlineStr">
@@ -64195,10 +64195,10 @@
         </is>
       </c>
       <c r="AU284" t="n">
-        <v>9.641876041666666</v>
+        <v>6.427917361111111</v>
       </c>
       <c r="AV284" t="n">
-        <v>9.641876041666666</v>
+        <v>6.427917361111111</v>
       </c>
       <c r="AW284" t="n">
         <v>0</v>
@@ -64207,11 +64207,11 @@
         <v>0</v>
       </c>
       <c r="AY284" t="n">
-        <v>0.4546</v>
+        <v>0.303</v>
       </c>
       <c r="AZ284" t="inlineStr">
         <is>
-          <t xml:space="preserve">A659372 </t>
+          <t xml:space="preserve">A659398 </t>
         </is>
       </c>
       <c r="BA284" t="n">
@@ -64225,7 +64225,7 @@
       </c>
       <c r="BD284" t="inlineStr">
         <is>
-          <t>S00375055-10000</t>
+          <t>S00375054-10000</t>
         </is>
       </c>
     </row>
@@ -64248,27 +64248,27 @@
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>BEST BUY CANADA</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>SUP009</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>TD SYNNEX Canada ULC</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>6901 Credit View Road</t>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Mississauga</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -64278,44 +64278,44 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>L5N 8E9</t>
+          <t>L6S 6G6</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>S00375653</t>
+          <t>S00375055</t>
         </is>
       </c>
       <c r="M285" t="inlineStr"/>
       <c r="N285" t="n">
-        <v>70945088</v>
+        <v>70940964</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>5413381</t>
+          <t>59344912</t>
         </is>
       </c>
       <c r="P285" s="2" t="n">
-        <v>45954</v>
+        <v>45952</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>10/24/2025 10:59:04 AM</t>
+          <t>10/22/2025 9:51:12 AM</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="S285" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="T285" t="inlineStr"/>
       <c r="U285" s="2" t="n">
-        <v>46070</v>
+        <v>45964</v>
       </c>
       <c r="V285" t="inlineStr">
         <is>
@@ -64323,23 +64323,23 @@
         </is>
       </c>
       <c r="W285" s="2" t="n">
-        <v>45958</v>
+        <v>45964</v>
       </c>
       <c r="X285" t="inlineStr">
         <is>
-          <t>243V7QJAB</t>
+          <t>TAB5109/37</t>
         </is>
       </c>
       <c r="Y285" t="inlineStr">
         <is>
-          <t>MMD-243V7QJAB</t>
+          <t>18597408</t>
         </is>
       </c>
       <c r="Z285" t="n">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="AA285" t="n">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="AB285" t="inlineStr"/>
       <c r="AC285" t="inlineStr"/>
@@ -64355,22 +64355,22 @@
       </c>
       <c r="AF285" t="inlineStr">
         <is>
-          <t>Day &amp; Ross</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AG285" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>18W</t>
         </is>
       </c>
       <c r="AH285" t="inlineStr">
         <is>
-          <t>Day &amp; Ross</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AI285" t="inlineStr">
         <is>
-          <t>VAN 400 6391 9</t>
+          <t xml:space="preserve">A659372 </t>
         </is>
       </c>
       <c r="AJ285" t="inlineStr">
@@ -64380,22 +64380,22 @@
       </c>
       <c r="AK285" t="inlineStr">
         <is>
-          <t>TDSYNNEX</t>
+          <t>TPVBB</t>
         </is>
       </c>
       <c r="AL285" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="AM285" t="inlineStr">
         <is>
-          <t>10/28/2025 10:00:00 AM</t>
+          <t>11/3/2025 1:18:00 PM</t>
         </is>
       </c>
       <c r="AN285" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="AO285" t="inlineStr">
@@ -64410,13 +64410,13 @@
       </c>
       <c r="AQ285" t="inlineStr">
         <is>
-          <t>Philips 24" FHD Monitor</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR285" t="inlineStr"/>
       <c r="AS285" t="inlineStr">
         <is>
-          <t>TPV-MNT</t>
+          <t>TPV-AVA</t>
         </is>
       </c>
       <c r="AT285" t="inlineStr">
@@ -64425,37 +64425,37 @@
         </is>
       </c>
       <c r="AU285" t="n">
-        <v>140.91</v>
+        <v>9.641876041666666</v>
       </c>
       <c r="AV285" t="n">
-        <v>140.91</v>
+        <v>9.641876041666666</v>
       </c>
       <c r="AW285" t="n">
-        <v>1356.8</v>
+        <v>0</v>
       </c>
       <c r="AX285" t="n">
-        <v>1356.8</v>
+        <v>0</v>
       </c>
       <c r="AY285" t="n">
-        <v>1.829</v>
+        <v>0.4546</v>
       </c>
       <c r="AZ285" t="inlineStr">
         <is>
-          <t>VAN 400 6391 9</t>
+          <t xml:space="preserve">A659372 </t>
         </is>
       </c>
       <c r="BA285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB285" t="n">
-        <v>609585251434</v>
+        <v>840063203563</v>
       </c>
       <c r="BC285" t="n">
         <v>10000</v>
       </c>
       <c r="BD285" t="inlineStr">
         <is>
-          <t>S00375653-10000</t>
+          <t>S00375055-10000</t>
         </is>
       </c>
     </row>
@@ -64483,87 +64483,93 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>JDC001</t>
+          <t>SUP009</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>JAACX DISTRIBUTORS CORPORATION</t>
+          <t>TD SYNNEX Canada ULC</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2275 NW 84th Ave</t>
+          <t>6901 Credit View Road</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Mississauga</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>33122</t>
+          <t>L5N 8E9</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>S00376546</t>
+          <t>S00375653</t>
         </is>
       </c>
       <c r="M286" t="inlineStr"/>
       <c r="N286" t="n">
-        <v>70950747</v>
+        <v>70945088</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>3664</t>
+          <t>5413381</t>
         </is>
       </c>
       <c r="P286" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>10/24/2025 10:59:04 AM</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/28/2025 </t>
+        </is>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/28/2025 </t>
+        </is>
+      </c>
+      <c r="T286" t="inlineStr"/>
+      <c r="U286" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="V286" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W286" s="2" t="n">
         <v>45958</v>
       </c>
-      <c r="Q286" t="inlineStr">
-        <is>
-          <t>10/28/2025 8:11:30 AM</t>
-        </is>
-      </c>
-      <c r="R286" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/5/2025 </t>
-        </is>
-      </c>
-      <c r="S286" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/5/2025 </t>
-        </is>
-      </c>
-      <c r="T286" t="inlineStr"/>
-      <c r="U286" t="inlineStr"/>
-      <c r="V286" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="W286" s="2" t="n">
-        <v>45966</v>
-      </c>
       <c r="X286" t="inlineStr">
         <is>
-          <t>TAT1108BK/00</t>
-        </is>
-      </c>
-      <c r="Y286" t="inlineStr"/>
+          <t>243V7QJAB</t>
+        </is>
+      </c>
+      <c r="Y286" t="inlineStr">
+        <is>
+          <t>MMD-243V7QJAB</t>
+        </is>
+      </c>
       <c r="Z286" t="n">
-        <v>1800</v>
+        <v>128</v>
       </c>
       <c r="AA286" t="n">
-        <v>1800</v>
+        <v>128</v>
       </c>
       <c r="AB286" t="inlineStr"/>
       <c r="AC286" t="inlineStr"/>
@@ -64579,47 +64585,47 @@
       </c>
       <c r="AF286" t="inlineStr">
         <is>
-          <t>Primary Freight Services Inc</t>
+          <t>Day &amp; Ross</t>
         </is>
       </c>
       <c r="AG286" t="inlineStr">
         <is>
-          <t>PRIMARY</t>
+          <t>DAY</t>
         </is>
       </c>
       <c r="AH286" t="inlineStr">
         <is>
-          <t>Primary Freight Services Inc</t>
+          <t>Day &amp; Ross</t>
         </is>
       </c>
       <c r="AI286" t="inlineStr">
         <is>
-          <t>167 600 183</t>
+          <t>VAN 400 6391 9</t>
         </is>
       </c>
       <c r="AJ286" t="inlineStr">
         <is>
-          <t>Prepaid</t>
+          <t>Collect</t>
         </is>
       </c>
       <c r="AK286" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>TDSYNNEX</t>
         </is>
       </c>
       <c r="AL286" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5/2025 </t>
+          <t xml:space="preserve">10/28/2025 </t>
         </is>
       </c>
       <c r="AM286" t="inlineStr">
         <is>
-          <t>11/5/2025 12:10:00 PM</t>
+          <t>10/28/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="AN286" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5/2025 </t>
+          <t xml:space="preserve">10/28/2025 </t>
         </is>
       </c>
       <c r="AO286" t="inlineStr">
@@ -64634,13 +64640,13 @@
       </c>
       <c r="AQ286" t="inlineStr">
         <is>
-          <t>TWS, 6mm driver, 1 AI mic, IPX4, SBC, 15</t>
+          <t>Philips 24" FHD Monitor</t>
         </is>
       </c>
       <c r="AR286" t="inlineStr"/>
       <c r="AS286" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT286" t="inlineStr">
@@ -64649,35 +64655,37 @@
         </is>
       </c>
       <c r="AU286" t="n">
-        <v>1.102033854166667</v>
+        <v>140.91</v>
       </c>
       <c r="AV286" t="n">
-        <v>1.102033854166667</v>
+        <v>140.91</v>
       </c>
       <c r="AW286" t="n">
-        <v>0</v>
+        <v>1356.8</v>
       </c>
       <c r="AX286" t="n">
-        <v>0</v>
+        <v>1356.8</v>
       </c>
       <c r="AY286" t="n">
-        <v>0.4934</v>
+        <v>1.829</v>
       </c>
       <c r="AZ286" t="inlineStr">
         <is>
-          <t>167 600 183</t>
+          <t>VAN 400 6391 9</t>
         </is>
       </c>
       <c r="BA286" t="n">
-        <v>24</v>
-      </c>
-      <c r="BB286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>609585251434</v>
+      </c>
       <c r="BC286" t="n">
         <v>10000</v>
       </c>
       <c r="BD286" t="inlineStr">
         <is>
-          <t>S00376546-10000</t>
+          <t>S00375653-10000</t>
         </is>
       </c>
     </row>
@@ -64700,98 +64708,92 @@
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>JDC001</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>JAACX DISTRIBUTORS CORPORATION</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>DC#1016, 9200 AIRPORT RD.</t>
+          <t>2275 NW 84th Ave</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>L6S 6G6</t>
+          <t>33122</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>S00377130</t>
+          <t>S00376546</t>
         </is>
       </c>
       <c r="M287" t="inlineStr"/>
       <c r="N287" t="n">
-        <v>70954042</v>
+        <v>70950747</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>59365797</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="P287" s="2" t="n">
-        <v>45959</v>
+        <v>45958</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>10/29/2025 12:50:06 PM</t>
+          <t>10/28/2025 8:11:30 AM</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="T287" t="inlineStr"/>
-      <c r="U287" s="2" t="n">
-        <v>45964</v>
-      </c>
+      <c r="U287" t="inlineStr"/>
       <c r="V287" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W287" s="2" t="n">
-        <v>45964</v>
+        <v>45966</v>
       </c>
       <c r="X287" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
-        </is>
-      </c>
-      <c r="Y287" t="inlineStr">
-        <is>
-          <t>18597408</t>
-        </is>
-      </c>
+          <t>TAT1108BK/00</t>
+        </is>
+      </c>
+      <c r="Y287" t="inlineStr"/>
       <c r="Z287" t="n">
-        <v>40</v>
+        <v>1800</v>
       </c>
       <c r="AA287" t="n">
-        <v>40</v>
+        <v>1800</v>
       </c>
       <c r="AB287" t="inlineStr"/>
       <c r="AC287" t="inlineStr"/>
@@ -64807,47 +64809,47 @@
       </c>
       <c r="AF287" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Primary Freight Services Inc</t>
         </is>
       </c>
       <c r="AG287" t="inlineStr">
         <is>
+          <t>PRIMARY</t>
+        </is>
+      </c>
+      <c r="AH287" t="inlineStr">
+        <is>
+          <t>Primary Freight Services Inc</t>
+        </is>
+      </c>
+      <c r="AI287" t="inlineStr">
+        <is>
+          <t>167 600 183</t>
+        </is>
+      </c>
+      <c r="AJ287" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK287" t="inlineStr">
+        <is>
           <t>18W</t>
         </is>
       </c>
-      <c r="AH287" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI287" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A659372 </t>
-        </is>
-      </c>
-      <c r="AJ287" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK287" t="inlineStr">
-        <is>
-          <t>TPVBB</t>
-        </is>
-      </c>
       <c r="AL287" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="AM287" t="inlineStr">
         <is>
-          <t>11/3/2025 1:18:00 PM</t>
+          <t>11/5/2025 12:10:00 PM</t>
         </is>
       </c>
       <c r="AN287" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="AO287" t="inlineStr">
@@ -64862,7 +64864,7 @@
       </c>
       <c r="AQ287" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>TWS, 6mm driver, 1 AI mic, IPX4, SBC, 15</t>
         </is>
       </c>
       <c r="AR287" t="inlineStr"/>
@@ -64877,10 +64879,10 @@
         </is>
       </c>
       <c r="AU287" t="n">
-        <v>12.85583472222222</v>
+        <v>1.102033854166667</v>
       </c>
       <c r="AV287" t="n">
-        <v>12.85583472222222</v>
+        <v>1.102033854166667</v>
       </c>
       <c r="AW287" t="n">
         <v>0</v>
@@ -64889,25 +64891,23 @@
         <v>0</v>
       </c>
       <c r="AY287" t="n">
-        <v>0.6061</v>
+        <v>0.4934</v>
       </c>
       <c r="AZ287" t="inlineStr">
         <is>
-          <t xml:space="preserve">A659372 </t>
+          <t>167 600 183</t>
         </is>
       </c>
       <c r="BA287" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB287" t="n">
-        <v>840063203563</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="BB287" t="inlineStr"/>
       <c r="BC287" t="n">
         <v>10000</v>
       </c>
       <c r="BD287" t="inlineStr">
         <is>
-          <t>S00377130-10000</t>
+          <t>S00376546-10000</t>
         </is>
       </c>
     </row>
@@ -64927,74 +64927,72 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D288" t="n">
-        <v>72</v>
-      </c>
+      <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr">
         <is>
-          <t>WM CANADA</t>
+          <t>BEST BUY CANADA</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>L6S 6G6</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>S00377540</t>
+          <t>S00377130</t>
         </is>
       </c>
       <c r="M288" t="inlineStr"/>
       <c r="N288" t="n">
-        <v>70959362</v>
+        <v>70954042</v>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>3150833974</t>
+          <t>59365797</t>
         </is>
       </c>
       <c r="P288" s="2" t="n">
-        <v>45961</v>
+        <v>45959</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>10/31/2025 5:43:51 AM</t>
+          <t>10/29/2025 12:50:06 PM</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="S288" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="T288" t="inlineStr"/>
@@ -65007,23 +65005,23 @@
         </is>
       </c>
       <c r="W288" s="2" t="n">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="X288" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>TAB5109/37</t>
         </is>
       </c>
       <c r="Y288" t="inlineStr">
         <is>
-          <t>050914402</t>
+          <t>18597408</t>
         </is>
       </c>
       <c r="Z288" t="n">
-        <v>1771</v>
+        <v>40</v>
       </c>
       <c r="AA288" t="n">
-        <v>1771</v>
+        <v>40</v>
       </c>
       <c r="AB288" t="inlineStr"/>
       <c r="AC288" t="inlineStr"/>
@@ -65054,7 +65052,7 @@
       </c>
       <c r="AI288" t="inlineStr">
         <is>
-          <t>A659216</t>
+          <t xml:space="preserve">A659372 </t>
         </is>
       </c>
       <c r="AJ288" t="inlineStr">
@@ -65064,22 +65062,22 @@
       </c>
       <c r="AK288" t="inlineStr">
         <is>
-          <t>TPVWLMT</t>
+          <t>TPVBB</t>
         </is>
       </c>
       <c r="AL288" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="AM288" t="inlineStr">
         <is>
-          <t>10/31/2025 1:00:00 PM</t>
+          <t>11/3/2025 1:18:00 PM</t>
         </is>
       </c>
       <c r="AN288" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="AO288" t="inlineStr">
@@ -65094,7 +65092,7 @@
       </c>
       <c r="AQ288" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR288" t="inlineStr"/>
@@ -65109,37 +65107,37 @@
         </is>
       </c>
       <c r="AU288" t="n">
-        <v>261.6670947916667</v>
+        <v>12.85583472222222</v>
       </c>
       <c r="AV288" t="n">
-        <v>261.6670947916667</v>
+        <v>12.85583472222222</v>
       </c>
       <c r="AW288" t="n">
-        <v>2196.04</v>
+        <v>0</v>
       </c>
       <c r="AX288" t="n">
-        <v>2196.04</v>
+        <v>0</v>
       </c>
       <c r="AY288" t="n">
-        <v>24.5973</v>
+        <v>0.6061</v>
       </c>
       <c r="AZ288" t="inlineStr">
         <is>
-          <t>A659216</t>
+          <t xml:space="preserve">A659372 </t>
         </is>
       </c>
       <c r="BA288" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB288" t="n">
-        <v>840063204546</v>
+        <v>840063203563</v>
       </c>
       <c r="BC288" t="n">
         <v>10000</v>
       </c>
       <c r="BD288" t="inlineStr">
         <is>
-          <t>S00377540-10000</t>
+          <t>S00377130-10000</t>
         </is>
       </c>
     </row>
@@ -65159,74 +65157,72 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D289" t="n">
-        <v>72</v>
-      </c>
+      <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
-          <t>WM CANADA</t>
+          <t>BEST BUY CANADA</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>DC#1008, 19890-92A AVE.</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>LANGLEY</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>V1M 3A9</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>S00377541</t>
+          <t>S00377131</t>
         </is>
       </c>
       <c r="M289" t="inlineStr"/>
       <c r="N289" t="n">
-        <v>70959499</v>
+        <v>70954041</v>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>4001224463</t>
+          <t>59365796</t>
         </is>
       </c>
       <c r="P289" s="2" t="n">
-        <v>45961</v>
+        <v>45959</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>10/31/2025 5:43:53 AM</t>
+          <t>10/29/2025 12:50:06 PM</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="S289" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="T289" t="inlineStr"/>
@@ -65239,19 +65235,23 @@
         </is>
       </c>
       <c r="W289" s="2" t="n">
-        <v>45961</v>
+        <v>45967</v>
       </c>
       <c r="X289" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
-        </is>
-      </c>
-      <c r="Y289" t="inlineStr"/>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y289" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
+      </c>
       <c r="Z289" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AA289" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AB289" t="inlineStr"/>
       <c r="AC289" t="inlineStr"/>
@@ -65267,22 +65267,22 @@
       </c>
       <c r="AF289" t="inlineStr">
         <is>
-          <t>FEDEX - GROUND</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AG289" t="inlineStr">
         <is>
-          <t>FEDX</t>
+          <t>18W</t>
         </is>
       </c>
       <c r="AH289" t="inlineStr">
         <is>
-          <t>FEDEX - GROUND</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AI289" t="inlineStr">
         <is>
-          <t>8856 5312 7169</t>
+          <t xml:space="preserve">A659398 </t>
         </is>
       </c>
       <c r="AJ289" t="inlineStr">
@@ -65292,22 +65292,22 @@
       </c>
       <c r="AK289" t="inlineStr">
         <is>
-          <t>TPVWLMT</t>
+          <t>TPVBB</t>
         </is>
       </c>
       <c r="AL289" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="AM289" t="inlineStr">
         <is>
-          <t>10/31/2025 12:30:00 PM</t>
+          <t>11/6/2025 8:13:00 AM</t>
         </is>
       </c>
       <c r="AN289" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="AO289" t="inlineStr">
@@ -65322,7 +65322,7 @@
       </c>
       <c r="AQ289" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR289" t="inlineStr"/>
@@ -65337,37 +65337,961 @@
         </is>
       </c>
       <c r="AU289" t="n">
-        <v>4.43253125</v>
+        <v>3.213958680555556</v>
       </c>
       <c r="AV289" t="n">
-        <v>4.43253125</v>
+        <v>3.213958680555556</v>
       </c>
       <c r="AW289" t="n">
-        <v>37.2</v>
+        <v>0</v>
       </c>
       <c r="AX289" t="n">
-        <v>37.2</v>
+        <v>0</v>
       </c>
       <c r="AY289" t="n">
-        <v>0.4166</v>
+        <v>0.1515</v>
       </c>
       <c r="AZ289" t="inlineStr">
         <is>
-          <t>8856 5312 7169</t>
+          <t xml:space="preserve">A659398 </t>
         </is>
       </c>
       <c r="BA289" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB289" t="n">
-        <v>840063204546</v>
+        <v>840063203563</v>
       </c>
       <c r="BC289" t="n">
         <v>10000</v>
       </c>
       <c r="BD289" t="inlineStr">
         <is>
+          <t>S00377131-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>72</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>S00377540</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="n">
+        <v>70959362</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>3150833974</t>
+        </is>
+      </c>
+      <c r="P290" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>10/31/2025 5:43:51 AM</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="T290" t="inlineStr"/>
+      <c r="U290" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="V290" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W290" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="X290" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y290" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z290" t="n">
+        <v>1771</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>1771</v>
+      </c>
+      <c r="AB290" t="inlineStr"/>
+      <c r="AC290" t="inlineStr"/>
+      <c r="AD290" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE290" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF290" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG290" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH290" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI290" t="inlineStr">
+        <is>
+          <t>A659216</t>
+        </is>
+      </c>
+      <c r="AJ290" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK290" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="AM290" t="inlineStr">
+        <is>
+          <t>10/31/2025 1:00:00 PM</t>
+        </is>
+      </c>
+      <c r="AN290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="AO290" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP290" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ290" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR290" t="inlineStr"/>
+      <c r="AS290" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT290" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU290" t="n">
+        <v>261.6670947916667</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>261.6670947916667</v>
+      </c>
+      <c r="AW290" t="n">
+        <v>2196.04</v>
+      </c>
+      <c r="AX290" t="n">
+        <v>2196.04</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>24.5973</v>
+      </c>
+      <c r="AZ290" t="inlineStr">
+        <is>
+          <t>A659216</t>
+        </is>
+      </c>
+      <c r="BA290" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC290" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD290" t="inlineStr">
+        <is>
+          <t>S00377540-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>72</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>S00377541</t>
+        </is>
+      </c>
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="n">
+        <v>70959499</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>4001224463</t>
+        </is>
+      </c>
+      <c r="P291" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>10/31/2025 5:43:53 AM</t>
+        </is>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="T291" t="inlineStr"/>
+      <c r="U291" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="V291" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W291" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="X291" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y291" t="inlineStr"/>
+      <c r="Z291" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB291" t="inlineStr"/>
+      <c r="AC291" t="inlineStr"/>
+      <c r="AD291" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE291" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF291" t="inlineStr">
+        <is>
+          <t>FEDEX - GROUND</t>
+        </is>
+      </c>
+      <c r="AG291" t="inlineStr">
+        <is>
+          <t>FEDX</t>
+        </is>
+      </c>
+      <c r="AH291" t="inlineStr">
+        <is>
+          <t>FEDEX - GROUND</t>
+        </is>
+      </c>
+      <c r="AI291" t="inlineStr">
+        <is>
+          <t>8856 5312 7169</t>
+        </is>
+      </c>
+      <c r="AJ291" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK291" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="AM291" t="inlineStr">
+        <is>
+          <t>10/31/2025 12:30:00 PM</t>
+        </is>
+      </c>
+      <c r="AN291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/31/2025 </t>
+        </is>
+      </c>
+      <c r="AO291" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP291" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ291" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR291" t="inlineStr"/>
+      <c r="AS291" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT291" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU291" t="n">
+        <v>4.43253125</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>4.43253125</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>0.4166</v>
+      </c>
+      <c r="AZ291" t="inlineStr">
+        <is>
+          <t>8856 5312 7169</t>
+        </is>
+      </c>
+      <c r="BA291" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD291" t="inlineStr">
+        <is>
           <t>S00377541-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>72</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>S00378026</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="n">
+        <v>70964712</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>3850804377</t>
+        </is>
+      </c>
+      <c r="P292" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>11/3/2025 7:23:07 AM</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/6/2025 </t>
+        </is>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/6/2025 </t>
+        </is>
+      </c>
+      <c r="T292" t="inlineStr"/>
+      <c r="U292" s="2" t="n">
+        <v>45976</v>
+      </c>
+      <c r="V292" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W292" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="X292" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y292" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
+      </c>
+      <c r="Z292" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>151</v>
+      </c>
+      <c r="AB292" t="inlineStr"/>
+      <c r="AC292" t="inlineStr"/>
+      <c r="AD292" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE292" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF292" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG292" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH292" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI292" t="inlineStr">
+        <is>
+          <t>A659786</t>
+        </is>
+      </c>
+      <c r="AJ292" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK292" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/6/2025 </t>
+        </is>
+      </c>
+      <c r="AM292" t="inlineStr">
+        <is>
+          <t>11/6/2025 12:42:00 PM</t>
+        </is>
+      </c>
+      <c r="AN292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/6/2025 </t>
+        </is>
+      </c>
+      <c r="AO292" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP292" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ292" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR292" t="inlineStr"/>
+      <c r="AS292" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT292" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU292" t="n">
+        <v>193.6680783888889</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>193.6680783888889</v>
+      </c>
+      <c r="AW292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AZ292" t="inlineStr">
+        <is>
+          <t>A659786</t>
+        </is>
+      </c>
+      <c r="BA292" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB292" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC292" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD292" t="inlineStr">
+        <is>
+          <t>S00378026-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>72</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>S00378027</t>
+        </is>
+      </c>
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="n">
+        <v>70964711</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>4001224565</t>
+        </is>
+      </c>
+      <c r="P293" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>11/3/2025 7:23:09 AM</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/6/2025 </t>
+        </is>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/6/2025 </t>
+        </is>
+      </c>
+      <c r="T293" t="inlineStr"/>
+      <c r="U293" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="V293" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W293" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="X293" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y293" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
+      </c>
+      <c r="Z293" t="n">
+        <v>88</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>88</v>
+      </c>
+      <c r="AB293" t="inlineStr"/>
+      <c r="AC293" t="inlineStr"/>
+      <c r="AD293" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE293" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF293" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG293" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH293" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI293" t="inlineStr">
+        <is>
+          <t>A659808</t>
+        </is>
+      </c>
+      <c r="AJ293" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK293" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/6/2025 </t>
+        </is>
+      </c>
+      <c r="AM293" t="inlineStr">
+        <is>
+          <t>11/6/2025 12:46:00 PM</t>
+        </is>
+      </c>
+      <c r="AN293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/6/2025 </t>
+        </is>
+      </c>
+      <c r="AO293" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP293" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ293" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR293" t="inlineStr"/>
+      <c r="AS293" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT293" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU293" t="n">
+        <v>112.8661648888889</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>112.8661648888889</v>
+      </c>
+      <c r="AW293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY293" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AZ293" t="inlineStr">
+        <is>
+          <t>A659808</t>
+        </is>
+      </c>
+      <c r="BA293" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB293" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC293" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD293" t="inlineStr">
+        <is>
+          <t>S00378027-10000</t>
         </is>
       </c>
     </row>

--- a/master.xlsx
+++ b/master.xlsx
@@ -62871,99 +62871,103 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr"/>
+      <c r="D279" t="n">
+        <v>72</v>
+      </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>AMA002</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>AMAZON.COM, CA INC.</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>109 Braid Street</t>
+          <t>2401 SCM WAY RR 1</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>New Westminster</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>V3L 5H4</t>
+          <t>K6H 7S1</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>S00370948</t>
+          <t>S00375016</t>
         </is>
       </c>
       <c r="M279" t="inlineStr"/>
       <c r="N279" t="n">
-        <v>70909635</v>
+        <v>70940875</v>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>84HVE3ZP</t>
+          <t>3850804289</t>
         </is>
       </c>
       <c r="P279" s="2" t="n">
-        <v>45933</v>
+        <v>45952</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>10/3/2025 5:36:08 PM</t>
+          <t>10/22/2025 9:20:49 AM</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29/2025 </t>
+          <t xml:space="preserve">10/24/2025 </t>
         </is>
       </c>
       <c r="S279" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29/2025 </t>
+          <t xml:space="preserve">10/24/2025 </t>
         </is>
       </c>
       <c r="T279" t="inlineStr"/>
-      <c r="U279" t="inlineStr"/>
+      <c r="U279" s="2" t="n">
+        <v>45964</v>
+      </c>
       <c r="V279" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W279" s="2" t="n">
-        <v>45959</v>
+        <v>45954</v>
       </c>
       <c r="X279" t="inlineStr">
         <is>
-          <t>221V8LB</t>
+          <t>TAB4000/37</t>
         </is>
       </c>
       <c r="Y279" t="inlineStr">
         <is>
-          <t>B0CVM2GJCN</t>
+          <t>050914402</t>
         </is>
       </c>
       <c r="Z279" t="n">
-        <v>6</v>
+        <v>1495</v>
       </c>
       <c r="AA279" t="n">
-        <v>6</v>
+        <v>1495</v>
       </c>
       <c r="AB279" t="inlineStr"/>
       <c r="AC279" t="inlineStr"/>
@@ -62979,22 +62983,22 @@
       </c>
       <c r="AF279" t="inlineStr">
         <is>
-          <t>UPS Ground (small parcel)</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AG279" t="inlineStr">
         <is>
-          <t>UPSN</t>
+          <t>18W</t>
         </is>
       </c>
       <c r="AH279" t="inlineStr">
         <is>
-          <t>UPS Ground (small parcel)</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AI279" t="inlineStr">
         <is>
-          <t>1ZX94A632098393168</t>
+          <t>A658561</t>
         </is>
       </c>
       <c r="AJ279" t="inlineStr">
@@ -63004,20 +63008,22 @@
       </c>
       <c r="AK279" t="inlineStr">
         <is>
-          <t>AMZCSPLTM</t>
-        </is>
-      </c>
-      <c r="AL279" s="2" t="n">
-        <v>45959.66666666666</v>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/24/2025 </t>
+        </is>
       </c>
       <c r="AM279" t="inlineStr">
         <is>
-          <t>10/8/2025 11:30:00 AM</t>
+          <t>10/24/2025 1:39:00 PM</t>
         </is>
       </c>
       <c r="AN279" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29/2025 </t>
+          <t xml:space="preserve">10/24/2025 </t>
         </is>
       </c>
       <c r="AO279" t="inlineStr">
@@ -63032,13 +63038,13 @@
       </c>
       <c r="AQ279" t="inlineStr">
         <is>
-          <t>21.5 FHD Monitor</t>
+          <t>Soundbar</t>
         </is>
       </c>
       <c r="AR279" t="inlineStr"/>
       <c r="AS279" t="inlineStr">
         <is>
-          <t>TPV-MNT</t>
+          <t>TPV-AVA</t>
         </is>
       </c>
       <c r="AT279" t="inlineStr">
@@ -63047,37 +63053,37 @@
         </is>
       </c>
       <c r="AU279" t="n">
-        <v>5.749315</v>
+        <v>220.8878072916667</v>
       </c>
       <c r="AV279" t="n">
-        <v>5.749315</v>
+        <v>220.8878072916667</v>
       </c>
       <c r="AW279" t="n">
-        <v>49.32</v>
+        <v>1853.8</v>
       </c>
       <c r="AX279" t="n">
-        <v>49.32</v>
+        <v>1853.8</v>
       </c>
       <c r="AY279" t="n">
-        <v>0.0638</v>
+        <v>20.7639</v>
       </c>
       <c r="AZ279" t="inlineStr">
         <is>
-          <t>1ZX94A632098393168</t>
+          <t>A658561</t>
         </is>
       </c>
       <c r="BA279" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB279" t="n">
-        <v>609585257030</v>
+        <v>840063204546</v>
       </c>
       <c r="BC279" t="n">
         <v>10000</v>
       </c>
       <c r="BD279" t="inlineStr">
         <is>
-          <t>S00370948-10000</t>
+          <t>S00375016-10000</t>
         </is>
       </c>
     </row>
@@ -63097,30 +63103,32 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr"/>
+      <c r="D280" t="n">
+        <v>72</v>
+      </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>SUP009</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>TD SYNNEX Canada ULC</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>6901 Credit View Road</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Mississauga</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -63130,66 +63138,68 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>L5N 8E9</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>S00373827</t>
+          <t>S00375017</t>
         </is>
       </c>
       <c r="M280" t="inlineStr"/>
       <c r="N280" t="n">
-        <v>70929613</v>
+        <v>70940874</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>5333943</t>
+          <t>4001224463</t>
         </is>
       </c>
       <c r="P280" s="2" t="n">
-        <v>45946</v>
+        <v>45952</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>10/16/2025 2:10:58 PM</t>
+          <t>10/22/2025 9:20:51 AM</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27/2025 </t>
+          <t>10/24/2025 5:26:09 PM</t>
         </is>
       </c>
       <c r="S280" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27/2025 </t>
+          <t>10/24/2025 5:26:09 PM</t>
         </is>
       </c>
       <c r="T280" t="inlineStr"/>
-      <c r="U280" t="inlineStr"/>
+      <c r="U280" s="2" t="n">
+        <v>45964</v>
+      </c>
       <c r="V280" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W280" s="2" t="n">
-        <v>45957</v>
+        <v>45954</v>
       </c>
       <c r="X280" t="inlineStr">
         <is>
-          <t>273V7QJAB</t>
+          <t>TAB4000/37</t>
         </is>
       </c>
       <c r="Y280" t="inlineStr">
         <is>
-          <t>MMD-273V7QJAB</t>
+          <t>050914402</t>
         </is>
       </c>
       <c r="Z280" t="n">
-        <v>60</v>
+        <v>1361</v>
       </c>
       <c r="AA280" t="n">
-        <v>60</v>
+        <v>1361</v>
       </c>
       <c r="AB280" t="inlineStr"/>
       <c r="AC280" t="inlineStr"/>
@@ -63205,22 +63215,22 @@
       </c>
       <c r="AF280" t="inlineStr">
         <is>
-          <t>Day &amp; Ross</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AG280" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>18W</t>
         </is>
       </c>
       <c r="AH280" t="inlineStr">
         <is>
-          <t>Day &amp; Ross</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AI280" t="inlineStr">
         <is>
-          <t>VAN 417 6230 3</t>
+          <t>A658563</t>
         </is>
       </c>
       <c r="AJ280" t="inlineStr">
@@ -63230,22 +63240,22 @@
       </c>
       <c r="AK280" t="inlineStr">
         <is>
-          <t>TDSYNNEX</t>
+          <t>TPVWLMT</t>
         </is>
       </c>
       <c r="AL280" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27/2025 </t>
+          <t xml:space="preserve">10/24/2025 </t>
         </is>
       </c>
       <c r="AM280" t="inlineStr">
         <is>
-          <t>10/27/2025 1:28:00 PM</t>
+          <t>10/24/2025 1:20:00 PM</t>
         </is>
       </c>
       <c r="AN280" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27/2025 </t>
+          <t>10/24/2025 5:26:09 PM</t>
         </is>
       </c>
       <c r="AO280" t="inlineStr">
@@ -63260,13 +63270,13 @@
       </c>
       <c r="AQ280" t="inlineStr">
         <is>
-          <t>Philips 27" FHD Monitor</t>
+          <t>Soundbar</t>
         </is>
       </c>
       <c r="AR280" t="inlineStr"/>
       <c r="AS280" t="inlineStr">
         <is>
-          <t>TPV-MNT</t>
+          <t>TPV-AVA</t>
         </is>
       </c>
       <c r="AT280" t="inlineStr">
@@ -63275,37 +63285,37 @@
         </is>
       </c>
       <c r="AU280" t="n">
-        <v>85.495625</v>
+        <v>201.0891677083333</v>
       </c>
       <c r="AV280" t="n">
-        <v>85.495625</v>
+        <v>201.0891677083333</v>
       </c>
       <c r="AW280" t="n">
-        <v>842.4</v>
+        <v>1687.64</v>
       </c>
       <c r="AX280" t="n">
-        <v>842.4</v>
+        <v>1687.64</v>
       </c>
       <c r="AY280" t="n">
-        <v>1.111</v>
+        <v>18.9026</v>
       </c>
       <c r="AZ280" t="inlineStr">
         <is>
-          <t>VAN 417 6230 3</t>
+          <t>A658563</t>
         </is>
       </c>
       <c r="BA280" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB280" t="n">
-        <v>609585252608</v>
+        <v>840063204546</v>
       </c>
       <c r="BC280" t="n">
         <v>10000</v>
       </c>
       <c r="BD280" t="inlineStr">
         <is>
-          <t>S00373827-10000</t>
+          <t>S00375017-10000</t>
         </is>
       </c>
     </row>
@@ -63363,34 +63373,34 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>S00374921</t>
+          <t>S00370948</t>
         </is>
       </c>
       <c r="M281" t="inlineStr"/>
       <c r="N281" t="n">
-        <v>70936928</v>
+        <v>70909635</v>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>8TVCD2BV</t>
+          <t>84HVE3ZP</t>
         </is>
       </c>
       <c r="P281" s="2" t="n">
-        <v>45951</v>
+        <v>45933</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>10/21/2025 2:02:52 PM</t>
+          <t>10/3/2025 5:36:08 PM</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>10/27/2025 4:29:20 PM</t>
+          <t xml:space="preserve">10/29/2025 </t>
         </is>
       </c>
       <c r="S281" t="inlineStr">
         <is>
-          <t>10/27/2025 4:29:20 PM</t>
+          <t xml:space="preserve">10/29/2025 </t>
         </is>
       </c>
       <c r="T281" t="inlineStr"/>
@@ -63401,23 +63411,23 @@
         </is>
       </c>
       <c r="W281" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="X281" t="inlineStr">
         <is>
-          <t>Q27G3XMN</t>
+          <t>221V8LB</t>
         </is>
       </c>
       <c r="Y281" t="inlineStr">
         <is>
-          <t>B0C8ZJKPWC</t>
+          <t>B0CVM2GJCN</t>
         </is>
       </c>
       <c r="Z281" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA281" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB281" t="inlineStr"/>
       <c r="AC281" t="inlineStr"/>
@@ -63433,22 +63443,22 @@
       </c>
       <c r="AF281" t="inlineStr">
         <is>
-          <t>CEVA Logistics (USL)</t>
+          <t>UPS Ground (small parcel)</t>
         </is>
       </c>
       <c r="AG281" t="inlineStr">
         <is>
-          <t>CEVA</t>
+          <t>UPSN</t>
         </is>
       </c>
       <c r="AH281" t="inlineStr">
         <is>
-          <t>CEVA Logistics (USL)</t>
+          <t>UPS Ground (small parcel)</t>
         </is>
       </c>
       <c r="AI281" t="inlineStr">
         <is>
-          <t>39355551961</t>
+          <t>1ZX94A632098393168</t>
         </is>
       </c>
       <c r="AJ281" t="inlineStr">
@@ -63458,20 +63468,20 @@
       </c>
       <c r="AK281" t="inlineStr">
         <is>
-          <t>AMZCSPLT</t>
+          <t>AMZCSPLTM</t>
         </is>
       </c>
       <c r="AL281" s="2" t="n">
-        <v>45957.64583333334</v>
+        <v>45959.66666666666</v>
       </c>
       <c r="AM281" t="inlineStr">
         <is>
-          <t>10/23/2025 2:00:00 PM</t>
+          <t>10/8/2025 11:30:00 AM</t>
         </is>
       </c>
       <c r="AN281" t="inlineStr">
         <is>
-          <t>10/27/2025 4:29:20 PM</t>
+          <t xml:space="preserve">10/29/2025 </t>
         </is>
       </c>
       <c r="AO281" t="inlineStr">
@@ -63486,7 +63496,7 @@
       </c>
       <c r="AQ281" t="inlineStr">
         <is>
-          <t>AOC 27" Monitor</t>
+          <t>21.5 FHD Monitor</t>
         </is>
       </c>
       <c r="AR281" t="inlineStr"/>
@@ -63501,37 +63511,37 @@
         </is>
       </c>
       <c r="AU281" t="n">
-        <v>17.6909425</v>
+        <v>5.749315</v>
       </c>
       <c r="AV281" t="n">
-        <v>17.6909425</v>
+        <v>5.749315</v>
       </c>
       <c r="AW281" t="n">
-        <v>161.52</v>
+        <v>49.32</v>
       </c>
       <c r="AX281" t="n">
-        <v>161.52</v>
+        <v>49.32</v>
       </c>
       <c r="AY281" t="n">
-        <v>0.2222</v>
+        <v>0.0638</v>
       </c>
       <c r="AZ281" t="inlineStr">
         <is>
-          <t>39355551961</t>
+          <t>1ZX94A632098393168</t>
         </is>
       </c>
       <c r="BA281" t="n">
         <v>1</v>
       </c>
       <c r="BB281" t="n">
-        <v>685417733583</v>
+        <v>609585257030</v>
       </c>
       <c r="BC281" t="n">
         <v>10000</v>
       </c>
       <c r="BD281" t="inlineStr">
         <is>
-          <t>S00374921-10000</t>
+          <t>S00370948-10000</t>
         </is>
       </c>
     </row>
@@ -63551,32 +63561,30 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D282" t="n">
-        <v>72</v>
-      </c>
+      <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
-          <t>WM CANADA</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>SUP009</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>TD SYNNEX Canada ULC</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2401 SCM WAY RR 1</t>
+          <t>6901 Credit View Road</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>Mississauga</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -63586,68 +63594,66 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>K6H 7S1</t>
+          <t>L5N 8E9</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>S00375016</t>
+          <t>S00373827</t>
         </is>
       </c>
       <c r="M282" t="inlineStr"/>
       <c r="N282" t="n">
-        <v>70940875</v>
+        <v>70929613</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>3850804289</t>
+          <t>5333943</t>
         </is>
       </c>
       <c r="P282" s="2" t="n">
-        <v>45952</v>
+        <v>45946</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>10/22/2025 9:20:49 AM</t>
+          <t>10/16/2025 2:10:58 PM</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24/2025 </t>
+          <t xml:space="preserve">10/27/2025 </t>
         </is>
       </c>
       <c r="S282" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24/2025 </t>
+          <t xml:space="preserve">10/27/2025 </t>
         </is>
       </c>
       <c r="T282" t="inlineStr"/>
-      <c r="U282" s="2" t="n">
-        <v>45964</v>
-      </c>
+      <c r="U282" t="inlineStr"/>
       <c r="V282" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W282" s="2" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="X282" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>273V7QJAB</t>
         </is>
       </c>
       <c r="Y282" t="inlineStr">
         <is>
-          <t>050914402</t>
+          <t>MMD-273V7QJAB</t>
         </is>
       </c>
       <c r="Z282" t="n">
-        <v>1495</v>
+        <v>60</v>
       </c>
       <c r="AA282" t="n">
-        <v>1495</v>
+        <v>60</v>
       </c>
       <c r="AB282" t="inlineStr"/>
       <c r="AC282" t="inlineStr"/>
@@ -63663,22 +63669,22 @@
       </c>
       <c r="AF282" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Day &amp; Ross</t>
         </is>
       </c>
       <c r="AG282" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>DAY</t>
         </is>
       </c>
       <c r="AH282" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Day &amp; Ross</t>
         </is>
       </c>
       <c r="AI282" t="inlineStr">
         <is>
-          <t>A658561</t>
+          <t>VAN 417 6230 3</t>
         </is>
       </c>
       <c r="AJ282" t="inlineStr">
@@ -63688,22 +63694,22 @@
       </c>
       <c r="AK282" t="inlineStr">
         <is>
-          <t>TPVWLMT</t>
+          <t>TDSYNNEX</t>
         </is>
       </c>
       <c r="AL282" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24/2025 </t>
+          <t xml:space="preserve">10/27/2025 </t>
         </is>
       </c>
       <c r="AM282" t="inlineStr">
         <is>
-          <t>10/24/2025 1:39:00 PM</t>
+          <t>10/27/2025 1:28:00 PM</t>
         </is>
       </c>
       <c r="AN282" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24/2025 </t>
+          <t xml:space="preserve">10/27/2025 </t>
         </is>
       </c>
       <c r="AO282" t="inlineStr">
@@ -63718,13 +63724,13 @@
       </c>
       <c r="AQ282" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>Philips 27" FHD Monitor</t>
         </is>
       </c>
       <c r="AR282" t="inlineStr"/>
       <c r="AS282" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT282" t="inlineStr">
@@ -63733,37 +63739,37 @@
         </is>
       </c>
       <c r="AU282" t="n">
-        <v>220.8878072916667</v>
+        <v>85.495625</v>
       </c>
       <c r="AV282" t="n">
-        <v>220.8878072916667</v>
+        <v>85.495625</v>
       </c>
       <c r="AW282" t="n">
-        <v>1853.8</v>
+        <v>842.4</v>
       </c>
       <c r="AX282" t="n">
-        <v>1853.8</v>
+        <v>842.4</v>
       </c>
       <c r="AY282" t="n">
-        <v>20.7639</v>
+        <v>1.111</v>
       </c>
       <c r="AZ282" t="inlineStr">
         <is>
-          <t>A658561</t>
+          <t>VAN 417 6230 3</t>
         </is>
       </c>
       <c r="BA282" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB282" t="n">
-        <v>840063204546</v>
+        <v>609585252608</v>
       </c>
       <c r="BC282" t="n">
         <v>10000</v>
       </c>
       <c r="BD282" t="inlineStr">
         <is>
-          <t>S00375016-10000</t>
+          <t>S00373827-10000</t>
         </is>
       </c>
     </row>
@@ -63783,103 +63789,99 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D283" t="n">
-        <v>72</v>
-      </c>
+      <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
-          <t>WM CANADA</t>
+          <t>AMAZON</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>AMA002</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>AMAZON.COM, CA INC.</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>109 Braid Street</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>New Westminster</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>V3L 5H4</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>S00375017</t>
+          <t>S00374921</t>
         </is>
       </c>
       <c r="M283" t="inlineStr"/>
       <c r="N283" t="n">
-        <v>70940874</v>
+        <v>70936928</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>4001224463</t>
+          <t>8TVCD2BV</t>
         </is>
       </c>
       <c r="P283" s="2" t="n">
-        <v>45952</v>
+        <v>45951</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>10/22/2025 9:20:51 AM</t>
+          <t>10/21/2025 2:02:52 PM</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>10/24/2025 5:26:09 PM</t>
+          <t>10/27/2025 4:29:20 PM</t>
         </is>
       </c>
       <c r="S283" t="inlineStr">
         <is>
-          <t>10/24/2025 5:26:09 PM</t>
+          <t>10/27/2025 4:29:20 PM</t>
         </is>
       </c>
       <c r="T283" t="inlineStr"/>
-      <c r="U283" s="2" t="n">
-        <v>45964</v>
-      </c>
+      <c r="U283" t="inlineStr"/>
       <c r="V283" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W283" s="2" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="X283" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>Q27G3XMN</t>
         </is>
       </c>
       <c r="Y283" t="inlineStr">
         <is>
-          <t>050914402</t>
+          <t>B0C8ZJKPWC</t>
         </is>
       </c>
       <c r="Z283" t="n">
-        <v>1361</v>
+        <v>8</v>
       </c>
       <c r="AA283" t="n">
-        <v>1361</v>
+        <v>8</v>
       </c>
       <c r="AB283" t="inlineStr"/>
       <c r="AC283" t="inlineStr"/>
@@ -63895,22 +63897,22 @@
       </c>
       <c r="AF283" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>CEVA Logistics (USL)</t>
         </is>
       </c>
       <c r="AG283" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>CEVA</t>
         </is>
       </c>
       <c r="AH283" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>CEVA Logistics (USL)</t>
         </is>
       </c>
       <c r="AI283" t="inlineStr">
         <is>
-          <t>A658563</t>
+          <t>39355551961</t>
         </is>
       </c>
       <c r="AJ283" t="inlineStr">
@@ -63920,22 +63922,20 @@
       </c>
       <c r="AK283" t="inlineStr">
         <is>
-          <t>TPVWLMT</t>
-        </is>
-      </c>
-      <c r="AL283" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/24/2025 </t>
-        </is>
+          <t>AMZCSPLT</t>
+        </is>
+      </c>
+      <c r="AL283" s="2" t="n">
+        <v>45957.64583333334</v>
       </c>
       <c r="AM283" t="inlineStr">
         <is>
-          <t>10/24/2025 1:20:00 PM</t>
+          <t>10/23/2025 2:00:00 PM</t>
         </is>
       </c>
       <c r="AN283" t="inlineStr">
         <is>
-          <t>10/24/2025 5:26:09 PM</t>
+          <t>10/27/2025 4:29:20 PM</t>
         </is>
       </c>
       <c r="AO283" t="inlineStr">
@@ -63950,13 +63950,13 @@
       </c>
       <c r="AQ283" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>AOC 27" Monitor</t>
         </is>
       </c>
       <c r="AR283" t="inlineStr"/>
       <c r="AS283" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT283" t="inlineStr">
@@ -63965,37 +63965,37 @@
         </is>
       </c>
       <c r="AU283" t="n">
-        <v>201.0891677083333</v>
+        <v>17.6909425</v>
       </c>
       <c r="AV283" t="n">
-        <v>201.0891677083333</v>
+        <v>17.6909425</v>
       </c>
       <c r="AW283" t="n">
-        <v>1687.64</v>
+        <v>161.52</v>
       </c>
       <c r="AX283" t="n">
-        <v>1687.64</v>
+        <v>161.52</v>
       </c>
       <c r="AY283" t="n">
-        <v>18.9026</v>
+        <v>0.2222</v>
       </c>
       <c r="AZ283" t="inlineStr">
         <is>
-          <t>A658563</t>
+          <t>39355551961</t>
         </is>
       </c>
       <c r="BA283" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB283" t="n">
-        <v>840063204546</v>
+        <v>685417733583</v>
       </c>
       <c r="BC283" t="n">
         <v>10000</v>
       </c>
       <c r="BD283" t="inlineStr">
         <is>
-          <t>S00375017-10000</t>
+          <t>S00374921-10000</t>
         </is>
       </c>
     </row>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD293"/>
+  <dimension ref="A1:BD295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63338,69 +63338,69 @@
       <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>AMA002</t>
+          <t>SUP009</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>AMAZON.COM, CA INC.</t>
+          <t>TD SYNNEX Canada ULC</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>109 Braid Street</t>
+          <t>6901 Credit View Road</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>New Westminster</t>
+          <t>Mississauga</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>V3L 5H4</t>
+          <t>L5N 8E9</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>S00370948</t>
+          <t>S00373827</t>
         </is>
       </c>
       <c r="M281" t="inlineStr"/>
       <c r="N281" t="n">
-        <v>70909635</v>
+        <v>70929613</v>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>84HVE3ZP</t>
+          <t>5333943</t>
         </is>
       </c>
       <c r="P281" s="2" t="n">
-        <v>45933</v>
+        <v>45946</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>10/3/2025 5:36:08 PM</t>
+          <t>10/16/2025 2:10:58 PM</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29/2025 </t>
+          <t xml:space="preserve">10/27/2025 </t>
         </is>
       </c>
       <c r="S281" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29/2025 </t>
+          <t xml:space="preserve">10/27/2025 </t>
         </is>
       </c>
       <c r="T281" t="inlineStr"/>
@@ -63411,23 +63411,23 @@
         </is>
       </c>
       <c r="W281" s="2" t="n">
-        <v>45959</v>
+        <v>45957</v>
       </c>
       <c r="X281" t="inlineStr">
         <is>
-          <t>221V8LB</t>
+          <t>273V7QJAB</t>
         </is>
       </c>
       <c r="Y281" t="inlineStr">
         <is>
-          <t>B0CVM2GJCN</t>
+          <t>MMD-273V7QJAB</t>
         </is>
       </c>
       <c r="Z281" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="AA281" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="AB281" t="inlineStr"/>
       <c r="AC281" t="inlineStr"/>
@@ -63443,22 +63443,22 @@
       </c>
       <c r="AF281" t="inlineStr">
         <is>
-          <t>UPS Ground (small parcel)</t>
+          <t>Day &amp; Ross</t>
         </is>
       </c>
       <c r="AG281" t="inlineStr">
         <is>
-          <t>UPSN</t>
+          <t>DAY</t>
         </is>
       </c>
       <c r="AH281" t="inlineStr">
         <is>
-          <t>UPS Ground (small parcel)</t>
+          <t>Day &amp; Ross</t>
         </is>
       </c>
       <c r="AI281" t="inlineStr">
         <is>
-          <t>1ZX94A632098393168</t>
+          <t>VAN 417 6230 3</t>
         </is>
       </c>
       <c r="AJ281" t="inlineStr">
@@ -63468,20 +63468,22 @@
       </c>
       <c r="AK281" t="inlineStr">
         <is>
-          <t>AMZCSPLTM</t>
-        </is>
-      </c>
-      <c r="AL281" s="2" t="n">
-        <v>45959.66666666666</v>
+          <t>TDSYNNEX</t>
+        </is>
+      </c>
+      <c r="AL281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/27/2025 </t>
+        </is>
       </c>
       <c r="AM281" t="inlineStr">
         <is>
-          <t>10/8/2025 11:30:00 AM</t>
+          <t>10/27/2025 1:28:00 PM</t>
         </is>
       </c>
       <c r="AN281" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29/2025 </t>
+          <t xml:space="preserve">10/27/2025 </t>
         </is>
       </c>
       <c r="AO281" t="inlineStr">
@@ -63496,7 +63498,7 @@
       </c>
       <c r="AQ281" t="inlineStr">
         <is>
-          <t>21.5 FHD Monitor</t>
+          <t>Philips 27" FHD Monitor</t>
         </is>
       </c>
       <c r="AR281" t="inlineStr"/>
@@ -63511,37 +63513,37 @@
         </is>
       </c>
       <c r="AU281" t="n">
-        <v>5.749315</v>
+        <v>85.495625</v>
       </c>
       <c r="AV281" t="n">
-        <v>5.749315</v>
+        <v>85.495625</v>
       </c>
       <c r="AW281" t="n">
-        <v>49.32</v>
+        <v>842.4</v>
       </c>
       <c r="AX281" t="n">
-        <v>49.32</v>
+        <v>842.4</v>
       </c>
       <c r="AY281" t="n">
-        <v>0.0638</v>
+        <v>1.111</v>
       </c>
       <c r="AZ281" t="inlineStr">
         <is>
-          <t>1ZX94A632098393168</t>
+          <t>VAN 417 6230 3</t>
         </is>
       </c>
       <c r="BA281" t="n">
         <v>1</v>
       </c>
       <c r="BB281" t="n">
-        <v>609585257030</v>
+        <v>609585252608</v>
       </c>
       <c r="BC281" t="n">
         <v>10000</v>
       </c>
       <c r="BD281" t="inlineStr">
         <is>
-          <t>S00370948-10000</t>
+          <t>S00373827-10000</t>
         </is>
       </c>
     </row>
@@ -63564,69 +63566,69 @@
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>AMAZON</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>SUP009</t>
+          <t>AMA002</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>TD SYNNEX Canada ULC</t>
+          <t>AMAZON.COM, CA INC.</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>6901 Credit View Road</t>
+          <t>109 Braid Street</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Mississauga</t>
+          <t>New Westminster</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>L5N 8E9</t>
+          <t>V3L 5H4</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>S00373827</t>
+          <t>S00374921</t>
         </is>
       </c>
       <c r="M282" t="inlineStr"/>
       <c r="N282" t="n">
-        <v>70929613</v>
+        <v>70936928</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>5333943</t>
+          <t>8TVCD2BV</t>
         </is>
       </c>
       <c r="P282" s="2" t="n">
-        <v>45946</v>
+        <v>45951</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>10/16/2025 2:10:58 PM</t>
+          <t>10/21/2025 2:02:52 PM</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27/2025 </t>
+          <t>10/27/2025 4:29:20 PM</t>
         </is>
       </c>
       <c r="S282" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27/2025 </t>
+          <t>10/27/2025 4:29:20 PM</t>
         </is>
       </c>
       <c r="T282" t="inlineStr"/>
@@ -63641,19 +63643,19 @@
       </c>
       <c r="X282" t="inlineStr">
         <is>
-          <t>273V7QJAB</t>
+          <t>Q27G3XMN</t>
         </is>
       </c>
       <c r="Y282" t="inlineStr">
         <is>
-          <t>MMD-273V7QJAB</t>
+          <t>B0C8ZJKPWC</t>
         </is>
       </c>
       <c r="Z282" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="AA282" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="AB282" t="inlineStr"/>
       <c r="AC282" t="inlineStr"/>
@@ -63669,22 +63671,22 @@
       </c>
       <c r="AF282" t="inlineStr">
         <is>
-          <t>Day &amp; Ross</t>
+          <t>CEVA Logistics (USL)</t>
         </is>
       </c>
       <c r="AG282" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>CEVA</t>
         </is>
       </c>
       <c r="AH282" t="inlineStr">
         <is>
-          <t>Day &amp; Ross</t>
+          <t>CEVA Logistics (USL)</t>
         </is>
       </c>
       <c r="AI282" t="inlineStr">
         <is>
-          <t>VAN 417 6230 3</t>
+          <t>39355551961</t>
         </is>
       </c>
       <c r="AJ282" t="inlineStr">
@@ -63694,22 +63696,20 @@
       </c>
       <c r="AK282" t="inlineStr">
         <is>
-          <t>TDSYNNEX</t>
-        </is>
-      </c>
-      <c r="AL282" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/27/2025 </t>
-        </is>
+          <t>AMZCSPLT</t>
+        </is>
+      </c>
+      <c r="AL282" s="2" t="n">
+        <v>45957.64583333334</v>
       </c>
       <c r="AM282" t="inlineStr">
         <is>
-          <t>10/27/2025 1:28:00 PM</t>
+          <t>10/23/2025 2:00:00 PM</t>
         </is>
       </c>
       <c r="AN282" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27/2025 </t>
+          <t>10/27/2025 4:29:20 PM</t>
         </is>
       </c>
       <c r="AO282" t="inlineStr">
@@ -63724,7 +63724,7 @@
       </c>
       <c r="AQ282" t="inlineStr">
         <is>
-          <t>Philips 27" FHD Monitor</t>
+          <t>AOC 27" Monitor</t>
         </is>
       </c>
       <c r="AR282" t="inlineStr"/>
@@ -63739,37 +63739,37 @@
         </is>
       </c>
       <c r="AU282" t="n">
-        <v>85.495625</v>
+        <v>17.6909425</v>
       </c>
       <c r="AV282" t="n">
-        <v>85.495625</v>
+        <v>17.6909425</v>
       </c>
       <c r="AW282" t="n">
-        <v>842.4</v>
+        <v>161.52</v>
       </c>
       <c r="AX282" t="n">
-        <v>842.4</v>
+        <v>161.52</v>
       </c>
       <c r="AY282" t="n">
-        <v>1.111</v>
+        <v>0.2222</v>
       </c>
       <c r="AZ282" t="inlineStr">
         <is>
-          <t>VAN 417 6230 3</t>
+          <t>39355551961</t>
         </is>
       </c>
       <c r="BA282" t="n">
         <v>1</v>
       </c>
       <c r="BB282" t="n">
-        <v>609585252608</v>
+        <v>685417733583</v>
       </c>
       <c r="BC282" t="n">
         <v>10000</v>
       </c>
       <c r="BD282" t="inlineStr">
         <is>
-          <t>S00373827-10000</t>
+          <t>S00374921-10000</t>
         </is>
       </c>
     </row>
@@ -63827,34 +63827,34 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>S00374921</t>
+          <t>S00370948</t>
         </is>
       </c>
       <c r="M283" t="inlineStr"/>
       <c r="N283" t="n">
-        <v>70936928</v>
+        <v>70909635</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>8TVCD2BV</t>
+          <t>84HVE3ZP</t>
         </is>
       </c>
       <c r="P283" s="2" t="n">
-        <v>45951</v>
+        <v>45933</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>10/21/2025 2:02:52 PM</t>
+          <t>10/3/2025 5:36:08 PM</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>10/27/2025 4:29:20 PM</t>
+          <t xml:space="preserve">10/29/2025 </t>
         </is>
       </c>
       <c r="S283" t="inlineStr">
         <is>
-          <t>10/27/2025 4:29:20 PM</t>
+          <t xml:space="preserve">10/29/2025 </t>
         </is>
       </c>
       <c r="T283" t="inlineStr"/>
@@ -63865,23 +63865,23 @@
         </is>
       </c>
       <c r="W283" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="X283" t="inlineStr">
         <is>
-          <t>Q27G3XMN</t>
+          <t>221V8LB</t>
         </is>
       </c>
       <c r="Y283" t="inlineStr">
         <is>
-          <t>B0C8ZJKPWC</t>
+          <t>B0CVM2GJCN</t>
         </is>
       </c>
       <c r="Z283" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA283" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB283" t="inlineStr"/>
       <c r="AC283" t="inlineStr"/>
@@ -63897,22 +63897,22 @@
       </c>
       <c r="AF283" t="inlineStr">
         <is>
-          <t>CEVA Logistics (USL)</t>
+          <t>UPS Ground (small parcel)</t>
         </is>
       </c>
       <c r="AG283" t="inlineStr">
         <is>
-          <t>CEVA</t>
+          <t>UPSN</t>
         </is>
       </c>
       <c r="AH283" t="inlineStr">
         <is>
-          <t>CEVA Logistics (USL)</t>
+          <t>UPS Ground (small parcel)</t>
         </is>
       </c>
       <c r="AI283" t="inlineStr">
         <is>
-          <t>39355551961</t>
+          <t>1ZX94A632098393168</t>
         </is>
       </c>
       <c r="AJ283" t="inlineStr">
@@ -63922,20 +63922,20 @@
       </c>
       <c r="AK283" t="inlineStr">
         <is>
-          <t>AMZCSPLT</t>
+          <t>AMZCSPLTM</t>
         </is>
       </c>
       <c r="AL283" s="2" t="n">
-        <v>45957.64583333334</v>
+        <v>45959.66666666666</v>
       </c>
       <c r="AM283" t="inlineStr">
         <is>
-          <t>10/23/2025 2:00:00 PM</t>
+          <t>10/8/2025 11:30:00 AM</t>
         </is>
       </c>
       <c r="AN283" t="inlineStr">
         <is>
-          <t>10/27/2025 4:29:20 PM</t>
+          <t xml:space="preserve">10/29/2025 </t>
         </is>
       </c>
       <c r="AO283" t="inlineStr">
@@ -63950,7 +63950,7 @@
       </c>
       <c r="AQ283" t="inlineStr">
         <is>
-          <t>AOC 27" Monitor</t>
+          <t>21.5 FHD Monitor</t>
         </is>
       </c>
       <c r="AR283" t="inlineStr"/>
@@ -63965,37 +63965,37 @@
         </is>
       </c>
       <c r="AU283" t="n">
-        <v>17.6909425</v>
+        <v>5.749315</v>
       </c>
       <c r="AV283" t="n">
-        <v>17.6909425</v>
+        <v>5.749315</v>
       </c>
       <c r="AW283" t="n">
-        <v>161.52</v>
+        <v>49.32</v>
       </c>
       <c r="AX283" t="n">
-        <v>161.52</v>
+        <v>49.32</v>
       </c>
       <c r="AY283" t="n">
-        <v>0.2222</v>
+        <v>0.0638</v>
       </c>
       <c r="AZ283" t="inlineStr">
         <is>
-          <t>39355551961</t>
+          <t>1ZX94A632098393168</t>
         </is>
       </c>
       <c r="BA283" t="n">
         <v>1</v>
       </c>
       <c r="BB283" t="n">
-        <v>685417733583</v>
+        <v>609585257030</v>
       </c>
       <c r="BC283" t="n">
         <v>10000</v>
       </c>
       <c r="BD283" t="inlineStr">
         <is>
-          <t>S00374921-10000</t>
+          <t>S00370948-10000</t>
         </is>
       </c>
     </row>
@@ -66292,6 +66292,462 @@
       <c r="BD293" t="inlineStr">
         <is>
           <t>S00378027-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>INGRAM MICRO CANADA</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>ING006</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>INGRAM MICRO LP</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>88 Foster Crescent</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Mississauga</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>L5R 4A2</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>S00379817</t>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="n">
+        <v>70971854</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>40Y1618S</t>
+        </is>
+      </c>
+      <c r="P294" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>11/7/2025 3:43:33 PM</t>
+        </is>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/10/2025 </t>
+        </is>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/10/2025 </t>
+        </is>
+      </c>
+      <c r="T294" t="inlineStr"/>
+      <c r="U294" t="inlineStr"/>
+      <c r="V294" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W294" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="X294" t="inlineStr">
+        <is>
+          <t>221V8L</t>
+        </is>
+      </c>
+      <c r="Y294" t="inlineStr">
+        <is>
+          <t>B09125</t>
+        </is>
+      </c>
+      <c r="Z294" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB294" t="inlineStr"/>
+      <c r="AC294" t="inlineStr"/>
+      <c r="AD294" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE294" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF294" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG294" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH294" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI294" t="inlineStr">
+        <is>
+          <t>A660153</t>
+        </is>
+      </c>
+      <c r="AJ294" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK294" t="inlineStr">
+        <is>
+          <t>TUINGRAM</t>
+        </is>
+      </c>
+      <c r="AL294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/10/2025 </t>
+        </is>
+      </c>
+      <c r="AM294" t="inlineStr">
+        <is>
+          <t>11/10/2025 12:08:00 PM</t>
+        </is>
+      </c>
+      <c r="AN294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/10/2025 </t>
+        </is>
+      </c>
+      <c r="AO294" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP294" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ294" t="inlineStr">
+        <is>
+          <t>Philips 22" FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR294" t="inlineStr"/>
+      <c r="AS294" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT294" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU294" t="n">
+        <v>87.91253125</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>87.91253125</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>739.8</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>739.8</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>2.1426</v>
+      </c>
+      <c r="AZ294" t="inlineStr">
+        <is>
+          <t>A660153</t>
+        </is>
+      </c>
+      <c r="BA294" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>609585256767</v>
+      </c>
+      <c r="BC294" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD294" t="inlineStr">
+        <is>
+          <t>S00379817-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>INGRAM MICRO CANADA</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>ING006</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>INGRAM MICRO LP</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>88 Foster Crescent</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>Mississauga</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>L5R 4A2</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>S00379817</t>
+        </is>
+      </c>
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="n">
+        <v>70971854</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>40Y1618S</t>
+        </is>
+      </c>
+      <c r="P295" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>11/7/2025 3:43:33 PM</t>
+        </is>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/10/2025 </t>
+        </is>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/10/2025 </t>
+        </is>
+      </c>
+      <c r="T295" t="inlineStr"/>
+      <c r="U295" t="inlineStr"/>
+      <c r="V295" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W295" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="X295" t="inlineStr">
+        <is>
+          <t>272B1G</t>
+        </is>
+      </c>
+      <c r="Y295" t="inlineStr">
+        <is>
+          <t>422C1S</t>
+        </is>
+      </c>
+      <c r="Z295" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB295" t="inlineStr"/>
+      <c r="AC295" t="inlineStr"/>
+      <c r="AD295" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE295" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF295" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG295" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH295" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI295" t="inlineStr">
+        <is>
+          <t>A660153</t>
+        </is>
+      </c>
+      <c r="AJ295" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK295" t="inlineStr">
+        <is>
+          <t>TUINGRAM</t>
+        </is>
+      </c>
+      <c r="AL295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/10/2025 </t>
+        </is>
+      </c>
+      <c r="AM295" t="inlineStr">
+        <is>
+          <t>11/10/2025 12:08:00 PM</t>
+        </is>
+      </c>
+      <c r="AN295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/10/2025 </t>
+        </is>
+      </c>
+      <c r="AO295" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP295" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ295" t="inlineStr">
+        <is>
+          <t>Philips 27" FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR295" t="inlineStr"/>
+      <c r="AS295" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT295" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU295" t="n">
+        <v>68.31</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>68.31</v>
+      </c>
+      <c r="AW295" t="n">
+        <v>508.56</v>
+      </c>
+      <c r="AX295" t="n">
+        <v>508.56</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>0.9231</v>
+      </c>
+      <c r="AZ295" t="inlineStr">
+        <is>
+          <t>A660153</t>
+        </is>
+      </c>
+      <c r="BA295" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB295" t="n">
+        <v>609585254657</v>
+      </c>
+      <c r="BC295" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD295" t="inlineStr">
+        <is>
+          <t>S00379817-20000</t>
         </is>
       </c>
     </row>

--- a/master.xlsx
+++ b/master.xlsx
@@ -63792,96 +63792,98 @@
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>AMA002</t>
+          <t>SUP009</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>AMAZON.COM, CA INC.</t>
+          <t>TD SYNNEX Canada ULC</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>109 Braid Street</t>
+          <t>6901 Credit View Road</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>New Westminster</t>
+          <t>Mississauga</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>V3L 5H4</t>
+          <t>L5N 8E9</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>S00370948</t>
+          <t>S00375653</t>
         </is>
       </c>
       <c r="M283" t="inlineStr"/>
       <c r="N283" t="n">
-        <v>70909635</v>
+        <v>70945088</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>84HVE3ZP</t>
+          <t>5413381</t>
         </is>
       </c>
       <c r="P283" s="2" t="n">
-        <v>45933</v>
+        <v>45954</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>10/3/2025 5:36:08 PM</t>
+          <t>10/24/2025 10:59:04 AM</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29/2025 </t>
+          <t xml:space="preserve">10/28/2025 </t>
         </is>
       </c>
       <c r="S283" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29/2025 </t>
+          <t xml:space="preserve">10/28/2025 </t>
         </is>
       </c>
       <c r="T283" t="inlineStr"/>
-      <c r="U283" t="inlineStr"/>
+      <c r="U283" s="2" t="n">
+        <v>46070</v>
+      </c>
       <c r="V283" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W283" s="2" t="n">
-        <v>45959</v>
+        <v>45958</v>
       </c>
       <c r="X283" t="inlineStr">
         <is>
-          <t>221V8LB</t>
+          <t>243V7QJAB</t>
         </is>
       </c>
       <c r="Y283" t="inlineStr">
         <is>
-          <t>B0CVM2GJCN</t>
+          <t>MMD-243V7QJAB</t>
         </is>
       </c>
       <c r="Z283" t="n">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="AA283" t="n">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="AB283" t="inlineStr"/>
       <c r="AC283" t="inlineStr"/>
@@ -63897,22 +63899,22 @@
       </c>
       <c r="AF283" t="inlineStr">
         <is>
-          <t>UPS Ground (small parcel)</t>
+          <t>Day &amp; Ross</t>
         </is>
       </c>
       <c r="AG283" t="inlineStr">
         <is>
-          <t>UPSN</t>
+          <t>DAY</t>
         </is>
       </c>
       <c r="AH283" t="inlineStr">
         <is>
-          <t>UPS Ground (small parcel)</t>
+          <t>Day &amp; Ross</t>
         </is>
       </c>
       <c r="AI283" t="inlineStr">
         <is>
-          <t>1ZX94A632098393168</t>
+          <t>VAN 400 6391 9</t>
         </is>
       </c>
       <c r="AJ283" t="inlineStr">
@@ -63922,20 +63924,22 @@
       </c>
       <c r="AK283" t="inlineStr">
         <is>
-          <t>AMZCSPLTM</t>
-        </is>
-      </c>
-      <c r="AL283" s="2" t="n">
-        <v>45959.66666666666</v>
+          <t>TDSYNNEX</t>
+        </is>
+      </c>
+      <c r="AL283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/28/2025 </t>
+        </is>
       </c>
       <c r="AM283" t="inlineStr">
         <is>
-          <t>10/8/2025 11:30:00 AM</t>
+          <t>10/28/2025 10:00:00 AM</t>
         </is>
       </c>
       <c r="AN283" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29/2025 </t>
+          <t xml:space="preserve">10/28/2025 </t>
         </is>
       </c>
       <c r="AO283" t="inlineStr">
@@ -63950,7 +63954,7 @@
       </c>
       <c r="AQ283" t="inlineStr">
         <is>
-          <t>21.5 FHD Monitor</t>
+          <t>Philips 24" FHD Monitor</t>
         </is>
       </c>
       <c r="AR283" t="inlineStr"/>
@@ -63965,37 +63969,37 @@
         </is>
       </c>
       <c r="AU283" t="n">
-        <v>5.749315</v>
+        <v>140.91</v>
       </c>
       <c r="AV283" t="n">
-        <v>5.749315</v>
+        <v>140.91</v>
       </c>
       <c r="AW283" t="n">
-        <v>49.32</v>
+        <v>1356.8</v>
       </c>
       <c r="AX283" t="n">
-        <v>49.32</v>
+        <v>1356.8</v>
       </c>
       <c r="AY283" t="n">
-        <v>0.0638</v>
+        <v>1.829</v>
       </c>
       <c r="AZ283" t="inlineStr">
         <is>
-          <t>1ZX94A632098393168</t>
+          <t>VAN 400 6391 9</t>
         </is>
       </c>
       <c r="BA283" t="n">
         <v>1</v>
       </c>
       <c r="BB283" t="n">
-        <v>609585257030</v>
+        <v>609585251434</v>
       </c>
       <c r="BC283" t="n">
         <v>10000</v>
       </c>
       <c r="BD283" t="inlineStr">
         <is>
-          <t>S00370948-10000</t>
+          <t>S00375653-10000</t>
         </is>
       </c>
     </row>
@@ -64018,27 +64022,27 @@
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA</t>
+          <t>AMAZON</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>AMA002</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>AMAZON.COM, CA INC.</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>DC#1008, 19890-92A AVE.</t>
+          <t>109 Braid Street</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>LANGLEY</t>
+          <t>New Westminster</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -64048,68 +64052,66 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>V1M 3A9</t>
+          <t>V3L 5H4</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>S00375054</t>
+          <t>S00370948</t>
         </is>
       </c>
       <c r="M284" t="inlineStr"/>
       <c r="N284" t="n">
-        <v>70940963</v>
+        <v>70909635</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>59344911</t>
+          <t>84HVE3ZP</t>
         </is>
       </c>
       <c r="P284" s="2" t="n">
-        <v>45952</v>
+        <v>45933</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>10/22/2025 9:51:10 AM</t>
+          <t>10/3/2025 5:36:08 PM</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6/2025 </t>
+          <t xml:space="preserve">10/29/2025 </t>
         </is>
       </c>
       <c r="S284" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6/2025 </t>
+          <t xml:space="preserve">10/29/2025 </t>
         </is>
       </c>
       <c r="T284" t="inlineStr"/>
-      <c r="U284" s="2" t="n">
-        <v>45964</v>
-      </c>
+      <c r="U284" t="inlineStr"/>
       <c r="V284" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W284" s="2" t="n">
-        <v>45967</v>
+        <v>45959</v>
       </c>
       <c r="X284" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
+          <t>221V8LB</t>
         </is>
       </c>
       <c r="Y284" t="inlineStr">
         <is>
-          <t>18597408</t>
+          <t>B0CVM2GJCN</t>
         </is>
       </c>
       <c r="Z284" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AA284" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AB284" t="inlineStr"/>
       <c r="AC284" t="inlineStr"/>
@@ -64125,22 +64127,22 @@
       </c>
       <c r="AF284" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>UPS Ground (small parcel)</t>
         </is>
       </c>
       <c r="AG284" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>UPSN</t>
         </is>
       </c>
       <c r="AH284" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>UPS Ground (small parcel)</t>
         </is>
       </c>
       <c r="AI284" t="inlineStr">
         <is>
-          <t xml:space="preserve">A659398 </t>
+          <t>1ZX94A632098393168</t>
         </is>
       </c>
       <c r="AJ284" t="inlineStr">
@@ -64150,22 +64152,20 @@
       </c>
       <c r="AK284" t="inlineStr">
         <is>
-          <t>TPVBB</t>
-        </is>
-      </c>
-      <c r="AL284" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/6/2025 </t>
-        </is>
+          <t>AMZCSPLTM</t>
+        </is>
+      </c>
+      <c r="AL284" s="2" t="n">
+        <v>45959.66666666666</v>
       </c>
       <c r="AM284" t="inlineStr">
         <is>
-          <t>11/6/2025 8:13:00 AM</t>
+          <t>10/8/2025 11:30:00 AM</t>
         </is>
       </c>
       <c r="AN284" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6/2025 </t>
+          <t xml:space="preserve">10/29/2025 </t>
         </is>
       </c>
       <c r="AO284" t="inlineStr">
@@ -64180,13 +64180,13 @@
       </c>
       <c r="AQ284" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>21.5 FHD Monitor</t>
         </is>
       </c>
       <c r="AR284" t="inlineStr"/>
       <c r="AS284" t="inlineStr">
         <is>
-          <t>TPV-AVA</t>
+          <t>TPV-MNT</t>
         </is>
       </c>
       <c r="AT284" t="inlineStr">
@@ -64195,37 +64195,37 @@
         </is>
       </c>
       <c r="AU284" t="n">
-        <v>6.427917361111111</v>
+        <v>5.749315</v>
       </c>
       <c r="AV284" t="n">
-        <v>6.427917361111111</v>
+        <v>5.749315</v>
       </c>
       <c r="AW284" t="n">
-        <v>0</v>
+        <v>49.32</v>
       </c>
       <c r="AX284" t="n">
-        <v>0</v>
+        <v>49.32</v>
       </c>
       <c r="AY284" t="n">
-        <v>0.303</v>
+        <v>0.0638</v>
       </c>
       <c r="AZ284" t="inlineStr">
         <is>
-          <t xml:space="preserve">A659398 </t>
+          <t>1ZX94A632098393168</t>
         </is>
       </c>
       <c r="BA284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB284" t="n">
-        <v>840063203563</v>
+        <v>609585257030</v>
       </c>
       <c r="BC284" t="n">
         <v>10000</v>
       </c>
       <c r="BD284" t="inlineStr">
         <is>
-          <t>S00375054-10000</t>
+          <t>S00370948-10000</t>
         </is>
       </c>
     </row>
@@ -64263,36 +64263,36 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>DC#1016, 9200 AIRPORT RD.</t>
+          <t>DC#1008, 19890-92A AVE.</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>LANGLEY</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>L6S 6G6</t>
+          <t>V1M 3A9</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>S00375055</t>
+          <t>S00375054</t>
         </is>
       </c>
       <c r="M285" t="inlineStr"/>
       <c r="N285" t="n">
-        <v>70940964</v>
+        <v>70940963</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>59344912</t>
+          <t>59344911</t>
         </is>
       </c>
       <c r="P285" s="2" t="n">
@@ -64300,17 +64300,17 @@
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>10/22/2025 9:51:12 AM</t>
+          <t>10/22/2025 9:51:10 AM</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="S285" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="T285" t="inlineStr"/>
@@ -64323,7 +64323,7 @@
         </is>
       </c>
       <c r="W285" s="2" t="n">
-        <v>45964</v>
+        <v>45967</v>
       </c>
       <c r="X285" t="inlineStr">
         <is>
@@ -64336,10 +64336,10 @@
         </is>
       </c>
       <c r="Z285" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AA285" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AB285" t="inlineStr"/>
       <c r="AC285" t="inlineStr"/>
@@ -64370,7 +64370,7 @@
       </c>
       <c r="AI285" t="inlineStr">
         <is>
-          <t xml:space="preserve">A659372 </t>
+          <t xml:space="preserve">A659398 </t>
         </is>
       </c>
       <c r="AJ285" t="inlineStr">
@@ -64385,17 +64385,17 @@
       </c>
       <c r="AL285" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="AM285" t="inlineStr">
         <is>
-          <t>11/3/2025 1:18:00 PM</t>
+          <t>11/6/2025 8:13:00 AM</t>
         </is>
       </c>
       <c r="AN285" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="AO285" t="inlineStr">
@@ -64425,10 +64425,10 @@
         </is>
       </c>
       <c r="AU285" t="n">
-        <v>9.641876041666666</v>
+        <v>6.427917361111111</v>
       </c>
       <c r="AV285" t="n">
-        <v>9.641876041666666</v>
+        <v>6.427917361111111</v>
       </c>
       <c r="AW285" t="n">
         <v>0</v>
@@ -64437,11 +64437,11 @@
         <v>0</v>
       </c>
       <c r="AY285" t="n">
-        <v>0.4546</v>
+        <v>0.303</v>
       </c>
       <c r="AZ285" t="inlineStr">
         <is>
-          <t xml:space="preserve">A659372 </t>
+          <t xml:space="preserve">A659398 </t>
         </is>
       </c>
       <c r="BA285" t="n">
@@ -64455,7 +64455,7 @@
       </c>
       <c r="BD285" t="inlineStr">
         <is>
-          <t>S00375055-10000</t>
+          <t>S00375054-10000</t>
         </is>
       </c>
     </row>
@@ -64478,27 +64478,27 @@
       <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>BEST BUY CANADA</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>SUP009</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>TD SYNNEX Canada ULC</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>6901 Credit View Road</t>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Mississauga</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -64508,44 +64508,44 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>L5N 8E9</t>
+          <t>L6S 6G6</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>S00375653</t>
+          <t>S00375055</t>
         </is>
       </c>
       <c r="M286" t="inlineStr"/>
       <c r="N286" t="n">
-        <v>70945088</v>
+        <v>70940964</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>5413381</t>
+          <t>59344912</t>
         </is>
       </c>
       <c r="P286" s="2" t="n">
-        <v>45954</v>
+        <v>45952</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>10/24/2025 10:59:04 AM</t>
+          <t>10/22/2025 9:51:12 AM</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="T286" t="inlineStr"/>
       <c r="U286" s="2" t="n">
-        <v>46070</v>
+        <v>45964</v>
       </c>
       <c r="V286" t="inlineStr">
         <is>
@@ -64553,23 +64553,23 @@
         </is>
       </c>
       <c r="W286" s="2" t="n">
-        <v>45958</v>
+        <v>45964</v>
       </c>
       <c r="X286" t="inlineStr">
         <is>
-          <t>243V7QJAB</t>
+          <t>TAB5109/37</t>
         </is>
       </c>
       <c r="Y286" t="inlineStr">
         <is>
-          <t>MMD-243V7QJAB</t>
+          <t>18597408</t>
         </is>
       </c>
       <c r="Z286" t="n">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="AA286" t="n">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="AB286" t="inlineStr"/>
       <c r="AC286" t="inlineStr"/>
@@ -64585,22 +64585,22 @@
       </c>
       <c r="AF286" t="inlineStr">
         <is>
-          <t>Day &amp; Ross</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AG286" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>18W</t>
         </is>
       </c>
       <c r="AH286" t="inlineStr">
         <is>
-          <t>Day &amp; Ross</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AI286" t="inlineStr">
         <is>
-          <t>VAN 400 6391 9</t>
+          <t xml:space="preserve">A659372 </t>
         </is>
       </c>
       <c r="AJ286" t="inlineStr">
@@ -64610,22 +64610,22 @@
       </c>
       <c r="AK286" t="inlineStr">
         <is>
-          <t>TDSYNNEX</t>
+          <t>TPVBB</t>
         </is>
       </c>
       <c r="AL286" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="AM286" t="inlineStr">
         <is>
-          <t>10/28/2025 10:00:00 AM</t>
+          <t>11/3/2025 1:18:00 PM</t>
         </is>
       </c>
       <c r="AN286" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="AO286" t="inlineStr">
@@ -64640,13 +64640,13 @@
       </c>
       <c r="AQ286" t="inlineStr">
         <is>
-          <t>Philips 24" FHD Monitor</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR286" t="inlineStr"/>
       <c r="AS286" t="inlineStr">
         <is>
-          <t>TPV-MNT</t>
+          <t>TPV-AVA</t>
         </is>
       </c>
       <c r="AT286" t="inlineStr">
@@ -64655,37 +64655,37 @@
         </is>
       </c>
       <c r="AU286" t="n">
-        <v>140.91</v>
+        <v>9.641876041666666</v>
       </c>
       <c r="AV286" t="n">
-        <v>140.91</v>
+        <v>9.641876041666666</v>
       </c>
       <c r="AW286" t="n">
-        <v>1356.8</v>
+        <v>0</v>
       </c>
       <c r="AX286" t="n">
-        <v>1356.8</v>
+        <v>0</v>
       </c>
       <c r="AY286" t="n">
-        <v>1.829</v>
+        <v>0.4546</v>
       </c>
       <c r="AZ286" t="inlineStr">
         <is>
-          <t>VAN 400 6391 9</t>
+          <t xml:space="preserve">A659372 </t>
         </is>
       </c>
       <c r="BA286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB286" t="n">
-        <v>609585251434</v>
+        <v>840063203563</v>
       </c>
       <c r="BC286" t="n">
         <v>10000</v>
       </c>
       <c r="BD286" t="inlineStr">
         <is>
-          <t>S00375653-10000</t>
+          <t>S00375055-10000</t>
         </is>
       </c>
     </row>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD295"/>
+  <dimension ref="A1:BD296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66751,6 +66751,238 @@
         </is>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>72</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>S00379914</t>
+        </is>
+      </c>
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="n">
+        <v>70974315</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>3150834113</t>
+        </is>
+      </c>
+      <c r="P296" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>11/10/2025 7:22:16 AM</t>
+        </is>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/13/2025 </t>
+        </is>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/13/2025 </t>
+        </is>
+      </c>
+      <c r="T296" t="inlineStr"/>
+      <c r="U296" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="V296" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W296" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="X296" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y296" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
+      </c>
+      <c r="Z296" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB296" t="inlineStr"/>
+      <c r="AC296" t="inlineStr"/>
+      <c r="AD296" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE296" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF296" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG296" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH296" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI296" t="inlineStr">
+        <is>
+          <t>A660351</t>
+        </is>
+      </c>
+      <c r="AJ296" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK296" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/13/2025 </t>
+        </is>
+      </c>
+      <c r="AM296" t="inlineStr">
+        <is>
+          <t>11/13/2025 2:17:00 PM</t>
+        </is>
+      </c>
+      <c r="AN296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/13/2025 </t>
+        </is>
+      </c>
+      <c r="AO296" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP296" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ296" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR296" t="inlineStr"/>
+      <c r="AS296" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT296" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU296" t="n">
+        <v>29.49911127777778</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>29.49911127777778</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AZ296" t="inlineStr">
+        <is>
+          <t>A660351</t>
+        </is>
+      </c>
+      <c r="BA296" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB296" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC296" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD296" t="inlineStr">
+        <is>
+          <t>S00379914-10000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -64245,72 +64245,74 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D285" t="inlineStr"/>
+      <c r="D285" t="n">
+        <v>72</v>
+      </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>DC#1008, 19890-92A AVE.</t>
+          <t>3400 - 39TH AVENUE N.E.</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>LANGLEY</t>
+          <t>CALGARY</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>V1M 3A9</t>
+          <t>T1Y 7J4</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>S00375054</t>
+          <t>S00377540</t>
         </is>
       </c>
       <c r="M285" t="inlineStr"/>
       <c r="N285" t="n">
-        <v>70940963</v>
+        <v>70959362</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>59344911</t>
+          <t>3150833974</t>
         </is>
       </c>
       <c r="P285" s="2" t="n">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>10/22/2025 9:51:10 AM</t>
+          <t>10/31/2025 5:43:51 AM</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6/2025 </t>
+          <t xml:space="preserve">10/31/2025 </t>
         </is>
       </c>
       <c r="S285" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6/2025 </t>
+          <t xml:space="preserve">10/31/2025 </t>
         </is>
       </c>
       <c r="T285" t="inlineStr"/>
@@ -64323,23 +64325,23 @@
         </is>
       </c>
       <c r="W285" s="2" t="n">
-        <v>45967</v>
+        <v>45961</v>
       </c>
       <c r="X285" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
+          <t>TAB4000/37</t>
         </is>
       </c>
       <c r="Y285" t="inlineStr">
         <is>
-          <t>18597408</t>
+          <t>050914402</t>
         </is>
       </c>
       <c r="Z285" t="n">
-        <v>20</v>
+        <v>1771</v>
       </c>
       <c r="AA285" t="n">
-        <v>20</v>
+        <v>1771</v>
       </c>
       <c r="AB285" t="inlineStr"/>
       <c r="AC285" t="inlineStr"/>
@@ -64370,7 +64372,7 @@
       </c>
       <c r="AI285" t="inlineStr">
         <is>
-          <t xml:space="preserve">A659398 </t>
+          <t>A659216</t>
         </is>
       </c>
       <c r="AJ285" t="inlineStr">
@@ -64380,22 +64382,22 @@
       </c>
       <c r="AK285" t="inlineStr">
         <is>
-          <t>TPVBB</t>
+          <t>TPVWLMT</t>
         </is>
       </c>
       <c r="AL285" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6/2025 </t>
+          <t xml:space="preserve">10/31/2025 </t>
         </is>
       </c>
       <c r="AM285" t="inlineStr">
         <is>
-          <t>11/6/2025 8:13:00 AM</t>
+          <t>10/31/2025 1:00:00 PM</t>
         </is>
       </c>
       <c r="AN285" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6/2025 </t>
+          <t xml:space="preserve">10/31/2025 </t>
         </is>
       </c>
       <c r="AO285" t="inlineStr">
@@ -64410,7 +64412,7 @@
       </c>
       <c r="AQ285" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>Soundbar</t>
         </is>
       </c>
       <c r="AR285" t="inlineStr"/>
@@ -64425,37 +64427,37 @@
         </is>
       </c>
       <c r="AU285" t="n">
-        <v>6.427917361111111</v>
+        <v>261.6670947916667</v>
       </c>
       <c r="AV285" t="n">
-        <v>6.427917361111111</v>
+        <v>261.6670947916667</v>
       </c>
       <c r="AW285" t="n">
-        <v>0</v>
+        <v>2196.04</v>
       </c>
       <c r="AX285" t="n">
-        <v>0</v>
+        <v>2196.04</v>
       </c>
       <c r="AY285" t="n">
-        <v>0.303</v>
+        <v>24.5973</v>
       </c>
       <c r="AZ285" t="inlineStr">
         <is>
-          <t xml:space="preserve">A659398 </t>
+          <t>A659216</t>
         </is>
       </c>
       <c r="BA285" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB285" t="n">
-        <v>840063203563</v>
+        <v>840063204546</v>
       </c>
       <c r="BC285" t="n">
         <v>10000</v>
       </c>
       <c r="BD285" t="inlineStr">
         <is>
-          <t>S00375054-10000</t>
+          <t>S00377540-10000</t>
         </is>
       </c>
     </row>
@@ -64475,30 +64477,32 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D286" t="inlineStr"/>
+      <c r="D286" t="n">
+        <v>72</v>
+      </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA</t>
+          <t>WM CANADA</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>WAL005</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>WAL-MART CANADA CORP</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>DC#1016, 9200 AIRPORT RD.</t>
+          <t>6800 MARITZ DRIVE</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -64508,39 +64512,39 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>L6S 6G6</t>
+          <t>L5W 1W2</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>S00375055</t>
+          <t>S00377541</t>
         </is>
       </c>
       <c r="M286" t="inlineStr"/>
       <c r="N286" t="n">
-        <v>70940964</v>
+        <v>70959499</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>59344912</t>
+          <t>4001224463</t>
         </is>
       </c>
       <c r="P286" s="2" t="n">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>10/22/2025 9:51:12 AM</t>
+          <t>10/31/2025 5:43:53 AM</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">10/31/2025 </t>
         </is>
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">10/31/2025 </t>
         </is>
       </c>
       <c r="T286" t="inlineStr"/>
@@ -64553,18 +64557,14 @@
         </is>
       </c>
       <c r="W286" s="2" t="n">
-        <v>45964</v>
+        <v>45961</v>
       </c>
       <c r="X286" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
-        </is>
-      </c>
-      <c r="Y286" t="inlineStr">
-        <is>
-          <t>18597408</t>
-        </is>
-      </c>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y286" t="inlineStr"/>
       <c r="Z286" t="n">
         <v>30</v>
       </c>
@@ -64585,22 +64585,22 @@
       </c>
       <c r="AF286" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>FEDEX - GROUND</t>
         </is>
       </c>
       <c r="AG286" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>FEDX</t>
         </is>
       </c>
       <c r="AH286" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>FEDEX - GROUND</t>
         </is>
       </c>
       <c r="AI286" t="inlineStr">
         <is>
-          <t xml:space="preserve">A659372 </t>
+          <t>8856 5312 7169</t>
         </is>
       </c>
       <c r="AJ286" t="inlineStr">
@@ -64610,22 +64610,22 @@
       </c>
       <c r="AK286" t="inlineStr">
         <is>
-          <t>TPVBB</t>
+          <t>TPVWLMT</t>
         </is>
       </c>
       <c r="AL286" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">10/31/2025 </t>
         </is>
       </c>
       <c r="AM286" t="inlineStr">
         <is>
-          <t>11/3/2025 1:18:00 PM</t>
+          <t>10/31/2025 12:30:00 PM</t>
         </is>
       </c>
       <c r="AN286" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">10/31/2025 </t>
         </is>
       </c>
       <c r="AO286" t="inlineStr">
@@ -64640,7 +64640,7 @@
       </c>
       <c r="AQ286" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>Soundbar</t>
         </is>
       </c>
       <c r="AR286" t="inlineStr"/>
@@ -64655,37 +64655,37 @@
         </is>
       </c>
       <c r="AU286" t="n">
-        <v>9.641876041666666</v>
+        <v>4.43253125</v>
       </c>
       <c r="AV286" t="n">
-        <v>9.641876041666666</v>
+        <v>4.43253125</v>
       </c>
       <c r="AW286" t="n">
-        <v>0</v>
+        <v>37.2</v>
       </c>
       <c r="AX286" t="n">
-        <v>0</v>
+        <v>37.2</v>
       </c>
       <c r="AY286" t="n">
-        <v>0.4546</v>
+        <v>0.4166</v>
       </c>
       <c r="AZ286" t="inlineStr">
         <is>
-          <t xml:space="preserve">A659372 </t>
+          <t>8856 5312 7169</t>
         </is>
       </c>
       <c r="BA286" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB286" t="n">
-        <v>840063203563</v>
+        <v>840063204546</v>
       </c>
       <c r="BC286" t="n">
         <v>10000</v>
       </c>
       <c r="BD286" t="inlineStr">
         <is>
-          <t>S00375055-10000</t>
+          <t>S00377541-10000</t>
         </is>
       </c>
     </row>
@@ -64708,92 +64708,98 @@
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>BEST BUY CANADA</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>JDC001</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>JAACX DISTRIBUTORS CORPORATION</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2275 NW 84th Ave</t>
+          <t>DC#1008, 19890-92A AVE.</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>LANGLEY</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>33122</t>
+          <t>V1M 3A9</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>S00376546</t>
+          <t>S00375054</t>
         </is>
       </c>
       <c r="M287" t="inlineStr"/>
       <c r="N287" t="n">
-        <v>70950747</v>
+        <v>70940963</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>3664</t>
+          <t>59344911</t>
         </is>
       </c>
       <c r="P287" s="2" t="n">
-        <v>45958</v>
+        <v>45952</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>10/28/2025 8:11:30 AM</t>
+          <t>10/22/2025 9:51:10 AM</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="T287" t="inlineStr"/>
-      <c r="U287" t="inlineStr"/>
+      <c r="U287" s="2" t="n">
+        <v>45964</v>
+      </c>
       <c r="V287" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W287" s="2" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="X287" t="inlineStr">
         <is>
-          <t>TAT1108BK/00</t>
-        </is>
-      </c>
-      <c r="Y287" t="inlineStr"/>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y287" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
+      </c>
       <c r="Z287" t="n">
-        <v>1800</v>
+        <v>20</v>
       </c>
       <c r="AA287" t="n">
-        <v>1800</v>
+        <v>20</v>
       </c>
       <c r="AB287" t="inlineStr"/>
       <c r="AC287" t="inlineStr"/>
@@ -64809,47 +64815,47 @@
       </c>
       <c r="AF287" t="inlineStr">
         <is>
-          <t>Primary Freight Services Inc</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AG287" t="inlineStr">
         <is>
-          <t>PRIMARY</t>
+          <t>18W</t>
         </is>
       </c>
       <c r="AH287" t="inlineStr">
         <is>
-          <t>Primary Freight Services Inc</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AI287" t="inlineStr">
         <is>
-          <t>167 600 183</t>
+          <t xml:space="preserve">A659398 </t>
         </is>
       </c>
       <c r="AJ287" t="inlineStr">
         <is>
-          <t>Prepaid</t>
+          <t>Collect</t>
         </is>
       </c>
       <c r="AK287" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>TPVBB</t>
         </is>
       </c>
       <c r="AL287" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="AM287" t="inlineStr">
         <is>
-          <t>11/5/2025 12:10:00 PM</t>
+          <t>11/6/2025 8:13:00 AM</t>
         </is>
       </c>
       <c r="AN287" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="AO287" t="inlineStr">
@@ -64864,7 +64870,7 @@
       </c>
       <c r="AQ287" t="inlineStr">
         <is>
-          <t>TWS, 6mm driver, 1 AI mic, IPX4, SBC, 15</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR287" t="inlineStr"/>
@@ -64879,10 +64885,10 @@
         </is>
       </c>
       <c r="AU287" t="n">
-        <v>1.102033854166667</v>
+        <v>6.427917361111111</v>
       </c>
       <c r="AV287" t="n">
-        <v>1.102033854166667</v>
+        <v>6.427917361111111</v>
       </c>
       <c r="AW287" t="n">
         <v>0</v>
@@ -64891,23 +64897,25 @@
         <v>0</v>
       </c>
       <c r="AY287" t="n">
-        <v>0.4934</v>
+        <v>0.303</v>
       </c>
       <c r="AZ287" t="inlineStr">
         <is>
-          <t>167 600 183</t>
+          <t xml:space="preserve">A659398 </t>
         </is>
       </c>
       <c r="BA287" t="n">
-        <v>24</v>
-      </c>
-      <c r="BB287" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>840063203563</v>
+      </c>
       <c r="BC287" t="n">
         <v>10000</v>
       </c>
       <c r="BD287" t="inlineStr">
         <is>
-          <t>S00376546-10000</t>
+          <t>S00375054-10000</t>
         </is>
       </c>
     </row>
@@ -64965,24 +64973,24 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>S00377130</t>
+          <t>S00375055</t>
         </is>
       </c>
       <c r="M288" t="inlineStr"/>
       <c r="N288" t="n">
-        <v>70954042</v>
+        <v>70940964</v>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>59365797</t>
+          <t>59344912</t>
         </is>
       </c>
       <c r="P288" s="2" t="n">
-        <v>45959</v>
+        <v>45952</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>10/29/2025 12:50:06 PM</t>
+          <t>10/22/2025 9:51:12 AM</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
@@ -65018,10 +65026,10 @@
         </is>
       </c>
       <c r="Z288" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AA288" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AB288" t="inlineStr"/>
       <c r="AC288" t="inlineStr"/>
@@ -65107,10 +65115,10 @@
         </is>
       </c>
       <c r="AU288" t="n">
-        <v>12.85583472222222</v>
+        <v>9.641876041666666</v>
       </c>
       <c r="AV288" t="n">
-        <v>12.85583472222222</v>
+        <v>9.641876041666666</v>
       </c>
       <c r="AW288" t="n">
         <v>0</v>
@@ -65119,7 +65127,7 @@
         <v>0</v>
       </c>
       <c r="AY288" t="n">
-        <v>0.6061</v>
+        <v>0.4546</v>
       </c>
       <c r="AZ288" t="inlineStr">
         <is>
@@ -65137,7 +65145,7 @@
       </c>
       <c r="BD288" t="inlineStr">
         <is>
-          <t>S00377130-10000</t>
+          <t>S00375055-10000</t>
         </is>
       </c>
     </row>
@@ -65160,98 +65168,92 @@
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>JDC001</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>JAACX DISTRIBUTORS CORPORATION</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>DC#1008, 19890-92A AVE.</t>
+          <t>2275 NW 84th Ave</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>LANGLEY</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>V1M 3A9</t>
+          <t>33122</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>S00377131</t>
+          <t>S00376546</t>
         </is>
       </c>
       <c r="M289" t="inlineStr"/>
       <c r="N289" t="n">
-        <v>70954041</v>
+        <v>70950747</v>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>59365796</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="P289" s="2" t="n">
-        <v>45959</v>
+        <v>45958</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>10/29/2025 12:50:06 PM</t>
+          <t>10/28/2025 8:11:30 AM</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="S289" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="T289" t="inlineStr"/>
-      <c r="U289" s="2" t="n">
-        <v>45964</v>
-      </c>
+      <c r="U289" t="inlineStr"/>
       <c r="V289" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W289" s="2" t="n">
-        <v>45967</v>
+        <v>45966</v>
       </c>
       <c r="X289" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
-        </is>
-      </c>
-      <c r="Y289" t="inlineStr">
-        <is>
-          <t>18597408</t>
-        </is>
-      </c>
+          <t>TAT1108BK/00</t>
+        </is>
+      </c>
+      <c r="Y289" t="inlineStr"/>
       <c r="Z289" t="n">
-        <v>10</v>
+        <v>1800</v>
       </c>
       <c r="AA289" t="n">
-        <v>10</v>
+        <v>1800</v>
       </c>
       <c r="AB289" t="inlineStr"/>
       <c r="AC289" t="inlineStr"/>
@@ -65267,47 +65269,47 @@
       </c>
       <c r="AF289" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Primary Freight Services Inc</t>
         </is>
       </c>
       <c r="AG289" t="inlineStr">
         <is>
+          <t>PRIMARY</t>
+        </is>
+      </c>
+      <c r="AH289" t="inlineStr">
+        <is>
+          <t>Primary Freight Services Inc</t>
+        </is>
+      </c>
+      <c r="AI289" t="inlineStr">
+        <is>
+          <t>167 600 183</t>
+        </is>
+      </c>
+      <c r="AJ289" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK289" t="inlineStr">
+        <is>
           <t>18W</t>
         </is>
       </c>
-      <c r="AH289" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI289" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A659398 </t>
-        </is>
-      </c>
-      <c r="AJ289" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK289" t="inlineStr">
-        <is>
-          <t>TPVBB</t>
-        </is>
-      </c>
       <c r="AL289" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="AM289" t="inlineStr">
         <is>
-          <t>11/6/2025 8:13:00 AM</t>
+          <t>11/5/2025 12:10:00 PM</t>
         </is>
       </c>
       <c r="AN289" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="AO289" t="inlineStr">
@@ -65322,7 +65324,7 @@
       </c>
       <c r="AQ289" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>TWS, 6mm driver, 1 AI mic, IPX4, SBC, 15</t>
         </is>
       </c>
       <c r="AR289" t="inlineStr"/>
@@ -65337,10 +65339,10 @@
         </is>
       </c>
       <c r="AU289" t="n">
-        <v>3.213958680555556</v>
+        <v>1.102033854166667</v>
       </c>
       <c r="AV289" t="n">
-        <v>3.213958680555556</v>
+        <v>1.102033854166667</v>
       </c>
       <c r="AW289" t="n">
         <v>0</v>
@@ -65349,25 +65351,23 @@
         <v>0</v>
       </c>
       <c r="AY289" t="n">
-        <v>0.1515</v>
+        <v>0.4934</v>
       </c>
       <c r="AZ289" t="inlineStr">
         <is>
-          <t xml:space="preserve">A659398 </t>
+          <t>167 600 183</t>
         </is>
       </c>
       <c r="BA289" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB289" t="n">
-        <v>840063203563</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="BB289" t="inlineStr"/>
       <c r="BC289" t="n">
         <v>10000</v>
       </c>
       <c r="BD289" t="inlineStr">
         <is>
-          <t>S00377131-10000</t>
+          <t>S00376546-10000</t>
         </is>
       </c>
     </row>
@@ -65387,74 +65387,72 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D290" t="n">
-        <v>72</v>
-      </c>
+      <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
-          <t>WM CANADA</t>
+          <t>BEST BUY CANADA</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>3400 - 39TH AVENUE N.E.</t>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>CALGARY</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>T1Y 7J4</t>
+          <t>L6S 6G6</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>S00377540</t>
+          <t>S00377130</t>
         </is>
       </c>
       <c r="M290" t="inlineStr"/>
       <c r="N290" t="n">
-        <v>70959362</v>
+        <v>70954042</v>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>3150833974</t>
+          <t>59365797</t>
         </is>
       </c>
       <c r="P290" s="2" t="n">
-        <v>45961</v>
+        <v>45959</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>10/31/2025 5:43:51 AM</t>
+          <t>10/29/2025 12:50:06 PM</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="S290" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="T290" t="inlineStr"/>
@@ -65467,23 +65465,23 @@
         </is>
       </c>
       <c r="W290" s="2" t="n">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="X290" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
+          <t>TAB5109/37</t>
         </is>
       </c>
       <c r="Y290" t="inlineStr">
         <is>
-          <t>050914402</t>
+          <t>18597408</t>
         </is>
       </c>
       <c r="Z290" t="n">
-        <v>1771</v>
+        <v>40</v>
       </c>
       <c r="AA290" t="n">
-        <v>1771</v>
+        <v>40</v>
       </c>
       <c r="AB290" t="inlineStr"/>
       <c r="AC290" t="inlineStr"/>
@@ -65514,7 +65512,7 @@
       </c>
       <c r="AI290" t="inlineStr">
         <is>
-          <t>A659216</t>
+          <t xml:space="preserve">A659372 </t>
         </is>
       </c>
       <c r="AJ290" t="inlineStr">
@@ -65524,22 +65522,22 @@
       </c>
       <c r="AK290" t="inlineStr">
         <is>
-          <t>TPVWLMT</t>
+          <t>TPVBB</t>
         </is>
       </c>
       <c r="AL290" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="AM290" t="inlineStr">
         <is>
-          <t>10/31/2025 1:00:00 PM</t>
+          <t>11/3/2025 1:18:00 PM</t>
         </is>
       </c>
       <c r="AN290" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="AO290" t="inlineStr">
@@ -65554,7 +65552,7 @@
       </c>
       <c r="AQ290" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR290" t="inlineStr"/>
@@ -65569,37 +65567,37 @@
         </is>
       </c>
       <c r="AU290" t="n">
-        <v>261.6670947916667</v>
+        <v>12.85583472222222</v>
       </c>
       <c r="AV290" t="n">
-        <v>261.6670947916667</v>
+        <v>12.85583472222222</v>
       </c>
       <c r="AW290" t="n">
-        <v>2196.04</v>
+        <v>0</v>
       </c>
       <c r="AX290" t="n">
-        <v>2196.04</v>
+        <v>0</v>
       </c>
       <c r="AY290" t="n">
-        <v>24.5973</v>
+        <v>0.6061</v>
       </c>
       <c r="AZ290" t="inlineStr">
         <is>
-          <t>A659216</t>
+          <t xml:space="preserve">A659372 </t>
         </is>
       </c>
       <c r="BA290" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB290" t="n">
-        <v>840063204546</v>
+        <v>840063203563</v>
       </c>
       <c r="BC290" t="n">
         <v>10000</v>
       </c>
       <c r="BD290" t="inlineStr">
         <is>
-          <t>S00377540-10000</t>
+          <t>S00377130-10000</t>
         </is>
       </c>
     </row>
@@ -65619,74 +65617,72 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="D291" t="n">
-        <v>72</v>
-      </c>
+      <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr">
         <is>
-          <t>WM CANADA</t>
+          <t>BEST BUY CANADA</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>WAL005</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>WAL-MART CANADA CORP</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>6800 MARITZ DRIVE</t>
+          <t>DC#1008, 19890-92A AVE.</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>LANGLEY</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>L5W 1W2</t>
+          <t>V1M 3A9</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>S00377541</t>
+          <t>S00377131</t>
         </is>
       </c>
       <c r="M291" t="inlineStr"/>
       <c r="N291" t="n">
-        <v>70959499</v>
+        <v>70954041</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>4001224463</t>
+          <t>59365796</t>
         </is>
       </c>
       <c r="P291" s="2" t="n">
-        <v>45961</v>
+        <v>45959</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>10/31/2025 5:43:53 AM</t>
+          <t>10/29/2025 12:50:06 PM</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="S291" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="T291" t="inlineStr"/>
@@ -65699,19 +65695,23 @@
         </is>
       </c>
       <c r="W291" s="2" t="n">
-        <v>45961</v>
+        <v>45967</v>
       </c>
       <c r="X291" t="inlineStr">
         <is>
-          <t>TAB4000/37</t>
-        </is>
-      </c>
-      <c r="Y291" t="inlineStr"/>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y291" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
+      </c>
       <c r="Z291" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AA291" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AB291" t="inlineStr"/>
       <c r="AC291" t="inlineStr"/>
@@ -65727,22 +65727,22 @@
       </c>
       <c r="AF291" t="inlineStr">
         <is>
-          <t>FEDEX - GROUND</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AG291" t="inlineStr">
         <is>
-          <t>FEDX</t>
+          <t>18W</t>
         </is>
       </c>
       <c r="AH291" t="inlineStr">
         <is>
-          <t>FEDEX - GROUND</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AI291" t="inlineStr">
         <is>
-          <t>8856 5312 7169</t>
+          <t xml:space="preserve">A659398 </t>
         </is>
       </c>
       <c r="AJ291" t="inlineStr">
@@ -65752,22 +65752,22 @@
       </c>
       <c r="AK291" t="inlineStr">
         <is>
-          <t>TPVWLMT</t>
+          <t>TPVBB</t>
         </is>
       </c>
       <c r="AL291" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="AM291" t="inlineStr">
         <is>
-          <t>10/31/2025 12:30:00 PM</t>
+          <t>11/6/2025 8:13:00 AM</t>
         </is>
       </c>
       <c r="AN291" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="AO291" t="inlineStr">
@@ -65782,7 +65782,7 @@
       </c>
       <c r="AQ291" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR291" t="inlineStr"/>
@@ -65797,37 +65797,37 @@
         </is>
       </c>
       <c r="AU291" t="n">
-        <v>4.43253125</v>
+        <v>3.213958680555556</v>
       </c>
       <c r="AV291" t="n">
-        <v>4.43253125</v>
+        <v>3.213958680555556</v>
       </c>
       <c r="AW291" t="n">
-        <v>37.2</v>
+        <v>0</v>
       </c>
       <c r="AX291" t="n">
-        <v>37.2</v>
+        <v>0</v>
       </c>
       <c r="AY291" t="n">
-        <v>0.4166</v>
+        <v>0.1515</v>
       </c>
       <c r="AZ291" t="inlineStr">
         <is>
-          <t>8856 5312 7169</t>
+          <t xml:space="preserve">A659398 </t>
         </is>
       </c>
       <c r="BA291" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB291" t="n">
-        <v>840063204546</v>
+        <v>840063203563</v>
       </c>
       <c r="BC291" t="n">
         <v>10000</v>
       </c>
       <c r="BD291" t="inlineStr">
         <is>
-          <t>S00377541-10000</t>
+          <t>S00377131-10000</t>
         </is>
       </c>
     </row>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD296"/>
+  <dimension ref="A1:BD297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64723,36 +64723,36 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>DC#1008, 19890-92A AVE.</t>
+          <t>DC#1016, 9200 AIRPORT RD.</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>LANGLEY</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>V1M 3A9</t>
+          <t>L6S 6G6</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>S00375054</t>
+          <t>S00375055</t>
         </is>
       </c>
       <c r="M287" t="inlineStr"/>
       <c r="N287" t="n">
-        <v>70940963</v>
+        <v>70940964</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>59344911</t>
+          <t>59344912</t>
         </is>
       </c>
       <c r="P287" s="2" t="n">
@@ -64760,17 +64760,17 @@
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>10/22/2025 9:51:10 AM</t>
+          <t>10/22/2025 9:51:12 AM</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="T287" t="inlineStr"/>
@@ -64783,7 +64783,7 @@
         </is>
       </c>
       <c r="W287" s="2" t="n">
-        <v>45967</v>
+        <v>45964</v>
       </c>
       <c r="X287" t="inlineStr">
         <is>
@@ -64796,10 +64796,10 @@
         </is>
       </c>
       <c r="Z287" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AA287" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AB287" t="inlineStr"/>
       <c r="AC287" t="inlineStr"/>
@@ -64830,7 +64830,7 @@
       </c>
       <c r="AI287" t="inlineStr">
         <is>
-          <t xml:space="preserve">A659398 </t>
+          <t xml:space="preserve">A659372 </t>
         </is>
       </c>
       <c r="AJ287" t="inlineStr">
@@ -64845,17 +64845,17 @@
       </c>
       <c r="AL287" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="AM287" t="inlineStr">
         <is>
-          <t>11/6/2025 8:13:00 AM</t>
+          <t>11/3/2025 1:18:00 PM</t>
         </is>
       </c>
       <c r="AN287" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6/2025 </t>
+          <t xml:space="preserve">11/3/2025 </t>
         </is>
       </c>
       <c r="AO287" t="inlineStr">
@@ -64885,10 +64885,10 @@
         </is>
       </c>
       <c r="AU287" t="n">
-        <v>6.427917361111111</v>
+        <v>9.641876041666666</v>
       </c>
       <c r="AV287" t="n">
-        <v>6.427917361111111</v>
+        <v>9.641876041666666</v>
       </c>
       <c r="AW287" t="n">
         <v>0</v>
@@ -64897,11 +64897,11 @@
         <v>0</v>
       </c>
       <c r="AY287" t="n">
-        <v>0.303</v>
+        <v>0.4546</v>
       </c>
       <c r="AZ287" t="inlineStr">
         <is>
-          <t xml:space="preserve">A659398 </t>
+          <t xml:space="preserve">A659372 </t>
         </is>
       </c>
       <c r="BA287" t="n">
@@ -64915,7 +64915,7 @@
       </c>
       <c r="BD287" t="inlineStr">
         <is>
-          <t>S00375054-10000</t>
+          <t>S00375055-10000</t>
         </is>
       </c>
     </row>
@@ -64973,24 +64973,24 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>S00375055</t>
+          <t>S00377130</t>
         </is>
       </c>
       <c r="M288" t="inlineStr"/>
       <c r="N288" t="n">
-        <v>70940964</v>
+        <v>70954042</v>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>59344912</t>
+          <t>59365797</t>
         </is>
       </c>
       <c r="P288" s="2" t="n">
-        <v>45952</v>
+        <v>45959</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>10/22/2025 9:51:12 AM</t>
+          <t>10/29/2025 12:50:06 PM</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
@@ -65026,10 +65026,10 @@
         </is>
       </c>
       <c r="Z288" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA288" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB288" t="inlineStr"/>
       <c r="AC288" t="inlineStr"/>
@@ -65115,10 +65115,10 @@
         </is>
       </c>
       <c r="AU288" t="n">
-        <v>9.641876041666666</v>
+        <v>12.85583472222222</v>
       </c>
       <c r="AV288" t="n">
-        <v>9.641876041666666</v>
+        <v>12.85583472222222</v>
       </c>
       <c r="AW288" t="n">
         <v>0</v>
@@ -65127,7 +65127,7 @@
         <v>0</v>
       </c>
       <c r="AY288" t="n">
-        <v>0.4546</v>
+        <v>0.6061</v>
       </c>
       <c r="AZ288" t="inlineStr">
         <is>
@@ -65145,7 +65145,7 @@
       </c>
       <c r="BD288" t="inlineStr">
         <is>
-          <t>S00375055-10000</t>
+          <t>S00377130-10000</t>
         </is>
       </c>
     </row>
@@ -65168,92 +65168,98 @@
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>BEST BUY CANADA</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>JDC001</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>JAACX DISTRIBUTORS CORPORATION</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2275 NW 84th Ave</t>
+          <t>DC#1008, 19890-92A AVE.</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>LANGLEY</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>33122</t>
+          <t>V1M 3A9</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>S00376546</t>
+          <t>S00375054</t>
         </is>
       </c>
       <c r="M289" t="inlineStr"/>
       <c r="N289" t="n">
-        <v>70950747</v>
+        <v>70940963</v>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>3664</t>
+          <t>59344911</t>
         </is>
       </c>
       <c r="P289" s="2" t="n">
-        <v>45958</v>
+        <v>45952</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>10/28/2025 8:11:30 AM</t>
+          <t>10/22/2025 9:51:10 AM</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="S289" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="T289" t="inlineStr"/>
-      <c r="U289" t="inlineStr"/>
+      <c r="U289" s="2" t="n">
+        <v>45964</v>
+      </c>
       <c r="V289" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W289" s="2" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="X289" t="inlineStr">
         <is>
-          <t>TAT1108BK/00</t>
-        </is>
-      </c>
-      <c r="Y289" t="inlineStr"/>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y289" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
+      </c>
       <c r="Z289" t="n">
-        <v>1800</v>
+        <v>20</v>
       </c>
       <c r="AA289" t="n">
-        <v>1800</v>
+        <v>20</v>
       </c>
       <c r="AB289" t="inlineStr"/>
       <c r="AC289" t="inlineStr"/>
@@ -65269,47 +65275,47 @@
       </c>
       <c r="AF289" t="inlineStr">
         <is>
-          <t>Primary Freight Services Inc</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AG289" t="inlineStr">
         <is>
-          <t>PRIMARY</t>
+          <t>18W</t>
         </is>
       </c>
       <c r="AH289" t="inlineStr">
         <is>
-          <t>Primary Freight Services Inc</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AI289" t="inlineStr">
         <is>
-          <t>167 600 183</t>
+          <t xml:space="preserve">A659398 </t>
         </is>
       </c>
       <c r="AJ289" t="inlineStr">
         <is>
-          <t>Prepaid</t>
+          <t>Collect</t>
         </is>
       </c>
       <c r="AK289" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>TPVBB</t>
         </is>
       </c>
       <c r="AL289" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="AM289" t="inlineStr">
         <is>
-          <t>11/5/2025 12:10:00 PM</t>
+          <t>11/6/2025 8:13:00 AM</t>
         </is>
       </c>
       <c r="AN289" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="AO289" t="inlineStr">
@@ -65324,7 +65330,7 @@
       </c>
       <c r="AQ289" t="inlineStr">
         <is>
-          <t>TWS, 6mm driver, 1 AI mic, IPX4, SBC, 15</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR289" t="inlineStr"/>
@@ -65339,10 +65345,10 @@
         </is>
       </c>
       <c r="AU289" t="n">
-        <v>1.102033854166667</v>
+        <v>6.427917361111111</v>
       </c>
       <c r="AV289" t="n">
-        <v>1.102033854166667</v>
+        <v>6.427917361111111</v>
       </c>
       <c r="AW289" t="n">
         <v>0</v>
@@ -65351,23 +65357,25 @@
         <v>0</v>
       </c>
       <c r="AY289" t="n">
-        <v>0.4934</v>
+        <v>0.303</v>
       </c>
       <c r="AZ289" t="inlineStr">
         <is>
-          <t>167 600 183</t>
+          <t xml:space="preserve">A659398 </t>
         </is>
       </c>
       <c r="BA289" t="n">
-        <v>24</v>
-      </c>
-      <c r="BB289" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BB289" t="n">
+        <v>840063203563</v>
+      </c>
       <c r="BC289" t="n">
         <v>10000</v>
       </c>
       <c r="BD289" t="inlineStr">
         <is>
-          <t>S00376546-10000</t>
+          <t>S00375054-10000</t>
         </is>
       </c>
     </row>
@@ -65390,98 +65398,92 @@
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>JDC001</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>JAACX DISTRIBUTORS CORPORATION</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>DC#1016, 9200 AIRPORT RD.</t>
+          <t>2275 NW 84th Ave</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>L6S 6G6</t>
+          <t>33122</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>S00377130</t>
+          <t>S00376546</t>
         </is>
       </c>
       <c r="M290" t="inlineStr"/>
       <c r="N290" t="n">
-        <v>70954042</v>
+        <v>70950747</v>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>59365797</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="P290" s="2" t="n">
-        <v>45959</v>
+        <v>45958</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>10/29/2025 12:50:06 PM</t>
+          <t>10/28/2025 8:11:30 AM</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="S290" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="T290" t="inlineStr"/>
-      <c r="U290" s="2" t="n">
-        <v>45964</v>
-      </c>
+      <c r="U290" t="inlineStr"/>
       <c r="V290" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W290" s="2" t="n">
-        <v>45964</v>
+        <v>45966</v>
       </c>
       <c r="X290" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
-        </is>
-      </c>
-      <c r="Y290" t="inlineStr">
-        <is>
-          <t>18597408</t>
-        </is>
-      </c>
+          <t>TAT1108BK/00</t>
+        </is>
+      </c>
+      <c r="Y290" t="inlineStr"/>
       <c r="Z290" t="n">
-        <v>40</v>
+        <v>1800</v>
       </c>
       <c r="AA290" t="n">
-        <v>40</v>
+        <v>1800</v>
       </c>
       <c r="AB290" t="inlineStr"/>
       <c r="AC290" t="inlineStr"/>
@@ -65497,47 +65499,47 @@
       </c>
       <c r="AF290" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Primary Freight Services Inc</t>
         </is>
       </c>
       <c r="AG290" t="inlineStr">
         <is>
+          <t>PRIMARY</t>
+        </is>
+      </c>
+      <c r="AH290" t="inlineStr">
+        <is>
+          <t>Primary Freight Services Inc</t>
+        </is>
+      </c>
+      <c r="AI290" t="inlineStr">
+        <is>
+          <t>167 600 183</t>
+        </is>
+      </c>
+      <c r="AJ290" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK290" t="inlineStr">
+        <is>
           <t>18W</t>
         </is>
       </c>
-      <c r="AH290" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI290" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A659372 </t>
-        </is>
-      </c>
-      <c r="AJ290" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK290" t="inlineStr">
-        <is>
-          <t>TPVBB</t>
-        </is>
-      </c>
       <c r="AL290" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="AM290" t="inlineStr">
         <is>
-          <t>11/3/2025 1:18:00 PM</t>
+          <t>11/5/2025 12:10:00 PM</t>
         </is>
       </c>
       <c r="AN290" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="AO290" t="inlineStr">
@@ -65552,7 +65554,7 @@
       </c>
       <c r="AQ290" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>TWS, 6mm driver, 1 AI mic, IPX4, SBC, 15</t>
         </is>
       </c>
       <c r="AR290" t="inlineStr"/>
@@ -65567,10 +65569,10 @@
         </is>
       </c>
       <c r="AU290" t="n">
-        <v>12.85583472222222</v>
+        <v>1.102033854166667</v>
       </c>
       <c r="AV290" t="n">
-        <v>12.85583472222222</v>
+        <v>1.102033854166667</v>
       </c>
       <c r="AW290" t="n">
         <v>0</v>
@@ -65579,25 +65581,23 @@
         <v>0</v>
       </c>
       <c r="AY290" t="n">
-        <v>0.6061</v>
+        <v>0.4934</v>
       </c>
       <c r="AZ290" t="inlineStr">
         <is>
-          <t xml:space="preserve">A659372 </t>
+          <t>167 600 183</t>
         </is>
       </c>
       <c r="BA290" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB290" t="n">
-        <v>840063203563</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="BB290" t="inlineStr"/>
       <c r="BC290" t="n">
         <v>10000</v>
       </c>
       <c r="BD290" t="inlineStr">
         <is>
-          <t>S00377130-10000</t>
+          <t>S00376546-10000</t>
         </is>
       </c>
     </row>
@@ -66980,6 +66980,232 @@
       <c r="BD296" t="inlineStr">
         <is>
           <t>S00379914-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>AMAZON.COM, CA INC.</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>109 Braid Street</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>New Westminster</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>V3L 5H4</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>S00380957</t>
+        </is>
+      </c>
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="n">
+        <v>70981383</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>6EZ3VDPZ</t>
+        </is>
+      </c>
+      <c r="P297" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>11/13/2025 9:40:32 AM</t>
+        </is>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/17/2025 </t>
+        </is>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/17/2025 </t>
+        </is>
+      </c>
+      <c r="T297" t="inlineStr"/>
+      <c r="U297" t="inlineStr"/>
+      <c r="V297" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W297" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="X297" t="inlineStr">
+        <is>
+          <t>Q27G3XMN</t>
+        </is>
+      </c>
+      <c r="Y297" t="inlineStr">
+        <is>
+          <t>B0C8ZJKPWC</t>
+        </is>
+      </c>
+      <c r="Z297" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB297" t="inlineStr"/>
+      <c r="AC297" t="inlineStr"/>
+      <c r="AD297" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE297" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF297" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AG297" t="inlineStr">
+        <is>
+          <t>CEVA</t>
+        </is>
+      </c>
+      <c r="AH297" t="inlineStr">
+        <is>
+          <t>CEVA Logistics (USL)</t>
+        </is>
+      </c>
+      <c r="AI297" t="inlineStr">
+        <is>
+          <t>39824464771</t>
+        </is>
+      </c>
+      <c r="AJ297" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK297" t="inlineStr">
+        <is>
+          <t>AMZCSPLT</t>
+        </is>
+      </c>
+      <c r="AL297" s="2" t="n">
+        <v>45978.39166666667</v>
+      </c>
+      <c r="AM297" t="inlineStr">
+        <is>
+          <t>11/17/2025 3:00:00 PM</t>
+        </is>
+      </c>
+      <c r="AN297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/17/2025 </t>
+        </is>
+      </c>
+      <c r="AO297" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP297" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ297" t="inlineStr">
+        <is>
+          <t>AOC 27" Monitor</t>
+        </is>
+      </c>
+      <c r="AR297" t="inlineStr"/>
+      <c r="AS297" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT297" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU297" t="n">
+        <v>221.13678125</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>221.13678125</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>2.7778</v>
+      </c>
+      <c r="AZ297" t="inlineStr">
+        <is>
+          <t>39824464771</t>
+        </is>
+      </c>
+      <c r="BA297" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>685417733583</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD297" t="inlineStr">
+        <is>
+          <t>S00380957-10000</t>
         </is>
       </c>
     </row>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD297"/>
+  <dimension ref="A1:BD300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67209,6 +67209,702 @@
         </is>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>72</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>S00381834</t>
+        </is>
+      </c>
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="n">
+        <v>70986176</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>3850804503</t>
+        </is>
+      </c>
+      <c r="P298" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>11/17/2025 9:56:07 AM</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/18/2025 </t>
+        </is>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/18/2025 </t>
+        </is>
+      </c>
+      <c r="T298" t="inlineStr"/>
+      <c r="U298" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="V298" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W298" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="X298" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y298" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
+      </c>
+      <c r="Z298" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>49</v>
+      </c>
+      <c r="AB298" t="inlineStr"/>
+      <c r="AC298" t="inlineStr"/>
+      <c r="AD298" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE298" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF298" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG298" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH298" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI298" t="inlineStr">
+        <is>
+          <t>A660833</t>
+        </is>
+      </c>
+      <c r="AJ298" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK298" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/18/2025 </t>
+        </is>
+      </c>
+      <c r="AM298" t="inlineStr">
+        <is>
+          <t>11/18/2025 2:15:00 PM</t>
+        </is>
+      </c>
+      <c r="AN298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/18/2025 </t>
+        </is>
+      </c>
+      <c r="AO298" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP298" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ298" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR298" t="inlineStr"/>
+      <c r="AS298" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT298" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU298" t="n">
+        <v>62.84593272222222</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>62.84593272222222</v>
+      </c>
+      <c r="AW298" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX298" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY298" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AZ298" t="inlineStr">
+        <is>
+          <t>A660833</t>
+        </is>
+      </c>
+      <c r="BA298" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB298" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC298" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD298" t="inlineStr">
+        <is>
+          <t>S00381834-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>72</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>S00381834</t>
+        </is>
+      </c>
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="n">
+        <v>70986176</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>3850804503</t>
+        </is>
+      </c>
+      <c r="P299" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>11/17/2025 9:56:07 AM</t>
+        </is>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/18/2025 </t>
+        </is>
+      </c>
+      <c r="S299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/18/2025 </t>
+        </is>
+      </c>
+      <c r="T299" t="inlineStr"/>
+      <c r="U299" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="V299" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W299" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="X299" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y299" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z299" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB299" t="inlineStr"/>
+      <c r="AC299" t="inlineStr"/>
+      <c r="AD299" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE299" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF299" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG299" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH299" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI299" t="inlineStr">
+        <is>
+          <t>A660833</t>
+        </is>
+      </c>
+      <c r="AJ299" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK299" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/18/2025 </t>
+        </is>
+      </c>
+      <c r="AM299" t="inlineStr">
+        <is>
+          <t>11/18/2025 2:15:00 PM</t>
+        </is>
+      </c>
+      <c r="AN299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/18/2025 </t>
+        </is>
+      </c>
+      <c r="AO299" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP299" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ299" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR299" t="inlineStr"/>
+      <c r="AS299" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT299" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU299" t="n">
+        <v>1.182008333333333</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>1.182008333333333</v>
+      </c>
+      <c r="AW299" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="AX299" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="AY299" t="n">
+        <v>0.1111</v>
+      </c>
+      <c r="AZ299" t="inlineStr">
+        <is>
+          <t>A660833</t>
+        </is>
+      </c>
+      <c r="BA299" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB299" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC299" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BD299" t="inlineStr">
+        <is>
+          <t>S00381834-20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>72</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>S00381835</t>
+        </is>
+      </c>
+      <c r="M300" t="inlineStr"/>
+      <c r="N300" t="n">
+        <v>70986175</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>3150834160</t>
+        </is>
+      </c>
+      <c r="P300" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>11/17/2025 9:56:09 AM</t>
+        </is>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/18/2025 </t>
+        </is>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/18/2025 </t>
+        </is>
+      </c>
+      <c r="T300" t="inlineStr"/>
+      <c r="U300" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="V300" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W300" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="X300" t="inlineStr">
+        <is>
+          <t>TAB4500/37</t>
+        </is>
+      </c>
+      <c r="Y300" t="inlineStr">
+        <is>
+          <t>050914401</t>
+        </is>
+      </c>
+      <c r="Z300" t="n">
+        <v>74</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>74</v>
+      </c>
+      <c r="AB300" t="inlineStr"/>
+      <c r="AC300" t="inlineStr"/>
+      <c r="AD300" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE300" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF300" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG300" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH300" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI300" t="inlineStr">
+        <is>
+          <t>A660832</t>
+        </is>
+      </c>
+      <c r="AJ300" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK300" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/18/2025 </t>
+        </is>
+      </c>
+      <c r="AM300" t="inlineStr">
+        <is>
+          <t>11/18/2025 11:11:00 AM</t>
+        </is>
+      </c>
+      <c r="AN300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/18/2025 </t>
+        </is>
+      </c>
+      <c r="AO300" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP300" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ300" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR300" t="inlineStr"/>
+      <c r="AS300" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT300" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU300" t="n">
+        <v>94.91018411111111</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>94.91018411111111</v>
+      </c>
+      <c r="AW300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AZ300" t="inlineStr">
+        <is>
+          <t>A660832</t>
+        </is>
+      </c>
+      <c r="BA300" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB300" t="n">
+        <v>840063204553</v>
+      </c>
+      <c r="BC300" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD300" t="inlineStr">
+        <is>
+          <t>S00381835-10000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -65168,98 +65168,92 @@
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>BES005</t>
+          <t>JDC001</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>BEST BUY CANADA LTD</t>
+          <t>JAACX DISTRIBUTORS CORPORATION</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>DC#1008, 19890-92A AVE.</t>
+          <t>2275 NW 84th Ave</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>LANGLEY</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>V1M 3A9</t>
+          <t>33122</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>S00375054</t>
+          <t>S00376546</t>
         </is>
       </c>
       <c r="M289" t="inlineStr"/>
       <c r="N289" t="n">
-        <v>70940963</v>
+        <v>70950747</v>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>59344911</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="P289" s="2" t="n">
-        <v>45952</v>
+        <v>45958</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>10/22/2025 9:51:10 AM</t>
+          <t>10/28/2025 8:11:30 AM</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="S289" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="T289" t="inlineStr"/>
-      <c r="U289" s="2" t="n">
-        <v>45964</v>
-      </c>
+      <c r="U289" t="inlineStr"/>
       <c r="V289" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W289" s="2" t="n">
-        <v>45967</v>
+        <v>45966</v>
       </c>
       <c r="X289" t="inlineStr">
         <is>
-          <t>TAB5109/37</t>
-        </is>
-      </c>
-      <c r="Y289" t="inlineStr">
-        <is>
-          <t>18597408</t>
-        </is>
-      </c>
+          <t>TAT1108BK/00</t>
+        </is>
+      </c>
+      <c r="Y289" t="inlineStr"/>
       <c r="Z289" t="n">
-        <v>20</v>
+        <v>1800</v>
       </c>
       <c r="AA289" t="n">
-        <v>20</v>
+        <v>1800</v>
       </c>
       <c r="AB289" t="inlineStr"/>
       <c r="AC289" t="inlineStr"/>
@@ -65275,47 +65269,47 @@
       </c>
       <c r="AF289" t="inlineStr">
         <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
+          <t>Primary Freight Services Inc</t>
         </is>
       </c>
       <c r="AG289" t="inlineStr">
         <is>
+          <t>PRIMARY</t>
+        </is>
+      </c>
+      <c r="AH289" t="inlineStr">
+        <is>
+          <t>Primary Freight Services Inc</t>
+        </is>
+      </c>
+      <c r="AI289" t="inlineStr">
+        <is>
+          <t>167 600 183</t>
+        </is>
+      </c>
+      <c r="AJ289" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK289" t="inlineStr">
+        <is>
           <t>18W</t>
         </is>
       </c>
-      <c r="AH289" t="inlineStr">
-        <is>
-          <t>18 WHEELS LOGISTICS LTD.</t>
-        </is>
-      </c>
-      <c r="AI289" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A659398 </t>
-        </is>
-      </c>
-      <c r="AJ289" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AK289" t="inlineStr">
-        <is>
-          <t>TPVBB</t>
-        </is>
-      </c>
       <c r="AL289" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="AM289" t="inlineStr">
         <is>
-          <t>11/6/2025 8:13:00 AM</t>
+          <t>11/5/2025 12:10:00 PM</t>
         </is>
       </c>
       <c r="AN289" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6/2025 </t>
+          <t xml:space="preserve">11/5/2025 </t>
         </is>
       </c>
       <c r="AO289" t="inlineStr">
@@ -65330,7 +65324,7 @@
       </c>
       <c r="AQ289" t="inlineStr">
         <is>
-          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
+          <t>TWS, 6mm driver, 1 AI mic, IPX4, SBC, 15</t>
         </is>
       </c>
       <c r="AR289" t="inlineStr"/>
@@ -65345,10 +65339,10 @@
         </is>
       </c>
       <c r="AU289" t="n">
-        <v>6.427917361111111</v>
+        <v>1.102033854166667</v>
       </c>
       <c r="AV289" t="n">
-        <v>6.427917361111111</v>
+        <v>1.102033854166667</v>
       </c>
       <c r="AW289" t="n">
         <v>0</v>
@@ -65357,25 +65351,23 @@
         <v>0</v>
       </c>
       <c r="AY289" t="n">
-        <v>0.303</v>
+        <v>0.4934</v>
       </c>
       <c r="AZ289" t="inlineStr">
         <is>
-          <t xml:space="preserve">A659398 </t>
+          <t>167 600 183</t>
         </is>
       </c>
       <c r="BA289" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB289" t="n">
-        <v>840063203563</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="BB289" t="inlineStr"/>
       <c r="BC289" t="n">
         <v>10000</v>
       </c>
       <c r="BD289" t="inlineStr">
         <is>
-          <t>S00375054-10000</t>
+          <t>S00376546-10000</t>
         </is>
       </c>
     </row>
@@ -65398,92 +65390,98 @@
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>BEST BUY CANADA</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>JDC001</t>
+          <t>BES005</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>JAACX DISTRIBUTORS CORPORATION</t>
+          <t>BEST BUY CANADA LTD</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2275 NW 84th Ave</t>
+          <t>DC#1008, 19890-92A AVE.</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>LANGLEY</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>33122</t>
+          <t>V1M 3A9</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>S00376546</t>
+          <t>S00375054</t>
         </is>
       </c>
       <c r="M290" t="inlineStr"/>
       <c r="N290" t="n">
-        <v>70950747</v>
+        <v>70940963</v>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>3664</t>
+          <t>59344911</t>
         </is>
       </c>
       <c r="P290" s="2" t="n">
-        <v>45958</v>
+        <v>45952</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>10/28/2025 8:11:30 AM</t>
+          <t>10/22/2025 9:51:10 AM</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="S290" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="T290" t="inlineStr"/>
-      <c r="U290" t="inlineStr"/>
+      <c r="U290" s="2" t="n">
+        <v>45964</v>
+      </c>
       <c r="V290" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W290" s="2" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="X290" t="inlineStr">
         <is>
-          <t>TAT1108BK/00</t>
-        </is>
-      </c>
-      <c r="Y290" t="inlineStr"/>
+          <t>TAB5109/37</t>
+        </is>
+      </c>
+      <c r="Y290" t="inlineStr">
+        <is>
+          <t>18597408</t>
+        </is>
+      </c>
       <c r="Z290" t="n">
-        <v>1800</v>
+        <v>20</v>
       </c>
       <c r="AA290" t="n">
-        <v>1800</v>
+        <v>20</v>
       </c>
       <c r="AB290" t="inlineStr"/>
       <c r="AC290" t="inlineStr"/>
@@ -65499,47 +65497,47 @@
       </c>
       <c r="AF290" t="inlineStr">
         <is>
-          <t>Primary Freight Services Inc</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AG290" t="inlineStr">
         <is>
-          <t>PRIMARY</t>
+          <t>18W</t>
         </is>
       </c>
       <c r="AH290" t="inlineStr">
         <is>
-          <t>Primary Freight Services Inc</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AI290" t="inlineStr">
         <is>
-          <t>167 600 183</t>
+          <t xml:space="preserve">A659398 </t>
         </is>
       </c>
       <c r="AJ290" t="inlineStr">
         <is>
-          <t>Prepaid</t>
+          <t>Collect</t>
         </is>
       </c>
       <c r="AK290" t="inlineStr">
         <is>
-          <t>18W</t>
+          <t>TPVBB</t>
         </is>
       </c>
       <c r="AL290" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="AM290" t="inlineStr">
         <is>
-          <t>11/5/2025 12:10:00 PM</t>
+          <t>11/6/2025 8:13:00 AM</t>
         </is>
       </c>
       <c r="AN290" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5/2025 </t>
+          <t xml:space="preserve">11/6/2025 </t>
         </is>
       </c>
       <c r="AO290" t="inlineStr">
@@ -65554,7 +65552,7 @@
       </c>
       <c r="AQ290" t="inlineStr">
         <is>
-          <t>TWS, 6mm driver, 1 AI mic, IPX4, SBC, 15</t>
+          <t>2.0CH 120W max HDMI ARC, DTS Virtual:X</t>
         </is>
       </c>
       <c r="AR290" t="inlineStr"/>
@@ -65569,10 +65567,10 @@
         </is>
       </c>
       <c r="AU290" t="n">
-        <v>1.102033854166667</v>
+        <v>6.427917361111111</v>
       </c>
       <c r="AV290" t="n">
-        <v>1.102033854166667</v>
+        <v>6.427917361111111</v>
       </c>
       <c r="AW290" t="n">
         <v>0</v>
@@ -65581,23 +65579,25 @@
         <v>0</v>
       </c>
       <c r="AY290" t="n">
-        <v>0.4934</v>
+        <v>0.303</v>
       </c>
       <c r="AZ290" t="inlineStr">
         <is>
-          <t>167 600 183</t>
+          <t xml:space="preserve">A659398 </t>
         </is>
       </c>
       <c r="BA290" t="n">
-        <v>24</v>
-      </c>
-      <c r="BB290" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>840063203563</v>
+      </c>
       <c r="BC290" t="n">
         <v>10000</v>
       </c>
       <c r="BD290" t="inlineStr">
         <is>
-          <t>S00376546-10000</t>
+          <t>S00375054-10000</t>
         </is>
       </c>
     </row>

--- a/master.xlsx
+++ b/master.xlsx
@@ -66366,17 +66366,17 @@
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>11/7/2025 3:43:33 PM</t>
+          <t>2025-11-07 3:43:33 PM</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/10/2025 </t>
+          <t xml:space="preserve">2025-11-10 </t>
         </is>
       </c>
       <c r="S294" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/10/2025 </t>
+          <t xml:space="preserve">2025-11-10 </t>
         </is>
       </c>
       <c r="T294" t="inlineStr"/>
@@ -66449,17 +66449,17 @@
       </c>
       <c r="AL294" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/10/2025 </t>
+          <t xml:space="preserve">2025-11-10 </t>
         </is>
       </c>
       <c r="AM294" t="inlineStr">
         <is>
-          <t>11/10/2025 12:08:00 PM</t>
+          <t>2025-11-10 12:08:00 PM</t>
         </is>
       </c>
       <c r="AN294" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/10/2025 </t>
+          <t xml:space="preserve">2025-11-10 </t>
         </is>
       </c>
       <c r="AO294" t="inlineStr">
@@ -66594,17 +66594,17 @@
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>11/7/2025 3:43:33 PM</t>
+          <t>2025-11-07 3:43:33 PM</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/10/2025 </t>
+          <t xml:space="preserve">2025-11-10 </t>
         </is>
       </c>
       <c r="S295" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/10/2025 </t>
+          <t xml:space="preserve">2025-11-10 </t>
         </is>
       </c>
       <c r="T295" t="inlineStr"/>
@@ -66677,17 +66677,17 @@
       </c>
       <c r="AL295" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/10/2025 </t>
+          <t xml:space="preserve">2025-11-10 </t>
         </is>
       </c>
       <c r="AM295" t="inlineStr">
         <is>
-          <t>11/10/2025 12:08:00 PM</t>
+          <t>2025-11-10 12:08:00 PM</t>
         </is>
       </c>
       <c r="AN295" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/10/2025 </t>
+          <t xml:space="preserve">2025-11-10 </t>
         </is>
       </c>
       <c r="AO295" t="inlineStr">
@@ -66824,17 +66824,17 @@
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>11/10/2025 7:22:16 AM</t>
+          <t>2025-11-10 7:22:16 AM</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/13/2025 </t>
+          <t xml:space="preserve">2025-11-13 </t>
         </is>
       </c>
       <c r="S296" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/13/2025 </t>
+          <t xml:space="preserve">2025-11-13 </t>
         </is>
       </c>
       <c r="T296" t="inlineStr"/>
@@ -66909,17 +66909,17 @@
       </c>
       <c r="AL296" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/13/2025 </t>
+          <t xml:space="preserve">2025-11-13 </t>
         </is>
       </c>
       <c r="AM296" t="inlineStr">
         <is>
-          <t>11/13/2025 2:17:00 PM</t>
+          <t>2025-11-13 2:17:00 PM</t>
         </is>
       </c>
       <c r="AN296" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/13/2025 </t>
+          <t xml:space="preserve">2025-11-13 </t>
         </is>
       </c>
       <c r="AO296" t="inlineStr">
@@ -67054,17 +67054,17 @@
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>11/13/2025 9:40:32 AM</t>
+          <t>2025-11-13 9:40:32 AM</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/17/2025 </t>
+          <t xml:space="preserve">2025-11-17 </t>
         </is>
       </c>
       <c r="S297" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/17/2025 </t>
+          <t xml:space="preserve">2025-11-17 </t>
         </is>
       </c>
       <c r="T297" t="inlineStr"/>
@@ -67140,12 +67140,12 @@
       </c>
       <c r="AM297" t="inlineStr">
         <is>
-          <t>11/17/2025 3:00:00 PM</t>
+          <t>2025-11-17 3:00:00 PM</t>
         </is>
       </c>
       <c r="AN297" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/17/2025 </t>
+          <t xml:space="preserve">2025-11-17 </t>
         </is>
       </c>
       <c r="AO297" t="inlineStr">
@@ -67282,17 +67282,17 @@
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>11/17/2025 9:56:07 AM</t>
+          <t>2025-11-17 9:56:07 AM</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/18/2025 </t>
+          <t xml:space="preserve">2025-11-18 </t>
         </is>
       </c>
       <c r="S298" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/18/2025 </t>
+          <t xml:space="preserve">2025-11-18 </t>
         </is>
       </c>
       <c r="T298" t="inlineStr"/>
@@ -67367,17 +67367,17 @@
       </c>
       <c r="AL298" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/18/2025 </t>
+          <t xml:space="preserve">2025-11-18 </t>
         </is>
       </c>
       <c r="AM298" t="inlineStr">
         <is>
-          <t>11/18/2025 2:15:00 PM</t>
+          <t>2025-11-18 2:15:00 PM</t>
         </is>
       </c>
       <c r="AN298" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/18/2025 </t>
+          <t xml:space="preserve">2025-11-18 </t>
         </is>
       </c>
       <c r="AO298" t="inlineStr">
@@ -67514,17 +67514,17 @@
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>11/17/2025 9:56:07 AM</t>
+          <t>2025-11-17 9:56:07 AM</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/18/2025 </t>
+          <t xml:space="preserve">2025-11-18 </t>
         </is>
       </c>
       <c r="S299" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/18/2025 </t>
+          <t xml:space="preserve">2025-11-18 </t>
         </is>
       </c>
       <c r="T299" t="inlineStr"/>
@@ -67599,17 +67599,17 @@
       </c>
       <c r="AL299" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/18/2025 </t>
+          <t xml:space="preserve">2025-11-18 </t>
         </is>
       </c>
       <c r="AM299" t="inlineStr">
         <is>
-          <t>11/18/2025 2:15:00 PM</t>
+          <t>2025-11-18 2:15:00 PM</t>
         </is>
       </c>
       <c r="AN299" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/18/2025 </t>
+          <t xml:space="preserve">2025-11-18 </t>
         </is>
       </c>
       <c r="AO299" t="inlineStr">
@@ -67746,17 +67746,17 @@
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>11/17/2025 9:56:09 AM</t>
+          <t>2025-11-17 9:56:09 AM</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/18/2025 </t>
+          <t xml:space="preserve">2025-11-18 </t>
         </is>
       </c>
       <c r="S300" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/18/2025 </t>
+          <t xml:space="preserve">2025-11-18 </t>
         </is>
       </c>
       <c r="T300" t="inlineStr"/>
@@ -67831,17 +67831,17 @@
       </c>
       <c r="AL300" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/18/2025 </t>
+          <t xml:space="preserve">2025-11-18 </t>
         </is>
       </c>
       <c r="AM300" t="inlineStr">
         <is>
-          <t>11/18/2025 11:11:00 AM</t>
+          <t>2025-11-18 11:11:00 AM</t>
         </is>
       </c>
       <c r="AN300" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/18/2025 </t>
+          <t xml:space="preserve">2025-11-18 </t>
         </is>
       </c>
       <c r="AO300" t="inlineStr">

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD300"/>
+  <dimension ref="A1:BD302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67905,6 +67905,462 @@
         </is>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>CAN002</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Canada Computers Inc</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>168 Ultimate Drive</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>Richmond Hill</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>L4S 8M8</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>S00382781</t>
+        </is>
+      </c>
+      <c r="M301" t="inlineStr"/>
+      <c r="N301" t="n">
+        <v>70993887</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>PO2511100077</t>
+        </is>
+      </c>
+      <c r="P301" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>2025-11-20 11:55:56 AM</t>
+        </is>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>2025-11-25 3:25:54 PM</t>
+        </is>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>2025-11-25 3:25:54 PM</t>
+        </is>
+      </c>
+      <c r="T301" t="inlineStr"/>
+      <c r="U301" t="inlineStr"/>
+      <c r="V301" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W301" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="X301" t="inlineStr">
+        <is>
+          <t>Q27G3XMN</t>
+        </is>
+      </c>
+      <c r="Y301" t="inlineStr">
+        <is>
+          <t>MTAOC00201</t>
+        </is>
+      </c>
+      <c r="Z301" t="n">
+        <v>96</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>96</v>
+      </c>
+      <c r="AB301" t="inlineStr"/>
+      <c r="AC301" t="inlineStr"/>
+      <c r="AD301" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE301" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF301" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG301" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH301" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A661351 </t>
+        </is>
+      </c>
+      <c r="AJ301" t="inlineStr">
+        <is>
+          <t>Prepaid</t>
+        </is>
+      </c>
+      <c r="AK301" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2025-11-25 </t>
+        </is>
+      </c>
+      <c r="AM301" t="inlineStr">
+        <is>
+          <t>2025-11-25 10:46:00 AM</t>
+        </is>
+      </c>
+      <c r="AN301" t="inlineStr">
+        <is>
+          <t>2025-11-25 3:25:54 PM</t>
+        </is>
+      </c>
+      <c r="AO301" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP301" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ301" t="inlineStr">
+        <is>
+          <t>AOC 27" Monitor</t>
+        </is>
+      </c>
+      <c r="AR301" t="inlineStr"/>
+      <c r="AS301" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT301" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU301" t="n">
+        <v>212.29131</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>212.29131</v>
+      </c>
+      <c r="AW301" t="n">
+        <v>1938.24</v>
+      </c>
+      <c r="AX301" t="n">
+        <v>1938.24</v>
+      </c>
+      <c r="AY301" t="n">
+        <v>2.667</v>
+      </c>
+      <c r="AZ301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A661351 </t>
+        </is>
+      </c>
+      <c r="BA301" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB301" t="n">
+        <v>685417733583</v>
+      </c>
+      <c r="BC301" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD301" t="inlineStr">
+        <is>
+          <t>S00382781-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>AMA002</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>AMAZON.COM SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>6351 Steeles Ave E</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>Scarborough</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>M1X 1N5</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>S00382968</t>
+        </is>
+      </c>
+      <c r="M302" t="inlineStr"/>
+      <c r="N302" t="n">
+        <v>70995967</v>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>275V8IKW</t>
+        </is>
+      </c>
+      <c r="P302" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>2025-11-21 10:45:21 AM</t>
+        </is>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>2025-11-25 3:25:06 PM</t>
+        </is>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>2025-11-25 3:25:06 PM</t>
+        </is>
+      </c>
+      <c r="T302" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="U302" t="inlineStr"/>
+      <c r="V302" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W302" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="X302" t="inlineStr">
+        <is>
+          <t>241V8LB</t>
+        </is>
+      </c>
+      <c r="Y302" t="inlineStr">
+        <is>
+          <t>B0C8ZKV5R9</t>
+        </is>
+      </c>
+      <c r="Z302" t="n">
+        <v>250</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB302" t="inlineStr"/>
+      <c r="AC302" t="inlineStr"/>
+      <c r="AD302" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE302" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF302" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AG302" t="inlineStr">
+        <is>
+          <t>QXTI</t>
+        </is>
+      </c>
+      <c r="AH302" t="inlineStr">
+        <is>
+          <t>T Force Freight Canada</t>
+        </is>
+      </c>
+      <c r="AI302" t="inlineStr">
+        <is>
+          <t>R1615181</t>
+        </is>
+      </c>
+      <c r="AJ302" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK302" t="inlineStr">
+        <is>
+          <t>AMZCSPLT</t>
+        </is>
+      </c>
+      <c r="AL302" s="2" t="n">
+        <v>45986.4375</v>
+      </c>
+      <c r="AM302" t="inlineStr">
+        <is>
+          <t>2025-11-25 3:00:00 PM</t>
+        </is>
+      </c>
+      <c r="AN302" t="inlineStr">
+        <is>
+          <t>2025-11-25 3:25:06 PM</t>
+        </is>
+      </c>
+      <c r="AO302" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP302" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ302" t="inlineStr">
+        <is>
+          <t>23.8 FHD Monitor</t>
+        </is>
+      </c>
+      <c r="AR302" t="inlineStr"/>
+      <c r="AS302" t="inlineStr">
+        <is>
+          <t>TPV-MNT</t>
+        </is>
+      </c>
+      <c r="AT302" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU302" t="n">
+        <v>295.9205092592592</v>
+      </c>
+      <c r="AV302" t="n">
+        <v>295.9205092592592</v>
+      </c>
+      <c r="AW302" t="n">
+        <v>2375</v>
+      </c>
+      <c r="AX302" t="n">
+        <v>2375</v>
+      </c>
+      <c r="AY302" t="n">
+        <v>2.7778</v>
+      </c>
+      <c r="AZ302" t="inlineStr">
+        <is>
+          <t>R1615181</t>
+        </is>
+      </c>
+      <c r="BA302" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB302" t="n">
+        <v>609585256750</v>
+      </c>
+      <c r="BC302" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD302" t="inlineStr">
+        <is>
+          <t>S00382968-10000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD302"/>
+  <dimension ref="A1:BD305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68361,6 +68361,708 @@
         </is>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>72</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>2401 SCM WAY RR 1</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>K6H 7S1</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>S00383384</t>
+        </is>
+      </c>
+      <c r="M303" t="inlineStr"/>
+      <c r="N303" t="n">
+        <v>70999371</v>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>3850804527</t>
+        </is>
+      </c>
+      <c r="P303" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>2025-11-24 7:25:08 AM</t>
+        </is>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>2025-11-26 3:03:30 PM</t>
+        </is>
+      </c>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>2025-11-26 3:03:30 PM</t>
+        </is>
+      </c>
+      <c r="T303" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="U303" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="V303" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W303" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="X303" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y303" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z303" t="n">
+        <v>134</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>134</v>
+      </c>
+      <c r="AB303" t="inlineStr"/>
+      <c r="AC303" t="inlineStr"/>
+      <c r="AD303" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE303" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF303" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG303" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH303" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI303" t="inlineStr">
+        <is>
+          <t>A661465</t>
+        </is>
+      </c>
+      <c r="AJ303" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK303" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2025-11-26 </t>
+        </is>
+      </c>
+      <c r="AM303" t="inlineStr">
+        <is>
+          <t>2025-11-26 12:49:00 PM</t>
+        </is>
+      </c>
+      <c r="AN303" t="inlineStr">
+        <is>
+          <t>2025-11-26 3:03:30 PM</t>
+        </is>
+      </c>
+      <c r="AO303" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP303" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ303" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR303" t="inlineStr"/>
+      <c r="AS303" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT303" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU303" t="n">
+        <v>19.79863958333333</v>
+      </c>
+      <c r="AV303" t="n">
+        <v>19.79863958333333</v>
+      </c>
+      <c r="AW303" t="n">
+        <v>166.16</v>
+      </c>
+      <c r="AX303" t="n">
+        <v>166.16</v>
+      </c>
+      <c r="AY303" t="n">
+        <v>1.8611</v>
+      </c>
+      <c r="AZ303" t="inlineStr">
+        <is>
+          <t>A661465</t>
+        </is>
+      </c>
+      <c r="BA303" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB303" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC303" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD303" t="inlineStr">
+        <is>
+          <t>S00383384-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>72</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>3400 - 39TH AVENUE N.E.</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>CALGARY</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>T1Y 7J4</t>
+        </is>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>S00383385</t>
+        </is>
+      </c>
+      <c r="M304" t="inlineStr"/>
+      <c r="N304" t="n">
+        <v>70999369</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>3150834189</t>
+        </is>
+      </c>
+      <c r="P304" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>2025-11-24 7:25:10 AM</t>
+        </is>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>2025-11-26 3:06:52 PM</t>
+        </is>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>2025-11-26 3:06:52 PM</t>
+        </is>
+      </c>
+      <c r="T304" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="U304" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="V304" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W304" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="X304" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y304" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z304" t="n">
+        <v>82</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>82</v>
+      </c>
+      <c r="AB304" t="inlineStr"/>
+      <c r="AC304" t="inlineStr"/>
+      <c r="AD304" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE304" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF304" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG304" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH304" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A656366 </t>
+        </is>
+      </c>
+      <c r="AJ304" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK304" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2025-11-26 </t>
+        </is>
+      </c>
+      <c r="AM304" t="inlineStr">
+        <is>
+          <t>2025-11-26 9:48:00 AM</t>
+        </is>
+      </c>
+      <c r="AN304" t="inlineStr">
+        <is>
+          <t>2025-11-26 3:06:52 PM</t>
+        </is>
+      </c>
+      <c r="AO304" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP304" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ304" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR304" t="inlineStr"/>
+      <c r="AS304" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT304" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU304" t="n">
+        <v>12.11558541666667</v>
+      </c>
+      <c r="AV304" t="n">
+        <v>12.11558541666667</v>
+      </c>
+      <c r="AW304" t="n">
+        <v>101.68</v>
+      </c>
+      <c r="AX304" t="n">
+        <v>101.68</v>
+      </c>
+      <c r="AY304" t="n">
+        <v>1.1389</v>
+      </c>
+      <c r="AZ304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A656366 </t>
+        </is>
+      </c>
+      <c r="BA304" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB304" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC304" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD304" t="inlineStr">
+        <is>
+          <t>S00383385-10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>18W-CAN</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>TPVISION</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>72</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>WM CANADA</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>WAL005</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>WAL-MART CANADA CORP</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>6800 MARITZ DRIVE</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>L5W 1W2</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>S00383386</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr"/>
+      <c r="N305" t="n">
+        <v>70999370</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>4001224689</t>
+        </is>
+      </c>
+      <c r="P305" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>2025-11-24 7:25:12 AM</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>2025-11-26 3:07:08 PM</t>
+        </is>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>2025-11-26 3:07:08 PM</t>
+        </is>
+      </c>
+      <c r="T305" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="U305" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="V305" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="W305" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="X305" t="inlineStr">
+        <is>
+          <t>TAB4000/37</t>
+        </is>
+      </c>
+      <c r="Y305" t="inlineStr">
+        <is>
+          <t>050914402</t>
+        </is>
+      </c>
+      <c r="Z305" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB305" t="inlineStr"/>
+      <c r="AC305" t="inlineStr"/>
+      <c r="AD305" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AE305" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF305" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AG305" t="inlineStr">
+        <is>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AH305" t="inlineStr">
+        <is>
+          <t>18 WHEELS LOGISTICS LTD.</t>
+        </is>
+      </c>
+      <c r="AI305" t="inlineStr">
+        <is>
+          <t>A656369</t>
+        </is>
+      </c>
+      <c r="AJ305" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AK305" t="inlineStr">
+        <is>
+          <t>TPVWLMT</t>
+        </is>
+      </c>
+      <c r="AL305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2025-11-26 </t>
+        </is>
+      </c>
+      <c r="AM305" t="inlineStr">
+        <is>
+          <t>2025-11-26 9:48:00 AM</t>
+        </is>
+      </c>
+      <c r="AN305" t="inlineStr">
+        <is>
+          <t>2025-11-26 3:07:08 PM</t>
+        </is>
+      </c>
+      <c r="AO305" t="inlineStr">
+        <is>
+          <t>18 Wheels</t>
+        </is>
+      </c>
+      <c r="AP305" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="AQ305" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="AR305" t="inlineStr"/>
+      <c r="AS305" t="inlineStr">
+        <is>
+          <t>TPV-AVA</t>
+        </is>
+      </c>
+      <c r="AT305" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="AU305" t="n">
+        <v>6.501045833333333</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>6.501045833333333</v>
+      </c>
+      <c r="AW305" t="n">
+        <v>54.56</v>
+      </c>
+      <c r="AX305" t="n">
+        <v>54.56</v>
+      </c>
+      <c r="AY305" t="n">
+        <v>0.6111</v>
+      </c>
+      <c r="AZ305" t="inlineStr">
+        <is>
+          <t>A656369</t>
+        </is>
+      </c>
+      <c r="BA305" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB305" t="n">
+        <v>840063204546</v>
+      </c>
+      <c r="BC305" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD305" t="inlineStr">
+        <is>
+          <t>S00383386-10000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD305"/>
+  <dimension ref="A1:BD306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68152,98 +68152,98 @@
       <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>AMA002</t>
+          <t>CAN002</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>AMAZON.COM SERVICES, INC.</t>
+          <t>Canada Computers, Inc.</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>6351 Steeles Ave E</t>
+          <t>5549 Kingsway</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Scarborough</t>
+          <t>Burnaby</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>M1X 1N5</t>
+          <t>V5H 2G3</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>S00382968</t>
+          <t>S00382782</t>
         </is>
       </c>
       <c r="M302" t="inlineStr"/>
       <c r="N302" t="n">
-        <v>70995967</v>
+        <v>70993886</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>275V8IKW</t>
+          <t>PO2511100076</t>
         </is>
       </c>
       <c r="P302" s="2" t="n">
-        <v>45982</v>
+        <v>45981</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>2025-11-21 10:45:21 AM</t>
+          <t>2025-11-20 11:55:57 AM</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>2025-11-25 3:25:06 PM</t>
+          <t>2025-11-28 1:33:32 PM</t>
         </is>
       </c>
       <c r="S302" t="inlineStr">
         <is>
-          <t>2025-11-25 3:25:06 PM</t>
-        </is>
-      </c>
-      <c r="T302" s="2" t="n">
-        <v>45999</v>
-      </c>
-      <c r="U302" t="inlineStr"/>
+          <t>2025-11-28 1:33:32 PM</t>
+        </is>
+      </c>
+      <c r="T302" t="inlineStr"/>
+      <c r="U302" s="2" t="n">
+        <v>45980</v>
+      </c>
       <c r="V302" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
       <c r="W302" s="2" t="n">
-        <v>45986</v>
+        <v>45989</v>
       </c>
       <c r="X302" t="inlineStr">
         <is>
-          <t>241V8LB</t>
+          <t>Q27G3XMN</t>
         </is>
       </c>
       <c r="Y302" t="inlineStr">
         <is>
-          <t>B0C8ZKV5R9</t>
+          <t>MTAOC00201</t>
         </is>
       </c>
       <c r="Z302" t="n">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="AA302" t="n">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="AB302" t="inlineStr"/>
       <c r="AC302" t="inlineStr"/>
@@ -68259,45 +68259,47 @@
       </c>
       <c r="AF302" t="inlineStr">
         <is>
-          <t>T Force Freight Canada</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AG302" t="inlineStr">
         <is>
-          <t>QXTI</t>
+          <t>18W</t>
         </is>
       </c>
       <c r="AH302" t="inlineStr">
         <is>
-          <t>T Force Freight Canada</t>
+          <t>18 WHEELS LOGISTICS LTD.</t>
         </is>
       </c>
       <c r="AI302" t="inlineStr">
         <is>
-          <t>R1615181</t>
+          <t xml:space="preserve">A661394 </t>
         </is>
       </c>
       <c r="AJ302" t="inlineStr">
         <is>
-          <t>Collect</t>
+          <t>Prepaid</t>
         </is>
       </c>
       <c r="AK302" t="inlineStr">
         <is>
-          <t>AMZCSPLT</t>
-        </is>
-      </c>
-      <c r="AL302" s="2" t="n">
-        <v>45986.4375</v>
+          <t>18W</t>
+        </is>
+      </c>
+      <c r="AL302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2025-11-28 </t>
+        </is>
       </c>
       <c r="AM302" t="inlineStr">
         <is>
-          <t>2025-11-25 3:00:00 PM</t>
+          <t>2025-11-28 11:40:00 AM</t>
         </is>
       </c>
       <c r="AN302" t="inlineStr">
         <is>
-          <t>2025-11-25 3:25:06 PM</t>
+          <t>2025-11-28 1:33:32 PM</t>
         </is>
       </c>
       <c r="AO302" t="inlineStr">
@@ -68312,7 +68314,7 @@
       </c>
       <c r="AQ302" t="inlineStr">
         <is>
-          <t>23.8 FHD Monitor</t>
+          <t>AOC 27" Monitor</t>
         </is>
       </c>
       <c r="AR302" t="inlineStr"/>
@@ -68327,37 +68329,37 @@
         </is>
       </c>
       <c r="AU302" t="n">
-        <v>295.9205092592592</v>
+        <v>70.76376999999999</v>
       </c>
       <c 